--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7C8A04-CDCA-4244-A2D6-341986970192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277774C9-C3AB-4A45-9BD1-E0C110291C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23200" yWindow="-23500" windowWidth="38400" windowHeight="23500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$239</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="283">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -415,9 +415,6 @@
     <t>Service Catalog</t>
   </si>
   <si>
-    <t>Single Sign-On</t>
-  </si>
-  <si>
     <t>Step Functions</t>
   </si>
   <si>
@@ -866,6 +863,21 @@
   </si>
   <si>
     <t>https://github.com/corbuno/aws-services-crib-sheet</t>
+  </si>
+  <si>
+    <t>Managed Service for Prometheus (AMP)</t>
+  </si>
+  <si>
+    <t>Single Sign-On (SSO)</t>
+  </si>
+  <si>
+    <t>Directory Service - Managed Microsoft AD</t>
+  </si>
+  <si>
+    <t>Directory Service - AD Connector</t>
+  </si>
+  <si>
+    <t>Directory Service - Simple AD</t>
   </si>
 </sst>
 </file>
@@ -1596,11 +1608,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:Q239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
@@ -1636,43 +1648,43 @@
         <v>5</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="55" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="J1" s="55" t="s">
+      <c r="L1" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="M1" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="57" t="s">
+      <c r="P1" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" s="57" t="s">
         <v>241</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1714,7 +1726,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -1739,7 +1751,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -1770,7 +1782,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
@@ -1797,7 +1809,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -1849,7 +1861,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -1876,7 +1888,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -1909,7 +1921,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -1942,7 +1954,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
@@ -1975,7 +1987,7 @@
         <v>53</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -2029,7 +2041,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>53</v>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>6</v>
@@ -2162,7 +2174,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>53</v>
@@ -2187,13 +2199,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D20" s="49"/>
       <c r="E20" s="49"/>
@@ -2212,7 +2224,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>53</v>
@@ -2237,13 +2249,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D22" s="49"/>
       <c r="E22" s="49"/>
@@ -2284,13 +2296,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -2331,13 +2343,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="49"/>
@@ -2356,13 +2368,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
@@ -2387,13 +2399,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>196</v>
       </c>
       <c r="D26" s="49"/>
       <c r="E26" s="49"/>
@@ -2414,11 +2426,11 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
@@ -2437,7 +2449,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>6</v>
@@ -2462,7 +2474,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>53</v>
@@ -2487,13 +2499,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B30" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="49"/>
@@ -2512,13 +2524,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="49"/>
@@ -2537,13 +2549,13 @@
     </row>
     <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="49"/>
       <c r="E32" s="50"/>
@@ -2599,7 +2611,7 @@
         <v>53</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="49"/>
@@ -2675,7 +2687,7 @@
         <v>53</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="49"/>
@@ -2869,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="49"/>
@@ -2888,13 +2900,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D43" s="49"/>
       <c r="E43" s="49"/>
@@ -2913,13 +2925,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>181</v>
       </c>
       <c r="D44" s="49"/>
       <c r="E44" s="49"/>
@@ -2938,13 +2950,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" s="49"/>
       <c r="E45" s="49"/>
@@ -2963,13 +2975,13 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="49"/>
       <c r="E46" s="49"/>
@@ -2996,13 +3008,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="49"/>
@@ -3029,7 +3041,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
@@ -3060,13 +3072,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>42</v>
+        <v>278</v>
       </c>
       <c r="D49" s="49"/>
       <c r="E49" s="49"/>
@@ -3085,11 +3097,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50" s="15"/>
+        <v>178</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C50" s="16" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="D50" s="49"/>
       <c r="E50" s="49"/>
@@ -3107,21 +3121,17 @@
       <c r="Q50" s="17"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>13</v>
+      <c r="A51" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="49"/>
       <c r="F51" s="49"/>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
+      <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="17"/>
@@ -3135,18 +3145,20 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
       <c r="F52" s="49"/>
-      <c r="G52" s="17"/>
+      <c r="G52" s="17">
+        <v>1</v>
+      </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
       <c r="J52" s="17"/>
@@ -3160,20 +3172,18 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
       <c r="F53" s="49"/>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
+      <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
@@ -3187,13 +3197,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>243</v>
       </c>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
@@ -3214,11 +3224,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="12"/>
+        <v>190</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C55" s="13" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -3226,14 +3238,10 @@
       <c r="G55" s="17">
         <v>1</v>
       </c>
-      <c r="H55" s="17">
-        <v>1</v>
-      </c>
+      <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
-      <c r="K55" s="17">
-        <v>1</v>
-      </c>
+      <c r="K55" s="17"/>
       <c r="L55" s="17"/>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
@@ -3242,23 +3250,27 @@
       <c r="Q55" s="17"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>33</v>
+      <c r="A56" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
       <c r="F56" s="49"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1</v>
+      </c>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
+      <c r="K56" s="17">
+        <v>1</v>
+      </c>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
@@ -3268,20 +3280,18 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D57" s="49"/>
       <c r="E57" s="49"/>
       <c r="F57" s="49"/>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3295,13 +3305,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
@@ -3321,19 +3331,21 @@
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>30</v>
+      <c r="A59" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="D59" s="49"/>
       <c r="E59" s="49"/>
       <c r="F59" s="49"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -3347,13 +3359,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="D60" s="49"/>
       <c r="E60" s="49"/>
@@ -3372,13 +3384,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="D61" s="49"/>
       <c r="E61" s="49"/>
@@ -3397,36 +3409,28 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>28</v>
+        <v>220</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>53</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="D62" s="49"/>
       <c r="E62" s="49"/>
       <c r="F62" s="49"/>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
-      <c r="H62" s="17">
-        <v>1</v>
-      </c>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="17">
-        <v>1</v>
-      </c>
+      <c r="K62" s="17"/>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
-      <c r="Q62" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q62" s="17"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
@@ -3436,7 +3440,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="D63" s="49"/>
       <c r="E63" s="49"/>
@@ -3444,17 +3448,25 @@
       <c r="G63" s="17">
         <v>1</v>
       </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="17"/>
+      <c r="H63" s="17">
+        <v>1</v>
+      </c>
+      <c r="I63" s="17">
+        <v>1</v>
+      </c>
+      <c r="J63" s="17">
+        <v>1</v>
+      </c>
+      <c r="K63" s="17">
+        <v>1</v>
+      </c>
+      <c r="L63" s="17">
+        <v>1</v>
+      </c>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
-      <c r="P63" s="17">
-        <v>1</v>
-      </c>
+      <c r="P63" s="17"/>
       <c r="Q63" s="17">
         <v>1</v>
       </c>
@@ -3467,7 +3479,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="D64" s="49"/>
       <c r="E64" s="49"/>
@@ -3475,30 +3487,14 @@
       <c r="G64" s="17">
         <v>1</v>
       </c>
-      <c r="H64" s="17">
-        <v>1</v>
-      </c>
-      <c r="I64" s="17">
-        <v>1</v>
-      </c>
-      <c r="J64" s="17">
-        <v>1</v>
-      </c>
-      <c r="K64" s="17">
-        <v>1</v>
-      </c>
-      <c r="L64" s="17">
-        <v>1</v>
-      </c>
-      <c r="M64" s="17">
-        <v>1</v>
-      </c>
-      <c r="N64" s="17">
-        <v>1</v>
-      </c>
-      <c r="O64" s="17">
-        <v>1</v>
-      </c>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
       <c r="P64" s="17">
         <v>1</v>
       </c>
@@ -3514,7 +3510,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" s="49"/>
       <c r="E65" s="49"/>
@@ -3528,15 +3524,27 @@
       <c r="I65" s="17">
         <v>1</v>
       </c>
-      <c r="J65" s="17"/>
+      <c r="J65" s="17">
+        <v>1</v>
+      </c>
       <c r="K65" s="17">
         <v>1</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
+      <c r="L65" s="17">
+        <v>1</v>
+      </c>
+      <c r="M65" s="17">
+        <v>1</v>
+      </c>
+      <c r="N65" s="17">
+        <v>1</v>
+      </c>
+      <c r="O65" s="17">
+        <v>1</v>
+      </c>
+      <c r="P65" s="17">
+        <v>1</v>
+      </c>
       <c r="Q65" s="17">
         <v>1</v>
       </c>
@@ -3549,16 +3557,24 @@
         <v>53</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="D66" s="49"/>
       <c r="E66" s="49"/>
       <c r="F66" s="49"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
+      <c r="H66" s="17">
+        <v>1</v>
+      </c>
+      <c r="I66" s="17">
+        <v>1</v>
+      </c>
       <c r="J66" s="17"/>
-      <c r="K66" s="17"/>
+      <c r="K66" s="17">
+        <v>1</v>
+      </c>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
@@ -3576,14 +3592,12 @@
         <v>53</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D67" s="49"/>
       <c r="E67" s="49"/>
       <c r="F67" s="49"/>
-      <c r="G67" s="17">
-        <v>1</v>
-      </c>
+      <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -3605,7 +3619,7 @@
         <v>53</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="D68" s="49"/>
       <c r="E68" s="49"/>
@@ -3634,7 +3648,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D69" s="49"/>
       <c r="E69" s="49"/>
@@ -3642,14 +3656,10 @@
       <c r="G69" s="17">
         <v>1</v>
       </c>
-      <c r="H69" s="17">
-        <v>1</v>
-      </c>
+      <c r="H69" s="17"/>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
-      <c r="K69" s="17">
-        <v>1</v>
-      </c>
+      <c r="K69" s="17"/>
       <c r="L69" s="17"/>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
@@ -3667,16 +3677,22 @@
         <v>53</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="D70" s="49"/>
       <c r="E70" s="49"/>
       <c r="F70" s="49"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
+      <c r="G70" s="17">
+        <v>1</v>
+      </c>
+      <c r="H70" s="17">
+        <v>1</v>
+      </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="17"/>
+      <c r="K70" s="17">
+        <v>1</v>
+      </c>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
@@ -3688,13 +3704,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>222</v>
+        <v>28</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="49"/>
@@ -3709,17 +3725,19 @@
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="Q71" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="D72" s="49"/>
       <c r="E72" s="49"/>
@@ -3738,13 +3756,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B73" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>15</v>
+        <v>224</v>
       </c>
       <c r="D73" s="49"/>
       <c r="E73" s="49"/>
@@ -3763,13 +3781,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="49"/>
@@ -3788,13 +3806,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>19</v>
+        <v>223</v>
       </c>
       <c r="D75" s="49"/>
       <c r="E75" s="49"/>
@@ -3813,22 +3831,20 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B76" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="49"/>
       <c r="F76" s="49"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
-      <c r="I76" s="17">
-        <v>1</v>
-      </c>
+      <c r="I76" s="17"/>
       <c r="J76" s="17"/>
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
@@ -3840,13 +3856,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B77" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="49"/>
@@ -3867,13 +3883,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" s="49"/>
       <c r="E78" s="49"/>
@@ -3894,20 +3910,22 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D79" s="49"/>
       <c r="E79" s="49"/>
       <c r="F79" s="49"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
+      <c r="I79" s="17">
+        <v>1</v>
+      </c>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -3919,22 +3937,20 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="49"/>
       <c r="F80" s="49"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
-      <c r="I80" s="17">
-        <v>1</v>
-      </c>
+      <c r="I80" s="17"/>
       <c r="J80" s="17"/>
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
@@ -3946,20 +3962,22 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D81" s="49"/>
       <c r="E81" s="49"/>
       <c r="F81" s="49"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
+      <c r="I81" s="17">
+        <v>1</v>
+      </c>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -3971,20 +3989,18 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="D82" s="49"/>
       <c r="E82" s="49"/>
       <c r="F82" s="49"/>
-      <c r="G82" s="17">
-        <v>1</v>
-      </c>
+      <c r="G82" s="17"/>
       <c r="H82" s="17"/>
       <c r="I82" s="17"/>
       <c r="J82" s="17"/>
@@ -3998,18 +4014,20 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D83" s="49"/>
       <c r="E83" s="49"/>
       <c r="F83" s="49"/>
-      <c r="G83" s="17"/>
+      <c r="G83" s="17">
+        <v>1</v>
+      </c>
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
       <c r="J83" s="17"/>
@@ -4023,13 +4041,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>198</v>
       </c>
       <c r="D84" s="49"/>
       <c r="E84" s="49"/>
@@ -4048,13 +4066,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B85" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="D85" s="49"/>
       <c r="E85" s="49"/>
@@ -4073,13 +4091,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="D86" s="49"/>
       <c r="E86" s="49"/>
@@ -4098,13 +4116,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>227</v>
+        <v>157</v>
       </c>
       <c r="D87" s="49"/>
       <c r="E87" s="49"/>
@@ -4123,22 +4141,20 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
       <c r="F88" s="49"/>
       <c r="G88" s="17"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="17">
-        <v>1</v>
-      </c>
+      <c r="I88" s="17"/>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
@@ -4149,21 +4165,23 @@
       <c r="Q88" s="17"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="26" t="s">
-        <v>230</v>
+      <c r="A89" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="49"/>
       <c r="F89" s="49"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="17">
+        <v>1</v>
+      </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -4175,13 +4193,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="26" t="s">
         <v>229</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>88</v>
       </c>
       <c r="D90" s="49"/>
       <c r="E90" s="49"/>
@@ -4200,13 +4218,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B91" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="26" t="s">
-        <v>228</v>
+      <c r="C91" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="D91" s="49"/>
       <c r="E91" s="49"/>
@@ -4224,14 +4242,14 @@
       <c r="Q91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>68</v>
+      <c r="A92" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="D92" s="49"/>
       <c r="E92" s="49"/>
@@ -4250,13 +4268,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D93" s="49"/>
       <c r="E93" s="49"/>
@@ -4275,13 +4293,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D94" s="49"/>
       <c r="E94" s="49"/>
@@ -4299,12 +4317,14 @@
       <c r="Q94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" s="30"/>
-      <c r="C95" s="31" t="s">
-        <v>3</v>
+      <c r="A95" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D95" s="49"/>
       <c r="E95" s="49"/>
@@ -4325,11 +4345,9 @@
       <c r="A96" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="32" t="s">
-        <v>6</v>
-      </c>
+      <c r="B96" s="30"/>
       <c r="C96" s="31" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D96" s="49"/>
       <c r="E96" s="49"/>
@@ -4354,7 +4372,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D97" s="49"/>
       <c r="E97" s="49"/>
@@ -4379,7 +4397,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
@@ -4404,7 +4422,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
@@ -4429,7 +4447,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D100" s="49"/>
       <c r="E100" s="49"/>
@@ -4454,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
@@ -4479,7 +4497,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
@@ -4504,7 +4522,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="D103" s="49"/>
       <c r="E103" s="49"/>
@@ -4551,10 +4569,10 @@
         <v>35</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="D105" s="49"/>
       <c r="E105" s="49"/>
@@ -4572,14 +4590,14 @@
       <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>136</v>
+      <c r="A106" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="D106" s="49"/>
       <c r="E106" s="49"/>
@@ -4592,21 +4610,19 @@
       <c r="L106" s="17"/>
       <c r="M106" s="17"/>
       <c r="N106" s="17"/>
-      <c r="O106" s="17">
-        <v>1</v>
-      </c>
+      <c r="O106" s="17"/>
       <c r="P106" s="17"/>
       <c r="Q106" s="17"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B107" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -4627,13 +4643,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B108" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -4654,13 +4670,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>180</v>
+        <v>53</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>213</v>
+        <v>137</v>
       </c>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -4681,13 +4697,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D110" s="49"/>
       <c r="E110" s="49"/>
@@ -4708,13 +4724,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D111" s="49"/>
       <c r="E111" s="49"/>
@@ -4735,13 +4751,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -4762,13 +4778,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="D113" s="49"/>
       <c r="E113" s="49"/>
@@ -4789,13 +4805,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B114" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D114" s="49"/>
       <c r="E114" s="49"/>
@@ -4816,13 +4832,13 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B115" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="49"/>
@@ -4843,13 +4859,13 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B116" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="D116" s="49"/>
       <c r="E116" s="49"/>
@@ -4870,13 +4886,13 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B117" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D117" s="49"/>
       <c r="E117" s="49"/>
@@ -4897,13 +4913,13 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="D118" s="49"/>
       <c r="E118" s="49"/>
@@ -4924,13 +4940,13 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="D119" s="49"/>
       <c r="E119" s="49"/>
@@ -4951,13 +4967,13 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B120" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" s="49"/>
       <c r="E120" s="49"/>
@@ -4978,13 +4994,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D121" s="49"/>
       <c r="E121" s="49"/>
@@ -5005,13 +5021,13 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B122" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D122" s="49"/>
       <c r="E122" s="49"/>
@@ -5032,13 +5048,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="49"/>
@@ -5059,13 +5075,13 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B124" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D124" s="49"/>
       <c r="E124" s="49"/>
@@ -5086,13 +5102,13 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B125" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
@@ -5113,13 +5129,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D126" s="49"/>
       <c r="E126" s="49"/>
@@ -5140,13 +5156,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B127" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="D127" s="49"/>
       <c r="E127" s="49"/>
@@ -5167,13 +5183,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B128" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D128" s="49"/>
       <c r="E128" s="49"/>
@@ -5194,13 +5210,13 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="D129" s="49"/>
       <c r="E129" s="49"/>
@@ -5221,13 +5237,13 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D130" s="49"/>
       <c r="E130" s="49"/>
@@ -5248,13 +5264,13 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D131" s="49"/>
       <c r="E131" s="49"/>
@@ -5275,13 +5291,13 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B132" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D132" s="49"/>
       <c r="E132" s="49"/>
@@ -5302,13 +5318,13 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B133" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D133" s="49"/>
       <c r="E133" s="49"/>
@@ -5329,13 +5345,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B134" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D134" s="49"/>
       <c r="E134" s="49"/>
@@ -5356,13 +5372,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B135" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D135" s="49"/>
       <c r="E135" s="49"/>
@@ -5383,13 +5399,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B136" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D136" s="49"/>
       <c r="E136" s="49"/>
@@ -5410,13 +5426,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B137" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D137" s="49"/>
       <c r="E137" s="49"/>
@@ -5437,13 +5453,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B138" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="D138" s="49"/>
       <c r="E138" s="49"/>
@@ -5464,13 +5480,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B139" s="27" t="s">
         <v>53</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D139" s="49"/>
       <c r="E139" s="49"/>
@@ -5490,31 +5506,29 @@
       <c r="Q139" s="17"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="35" t="s">
-        <v>91</v>
+      <c r="A140" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="D140" s="49"/>
       <c r="E140" s="49"/>
       <c r="F140" s="49"/>
       <c r="G140" s="17"/>
-      <c r="H140" s="17">
-        <v>1</v>
-      </c>
+      <c r="H140" s="17"/>
       <c r="I140" s="17"/>
       <c r="J140" s="17"/>
-      <c r="K140" s="17">
-        <v>1</v>
-      </c>
+      <c r="K140" s="17"/>
       <c r="L140" s="17"/>
       <c r="M140" s="17"/>
       <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
+      <c r="O140" s="17">
+        <v>1</v>
+      </c>
       <c r="P140" s="17"/>
       <c r="Q140" s="17"/>
     </row>
@@ -5526,16 +5540,20 @@
         <v>6</v>
       </c>
       <c r="C141" s="35" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D141" s="49"/>
       <c r="E141" s="49"/>
       <c r="F141" s="49"/>
       <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
+      <c r="H141" s="17">
+        <v>1</v>
+      </c>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
+      <c r="K141" s="17">
+        <v>1</v>
+      </c>
       <c r="L141" s="17"/>
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
@@ -5551,44 +5569,22 @@
         <v>6</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D142" s="49"/>
       <c r="E142" s="49"/>
       <c r="F142" s="49"/>
-      <c r="G142" s="17">
-        <v>1</v>
-      </c>
-      <c r="H142" s="17">
-        <v>1</v>
-      </c>
-      <c r="I142" s="17">
-        <v>1</v>
-      </c>
-      <c r="J142" s="17">
-        <v>1</v>
-      </c>
-      <c r="K142" s="17">
-        <v>1</v>
-      </c>
-      <c r="L142" s="17">
-        <v>1</v>
-      </c>
-      <c r="M142" s="17">
-        <v>1</v>
-      </c>
-      <c r="N142" s="17">
-        <v>1</v>
-      </c>
-      <c r="O142" s="17">
-        <v>1</v>
-      </c>
-      <c r="P142" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q142" s="17">
-        <v>1</v>
-      </c>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+      <c r="O142" s="17"/>
+      <c r="P142" s="17"/>
+      <c r="Q142" s="17"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="33" t="s">
@@ -5598,7 +5594,7 @@
         <v>6</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D143" s="49"/>
       <c r="E143" s="49"/>
@@ -5612,28 +5608,40 @@
       <c r="I143" s="17">
         <v>1</v>
       </c>
-      <c r="J143" s="17"/>
+      <c r="J143" s="17">
+        <v>1</v>
+      </c>
       <c r="K143" s="17">
         <v>1</v>
       </c>
-      <c r="L143" s="17"/>
+      <c r="L143" s="17">
+        <v>1</v>
+      </c>
       <c r="M143" s="17">
         <v>1</v>
       </c>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+      <c r="N143" s="17">
+        <v>1</v>
+      </c>
+      <c r="O143" s="17">
+        <v>1</v>
+      </c>
+      <c r="P143" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D144" s="49"/>
       <c r="E144" s="49"/>
@@ -5647,55 +5655,65 @@
       <c r="I144" s="17">
         <v>1</v>
       </c>
-      <c r="J144" s="17">
-        <v>1</v>
-      </c>
+      <c r="J144" s="17"/>
       <c r="K144" s="17">
         <v>1</v>
       </c>
-      <c r="L144" s="17">
-        <v>1</v>
-      </c>
+      <c r="L144" s="17"/>
       <c r="M144" s="17">
         <v>1</v>
       </c>
-      <c r="N144" s="17">
-        <v>1</v>
-      </c>
-      <c r="O144" s="17">
-        <v>1</v>
-      </c>
-      <c r="P144" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="17">
-        <v>1</v>
-      </c>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D145" s="49"/>
       <c r="E145" s="49"/>
       <c r="F145" s="49"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c r="G145" s="17">
+        <v>1</v>
+      </c>
+      <c r="H145" s="17">
+        <v>1</v>
+      </c>
+      <c r="I145" s="17">
+        <v>1</v>
+      </c>
+      <c r="J145" s="17">
+        <v>1</v>
+      </c>
+      <c r="K145" s="17">
+        <v>1</v>
+      </c>
+      <c r="L145" s="17">
+        <v>1</v>
+      </c>
+      <c r="M145" s="17">
+        <v>1</v>
+      </c>
+      <c r="N145" s="17">
+        <v>1</v>
+      </c>
+      <c r="O145" s="17">
+        <v>1</v>
+      </c>
+      <c r="P145" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="33" t="s">
@@ -5705,20 +5723,16 @@
         <v>6</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D146" s="49"/>
       <c r="E146" s="49"/>
       <c r="F146" s="49"/>
       <c r="G146" s="17"/>
-      <c r="H146" s="17">
-        <v>1</v>
-      </c>
+      <c r="H146" s="17"/>
       <c r="I146" s="17"/>
       <c r="J146" s="17"/>
-      <c r="K146" s="17">
-        <v>1</v>
-      </c>
+      <c r="K146" s="17"/>
       <c r="L146" s="17"/>
       <c r="M146" s="17"/>
       <c r="N146" s="17"/>
@@ -5734,16 +5748,20 @@
         <v>6</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D147" s="49"/>
       <c r="E147" s="49"/>
       <c r="F147" s="49"/>
       <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
+      <c r="H147" s="17">
+        <v>1</v>
+      </c>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
+      <c r="K147" s="17">
+        <v>1</v>
+      </c>
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
@@ -5759,7 +5777,7 @@
         <v>6</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D148" s="49"/>
       <c r="E148" s="49"/>
@@ -5781,10 +5799,10 @@
         <v>34</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="D149" s="49"/>
       <c r="E149" s="49"/>
@@ -5806,25 +5824,19 @@
         <v>34</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="D150" s="49"/>
       <c r="E150" s="49"/>
       <c r="F150" s="49"/>
       <c r="G150" s="17"/>
-      <c r="H150" s="17">
-        <v>1</v>
-      </c>
-      <c r="I150" s="17">
-        <v>1</v>
-      </c>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
       <c r="J150" s="17"/>
-      <c r="K150" s="17">
-        <v>1</v>
-      </c>
+      <c r="K150" s="17"/>
       <c r="L150" s="17"/>
       <c r="M150" s="17"/>
       <c r="N150" s="17"/>
@@ -5840,7 +5852,7 @@
         <v>6</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
@@ -5871,7 +5883,7 @@
         <v>6</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D152" s="49"/>
       <c r="E152" s="49"/>
@@ -5902,18 +5914,18 @@
         <v>6</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D153" s="49"/>
       <c r="E153" s="49"/>
       <c r="F153" s="49"/>
-      <c r="G153" s="17">
-        <v>1</v>
-      </c>
+      <c r="G153" s="17"/>
       <c r="H153" s="17">
         <v>1</v>
       </c>
-      <c r="I153" s="17"/>
+      <c r="I153" s="17">
+        <v>1</v>
+      </c>
       <c r="J153" s="17"/>
       <c r="K153" s="17">
         <v>1</v>
@@ -5933,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="49"/>
@@ -5941,10 +5953,14 @@
       <c r="G154" s="17">
         <v>1</v>
       </c>
-      <c r="H154" s="17"/>
+      <c r="H154" s="17">
+        <v>1</v>
+      </c>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
+      <c r="K154" s="17">
+        <v>1</v>
+      </c>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
@@ -5960,12 +5976,14 @@
         <v>6</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D155" s="49"/>
       <c r="E155" s="49"/>
       <c r="F155" s="49"/>
-      <c r="G155" s="17"/>
+      <c r="G155" s="17">
+        <v>1</v>
+      </c>
       <c r="H155" s="17"/>
       <c r="I155" s="17"/>
       <c r="J155" s="17"/>
@@ -5985,7 +6003,7 @@
         <v>6</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D156" s="49"/>
       <c r="E156" s="49"/>
@@ -5993,15 +6011,9 @@
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
-      <c r="J156" s="17">
-        <v>1</v>
-      </c>
-      <c r="K156" s="17">
-        <v>1</v>
-      </c>
-      <c r="L156" s="17">
-        <v>1</v>
-      </c>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
       <c r="O156" s="17"/>
@@ -6016,7 +6028,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="D157" s="49"/>
       <c r="E157" s="49"/>
@@ -6027,7 +6039,9 @@
       <c r="J157" s="17">
         <v>1</v>
       </c>
-      <c r="K157" s="17"/>
+      <c r="K157" s="17">
+        <v>1</v>
+      </c>
       <c r="L157" s="17">
         <v>1</v>
       </c>
@@ -6045,7 +6059,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D158" s="49"/>
       <c r="E158" s="49"/>
@@ -6074,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
@@ -6132,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
@@ -6161,7 +6175,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D162" s="49"/>
       <c r="E162" s="49"/>
@@ -6190,7 +6204,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D163" s="49"/>
       <c r="E163" s="49"/>
@@ -6219,7 +6233,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D164" s="49"/>
       <c r="E164" s="49"/>
@@ -6248,7 +6262,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D165" s="49"/>
       <c r="E165" s="49"/>
@@ -6277,7 +6291,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -6306,11 +6320,11 @@
         <v>6</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D167" s="51"/>
-      <c r="E167" s="51"/>
-      <c r="F167" s="51"/>
+        <v>265</v>
+      </c>
+      <c r="D167" s="49"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="49"/>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
@@ -6335,11 +6349,11 @@
         <v>6</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
+        <v>260</v>
+      </c>
+      <c r="D168" s="51"/>
+      <c r="E168" s="51"/>
+      <c r="F168" s="51"/>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
@@ -6364,7 +6378,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D169" s="49"/>
       <c r="E169" s="49"/>
@@ -6393,7 +6407,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D170" s="49"/>
       <c r="E170" s="49"/>
@@ -6451,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
@@ -6480,24 +6494,18 @@
         <v>6</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
       <c r="F173" s="49"/>
       <c r="G173" s="17"/>
-      <c r="H173" s="17">
-        <v>1</v>
-      </c>
-      <c r="I173" s="17">
-        <v>1</v>
-      </c>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
       <c r="J173" s="17">
         <v>1</v>
       </c>
-      <c r="K173" s="17">
-        <v>1</v>
-      </c>
+      <c r="K173" s="17"/>
       <c r="L173" s="17">
         <v>1</v>
       </c>
@@ -6515,19 +6523,27 @@
         <v>6</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
       <c r="F174" s="49"/>
-      <c r="G174" s="17">
-        <v>1</v>
-      </c>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="17"/>
-      <c r="K174" s="17"/>
-      <c r="L174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17">
+        <v>1</v>
+      </c>
+      <c r="I174" s="17">
+        <v>1</v>
+      </c>
+      <c r="J174" s="17">
+        <v>1</v>
+      </c>
+      <c r="K174" s="17">
+        <v>1</v>
+      </c>
+      <c r="L174" s="17">
+        <v>1</v>
+      </c>
       <c r="M174" s="17"/>
       <c r="N174" s="17"/>
       <c r="O174" s="17"/>
@@ -6542,12 +6558,14 @@
         <v>6</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
       <c r="F175" s="49"/>
-      <c r="G175" s="17"/>
+      <c r="G175" s="17">
+        <v>1</v>
+      </c>
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
       <c r="J175" s="17"/>
@@ -6560,14 +6578,14 @@
       <c r="Q175" s="17"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="16" t="s">
-        <v>100</v>
+      <c r="A176" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B176" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
@@ -6586,13 +6604,13 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B177" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D177" s="49"/>
       <c r="E177" s="49"/>
@@ -6611,13 +6629,13 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B178" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D178" s="49"/>
       <c r="E178" s="49"/>
@@ -6635,12 +6653,14 @@
       <c r="Q178" s="17"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B179" s="36"/>
-      <c r="C179" s="28" t="s">
-        <v>1</v>
+      <c r="A179" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D179" s="49"/>
       <c r="E179" s="49"/>
@@ -6661,11 +6681,9 @@
       <c r="A180" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B180" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B180" s="36"/>
       <c r="C180" s="28" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D180" s="49"/>
       <c r="E180" s="49"/>
@@ -6690,25 +6708,21 @@
         <v>6</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>276</v>
+        <v>95</v>
       </c>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
       <c r="F181" s="49"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
-      <c r="I181" s="17">
-        <v>1</v>
-      </c>
+      <c r="I181" s="17"/>
       <c r="J181" s="17"/>
       <c r="K181" s="17"/>
       <c r="L181" s="17"/>
       <c r="M181" s="17"/>
       <c r="N181" s="17"/>
       <c r="O181" s="17"/>
-      <c r="P181" s="17">
-        <v>1</v>
-      </c>
+      <c r="P181" s="17"/>
       <c r="Q181" s="17"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
@@ -6719,30 +6733,26 @@
         <v>6</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D182" s="49"/>
       <c r="E182" s="49"/>
       <c r="F182" s="49"/>
-      <c r="G182" s="17">
-        <v>1</v>
-      </c>
-      <c r="H182" s="17">
-        <v>1</v>
-      </c>
-      <c r="I182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17">
+        <v>1</v>
+      </c>
       <c r="J182" s="17"/>
-      <c r="K182" s="17">
-        <v>1</v>
-      </c>
+      <c r="K182" s="17"/>
       <c r="L182" s="17"/>
       <c r="M182" s="17"/>
       <c r="N182" s="17"/>
       <c r="O182" s="17"/>
-      <c r="P182" s="17"/>
-      <c r="Q182" s="17">
-        <v>1</v>
-      </c>
+      <c r="P182" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="17"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="26" t="s">
@@ -6752,32 +6762,40 @@
         <v>6</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D183" s="49"/>
       <c r="E183" s="49"/>
       <c r="F183" s="49"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
+      <c r="G183" s="17">
+        <v>1</v>
+      </c>
+      <c r="H183" s="17">
+        <v>1</v>
+      </c>
       <c r="I183" s="17"/>
       <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
+      <c r="K183" s="17">
+        <v>1</v>
+      </c>
       <c r="L183" s="17"/>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
-      <c r="P183" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q183" s="17"/>
+      <c r="P183" s="17"/>
+      <c r="Q183" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B184" s="27"/>
+      <c r="B184" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C184" s="28" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="D184" s="49"/>
       <c r="E184" s="49"/>
@@ -6791,16 +6809,16 @@
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
-      <c r="P184" s="17"/>
+      <c r="P184" s="17">
+        <v>1</v>
+      </c>
       <c r="Q184" s="17"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B185" s="27"/>
       <c r="C185" s="28" t="s">
         <v>232</v>
       </c>
@@ -6827,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="D186" s="49"/>
       <c r="E186" s="49"/>
@@ -6836,9 +6854,7 @@
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
       <c r="J186" s="17"/>
-      <c r="K186" s="17">
-        <v>1</v>
-      </c>
+      <c r="K186" s="17"/>
       <c r="L186" s="17"/>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
@@ -6854,17 +6870,13 @@
         <v>6</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D187" s="49"/>
       <c r="E187" s="49"/>
       <c r="F187" s="49"/>
-      <c r="G187" s="17">
-        <v>1</v>
-      </c>
-      <c r="H187" s="17">
-        <v>1</v>
-      </c>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
       <c r="I187" s="17"/>
       <c r="J187" s="17"/>
       <c r="K187" s="17">
@@ -6885,7 +6897,7 @@
         <v>6</v>
       </c>
       <c r="C188" s="28" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
@@ -6893,10 +6905,14 @@
       <c r="G188" s="17">
         <v>1</v>
       </c>
-      <c r="H188" s="17"/>
+      <c r="H188" s="17">
+        <v>1</v>
+      </c>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
-      <c r="K188" s="17"/>
+      <c r="K188" s="17">
+        <v>1</v>
+      </c>
       <c r="L188" s="17"/>
       <c r="M188" s="17"/>
       <c r="N188" s="17"/>
@@ -6912,7 +6928,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -6920,14 +6936,10 @@
       <c r="G189" s="17">
         <v>1</v>
       </c>
-      <c r="H189" s="17">
-        <v>1</v>
-      </c>
+      <c r="H189" s="17"/>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
-      <c r="K189" s="17">
-        <v>1</v>
-      </c>
+      <c r="K189" s="17"/>
       <c r="L189" s="17"/>
       <c r="M189" s="17"/>
       <c r="N189" s="17"/>
@@ -6943,16 +6955,22 @@
         <v>6</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
       <c r="F190" s="49"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
+      <c r="G190" s="17">
+        <v>1</v>
+      </c>
+      <c r="H190" s="17">
+        <v>1</v>
+      </c>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
-      <c r="K190" s="17"/>
+      <c r="K190" s="17">
+        <v>1</v>
+      </c>
       <c r="L190" s="17"/>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
@@ -6961,62 +6979,62 @@
       <c r="Q190" s="17"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B191" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C191" s="39" t="s">
-        <v>135</v>
+      <c r="A191" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="D191" s="49"/>
       <c r="E191" s="49"/>
       <c r="F191" s="49"/>
       <c r="G191" s="17"/>
-      <c r="H191" s="17">
-        <v>1</v>
-      </c>
-      <c r="I191" s="17">
-        <v>1</v>
-      </c>
-      <c r="J191" s="17">
-        <v>1</v>
-      </c>
-      <c r="K191" s="17">
-        <v>1</v>
-      </c>
-      <c r="L191" s="17">
-        <v>1</v>
-      </c>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+      <c r="L191" s="17"/>
       <c r="M191" s="17"/>
-      <c r="N191" s="17">
-        <v>1</v>
-      </c>
+      <c r="N191" s="17"/>
       <c r="O191" s="17"/>
       <c r="P191" s="17"/>
       <c r="Q191" s="17"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C192" s="39" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D192" s="49"/>
       <c r="E192" s="49"/>
       <c r="F192" s="49"/>
       <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
-      <c r="K192" s="17"/>
-      <c r="L192" s="17"/>
-      <c r="M192" s="17"/>
+      <c r="H192" s="17">
+        <v>1</v>
+      </c>
+      <c r="I192" s="17">
+        <v>1</v>
+      </c>
+      <c r="J192" s="17">
+        <v>1</v>
+      </c>
+      <c r="K192" s="17">
+        <v>1</v>
+      </c>
+      <c r="L192" s="17">
+        <v>1</v>
+      </c>
+      <c r="M192" s="17">
+        <v>1</v>
+      </c>
       <c r="N192" s="17">
         <v>1</v>
       </c>
@@ -7026,13 +7044,13 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B193" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D193" s="49"/>
       <c r="E193" s="49"/>
@@ -7053,34 +7071,24 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D194" s="49"/>
       <c r="E194" s="49"/>
       <c r="F194" s="49"/>
-      <c r="G194" s="17">
-        <v>1</v>
-      </c>
-      <c r="H194" s="17">
-        <v>1</v>
-      </c>
-      <c r="I194" s="17">
-        <v>1</v>
-      </c>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
       <c r="J194" s="17"/>
-      <c r="K194" s="17">
-        <v>1</v>
-      </c>
+      <c r="K194" s="17"/>
       <c r="L194" s="17"/>
-      <c r="M194" s="17">
-        <v>1</v>
-      </c>
+      <c r="M194" s="17"/>
       <c r="N194" s="17">
         <v>1</v>
       </c>
@@ -7090,13 +7098,13 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D195" s="49"/>
       <c r="E195" s="49"/>
@@ -7107,13 +7115,17 @@
       <c r="H195" s="17">
         <v>1</v>
       </c>
-      <c r="I195" s="17"/>
+      <c r="I195" s="17">
+        <v>1</v>
+      </c>
       <c r="J195" s="17"/>
       <c r="K195" s="17">
         <v>1</v>
       </c>
       <c r="L195" s="17"/>
-      <c r="M195" s="17"/>
+      <c r="M195" s="17">
+        <v>1</v>
+      </c>
       <c r="N195" s="17">
         <v>1</v>
       </c>
@@ -7123,11 +7135,13 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B196" s="40"/>
+        <v>177</v>
+      </c>
+      <c r="B196" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="C196" s="39" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D196" s="49"/>
       <c r="E196" s="49"/>
@@ -7138,21 +7152,13 @@
       <c r="H196" s="17">
         <v>1</v>
       </c>
-      <c r="I196" s="17">
-        <v>1</v>
-      </c>
-      <c r="J196" s="17">
-        <v>1</v>
-      </c>
+      <c r="I196" s="17"/>
+      <c r="J196" s="17"/>
       <c r="K196" s="17">
         <v>1</v>
       </c>
-      <c r="L196" s="17">
-        <v>1</v>
-      </c>
-      <c r="M196" s="17">
-        <v>1</v>
-      </c>
+      <c r="L196" s="17"/>
+      <c r="M196" s="17"/>
       <c r="N196" s="17">
         <v>1</v>
       </c>
@@ -7162,40 +7168,58 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B197" s="38" t="s">
-        <v>6</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B197" s="40"/>
       <c r="C197" s="39" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
       <c r="F197" s="49"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="17"/>
-      <c r="K197" s="17"/>
-      <c r="L197" s="17"/>
-      <c r="M197" s="17"/>
+      <c r="G197" s="17">
+        <v>1</v>
+      </c>
+      <c r="H197" s="17">
+        <v>1</v>
+      </c>
+      <c r="I197" s="17">
+        <v>1</v>
+      </c>
+      <c r="J197" s="17">
+        <v>1</v>
+      </c>
+      <c r="K197" s="17">
+        <v>1</v>
+      </c>
+      <c r="L197" s="17">
+        <v>1</v>
+      </c>
+      <c r="M197" s="17">
+        <v>1</v>
+      </c>
       <c r="N197" s="17">
         <v>1</v>
       </c>
-      <c r="O197" s="17"/>
-      <c r="P197" s="17"/>
-      <c r="Q197" s="17"/>
+      <c r="O197" s="17">
+        <v>1</v>
+      </c>
+      <c r="P197" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B198" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C198" s="39" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D198" s="49"/>
       <c r="E198" s="49"/>
@@ -7216,13 +7240,13 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B199" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D199" s="49"/>
       <c r="E199" s="49"/>
@@ -7231,9 +7255,7 @@
       <c r="H199" s="17"/>
       <c r="I199" s="17"/>
       <c r="J199" s="17"/>
-      <c r="K199" s="17">
-        <v>1</v>
-      </c>
+      <c r="K199" s="17"/>
       <c r="L199" s="17"/>
       <c r="M199" s="17"/>
       <c r="N199" s="17">
@@ -7245,35 +7267,25 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="D200" s="49"/>
       <c r="E200" s="49"/>
       <c r="F200" s="49"/>
-      <c r="G200" s="17">
-        <v>1</v>
-      </c>
-      <c r="H200" s="17">
-        <v>1</v>
-      </c>
-      <c r="I200" s="17">
-        <v>1</v>
-      </c>
-      <c r="J200" s="17">
-        <v>1</v>
-      </c>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
       <c r="K200" s="17">
         <v>1</v>
       </c>
-      <c r="L200" s="17">
-        <v>1</v>
-      </c>
+      <c r="L200" s="17"/>
       <c r="M200" s="17"/>
       <c r="N200" s="17">
         <v>1</v>
@@ -7284,25 +7296,35 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="D201" s="49"/>
       <c r="E201" s="49"/>
       <c r="F201" s="49"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
+      <c r="G201" s="17">
+        <v>1</v>
+      </c>
+      <c r="H201" s="17">
+        <v>1</v>
+      </c>
+      <c r="I201" s="17">
+        <v>1</v>
+      </c>
+      <c r="J201" s="17">
+        <v>1</v>
+      </c>
       <c r="K201" s="17">
         <v>1</v>
       </c>
-      <c r="L201" s="17"/>
+      <c r="L201" s="17">
+        <v>1</v>
+      </c>
       <c r="M201" s="17"/>
       <c r="N201" s="17">
         <v>1</v>
@@ -7313,52 +7335,42 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="D202" s="49"/>
       <c r="E202" s="49"/>
       <c r="F202" s="49"/>
-      <c r="G202" s="17">
-        <v>1</v>
-      </c>
-      <c r="H202" s="17">
-        <v>1</v>
-      </c>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
       <c r="K202" s="17">
         <v>1</v>
       </c>
       <c r="L202" s="17"/>
-      <c r="M202" s="17">
-        <v>1</v>
-      </c>
+      <c r="M202" s="17"/>
       <c r="N202" s="17">
         <v>1</v>
       </c>
-      <c r="O202" s="17">
-        <v>1</v>
-      </c>
-      <c r="P202" s="17">
-        <v>1</v>
-      </c>
+      <c r="O202" s="17"/>
+      <c r="P202" s="17"/>
       <c r="Q202" s="17"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="D203" s="49"/>
       <c r="E203" s="49"/>
@@ -7369,54 +7381,76 @@
       <c r="H203" s="17">
         <v>1</v>
       </c>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
+      <c r="I203" s="17">
+        <v>1</v>
+      </c>
+      <c r="J203" s="17">
+        <v>1</v>
+      </c>
       <c r="K203" s="17">
         <v>1</v>
       </c>
-      <c r="L203" s="17"/>
-      <c r="M203" s="17"/>
+      <c r="L203" s="17">
+        <v>1</v>
+      </c>
+      <c r="M203" s="17">
+        <v>1</v>
+      </c>
       <c r="N203" s="17">
         <v>1</v>
       </c>
-      <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
-      <c r="Q203" s="17"/>
+      <c r="O203" s="17">
+        <v>1</v>
+      </c>
+      <c r="P203" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q203" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C204" s="16" t="s">
-        <v>188</v>
+      <c r="A204" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B204" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D204" s="49"/>
       <c r="E204" s="49"/>
       <c r="F204" s="49"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
+      <c r="G204" s="17">
+        <v>1</v>
+      </c>
+      <c r="H204" s="17">
+        <v>1</v>
+      </c>
       <c r="I204" s="17"/>
       <c r="J204" s="17"/>
-      <c r="K204" s="17"/>
+      <c r="K204" s="17">
+        <v>1</v>
+      </c>
       <c r="L204" s="17"/>
       <c r="M204" s="17"/>
-      <c r="N204" s="17"/>
+      <c r="N204" s="17">
+        <v>1</v>
+      </c>
       <c r="O204" s="17"/>
       <c r="P204" s="17"/>
       <c r="Q204" s="17"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="B205" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C205" s="43" t="s">
-        <v>43</v>
+      <c r="A205" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
@@ -7434,14 +7468,14 @@
       <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B206" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206" s="25" t="s">
-        <v>105</v>
+      <c r="A206" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B206" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
@@ -7459,29 +7493,25 @@
       <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B207" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="43" t="s">
-        <v>10</v>
+      <c r="A207" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B207" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D207" s="49"/>
       <c r="E207" s="49"/>
       <c r="F207" s="49"/>
-      <c r="G207" s="17">
-        <v>1</v>
-      </c>
+      <c r="G207" s="17"/>
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
       <c r="L207" s="17"/>
-      <c r="M207" s="17">
-        <v>1</v>
-      </c>
+      <c r="M207" s="17"/>
       <c r="N207" s="17"/>
       <c r="O207" s="17"/>
       <c r="P207" s="17"/>
@@ -7495,12 +7525,14 @@
         <v>6</v>
       </c>
       <c r="C208" s="43" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D208" s="49"/>
       <c r="E208" s="49"/>
       <c r="F208" s="49"/>
-      <c r="G208" s="17"/>
+      <c r="G208" s="17">
+        <v>1</v>
+      </c>
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
@@ -7522,7 +7554,7 @@
         <v>6</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="D209" s="49"/>
       <c r="E209" s="49"/>
@@ -7546,10 +7578,10 @@
         <v>44</v>
       </c>
       <c r="B210" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C210" s="43" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="D210" s="49"/>
       <c r="E210" s="49"/>
@@ -7573,23 +7605,19 @@
         <v>44</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
       <c r="F211" s="49"/>
       <c r="G211" s="17"/>
-      <c r="H211" s="17">
-        <v>1</v>
-      </c>
+      <c r="H211" s="17"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
-      <c r="K211" s="17">
-        <v>1</v>
-      </c>
+      <c r="K211" s="17"/>
       <c r="L211" s="17"/>
       <c r="M211" s="17">
         <v>1</v>
@@ -7604,10 +7632,10 @@
         <v>44</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C212" s="43" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D212" s="49"/>
       <c r="E212" s="49"/>
@@ -7616,9 +7644,7 @@
       <c r="H212" s="17">
         <v>1</v>
       </c>
-      <c r="I212" s="17">
-        <v>1</v>
-      </c>
+      <c r="I212" s="17"/>
       <c r="J212" s="17"/>
       <c r="K212" s="17">
         <v>1</v>
@@ -7640,16 +7666,22 @@
         <v>53</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
       <c r="F213" s="49"/>
       <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="17"/>
+      <c r="H213" s="17">
+        <v>1</v>
+      </c>
+      <c r="I213" s="17">
+        <v>1</v>
+      </c>
       <c r="J213" s="17"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="17">
+        <v>1</v>
+      </c>
       <c r="L213" s="17"/>
       <c r="M213" s="17">
         <v>1</v>
@@ -7664,10 +7696,10 @@
         <v>44</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
@@ -7676,9 +7708,7 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
-      <c r="K214" s="17">
-        <v>1</v>
-      </c>
+      <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="17">
         <v>1</v>
@@ -7696,7 +7726,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D215" s="49"/>
       <c r="E215" s="49"/>
@@ -7705,7 +7735,9 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
-      <c r="K215" s="17"/>
+      <c r="K215" s="17">
+        <v>1</v>
+      </c>
       <c r="L215" s="17"/>
       <c r="M215" s="17">
         <v>1</v>
@@ -7720,25 +7752,23 @@
         <v>44</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>69</v>
+        <v>280</v>
       </c>
       <c r="D216" s="49"/>
       <c r="E216" s="49"/>
       <c r="F216" s="49"/>
-      <c r="G216" s="17">
-        <v>1</v>
-      </c>
+      <c r="G216" s="17"/>
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="17">
+        <v>1</v>
+      </c>
       <c r="L216" s="17"/>
-      <c r="M216" s="17">
-        <v>1</v>
-      </c>
+      <c r="M216" s="17"/>
       <c r="N216" s="17"/>
       <c r="O216" s="17"/>
       <c r="P216" s="17"/>
@@ -7752,69 +7782,47 @@
         <v>6</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="D217" s="49"/>
       <c r="E217" s="49"/>
       <c r="F217" s="49"/>
-      <c r="G217" s="17">
-        <v>1</v>
-      </c>
-      <c r="H217" s="17">
-        <v>1</v>
-      </c>
-      <c r="I217" s="17">
-        <v>1</v>
-      </c>
-      <c r="J217" s="17">
-        <v>1</v>
-      </c>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
       <c r="K217" s="17">
         <v>1</v>
       </c>
-      <c r="L217" s="17">
-        <v>1</v>
-      </c>
-      <c r="M217" s="17">
-        <v>1</v>
-      </c>
-      <c r="N217" s="17">
-        <v>1</v>
-      </c>
-      <c r="O217" s="17">
-        <v>1</v>
-      </c>
-      <c r="P217" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q217" s="17">
-        <v>1</v>
-      </c>
+      <c r="L217" s="17"/>
+      <c r="M217" s="17"/>
+      <c r="N217" s="17"/>
+      <c r="O217" s="17"/>
+      <c r="P217" s="17"/>
+      <c r="Q217" s="17"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B218" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>70</v>
+        <v>282</v>
       </c>
       <c r="D218" s="49"/>
       <c r="E218" s="49"/>
       <c r="F218" s="49"/>
-      <c r="G218" s="17">
-        <v>1</v>
-      </c>
+      <c r="G218" s="17"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="17">
+        <v>1</v>
+      </c>
       <c r="L218" s="17"/>
-      <c r="M218" s="17">
-        <v>1</v>
-      </c>
+      <c r="M218" s="17"/>
       <c r="N218" s="17"/>
       <c r="O218" s="17"/>
       <c r="P218" s="17"/>
@@ -7828,29 +7836,17 @@
         <v>6</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D219" s="49"/>
       <c r="E219" s="49"/>
       <c r="F219" s="49"/>
-      <c r="G219" s="17">
-        <v>1</v>
-      </c>
-      <c r="H219" s="17">
-        <v>1</v>
-      </c>
-      <c r="I219" s="17">
-        <v>1</v>
-      </c>
-      <c r="J219" s="17">
-        <v>1</v>
-      </c>
-      <c r="K219" s="17">
-        <v>1</v>
-      </c>
-      <c r="L219" s="17">
-        <v>1</v>
-      </c>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
       <c r="M219" s="17">
         <v>1</v>
       </c>
@@ -7867,12 +7863,14 @@
         <v>53</v>
       </c>
       <c r="C220" s="43" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D220" s="49"/>
       <c r="E220" s="49"/>
       <c r="F220" s="49"/>
-      <c r="G220" s="17"/>
+      <c r="G220" s="17">
+        <v>1</v>
+      </c>
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -7894,39 +7892,61 @@
         <v>6</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D221" s="49"/>
       <c r="E221" s="49"/>
       <c r="F221" s="49"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="17"/>
-      <c r="J221" s="17"/>
-      <c r="K221" s="17"/>
-      <c r="L221" s="17"/>
+      <c r="G221" s="17">
+        <v>1</v>
+      </c>
+      <c r="H221" s="17">
+        <v>1</v>
+      </c>
+      <c r="I221" s="17">
+        <v>1</v>
+      </c>
+      <c r="J221" s="17">
+        <v>1</v>
+      </c>
+      <c r="K221" s="17">
+        <v>1</v>
+      </c>
+      <c r="L221" s="17">
+        <v>1</v>
+      </c>
       <c r="M221" s="17">
         <v>1</v>
       </c>
-      <c r="N221" s="17"/>
-      <c r="O221" s="17"/>
-      <c r="P221" s="17"/>
-      <c r="Q221" s="17"/>
+      <c r="N221" s="17">
+        <v>1</v>
+      </c>
+      <c r="O221" s="17">
+        <v>1</v>
+      </c>
+      <c r="P221" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D222" s="49"/>
       <c r="E222" s="49"/>
       <c r="F222" s="49"/>
-      <c r="G222" s="17"/>
+      <c r="G222" s="17">
+        <v>1</v>
+      </c>
       <c r="H222" s="17"/>
       <c r="I222" s="17"/>
       <c r="J222" s="17"/>
@@ -7948,7 +7968,7 @@
         <v>6</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="D223" s="49"/>
       <c r="E223" s="49"/>
@@ -7959,12 +7979,18 @@
       <c r="H223" s="17">
         <v>1</v>
       </c>
-      <c r="I223" s="17"/>
-      <c r="J223" s="17"/>
+      <c r="I223" s="17">
+        <v>1</v>
+      </c>
+      <c r="J223" s="17">
+        <v>1</v>
+      </c>
       <c r="K223" s="17">
         <v>1</v>
       </c>
-      <c r="L223" s="17"/>
+      <c r="L223" s="17">
+        <v>1</v>
+      </c>
       <c r="M223" s="17">
         <v>1</v>
       </c>
@@ -7978,10 +8004,10 @@
         <v>44</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D224" s="49"/>
       <c r="E224" s="49"/>
@@ -8008,17 +8034,13 @@
         <v>6</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D225" s="49"/>
       <c r="E225" s="49"/>
       <c r="F225" s="49"/>
-      <c r="G225" s="17">
-        <v>1</v>
-      </c>
-      <c r="H225" s="17">
-        <v>1</v>
-      </c>
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
       <c r="K225" s="17">
@@ -8034,12 +8056,14 @@
       <c r="Q225" s="17"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B226" s="44"/>
-      <c r="C226" s="13" t="s">
-        <v>0</v>
+      <c r="A226" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B226" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="43" t="s">
+        <v>124</v>
       </c>
       <c r="D226" s="49"/>
       <c r="E226" s="49"/>
@@ -8050,21 +8074,23 @@
       <c r="J226" s="17"/>
       <c r="K226" s="17"/>
       <c r="L226" s="17"/>
-      <c r="M226" s="17"/>
+      <c r="M226" s="17">
+        <v>1</v>
+      </c>
       <c r="N226" s="17"/>
       <c r="O226" s="17"/>
       <c r="P226" s="17"/>
       <c r="Q226" s="17"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B227" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>141</v>
+      <c r="A227" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B227" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D227" s="49"/>
       <c r="E227" s="49"/>
@@ -8077,65 +8103,75 @@
       </c>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
-      <c r="K227" s="17"/>
+      <c r="K227" s="17">
+        <v>1</v>
+      </c>
       <c r="L227" s="17"/>
-      <c r="M227" s="17"/>
+      <c r="M227" s="17">
+        <v>1</v>
+      </c>
       <c r="N227" s="17"/>
       <c r="O227" s="17"/>
       <c r="P227" s="17"/>
       <c r="Q227" s="17"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A228" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B228" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>145</v>
+      <c r="A228" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B228" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="43" t="s">
+        <v>279</v>
       </c>
       <c r="D228" s="49"/>
       <c r="E228" s="49"/>
       <c r="F228" s="49"/>
-      <c r="G228" s="17">
-        <v>1</v>
-      </c>
-      <c r="H228" s="17">
-        <v>1</v>
-      </c>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
       <c r="K228" s="17">
         <v>1</v>
       </c>
       <c r="L228" s="17"/>
-      <c r="M228" s="17"/>
+      <c r="M228" s="17">
+        <v>1</v>
+      </c>
       <c r="N228" s="17"/>
       <c r="O228" s="17"/>
       <c r="P228" s="17"/>
       <c r="Q228" s="17"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A229" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B229" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C229" s="13" t="s">
-        <v>251</v>
+      <c r="A229" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B229" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D229" s="49"/>
       <c r="E229" s="49"/>
       <c r="F229" s="49"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
+      <c r="G229" s="17">
+        <v>1</v>
+      </c>
+      <c r="H229" s="17">
+        <v>1</v>
+      </c>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
-      <c r="K229" s="17"/>
+      <c r="K229" s="17">
+        <v>1</v>
+      </c>
       <c r="L229" s="17"/>
-      <c r="M229" s="17"/>
+      <c r="M229" s="17">
+        <v>1</v>
+      </c>
       <c r="N229" s="17"/>
       <c r="O229" s="17"/>
       <c r="P229" s="17"/>
@@ -8145,11 +8181,9 @@
       <c r="A230" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B230" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B230" s="44"/>
       <c r="C230" s="13" t="s">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D230" s="49"/>
       <c r="E230" s="49"/>
@@ -8174,20 +8208,20 @@
         <v>53</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D231" s="49"/>
       <c r="E231" s="49"/>
       <c r="F231" s="49"/>
-      <c r="G231" s="17"/>
+      <c r="G231" s="17">
+        <v>1</v>
+      </c>
       <c r="H231" s="17">
         <v>1</v>
       </c>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
-      <c r="K231" s="17">
-        <v>1</v>
-      </c>
+      <c r="K231" s="17"/>
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
       <c r="N231" s="17"/>
@@ -8203,7 +8237,7 @@
         <v>53</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="D232" s="49"/>
       <c r="E232" s="49"/>
@@ -8214,80 +8248,42 @@
       <c r="H232" s="17">
         <v>1</v>
       </c>
-      <c r="I232" s="17">
-        <v>1</v>
-      </c>
-      <c r="J232" s="17">
-        <v>1</v>
-      </c>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
       <c r="K232" s="17">
         <v>1</v>
       </c>
-      <c r="L232" s="17">
-        <v>1</v>
-      </c>
-      <c r="M232" s="17">
-        <v>1</v>
-      </c>
-      <c r="N232" s="17">
-        <v>1</v>
-      </c>
-      <c r="O232" s="17">
-        <v>1</v>
-      </c>
-      <c r="P232" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q232" s="17">
-        <v>1</v>
-      </c>
+      <c r="L232" s="17"/>
+      <c r="M232" s="17"/>
+      <c r="N232" s="17"/>
+      <c r="O232" s="17"/>
+      <c r="P232" s="17"/>
+      <c r="Q232" s="17"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="D233" s="49"/>
       <c r="E233" s="49"/>
       <c r="F233" s="49"/>
-      <c r="G233" s="17">
-        <v>1</v>
-      </c>
-      <c r="H233" s="17">
-        <v>1</v>
-      </c>
-      <c r="I233" s="17">
-        <v>1</v>
-      </c>
-      <c r="J233" s="17">
-        <v>1</v>
-      </c>
-      <c r="K233" s="17">
-        <v>1</v>
-      </c>
-      <c r="L233" s="17">
-        <v>1</v>
-      </c>
-      <c r="M233" s="17">
-        <v>1</v>
-      </c>
-      <c r="N233" s="17">
-        <v>1</v>
-      </c>
-      <c r="O233" s="17">
-        <v>1</v>
-      </c>
-      <c r="P233" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q233" s="17">
-        <v>1</v>
-      </c>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="17"/>
+      <c r="K233" s="17"/>
+      <c r="L233" s="17"/>
+      <c r="M233" s="17"/>
+      <c r="N233" s="17"/>
+      <c r="O233" s="17"/>
+      <c r="P233" s="17"/>
+      <c r="Q233" s="17"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="11" t="s">
@@ -8297,317 +8293,469 @@
         <v>53</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D234" s="49"/>
       <c r="E234" s="49"/>
       <c r="F234" s="49"/>
-      <c r="G234" s="17">
-        <v>1</v>
-      </c>
-      <c r="H234" s="17">
-        <v>1</v>
-      </c>
-      <c r="I234" s="17">
-        <v>1</v>
-      </c>
-      <c r="J234" s="17">
-        <v>1</v>
-      </c>
-      <c r="K234" s="17">
-        <v>1</v>
-      </c>
-      <c r="L234" s="17">
-        <v>1</v>
-      </c>
-      <c r="M234" s="17">
-        <v>1</v>
-      </c>
-      <c r="N234" s="17">
-        <v>1</v>
-      </c>
-      <c r="O234" s="17">
-        <v>1</v>
-      </c>
-      <c r="P234" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q234" s="17">
-        <v>1</v>
-      </c>
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="17"/>
+      <c r="K234" s="17"/>
+      <c r="L234" s="17"/>
+      <c r="M234" s="17"/>
+      <c r="N234" s="17"/>
+      <c r="O234" s="17"/>
+      <c r="P234" s="17"/>
+      <c r="Q234" s="17"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D235" s="52"/>
-      <c r="E235" s="52"/>
-      <c r="F235" s="52"/>
-      <c r="G235" s="58"/>
-      <c r="H235" s="58">
-        <v>1</v>
-      </c>
-      <c r="I235" s="58"/>
-      <c r="J235" s="58"/>
-      <c r="K235" s="58">
-        <v>1</v>
-      </c>
-      <c r="L235" s="58"/>
-      <c r="M235" s="58"/>
-      <c r="N235" s="58"/>
-      <c r="O235" s="58"/>
-      <c r="P235" s="58"/>
-      <c r="Q235" s="58"/>
+        <v>150</v>
+      </c>
+      <c r="D235" s="49"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17">
+        <v>1</v>
+      </c>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="17">
+        <v>1</v>
+      </c>
+      <c r="L235" s="17"/>
+      <c r="M235" s="17"/>
+      <c r="N235" s="17"/>
+      <c r="O235" s="17"/>
+      <c r="P235" s="17"/>
+      <c r="Q235" s="17"/>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A236" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D236" s="49"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="17">
+        <v>1</v>
+      </c>
+      <c r="H236" s="17">
+        <v>1</v>
+      </c>
+      <c r="I236" s="17">
+        <v>1</v>
+      </c>
+      <c r="J236" s="17">
+        <v>1</v>
+      </c>
+      <c r="K236" s="17">
+        <v>1</v>
+      </c>
+      <c r="L236" s="17">
+        <v>1</v>
+      </c>
+      <c r="M236" s="17">
+        <v>1</v>
+      </c>
+      <c r="N236" s="17">
+        <v>1</v>
+      </c>
+      <c r="O236" s="17">
+        <v>1</v>
+      </c>
+      <c r="P236" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q236" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A237" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D237" s="49"/>
+      <c r="E237" s="49"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="17">
+        <v>1</v>
+      </c>
+      <c r="H237" s="17">
+        <v>1</v>
+      </c>
+      <c r="I237" s="17">
+        <v>1</v>
+      </c>
+      <c r="J237" s="17">
+        <v>1</v>
+      </c>
+      <c r="K237" s="17">
+        <v>1</v>
+      </c>
+      <c r="L237" s="17">
+        <v>1</v>
+      </c>
+      <c r="M237" s="17">
+        <v>1</v>
+      </c>
+      <c r="N237" s="17">
+        <v>1</v>
+      </c>
+      <c r="O237" s="17">
+        <v>1</v>
+      </c>
+      <c r="P237" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A238" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D238" s="49"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="49"/>
+      <c r="G238" s="17">
+        <v>1</v>
+      </c>
+      <c r="H238" s="17">
+        <v>1</v>
+      </c>
+      <c r="I238" s="17">
+        <v>1</v>
+      </c>
+      <c r="J238" s="17">
+        <v>1</v>
+      </c>
+      <c r="K238" s="17">
+        <v>1</v>
+      </c>
+      <c r="L238" s="17">
+        <v>1</v>
+      </c>
+      <c r="M238" s="17">
+        <v>1</v>
+      </c>
+      <c r="N238" s="17">
+        <v>1</v>
+      </c>
+      <c r="O238" s="17">
+        <v>1</v>
+      </c>
+      <c r="P238" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A239" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D239" s="52"/>
+      <c r="E239" s="52"/>
+      <c r="F239" s="52"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="58">
+        <v>1</v>
+      </c>
+      <c r="I239" s="58"/>
+      <c r="J239" s="58"/>
+      <c r="K239" s="58">
+        <v>1</v>
+      </c>
+      <c r="L239" s="58"/>
+      <c r="M239" s="58"/>
+      <c r="N239" s="58"/>
+      <c r="O239" s="58"/>
+      <c r="P239" s="58"/>
+      <c r="Q239" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q235" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q235">
-      <sortCondition ref="A1:A235"/>
+  <autoFilter ref="A1:Q239" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q239">
+      <sortCondition ref="A1:A239"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q234">
-    <sortCondition ref="A2:A234"/>
-    <sortCondition ref="C2:C234"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q238">
+    <sortCondition ref="A2:A238"/>
+    <sortCondition ref="C2:C238"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C71" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C192" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C72" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
+    <hyperlink ref="C193" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C18" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C207" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C208" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C140" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C141" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C208" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C209" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C141" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C142" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C33" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
-    <hyperlink ref="C51" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C209" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C52" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
+    <hyperlink ref="C210" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C28" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C193" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
-    <hyperlink ref="C73" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C142" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C211" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C143" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
-    <hyperlink ref="C75" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
-    <hyperlink ref="C76" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
-    <hyperlink ref="C77" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
-    <hyperlink ref="C78" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
-    <hyperlink ref="C80" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
-    <hyperlink ref="C81" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C145" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C146" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C147" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C180" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C183" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C182" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C195" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C214" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C194" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C74" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
+    <hyperlink ref="C143" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C212" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C144" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C76" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
+    <hyperlink ref="C77" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
+    <hyperlink ref="C78" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
+    <hyperlink ref="C79" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
+    <hyperlink ref="C81" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
+    <hyperlink ref="C82" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
+    <hyperlink ref="C146" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C147" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C148" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C181" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C184" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C183" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C196" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C215" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C35" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C176" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C177" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C178" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C177" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C178" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C179" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C48" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C215" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C197" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C219" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C198" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C206" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
-    <hyperlink ref="C56" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C217" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C96" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C97" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C98" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C99" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C100" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C101" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C102" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C219" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C207" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C57" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
+    <hyperlink ref="C221" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C97" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C98" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C99" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C100" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C101" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C102" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C103" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C223" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C13" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C37" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C148" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
-    <hyperlink ref="C57" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C198" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C152" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C150" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C151" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C153" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C149" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C58" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
+    <hyperlink ref="C199" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C153" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C151" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C152" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C154" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C39" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C154" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C199" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
-    <hyperlink ref="C49" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C155" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C205" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C221" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C222" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C186" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C155" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C200" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C50" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
+    <hyperlink ref="C156" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C206" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C225" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C226" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C187" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C40" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C156" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C223" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C224" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C187" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C189" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C157" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C227" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C228" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C188" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C190" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C25" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C235" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
-    <hyperlink ref="C58" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C173" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C190" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C201" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C174" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C203" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C225" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C175" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C88" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C191" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C239" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C59" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
+    <hyperlink ref="C174" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C191" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C202" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C175" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C204" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C229" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C176" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C89" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C192" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C17" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C106" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
-    <hyperlink ref="C62" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
+    <hyperlink ref="C107" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C63" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C29" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C210" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C194" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C144" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
-    <hyperlink ref="C79" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C212" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C107" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C108" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C213" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C113" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
-    <hyperlink ref="C63" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
-    <hyperlink ref="C64" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
-    <hyperlink ref="C65" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C227" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C211" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C195" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C145" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C80" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
+    <hyperlink ref="C213" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C108" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C109" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C214" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C114" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C64" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
+    <hyperlink ref="C65" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
+    <hyperlink ref="C66" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
+    <hyperlink ref="C231" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C34" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C45" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C46" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C228" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C114" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C232" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C115" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C47" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C19" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C230" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C231" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C115" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C116" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C92" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C216" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C218" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
-    <hyperlink ref="C66" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
+    <hyperlink ref="C234" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C235" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C116" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C117" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C93" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C220" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C222" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C67" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C9" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C10" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C11" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
     <hyperlink ref="C12" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C38" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C86" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C117" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C93" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C87" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C118" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C94" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C21" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C220" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C224" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C14" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C20" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
-    <hyperlink ref="C67" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C119" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C120" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
-    <hyperlink ref="C68" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
+    <hyperlink ref="C68" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
+    <hyperlink ref="C120" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C121" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C69" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C15" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C16" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C121" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
-    <hyperlink ref="C69" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C200" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C122" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
-    <hyperlink ref="C61" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
+    <hyperlink ref="C122" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C70" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
+    <hyperlink ref="C201" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C123" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C62" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C22" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C23" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C234" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C238" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C24" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C94" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C136" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
-    <hyperlink ref="C70" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C137" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C138" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C139" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C202" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C90" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C226" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C179" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C196" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C95" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C95" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C137" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C71" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
+    <hyperlink ref="C138" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C139" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C140" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C203" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C91" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C230" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C180" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C197" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C96" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C41" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C36" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C232" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
-    <hyperlink ref="C84" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
+    <hyperlink ref="C236" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C85" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C26" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C188" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
-    <hyperlink ref="C60" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
-    <hyperlink ref="C59" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
+    <hyperlink ref="C189" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C61" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
+    <hyperlink ref="C60" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
     <hyperlink ref="C8" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C85" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
-    <hyperlink ref="C83" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
-    <hyperlink ref="C50" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
+    <hyperlink ref="C86" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C84" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
+    <hyperlink ref="C51" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
     <hyperlink ref="C43" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C42" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C44" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C149" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C229" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
-    <hyperlink ref="C74" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
-    <hyperlink ref="C72" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C87" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
-    <hyperlink ref="C82" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C125" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C126" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C130" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C131" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C132" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C133" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C134" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C124" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C135" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C123" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C127" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C128" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C118" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C157" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C168" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C158" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C160" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C159" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C166" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C164" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C161" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C165" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C170" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C171" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C172" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C169" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C162" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C167" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C163" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C233" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C129" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C109" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C110" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C111" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C112" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C181" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C150" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C233" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C75" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
+    <hyperlink ref="C73" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
+    <hyperlink ref="C88" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C83" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
+    <hyperlink ref="C126" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C127" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C131" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C132" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C133" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C134" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C135" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C125" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C136" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C124" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C128" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C129" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C119" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C158" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C169" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C159" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C161" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C160" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C167" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C165" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C162" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C166" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C171" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C172" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C173" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C170" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C163" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C168" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C164" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C237" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C130" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C110" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C111" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C112" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C113" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C182" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C27" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C30" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C31" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C32" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C204" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C184" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C185" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
-    <hyperlink ref="C52" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
-    <hyperlink ref="C53" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
-    <hyperlink ref="C54" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
-    <hyperlink ref="C55" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C103" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C104" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C105" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C205" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C185" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C186" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C53" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
+    <hyperlink ref="C54" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
+    <hyperlink ref="C55" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
+    <hyperlink ref="C56" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
+    <hyperlink ref="C104" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C105" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C106" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C49" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
+    <hyperlink ref="C217" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C218" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C216" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8629,10 +8777,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277774C9-C3AB-4A45-9BD1-E0C110291C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C22A4-04B6-0346-AD03-694FDCA3E68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23200" yWindow="-23500" windowWidth="38400" windowHeight="23500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$239</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$240</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="284">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>Directory Service - Simple AD</t>
+  </si>
+  <si>
+    <t>Management Console</t>
   </si>
 </sst>
 </file>
@@ -1608,11 +1611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q239"/>
+  <dimension ref="A1:Q240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -5852,22 +5855,18 @@
         <v>6</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
       <c r="F151" s="49"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17">
-        <v>1</v>
-      </c>
-      <c r="I151" s="17">
-        <v>1</v>
-      </c>
+      <c r="G151" s="17">
+        <v>1</v>
+      </c>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
       <c r="J151" s="17"/>
-      <c r="K151" s="17">
-        <v>1</v>
-      </c>
+      <c r="K151" s="17"/>
       <c r="L151" s="17"/>
       <c r="M151" s="17"/>
       <c r="N151" s="17"/>
@@ -5883,7 +5882,7 @@
         <v>6</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D152" s="49"/>
       <c r="E152" s="49"/>
@@ -5914,7 +5913,7 @@
         <v>6</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D153" s="49"/>
       <c r="E153" s="49"/>
@@ -5945,18 +5944,18 @@
         <v>6</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="49"/>
       <c r="F154" s="49"/>
-      <c r="G154" s="17">
-        <v>1</v>
-      </c>
+      <c r="G154" s="17"/>
       <c r="H154" s="17">
         <v>1</v>
       </c>
-      <c r="I154" s="17"/>
+      <c r="I154" s="17">
+        <v>1</v>
+      </c>
       <c r="J154" s="17"/>
       <c r="K154" s="17">
         <v>1</v>
@@ -5976,7 +5975,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D155" s="49"/>
       <c r="E155" s="49"/>
@@ -5984,10 +5983,14 @@
       <c r="G155" s="17">
         <v>1</v>
       </c>
-      <c r="H155" s="17"/>
+      <c r="H155" s="17">
+        <v>1</v>
+      </c>
       <c r="I155" s="17"/>
       <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
+      <c r="K155" s="17">
+        <v>1</v>
+      </c>
       <c r="L155" s="17"/>
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
@@ -6003,12 +6006,14 @@
         <v>6</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D156" s="49"/>
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
-      <c r="G156" s="17"/>
+      <c r="G156" s="17">
+        <v>1</v>
+      </c>
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
       <c r="J156" s="17"/>
@@ -6028,7 +6033,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D157" s="49"/>
       <c r="E157" s="49"/>
@@ -6036,15 +6041,9 @@
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
-      <c r="J157" s="17">
-        <v>1</v>
-      </c>
-      <c r="K157" s="17">
-        <v>1</v>
-      </c>
-      <c r="L157" s="17">
-        <v>1</v>
-      </c>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
       <c r="O157" s="17"/>
@@ -6059,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="D158" s="49"/>
       <c r="E158" s="49"/>
@@ -6070,7 +6069,9 @@
       <c r="J158" s="17">
         <v>1</v>
       </c>
-      <c r="K158" s="17"/>
+      <c r="K158" s="17">
+        <v>1</v>
+      </c>
       <c r="L158" s="17">
         <v>1</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
@@ -6117,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D160" s="49"/>
       <c r="E160" s="49"/>
@@ -6146,7 +6147,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
@@ -6175,7 +6176,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D162" s="49"/>
       <c r="E162" s="49"/>
@@ -6204,7 +6205,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D163" s="49"/>
       <c r="E163" s="49"/>
@@ -6233,7 +6234,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D164" s="49"/>
       <c r="E164" s="49"/>
@@ -6262,7 +6263,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D165" s="49"/>
       <c r="E165" s="49"/>
@@ -6291,7 +6292,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -6320,7 +6321,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
@@ -6349,11 +6350,11 @@
         <v>6</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D168" s="51"/>
-      <c r="E168" s="51"/>
-      <c r="F168" s="51"/>
+        <v>265</v>
+      </c>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="49"/>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
@@ -6378,11 +6379,11 @@
         <v>6</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="49"/>
+        <v>260</v>
+      </c>
+      <c r="D169" s="51"/>
+      <c r="E169" s="51"/>
+      <c r="F169" s="51"/>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
@@ -6407,7 +6408,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D170" s="49"/>
       <c r="E170" s="49"/>
@@ -6436,7 +6437,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D171" s="49"/>
       <c r="E171" s="49"/>
@@ -6465,7 +6466,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
@@ -6494,7 +6495,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -6523,24 +6524,18 @@
         <v>6</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
       <c r="F174" s="49"/>
       <c r="G174" s="17"/>
-      <c r="H174" s="17">
-        <v>1</v>
-      </c>
-      <c r="I174" s="17">
-        <v>1</v>
-      </c>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
       <c r="J174" s="17">
         <v>1</v>
       </c>
-      <c r="K174" s="17">
-        <v>1</v>
-      </c>
+      <c r="K174" s="17"/>
       <c r="L174" s="17">
         <v>1</v>
       </c>
@@ -6558,19 +6553,27 @@
         <v>6</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
       <c r="F175" s="49"/>
-      <c r="G175" s="17">
-        <v>1</v>
-      </c>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="17"/>
-      <c r="K175" s="17"/>
-      <c r="L175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17">
+        <v>1</v>
+      </c>
+      <c r="I175" s="17">
+        <v>1</v>
+      </c>
+      <c r="J175" s="17">
+        <v>1</v>
+      </c>
+      <c r="K175" s="17">
+        <v>1</v>
+      </c>
+      <c r="L175" s="17">
+        <v>1</v>
+      </c>
       <c r="M175" s="17"/>
       <c r="N175" s="17"/>
       <c r="O175" s="17"/>
@@ -6585,12 +6588,14 @@
         <v>6</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
       <c r="F176" s="49"/>
-      <c r="G176" s="17"/>
+      <c r="G176" s="17">
+        <v>1</v>
+      </c>
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
       <c r="J176" s="17"/>
@@ -6603,14 +6608,14 @@
       <c r="Q176" s="17"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>100</v>
+      <c r="A177" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B177" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="D177" s="49"/>
       <c r="E177" s="49"/>
@@ -6635,7 +6640,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D178" s="49"/>
       <c r="E178" s="49"/>
@@ -6660,7 +6665,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D179" s="49"/>
       <c r="E179" s="49"/>
@@ -6678,12 +6683,14 @@
       <c r="Q179" s="17"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B180" s="36"/>
-      <c r="C180" s="28" t="s">
-        <v>1</v>
+      <c r="A180" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D180" s="49"/>
       <c r="E180" s="49"/>
@@ -6704,11 +6711,9 @@
       <c r="A181" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B181" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B181" s="36"/>
       <c r="C181" s="28" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
@@ -6733,25 +6738,21 @@
         <v>6</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="D182" s="49"/>
       <c r="E182" s="49"/>
       <c r="F182" s="49"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
-      <c r="I182" s="17">
-        <v>1</v>
-      </c>
+      <c r="I182" s="17"/>
       <c r="J182" s="17"/>
       <c r="K182" s="17"/>
       <c r="L182" s="17"/>
       <c r="M182" s="17"/>
       <c r="N182" s="17"/>
       <c r="O182" s="17"/>
-      <c r="P182" s="17">
-        <v>1</v>
-      </c>
+      <c r="P182" s="17"/>
       <c r="Q182" s="17"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
@@ -6762,30 +6763,26 @@
         <v>6</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D183" s="49"/>
       <c r="E183" s="49"/>
       <c r="F183" s="49"/>
-      <c r="G183" s="17">
-        <v>1</v>
-      </c>
-      <c r="H183" s="17">
-        <v>1</v>
-      </c>
-      <c r="I183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17">
+        <v>1</v>
+      </c>
       <c r="J183" s="17"/>
-      <c r="K183" s="17">
-        <v>1</v>
-      </c>
+      <c r="K183" s="17"/>
       <c r="L183" s="17"/>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
-      <c r="P183" s="17"/>
-      <c r="Q183" s="17">
-        <v>1</v>
-      </c>
+      <c r="P183" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="17"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="26" t="s">
@@ -6795,32 +6792,40 @@
         <v>6</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D184" s="49"/>
       <c r="E184" s="49"/>
       <c r="F184" s="49"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
+      <c r="G184" s="17">
+        <v>1</v>
+      </c>
+      <c r="H184" s="17">
+        <v>1</v>
+      </c>
       <c r="I184" s="17"/>
       <c r="J184" s="17"/>
-      <c r="K184" s="17"/>
+      <c r="K184" s="17">
+        <v>1</v>
+      </c>
       <c r="L184" s="17"/>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
-      <c r="P184" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q184" s="17"/>
+      <c r="P184" s="17"/>
+      <c r="Q184" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B185" s="27"/>
+      <c r="B185" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C185" s="28" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="D185" s="49"/>
       <c r="E185" s="49"/>
@@ -6834,18 +6839,18 @@
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
-      <c r="P185" s="17"/>
+      <c r="P185" s="17">
+        <v>1</v>
+      </c>
       <c r="Q185" s="17"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B186" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B186" s="27"/>
       <c r="C186" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D186" s="49"/>
       <c r="E186" s="49"/>
@@ -6870,7 +6875,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="D187" s="49"/>
       <c r="E187" s="49"/>
@@ -6879,9 +6884,7 @@
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
       <c r="J187" s="17"/>
-      <c r="K187" s="17">
-        <v>1</v>
-      </c>
+      <c r="K187" s="17"/>
       <c r="L187" s="17"/>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
@@ -6897,17 +6900,13 @@
         <v>6</v>
       </c>
       <c r="C188" s="28" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
       <c r="F188" s="49"/>
-      <c r="G188" s="17">
-        <v>1</v>
-      </c>
-      <c r="H188" s="17">
-        <v>1</v>
-      </c>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
       <c r="K188" s="17">
@@ -6928,7 +6927,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -6936,10 +6935,14 @@
       <c r="G189" s="17">
         <v>1</v>
       </c>
-      <c r="H189" s="17"/>
+      <c r="H189" s="17">
+        <v>1</v>
+      </c>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
-      <c r="K189" s="17"/>
+      <c r="K189" s="17">
+        <v>1</v>
+      </c>
       <c r="L189" s="17"/>
       <c r="M189" s="17"/>
       <c r="N189" s="17"/>
@@ -6955,7 +6958,7 @@
         <v>6</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
@@ -6963,14 +6966,10 @@
       <c r="G190" s="17">
         <v>1</v>
       </c>
-      <c r="H190" s="17">
-        <v>1</v>
-      </c>
+      <c r="H190" s="17"/>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
-      <c r="K190" s="17">
-        <v>1</v>
-      </c>
+      <c r="K190" s="17"/>
       <c r="L190" s="17"/>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
@@ -6986,16 +6985,22 @@
         <v>6</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D191" s="49"/>
       <c r="E191" s="49"/>
       <c r="F191" s="49"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
+      <c r="G191" s="17">
+        <v>1</v>
+      </c>
+      <c r="H191" s="17">
+        <v>1</v>
+      </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
-      <c r="K191" s="17"/>
+      <c r="K191" s="17">
+        <v>1</v>
+      </c>
       <c r="L191" s="17"/>
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
@@ -7004,40 +7009,26 @@
       <c r="Q191" s="17"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B192" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C192" s="39" t="s">
-        <v>134</v>
+      <c r="A192" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="D192" s="49"/>
       <c r="E192" s="49"/>
       <c r="F192" s="49"/>
       <c r="G192" s="17"/>
-      <c r="H192" s="17">
-        <v>1</v>
-      </c>
-      <c r="I192" s="17">
-        <v>1</v>
-      </c>
-      <c r="J192" s="17">
-        <v>1</v>
-      </c>
-      <c r="K192" s="17">
-        <v>1</v>
-      </c>
-      <c r="L192" s="17">
-        <v>1</v>
-      </c>
-      <c r="M192" s="17">
-        <v>1</v>
-      </c>
-      <c r="N192" s="17">
-        <v>1</v>
-      </c>
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="17"/>
+      <c r="K192" s="17"/>
+      <c r="L192" s="17"/>
+      <c r="M192" s="17"/>
+      <c r="N192" s="17"/>
       <c r="O192" s="17"/>
       <c r="P192" s="17"/>
       <c r="Q192" s="17"/>
@@ -7047,21 +7038,33 @@
         <v>177</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C193" s="39" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D193" s="49"/>
       <c r="E193" s="49"/>
       <c r="F193" s="49"/>
       <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="17"/>
-      <c r="K193" s="17"/>
-      <c r="L193" s="17"/>
-      <c r="M193" s="17"/>
+      <c r="H193" s="17">
+        <v>1</v>
+      </c>
+      <c r="I193" s="17">
+        <v>1</v>
+      </c>
+      <c r="J193" s="17">
+        <v>1</v>
+      </c>
+      <c r="K193" s="17">
+        <v>1</v>
+      </c>
+      <c r="L193" s="17">
+        <v>1</v>
+      </c>
+      <c r="M193" s="17">
+        <v>1</v>
+      </c>
       <c r="N193" s="17">
         <v>1</v>
       </c>
@@ -7077,7 +7080,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D194" s="49"/>
       <c r="E194" s="49"/>
@@ -7101,31 +7104,21 @@
         <v>177</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D195" s="49"/>
       <c r="E195" s="49"/>
       <c r="F195" s="49"/>
-      <c r="G195" s="17">
-        <v>1</v>
-      </c>
-      <c r="H195" s="17">
-        <v>1</v>
-      </c>
-      <c r="I195" s="17">
-        <v>1</v>
-      </c>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
       <c r="J195" s="17"/>
-      <c r="K195" s="17">
-        <v>1</v>
-      </c>
+      <c r="K195" s="17"/>
       <c r="L195" s="17"/>
-      <c r="M195" s="17">
-        <v>1</v>
-      </c>
+      <c r="M195" s="17"/>
       <c r="N195" s="17">
         <v>1</v>
       </c>
@@ -7138,10 +7131,10 @@
         <v>177</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C196" s="39" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D196" s="49"/>
       <c r="E196" s="49"/>
@@ -7152,13 +7145,17 @@
       <c r="H196" s="17">
         <v>1</v>
       </c>
-      <c r="I196" s="17"/>
+      <c r="I196" s="17">
+        <v>1</v>
+      </c>
       <c r="J196" s="17"/>
       <c r="K196" s="17">
         <v>1</v>
       </c>
       <c r="L196" s="17"/>
-      <c r="M196" s="17"/>
+      <c r="M196" s="17">
+        <v>1</v>
+      </c>
       <c r="N196" s="17">
         <v>1</v>
       </c>
@@ -7170,9 +7167,11 @@
       <c r="A197" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B197" s="40"/>
+      <c r="B197" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="C197" s="39" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
@@ -7183,60 +7182,64 @@
       <c r="H197" s="17">
         <v>1</v>
       </c>
-      <c r="I197" s="17">
-        <v>1</v>
-      </c>
-      <c r="J197" s="17">
-        <v>1</v>
-      </c>
+      <c r="I197" s="17"/>
+      <c r="J197" s="17"/>
       <c r="K197" s="17">
         <v>1</v>
       </c>
-      <c r="L197" s="17">
-        <v>1</v>
-      </c>
-      <c r="M197" s="17">
-        <v>1</v>
-      </c>
+      <c r="L197" s="17"/>
+      <c r="M197" s="17"/>
       <c r="N197" s="17">
         <v>1</v>
       </c>
-      <c r="O197" s="17">
-        <v>1</v>
-      </c>
-      <c r="P197" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q197" s="17">
-        <v>1</v>
-      </c>
+      <c r="O197" s="17"/>
+      <c r="P197" s="17"/>
+      <c r="Q197" s="17"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B198" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="B198" s="40"/>
       <c r="C198" s="39" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D198" s="49"/>
       <c r="E198" s="49"/>
       <c r="F198" s="49"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="17"/>
-      <c r="K198" s="17"/>
-      <c r="L198" s="17"/>
-      <c r="M198" s="17"/>
+      <c r="G198" s="17">
+        <v>1</v>
+      </c>
+      <c r="H198" s="17">
+        <v>1</v>
+      </c>
+      <c r="I198" s="17">
+        <v>1</v>
+      </c>
+      <c r="J198" s="17">
+        <v>1</v>
+      </c>
+      <c r="K198" s="17">
+        <v>1</v>
+      </c>
+      <c r="L198" s="17">
+        <v>1</v>
+      </c>
+      <c r="M198" s="17">
+        <v>1</v>
+      </c>
       <c r="N198" s="17">
         <v>1</v>
       </c>
-      <c r="O198" s="17"/>
-      <c r="P198" s="17"/>
-      <c r="Q198" s="17"/>
+      <c r="O198" s="17">
+        <v>1</v>
+      </c>
+      <c r="P198" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q198" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="37" t="s">
@@ -7246,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D199" s="49"/>
       <c r="E199" s="49"/>
@@ -7273,7 +7276,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D200" s="49"/>
       <c r="E200" s="49"/>
@@ -7282,9 +7285,7 @@
       <c r="H200" s="17"/>
       <c r="I200" s="17"/>
       <c r="J200" s="17"/>
-      <c r="K200" s="17">
-        <v>1</v>
-      </c>
+      <c r="K200" s="17"/>
       <c r="L200" s="17"/>
       <c r="M200" s="17"/>
       <c r="N200" s="17">
@@ -7299,32 +7300,22 @@
         <v>177</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="D201" s="49"/>
       <c r="E201" s="49"/>
       <c r="F201" s="49"/>
-      <c r="G201" s="17">
-        <v>1</v>
-      </c>
-      <c r="H201" s="17">
-        <v>1</v>
-      </c>
-      <c r="I201" s="17">
-        <v>1</v>
-      </c>
-      <c r="J201" s="17">
-        <v>1</v>
-      </c>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
       <c r="K201" s="17">
         <v>1</v>
       </c>
-      <c r="L201" s="17">
-        <v>1</v>
-      </c>
+      <c r="L201" s="17"/>
       <c r="M201" s="17"/>
       <c r="N201" s="17">
         <v>1</v>
@@ -7338,22 +7329,32 @@
         <v>177</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D202" s="49"/>
       <c r="E202" s="49"/>
       <c r="F202" s="49"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="17"/>
+      <c r="G202" s="17">
+        <v>1</v>
+      </c>
+      <c r="H202" s="17">
+        <v>1</v>
+      </c>
+      <c r="I202" s="17">
+        <v>1</v>
+      </c>
+      <c r="J202" s="17">
+        <v>1</v>
+      </c>
       <c r="K202" s="17">
         <v>1</v>
       </c>
-      <c r="L202" s="17"/>
+      <c r="L202" s="17">
+        <v>1</v>
+      </c>
       <c r="M202" s="17"/>
       <c r="N202" s="17">
         <v>1</v>
@@ -7367,57 +7368,39 @@
         <v>177</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D203" s="49"/>
       <c r="E203" s="49"/>
       <c r="F203" s="49"/>
-      <c r="G203" s="17">
-        <v>1</v>
-      </c>
-      <c r="H203" s="17">
-        <v>1</v>
-      </c>
-      <c r="I203" s="17">
-        <v>1</v>
-      </c>
-      <c r="J203" s="17">
-        <v>1</v>
-      </c>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
       <c r="K203" s="17">
         <v>1</v>
       </c>
-      <c r="L203" s="17">
-        <v>1</v>
-      </c>
-      <c r="M203" s="17">
-        <v>1</v>
-      </c>
+      <c r="L203" s="17"/>
+      <c r="M203" s="17"/>
       <c r="N203" s="17">
         <v>1</v>
       </c>
-      <c r="O203" s="17">
-        <v>1</v>
-      </c>
-      <c r="P203" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q203" s="17">
-        <v>1</v>
-      </c>
+      <c r="O203" s="17"/>
+      <c r="P203" s="17"/>
+      <c r="Q203" s="17"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="D204" s="49"/>
       <c r="E204" s="49"/>
@@ -7428,54 +7411,76 @@
       <c r="H204" s="17">
         <v>1</v>
       </c>
-      <c r="I204" s="17"/>
-      <c r="J204" s="17"/>
+      <c r="I204" s="17">
+        <v>1</v>
+      </c>
+      <c r="J204" s="17">
+        <v>1</v>
+      </c>
       <c r="K204" s="17">
         <v>1</v>
       </c>
-      <c r="L204" s="17"/>
-      <c r="M204" s="17"/>
+      <c r="L204" s="17">
+        <v>1</v>
+      </c>
+      <c r="M204" s="17">
+        <v>1</v>
+      </c>
       <c r="N204" s="17">
         <v>1</v>
       </c>
-      <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
-      <c r="Q204" s="17"/>
+      <c r="O204" s="17">
+        <v>1</v>
+      </c>
+      <c r="P204" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C205" s="16" t="s">
-        <v>187</v>
+      <c r="A205" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B205" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
       <c r="F205" s="49"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
+      <c r="G205" s="17">
+        <v>1</v>
+      </c>
+      <c r="H205" s="17">
+        <v>1</v>
+      </c>
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
-      <c r="K205" s="17"/>
+      <c r="K205" s="17">
+        <v>1</v>
+      </c>
       <c r="L205" s="17"/>
       <c r="M205" s="17"/>
-      <c r="N205" s="17"/>
+      <c r="N205" s="17">
+        <v>1</v>
+      </c>
       <c r="O205" s="17"/>
       <c r="P205" s="17"/>
       <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B206" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206" s="43" t="s">
-        <v>43</v>
+      <c r="A206" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
@@ -7493,14 +7498,14 @@
       <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B207" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="25" t="s">
-        <v>105</v>
+      <c r="A207" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B207" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D207" s="49"/>
       <c r="E207" s="49"/>
@@ -7518,29 +7523,25 @@
       <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B208" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="43" t="s">
-        <v>10</v>
+      <c r="A208" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B208" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D208" s="49"/>
       <c r="E208" s="49"/>
       <c r="F208" s="49"/>
-      <c r="G208" s="17">
-        <v>1</v>
-      </c>
+      <c r="G208" s="17"/>
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
       <c r="L208" s="17"/>
-      <c r="M208" s="17">
-        <v>1</v>
-      </c>
+      <c r="M208" s="17"/>
       <c r="N208" s="17"/>
       <c r="O208" s="17"/>
       <c r="P208" s="17"/>
@@ -7554,12 +7555,14 @@
         <v>6</v>
       </c>
       <c r="C209" s="43" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D209" s="49"/>
       <c r="E209" s="49"/>
       <c r="F209" s="49"/>
-      <c r="G209" s="17"/>
+      <c r="G209" s="17">
+        <v>1</v>
+      </c>
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
@@ -7581,7 +7584,7 @@
         <v>6</v>
       </c>
       <c r="C210" s="43" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="D210" s="49"/>
       <c r="E210" s="49"/>
@@ -7605,10 +7608,10 @@
         <v>44</v>
       </c>
       <c r="B211" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
@@ -7632,23 +7635,19 @@
         <v>44</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C212" s="43" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D212" s="49"/>
       <c r="E212" s="49"/>
       <c r="F212" s="49"/>
       <c r="G212" s="17"/>
-      <c r="H212" s="17">
-        <v>1</v>
-      </c>
+      <c r="H212" s="17"/>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
-      <c r="K212" s="17">
-        <v>1</v>
-      </c>
+      <c r="K212" s="17"/>
       <c r="L212" s="17"/>
       <c r="M212" s="17">
         <v>1</v>
@@ -7663,10 +7662,10 @@
         <v>44</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
@@ -7675,9 +7674,7 @@
       <c r="H213" s="17">
         <v>1</v>
       </c>
-      <c r="I213" s="17">
-        <v>1</v>
-      </c>
+      <c r="I213" s="17"/>
       <c r="J213" s="17"/>
       <c r="K213" s="17">
         <v>1</v>
@@ -7699,16 +7696,22 @@
         <v>53</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
       <c r="F214" s="49"/>
       <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="17"/>
+      <c r="H214" s="17">
+        <v>1</v>
+      </c>
+      <c r="I214" s="17">
+        <v>1</v>
+      </c>
       <c r="J214" s="17"/>
-      <c r="K214" s="17"/>
+      <c r="K214" s="17">
+        <v>1</v>
+      </c>
       <c r="L214" s="17"/>
       <c r="M214" s="17">
         <v>1</v>
@@ -7723,10 +7726,10 @@
         <v>44</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D215" s="49"/>
       <c r="E215" s="49"/>
@@ -7735,9 +7738,7 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
-      <c r="K215" s="17">
-        <v>1</v>
-      </c>
+      <c r="K215" s="17"/>
       <c r="L215" s="17"/>
       <c r="M215" s="17">
         <v>1</v>
@@ -7755,7 +7756,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="D216" s="49"/>
       <c r="E216" s="49"/>
@@ -7768,7 +7769,9 @@
         <v>1</v>
       </c>
       <c r="L216" s="17"/>
-      <c r="M216" s="17"/>
+      <c r="M216" s="17">
+        <v>1</v>
+      </c>
       <c r="N216" s="17"/>
       <c r="O216" s="17"/>
       <c r="P216" s="17"/>
@@ -7809,7 +7812,7 @@
         <v>6</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D218" s="49"/>
       <c r="E218" s="49"/>
@@ -7836,7 +7839,7 @@
         <v>6</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="D219" s="49"/>
       <c r="E219" s="49"/>
@@ -7845,11 +7848,11 @@
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
-      <c r="K219" s="17"/>
+      <c r="K219" s="17">
+        <v>1</v>
+      </c>
       <c r="L219" s="17"/>
-      <c r="M219" s="17">
-        <v>1</v>
-      </c>
+      <c r="M219" s="17"/>
       <c r="N219" s="17"/>
       <c r="O219" s="17"/>
       <c r="P219" s="17"/>
@@ -7860,17 +7863,15 @@
         <v>44</v>
       </c>
       <c r="B220" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C220" s="43" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D220" s="49"/>
       <c r="E220" s="49"/>
       <c r="F220" s="49"/>
-      <c r="G220" s="17">
-        <v>1</v>
-      </c>
+      <c r="G220" s="17"/>
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
@@ -7889,10 +7890,10 @@
         <v>44</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D221" s="49"/>
       <c r="E221" s="49"/>
@@ -7900,46 +7901,28 @@
       <c r="G221" s="17">
         <v>1</v>
       </c>
-      <c r="H221" s="17">
-        <v>1</v>
-      </c>
-      <c r="I221" s="17">
-        <v>1</v>
-      </c>
-      <c r="J221" s="17">
-        <v>1</v>
-      </c>
-      <c r="K221" s="17">
-        <v>1</v>
-      </c>
-      <c r="L221" s="17">
-        <v>1</v>
-      </c>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
       <c r="M221" s="17">
         <v>1</v>
       </c>
-      <c r="N221" s="17">
-        <v>1</v>
-      </c>
-      <c r="O221" s="17">
-        <v>1</v>
-      </c>
-      <c r="P221" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="17">
-        <v>1</v>
-      </c>
+      <c r="N221" s="17"/>
+      <c r="O221" s="17"/>
+      <c r="P221" s="17"/>
+      <c r="Q221" s="17"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D222" s="49"/>
       <c r="E222" s="49"/>
@@ -7947,28 +7930,46 @@
       <c r="G222" s="17">
         <v>1</v>
       </c>
-      <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
-      <c r="J222" s="17"/>
-      <c r="K222" s="17"/>
-      <c r="L222" s="17"/>
+      <c r="H222" s="17">
+        <v>1</v>
+      </c>
+      <c r="I222" s="17">
+        <v>1</v>
+      </c>
+      <c r="J222" s="17">
+        <v>1</v>
+      </c>
+      <c r="K222" s="17">
+        <v>1</v>
+      </c>
+      <c r="L222" s="17">
+        <v>1</v>
+      </c>
       <c r="M222" s="17">
         <v>1</v>
       </c>
-      <c r="N222" s="17"/>
-      <c r="O222" s="17"/>
-      <c r="P222" s="17"/>
-      <c r="Q222" s="17"/>
+      <c r="N222" s="17">
+        <v>1</v>
+      </c>
+      <c r="O222" s="17">
+        <v>1</v>
+      </c>
+      <c r="P222" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D223" s="49"/>
       <c r="E223" s="49"/>
@@ -7976,21 +7977,11 @@
       <c r="G223" s="17">
         <v>1</v>
       </c>
-      <c r="H223" s="17">
-        <v>1</v>
-      </c>
-      <c r="I223" s="17">
-        <v>1</v>
-      </c>
-      <c r="J223" s="17">
-        <v>1</v>
-      </c>
-      <c r="K223" s="17">
-        <v>1</v>
-      </c>
-      <c r="L223" s="17">
-        <v>1</v>
-      </c>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
       <c r="M223" s="17">
         <v>1</v>
       </c>
@@ -8004,20 +7995,32 @@
         <v>44</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D224" s="49"/>
       <c r="E224" s="49"/>
       <c r="F224" s="49"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="17"/>
+      <c r="G224" s="17">
+        <v>1</v>
+      </c>
+      <c r="H224" s="17">
+        <v>1</v>
+      </c>
+      <c r="I224" s="17">
+        <v>1</v>
+      </c>
+      <c r="J224" s="17">
+        <v>1</v>
+      </c>
+      <c r="K224" s="17">
+        <v>1</v>
+      </c>
+      <c r="L224" s="17">
+        <v>1</v>
+      </c>
       <c r="M224" s="17">
         <v>1</v>
       </c>
@@ -8031,10 +8034,10 @@
         <v>44</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="D225" s="49"/>
       <c r="E225" s="49"/>
@@ -8043,9 +8046,7 @@
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
-      <c r="K225" s="17">
-        <v>1</v>
-      </c>
+      <c r="K225" s="17"/>
       <c r="L225" s="17"/>
       <c r="M225" s="17">
         <v>1</v>
@@ -8063,7 +8064,7 @@
         <v>6</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D226" s="49"/>
       <c r="E226" s="49"/>
@@ -8072,7 +8073,9 @@
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
-      <c r="K226" s="17"/>
+      <c r="K226" s="17">
+        <v>1</v>
+      </c>
       <c r="L226" s="17"/>
       <c r="M226" s="17">
         <v>1</v>
@@ -8090,22 +8093,16 @@
         <v>6</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D227" s="49"/>
       <c r="E227" s="49"/>
       <c r="F227" s="49"/>
-      <c r="G227" s="17">
-        <v>1</v>
-      </c>
-      <c r="H227" s="17">
-        <v>1</v>
-      </c>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
-      <c r="K227" s="17">
-        <v>1</v>
-      </c>
+      <c r="K227" s="17"/>
       <c r="L227" s="17"/>
       <c r="M227" s="17">
         <v>1</v>
@@ -8123,13 +8120,17 @@
         <v>6</v>
       </c>
       <c r="C228" s="43" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="D228" s="49"/>
       <c r="E228" s="49"/>
       <c r="F228" s="49"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
+      <c r="G228" s="17">
+        <v>1</v>
+      </c>
+      <c r="H228" s="17">
+        <v>1</v>
+      </c>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
       <c r="K228" s="17">
@@ -8152,17 +8153,13 @@
         <v>6</v>
       </c>
       <c r="C229" s="43" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D229" s="49"/>
       <c r="E229" s="49"/>
       <c r="F229" s="49"/>
-      <c r="G229" s="17">
-        <v>1</v>
-      </c>
-      <c r="H229" s="17">
-        <v>1</v>
-      </c>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
       <c r="K229" s="17">
@@ -8178,23 +8175,33 @@
       <c r="Q229" s="17"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B230" s="44"/>
-      <c r="C230" s="13" t="s">
-        <v>0</v>
+      <c r="A230" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D230" s="49"/>
       <c r="E230" s="49"/>
       <c r="F230" s="49"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
+      <c r="G230" s="17">
+        <v>1</v>
+      </c>
+      <c r="H230" s="17">
+        <v>1</v>
+      </c>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
-      <c r="K230" s="17"/>
+      <c r="K230" s="17">
+        <v>1</v>
+      </c>
       <c r="L230" s="17"/>
-      <c r="M230" s="17"/>
+      <c r="M230" s="17">
+        <v>1</v>
+      </c>
       <c r="N230" s="17"/>
       <c r="O230" s="17"/>
       <c r="P230" s="17"/>
@@ -8204,21 +8211,15 @@
       <c r="A231" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B231" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B231" s="44"/>
       <c r="C231" s="13" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D231" s="49"/>
       <c r="E231" s="49"/>
       <c r="F231" s="49"/>
-      <c r="G231" s="17">
-        <v>1</v>
-      </c>
-      <c r="H231" s="17">
-        <v>1</v>
-      </c>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
       <c r="K231" s="17"/>
@@ -8237,7 +8238,7 @@
         <v>53</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D232" s="49"/>
       <c r="E232" s="49"/>
@@ -8250,9 +8251,7 @@
       </c>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
-      <c r="K232" s="17">
-        <v>1</v>
-      </c>
+      <c r="K232" s="17"/>
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
       <c r="N232" s="17"/>
@@ -8265,19 +8264,25 @@
         <v>48</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="D233" s="49"/>
       <c r="E233" s="49"/>
       <c r="F233" s="49"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
+      <c r="G233" s="17">
+        <v>1</v>
+      </c>
+      <c r="H233" s="17">
+        <v>1</v>
+      </c>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
-      <c r="K233" s="17"/>
+      <c r="K233" s="17">
+        <v>1</v>
+      </c>
       <c r="L233" s="17"/>
       <c r="M233" s="17"/>
       <c r="N233" s="17"/>
@@ -8290,10 +8295,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="D234" s="49"/>
       <c r="E234" s="49"/>
@@ -8318,20 +8323,16 @@
         <v>53</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D235" s="49"/>
       <c r="E235" s="49"/>
       <c r="F235" s="49"/>
       <c r="G235" s="17"/>
-      <c r="H235" s="17">
-        <v>1</v>
-      </c>
+      <c r="H235" s="17"/>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
-      <c r="K235" s="17">
-        <v>1</v>
-      </c>
+      <c r="K235" s="17"/>
       <c r="L235" s="17"/>
       <c r="M235" s="17"/>
       <c r="N235" s="17"/>
@@ -8347,44 +8348,26 @@
         <v>53</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="D236" s="49"/>
       <c r="E236" s="49"/>
       <c r="F236" s="49"/>
-      <c r="G236" s="17">
-        <v>1</v>
-      </c>
+      <c r="G236" s="17"/>
       <c r="H236" s="17">
         <v>1</v>
       </c>
-      <c r="I236" s="17">
-        <v>1</v>
-      </c>
-      <c r="J236" s="17">
-        <v>1</v>
-      </c>
+      <c r="I236" s="17"/>
+      <c r="J236" s="17"/>
       <c r="K236" s="17">
         <v>1</v>
       </c>
-      <c r="L236" s="17">
-        <v>1</v>
-      </c>
-      <c r="M236" s="17">
-        <v>1</v>
-      </c>
-      <c r="N236" s="17">
-        <v>1</v>
-      </c>
-      <c r="O236" s="17">
-        <v>1</v>
-      </c>
-      <c r="P236" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q236" s="17">
-        <v>1</v>
-      </c>
+      <c r="L236" s="17"/>
+      <c r="M236" s="17"/>
+      <c r="N236" s="17"/>
+      <c r="O236" s="17"/>
+      <c r="P236" s="17"/>
+      <c r="Q236" s="17"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="11" t="s">
@@ -8394,7 +8377,7 @@
         <v>53</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D237" s="49"/>
       <c r="E237" s="49"/>
@@ -8441,7 +8424,7 @@
         <v>53</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="D238" s="49"/>
       <c r="E238" s="49"/>
@@ -8485,56 +8468,103 @@
         <v>48</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C239" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D239" s="49"/>
+      <c r="E239" s="49"/>
+      <c r="F239" s="49"/>
+      <c r="G239" s="17">
+        <v>1</v>
+      </c>
+      <c r="H239" s="17">
+        <v>1</v>
+      </c>
+      <c r="I239" s="17">
+        <v>1</v>
+      </c>
+      <c r="J239" s="17">
+        <v>1</v>
+      </c>
+      <c r="K239" s="17">
+        <v>1</v>
+      </c>
+      <c r="L239" s="17">
+        <v>1</v>
+      </c>
+      <c r="M239" s="17">
+        <v>1</v>
+      </c>
+      <c r="N239" s="17">
+        <v>1</v>
+      </c>
+      <c r="O239" s="17">
+        <v>1</v>
+      </c>
+      <c r="P239" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A240" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D239" s="52"/>
-      <c r="E239" s="52"/>
-      <c r="F239" s="52"/>
-      <c r="G239" s="58"/>
-      <c r="H239" s="58">
-        <v>1</v>
-      </c>
-      <c r="I239" s="58"/>
-      <c r="J239" s="58"/>
-      <c r="K239" s="58">
-        <v>1</v>
-      </c>
-      <c r="L239" s="58"/>
-      <c r="M239" s="58"/>
-      <c r="N239" s="58"/>
-      <c r="O239" s="58"/>
-      <c r="P239" s="58"/>
-      <c r="Q239" s="58"/>
+      <c r="D240" s="52"/>
+      <c r="E240" s="52"/>
+      <c r="F240" s="52"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="58">
+        <v>1</v>
+      </c>
+      <c r="I240" s="58"/>
+      <c r="J240" s="58"/>
+      <c r="K240" s="58">
+        <v>1</v>
+      </c>
+      <c r="L240" s="58"/>
+      <c r="M240" s="58"/>
+      <c r="N240" s="58"/>
+      <c r="O240" s="58"/>
+      <c r="P240" s="58"/>
+      <c r="Q240" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q239" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q239">
-      <sortCondition ref="A1:A239"/>
+  <autoFilter ref="A1:Q240" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q240">
+      <sortCondition ref="A1:A240"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q238">
-    <sortCondition ref="A2:A238"/>
-    <sortCondition ref="C2:C238"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q239">
+    <sortCondition ref="A2:A239"/>
+    <sortCondition ref="C2:C239"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C193" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C194" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C18" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C208" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C209" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C209" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C210" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
     <hyperlink ref="C141" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
     <hyperlink ref="C142" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C33" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C52" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C210" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C211" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C28" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C194" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C195" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
     <hyperlink ref="C74" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
     <hyperlink ref="C143" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C212" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C213" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
     <hyperlink ref="C144" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
     <hyperlink ref="C76" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
     <hyperlink ref="C77" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
@@ -8545,22 +8575,22 @@
     <hyperlink ref="C146" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
     <hyperlink ref="C147" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
     <hyperlink ref="C148" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C181" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C184" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C183" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C196" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C215" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C182" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C185" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C184" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C197" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C216" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C35" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C177" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C178" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C179" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C178" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C179" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C180" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C48" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C219" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C198" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C220" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C199" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C207" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C208" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
     <hyperlink ref="C57" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C221" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C222" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
     <hyperlink ref="C97" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
     <hyperlink ref="C98" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
     <hyperlink ref="C99" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
@@ -8568,77 +8598,77 @@
     <hyperlink ref="C101" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
     <hyperlink ref="C102" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
     <hyperlink ref="C103" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C223" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C224" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C13" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C37" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
     <hyperlink ref="C149" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
     <hyperlink ref="C58" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C199" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C153" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C151" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C152" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C154" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C200" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C154" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C152" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C153" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C155" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C39" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C155" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C200" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C156" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C201" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C50" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C156" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C206" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C225" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C226" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C187" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C157" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C207" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C226" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C227" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C188" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C40" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C157" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C227" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C228" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C188" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C190" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C158" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C228" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C229" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C189" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C191" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C25" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C239" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C240" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
     <hyperlink ref="C59" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C174" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C191" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C202" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C175" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C204" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C229" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C176" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C175" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C192" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C203" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C176" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C205" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C230" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C177" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
     <hyperlink ref="C89" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C192" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C193" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C17" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
     <hyperlink ref="C107" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
     <hyperlink ref="C63" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C29" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C211" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C195" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C212" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C196" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
     <hyperlink ref="C145" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
     <hyperlink ref="C80" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C213" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C214" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
     <hyperlink ref="C108" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
     <hyperlink ref="C109" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C214" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C215" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
     <hyperlink ref="C114" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
     <hyperlink ref="C64" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
     <hyperlink ref="C65" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
     <hyperlink ref="C66" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C231" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C232" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C34" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C45" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C46" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C232" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C233" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
     <hyperlink ref="C115" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C47" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C19" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C234" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C235" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C235" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C236" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
     <hyperlink ref="C116" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
     <hyperlink ref="C117" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
     <hyperlink ref="C93" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C220" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C222" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C221" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C223" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
     <hyperlink ref="C67" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C9" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C10" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
@@ -8649,7 +8679,7 @@
     <hyperlink ref="C118" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
     <hyperlink ref="C94" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C21" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C224" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C225" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C14" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C20" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
     <hyperlink ref="C68" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
@@ -8660,12 +8690,12 @@
     <hyperlink ref="C16" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
     <hyperlink ref="C122" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
     <hyperlink ref="C70" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C201" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C202" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
     <hyperlink ref="C123" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
     <hyperlink ref="C62" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C22" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C23" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C238" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C239" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C24" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
     <hyperlink ref="C95" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
     <hyperlink ref="C137" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
@@ -8673,18 +8703,18 @@
     <hyperlink ref="C138" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
     <hyperlink ref="C139" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
     <hyperlink ref="C140" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C203" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C204" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
     <hyperlink ref="C91" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C230" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C180" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C197" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C231" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C181" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C198" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
     <hyperlink ref="C96" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C41" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C36" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C236" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C237" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
     <hyperlink ref="C85" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C26" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C189" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C190" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
     <hyperlink ref="C61" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
     <hyperlink ref="C60" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
@@ -8697,7 +8727,7 @@
     <hyperlink ref="C42" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C44" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
     <hyperlink ref="C150" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C233" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C234" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
     <hyperlink ref="C75" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
     <hyperlink ref="C73" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
     <hyperlink ref="C88" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
@@ -8715,36 +8745,36 @@
     <hyperlink ref="C128" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
     <hyperlink ref="C129" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
     <hyperlink ref="C119" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C158" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C169" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C159" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C161" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C160" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C167" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C165" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C162" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C166" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C171" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C172" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C173" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C170" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C163" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C168" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C164" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C237" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C159" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C170" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C160" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C162" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C161" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C168" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C166" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C163" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C167" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C172" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C173" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C174" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C171" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C164" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C169" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C165" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C238" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
     <hyperlink ref="C130" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
     <hyperlink ref="C110" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
     <hyperlink ref="C111" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
     <hyperlink ref="C112" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
     <hyperlink ref="C113" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C182" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C183" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C27" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C30" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C31" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C32" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C205" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C185" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C186" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C206" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C186" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C187" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C53" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C54" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C55" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
@@ -8754,8 +8784,9 @@
     <hyperlink ref="C106" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C49" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
     <hyperlink ref="C217" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C218" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C216" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C219" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C218" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C151" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C22A4-04B6-0346-AD03-694FDCA3E68A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF63A1F-89A8-E345-B1E6-9C9DC49FDD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23200" yWindow="-23500" windowWidth="38400" windowHeight="23500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$241</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="285">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -881,6 +881,9 @@
   </si>
   <si>
     <t>Management Console</t>
+  </si>
+  <si>
+    <t>Distro for OpenTelemetry (ADOT)</t>
   </si>
 </sst>
 </file>
@@ -1611,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q240"/>
+  <dimension ref="A1:Q241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4100,7 +4103,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D86" s="49"/>
       <c r="E86" s="49"/>
@@ -4122,10 +4125,10 @@
         <v>221</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="D87" s="49"/>
       <c r="E87" s="49"/>
@@ -4147,10 +4150,10 @@
         <v>221</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="D88" s="49"/>
       <c r="E88" s="49"/>
@@ -4175,16 +4178,14 @@
         <v>6</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="D89" s="49"/>
       <c r="E89" s="49"/>
       <c r="F89" s="49"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17">
-        <v>1</v>
-      </c>
+      <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -4195,21 +4196,23 @@
       <c r="Q89" s="17"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="26" t="s">
-        <v>229</v>
+      <c r="A90" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>52</v>
       </c>
       <c r="D90" s="49"/>
       <c r="E90" s="49"/>
       <c r="F90" s="49"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+      <c r="I90" s="17">
+        <v>1</v>
+      </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -4226,8 +4229,8 @@
       <c r="B91" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="28" t="s">
-        <v>88</v>
+      <c r="C91" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="D91" s="49"/>
       <c r="E91" s="49"/>
@@ -4251,8 +4254,8 @@
       <c r="B92" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="26" t="s">
-        <v>227</v>
+      <c r="C92" s="28" t="s">
+        <v>88</v>
       </c>
       <c r="D92" s="49"/>
       <c r="E92" s="49"/>
@@ -4270,14 +4273,14 @@
       <c r="Q92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>68</v>
+      <c r="A93" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B93" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="D93" s="49"/>
       <c r="E93" s="49"/>
@@ -4302,7 +4305,7 @@
         <v>53</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D94" s="49"/>
       <c r="E94" s="49"/>
@@ -4327,7 +4330,7 @@
         <v>53</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D95" s="49"/>
       <c r="E95" s="49"/>
@@ -4345,12 +4348,14 @@
       <c r="Q95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" s="30"/>
-      <c r="C96" s="31" t="s">
-        <v>3</v>
+      <c r="A96" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D96" s="49"/>
       <c r="E96" s="49"/>
@@ -4371,11 +4376,9 @@
       <c r="A97" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="32" t="s">
-        <v>6</v>
-      </c>
+      <c r="B97" s="30"/>
       <c r="C97" s="31" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="D97" s="49"/>
       <c r="E97" s="49"/>
@@ -4400,7 +4403,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D98" s="49"/>
       <c r="E98" s="49"/>
@@ -4425,7 +4428,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D99" s="49"/>
       <c r="E99" s="49"/>
@@ -4450,7 +4453,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D100" s="49"/>
       <c r="E100" s="49"/>
@@ -4475,7 +4478,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="49"/>
@@ -4500,7 +4503,7 @@
         <v>6</v>
       </c>
       <c r="C102" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D102" s="49"/>
       <c r="E102" s="49"/>
@@ -4525,7 +4528,7 @@
         <v>6</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D103" s="49"/>
       <c r="E103" s="49"/>
@@ -4550,7 +4553,7 @@
         <v>6</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="D104" s="49"/>
       <c r="E104" s="49"/>
@@ -4575,7 +4578,7 @@
         <v>6</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D105" s="49"/>
       <c r="E105" s="49"/>
@@ -4597,10 +4600,10 @@
         <v>35</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C106" s="31" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D106" s="49"/>
       <c r="E106" s="49"/>
@@ -4618,14 +4621,14 @@
       <c r="Q106" s="17"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>135</v>
+      <c r="A107" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>213</v>
       </c>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -4638,9 +4641,7 @@
       <c r="L107" s="17"/>
       <c r="M107" s="17"/>
       <c r="N107" s="17"/>
-      <c r="O107" s="17">
-        <v>1</v>
-      </c>
+      <c r="O107" s="17"/>
       <c r="P107" s="17"/>
       <c r="Q107" s="17"/>
     </row>
@@ -4652,7 +4653,7 @@
         <v>53</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -4679,7 +4680,7 @@
         <v>53</v>
       </c>
       <c r="C109" s="28" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -4703,10 +4704,10 @@
         <v>244</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="D110" s="49"/>
       <c r="E110" s="49"/>
@@ -4733,7 +4734,7 @@
         <v>179</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D111" s="49"/>
       <c r="E111" s="49"/>
@@ -4760,7 +4761,7 @@
         <v>179</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -4787,7 +4788,7 @@
         <v>179</v>
       </c>
       <c r="C113" s="28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D113" s="49"/>
       <c r="E113" s="49"/>
@@ -4811,10 +4812,10 @@
         <v>244</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="D114" s="49"/>
       <c r="E114" s="49"/>
@@ -4841,7 +4842,7 @@
         <v>53</v>
       </c>
       <c r="C115" s="28" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D115" s="49"/>
       <c r="E115" s="49"/>
@@ -4868,7 +4869,7 @@
         <v>53</v>
       </c>
       <c r="C116" s="28" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="D116" s="49"/>
       <c r="E116" s="49"/>
@@ -4895,7 +4896,7 @@
         <v>53</v>
       </c>
       <c r="C117" s="28" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="D117" s="49"/>
       <c r="E117" s="49"/>
@@ -4922,7 +4923,7 @@
         <v>53</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D118" s="49"/>
       <c r="E118" s="49"/>
@@ -4946,10 +4947,10 @@
         <v>244</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="D119" s="49"/>
       <c r="E119" s="49"/>
@@ -4973,10 +4974,10 @@
         <v>244</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="D120" s="49"/>
       <c r="E120" s="49"/>
@@ -5003,7 +5004,7 @@
         <v>53</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D121" s="49"/>
       <c r="E121" s="49"/>
@@ -5030,7 +5031,7 @@
         <v>53</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D122" s="49"/>
       <c r="E122" s="49"/>
@@ -5057,7 +5058,7 @@
         <v>53</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="49"/>
@@ -5084,7 +5085,7 @@
         <v>53</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="D124" s="49"/>
       <c r="E124" s="49"/>
@@ -5111,7 +5112,7 @@
         <v>53</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
@@ -5138,7 +5139,7 @@
         <v>53</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D126" s="49"/>
       <c r="E126" s="49"/>
@@ -5165,7 +5166,7 @@
         <v>53</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D127" s="49"/>
       <c r="E127" s="49"/>
@@ -5192,7 +5193,7 @@
         <v>53</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="D128" s="49"/>
       <c r="E128" s="49"/>
@@ -5219,7 +5220,7 @@
         <v>53</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D129" s="49"/>
       <c r="E129" s="49"/>
@@ -5246,7 +5247,7 @@
         <v>53</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D130" s="49"/>
       <c r="E130" s="49"/>
@@ -5273,7 +5274,7 @@
         <v>53</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D131" s="49"/>
       <c r="E131" s="49"/>
@@ -5300,7 +5301,7 @@
         <v>53</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D132" s="49"/>
       <c r="E132" s="49"/>
@@ -5327,7 +5328,7 @@
         <v>53</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D133" s="49"/>
       <c r="E133" s="49"/>
@@ -5354,7 +5355,7 @@
         <v>53</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D134" s="49"/>
       <c r="E134" s="49"/>
@@ -5381,7 +5382,7 @@
         <v>53</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D135" s="49"/>
       <c r="E135" s="49"/>
@@ -5408,7 +5409,7 @@
         <v>53</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="D136" s="49"/>
       <c r="E136" s="49"/>
@@ -5435,7 +5436,7 @@
         <v>53</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D137" s="49"/>
       <c r="E137" s="49"/>
@@ -5462,7 +5463,7 @@
         <v>53</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D138" s="49"/>
       <c r="E138" s="49"/>
@@ -5489,7 +5490,7 @@
         <v>53</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="D139" s="49"/>
       <c r="E139" s="49"/>
@@ -5516,7 +5517,7 @@
         <v>53</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D140" s="49"/>
       <c r="E140" s="49"/>
@@ -5536,31 +5537,29 @@
       <c r="Q140" s="17"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B141" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>91</v>
+      <c r="A141" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="D141" s="49"/>
       <c r="E141" s="49"/>
       <c r="F141" s="49"/>
       <c r="G141" s="17"/>
-      <c r="H141" s="17">
-        <v>1</v>
-      </c>
+      <c r="H141" s="17"/>
       <c r="I141" s="17"/>
       <c r="J141" s="17"/>
-      <c r="K141" s="17">
-        <v>1</v>
-      </c>
+      <c r="K141" s="17"/>
       <c r="L141" s="17"/>
       <c r="M141" s="17"/>
       <c r="N141" s="17"/>
-      <c r="O141" s="17"/>
+      <c r="O141" s="17">
+        <v>1</v>
+      </c>
       <c r="P141" s="17"/>
       <c r="Q141" s="17"/>
     </row>
@@ -5572,16 +5571,20 @@
         <v>6</v>
       </c>
       <c r="C142" s="35" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D142" s="49"/>
       <c r="E142" s="49"/>
       <c r="F142" s="49"/>
       <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
+      <c r="H142" s="17">
+        <v>1</v>
+      </c>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
-      <c r="K142" s="17"/>
+      <c r="K142" s="17">
+        <v>1</v>
+      </c>
       <c r="L142" s="17"/>
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
@@ -5597,44 +5600,22 @@
         <v>6</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D143" s="49"/>
       <c r="E143" s="49"/>
       <c r="F143" s="49"/>
-      <c r="G143" s="17">
-        <v>1</v>
-      </c>
-      <c r="H143" s="17">
-        <v>1</v>
-      </c>
-      <c r="I143" s="17">
-        <v>1</v>
-      </c>
-      <c r="J143" s="17">
-        <v>1</v>
-      </c>
-      <c r="K143" s="17">
-        <v>1</v>
-      </c>
-      <c r="L143" s="17">
-        <v>1</v>
-      </c>
-      <c r="M143" s="17">
-        <v>1</v>
-      </c>
-      <c r="N143" s="17">
-        <v>1</v>
-      </c>
-      <c r="O143" s="17">
-        <v>1</v>
-      </c>
-      <c r="P143" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q143" s="17">
-        <v>1</v>
-      </c>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="33" t="s">
@@ -5644,7 +5625,7 @@
         <v>6</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D144" s="49"/>
       <c r="E144" s="49"/>
@@ -5658,28 +5639,40 @@
       <c r="I144" s="17">
         <v>1</v>
       </c>
-      <c r="J144" s="17"/>
+      <c r="J144" s="17">
+        <v>1</v>
+      </c>
       <c r="K144" s="17">
         <v>1</v>
       </c>
-      <c r="L144" s="17"/>
+      <c r="L144" s="17">
+        <v>1</v>
+      </c>
       <c r="M144" s="17">
         <v>1</v>
       </c>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
+      <c r="N144" s="17">
+        <v>1</v>
+      </c>
+      <c r="O144" s="17">
+        <v>1</v>
+      </c>
+      <c r="P144" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B145" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D145" s="49"/>
       <c r="E145" s="49"/>
@@ -5693,55 +5686,65 @@
       <c r="I145" s="17">
         <v>1</v>
       </c>
-      <c r="J145" s="17">
-        <v>1</v>
-      </c>
+      <c r="J145" s="17"/>
       <c r="K145" s="17">
         <v>1</v>
       </c>
-      <c r="L145" s="17">
-        <v>1</v>
-      </c>
+      <c r="L145" s="17"/>
       <c r="M145" s="17">
         <v>1</v>
       </c>
-      <c r="N145" s="17">
-        <v>1</v>
-      </c>
-      <c r="O145" s="17">
-        <v>1</v>
-      </c>
-      <c r="P145" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="17">
-        <v>1</v>
-      </c>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D146" s="49"/>
       <c r="E146" s="49"/>
       <c r="F146" s="49"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="17"/>
-      <c r="K146" s="17"/>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
+      <c r="G146" s="17">
+        <v>1</v>
+      </c>
+      <c r="H146" s="17">
+        <v>1</v>
+      </c>
+      <c r="I146" s="17">
+        <v>1</v>
+      </c>
+      <c r="J146" s="17">
+        <v>1</v>
+      </c>
+      <c r="K146" s="17">
+        <v>1</v>
+      </c>
+      <c r="L146" s="17">
+        <v>1</v>
+      </c>
+      <c r="M146" s="17">
+        <v>1</v>
+      </c>
+      <c r="N146" s="17">
+        <v>1</v>
+      </c>
+      <c r="O146" s="17">
+        <v>1</v>
+      </c>
+      <c r="P146" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="33" t="s">
@@ -5751,20 +5754,16 @@
         <v>6</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D147" s="49"/>
       <c r="E147" s="49"/>
       <c r="F147" s="49"/>
       <c r="G147" s="17"/>
-      <c r="H147" s="17">
-        <v>1</v>
-      </c>
+      <c r="H147" s="17"/>
       <c r="I147" s="17"/>
       <c r="J147" s="17"/>
-      <c r="K147" s="17">
-        <v>1</v>
-      </c>
+      <c r="K147" s="17"/>
       <c r="L147" s="17"/>
       <c r="M147" s="17"/>
       <c r="N147" s="17"/>
@@ -5780,16 +5779,20 @@
         <v>6</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D148" s="49"/>
       <c r="E148" s="49"/>
       <c r="F148" s="49"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
+      <c r="H148" s="17">
+        <v>1</v>
+      </c>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
+      <c r="K148" s="17">
+        <v>1</v>
+      </c>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
@@ -5805,7 +5808,7 @@
         <v>6</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D149" s="49"/>
       <c r="E149" s="49"/>
@@ -5827,10 +5830,10 @@
         <v>34</v>
       </c>
       <c r="B150" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="D150" s="49"/>
       <c r="E150" s="49"/>
@@ -5852,17 +5855,15 @@
         <v>34</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
       <c r="F151" s="49"/>
-      <c r="G151" s="17">
-        <v>1</v>
-      </c>
+      <c r="G151" s="17"/>
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
       <c r="J151" s="17"/>
@@ -5882,22 +5883,18 @@
         <v>6</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="D152" s="49"/>
       <c r="E152" s="49"/>
       <c r="F152" s="49"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17">
-        <v>1</v>
-      </c>
-      <c r="I152" s="17">
-        <v>1</v>
-      </c>
+      <c r="G152" s="17">
+        <v>1</v>
+      </c>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
       <c r="J152" s="17"/>
-      <c r="K152" s="17">
-        <v>1</v>
-      </c>
+      <c r="K152" s="17"/>
       <c r="L152" s="17"/>
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
@@ -5913,7 +5910,7 @@
         <v>6</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D153" s="49"/>
       <c r="E153" s="49"/>
@@ -5944,7 +5941,7 @@
         <v>6</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="49"/>
@@ -5975,18 +5972,18 @@
         <v>6</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D155" s="49"/>
       <c r="E155" s="49"/>
       <c r="F155" s="49"/>
-      <c r="G155" s="17">
-        <v>1</v>
-      </c>
+      <c r="G155" s="17"/>
       <c r="H155" s="17">
         <v>1</v>
       </c>
-      <c r="I155" s="17"/>
+      <c r="I155" s="17">
+        <v>1</v>
+      </c>
       <c r="J155" s="17"/>
       <c r="K155" s="17">
         <v>1</v>
@@ -6006,7 +6003,7 @@
         <v>6</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D156" s="49"/>
       <c r="E156" s="49"/>
@@ -6014,10 +6011,14 @@
       <c r="G156" s="17">
         <v>1</v>
       </c>
-      <c r="H156" s="17"/>
+      <c r="H156" s="17">
+        <v>1</v>
+      </c>
       <c r="I156" s="17"/>
       <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
+      <c r="K156" s="17">
+        <v>1</v>
+      </c>
       <c r="L156" s="17"/>
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
@@ -6033,12 +6034,14 @@
         <v>6</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D157" s="49"/>
       <c r="E157" s="49"/>
       <c r="F157" s="49"/>
-      <c r="G157" s="17"/>
+      <c r="G157" s="17">
+        <v>1</v>
+      </c>
       <c r="H157" s="17"/>
       <c r="I157" s="17"/>
       <c r="J157" s="17"/>
@@ -6058,7 +6061,7 @@
         <v>6</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D158" s="49"/>
       <c r="E158" s="49"/>
@@ -6066,15 +6069,9 @@
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
-      <c r="J158" s="17">
-        <v>1</v>
-      </c>
-      <c r="K158" s="17">
-        <v>1</v>
-      </c>
-      <c r="L158" s="17">
-        <v>1</v>
-      </c>
+      <c r="J158" s="17"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
       <c r="O158" s="17"/>
@@ -6089,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
@@ -6100,7 +6097,9 @@
       <c r="J159" s="17">
         <v>1</v>
       </c>
-      <c r="K159" s="17"/>
+      <c r="K159" s="17">
+        <v>1</v>
+      </c>
       <c r="L159" s="17">
         <v>1</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D160" s="49"/>
       <c r="E160" s="49"/>
@@ -6147,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
@@ -6176,7 +6175,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D162" s="49"/>
       <c r="E162" s="49"/>
@@ -6205,7 +6204,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D163" s="49"/>
       <c r="E163" s="49"/>
@@ -6234,7 +6233,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D164" s="49"/>
       <c r="E164" s="49"/>
@@ -6263,7 +6262,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D165" s="49"/>
       <c r="E165" s="49"/>
@@ -6292,7 +6291,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -6321,7 +6320,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
@@ -6350,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D168" s="49"/>
       <c r="E168" s="49"/>
@@ -6379,11 +6378,11 @@
         <v>6</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D169" s="51"/>
-      <c r="E169" s="51"/>
-      <c r="F169" s="51"/>
+        <v>265</v>
+      </c>
+      <c r="D169" s="49"/>
+      <c r="E169" s="49"/>
+      <c r="F169" s="49"/>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
@@ -6408,11 +6407,11 @@
         <v>6</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
+        <v>260</v>
+      </c>
+      <c r="D170" s="51"/>
+      <c r="E170" s="51"/>
+      <c r="F170" s="51"/>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
@@ -6437,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D171" s="49"/>
       <c r="E171" s="49"/>
@@ -6466,7 +6465,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
@@ -6495,7 +6494,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -6524,7 +6523,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
@@ -6553,24 +6552,18 @@
         <v>6</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
       <c r="F175" s="49"/>
       <c r="G175" s="17"/>
-      <c r="H175" s="17">
-        <v>1</v>
-      </c>
-      <c r="I175" s="17">
-        <v>1</v>
-      </c>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
       <c r="J175" s="17">
         <v>1</v>
       </c>
-      <c r="K175" s="17">
-        <v>1</v>
-      </c>
+      <c r="K175" s="17"/>
       <c r="L175" s="17">
         <v>1</v>
       </c>
@@ -6588,19 +6581,27 @@
         <v>6</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
       <c r="F176" s="49"/>
-      <c r="G176" s="17">
-        <v>1</v>
-      </c>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="17"/>
-      <c r="K176" s="17"/>
-      <c r="L176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17">
+        <v>1</v>
+      </c>
+      <c r="I176" s="17">
+        <v>1</v>
+      </c>
+      <c r="J176" s="17">
+        <v>1</v>
+      </c>
+      <c r="K176" s="17">
+        <v>1</v>
+      </c>
+      <c r="L176" s="17">
+        <v>1</v>
+      </c>
       <c r="M176" s="17"/>
       <c r="N176" s="17"/>
       <c r="O176" s="17"/>
@@ -6615,12 +6616,14 @@
         <v>6</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D177" s="49"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
-      <c r="G177" s="17"/>
+      <c r="G177" s="17">
+        <v>1</v>
+      </c>
       <c r="H177" s="17"/>
       <c r="I177" s="17"/>
       <c r="J177" s="17"/>
@@ -6633,14 +6636,14 @@
       <c r="Q177" s="17"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>100</v>
+      <c r="A178" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="D178" s="49"/>
       <c r="E178" s="49"/>
@@ -6665,7 +6668,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D179" s="49"/>
       <c r="E179" s="49"/>
@@ -6690,7 +6693,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D180" s="49"/>
       <c r="E180" s="49"/>
@@ -6708,12 +6711,14 @@
       <c r="Q180" s="17"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A181" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B181" s="36"/>
-      <c r="C181" s="28" t="s">
-        <v>1</v>
+      <c r="A181" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
@@ -6734,11 +6739,9 @@
       <c r="A182" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B182" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B182" s="36"/>
       <c r="C182" s="28" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D182" s="49"/>
       <c r="E182" s="49"/>
@@ -6763,25 +6766,21 @@
         <v>6</v>
       </c>
       <c r="C183" s="28" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="D183" s="49"/>
       <c r="E183" s="49"/>
       <c r="F183" s="49"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
-      <c r="I183" s="17">
-        <v>1</v>
-      </c>
+      <c r="I183" s="17"/>
       <c r="J183" s="17"/>
       <c r="K183" s="17"/>
       <c r="L183" s="17"/>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
-      <c r="P183" s="17">
-        <v>1</v>
-      </c>
+      <c r="P183" s="17"/>
       <c r="Q183" s="17"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
@@ -6792,30 +6791,26 @@
         <v>6</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D184" s="49"/>
       <c r="E184" s="49"/>
       <c r="F184" s="49"/>
-      <c r="G184" s="17">
-        <v>1</v>
-      </c>
-      <c r="H184" s="17">
-        <v>1</v>
-      </c>
-      <c r="I184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17">
+        <v>1</v>
+      </c>
       <c r="J184" s="17"/>
-      <c r="K184" s="17">
-        <v>1</v>
-      </c>
+      <c r="K184" s="17"/>
       <c r="L184" s="17"/>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
-      <c r="P184" s="17"/>
-      <c r="Q184" s="17">
-        <v>1</v>
-      </c>
+      <c r="P184" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q184" s="17"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="26" t="s">
@@ -6825,32 +6820,40 @@
         <v>6</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D185" s="49"/>
       <c r="E185" s="49"/>
       <c r="F185" s="49"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
+      <c r="G185" s="17">
+        <v>1</v>
+      </c>
+      <c r="H185" s="17">
+        <v>1</v>
+      </c>
       <c r="I185" s="17"/>
       <c r="J185" s="17"/>
-      <c r="K185" s="17"/>
+      <c r="K185" s="17">
+        <v>1</v>
+      </c>
       <c r="L185" s="17"/>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
-      <c r="P185" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q185" s="17"/>
+      <c r="P185" s="17"/>
+      <c r="Q185" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B186" s="27"/>
+      <c r="B186" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C186" s="28" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="D186" s="49"/>
       <c r="E186" s="49"/>
@@ -6864,18 +6867,18 @@
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
-      <c r="P186" s="17"/>
+      <c r="P186" s="17">
+        <v>1</v>
+      </c>
       <c r="Q186" s="17"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B187" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B187" s="27"/>
       <c r="C187" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D187" s="49"/>
       <c r="E187" s="49"/>
@@ -6900,7 +6903,7 @@
         <v>6</v>
       </c>
       <c r="C188" s="28" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
@@ -6909,9 +6912,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
-      <c r="K188" s="17">
-        <v>1</v>
-      </c>
+      <c r="K188" s="17"/>
       <c r="L188" s="17"/>
       <c r="M188" s="17"/>
       <c r="N188" s="17"/>
@@ -6927,17 +6928,13 @@
         <v>6</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
       <c r="F189" s="49"/>
-      <c r="G189" s="17">
-        <v>1</v>
-      </c>
-      <c r="H189" s="17">
-        <v>1</v>
-      </c>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
       <c r="K189" s="17">
@@ -6958,7 +6955,7 @@
         <v>6</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
@@ -6966,10 +6963,14 @@
       <c r="G190" s="17">
         <v>1</v>
       </c>
-      <c r="H190" s="17"/>
+      <c r="H190" s="17">
+        <v>1</v>
+      </c>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
-      <c r="K190" s="17"/>
+      <c r="K190" s="17">
+        <v>1</v>
+      </c>
       <c r="L190" s="17"/>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
@@ -6985,7 +6986,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="D191" s="49"/>
       <c r="E191" s="49"/>
@@ -6993,14 +6994,10 @@
       <c r="G191" s="17">
         <v>1</v>
       </c>
-      <c r="H191" s="17">
-        <v>1</v>
-      </c>
+      <c r="H191" s="17"/>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
-      <c r="K191" s="17">
-        <v>1</v>
-      </c>
+      <c r="K191" s="17"/>
       <c r="L191" s="17"/>
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
@@ -7016,16 +7013,22 @@
         <v>6</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D192" s="49"/>
       <c r="E192" s="49"/>
       <c r="F192" s="49"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
+      <c r="G192" s="17">
+        <v>1</v>
+      </c>
+      <c r="H192" s="17">
+        <v>1</v>
+      </c>
       <c r="I192" s="17"/>
       <c r="J192" s="17"/>
-      <c r="K192" s="17"/>
+      <c r="K192" s="17">
+        <v>1</v>
+      </c>
       <c r="L192" s="17"/>
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
@@ -7034,40 +7037,26 @@
       <c r="Q192" s="17"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A193" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B193" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C193" s="39" t="s">
-        <v>134</v>
+      <c r="A193" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="D193" s="49"/>
       <c r="E193" s="49"/>
       <c r="F193" s="49"/>
       <c r="G193" s="17"/>
-      <c r="H193" s="17">
-        <v>1</v>
-      </c>
-      <c r="I193" s="17">
-        <v>1</v>
-      </c>
-      <c r="J193" s="17">
-        <v>1</v>
-      </c>
-      <c r="K193" s="17">
-        <v>1</v>
-      </c>
-      <c r="L193" s="17">
-        <v>1</v>
-      </c>
-      <c r="M193" s="17">
-        <v>1</v>
-      </c>
-      <c r="N193" s="17">
-        <v>1</v>
-      </c>
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="17"/>
+      <c r="M193" s="17"/>
+      <c r="N193" s="17"/>
       <c r="O193" s="17"/>
       <c r="P193" s="17"/>
       <c r="Q193" s="17"/>
@@ -7077,21 +7066,33 @@
         <v>177</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C194" s="39" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D194" s="49"/>
       <c r="E194" s="49"/>
       <c r="F194" s="49"/>
       <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="17"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="17"/>
-      <c r="M194" s="17"/>
+      <c r="H194" s="17">
+        <v>1</v>
+      </c>
+      <c r="I194" s="17">
+        <v>1</v>
+      </c>
+      <c r="J194" s="17">
+        <v>1</v>
+      </c>
+      <c r="K194" s="17">
+        <v>1</v>
+      </c>
+      <c r="L194" s="17">
+        <v>1</v>
+      </c>
+      <c r="M194" s="17">
+        <v>1</v>
+      </c>
       <c r="N194" s="17">
         <v>1</v>
       </c>
@@ -7107,7 +7108,7 @@
         <v>6</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D195" s="49"/>
       <c r="E195" s="49"/>
@@ -7131,31 +7132,21 @@
         <v>177</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C196" s="39" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D196" s="49"/>
       <c r="E196" s="49"/>
       <c r="F196" s="49"/>
-      <c r="G196" s="17">
-        <v>1</v>
-      </c>
-      <c r="H196" s="17">
-        <v>1</v>
-      </c>
-      <c r="I196" s="17">
-        <v>1</v>
-      </c>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
       <c r="J196" s="17"/>
-      <c r="K196" s="17">
-        <v>1</v>
-      </c>
+      <c r="K196" s="17"/>
       <c r="L196" s="17"/>
-      <c r="M196" s="17">
-        <v>1</v>
-      </c>
+      <c r="M196" s="17"/>
       <c r="N196" s="17">
         <v>1</v>
       </c>
@@ -7168,10 +7159,10 @@
         <v>177</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C197" s="39" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
@@ -7182,13 +7173,17 @@
       <c r="H197" s="17">
         <v>1</v>
       </c>
-      <c r="I197" s="17"/>
+      <c r="I197" s="17">
+        <v>1</v>
+      </c>
       <c r="J197" s="17"/>
       <c r="K197" s="17">
         <v>1</v>
       </c>
       <c r="L197" s="17"/>
-      <c r="M197" s="17"/>
+      <c r="M197" s="17">
+        <v>1</v>
+      </c>
       <c r="N197" s="17">
         <v>1</v>
       </c>
@@ -7200,9 +7195,11 @@
       <c r="A198" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B198" s="40"/>
+      <c r="B198" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="C198" s="39" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D198" s="49"/>
       <c r="E198" s="49"/>
@@ -7213,60 +7210,64 @@
       <c r="H198" s="17">
         <v>1</v>
       </c>
-      <c r="I198" s="17">
-        <v>1</v>
-      </c>
-      <c r="J198" s="17">
-        <v>1</v>
-      </c>
+      <c r="I198" s="17"/>
+      <c r="J198" s="17"/>
       <c r="K198" s="17">
         <v>1</v>
       </c>
-      <c r="L198" s="17">
-        <v>1</v>
-      </c>
-      <c r="M198" s="17">
-        <v>1</v>
-      </c>
+      <c r="L198" s="17"/>
+      <c r="M198" s="17"/>
       <c r="N198" s="17">
         <v>1</v>
       </c>
-      <c r="O198" s="17">
-        <v>1</v>
-      </c>
-      <c r="P198" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q198" s="17">
-        <v>1</v>
-      </c>
+      <c r="O198" s="17"/>
+      <c r="P198" s="17"/>
+      <c r="Q198" s="17"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B199" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="B199" s="40"/>
       <c r="C199" s="39" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D199" s="49"/>
       <c r="E199" s="49"/>
       <c r="F199" s="49"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="17"/>
-      <c r="K199" s="17"/>
-      <c r="L199" s="17"/>
-      <c r="M199" s="17"/>
+      <c r="G199" s="17">
+        <v>1</v>
+      </c>
+      <c r="H199" s="17">
+        <v>1</v>
+      </c>
+      <c r="I199" s="17">
+        <v>1</v>
+      </c>
+      <c r="J199" s="17">
+        <v>1</v>
+      </c>
+      <c r="K199" s="17">
+        <v>1</v>
+      </c>
+      <c r="L199" s="17">
+        <v>1</v>
+      </c>
+      <c r="M199" s="17">
+        <v>1</v>
+      </c>
       <c r="N199" s="17">
         <v>1</v>
       </c>
-      <c r="O199" s="17"/>
-      <c r="P199" s="17"/>
-      <c r="Q199" s="17"/>
+      <c r="O199" s="17">
+        <v>1</v>
+      </c>
+      <c r="P199" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q199" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="37" t="s">
@@ -7276,7 +7277,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="39" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D200" s="49"/>
       <c r="E200" s="49"/>
@@ -7303,7 +7304,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D201" s="49"/>
       <c r="E201" s="49"/>
@@ -7312,9 +7313,7 @@
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
-      <c r="K201" s="17">
-        <v>1</v>
-      </c>
+      <c r="K201" s="17"/>
       <c r="L201" s="17"/>
       <c r="M201" s="17"/>
       <c r="N201" s="17">
@@ -7329,32 +7328,22 @@
         <v>177</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="D202" s="49"/>
       <c r="E202" s="49"/>
       <c r="F202" s="49"/>
-      <c r="G202" s="17">
-        <v>1</v>
-      </c>
-      <c r="H202" s="17">
-        <v>1</v>
-      </c>
-      <c r="I202" s="17">
-        <v>1</v>
-      </c>
-      <c r="J202" s="17">
-        <v>1</v>
-      </c>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="17"/>
       <c r="K202" s="17">
         <v>1</v>
       </c>
-      <c r="L202" s="17">
-        <v>1</v>
-      </c>
+      <c r="L202" s="17"/>
       <c r="M202" s="17"/>
       <c r="N202" s="17">
         <v>1</v>
@@ -7368,22 +7357,32 @@
         <v>177</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D203" s="49"/>
       <c r="E203" s="49"/>
       <c r="F203" s="49"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="17"/>
+      <c r="G203" s="17">
+        <v>1</v>
+      </c>
+      <c r="H203" s="17">
+        <v>1</v>
+      </c>
+      <c r="I203" s="17">
+        <v>1</v>
+      </c>
+      <c r="J203" s="17">
+        <v>1</v>
+      </c>
       <c r="K203" s="17">
         <v>1</v>
       </c>
-      <c r="L203" s="17"/>
+      <c r="L203" s="17">
+        <v>1</v>
+      </c>
       <c r="M203" s="17"/>
       <c r="N203" s="17">
         <v>1</v>
@@ -7397,57 +7396,39 @@
         <v>177</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D204" s="49"/>
       <c r="E204" s="49"/>
       <c r="F204" s="49"/>
-      <c r="G204" s="17">
-        <v>1</v>
-      </c>
-      <c r="H204" s="17">
-        <v>1</v>
-      </c>
-      <c r="I204" s="17">
-        <v>1</v>
-      </c>
-      <c r="J204" s="17">
-        <v>1</v>
-      </c>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
       <c r="K204" s="17">
         <v>1</v>
       </c>
-      <c r="L204" s="17">
-        <v>1</v>
-      </c>
-      <c r="M204" s="17">
-        <v>1</v>
-      </c>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
       <c r="N204" s="17">
         <v>1</v>
       </c>
-      <c r="O204" s="17">
-        <v>1</v>
-      </c>
-      <c r="P204" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q204" s="17">
-        <v>1</v>
-      </c>
+      <c r="O204" s="17"/>
+      <c r="P204" s="17"/>
+      <c r="Q204" s="17"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B205" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
@@ -7458,54 +7439,76 @@
       <c r="H205" s="17">
         <v>1</v>
       </c>
-      <c r="I205" s="17"/>
-      <c r="J205" s="17"/>
+      <c r="I205" s="17">
+        <v>1</v>
+      </c>
+      <c r="J205" s="17">
+        <v>1</v>
+      </c>
       <c r="K205" s="17">
         <v>1</v>
       </c>
-      <c r="L205" s="17"/>
-      <c r="M205" s="17"/>
+      <c r="L205" s="17">
+        <v>1</v>
+      </c>
+      <c r="M205" s="17">
+        <v>1</v>
+      </c>
       <c r="N205" s="17">
         <v>1</v>
       </c>
-      <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
-      <c r="Q205" s="17"/>
+      <c r="O205" s="17">
+        <v>1</v>
+      </c>
+      <c r="P205" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q205" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C206" s="16" t="s">
-        <v>187</v>
+      <c r="A206" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B206" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
       <c r="F206" s="49"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
+      <c r="G206" s="17">
+        <v>1</v>
+      </c>
+      <c r="H206" s="17">
+        <v>1</v>
+      </c>
       <c r="I206" s="17"/>
       <c r="J206" s="17"/>
-      <c r="K206" s="17"/>
+      <c r="K206" s="17">
+        <v>1</v>
+      </c>
       <c r="L206" s="17"/>
       <c r="M206" s="17"/>
-      <c r="N206" s="17"/>
+      <c r="N206" s="17">
+        <v>1</v>
+      </c>
       <c r="O206" s="17"/>
       <c r="P206" s="17"/>
       <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B207" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="43" t="s">
-        <v>43</v>
+      <c r="A207" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="D207" s="49"/>
       <c r="E207" s="49"/>
@@ -7523,14 +7526,14 @@
       <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B208" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>105</v>
+      <c r="A208" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B208" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D208" s="49"/>
       <c r="E208" s="49"/>
@@ -7548,29 +7551,25 @@
       <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B209" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="43" t="s">
-        <v>10</v>
+      <c r="A209" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B209" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D209" s="49"/>
       <c r="E209" s="49"/>
       <c r="F209" s="49"/>
-      <c r="G209" s="17">
-        <v>1</v>
-      </c>
+      <c r="G209" s="17"/>
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
       <c r="L209" s="17"/>
-      <c r="M209" s="17">
-        <v>1</v>
-      </c>
+      <c r="M209" s="17"/>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
       <c r="P209" s="17"/>
@@ -7584,12 +7583,14 @@
         <v>6</v>
       </c>
       <c r="C210" s="43" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D210" s="49"/>
       <c r="E210" s="49"/>
       <c r="F210" s="49"/>
-      <c r="G210" s="17"/>
+      <c r="G210" s="17">
+        <v>1</v>
+      </c>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
@@ -7611,7 +7612,7 @@
         <v>6</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
@@ -7635,10 +7636,10 @@
         <v>44</v>
       </c>
       <c r="B212" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C212" s="43" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D212" s="49"/>
       <c r="E212" s="49"/>
@@ -7662,23 +7663,19 @@
         <v>44</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
       <c r="F213" s="49"/>
       <c r="G213" s="17"/>
-      <c r="H213" s="17">
-        <v>1</v>
-      </c>
+      <c r="H213" s="17"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17">
-        <v>1</v>
-      </c>
+      <c r="K213" s="17"/>
       <c r="L213" s="17"/>
       <c r="M213" s="17">
         <v>1</v>
@@ -7693,10 +7690,10 @@
         <v>44</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
@@ -7705,9 +7702,7 @@
       <c r="H214" s="17">
         <v>1</v>
       </c>
-      <c r="I214" s="17">
-        <v>1</v>
-      </c>
+      <c r="I214" s="17"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17">
         <v>1</v>
@@ -7729,16 +7724,22 @@
         <v>53</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D215" s="49"/>
       <c r="E215" s="49"/>
       <c r="F215" s="49"/>
       <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
+      <c r="H215" s="17">
+        <v>1</v>
+      </c>
+      <c r="I215" s="17">
+        <v>1</v>
+      </c>
       <c r="J215" s="17"/>
-      <c r="K215" s="17"/>
+      <c r="K215" s="17">
+        <v>1</v>
+      </c>
       <c r="L215" s="17"/>
       <c r="M215" s="17">
         <v>1</v>
@@ -7753,10 +7754,10 @@
         <v>44</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D216" s="49"/>
       <c r="E216" s="49"/>
@@ -7765,9 +7766,7 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17">
-        <v>1</v>
-      </c>
+      <c r="K216" s="17"/>
       <c r="L216" s="17"/>
       <c r="M216" s="17">
         <v>1</v>
@@ -7785,7 +7784,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="D217" s="49"/>
       <c r="E217" s="49"/>
@@ -7798,7 +7797,9 @@
         <v>1</v>
       </c>
       <c r="L217" s="17"/>
-      <c r="M217" s="17"/>
+      <c r="M217" s="17">
+        <v>1</v>
+      </c>
       <c r="N217" s="17"/>
       <c r="O217" s="17"/>
       <c r="P217" s="17"/>
@@ -7812,7 +7813,7 @@
         <v>6</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D218" s="49"/>
       <c r="E218" s="49"/>
@@ -7839,7 +7840,7 @@
         <v>6</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D219" s="49"/>
       <c r="E219" s="49"/>
@@ -7866,7 +7867,7 @@
         <v>6</v>
       </c>
       <c r="C220" s="43" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="D220" s="49"/>
       <c r="E220" s="49"/>
@@ -7875,11 +7876,11 @@
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
-      <c r="K220" s="17"/>
+      <c r="K220" s="17">
+        <v>1</v>
+      </c>
       <c r="L220" s="17"/>
-      <c r="M220" s="17">
-        <v>1</v>
-      </c>
+      <c r="M220" s="17"/>
       <c r="N220" s="17"/>
       <c r="O220" s="17"/>
       <c r="P220" s="17"/>
@@ -7890,17 +7891,15 @@
         <v>44</v>
       </c>
       <c r="B221" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D221" s="49"/>
       <c r="E221" s="49"/>
       <c r="F221" s="49"/>
-      <c r="G221" s="17">
-        <v>1</v>
-      </c>
+      <c r="G221" s="17"/>
       <c r="H221" s="17"/>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
@@ -7919,10 +7918,10 @@
         <v>44</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D222" s="49"/>
       <c r="E222" s="49"/>
@@ -7930,46 +7929,28 @@
       <c r="G222" s="17">
         <v>1</v>
       </c>
-      <c r="H222" s="17">
-        <v>1</v>
-      </c>
-      <c r="I222" s="17">
-        <v>1</v>
-      </c>
-      <c r="J222" s="17">
-        <v>1</v>
-      </c>
-      <c r="K222" s="17">
-        <v>1</v>
-      </c>
-      <c r="L222" s="17">
-        <v>1</v>
-      </c>
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
+      <c r="K222" s="17"/>
+      <c r="L222" s="17"/>
       <c r="M222" s="17">
         <v>1</v>
       </c>
-      <c r="N222" s="17">
-        <v>1</v>
-      </c>
-      <c r="O222" s="17">
-        <v>1</v>
-      </c>
-      <c r="P222" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q222" s="17">
-        <v>1</v>
-      </c>
+      <c r="N222" s="17"/>
+      <c r="O222" s="17"/>
+      <c r="P222" s="17"/>
+      <c r="Q222" s="17"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D223" s="49"/>
       <c r="E223" s="49"/>
@@ -7977,28 +7958,46 @@
       <c r="G223" s="17">
         <v>1</v>
       </c>
-      <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
-      <c r="J223" s="17"/>
-      <c r="K223" s="17"/>
-      <c r="L223" s="17"/>
+      <c r="H223" s="17">
+        <v>1</v>
+      </c>
+      <c r="I223" s="17">
+        <v>1</v>
+      </c>
+      <c r="J223" s="17">
+        <v>1</v>
+      </c>
+      <c r="K223" s="17">
+        <v>1</v>
+      </c>
+      <c r="L223" s="17">
+        <v>1</v>
+      </c>
       <c r="M223" s="17">
         <v>1</v>
       </c>
-      <c r="N223" s="17"/>
-      <c r="O223" s="17"/>
-      <c r="P223" s="17"/>
-      <c r="Q223" s="17"/>
+      <c r="N223" s="17">
+        <v>1</v>
+      </c>
+      <c r="O223" s="17">
+        <v>1</v>
+      </c>
+      <c r="P223" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q223" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D224" s="49"/>
       <c r="E224" s="49"/>
@@ -8006,21 +8005,11 @@
       <c r="G224" s="17">
         <v>1</v>
       </c>
-      <c r="H224" s="17">
-        <v>1</v>
-      </c>
-      <c r="I224" s="17">
-        <v>1</v>
-      </c>
-      <c r="J224" s="17">
-        <v>1</v>
-      </c>
-      <c r="K224" s="17">
-        <v>1</v>
-      </c>
-      <c r="L224" s="17">
-        <v>1</v>
-      </c>
+      <c r="H224" s="17"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
+      <c r="K224" s="17"/>
+      <c r="L224" s="17"/>
       <c r="M224" s="17">
         <v>1</v>
       </c>
@@ -8034,20 +8023,32 @@
         <v>44</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D225" s="49"/>
       <c r="E225" s="49"/>
       <c r="F225" s="49"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="17"/>
-      <c r="K225" s="17"/>
-      <c r="L225" s="17"/>
+      <c r="G225" s="17">
+        <v>1</v>
+      </c>
+      <c r="H225" s="17">
+        <v>1</v>
+      </c>
+      <c r="I225" s="17">
+        <v>1</v>
+      </c>
+      <c r="J225" s="17">
+        <v>1</v>
+      </c>
+      <c r="K225" s="17">
+        <v>1</v>
+      </c>
+      <c r="L225" s="17">
+        <v>1</v>
+      </c>
       <c r="M225" s="17">
         <v>1</v>
       </c>
@@ -8061,10 +8062,10 @@
         <v>44</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="D226" s="49"/>
       <c r="E226" s="49"/>
@@ -8073,9 +8074,7 @@
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
-      <c r="K226" s="17">
-        <v>1</v>
-      </c>
+      <c r="K226" s="17"/>
       <c r="L226" s="17"/>
       <c r="M226" s="17">
         <v>1</v>
@@ -8093,7 +8092,7 @@
         <v>6</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D227" s="49"/>
       <c r="E227" s="49"/>
@@ -8102,7 +8101,9 @@
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
-      <c r="K227" s="17"/>
+      <c r="K227" s="17">
+        <v>1</v>
+      </c>
       <c r="L227" s="17"/>
       <c r="M227" s="17">
         <v>1</v>
@@ -8120,22 +8121,16 @@
         <v>6</v>
       </c>
       <c r="C228" s="43" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D228" s="49"/>
       <c r="E228" s="49"/>
       <c r="F228" s="49"/>
-      <c r="G228" s="17">
-        <v>1</v>
-      </c>
-      <c r="H228" s="17">
-        <v>1</v>
-      </c>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
-      <c r="K228" s="17">
-        <v>1</v>
-      </c>
+      <c r="K228" s="17"/>
       <c r="L228" s="17"/>
       <c r="M228" s="17">
         <v>1</v>
@@ -8153,13 +8148,17 @@
         <v>6</v>
       </c>
       <c r="C229" s="43" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="D229" s="49"/>
       <c r="E229" s="49"/>
       <c r="F229" s="49"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
+      <c r="G229" s="17">
+        <v>1</v>
+      </c>
+      <c r="H229" s="17">
+        <v>1</v>
+      </c>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
       <c r="K229" s="17">
@@ -8182,17 +8181,13 @@
         <v>6</v>
       </c>
       <c r="C230" s="43" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D230" s="49"/>
       <c r="E230" s="49"/>
       <c r="F230" s="49"/>
-      <c r="G230" s="17">
-        <v>1</v>
-      </c>
-      <c r="H230" s="17">
-        <v>1</v>
-      </c>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
       <c r="K230" s="17">
@@ -8208,23 +8203,33 @@
       <c r="Q230" s="17"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B231" s="44"/>
-      <c r="C231" s="13" t="s">
-        <v>0</v>
+      <c r="A231" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B231" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D231" s="49"/>
       <c r="E231" s="49"/>
       <c r="F231" s="49"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
+      <c r="G231" s="17">
+        <v>1</v>
+      </c>
+      <c r="H231" s="17">
+        <v>1</v>
+      </c>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
-      <c r="K231" s="17"/>
+      <c r="K231" s="17">
+        <v>1</v>
+      </c>
       <c r="L231" s="17"/>
-      <c r="M231" s="17"/>
+      <c r="M231" s="17">
+        <v>1</v>
+      </c>
       <c r="N231" s="17"/>
       <c r="O231" s="17"/>
       <c r="P231" s="17"/>
@@ -8234,21 +8239,15 @@
       <c r="A232" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B232" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B232" s="44"/>
       <c r="C232" s="13" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D232" s="49"/>
       <c r="E232" s="49"/>
       <c r="F232" s="49"/>
-      <c r="G232" s="17">
-        <v>1</v>
-      </c>
-      <c r="H232" s="17">
-        <v>1</v>
-      </c>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
       <c r="K232" s="17"/>
@@ -8267,7 +8266,7 @@
         <v>53</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D233" s="49"/>
       <c r="E233" s="49"/>
@@ -8280,9 +8279,7 @@
       </c>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
-      <c r="K233" s="17">
-        <v>1</v>
-      </c>
+      <c r="K233" s="17"/>
       <c r="L233" s="17"/>
       <c r="M233" s="17"/>
       <c r="N233" s="17"/>
@@ -8295,19 +8292,25 @@
         <v>48</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="D234" s="49"/>
       <c r="E234" s="49"/>
       <c r="F234" s="49"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="17"/>
+      <c r="G234" s="17">
+        <v>1</v>
+      </c>
+      <c r="H234" s="17">
+        <v>1</v>
+      </c>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
-      <c r="K234" s="17"/>
+      <c r="K234" s="17">
+        <v>1</v>
+      </c>
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
       <c r="N234" s="17"/>
@@ -8320,10 +8323,10 @@
         <v>48</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="D235" s="49"/>
       <c r="E235" s="49"/>
@@ -8348,20 +8351,16 @@
         <v>53</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D236" s="49"/>
       <c r="E236" s="49"/>
       <c r="F236" s="49"/>
       <c r="G236" s="17"/>
-      <c r="H236" s="17">
-        <v>1</v>
-      </c>
+      <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
-      <c r="K236" s="17">
-        <v>1</v>
-      </c>
+      <c r="K236" s="17"/>
       <c r="L236" s="17"/>
       <c r="M236" s="17"/>
       <c r="N236" s="17"/>
@@ -8377,44 +8376,26 @@
         <v>53</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="D237" s="49"/>
       <c r="E237" s="49"/>
       <c r="F237" s="49"/>
-      <c r="G237" s="17">
-        <v>1</v>
-      </c>
+      <c r="G237" s="17"/>
       <c r="H237" s="17">
         <v>1</v>
       </c>
-      <c r="I237" s="17">
-        <v>1</v>
-      </c>
-      <c r="J237" s="17">
-        <v>1</v>
-      </c>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
       <c r="K237" s="17">
         <v>1</v>
       </c>
-      <c r="L237" s="17">
-        <v>1</v>
-      </c>
-      <c r="M237" s="17">
-        <v>1</v>
-      </c>
-      <c r="N237" s="17">
-        <v>1</v>
-      </c>
-      <c r="O237" s="17">
-        <v>1</v>
-      </c>
-      <c r="P237" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q237" s="17">
-        <v>1</v>
-      </c>
+      <c r="L237" s="17"/>
+      <c r="M237" s="17"/>
+      <c r="N237" s="17"/>
+      <c r="O237" s="17"/>
+      <c r="P237" s="17"/>
+      <c r="Q237" s="17"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="11" t="s">
@@ -8424,7 +8405,7 @@
         <v>53</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D238" s="49"/>
       <c r="E238" s="49"/>
@@ -8471,7 +8452,7 @@
         <v>53</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="D239" s="49"/>
       <c r="E239" s="49"/>
@@ -8515,278 +8496,326 @@
         <v>48</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C240" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D240" s="49"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="49"/>
+      <c r="G240" s="17">
+        <v>1</v>
+      </c>
+      <c r="H240" s="17">
+        <v>1</v>
+      </c>
+      <c r="I240" s="17">
+        <v>1</v>
+      </c>
+      <c r="J240" s="17">
+        <v>1</v>
+      </c>
+      <c r="K240" s="17">
+        <v>1</v>
+      </c>
+      <c r="L240" s="17">
+        <v>1</v>
+      </c>
+      <c r="M240" s="17">
+        <v>1</v>
+      </c>
+      <c r="N240" s="17">
+        <v>1</v>
+      </c>
+      <c r="O240" s="17">
+        <v>1</v>
+      </c>
+      <c r="P240" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q240" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A241" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D240" s="52"/>
-      <c r="E240" s="52"/>
-      <c r="F240" s="52"/>
-      <c r="G240" s="58"/>
-      <c r="H240" s="58">
-        <v>1</v>
-      </c>
-      <c r="I240" s="58"/>
-      <c r="J240" s="58"/>
-      <c r="K240" s="58">
-        <v>1</v>
-      </c>
-      <c r="L240" s="58"/>
-      <c r="M240" s="58"/>
-      <c r="N240" s="58"/>
-      <c r="O240" s="58"/>
-      <c r="P240" s="58"/>
-      <c r="Q240" s="58"/>
+      <c r="D241" s="52"/>
+      <c r="E241" s="52"/>
+      <c r="F241" s="52"/>
+      <c r="G241" s="58"/>
+      <c r="H241" s="58">
+        <v>1</v>
+      </c>
+      <c r="I241" s="58"/>
+      <c r="J241" s="58"/>
+      <c r="K241" s="58">
+        <v>1</v>
+      </c>
+      <c r="L241" s="58"/>
+      <c r="M241" s="58"/>
+      <c r="N241" s="58"/>
+      <c r="O241" s="58"/>
+      <c r="P241" s="58"/>
+      <c r="Q241" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q240" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q240">
-      <sortCondition ref="A1:A240"/>
+  <autoFilter ref="A1:Q241" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q241">
+      <sortCondition ref="A1:A241"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q239">
-    <sortCondition ref="A2:A239"/>
-    <sortCondition ref="C2:C239"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q240">
+    <sortCondition ref="A2:A240"/>
+    <sortCondition ref="C2:C240"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C194" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C195" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C18" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C209" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C210" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C141" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C142" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C210" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C211" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C142" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C143" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C33" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C52" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C211" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C212" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C28" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C195" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C196" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
     <hyperlink ref="C74" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C143" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C213" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C144" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C144" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C214" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C145" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
     <hyperlink ref="C76" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
     <hyperlink ref="C77" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
     <hyperlink ref="C78" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
     <hyperlink ref="C79" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
     <hyperlink ref="C81" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
     <hyperlink ref="C82" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C146" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C147" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C148" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C182" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C185" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C184" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C197" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C216" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C147" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C148" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C149" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C183" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C186" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C185" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C198" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C217" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C35" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C178" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C179" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C180" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C179" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C180" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C181" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C48" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C220" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C199" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C221" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C200" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C208" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C209" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
     <hyperlink ref="C57" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C222" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C97" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C98" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C99" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C100" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C101" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C102" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C103" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C224" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C223" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C98" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C99" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C100" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C101" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C102" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C103" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C104" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C225" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C13" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C37" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C149" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C150" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
     <hyperlink ref="C58" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C200" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C154" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C152" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C153" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C155" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C201" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C155" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C153" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C154" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C156" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C39" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C156" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C201" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C157" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C202" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C50" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C157" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C207" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C226" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C227" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C188" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C158" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C208" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C227" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C228" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C189" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C40" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C158" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C228" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C229" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C189" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C191" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C159" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C229" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C230" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C190" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C192" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C25" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C240" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C241" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
     <hyperlink ref="C59" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C175" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C192" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C203" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C176" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C205" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C230" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C177" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C89" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C193" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C176" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C193" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C204" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C177" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C206" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C231" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C178" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C90" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C194" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C17" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C107" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C108" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
     <hyperlink ref="C63" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C29" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C212" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C196" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C145" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C213" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C197" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C146" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
     <hyperlink ref="C80" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C214" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C108" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C109" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C215" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C114" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C215" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C109" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C110" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C216" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C115" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
     <hyperlink ref="C64" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
     <hyperlink ref="C65" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
     <hyperlink ref="C66" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C232" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C233" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C34" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C45" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C46" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C233" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C115" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C234" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C116" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C47" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C19" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C235" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C236" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C116" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C117" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C93" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C221" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C223" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C236" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C237" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C117" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C118" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C94" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C222" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C224" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
     <hyperlink ref="C67" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C9" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C10" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C11" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
     <hyperlink ref="C12" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C38" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C87" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C118" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C94" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C88" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C119" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C95" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C21" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C225" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C226" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C14" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C20" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
     <hyperlink ref="C68" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C120" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C121" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C121" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C122" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
     <hyperlink ref="C69" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C15" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C16" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C122" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C123" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
     <hyperlink ref="C70" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C202" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C123" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C203" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C124" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
     <hyperlink ref="C62" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C22" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C23" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C239" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C240" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C24" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C95" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C137" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C96" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C138" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
     <hyperlink ref="C71" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C138" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C139" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C140" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C204" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C91" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C231" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C181" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C198" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C96" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C139" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C140" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C141" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C205" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C92" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C232" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C182" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C199" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C97" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C41" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C36" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C237" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C238" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
     <hyperlink ref="C85" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C26" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C190" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C191" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
     <hyperlink ref="C61" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
     <hyperlink ref="C60" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
     <hyperlink ref="C8" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C86" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C87" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
     <hyperlink ref="C84" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
     <hyperlink ref="C51" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
     <hyperlink ref="C43" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C42" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C44" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C150" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C234" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C151" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C235" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
     <hyperlink ref="C75" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
     <hyperlink ref="C73" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C88" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C89" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
     <hyperlink ref="C83" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C126" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C127" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C131" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C132" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C133" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C134" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C135" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C125" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C136" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C124" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C128" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C129" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C119" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C159" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C170" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C160" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C162" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C161" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C168" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C166" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C163" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C167" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C172" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C173" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C174" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C171" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C164" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C169" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C165" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C238" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C130" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C110" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C111" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C112" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C113" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C183" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C127" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C128" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C132" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C133" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C134" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C135" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C136" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C126" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C137" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C125" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C129" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C130" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C120" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C160" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C171" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C161" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C163" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C162" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C169" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C167" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C164" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C168" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C173" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C174" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C175" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C172" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C165" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C170" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C166" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C239" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C131" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C111" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C112" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C113" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C114" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C184" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C27" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C30" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C31" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C32" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C206" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C186" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C187" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C207" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C187" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C188" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C53" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C54" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C55" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
     <hyperlink ref="C56" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C104" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C105" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C106" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C105" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C106" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C107" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C49" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C217" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C219" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C218" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C151" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C218" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C220" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C219" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C152" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C86" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF63A1F-89A8-E345-B1E6-9C9DC49FDD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B6E69-C5C7-7E4E-9951-5DDF892DC727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23200" yWindow="-23500" windowWidth="38400" windowHeight="23500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$242</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="286">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -884,6 +884,9 @@
   </si>
   <si>
     <t>Distro for OpenTelemetry (ADOT)</t>
+  </si>
+  <si>
+    <t>HealthLake</t>
   </si>
 </sst>
 </file>
@@ -1294,12 +1297,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1D7C6A"/>
       <color rgb="FFC00A17"/>
       <color rgb="FF1F8901"/>
       <color rgb="FF2F29AE"/>
       <color rgb="FFD15D16"/>
       <color rgb="FF4F28AC"/>
-      <color rgb="FF1D7C6A"/>
       <color rgb="FFB1094E"/>
       <color rgb="FF208A01"/>
       <color rgb="FF5B31B6"/>
@@ -1614,11 +1617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q241"/>
+  <dimension ref="A1:Q242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4774,9 +4777,7 @@
       <c r="L112" s="17"/>
       <c r="M112" s="17"/>
       <c r="N112" s="17"/>
-      <c r="O112" s="17">
-        <v>1</v>
-      </c>
+      <c r="O112" s="17"/>
       <c r="P112" s="17"/>
       <c r="Q112" s="17"/>
     </row>
@@ -4801,9 +4802,7 @@
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
-      <c r="O113" s="17">
-        <v>1</v>
-      </c>
+      <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
     </row>
@@ -4828,9 +4827,7 @@
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
-      <c r="O114" s="17">
-        <v>1</v>
-      </c>
+      <c r="O114" s="17"/>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
     </row>
@@ -4950,7 +4947,7 @@
         <v>53</v>
       </c>
       <c r="C119" s="28" t="s">
-        <v>158</v>
+        <v>285</v>
       </c>
       <c r="D119" s="49"/>
       <c r="E119" s="49"/>
@@ -4963,9 +4960,7 @@
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
-      <c r="O119" s="17">
-        <v>1</v>
-      </c>
+      <c r="O119" s="17"/>
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
     </row>
@@ -4974,10 +4969,10 @@
         <v>244</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="D120" s="49"/>
       <c r="E120" s="49"/>
@@ -4990,9 +4985,7 @@
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
-      <c r="O120" s="17">
-        <v>1</v>
-      </c>
+      <c r="O120" s="17"/>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
     </row>
@@ -5001,10 +4994,10 @@
         <v>244</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="D121" s="49"/>
       <c r="E121" s="49"/>
@@ -5017,9 +5010,7 @@
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
-      <c r="O121" s="17">
-        <v>1</v>
-      </c>
+      <c r="O121" s="17"/>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
     </row>
@@ -5031,7 +5022,7 @@
         <v>53</v>
       </c>
       <c r="C122" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D122" s="49"/>
       <c r="E122" s="49"/>
@@ -5058,7 +5049,7 @@
         <v>53</v>
       </c>
       <c r="C123" s="28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D123" s="49"/>
       <c r="E123" s="49"/>
@@ -5085,7 +5076,7 @@
         <v>53</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D124" s="49"/>
       <c r="E124" s="49"/>
@@ -5112,7 +5103,7 @@
         <v>53</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="D125" s="49"/>
       <c r="E125" s="49"/>
@@ -5139,7 +5130,7 @@
         <v>53</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D126" s="49"/>
       <c r="E126" s="49"/>
@@ -5166,7 +5157,7 @@
         <v>53</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D127" s="49"/>
       <c r="E127" s="49"/>
@@ -5193,7 +5184,7 @@
         <v>53</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D128" s="49"/>
       <c r="E128" s="49"/>
@@ -5220,7 +5211,7 @@
         <v>53</v>
       </c>
       <c r="C129" s="28" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="D129" s="49"/>
       <c r="E129" s="49"/>
@@ -5247,7 +5238,7 @@
         <v>53</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D130" s="49"/>
       <c r="E130" s="49"/>
@@ -5274,7 +5265,7 @@
         <v>53</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="D131" s="49"/>
       <c r="E131" s="49"/>
@@ -5301,7 +5292,7 @@
         <v>53</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D132" s="49"/>
       <c r="E132" s="49"/>
@@ -5328,7 +5319,7 @@
         <v>53</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D133" s="49"/>
       <c r="E133" s="49"/>
@@ -5355,7 +5346,7 @@
         <v>53</v>
       </c>
       <c r="C134" s="28" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D134" s="49"/>
       <c r="E134" s="49"/>
@@ -5382,7 +5373,7 @@
         <v>53</v>
       </c>
       <c r="C135" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D135" s="49"/>
       <c r="E135" s="49"/>
@@ -5409,7 +5400,7 @@
         <v>53</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D136" s="49"/>
       <c r="E136" s="49"/>
@@ -5436,7 +5427,7 @@
         <v>53</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>252</v>
+        <v>205</v>
       </c>
       <c r="D137" s="49"/>
       <c r="E137" s="49"/>
@@ -5463,7 +5454,7 @@
         <v>53</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>84</v>
+        <v>252</v>
       </c>
       <c r="D138" s="49"/>
       <c r="E138" s="49"/>
@@ -5490,7 +5481,7 @@
         <v>53</v>
       </c>
       <c r="C139" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D139" s="49"/>
       <c r="E139" s="49"/>
@@ -5517,7 +5508,7 @@
         <v>53</v>
       </c>
       <c r="C140" s="28" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="D140" s="49"/>
       <c r="E140" s="49"/>
@@ -5544,7 +5535,7 @@
         <v>53</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="D141" s="49"/>
       <c r="E141" s="49"/>
@@ -5564,31 +5555,29 @@
       <c r="Q141" s="17"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B142" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>91</v>
+      <c r="A142" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="28" t="s">
+        <v>87</v>
       </c>
       <c r="D142" s="49"/>
       <c r="E142" s="49"/>
       <c r="F142" s="49"/>
       <c r="G142" s="17"/>
-      <c r="H142" s="17">
-        <v>1</v>
-      </c>
+      <c r="H142" s="17"/>
       <c r="I142" s="17"/>
       <c r="J142" s="17"/>
-      <c r="K142" s="17">
-        <v>1</v>
-      </c>
+      <c r="K142" s="17"/>
       <c r="L142" s="17"/>
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
-      <c r="O142" s="17"/>
+      <c r="O142" s="17">
+        <v>1</v>
+      </c>
       <c r="P142" s="17"/>
       <c r="Q142" s="17"/>
     </row>
@@ -5600,16 +5589,20 @@
         <v>6</v>
       </c>
       <c r="C143" s="35" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="D143" s="49"/>
       <c r="E143" s="49"/>
       <c r="F143" s="49"/>
       <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
+      <c r="H143" s="17">
+        <v>1</v>
+      </c>
       <c r="I143" s="17"/>
       <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
+      <c r="K143" s="17">
+        <v>1</v>
+      </c>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
@@ -5625,44 +5618,22 @@
         <v>6</v>
       </c>
       <c r="C144" s="35" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D144" s="49"/>
       <c r="E144" s="49"/>
       <c r="F144" s="49"/>
-      <c r="G144" s="17">
-        <v>1</v>
-      </c>
-      <c r="H144" s="17">
-        <v>1</v>
-      </c>
-      <c r="I144" s="17">
-        <v>1</v>
-      </c>
-      <c r="J144" s="17">
-        <v>1</v>
-      </c>
-      <c r="K144" s="17">
-        <v>1</v>
-      </c>
-      <c r="L144" s="17">
-        <v>1</v>
-      </c>
-      <c r="M144" s="17">
-        <v>1</v>
-      </c>
-      <c r="N144" s="17">
-        <v>1</v>
-      </c>
-      <c r="O144" s="17">
-        <v>1</v>
-      </c>
-      <c r="P144" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="17">
-        <v>1</v>
-      </c>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
+      <c r="O144" s="17"/>
+      <c r="P144" s="17"/>
+      <c r="Q144" s="17"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="33" t="s">
@@ -5672,7 +5643,7 @@
         <v>6</v>
       </c>
       <c r="C145" s="35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D145" s="49"/>
       <c r="E145" s="49"/>
@@ -5686,28 +5657,40 @@
       <c r="I145" s="17">
         <v>1</v>
       </c>
-      <c r="J145" s="17"/>
+      <c r="J145" s="17">
+        <v>1</v>
+      </c>
       <c r="K145" s="17">
         <v>1</v>
       </c>
-      <c r="L145" s="17"/>
+      <c r="L145" s="17">
+        <v>1</v>
+      </c>
       <c r="M145" s="17">
         <v>1</v>
       </c>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
+      <c r="N145" s="17">
+        <v>1</v>
+      </c>
+      <c r="O145" s="17">
+        <v>1</v>
+      </c>
+      <c r="P145" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B146" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C146" s="35" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D146" s="49"/>
       <c r="E146" s="49"/>
@@ -5721,55 +5704,65 @@
       <c r="I146" s="17">
         <v>1</v>
       </c>
-      <c r="J146" s="17">
-        <v>1</v>
-      </c>
+      <c r="J146" s="17"/>
       <c r="K146" s="17">
         <v>1</v>
       </c>
-      <c r="L146" s="17">
-        <v>1</v>
-      </c>
+      <c r="L146" s="17"/>
       <c r="M146" s="17">
         <v>1</v>
       </c>
-      <c r="N146" s="17">
-        <v>1</v>
-      </c>
-      <c r="O146" s="17">
-        <v>1</v>
-      </c>
-      <c r="P146" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q146" s="17">
-        <v>1</v>
-      </c>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C147" s="35" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D147" s="49"/>
       <c r="E147" s="49"/>
       <c r="F147" s="49"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="17"/>
-      <c r="K147" s="17"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="17"/>
-      <c r="O147" s="17"/>
-      <c r="P147" s="17"/>
-      <c r="Q147" s="17"/>
+      <c r="G147" s="17">
+        <v>1</v>
+      </c>
+      <c r="H147" s="17">
+        <v>1</v>
+      </c>
+      <c r="I147" s="17">
+        <v>1</v>
+      </c>
+      <c r="J147" s="17">
+        <v>1</v>
+      </c>
+      <c r="K147" s="17">
+        <v>1</v>
+      </c>
+      <c r="L147" s="17">
+        <v>1</v>
+      </c>
+      <c r="M147" s="17">
+        <v>1</v>
+      </c>
+      <c r="N147" s="17">
+        <v>1</v>
+      </c>
+      <c r="O147" s="17">
+        <v>1</v>
+      </c>
+      <c r="P147" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
@@ -5779,20 +5772,16 @@
         <v>6</v>
       </c>
       <c r="C148" s="35" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D148" s="49"/>
       <c r="E148" s="49"/>
       <c r="F148" s="49"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="17">
-        <v>1</v>
-      </c>
+      <c r="H148" s="17"/>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
-      <c r="K148" s="17">
-        <v>1</v>
-      </c>
+      <c r="K148" s="17"/>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
@@ -5808,16 +5797,20 @@
         <v>6</v>
       </c>
       <c r="C149" s="35" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D149" s="49"/>
       <c r="E149" s="49"/>
       <c r="F149" s="49"/>
       <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
+      <c r="H149" s="17">
+        <v>1</v>
+      </c>
       <c r="I149" s="17"/>
       <c r="J149" s="17"/>
-      <c r="K149" s="17"/>
+      <c r="K149" s="17">
+        <v>1</v>
+      </c>
       <c r="L149" s="17"/>
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
@@ -5833,7 +5826,7 @@
         <v>6</v>
       </c>
       <c r="C150" s="35" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D150" s="49"/>
       <c r="E150" s="49"/>
@@ -5855,10 +5848,10 @@
         <v>34</v>
       </c>
       <c r="B151" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C151" s="35" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="D151" s="49"/>
       <c r="E151" s="49"/>
@@ -5880,17 +5873,15 @@
         <v>34</v>
       </c>
       <c r="B152" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C152" s="35" t="s">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="D152" s="49"/>
       <c r="E152" s="49"/>
       <c r="F152" s="49"/>
-      <c r="G152" s="17">
-        <v>1</v>
-      </c>
+      <c r="G152" s="17"/>
       <c r="H152" s="17"/>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
@@ -5910,22 +5901,18 @@
         <v>6</v>
       </c>
       <c r="C153" s="35" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="D153" s="49"/>
       <c r="E153" s="49"/>
       <c r="F153" s="49"/>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17">
-        <v>1</v>
-      </c>
-      <c r="I153" s="17">
-        <v>1</v>
-      </c>
+      <c r="G153" s="17">
+        <v>1</v>
+      </c>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
       <c r="J153" s="17"/>
-      <c r="K153" s="17">
-        <v>1</v>
-      </c>
+      <c r="K153" s="17"/>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
@@ -5941,7 +5928,7 @@
         <v>6</v>
       </c>
       <c r="C154" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D154" s="49"/>
       <c r="E154" s="49"/>
@@ -5972,7 +5959,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D155" s="49"/>
       <c r="E155" s="49"/>
@@ -6003,18 +5990,18 @@
         <v>6</v>
       </c>
       <c r="C156" s="35" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="D156" s="49"/>
       <c r="E156" s="49"/>
       <c r="F156" s="49"/>
-      <c r="G156" s="17">
-        <v>1</v>
-      </c>
+      <c r="G156" s="17"/>
       <c r="H156" s="17">
         <v>1</v>
       </c>
-      <c r="I156" s="17"/>
+      <c r="I156" s="17">
+        <v>1</v>
+      </c>
       <c r="J156" s="17"/>
       <c r="K156" s="17">
         <v>1</v>
@@ -6034,7 +6021,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="35" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="D157" s="49"/>
       <c r="E157" s="49"/>
@@ -6042,10 +6029,14 @@
       <c r="G157" s="17">
         <v>1</v>
       </c>
-      <c r="H157" s="17"/>
+      <c r="H157" s="17">
+        <v>1</v>
+      </c>
       <c r="I157" s="17"/>
       <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
+      <c r="K157" s="17">
+        <v>1</v>
+      </c>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
@@ -6061,12 +6052,14 @@
         <v>6</v>
       </c>
       <c r="C158" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D158" s="49"/>
       <c r="E158" s="49"/>
       <c r="F158" s="49"/>
-      <c r="G158" s="17"/>
+      <c r="G158" s="17">
+        <v>1</v>
+      </c>
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
       <c r="J158" s="17"/>
@@ -6086,7 +6079,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D159" s="49"/>
       <c r="E159" s="49"/>
@@ -6094,15 +6087,9 @@
       <c r="G159" s="17"/>
       <c r="H159" s="17"/>
       <c r="I159" s="17"/>
-      <c r="J159" s="17">
-        <v>1</v>
-      </c>
-      <c r="K159" s="17">
-        <v>1</v>
-      </c>
-      <c r="L159" s="17">
-        <v>1</v>
-      </c>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
       <c r="O159" s="17"/>
@@ -6117,7 +6104,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="35" t="s">
-        <v>257</v>
+        <v>127</v>
       </c>
       <c r="D160" s="49"/>
       <c r="E160" s="49"/>
@@ -6128,7 +6115,9 @@
       <c r="J160" s="17">
         <v>1</v>
       </c>
-      <c r="K160" s="17"/>
+      <c r="K160" s="17">
+        <v>1</v>
+      </c>
       <c r="L160" s="17">
         <v>1</v>
       </c>
@@ -6146,7 +6135,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D161" s="49"/>
       <c r="E161" s="49"/>
@@ -6175,7 +6164,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D162" s="49"/>
       <c r="E162" s="49"/>
@@ -6204,7 +6193,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D163" s="49"/>
       <c r="E163" s="49"/>
@@ -6233,7 +6222,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D164" s="49"/>
       <c r="E164" s="49"/>
@@ -6262,7 +6251,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="35" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D165" s="49"/>
       <c r="E165" s="49"/>
@@ -6291,7 +6280,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="35" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="D166" s="49"/>
       <c r="E166" s="49"/>
@@ -6320,7 +6309,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="35" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D167" s="49"/>
       <c r="E167" s="49"/>
@@ -6349,7 +6338,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D168" s="49"/>
       <c r="E168" s="49"/>
@@ -6378,7 +6367,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="35" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D169" s="49"/>
       <c r="E169" s="49"/>
@@ -6407,11 +6396,11 @@
         <v>6</v>
       </c>
       <c r="C170" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D170" s="51"/>
-      <c r="E170" s="51"/>
-      <c r="F170" s="51"/>
+        <v>265</v>
+      </c>
+      <c r="D170" s="49"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="49"/>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
@@ -6436,11 +6425,11 @@
         <v>6</v>
       </c>
       <c r="C171" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D171" s="49"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="49"/>
+        <v>260</v>
+      </c>
+      <c r="D171" s="51"/>
+      <c r="E171" s="51"/>
+      <c r="F171" s="51"/>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
@@ -6465,7 +6454,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="35" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D172" s="49"/>
       <c r="E172" s="49"/>
@@ -6494,7 +6483,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D173" s="49"/>
       <c r="E173" s="49"/>
@@ -6523,7 +6512,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="35" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D174" s="49"/>
       <c r="E174" s="49"/>
@@ -6552,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D175" s="49"/>
       <c r="E175" s="49"/>
@@ -6581,24 +6570,18 @@
         <v>6</v>
       </c>
       <c r="C176" s="35" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="D176" s="49"/>
       <c r="E176" s="49"/>
       <c r="F176" s="49"/>
       <c r="G176" s="17"/>
-      <c r="H176" s="17">
-        <v>1</v>
-      </c>
-      <c r="I176" s="17">
-        <v>1</v>
-      </c>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
       <c r="J176" s="17">
         <v>1</v>
       </c>
-      <c r="K176" s="17">
-        <v>1</v>
-      </c>
+      <c r="K176" s="17"/>
       <c r="L176" s="17">
         <v>1</v>
       </c>
@@ -6616,19 +6599,27 @@
         <v>6</v>
       </c>
       <c r="C177" s="35" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="D177" s="49"/>
       <c r="E177" s="49"/>
       <c r="F177" s="49"/>
-      <c r="G177" s="17">
-        <v>1</v>
-      </c>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="17"/>
-      <c r="K177" s="17"/>
-      <c r="L177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17">
+        <v>1</v>
+      </c>
+      <c r="I177" s="17">
+        <v>1</v>
+      </c>
+      <c r="J177" s="17">
+        <v>1</v>
+      </c>
+      <c r="K177" s="17">
+        <v>1</v>
+      </c>
+      <c r="L177" s="17">
+        <v>1</v>
+      </c>
       <c r="M177" s="17"/>
       <c r="N177" s="17"/>
       <c r="O177" s="17"/>
@@ -6643,12 +6634,14 @@
         <v>6</v>
       </c>
       <c r="C178" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D178" s="49"/>
       <c r="E178" s="49"/>
       <c r="F178" s="49"/>
-      <c r="G178" s="17"/>
+      <c r="G178" s="17">
+        <v>1</v>
+      </c>
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
       <c r="J178" s="17"/>
@@ -6661,14 +6654,14 @@
       <c r="Q178" s="17"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>100</v>
+      <c r="A179" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="D179" s="49"/>
       <c r="E179" s="49"/>
@@ -6693,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D180" s="49"/>
       <c r="E180" s="49"/>
@@ -6718,7 +6711,7 @@
         <v>6</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D181" s="49"/>
       <c r="E181" s="49"/>
@@ -6736,12 +6729,14 @@
       <c r="Q181" s="17"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B182" s="36"/>
-      <c r="C182" s="28" t="s">
-        <v>1</v>
+      <c r="A182" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D182" s="49"/>
       <c r="E182" s="49"/>
@@ -6762,11 +6757,9 @@
       <c r="A183" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B183" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B183" s="36"/>
       <c r="C183" s="28" t="s">
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="D183" s="49"/>
       <c r="E183" s="49"/>
@@ -6791,25 +6784,21 @@
         <v>6</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="D184" s="49"/>
       <c r="E184" s="49"/>
       <c r="F184" s="49"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
-      <c r="I184" s="17">
-        <v>1</v>
-      </c>
+      <c r="I184" s="17"/>
       <c r="J184" s="17"/>
       <c r="K184" s="17"/>
       <c r="L184" s="17"/>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
-      <c r="P184" s="17">
-        <v>1</v>
-      </c>
+      <c r="P184" s="17"/>
       <c r="Q184" s="17"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
@@ -6820,30 +6809,26 @@
         <v>6</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="D185" s="49"/>
       <c r="E185" s="49"/>
       <c r="F185" s="49"/>
-      <c r="G185" s="17">
-        <v>1</v>
-      </c>
-      <c r="H185" s="17">
-        <v>1</v>
-      </c>
-      <c r="I185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17">
+        <v>1</v>
+      </c>
       <c r="J185" s="17"/>
-      <c r="K185" s="17">
-        <v>1</v>
-      </c>
+      <c r="K185" s="17"/>
       <c r="L185" s="17"/>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
-      <c r="P185" s="17"/>
-      <c r="Q185" s="17">
-        <v>1</v>
-      </c>
+      <c r="P185" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="17"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="26" t="s">
@@ -6853,32 +6838,40 @@
         <v>6</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D186" s="49"/>
       <c r="E186" s="49"/>
       <c r="F186" s="49"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
+      <c r="G186" s="17">
+        <v>1</v>
+      </c>
+      <c r="H186" s="17">
+        <v>1</v>
+      </c>
       <c r="I186" s="17"/>
       <c r="J186" s="17"/>
-      <c r="K186" s="17"/>
+      <c r="K186" s="17">
+        <v>1</v>
+      </c>
       <c r="L186" s="17"/>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
-      <c r="P186" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q186" s="17"/>
+      <c r="P186" s="17"/>
+      <c r="Q186" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B187" s="27"/>
+      <c r="B187" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="C187" s="28" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="D187" s="49"/>
       <c r="E187" s="49"/>
@@ -6892,18 +6885,18 @@
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
-      <c r="P187" s="17"/>
+      <c r="P187" s="17">
+        <v>1</v>
+      </c>
       <c r="Q187" s="17"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B188" s="27" t="s">
-        <v>6</v>
-      </c>
+      <c r="B188" s="27"/>
       <c r="C188" s="28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D188" s="49"/>
       <c r="E188" s="49"/>
@@ -6928,7 +6921,7 @@
         <v>6</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="D189" s="49"/>
       <c r="E189" s="49"/>
@@ -6937,9 +6930,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
-      <c r="K189" s="17">
-        <v>1</v>
-      </c>
+      <c r="K189" s="17"/>
       <c r="L189" s="17"/>
       <c r="M189" s="17"/>
       <c r="N189" s="17"/>
@@ -6955,17 +6946,13 @@
         <v>6</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D190" s="49"/>
       <c r="E190" s="49"/>
       <c r="F190" s="49"/>
-      <c r="G190" s="17">
-        <v>1</v>
-      </c>
-      <c r="H190" s="17">
-        <v>1</v>
-      </c>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
       <c r="K190" s="17">
@@ -6986,7 +6973,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>236</v>
+        <v>46</v>
       </c>
       <c r="D191" s="49"/>
       <c r="E191" s="49"/>
@@ -6994,10 +6981,14 @@
       <c r="G191" s="17">
         <v>1</v>
       </c>
-      <c r="H191" s="17"/>
+      <c r="H191" s="17">
+        <v>1</v>
+      </c>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
-      <c r="K191" s="17"/>
+      <c r="K191" s="17">
+        <v>1</v>
+      </c>
       <c r="L191" s="17"/>
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
@@ -7013,7 +7004,7 @@
         <v>6</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c r="D192" s="49"/>
       <c r="E192" s="49"/>
@@ -7021,14 +7012,10 @@
       <c r="G192" s="17">
         <v>1</v>
       </c>
-      <c r="H192" s="17">
-        <v>1</v>
-      </c>
+      <c r="H192" s="17"/>
       <c r="I192" s="17"/>
       <c r="J192" s="17"/>
-      <c r="K192" s="17">
-        <v>1</v>
-      </c>
+      <c r="K192" s="17"/>
       <c r="L192" s="17"/>
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
@@ -7044,16 +7031,22 @@
         <v>6</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="D193" s="49"/>
       <c r="E193" s="49"/>
       <c r="F193" s="49"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
+      <c r="G193" s="17">
+        <v>1</v>
+      </c>
+      <c r="H193" s="17">
+        <v>1</v>
+      </c>
       <c r="I193" s="17"/>
       <c r="J193" s="17"/>
-      <c r="K193" s="17"/>
+      <c r="K193" s="17">
+        <v>1</v>
+      </c>
       <c r="L193" s="17"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
@@ -7062,40 +7055,26 @@
       <c r="Q193" s="17"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A194" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B194" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C194" s="39" t="s">
-        <v>134</v>
+      <c r="A194" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="28" t="s">
+        <v>130</v>
       </c>
       <c r="D194" s="49"/>
       <c r="E194" s="49"/>
       <c r="F194" s="49"/>
       <c r="G194" s="17"/>
-      <c r="H194" s="17">
-        <v>1</v>
-      </c>
-      <c r="I194" s="17">
-        <v>1</v>
-      </c>
-      <c r="J194" s="17">
-        <v>1</v>
-      </c>
-      <c r="K194" s="17">
-        <v>1</v>
-      </c>
-      <c r="L194" s="17">
-        <v>1</v>
-      </c>
-      <c r="M194" s="17">
-        <v>1</v>
-      </c>
-      <c r="N194" s="17">
-        <v>1</v>
-      </c>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="17"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="17"/>
+      <c r="M194" s="17"/>
+      <c r="N194" s="17"/>
       <c r="O194" s="17"/>
       <c r="P194" s="17"/>
       <c r="Q194" s="17"/>
@@ -7105,21 +7084,33 @@
         <v>177</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C195" s="39" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D195" s="49"/>
       <c r="E195" s="49"/>
       <c r="F195" s="49"/>
       <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="17"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="17"/>
-      <c r="M195" s="17"/>
+      <c r="H195" s="17">
+        <v>1</v>
+      </c>
+      <c r="I195" s="17">
+        <v>1</v>
+      </c>
+      <c r="J195" s="17">
+        <v>1</v>
+      </c>
+      <c r="K195" s="17">
+        <v>1</v>
+      </c>
+      <c r="L195" s="17">
+        <v>1</v>
+      </c>
+      <c r="M195" s="17">
+        <v>1</v>
+      </c>
       <c r="N195" s="17">
         <v>1</v>
       </c>
@@ -7135,7 +7126,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="39" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D196" s="49"/>
       <c r="E196" s="49"/>
@@ -7159,31 +7150,21 @@
         <v>177</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C197" s="39" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D197" s="49"/>
       <c r="E197" s="49"/>
       <c r="F197" s="49"/>
-      <c r="G197" s="17">
-        <v>1</v>
-      </c>
-      <c r="H197" s="17">
-        <v>1</v>
-      </c>
-      <c r="I197" s="17">
-        <v>1</v>
-      </c>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
       <c r="J197" s="17"/>
-      <c r="K197" s="17">
-        <v>1</v>
-      </c>
+      <c r="K197" s="17"/>
       <c r="L197" s="17"/>
-      <c r="M197" s="17">
-        <v>1</v>
-      </c>
+      <c r="M197" s="17"/>
       <c r="N197" s="17">
         <v>1</v>
       </c>
@@ -7196,10 +7177,10 @@
         <v>177</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C198" s="39" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="D198" s="49"/>
       <c r="E198" s="49"/>
@@ -7210,13 +7191,17 @@
       <c r="H198" s="17">
         <v>1</v>
       </c>
-      <c r="I198" s="17"/>
+      <c r="I198" s="17">
+        <v>1</v>
+      </c>
       <c r="J198" s="17"/>
       <c r="K198" s="17">
         <v>1</v>
       </c>
       <c r="L198" s="17"/>
-      <c r="M198" s="17"/>
+      <c r="M198" s="17">
+        <v>1</v>
+      </c>
       <c r="N198" s="17">
         <v>1</v>
       </c>
@@ -7228,9 +7213,11 @@
       <c r="A199" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B199" s="40"/>
+      <c r="B199" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="C199" s="39" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D199" s="49"/>
       <c r="E199" s="49"/>
@@ -7241,60 +7228,64 @@
       <c r="H199" s="17">
         <v>1</v>
       </c>
-      <c r="I199" s="17">
-        <v>1</v>
-      </c>
-      <c r="J199" s="17">
-        <v>1</v>
-      </c>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
       <c r="K199" s="17">
         <v>1</v>
       </c>
-      <c r="L199" s="17">
-        <v>1</v>
-      </c>
-      <c r="M199" s="17">
-        <v>1</v>
-      </c>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
       <c r="N199" s="17">
         <v>1</v>
       </c>
-      <c r="O199" s="17">
-        <v>1</v>
-      </c>
-      <c r="P199" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q199" s="17">
-        <v>1</v>
-      </c>
+      <c r="O199" s="17"/>
+      <c r="P199" s="17"/>
+      <c r="Q199" s="17"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B200" s="38" t="s">
-        <v>6</v>
-      </c>
+      <c r="B200" s="40"/>
       <c r="C200" s="39" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="D200" s="49"/>
       <c r="E200" s="49"/>
       <c r="F200" s="49"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="17"/>
-      <c r="K200" s="17"/>
-      <c r="L200" s="17"/>
-      <c r="M200" s="17"/>
+      <c r="G200" s="17">
+        <v>1</v>
+      </c>
+      <c r="H200" s="17">
+        <v>1</v>
+      </c>
+      <c r="I200" s="17">
+        <v>1</v>
+      </c>
+      <c r="J200" s="17">
+        <v>1</v>
+      </c>
+      <c r="K200" s="17">
+        <v>1</v>
+      </c>
+      <c r="L200" s="17">
+        <v>1</v>
+      </c>
+      <c r="M200" s="17">
+        <v>1</v>
+      </c>
       <c r="N200" s="17">
         <v>1</v>
       </c>
-      <c r="O200" s="17"/>
-      <c r="P200" s="17"/>
-      <c r="Q200" s="17"/>
+      <c r="O200" s="17">
+        <v>1</v>
+      </c>
+      <c r="P200" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q200" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="37" t="s">
@@ -7304,7 +7295,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="39" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D201" s="49"/>
       <c r="E201" s="49"/>
@@ -7331,7 +7322,7 @@
         <v>6</v>
       </c>
       <c r="C202" s="39" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="D202" s="49"/>
       <c r="E202" s="49"/>
@@ -7340,9 +7331,7 @@
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
-      <c r="K202" s="17">
-        <v>1</v>
-      </c>
+      <c r="K202" s="17"/>
       <c r="L202" s="17"/>
       <c r="M202" s="17"/>
       <c r="N202" s="17">
@@ -7357,32 +7346,22 @@
         <v>177</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="D203" s="49"/>
       <c r="E203" s="49"/>
       <c r="F203" s="49"/>
-      <c r="G203" s="17">
-        <v>1</v>
-      </c>
-      <c r="H203" s="17">
-        <v>1</v>
-      </c>
-      <c r="I203" s="17">
-        <v>1</v>
-      </c>
-      <c r="J203" s="17">
-        <v>1</v>
-      </c>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="17"/>
       <c r="K203" s="17">
         <v>1</v>
       </c>
-      <c r="L203" s="17">
-        <v>1</v>
-      </c>
+      <c r="L203" s="17"/>
       <c r="M203" s="17"/>
       <c r="N203" s="17">
         <v>1</v>
@@ -7396,22 +7375,32 @@
         <v>177</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C204" s="39" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="D204" s="49"/>
       <c r="E204" s="49"/>
       <c r="F204" s="49"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="17"/>
-      <c r="J204" s="17"/>
+      <c r="G204" s="17">
+        <v>1</v>
+      </c>
+      <c r="H204" s="17">
+        <v>1</v>
+      </c>
+      <c r="I204" s="17">
+        <v>1</v>
+      </c>
+      <c r="J204" s="17">
+        <v>1</v>
+      </c>
       <c r="K204" s="17">
         <v>1</v>
       </c>
-      <c r="L204" s="17"/>
+      <c r="L204" s="17">
+        <v>1</v>
+      </c>
       <c r="M204" s="17"/>
       <c r="N204" s="17">
         <v>1</v>
@@ -7425,57 +7414,39 @@
         <v>177</v>
       </c>
       <c r="B205" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C205" s="39" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D205" s="49"/>
       <c r="E205" s="49"/>
       <c r="F205" s="49"/>
-      <c r="G205" s="17">
-        <v>1</v>
-      </c>
-      <c r="H205" s="17">
-        <v>1</v>
-      </c>
-      <c r="I205" s="17">
-        <v>1</v>
-      </c>
-      <c r="J205" s="17">
-        <v>1</v>
-      </c>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="17"/>
       <c r="K205" s="17">
         <v>1</v>
       </c>
-      <c r="L205" s="17">
-        <v>1</v>
-      </c>
-      <c r="M205" s="17">
-        <v>1</v>
-      </c>
+      <c r="L205" s="17"/>
+      <c r="M205" s="17"/>
       <c r="N205" s="17">
         <v>1</v>
       </c>
-      <c r="O205" s="17">
-        <v>1</v>
-      </c>
-      <c r="P205" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q205" s="17">
-        <v>1</v>
-      </c>
+      <c r="O205" s="17"/>
+      <c r="P205" s="17"/>
+      <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="37" t="s">
         <v>177</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C206" s="39" t="s">
-        <v>50</v>
+        <v>169</v>
       </c>
       <c r="D206" s="49"/>
       <c r="E206" s="49"/>
@@ -7486,54 +7457,76 @@
       <c r="H206" s="17">
         <v>1</v>
       </c>
-      <c r="I206" s="17"/>
-      <c r="J206" s="17"/>
+      <c r="I206" s="17">
+        <v>1</v>
+      </c>
+      <c r="J206" s="17">
+        <v>1</v>
+      </c>
       <c r="K206" s="17">
         <v>1</v>
       </c>
-      <c r="L206" s="17"/>
-      <c r="M206" s="17"/>
+      <c r="L206" s="17">
+        <v>1</v>
+      </c>
+      <c r="M206" s="17">
+        <v>1</v>
+      </c>
       <c r="N206" s="17">
         <v>1</v>
       </c>
-      <c r="O206" s="17"/>
-      <c r="P206" s="17"/>
-      <c r="Q206" s="17"/>
+      <c r="O206" s="17">
+        <v>1</v>
+      </c>
+      <c r="P206" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>187</v>
+      <c r="A207" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B207" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D207" s="49"/>
       <c r="E207" s="49"/>
       <c r="F207" s="49"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
+      <c r="G207" s="17">
+        <v>1</v>
+      </c>
+      <c r="H207" s="17">
+        <v>1</v>
+      </c>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
-      <c r="K207" s="17"/>
+      <c r="K207" s="17">
+        <v>1</v>
+      </c>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
-      <c r="N207" s="17"/>
+      <c r="N207" s="17">
+        <v>1</v>
+      </c>
       <c r="O207" s="17"/>
       <c r="P207" s="17"/>
       <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B208" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="43" t="s">
-        <v>43</v>
+      <c r="A208" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>187</v>
       </c>
       <c r="D208" s="49"/>
       <c r="E208" s="49"/>
@@ -7551,14 +7544,14 @@
       <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B209" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="25" t="s">
-        <v>105</v>
+      <c r="A209" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="B209" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D209" s="49"/>
       <c r="E209" s="49"/>
@@ -7576,29 +7569,25 @@
       <c r="Q209" s="17"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B210" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="43" t="s">
-        <v>10</v>
+      <c r="A210" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B210" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="D210" s="49"/>
       <c r="E210" s="49"/>
       <c r="F210" s="49"/>
-      <c r="G210" s="17">
-        <v>1</v>
-      </c>
+      <c r="G210" s="17"/>
       <c r="H210" s="17"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
       <c r="L210" s="17"/>
-      <c r="M210" s="17">
-        <v>1</v>
-      </c>
+      <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
       <c r="P210" s="17"/>
@@ -7612,12 +7601,14 @@
         <v>6</v>
       </c>
       <c r="C211" s="43" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D211" s="49"/>
       <c r="E211" s="49"/>
       <c r="F211" s="49"/>
-      <c r="G211" s="17"/>
+      <c r="G211" s="17">
+        <v>1</v>
+      </c>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
@@ -7639,7 +7630,7 @@
         <v>6</v>
       </c>
       <c r="C212" s="43" t="s">
-        <v>235</v>
+        <v>90</v>
       </c>
       <c r="D212" s="49"/>
       <c r="E212" s="49"/>
@@ -7663,10 +7654,10 @@
         <v>44</v>
       </c>
       <c r="B213" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="D213" s="49"/>
       <c r="E213" s="49"/>
@@ -7690,23 +7681,19 @@
         <v>44</v>
       </c>
       <c r="B214" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="D214" s="49"/>
       <c r="E214" s="49"/>
       <c r="F214" s="49"/>
       <c r="G214" s="17"/>
-      <c r="H214" s="17">
-        <v>1</v>
-      </c>
+      <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
-      <c r="K214" s="17">
-        <v>1</v>
-      </c>
+      <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="17">
         <v>1</v>
@@ -7721,10 +7708,10 @@
         <v>44</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D215" s="49"/>
       <c r="E215" s="49"/>
@@ -7733,9 +7720,7 @@
       <c r="H215" s="17">
         <v>1</v>
       </c>
-      <c r="I215" s="17">
-        <v>1</v>
-      </c>
+      <c r="I215" s="17"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17">
         <v>1</v>
@@ -7757,16 +7742,22 @@
         <v>53</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D216" s="49"/>
       <c r="E216" s="49"/>
       <c r="F216" s="49"/>
       <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="17"/>
+      <c r="H216" s="17">
+        <v>1</v>
+      </c>
+      <c r="I216" s="17">
+        <v>1</v>
+      </c>
       <c r="J216" s="17"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="17">
+        <v>1</v>
+      </c>
       <c r="L216" s="17"/>
       <c r="M216" s="17">
         <v>1</v>
@@ -7781,10 +7772,10 @@
         <v>44</v>
       </c>
       <c r="B217" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D217" s="49"/>
       <c r="E217" s="49"/>
@@ -7793,9 +7784,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
-      <c r="K217" s="17">
-        <v>1</v>
-      </c>
+      <c r="K217" s="17"/>
       <c r="L217" s="17"/>
       <c r="M217" s="17">
         <v>1</v>
@@ -7813,7 +7802,7 @@
         <v>6</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c r="D218" s="49"/>
       <c r="E218" s="49"/>
@@ -7826,7 +7815,9 @@
         <v>1</v>
       </c>
       <c r="L218" s="17"/>
-      <c r="M218" s="17"/>
+      <c r="M218" s="17">
+        <v>1</v>
+      </c>
       <c r="N218" s="17"/>
       <c r="O218" s="17"/>
       <c r="P218" s="17"/>
@@ -7840,7 +7831,7 @@
         <v>6</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D219" s="49"/>
       <c r="E219" s="49"/>
@@ -7867,7 +7858,7 @@
         <v>6</v>
       </c>
       <c r="C220" s="43" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D220" s="49"/>
       <c r="E220" s="49"/>
@@ -7894,7 +7885,7 @@
         <v>6</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="D221" s="49"/>
       <c r="E221" s="49"/>
@@ -7903,11 +7894,11 @@
       <c r="H221" s="17"/>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
-      <c r="K221" s="17"/>
+      <c r="K221" s="17">
+        <v>1</v>
+      </c>
       <c r="L221" s="17"/>
-      <c r="M221" s="17">
-        <v>1</v>
-      </c>
+      <c r="M221" s="17"/>
       <c r="N221" s="17"/>
       <c r="O221" s="17"/>
       <c r="P221" s="17"/>
@@ -7918,17 +7909,15 @@
         <v>44</v>
       </c>
       <c r="B222" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D222" s="49"/>
       <c r="E222" s="49"/>
       <c r="F222" s="49"/>
-      <c r="G222" s="17">
-        <v>1</v>
-      </c>
+      <c r="G222" s="17"/>
       <c r="H222" s="17"/>
       <c r="I222" s="17"/>
       <c r="J222" s="17"/>
@@ -7947,10 +7936,10 @@
         <v>44</v>
       </c>
       <c r="B223" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D223" s="49"/>
       <c r="E223" s="49"/>
@@ -7958,46 +7947,28 @@
       <c r="G223" s="17">
         <v>1</v>
       </c>
-      <c r="H223" s="17">
-        <v>1</v>
-      </c>
-      <c r="I223" s="17">
-        <v>1</v>
-      </c>
-      <c r="J223" s="17">
-        <v>1</v>
-      </c>
-      <c r="K223" s="17">
-        <v>1</v>
-      </c>
-      <c r="L223" s="17">
-        <v>1</v>
-      </c>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
+      <c r="K223" s="17"/>
+      <c r="L223" s="17"/>
       <c r="M223" s="17">
         <v>1</v>
       </c>
-      <c r="N223" s="17">
-        <v>1</v>
-      </c>
-      <c r="O223" s="17">
-        <v>1</v>
-      </c>
-      <c r="P223" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q223" s="17">
-        <v>1</v>
-      </c>
+      <c r="N223" s="17"/>
+      <c r="O223" s="17"/>
+      <c r="P223" s="17"/>
+      <c r="Q223" s="17"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B224" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="D224" s="49"/>
       <c r="E224" s="49"/>
@@ -8005,28 +7976,46 @@
       <c r="G224" s="17">
         <v>1</v>
       </c>
-      <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="17"/>
+      <c r="H224" s="17">
+        <v>1</v>
+      </c>
+      <c r="I224" s="17">
+        <v>1</v>
+      </c>
+      <c r="J224" s="17">
+        <v>1</v>
+      </c>
+      <c r="K224" s="17">
+        <v>1</v>
+      </c>
+      <c r="L224" s="17">
+        <v>1</v>
+      </c>
       <c r="M224" s="17">
         <v>1</v>
       </c>
-      <c r="N224" s="17"/>
-      <c r="O224" s="17"/>
-      <c r="P224" s="17"/>
-      <c r="Q224" s="17"/>
+      <c r="N224" s="17">
+        <v>1</v>
+      </c>
+      <c r="O224" s="17">
+        <v>1</v>
+      </c>
+      <c r="P224" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B225" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="D225" s="49"/>
       <c r="E225" s="49"/>
@@ -8034,21 +8023,11 @@
       <c r="G225" s="17">
         <v>1</v>
       </c>
-      <c r="H225" s="17">
-        <v>1</v>
-      </c>
-      <c r="I225" s="17">
-        <v>1</v>
-      </c>
-      <c r="J225" s="17">
-        <v>1</v>
-      </c>
-      <c r="K225" s="17">
-        <v>1</v>
-      </c>
-      <c r="L225" s="17">
-        <v>1</v>
-      </c>
+      <c r="H225" s="17"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
+      <c r="K225" s="17"/>
+      <c r="L225" s="17"/>
       <c r="M225" s="17">
         <v>1</v>
       </c>
@@ -8062,20 +8041,32 @@
         <v>44</v>
       </c>
       <c r="B226" s="42" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="D226" s="49"/>
       <c r="E226" s="49"/>
       <c r="F226" s="49"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="17"/>
-      <c r="J226" s="17"/>
-      <c r="K226" s="17"/>
-      <c r="L226" s="17"/>
+      <c r="G226" s="17">
+        <v>1</v>
+      </c>
+      <c r="H226" s="17">
+        <v>1</v>
+      </c>
+      <c r="I226" s="17">
+        <v>1</v>
+      </c>
+      <c r="J226" s="17">
+        <v>1</v>
+      </c>
+      <c r="K226" s="17">
+        <v>1</v>
+      </c>
+      <c r="L226" s="17">
+        <v>1</v>
+      </c>
       <c r="M226" s="17">
         <v>1</v>
       </c>
@@ -8089,10 +8080,10 @@
         <v>44</v>
       </c>
       <c r="B227" s="42" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="D227" s="49"/>
       <c r="E227" s="49"/>
@@ -8101,9 +8092,7 @@
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
-      <c r="K227" s="17">
-        <v>1</v>
-      </c>
+      <c r="K227" s="17"/>
       <c r="L227" s="17"/>
       <c r="M227" s="17">
         <v>1</v>
@@ -8121,7 +8110,7 @@
         <v>6</v>
       </c>
       <c r="C228" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D228" s="49"/>
       <c r="E228" s="49"/>
@@ -8130,7 +8119,9 @@
       <c r="H228" s="17"/>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
-      <c r="K228" s="17"/>
+      <c r="K228" s="17">
+        <v>1</v>
+      </c>
       <c r="L228" s="17"/>
       <c r="M228" s="17">
         <v>1</v>
@@ -8148,22 +8139,16 @@
         <v>6</v>
       </c>
       <c r="C229" s="43" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="D229" s="49"/>
       <c r="E229" s="49"/>
       <c r="F229" s="49"/>
-      <c r="G229" s="17">
-        <v>1</v>
-      </c>
-      <c r="H229" s="17">
-        <v>1</v>
-      </c>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
-      <c r="K229" s="17">
-        <v>1</v>
-      </c>
+      <c r="K229" s="17"/>
       <c r="L229" s="17"/>
       <c r="M229" s="17">
         <v>1</v>
@@ -8181,13 +8166,17 @@
         <v>6</v>
       </c>
       <c r="C230" s="43" t="s">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="D230" s="49"/>
       <c r="E230" s="49"/>
       <c r="F230" s="49"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
+      <c r="G230" s="17">
+        <v>1</v>
+      </c>
+      <c r="H230" s="17">
+        <v>1</v>
+      </c>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
       <c r="K230" s="17">
@@ -8210,17 +8199,13 @@
         <v>6</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="D231" s="49"/>
       <c r="E231" s="49"/>
       <c r="F231" s="49"/>
-      <c r="G231" s="17">
-        <v>1</v>
-      </c>
-      <c r="H231" s="17">
-        <v>1</v>
-      </c>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
       <c r="K231" s="17">
@@ -8236,23 +8221,33 @@
       <c r="Q231" s="17"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B232" s="44"/>
-      <c r="C232" s="13" t="s">
-        <v>0</v>
+      <c r="A232" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B232" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D232" s="49"/>
       <c r="E232" s="49"/>
       <c r="F232" s="49"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
+      <c r="G232" s="17">
+        <v>1</v>
+      </c>
+      <c r="H232" s="17">
+        <v>1</v>
+      </c>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
-      <c r="K232" s="17"/>
+      <c r="K232" s="17">
+        <v>1</v>
+      </c>
       <c r="L232" s="17"/>
-      <c r="M232" s="17"/>
+      <c r="M232" s="17">
+        <v>1</v>
+      </c>
       <c r="N232" s="17"/>
       <c r="O232" s="17"/>
       <c r="P232" s="17"/>
@@ -8262,21 +8257,15 @@
       <c r="A233" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B233" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B233" s="44"/>
       <c r="C233" s="13" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="D233" s="49"/>
       <c r="E233" s="49"/>
       <c r="F233" s="49"/>
-      <c r="G233" s="17">
-        <v>1</v>
-      </c>
-      <c r="H233" s="17">
-        <v>1</v>
-      </c>
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
@@ -8295,7 +8284,7 @@
         <v>53</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D234" s="49"/>
       <c r="E234" s="49"/>
@@ -8308,9 +8297,7 @@
       </c>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
-      <c r="K234" s="17">
-        <v>1</v>
-      </c>
+      <c r="K234" s="17"/>
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
       <c r="N234" s="17"/>
@@ -8323,19 +8310,25 @@
         <v>48</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C235" s="13" t="s">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="D235" s="49"/>
       <c r="E235" s="49"/>
       <c r="F235" s="49"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
+      <c r="G235" s="17">
+        <v>1</v>
+      </c>
+      <c r="H235" s="17">
+        <v>1</v>
+      </c>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
-      <c r="K235" s="17"/>
+      <c r="K235" s="17">
+        <v>1</v>
+      </c>
       <c r="L235" s="17"/>
       <c r="M235" s="17"/>
       <c r="N235" s="17"/>
@@ -8348,10 +8341,10 @@
         <v>48</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C236" s="13" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="D236" s="49"/>
       <c r="E236" s="49"/>
@@ -8376,20 +8369,16 @@
         <v>53</v>
       </c>
       <c r="C237" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D237" s="49"/>
       <c r="E237" s="49"/>
       <c r="F237" s="49"/>
       <c r="G237" s="17"/>
-      <c r="H237" s="17">
-        <v>1</v>
-      </c>
+      <c r="H237" s="17"/>
       <c r="I237" s="17"/>
       <c r="J237" s="17"/>
-      <c r="K237" s="17">
-        <v>1</v>
-      </c>
+      <c r="K237" s="17"/>
       <c r="L237" s="17"/>
       <c r="M237" s="17"/>
       <c r="N237" s="17"/>
@@ -8405,44 +8394,26 @@
         <v>53</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="D238" s="49"/>
       <c r="E238" s="49"/>
       <c r="F238" s="49"/>
-      <c r="G238" s="17">
-        <v>1</v>
-      </c>
+      <c r="G238" s="17"/>
       <c r="H238" s="17">
         <v>1</v>
       </c>
-      <c r="I238" s="17">
-        <v>1</v>
-      </c>
-      <c r="J238" s="17">
-        <v>1</v>
-      </c>
+      <c r="I238" s="17"/>
+      <c r="J238" s="17"/>
       <c r="K238" s="17">
         <v>1</v>
       </c>
-      <c r="L238" s="17">
-        <v>1</v>
-      </c>
-      <c r="M238" s="17">
-        <v>1</v>
-      </c>
-      <c r="N238" s="17">
-        <v>1</v>
-      </c>
-      <c r="O238" s="17">
-        <v>1</v>
-      </c>
-      <c r="P238" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q238" s="17">
-        <v>1</v>
-      </c>
+      <c r="L238" s="17"/>
+      <c r="M238" s="17"/>
+      <c r="N238" s="17"/>
+      <c r="O238" s="17"/>
+      <c r="P238" s="17"/>
+      <c r="Q238" s="17"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="11" t="s">
@@ -8452,7 +8423,7 @@
         <v>53</v>
       </c>
       <c r="C239" s="13" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="D239" s="49"/>
       <c r="E239" s="49"/>
@@ -8499,7 +8470,7 @@
         <v>53</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="D240" s="49"/>
       <c r="E240" s="49"/>
@@ -8543,82 +8514,129 @@
         <v>48</v>
       </c>
       <c r="B241" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C241" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D241" s="49"/>
+      <c r="E241" s="49"/>
+      <c r="F241" s="49"/>
+      <c r="G241" s="17">
+        <v>1</v>
+      </c>
+      <c r="H241" s="17">
+        <v>1</v>
+      </c>
+      <c r="I241" s="17">
+        <v>1</v>
+      </c>
+      <c r="J241" s="17">
+        <v>1</v>
+      </c>
+      <c r="K241" s="17">
+        <v>1</v>
+      </c>
+      <c r="L241" s="17">
+        <v>1</v>
+      </c>
+      <c r="M241" s="17">
+        <v>1</v>
+      </c>
+      <c r="N241" s="17">
+        <v>1</v>
+      </c>
+      <c r="O241" s="17">
+        <v>1</v>
+      </c>
+      <c r="P241" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q241" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A242" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="D241" s="52"/>
-      <c r="E241" s="52"/>
-      <c r="F241" s="52"/>
-      <c r="G241" s="58"/>
-      <c r="H241" s="58">
-        <v>1</v>
-      </c>
-      <c r="I241" s="58"/>
-      <c r="J241" s="58"/>
-      <c r="K241" s="58">
-        <v>1</v>
-      </c>
-      <c r="L241" s="58"/>
-      <c r="M241" s="58"/>
-      <c r="N241" s="58"/>
-      <c r="O241" s="58"/>
-      <c r="P241" s="58"/>
-      <c r="Q241" s="58"/>
+      <c r="D242" s="52"/>
+      <c r="E242" s="52"/>
+      <c r="F242" s="52"/>
+      <c r="G242" s="58"/>
+      <c r="H242" s="58">
+        <v>1</v>
+      </c>
+      <c r="I242" s="58"/>
+      <c r="J242" s="58"/>
+      <c r="K242" s="58">
+        <v>1</v>
+      </c>
+      <c r="L242" s="58"/>
+      <c r="M242" s="58"/>
+      <c r="N242" s="58"/>
+      <c r="O242" s="58"/>
+      <c r="P242" s="58"/>
+      <c r="Q242" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q241" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q241">
-      <sortCondition ref="A1:A241"/>
+  <autoFilter ref="A1:Q242" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q242">
+      <sortCondition ref="A1:A242"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q240">
-    <sortCondition ref="A2:A240"/>
-    <sortCondition ref="C2:C240"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q241">
+    <sortCondition ref="A2:A241"/>
+    <sortCondition ref="C2:C241"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C72" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C195" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C196" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C18" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C210" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C211" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C142" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C143" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C211" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C212" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C143" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C144" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C33" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C52" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C212" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C213" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C28" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C196" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C197" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
     <hyperlink ref="C74" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C144" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C214" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C145" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C145" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C215" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C146" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
     <hyperlink ref="C76" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
     <hyperlink ref="C77" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
     <hyperlink ref="C78" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
     <hyperlink ref="C79" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
     <hyperlink ref="C81" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
     <hyperlink ref="C82" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C147" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C148" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C149" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C183" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C186" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C185" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C198" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C217" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C148" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C149" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C150" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C184" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C187" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C186" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C199" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C218" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C35" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C179" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C180" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C181" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C180" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C181" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C182" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C48" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C221" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C200" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C222" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C201" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C209" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C210" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
     <hyperlink ref="C57" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C223" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C224" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
     <hyperlink ref="C98" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
     <hyperlink ref="C99" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
     <hyperlink ref="C100" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
@@ -8626,77 +8644,77 @@
     <hyperlink ref="C102" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
     <hyperlink ref="C103" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
     <hyperlink ref="C104" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C225" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C226" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C13" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C37" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C150" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C151" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
     <hyperlink ref="C58" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C201" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C155" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C153" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C154" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C156" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C202" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C156" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C154" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C155" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C157" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C39" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C157" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C202" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C158" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C203" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C50" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C158" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C208" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C227" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C228" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C189" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C159" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C209" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C228" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C229" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C190" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C40" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C159" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C229" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C230" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C190" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C192" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C160" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C230" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C231" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C191" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C193" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C25" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C241" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C242" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
     <hyperlink ref="C59" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C176" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C193" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C204" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C177" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C206" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C231" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C178" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C177" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C194" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C205" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C178" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C207" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C232" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C179" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
     <hyperlink ref="C90" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C194" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C195" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C17" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
     <hyperlink ref="C108" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
     <hyperlink ref="C63" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C29" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C213" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C197" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C146" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C214" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C198" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C147" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
     <hyperlink ref="C80" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C215" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C216" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
     <hyperlink ref="C109" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
     <hyperlink ref="C110" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C216" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C217" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
     <hyperlink ref="C115" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
     <hyperlink ref="C64" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
     <hyperlink ref="C65" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
     <hyperlink ref="C66" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C233" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C234" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C34" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C45" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C46" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C234" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C235" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
     <hyperlink ref="C116" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C47" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C19" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C236" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C237" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C237" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C238" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
     <hyperlink ref="C117" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
     <hyperlink ref="C118" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
     <hyperlink ref="C94" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C222" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C224" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C223" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C225" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
     <hyperlink ref="C67" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C9" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C10" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
@@ -8704,45 +8722,45 @@
     <hyperlink ref="C12" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C38" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
     <hyperlink ref="C88" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C119" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C120" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
     <hyperlink ref="C95" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C21" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C226" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C227" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C14" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C20" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
     <hyperlink ref="C68" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C121" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C122" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C122" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C123" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
     <hyperlink ref="C69" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C15" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C16" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C123" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C124" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
     <hyperlink ref="C70" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C203" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C124" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C204" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C125" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
     <hyperlink ref="C62" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C22" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C23" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C240" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C241" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C24" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
     <hyperlink ref="C96" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C138" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C139" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
     <hyperlink ref="C71" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C139" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C140" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C141" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C205" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C140" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C141" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C142" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C206" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
     <hyperlink ref="C92" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C232" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C182" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C199" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C233" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C183" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C200" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
     <hyperlink ref="C97" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C41" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C36" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C238" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C239" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
     <hyperlink ref="C85" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C26" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C191" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C192" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
     <hyperlink ref="C61" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
     <hyperlink ref="C60" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
@@ -8754,55 +8772,55 @@
     <hyperlink ref="C43" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C42" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C44" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C151" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C235" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C152" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C236" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
     <hyperlink ref="C75" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
     <hyperlink ref="C73" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
     <hyperlink ref="C89" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
     <hyperlink ref="C83" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C127" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C128" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C132" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C133" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C134" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C135" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C136" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C126" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C137" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C125" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C129" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C130" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C120" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C160" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C171" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C161" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C163" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C162" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C169" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C167" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C164" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C168" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C173" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C174" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C175" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C172" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C165" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C170" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C166" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C239" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C131" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C128" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C129" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C133" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C134" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C135" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C136" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C137" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C127" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C138" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C126" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C130" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C131" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C121" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C161" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C172" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C162" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C164" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C163" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C170" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C168" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C165" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C169" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C174" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C175" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C176" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C173" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C166" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C171" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C167" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C240" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C132" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
     <hyperlink ref="C111" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
     <hyperlink ref="C112" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
     <hyperlink ref="C113" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
     <hyperlink ref="C114" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C184" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C185" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C27" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C30" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C31" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C32" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C207" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C187" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C188" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C208" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C188" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C189" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C53" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C54" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C55" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
@@ -8811,11 +8829,12 @@
     <hyperlink ref="C106" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
     <hyperlink ref="C107" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C49" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C218" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C220" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C219" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C152" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C219" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C221" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C220" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C153" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
     <hyperlink ref="C86" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
+    <hyperlink ref="C119" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7B6E69-C5C7-7E4E-9951-5DDF892DC727}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFA603-D233-1541-AE41-43E29DFB524A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23200" yWindow="-23500" windowWidth="38400" windowHeight="23500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Services" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$242</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$248</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="292">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -319,9 +319,6 @@
     <t>Data Exchange</t>
   </si>
   <si>
-    <t>Database Migration Service</t>
-  </si>
-  <si>
     <t>Direct Connect</t>
   </si>
   <si>
@@ -887,25 +884,40 @@
   </si>
   <si>
     <t>HealthLake</t>
+  </si>
+  <si>
+    <t>Database Migration Service (DMS)</t>
+  </si>
+  <si>
+    <t>DMS Schema Convertion Tool (SCT)</t>
+  </si>
+  <si>
+    <t>RDS Performance Insights</t>
+  </si>
+  <si>
+    <t>Managed Services</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Training and Certification</t>
+  </si>
+  <si>
+    <t>Activate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -975,12 +987,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -1118,174 +1124,162 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,10 +1291,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFC00A17"/>
+      <color rgb="FF2F29AE"/>
       <color rgb="FF1D7C6A"/>
-      <color rgb="FFC00A17"/>
       <color rgb="FF1F8901"/>
-      <color rgb="FF2F29AE"/>
       <color rgb="FFD15D16"/>
       <color rgb="FF4F28AC"/>
       <color rgb="FFB1094E"/>
@@ -1617,83 +1611,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q242"/>
+  <dimension ref="A1:Q248"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:D4"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.83203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.83203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="49" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="41" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="41" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="41" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.83203125" style="41" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>258</v>
-      </c>
-      <c r="G1" s="54" t="s">
+      <c r="E1" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="I1" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="55" t="s">
+      <c r="L1" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="M1" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="M1" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="N1" s="57" t="s">
+      <c r="P1" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="53" t="s">
         <v>240</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q1" s="57" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1706,9 +1700,9 @@
       <c r="C2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17">
         <v>1</v>
@@ -1735,11 +1729,11 @@
         <v>53</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+        <v>245</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1760,11 +1754,11 @@
         <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+        <v>146</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17">
         <v>1</v>
@@ -1791,11 +1785,11 @@
         <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+        <v>147</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1818,11 +1812,11 @@
         <v>53</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+        <v>242</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1845,9 +1839,9 @@
       <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="17"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -1870,11 +1864,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+        <v>244</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
@@ -1897,11 +1891,11 @@
         <v>53</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+        <v>152</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <v>1</v>
@@ -1930,11 +1924,11 @@
         <v>53</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+        <v>153</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <v>1</v>
@@ -1963,11 +1957,11 @@
         <v>53</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+        <v>154</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <v>1</v>
@@ -1996,11 +1990,11 @@
         <v>53</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+        <v>155</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -2023,11 +2017,11 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
+        <v>114</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -2050,11 +2044,11 @@
         <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+        <v>158</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -2079,9 +2073,9 @@
       <c r="C15" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -2106,9 +2100,9 @@
       <c r="C16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <v>1</v>
@@ -2133,7 +2127,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>53</v>
@@ -2141,9 +2135,9 @@
       <c r="C17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -2158,7 +2152,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>6</v>
@@ -2166,9 +2160,9 @@
       <c r="C18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -2183,7 +2177,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>53</v>
@@ -2191,9 +2185,9 @@
       <c r="C19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -2208,17 +2202,17 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+        <v>247</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -2233,7 +2227,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>53</v>
@@ -2241,9 +2235,9 @@
       <c r="C21" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
@@ -2258,17 +2252,17 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+        <v>163</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="17">
         <v>1</v>
       </c>
@@ -2305,17 +2299,17 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+        <v>164</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="17">
         <v>1</v>
       </c>
@@ -2352,17 +2346,17 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
+        <v>166</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2377,17 +2371,17 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
+        <v>127</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
         <v>1</v>
@@ -2408,17 +2402,17 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="17">
         <v>1</v>
       </c>
@@ -2434,16 +2428,16 @@
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
@@ -2457,18 +2451,18 @@
       <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
@@ -2482,18 +2476,18 @@
       <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
@@ -2507,18 +2501,18 @@
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
+      <c r="A30" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
@@ -2532,18 +2526,18 @@
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
+      <c r="B31" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
@@ -2557,18 +2551,18 @@
       <c r="Q31" s="17"/>
     </row>
     <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="49"/>
+      <c r="A32" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -2591,9 +2585,9 @@
       <c r="C33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="17"/>
       <c r="H33" s="17">
         <v>1</v>
@@ -2620,11 +2614,11 @@
         <v>53</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+        <v>183</v>
+      </c>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="17">
         <v>1</v>
       </c>
@@ -2667,11 +2661,11 @@
         <v>6</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+        <v>98</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="17">
         <v>1</v>
       </c>
@@ -2696,11 +2690,11 @@
         <v>53</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+        <v>140</v>
+      </c>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="17">
         <v>1</v>
       </c>
@@ -2745,9 +2739,9 @@
       <c r="C37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="17">
         <v>1</v>
       </c>
@@ -2792,9 +2786,9 @@
       <c r="C38" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2817,9 +2811,9 @@
       <c r="C39" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="17">
         <v>1</v>
       </c>
@@ -2842,11 +2836,11 @@
         <v>6</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
+        <v>125</v>
+      </c>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -2863,13 +2857,13 @@
       <c r="A41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="21"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -2890,11 +2884,11 @@
         <v>6</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
+        <v>182</v>
+      </c>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2909,17 +2903,17 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
+        <v>180</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -2934,17 +2928,17 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C44" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -2959,17 +2953,17 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
+        <v>141</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
@@ -2984,17 +2978,17 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
+        <v>142</v>
+      </c>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="17">
         <v>1</v>
       </c>
@@ -3017,17 +3011,17 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+        <v>145</v>
+      </c>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="17">
         <v>1</v>
       </c>
@@ -3050,7 +3044,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
@@ -3058,9 +3052,9 @@
       <c r="C48" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="17">
         <v>1</v>
       </c>
@@ -3081,17 +3075,17 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
+        <v>277</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
@@ -3106,7 +3100,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>6</v>
@@ -3114,9 +3108,9 @@
       <c r="C50" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -3131,15 +3125,15 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B51" s="15"/>
       <c r="C51" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
+        <v>181</v>
+      </c>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
@@ -3154,7 +3148,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>6</v>
@@ -3162,9 +3156,9 @@
       <c r="C52" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="17">
         <v>1</v>
       </c>
@@ -3181,17 +3175,17 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
+        <v>192</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
@@ -3206,17 +3200,17 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="17">
         <v>1</v>
       </c>
@@ -3233,17 +3227,17 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
+        <v>241</v>
+      </c>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="17">
         <v>1</v>
       </c>
@@ -3260,15 +3254,15 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
+        <v>191</v>
+      </c>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="17">
         <v>1</v>
       </c>
@@ -3288,18 +3282,18 @@
       <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
-        <v>249</v>
+      <c r="A57" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
+      <c r="C57" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
@@ -3313,21 +3307,19 @@
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
-        <v>249</v>
+      <c r="A58" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="17">
-        <v>1</v>
-      </c>
+      <c r="C58" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -3340,21 +3332,19 @@
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
-        <v>249</v>
+      <c r="A59" s="19" t="s">
+        <v>248</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="17">
-        <v>1</v>
-      </c>
+      <c r="C59" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -3367,19 +3357,21 @@
       <c r="Q59" s="17"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="17"/>
+      <c r="A60" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="17">
+        <v>1</v>
+      </c>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
@@ -3392,18 +3384,18 @@
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
+      <c r="A61" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="17"/>
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
@@ -3417,19 +3409,21 @@
       <c r="Q61" s="17"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="17"/>
+      <c r="A62" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -3442,60 +3436,44 @@
       <c r="Q62" s="17"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="17">
-        <v>1</v>
-      </c>
-      <c r="H63" s="17">
-        <v>1</v>
-      </c>
-      <c r="I63" s="17">
-        <v>1</v>
-      </c>
-      <c r="J63" s="17">
-        <v>1</v>
-      </c>
-      <c r="K63" s="17">
-        <v>1</v>
-      </c>
-      <c r="L63" s="17">
-        <v>1</v>
-      </c>
+      <c r="A63" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
       <c r="M63" s="17"/>
       <c r="N63" s="17"/>
       <c r="O63" s="17"/>
       <c r="P63" s="17"/>
-      <c r="Q63" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q63" s="17"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="17">
-        <v>1</v>
-      </c>
+      <c r="A64" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -3504,114 +3482,90 @@
       <c r="M64" s="17"/>
       <c r="N64" s="17"/>
       <c r="O64" s="17"/>
-      <c r="P64" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="17">
-        <v>1</v>
-      </c>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="17">
-        <v>1</v>
-      </c>
-      <c r="H65" s="17">
-        <v>1</v>
-      </c>
-      <c r="I65" s="17">
-        <v>1</v>
-      </c>
-      <c r="J65" s="17">
-        <v>1</v>
-      </c>
-      <c r="K65" s="17">
-        <v>1</v>
-      </c>
-      <c r="L65" s="17">
-        <v>1</v>
-      </c>
-      <c r="M65" s="17">
-        <v>1</v>
-      </c>
-      <c r="N65" s="17">
-        <v>1</v>
-      </c>
-      <c r="O65" s="17">
-        <v>1</v>
-      </c>
-      <c r="P65" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="17">
-        <v>1</v>
-      </c>
+      <c r="A65" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
-      <c r="H66" s="17">
-        <v>1</v>
-      </c>
-      <c r="I66" s="17">
-        <v>1</v>
-      </c>
+      <c r="A66" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="17"/>
-      <c r="K66" s="17">
-        <v>1</v>
-      </c>
+      <c r="K66" s="17"/>
       <c r="L66" s="17"/>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
       <c r="O66" s="17"/>
       <c r="P66" s="17"/>
-      <c r="Q66" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q66" s="17"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
-      <c r="K67" s="17"/>
-      <c r="L67" s="17"/>
+      <c r="B67" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
+      <c r="H67" s="17">
+        <v>1</v>
+      </c>
+      <c r="I67" s="17">
+        <v>1</v>
+      </c>
+      <c r="J67" s="17">
+        <v>1</v>
+      </c>
+      <c r="K67" s="17">
+        <v>1</v>
+      </c>
+      <c r="L67" s="17">
+        <v>1</v>
+      </c>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
@@ -3621,18 +3575,18 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
+      <c r="B68" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="17">
         <v>1</v>
       </c>
@@ -3644,60 +3598,82 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
+      <c r="P68" s="17">
+        <v>1</v>
+      </c>
       <c r="Q68" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
+      <c r="B69" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="17">
         <v>1</v>
       </c>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="17"/>
-      <c r="L69" s="17"/>
-      <c r="M69" s="17"/>
-      <c r="N69" s="17"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="17"/>
+      <c r="H69" s="17">
+        <v>1</v>
+      </c>
+      <c r="I69" s="17">
+        <v>1</v>
+      </c>
+      <c r="J69" s="17">
+        <v>1</v>
+      </c>
+      <c r="K69" s="17">
+        <v>1</v>
+      </c>
+      <c r="L69" s="17">
+        <v>1</v>
+      </c>
+      <c r="M69" s="17">
+        <v>1</v>
+      </c>
+      <c r="N69" s="17">
+        <v>1</v>
+      </c>
+      <c r="O69" s="17">
+        <v>1</v>
+      </c>
+      <c r="P69" s="17">
+        <v>1</v>
+      </c>
       <c r="Q69" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
+      <c r="B70" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="17">
         <v>1</v>
       </c>
       <c r="H70" s="17">
         <v>1</v>
       </c>
-      <c r="I70" s="17"/>
+      <c r="I70" s="17">
+        <v>1</v>
+      </c>
       <c r="J70" s="17"/>
       <c r="K70" s="17">
         <v>1</v>
@@ -3712,18 +3688,18 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B71" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
+      <c r="B71" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="17"/>
@@ -3739,19 +3715,21 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="17"/>
+      <c r="A72" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="17">
+        <v>1</v>
+      </c>
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -3761,22 +3739,26 @@
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c r="Q72" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="17"/>
+      <c r="A73" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
@@ -3786,21 +3768,23 @@
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
       <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="Q73" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
+      <c r="A74" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="17"/>
       <c r="H74" s="17"/>
       <c r="I74" s="17"/>
@@ -3814,43 +3798,51 @@
       <c r="Q74" s="17"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
+      <c r="A75" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1</v>
+      </c>
       <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
+      <c r="K75" s="17">
+        <v>1</v>
+      </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="Q75" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
+      <c r="A76" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
@@ -3861,26 +3853,26 @@
       <c r="N76" s="17"/>
       <c r="O76" s="17"/>
       <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="Q76" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
+      <c r="A77" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="17"/>
       <c r="H77" s="17"/>
-      <c r="I77" s="17">
-        <v>1</v>
-      </c>
+      <c r="I77" s="17"/>
       <c r="J77" s="17"/>
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
@@ -3891,23 +3883,21 @@
       <c r="Q77" s="17"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
+      <c r="A78" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="17"/>
       <c r="H78" s="17"/>
-      <c r="I78" s="17">
-        <v>1</v>
-      </c>
+      <c r="I78" s="17"/>
       <c r="J78" s="17"/>
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
@@ -3918,23 +3908,21 @@
       <c r="Q78" s="17"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
+      <c r="A79" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="17"/>
       <c r="H79" s="17"/>
-      <c r="I79" s="17">
-        <v>1</v>
-      </c>
+      <c r="I79" s="17"/>
       <c r="J79" s="17"/>
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
@@ -3945,18 +3933,18 @@
       <c r="Q79" s="17"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
+      <c r="A80" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="17"/>
       <c r="H80" s="17"/>
       <c r="I80" s="17"/>
@@ -3970,23 +3958,21 @@
       <c r="Q80" s="17"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
+      <c r="A81" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
-      <c r="I81" s="17">
-        <v>1</v>
-      </c>
+      <c r="I81" s="17"/>
       <c r="J81" s="17"/>
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
@@ -3997,21 +3983,23 @@
       <c r="Q81" s="17"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
+      <c r="A82" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
+      <c r="I82" s="17">
+        <v>1</v>
+      </c>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
@@ -4022,23 +4010,23 @@
       <c r="Q82" s="17"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="17">
-        <v>1</v>
-      </c>
+      <c r="A83" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
+      <c r="I83" s="17">
+        <v>1</v>
+      </c>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -4049,21 +4037,23 @@
       <c r="Q83" s="17"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
+      <c r="A84" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
+      <c r="I84" s="17">
+        <v>1</v>
+      </c>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
@@ -4074,18 +4064,18 @@
       <c r="Q84" s="17"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
+      <c r="A85" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="17"/>
       <c r="H85" s="17"/>
       <c r="I85" s="17"/>
@@ -4099,21 +4089,23 @@
       <c r="Q85" s="17"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
+      <c r="A86" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
+      <c r="I86" s="17">
+        <v>1</v>
+      </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -4124,18 +4116,18 @@
       <c r="Q86" s="17"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
+      <c r="A87" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" s="45"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
       <c r="I87" s="17"/>
@@ -4149,19 +4141,21 @@
       <c r="Q87" s="17"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="17"/>
+      <c r="A88" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="17">
+        <v>1</v>
+      </c>
       <c r="H88" s="17"/>
       <c r="I88" s="17"/>
       <c r="J88" s="17"/>
@@ -4174,18 +4168,18 @@
       <c r="Q88" s="17"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C89" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
       <c r="I89" s="17"/>
@@ -4199,23 +4193,21 @@
       <c r="Q89" s="17"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
+      <c r="A90" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17">
-        <v>1</v>
-      </c>
+      <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -4226,18 +4218,18 @@
       <c r="Q90" s="17"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
+      <c r="A91" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" s="45"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
       <c r="I91" s="17"/>
@@ -4251,18 +4243,18 @@
       <c r="Q91" s="17"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
+      <c r="A92" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D92" s="45"/>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
@@ -4276,18 +4268,18 @@
       <c r="Q92" s="17"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
+      <c r="A93" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
       <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
@@ -4301,18 +4293,18 @@
       <c r="Q93" s="17"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
+      <c r="A94" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
@@ -4326,21 +4318,23 @@
       <c r="Q94" s="17"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
+      <c r="A95" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
+      <c r="I95" s="17">
+        <v>1</v>
+      </c>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -4351,18 +4345,18 @@
       <c r="Q95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
+      <c r="A96" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
       <c r="G96" s="17"/>
       <c r="H96" s="17"/>
       <c r="I96" s="17"/>
@@ -4376,16 +4370,18 @@
       <c r="Q96" s="17"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="30"/>
-      <c r="C97" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
+      <c r="A97" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="45"/>
+      <c r="E97" s="45"/>
+      <c r="F97" s="45"/>
       <c r="G97" s="17"/>
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
@@ -4399,18 +4395,18 @@
       <c r="Q97" s="17"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
+      <c r="A98" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
@@ -4424,18 +4420,18 @@
       <c r="Q98" s="17"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
+      <c r="A99" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" s="45"/>
+      <c r="E99" s="45"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
@@ -4449,18 +4445,18 @@
       <c r="Q99" s="17"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
+      <c r="A100" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" s="45"/>
+      <c r="E100" s="45"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
@@ -4474,18 +4470,18 @@
       <c r="Q100" s="17"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
+      <c r="A101" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
       <c r="I101" s="17"/>
@@ -4499,18 +4495,16 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="29" t="s">
+      <c r="A102" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
@@ -4524,18 +4518,18 @@
       <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="29" t="s">
+      <c r="A103" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B103" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
+      <c r="B103" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
@@ -4549,18 +4543,18 @@
       <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="29" t="s">
+      <c r="A104" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B104" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
+      <c r="B104" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="17"/>
       <c r="H104" s="17"/>
       <c r="I104" s="17"/>
@@ -4574,18 +4568,18 @@
       <c r="Q104" s="17"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B105" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
+      <c r="B105" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="17"/>
       <c r="H105" s="17"/>
       <c r="I105" s="17"/>
@@ -4599,18 +4593,18 @@
       <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="29" t="s">
+      <c r="A106" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
+      <c r="B106" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
@@ -4624,18 +4618,18 @@
       <c r="Q106" s="17"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="29" t="s">
+      <c r="A107" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="31" t="s">
-        <v>213</v>
-      </c>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
+      <c r="B107" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
@@ -4649,18 +4643,18 @@
       <c r="Q107" s="17"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="49"/>
+      <c r="A108" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
       <c r="I108" s="17"/>
@@ -4669,25 +4663,23 @@
       <c r="L108" s="17"/>
       <c r="M108" s="17"/>
       <c r="N108" s="17"/>
-      <c r="O108" s="17">
-        <v>1</v>
-      </c>
+      <c r="O108" s="17"/>
       <c r="P108" s="17"/>
       <c r="Q108" s="17"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
+      <c r="A109" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="17"/>
       <c r="H109" s="17"/>
       <c r="I109" s="17"/>
@@ -4696,25 +4688,23 @@
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>
       <c r="N109" s="17"/>
-      <c r="O109" s="17">
-        <v>1</v>
-      </c>
+      <c r="O109" s="17"/>
       <c r="P109" s="17"/>
       <c r="Q109" s="17"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
+      <c r="A110" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="17"/>
       <c r="H110" s="17"/>
       <c r="I110" s="17"/>
@@ -4723,25 +4713,23 @@
       <c r="L110" s="17"/>
       <c r="M110" s="17"/>
       <c r="N110" s="17"/>
-      <c r="O110" s="17">
-        <v>1</v>
-      </c>
+      <c r="O110" s="17"/>
       <c r="P110" s="17"/>
       <c r="Q110" s="17"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
+      <c r="A111" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
       <c r="I111" s="17"/>
@@ -4750,25 +4738,23 @@
       <c r="L111" s="17"/>
       <c r="M111" s="17"/>
       <c r="N111" s="17"/>
-      <c r="O111" s="17">
-        <v>1</v>
-      </c>
+      <c r="O111" s="17"/>
       <c r="P111" s="17"/>
       <c r="Q111" s="17"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
+      <c r="A112" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
       <c r="I112" s="17"/>
@@ -4782,18 +4768,18 @@
       <c r="Q112" s="17"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
+      <c r="A113" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
       <c r="I113" s="17"/>
@@ -4802,23 +4788,25 @@
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
+      <c r="O113" s="17">
+        <v>1</v>
+      </c>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
+      <c r="A114" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
       <c r="G114" s="17"/>
       <c r="H114" s="17"/>
       <c r="I114" s="17"/>
@@ -4827,23 +4815,25 @@
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
+      <c r="O114" s="17">
+        <v>1</v>
+      </c>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
+      <c r="A115" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
       <c r="G115" s="17"/>
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
@@ -4859,18 +4849,18 @@
       <c r="Q115" s="17"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
+      <c r="A116" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
       <c r="G116" s="17"/>
       <c r="H116" s="17"/>
       <c r="I116" s="17"/>
@@ -4886,18 +4876,18 @@
       <c r="Q116" s="17"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C117" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
+      <c r="A117" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
       <c r="G117" s="17"/>
       <c r="H117" s="17"/>
       <c r="I117" s="17"/>
@@ -4906,25 +4896,23 @@
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
-      <c r="O117" s="17">
-        <v>1</v>
-      </c>
+      <c r="O117" s="17"/>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="49"/>
+      <c r="A118" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
       <c r="G118" s="17"/>
       <c r="H118" s="17"/>
       <c r="I118" s="17"/>
@@ -4933,25 +4921,23 @@
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
-      <c r="O118" s="17">
-        <v>1</v>
-      </c>
+      <c r="O118" s="17"/>
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
+      <c r="A119" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="17"/>
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
@@ -4965,18 +4951,18 @@
       <c r="Q119" s="17"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
+      <c r="A120" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>
       <c r="I120" s="17"/>
@@ -4985,23 +4971,25 @@
       <c r="L120" s="17"/>
       <c r="M120" s="17"/>
       <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
+      <c r="O120" s="17">
+        <v>1</v>
+      </c>
       <c r="P120" s="17"/>
       <c r="Q120" s="17"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>203</v>
-      </c>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="49"/>
+      <c r="A121" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
       <c r="G121" s="17"/>
       <c r="H121" s="17"/>
       <c r="I121" s="17"/>
@@ -5010,23 +4998,25 @@
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
+      <c r="O121" s="17">
+        <v>1</v>
+      </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
+      <c r="A122" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
       <c r="I122" s="17"/>
@@ -5042,18 +5032,18 @@
       <c r="Q122" s="17"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
+      <c r="A123" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
       <c r="G123" s="17"/>
       <c r="H123" s="17"/>
       <c r="I123" s="17"/>
@@ -5069,18 +5059,18 @@
       <c r="Q123" s="17"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
+      <c r="A124" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
       <c r="G124" s="17"/>
       <c r="H124" s="17"/>
       <c r="I124" s="17"/>
@@ -5089,25 +5079,23 @@
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
-      <c r="O124" s="17">
-        <v>1</v>
-      </c>
+      <c r="O124" s="17"/>
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
+      <c r="A125" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
@@ -5116,25 +5104,23 @@
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
-      <c r="O125" s="17">
-        <v>1</v>
-      </c>
+      <c r="O125" s="17"/>
       <c r="P125" s="17"/>
       <c r="Q125" s="17"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
+      <c r="A126" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
       <c r="G126" s="17"/>
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
@@ -5143,25 +5129,23 @@
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
-      <c r="O126" s="17">
-        <v>1</v>
-      </c>
+      <c r="O126" s="17"/>
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="D127" s="49"/>
-      <c r="E127" s="49"/>
-      <c r="F127" s="49"/>
+      <c r="A127" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="17"/>
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
@@ -5177,18 +5161,18 @@
       <c r="Q127" s="17"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="D128" s="49"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="49"/>
+      <c r="A128" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="17"/>
       <c r="H128" s="17"/>
       <c r="I128" s="17"/>
@@ -5204,18 +5188,18 @@
       <c r="Q128" s="17"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A129" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="D129" s="49"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
+      <c r="A129" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
       <c r="G129" s="17"/>
       <c r="H129" s="17"/>
       <c r="I129" s="17"/>
@@ -5231,18 +5215,18 @@
       <c r="Q129" s="17"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="49"/>
+      <c r="A130" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
       <c r="G130" s="17"/>
       <c r="H130" s="17"/>
       <c r="I130" s="17"/>
@@ -5258,18 +5242,18 @@
       <c r="Q130" s="17"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A131" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="49"/>
+      <c r="A131" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" s="45"/>
+      <c r="E131" s="45"/>
+      <c r="F131" s="45"/>
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
       <c r="I131" s="17"/>
@@ -5285,18 +5269,18 @@
       <c r="Q131" s="17"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A132" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="49"/>
+      <c r="A132" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="D132" s="45"/>
+      <c r="E132" s="45"/>
+      <c r="F132" s="45"/>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
       <c r="I132" s="17"/>
@@ -5312,18 +5296,18 @@
       <c r="Q132" s="17"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A133" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D133" s="49"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="49"/>
+      <c r="A133" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="45"/>
+      <c r="E133" s="45"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="17"/>
@@ -5339,18 +5323,18 @@
       <c r="Q133" s="17"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A134" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
+      <c r="A134" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" s="45"/>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45"/>
       <c r="G134" s="17"/>
       <c r="H134" s="17"/>
       <c r="I134" s="17"/>
@@ -5366,18 +5350,18 @@
       <c r="Q134" s="17"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A135" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
+      <c r="A135" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="17"/>
       <c r="H135" s="17"/>
       <c r="I135" s="17"/>
@@ -5393,18 +5377,18 @@
       <c r="Q135" s="17"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A136" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D136" s="49"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
+      <c r="A136" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D136" s="45"/>
+      <c r="E136" s="45"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="17"/>
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
@@ -5420,18 +5404,18 @@
       <c r="Q136" s="17"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A137" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
+      <c r="A137" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D137" s="45"/>
+      <c r="E137" s="45"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="17"/>
       <c r="H137" s="17"/>
       <c r="I137" s="17"/>
@@ -5447,18 +5431,18 @@
       <c r="Q137" s="17"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A138" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
+      <c r="A138" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
@@ -5474,18 +5458,18 @@
       <c r="Q138" s="17"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A139" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C139" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
+      <c r="A139" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D139" s="45"/>
+      <c r="E139" s="45"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="17"/>
       <c r="H139" s="17"/>
       <c r="I139" s="17"/>
@@ -5501,18 +5485,18 @@
       <c r="Q139" s="17"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C140" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
+      <c r="A140" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="45"/>
+      <c r="E140" s="45"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="17"/>
       <c r="H140" s="17"/>
       <c r="I140" s="17"/>
@@ -5528,18 +5512,18 @@
       <c r="Q140" s="17"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C141" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D141" s="49"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
+      <c r="A141" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
       <c r="G141" s="17"/>
       <c r="H141" s="17"/>
       <c r="I141" s="17"/>
@@ -5555,18 +5539,18 @@
       <c r="Q141" s="17"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C142" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
+      <c r="A142" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D142" s="45"/>
+      <c r="E142" s="45"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="17"/>
       <c r="H142" s="17"/>
       <c r="I142" s="17"/>
@@ -5582,47 +5566,45 @@
       <c r="Q142" s="17"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B143" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C143" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
+      <c r="A143" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="45"/>
       <c r="G143" s="17"/>
-      <c r="H143" s="17">
-        <v>1</v>
-      </c>
+      <c r="H143" s="17"/>
       <c r="I143" s="17"/>
       <c r="J143" s="17"/>
-      <c r="K143" s="17">
-        <v>1</v>
-      </c>
+      <c r="K143" s="17"/>
       <c r="L143" s="17"/>
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
+      <c r="O143" s="17">
+        <v>1</v>
+      </c>
       <c r="P143" s="17"/>
       <c r="Q143" s="17"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A144" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C144" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="49"/>
+      <c r="A144" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="17"/>
       <c r="H144" s="17"/>
       <c r="I144" s="17"/>
@@ -5631,157 +5613,115 @@
       <c r="L144" s="17"/>
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
+      <c r="O144" s="17">
+        <v>1</v>
+      </c>
       <c r="P144" s="17"/>
       <c r="Q144" s="17"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B145" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C145" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="17">
-        <v>1</v>
-      </c>
-      <c r="H145" s="17">
-        <v>1</v>
-      </c>
-      <c r="I145" s="17">
-        <v>1</v>
-      </c>
-      <c r="J145" s="17">
-        <v>1</v>
-      </c>
-      <c r="K145" s="17">
-        <v>1</v>
-      </c>
-      <c r="L145" s="17">
-        <v>1</v>
-      </c>
-      <c r="M145" s="17">
-        <v>1</v>
-      </c>
-      <c r="N145" s="17">
-        <v>1</v>
-      </c>
+      <c r="A145" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D145" s="45"/>
+      <c r="E145" s="45"/>
+      <c r="F145" s="45"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
       <c r="O145" s="17">
         <v>1</v>
       </c>
-      <c r="P145" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="17">
-        <v>1</v>
-      </c>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B146" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="17">
-        <v>1</v>
-      </c>
-      <c r="H146" s="17">
-        <v>1</v>
-      </c>
-      <c r="I146" s="17">
-        <v>1</v>
-      </c>
+      <c r="A146" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
       <c r="J146" s="17"/>
-      <c r="K146" s="17">
-        <v>1</v>
-      </c>
+      <c r="K146" s="17"/>
       <c r="L146" s="17"/>
-      <c r="M146" s="17">
-        <v>1</v>
-      </c>
+      <c r="M146" s="17"/>
       <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
+      <c r="O146" s="17">
+        <v>1</v>
+      </c>
       <c r="P146" s="17"/>
       <c r="Q146" s="17"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A147" s="33" t="s">
+      <c r="A147" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D147" s="45"/>
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17">
+        <v>1</v>
+      </c>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A148" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B147" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C147" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="17">
-        <v>1</v>
-      </c>
-      <c r="H147" s="17">
-        <v>1</v>
-      </c>
-      <c r="I147" s="17">
-        <v>1</v>
-      </c>
-      <c r="J147" s="17">
-        <v>1</v>
-      </c>
-      <c r="K147" s="17">
-        <v>1</v>
-      </c>
-      <c r="L147" s="17">
-        <v>1</v>
-      </c>
-      <c r="M147" s="17">
-        <v>1</v>
-      </c>
-      <c r="N147" s="17">
-        <v>1</v>
-      </c>
-      <c r="O147" s="17">
-        <v>1</v>
-      </c>
-      <c r="P147" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A148" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="49"/>
+      <c r="B148" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
+      <c r="H148" s="17">
+        <v>1</v>
+      </c>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
+      <c r="K148" s="17">
+        <v>1</v>
+      </c>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
@@ -5790,27 +5730,23 @@
       <c r="Q148" s="17"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A149" s="33" t="s">
+      <c r="A149" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B149" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
+      <c r="B149" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="17"/>
-      <c r="H149" s="17">
-        <v>1</v>
-      </c>
+      <c r="H149" s="17"/>
       <c r="I149" s="17"/>
       <c r="J149" s="17"/>
-      <c r="K149" s="17">
-        <v>1</v>
-      </c>
+      <c r="K149" s="17"/>
       <c r="L149" s="17"/>
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
@@ -5819,96 +5755,148 @@
       <c r="Q149" s="17"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A150" s="33" t="s">
+      <c r="A150" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B150" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="17"/>
-      <c r="K150" s="17"/>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="17"/>
-      <c r="O150" s="17"/>
-      <c r="P150" s="17"/>
-      <c r="Q150" s="17"/>
+      <c r="B150" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="17">
+        <v>1</v>
+      </c>
+      <c r="H150" s="17">
+        <v>1</v>
+      </c>
+      <c r="I150" s="17">
+        <v>1</v>
+      </c>
+      <c r="J150" s="17">
+        <v>1</v>
+      </c>
+      <c r="K150" s="17">
+        <v>1</v>
+      </c>
+      <c r="L150" s="17">
+        <v>1</v>
+      </c>
+      <c r="M150" s="17">
+        <v>1</v>
+      </c>
+      <c r="N150" s="17">
+        <v>1</v>
+      </c>
+      <c r="O150" s="17">
+        <v>1</v>
+      </c>
+      <c r="P150" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B151" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="49"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
+      <c r="B151" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C151" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="17">
+        <v>1</v>
+      </c>
+      <c r="H151" s="17">
+        <v>1</v>
+      </c>
+      <c r="I151" s="17">
+        <v>1</v>
+      </c>
       <c r="J151" s="17"/>
-      <c r="K151" s="17"/>
+      <c r="K151" s="17">
+        <v>1</v>
+      </c>
       <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
+      <c r="M151" s="17">
+        <v>1</v>
+      </c>
       <c r="N151" s="17"/>
       <c r="O151" s="17"/>
       <c r="P151" s="17"/>
       <c r="Q151" s="17"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="33" t="s">
+      <c r="A152" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B152" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="17"/>
-      <c r="K152" s="17"/>
-      <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17"/>
-      <c r="O152" s="17"/>
-      <c r="P152" s="17"/>
-      <c r="Q152" s="17"/>
+      <c r="B152" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="45"/>
+      <c r="E152" s="45"/>
+      <c r="F152" s="45"/>
+      <c r="G152" s="17">
+        <v>1</v>
+      </c>
+      <c r="H152" s="17">
+        <v>1</v>
+      </c>
+      <c r="I152" s="17">
+        <v>1</v>
+      </c>
+      <c r="J152" s="17">
+        <v>1</v>
+      </c>
+      <c r="K152" s="17">
+        <v>1</v>
+      </c>
+      <c r="L152" s="17">
+        <v>1</v>
+      </c>
+      <c r="M152" s="17">
+        <v>1</v>
+      </c>
+      <c r="N152" s="17">
+        <v>1</v>
+      </c>
+      <c r="O152" s="17">
+        <v>1</v>
+      </c>
+      <c r="P152" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A153" s="33" t="s">
+      <c r="A153" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B153" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49"/>
-      <c r="G153" s="17">
-        <v>1</v>
-      </c>
+      <c r="B153" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D153" s="45"/>
+      <c r="E153" s="45"/>
+      <c r="F153" s="45"/>
+      <c r="G153" s="17"/>
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
@@ -5921,25 +5909,23 @@
       <c r="Q153" s="17"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A154" s="33" t="s">
+      <c r="A154" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B154" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D154" s="49"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
+      <c r="B154" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
       <c r="G154" s="17"/>
       <c r="H154" s="17">
         <v>1</v>
       </c>
-      <c r="I154" s="17">
-        <v>1</v>
-      </c>
+      <c r="I154" s="17"/>
       <c r="J154" s="17"/>
       <c r="K154" s="17">
         <v>1</v>
@@ -5952,29 +5938,23 @@
       <c r="Q154" s="17"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A155" s="33" t="s">
+      <c r="A155" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B155" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D155" s="49"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="49"/>
+      <c r="B155" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="17"/>
-      <c r="H155" s="17">
-        <v>1</v>
-      </c>
-      <c r="I155" s="17">
-        <v>1</v>
-      </c>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
       <c r="J155" s="17"/>
-      <c r="K155" s="17">
-        <v>1</v>
-      </c>
+      <c r="K155" s="17"/>
       <c r="L155" s="17"/>
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
@@ -5983,29 +5963,23 @@
       <c r="Q155" s="17"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A156" s="33" t="s">
+      <c r="A156" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B156" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49"/>
+      <c r="B156" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="17"/>
-      <c r="H156" s="17">
-        <v>1</v>
-      </c>
-      <c r="I156" s="17">
-        <v>1</v>
-      </c>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
       <c r="J156" s="17"/>
-      <c r="K156" s="17">
-        <v>1</v>
-      </c>
+      <c r="K156" s="17"/>
       <c r="L156" s="17"/>
       <c r="M156" s="17"/>
       <c r="N156" s="17"/>
@@ -6014,29 +5988,23 @@
       <c r="Q156" s="17"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A157" s="33" t="s">
+      <c r="A157" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B157" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D157" s="49"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="17">
-        <v>1</v>
-      </c>
-      <c r="H157" s="17">
-        <v>1</v>
-      </c>
+      <c r="B157" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C157" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D157" s="45"/>
+      <c r="E157" s="45"/>
+      <c r="F157" s="45"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
       <c r="I157" s="17"/>
       <c r="J157" s="17"/>
-      <c r="K157" s="17">
-        <v>1</v>
-      </c>
+      <c r="K157" s="17"/>
       <c r="L157" s="17"/>
       <c r="M157" s="17"/>
       <c r="N157" s="17"/>
@@ -6045,18 +6013,18 @@
       <c r="Q157" s="17"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" s="33" t="s">
+      <c r="A158" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B158" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="D158" s="49"/>
-      <c r="E158" s="49"/>
-      <c r="F158" s="49"/>
+      <c r="B158" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D158" s="45"/>
+      <c r="E158" s="45"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="17">
         <v>1</v>
       </c>
@@ -6072,23 +6040,29 @@
       <c r="Q158" s="17"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A159" s="33" t="s">
+      <c r="A159" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B159" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D159" s="49"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="49"/>
+      <c r="B159" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D159" s="45"/>
+      <c r="E159" s="45"/>
+      <c r="F159" s="45"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
+      <c r="H159" s="17">
+        <v>1</v>
+      </c>
+      <c r="I159" s="17">
+        <v>1</v>
+      </c>
       <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
+      <c r="K159" s="17">
+        <v>1</v>
+      </c>
       <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
@@ -6097,30 +6071,30 @@
       <c r="Q159" s="17"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A160" s="33" t="s">
+      <c r="A160" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B160" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D160" s="49"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="49"/>
+      <c r="B160" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="17">
-        <v>1</v>
-      </c>
+      <c r="H160" s="17">
+        <v>1</v>
+      </c>
+      <c r="I160" s="17">
+        <v>1</v>
+      </c>
+      <c r="J160" s="17"/>
       <c r="K160" s="17">
         <v>1</v>
       </c>
-      <c r="L160" s="17">
-        <v>1</v>
-      </c>
+      <c r="L160" s="17"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
       <c r="O160" s="17"/>
@@ -6128,28 +6102,30 @@
       <c r="Q160" s="17"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" s="33" t="s">
+      <c r="A161" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B161" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D161" s="49"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="49"/>
+      <c r="B161" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" s="45"/>
+      <c r="E161" s="45"/>
+      <c r="F161" s="45"/>
       <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="17">
-        <v>1</v>
-      </c>
-      <c r="K161" s="17"/>
-      <c r="L161" s="17">
-        <v>1</v>
-      </c>
+      <c r="H161" s="17">
+        <v>1</v>
+      </c>
+      <c r="I161" s="17">
+        <v>1</v>
+      </c>
+      <c r="J161" s="17"/>
+      <c r="K161" s="17">
+        <v>1</v>
+      </c>
+      <c r="L161" s="17"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
       <c r="O161" s="17"/>
@@ -6157,28 +6133,30 @@
       <c r="Q161" s="17"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A162" s="33" t="s">
+      <c r="A162" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B162" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C162" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="49"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
+      <c r="B162" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="45"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="17">
+        <v>1</v>
+      </c>
+      <c r="H162" s="17">
+        <v>1</v>
+      </c>
       <c r="I162" s="17"/>
-      <c r="J162" s="17">
-        <v>1</v>
-      </c>
-      <c r="K162" s="17"/>
-      <c r="L162" s="17">
-        <v>1</v>
-      </c>
+      <c r="J162" s="17"/>
+      <c r="K162" s="17">
+        <v>1</v>
+      </c>
+      <c r="L162" s="17"/>
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
       <c r="O162" s="17"/>
@@ -6186,28 +6164,26 @@
       <c r="Q162" s="17"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A163" s="33" t="s">
+      <c r="A163" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B163" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="D163" s="49"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="49"/>
-      <c r="G163" s="17"/>
+      <c r="B163" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D163" s="45"/>
+      <c r="E163" s="45"/>
+      <c r="F163" s="45"/>
+      <c r="G163" s="17">
+        <v>1</v>
+      </c>
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
-      <c r="J163" s="17">
-        <v>1</v>
-      </c>
+      <c r="J163" s="17"/>
       <c r="K163" s="17"/>
-      <c r="L163" s="17">
-        <v>1</v>
-      </c>
+      <c r="L163" s="17"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
       <c r="O163" s="17"/>
@@ -6215,28 +6191,24 @@
       <c r="Q163" s="17"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A164" s="33" t="s">
+      <c r="A164" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B164" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C164" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="49"/>
+      <c r="B164" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D164" s="45"/>
+      <c r="E164" s="45"/>
+      <c r="F164" s="45"/>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
-      <c r="J164" s="17">
-        <v>1</v>
-      </c>
+      <c r="J164" s="17"/>
       <c r="K164" s="17"/>
-      <c r="L164" s="17">
-        <v>1</v>
-      </c>
+      <c r="L164" s="17"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
       <c r="O164" s="17"/>
@@ -6244,25 +6216,27 @@
       <c r="Q164" s="17"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A165" s="33" t="s">
+      <c r="A165" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B165" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
+      <c r="B165" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
+      <c r="F165" s="45"/>
       <c r="G165" s="17"/>
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
       <c r="J165" s="17">
         <v>1</v>
       </c>
-      <c r="K165" s="17"/>
+      <c r="K165" s="17">
+        <v>1</v>
+      </c>
       <c r="L165" s="17">
         <v>1</v>
       </c>
@@ -6273,18 +6247,18 @@
       <c r="Q165" s="17"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A166" s="33" t="s">
+      <c r="A166" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B166" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C166" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49"/>
+      <c r="B166" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D166" s="45"/>
+      <c r="E166" s="45"/>
+      <c r="F166" s="45"/>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
       <c r="I166" s="17"/>
@@ -6302,18 +6276,18 @@
       <c r="Q166" s="17"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A167" s="33" t="s">
+      <c r="A167" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B167" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="49"/>
+      <c r="B167" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="D167" s="45"/>
+      <c r="E167" s="45"/>
+      <c r="F167" s="45"/>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
@@ -6331,18 +6305,18 @@
       <c r="Q167" s="17"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A168" s="33" t="s">
+      <c r="A168" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B168" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
+      <c r="B168" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D168" s="45"/>
+      <c r="E168" s="45"/>
+      <c r="F168" s="45"/>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
@@ -6360,18 +6334,18 @@
       <c r="Q168" s="17"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A169" s="33" t="s">
+      <c r="A169" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B169" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="49"/>
+      <c r="B169" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="31" t="s">
+        <v>262</v>
+      </c>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
@@ -6389,18 +6363,18 @@
       <c r="Q169" s="17"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A170" s="33" t="s">
+      <c r="A170" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B170" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C170" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
+      <c r="B170" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
@@ -6418,18 +6392,18 @@
       <c r="Q170" s="17"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A171" s="33" t="s">
+      <c r="A171" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B171" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C171" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D171" s="51"/>
-      <c r="E171" s="51"/>
-      <c r="F171" s="51"/>
+      <c r="B171" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C171" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D171" s="45"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="45"/>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
@@ -6447,18 +6421,18 @@
       <c r="Q171" s="17"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A172" s="33" t="s">
+      <c r="A172" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B172" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C172" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
+      <c r="B172" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C172" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
@@ -6476,18 +6450,18 @@
       <c r="Q172" s="17"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A173" s="33" t="s">
+      <c r="A173" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B173" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C173" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="49"/>
+      <c r="B173" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C173" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="D173" s="45"/>
+      <c r="E173" s="45"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
       <c r="I173" s="17"/>
@@ -6505,18 +6479,18 @@
       <c r="Q173" s="17"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A174" s="33" t="s">
+      <c r="A174" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B174" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C174" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="D174" s="49"/>
-      <c r="E174" s="49"/>
-      <c r="F174" s="49"/>
+      <c r="B174" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C174" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="D174" s="45"/>
+      <c r="E174" s="45"/>
+      <c r="F174" s="45"/>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
       <c r="I174" s="17"/>
@@ -6534,18 +6508,18 @@
       <c r="Q174" s="17"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A175" s="33" t="s">
+      <c r="A175" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B175" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="49"/>
+      <c r="B175" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C175" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D175" s="45"/>
+      <c r="E175" s="45"/>
+      <c r="F175" s="45"/>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
       <c r="I175" s="17"/>
@@ -6563,18 +6537,18 @@
       <c r="Q175" s="17"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" s="33" t="s">
+      <c r="A176" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B176" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C176" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
-      <c r="F176" s="49"/>
+      <c r="B176" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="D176" s="47"/>
+      <c r="E176" s="47"/>
+      <c r="F176" s="47"/>
       <c r="G176" s="17"/>
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
@@ -6592,31 +6566,25 @@
       <c r="Q176" s="17"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="33" t="s">
+      <c r="A177" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B177" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
-      <c r="F177" s="49"/>
+      <c r="B177" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D177" s="45"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
       <c r="G177" s="17"/>
-      <c r="H177" s="17">
-        <v>1</v>
-      </c>
-      <c r="I177" s="17">
-        <v>1</v>
-      </c>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
       <c r="J177" s="17">
         <v>1</v>
       </c>
-      <c r="K177" s="17">
-        <v>1</v>
-      </c>
+      <c r="K177" s="17"/>
       <c r="L177" s="17">
         <v>1</v>
       </c>
@@ -6627,26 +6595,28 @@
       <c r="Q177" s="17"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="33" t="s">
+      <c r="A178" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B178" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C178" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D178" s="49"/>
-      <c r="E178" s="49"/>
-      <c r="F178" s="49"/>
-      <c r="G178" s="17">
-        <v>1</v>
-      </c>
+      <c r="B178" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D178" s="45"/>
+      <c r="E178" s="45"/>
+      <c r="F178" s="45"/>
+      <c r="G178" s="17"/>
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
-      <c r="J178" s="17"/>
+      <c r="J178" s="17">
+        <v>1</v>
+      </c>
       <c r="K178" s="17"/>
-      <c r="L178" s="17"/>
+      <c r="L178" s="17">
+        <v>1</v>
+      </c>
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
       <c r="O178" s="17"/>
@@ -6654,24 +6624,28 @@
       <c r="Q178" s="17"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="33" t="s">
+      <c r="A179" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B179" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C179" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D179" s="49"/>
-      <c r="E179" s="49"/>
-      <c r="F179" s="49"/>
+      <c r="B179" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="D179" s="45"/>
+      <c r="E179" s="45"/>
+      <c r="F179" s="45"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
       <c r="I179" s="17"/>
-      <c r="J179" s="17"/>
+      <c r="J179" s="17">
+        <v>1</v>
+      </c>
       <c r="K179" s="17"/>
-      <c r="L179" s="17"/>
+      <c r="L179" s="17">
+        <v>1</v>
+      </c>
       <c r="M179" s="17"/>
       <c r="N179" s="17"/>
       <c r="O179" s="17"/>
@@ -6679,24 +6653,28 @@
       <c r="Q179" s="17"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C180" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D180" s="49"/>
-      <c r="E180" s="49"/>
-      <c r="F180" s="49"/>
+      <c r="A180" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
-      <c r="J180" s="17"/>
+      <c r="J180" s="17">
+        <v>1</v>
+      </c>
       <c r="K180" s="17"/>
-      <c r="L180" s="17"/>
+      <c r="L180" s="17">
+        <v>1</v>
+      </c>
       <c r="M180" s="17"/>
       <c r="N180" s="17"/>
       <c r="O180" s="17"/>
@@ -6704,24 +6682,28 @@
       <c r="Q180" s="17"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A181" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C181" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="49"/>
+      <c r="A181" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
-      <c r="J181" s="17"/>
+      <c r="J181" s="17">
+        <v>1</v>
+      </c>
       <c r="K181" s="17"/>
-      <c r="L181" s="17"/>
+      <c r="L181" s="17">
+        <v>1</v>
+      </c>
       <c r="M181" s="17"/>
       <c r="N181" s="17"/>
       <c r="O181" s="17"/>
@@ -6729,24 +6711,34 @@
       <c r="Q181" s="17"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D182" s="49"/>
-      <c r="E182" s="49"/>
-      <c r="F182" s="49"/>
+      <c r="A182" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="45"/>
       <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="17"/>
+      <c r="H182" s="17">
+        <v>1</v>
+      </c>
+      <c r="I182" s="17">
+        <v>1</v>
+      </c>
+      <c r="J182" s="17">
+        <v>1</v>
+      </c>
+      <c r="K182" s="17">
+        <v>1</v>
+      </c>
+      <c r="L182" s="17">
+        <v>1</v>
+      </c>
       <c r="M182" s="17"/>
       <c r="N182" s="17"/>
       <c r="O182" s="17"/>
@@ -6754,17 +6746,21 @@
       <c r="Q182" s="17"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A183" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B183" s="36"/>
-      <c r="C183" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D183" s="49"/>
-      <c r="E183" s="49"/>
-      <c r="F183" s="49"/>
-      <c r="G183" s="17"/>
+      <c r="A183" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D183" s="45"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="45"/>
+      <c r="G183" s="17">
+        <v>1</v>
+      </c>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
       <c r="J183" s="17"/>
@@ -6777,18 +6773,18 @@
       <c r="Q183" s="17"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A184" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B184" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C184" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D184" s="49"/>
-      <c r="E184" s="49"/>
-      <c r="F184" s="49"/>
+      <c r="A184" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D184" s="45"/>
+      <c r="E184" s="45"/>
+      <c r="F184" s="45"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
@@ -6802,80 +6798,68 @@
       <c r="Q184" s="17"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B185" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D185" s="49"/>
-      <c r="E185" s="49"/>
-      <c r="F185" s="49"/>
+      <c r="A185" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D185" s="45"/>
+      <c r="E185" s="45"/>
+      <c r="F185" s="45"/>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
-      <c r="I185" s="17">
-        <v>1</v>
-      </c>
+      <c r="I185" s="17"/>
       <c r="J185" s="17"/>
       <c r="K185" s="17"/>
       <c r="L185" s="17"/>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
-      <c r="P185" s="17">
-        <v>1</v>
-      </c>
+      <c r="P185" s="17"/>
       <c r="Q185" s="17"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A186" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B186" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D186" s="49"/>
-      <c r="E186" s="49"/>
-      <c r="F186" s="49"/>
-      <c r="G186" s="17">
-        <v>1</v>
-      </c>
-      <c r="H186" s="17">
-        <v>1</v>
-      </c>
+      <c r="A186" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D186" s="45"/>
+      <c r="E186" s="45"/>
+      <c r="F186" s="45"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
       <c r="I186" s="17"/>
       <c r="J186" s="17"/>
-      <c r="K186" s="17">
-        <v>1</v>
-      </c>
+      <c r="K186" s="17"/>
       <c r="L186" s="17"/>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
       <c r="P186" s="17"/>
-      <c r="Q186" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q186" s="17"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A187" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B187" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D187" s="49"/>
-      <c r="E187" s="49"/>
-      <c r="F187" s="49"/>
+      <c r="A187" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D187" s="45"/>
+      <c r="E187" s="45"/>
+      <c r="F187" s="45"/>
       <c r="G187" s="17"/>
       <c r="H187" s="17"/>
       <c r="I187" s="17"/>
@@ -6885,22 +6869,20 @@
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
-      <c r="P187" s="17">
-        <v>1</v>
-      </c>
+      <c r="P187" s="17"/>
       <c r="Q187" s="17"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A188" s="26" t="s">
+      <c r="A188" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B188" s="27"/>
-      <c r="C188" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="D188" s="49"/>
-      <c r="E188" s="49"/>
-      <c r="F188" s="49"/>
+      <c r="B188" s="32"/>
+      <c r="C188" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" s="45"/>
+      <c r="E188" s="45"/>
+      <c r="F188" s="45"/>
       <c r="G188" s="17"/>
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
@@ -6914,18 +6896,18 @@
       <c r="Q188" s="17"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="26" t="s">
+      <c r="A189" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B189" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="D189" s="49"/>
-      <c r="E189" s="49"/>
-      <c r="F189" s="49"/>
+      <c r="B189" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D189" s="45"/>
+      <c r="E189" s="45"/>
+      <c r="F189" s="45"/>
       <c r="G189" s="17"/>
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
@@ -6939,45 +6921,47 @@
       <c r="Q189" s="17"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A190" s="26" t="s">
+      <c r="A190" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B190" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D190" s="49"/>
-      <c r="E190" s="49"/>
-      <c r="F190" s="49"/>
+      <c r="B190" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="D190" s="45"/>
+      <c r="E190" s="45"/>
+      <c r="F190" s="45"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
+      <c r="I190" s="17">
+        <v>1</v>
+      </c>
       <c r="J190" s="17"/>
-      <c r="K190" s="17">
-        <v>1</v>
-      </c>
+      <c r="K190" s="17"/>
       <c r="L190" s="17"/>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
       <c r="O190" s="17"/>
-      <c r="P190" s="17"/>
+      <c r="P190" s="17">
+        <v>1</v>
+      </c>
       <c r="Q190" s="17"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" s="26" t="s">
+      <c r="A191" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B191" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="D191" s="49"/>
-      <c r="E191" s="49"/>
-      <c r="F191" s="49"/>
+      <c r="B191" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="D191" s="45"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="45"/>
       <c r="G191" s="17">
         <v>1</v>
       </c>
@@ -6994,24 +6978,24 @@
       <c r="N191" s="17"/>
       <c r="O191" s="17"/>
       <c r="P191" s="17"/>
-      <c r="Q191" s="17"/>
+      <c r="Q191" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" s="26" t="s">
+      <c r="A192" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B192" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="D192" s="49"/>
-      <c r="E192" s="49"/>
-      <c r="F192" s="49"/>
-      <c r="G192" s="17">
-        <v>1</v>
-      </c>
+      <c r="B192" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D192" s="45"/>
+      <c r="E192" s="45"/>
+      <c r="F192" s="45"/>
+      <c r="G192" s="17"/>
       <c r="H192" s="17"/>
       <c r="I192" s="17"/>
       <c r="J192" s="17"/>
@@ -7020,22 +7004,24 @@
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
       <c r="O192" s="17"/>
-      <c r="P192" s="17"/>
+      <c r="P192" s="17">
+        <v>1</v>
+      </c>
       <c r="Q192" s="17"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A193" s="26" t="s">
+      <c r="A193" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B193" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C193" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D193" s="49"/>
-      <c r="E193" s="49"/>
-      <c r="F193" s="49"/>
+      <c r="B193" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="45"/>
       <c r="G193" s="17">
         <v>1</v>
       </c>
@@ -7052,21 +7038,21 @@
       <c r="N193" s="17"/>
       <c r="O193" s="17"/>
       <c r="P193" s="17"/>
-      <c r="Q193" s="17"/>
+      <c r="Q193" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A194" s="26" t="s">
+      <c r="A194" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B194" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D194" s="49"/>
-      <c r="E194" s="49"/>
-      <c r="F194" s="49"/>
+      <c r="B194" s="23"/>
+      <c r="C194" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="D194" s="45"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="45"/>
       <c r="G194" s="17"/>
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
@@ -7080,148 +7066,128 @@
       <c r="Q194" s="17"/>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A195" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B195" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C195" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D195" s="49"/>
-      <c r="E195" s="49"/>
-      <c r="F195" s="49"/>
+      <c r="A195" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
       <c r="G195" s="17"/>
-      <c r="H195" s="17">
-        <v>1</v>
-      </c>
-      <c r="I195" s="17">
-        <v>1</v>
-      </c>
-      <c r="J195" s="17">
-        <v>1</v>
-      </c>
-      <c r="K195" s="17">
-        <v>1</v>
-      </c>
-      <c r="L195" s="17">
-        <v>1</v>
-      </c>
-      <c r="M195" s="17">
-        <v>1</v>
-      </c>
-      <c r="N195" s="17">
-        <v>1</v>
-      </c>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="17"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="17"/>
+      <c r="M195" s="17"/>
+      <c r="N195" s="17"/>
       <c r="O195" s="17"/>
       <c r="P195" s="17"/>
       <c r="Q195" s="17"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A196" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B196" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D196" s="49"/>
-      <c r="E196" s="49"/>
-      <c r="F196" s="49"/>
+      <c r="A196" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
       <c r="G196" s="17"/>
       <c r="H196" s="17"/>
       <c r="I196" s="17"/>
       <c r="J196" s="17"/>
-      <c r="K196" s="17"/>
+      <c r="K196" s="17">
+        <v>1</v>
+      </c>
       <c r="L196" s="17"/>
       <c r="M196" s="17"/>
-      <c r="N196" s="17">
-        <v>1</v>
-      </c>
+      <c r="N196" s="17"/>
       <c r="O196" s="17"/>
       <c r="P196" s="17"/>
       <c r="Q196" s="17"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A197" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B197" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="D197" s="49"/>
-      <c r="E197" s="49"/>
-      <c r="F197" s="49"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
+      <c r="A197" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197" s="45"/>
+      <c r="E197" s="45"/>
+      <c r="F197" s="45"/>
+      <c r="G197" s="17">
+        <v>1</v>
+      </c>
+      <c r="H197" s="17">
+        <v>1</v>
+      </c>
       <c r="I197" s="17"/>
       <c r="J197" s="17"/>
-      <c r="K197" s="17"/>
+      <c r="K197" s="17">
+        <v>1</v>
+      </c>
       <c r="L197" s="17"/>
       <c r="M197" s="17"/>
-      <c r="N197" s="17">
-        <v>1</v>
-      </c>
+      <c r="N197" s="17"/>
       <c r="O197" s="17"/>
       <c r="P197" s="17"/>
       <c r="Q197" s="17"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A198" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B198" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C198" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D198" s="49"/>
-      <c r="E198" s="49"/>
-      <c r="F198" s="49"/>
+      <c r="A198" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D198" s="45"/>
+      <c r="E198" s="45"/>
+      <c r="F198" s="45"/>
       <c r="G198" s="17">
         <v>1</v>
       </c>
-      <c r="H198" s="17">
-        <v>1</v>
-      </c>
-      <c r="I198" s="17">
-        <v>1</v>
-      </c>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
       <c r="J198" s="17"/>
-      <c r="K198" s="17">
-        <v>1</v>
-      </c>
+      <c r="K198" s="17"/>
       <c r="L198" s="17"/>
-      <c r="M198" s="17">
-        <v>1</v>
-      </c>
-      <c r="N198" s="17">
-        <v>1</v>
-      </c>
+      <c r="M198" s="17"/>
+      <c r="N198" s="17"/>
       <c r="O198" s="17"/>
       <c r="P198" s="17"/>
       <c r="Q198" s="17"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A199" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B199" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C199" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D199" s="49"/>
-      <c r="E199" s="49"/>
-      <c r="F199" s="49"/>
+      <c r="A199" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="45"/>
+      <c r="E199" s="45"/>
+      <c r="F199" s="45"/>
       <c r="G199" s="17">
         <v>1</v>
       </c>
@@ -7235,78 +7201,68 @@
       </c>
       <c r="L199" s="17"/>
       <c r="M199" s="17"/>
-      <c r="N199" s="17">
-        <v>1</v>
-      </c>
+      <c r="N199" s="17"/>
       <c r="O199" s="17"/>
       <c r="P199" s="17"/>
       <c r="Q199" s="17"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A200" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B200" s="40"/>
-      <c r="C200" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D200" s="49"/>
-      <c r="E200" s="49"/>
-      <c r="F200" s="49"/>
-      <c r="G200" s="17">
-        <v>1</v>
-      </c>
-      <c r="H200" s="17">
-        <v>1</v>
-      </c>
-      <c r="I200" s="17">
-        <v>1</v>
-      </c>
-      <c r="J200" s="17">
-        <v>1</v>
-      </c>
-      <c r="K200" s="17">
-        <v>1</v>
-      </c>
-      <c r="L200" s="17">
-        <v>1</v>
-      </c>
-      <c r="M200" s="17">
-        <v>1</v>
-      </c>
-      <c r="N200" s="17">
-        <v>1</v>
-      </c>
-      <c r="O200" s="17">
-        <v>1</v>
-      </c>
-      <c r="P200" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q200" s="17">
-        <v>1</v>
-      </c>
+      <c r="A200" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D200" s="45"/>
+      <c r="E200" s="45"/>
+      <c r="F200" s="45"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="17"/>
+      <c r="K200" s="17"/>
+      <c r="L200" s="17"/>
+      <c r="M200" s="17"/>
+      <c r="N200" s="17"/>
+      <c r="O200" s="17"/>
+      <c r="P200" s="17"/>
+      <c r="Q200" s="17"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A201" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B201" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C201" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D201" s="49"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="49"/>
+      <c r="A201" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B201" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C201" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D201" s="45"/>
+      <c r="E201" s="45"/>
+      <c r="F201" s="45"/>
       <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="17"/>
-      <c r="K201" s="17"/>
-      <c r="L201" s="17"/>
-      <c r="M201" s="17"/>
+      <c r="H201" s="17">
+        <v>1</v>
+      </c>
+      <c r="I201" s="17">
+        <v>1</v>
+      </c>
+      <c r="J201" s="17">
+        <v>1</v>
+      </c>
+      <c r="K201" s="17">
+        <v>1</v>
+      </c>
+      <c r="L201" s="17">
+        <v>1</v>
+      </c>
+      <c r="M201" s="17">
+        <v>1</v>
+      </c>
       <c r="N201" s="17">
         <v>1</v>
       </c>
@@ -7315,18 +7271,18 @@
       <c r="Q201" s="17"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A202" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B202" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D202" s="49"/>
-      <c r="E202" s="49"/>
-      <c r="F202" s="49"/>
+      <c r="A202" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B202" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D202" s="45"/>
+      <c r="E202" s="45"/>
+      <c r="F202" s="45"/>
       <c r="G202" s="17"/>
       <c r="H202" s="17"/>
       <c r="I202" s="17"/>
@@ -7342,25 +7298,23 @@
       <c r="Q202" s="17"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B203" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D203" s="49"/>
-      <c r="E203" s="49"/>
-      <c r="F203" s="49"/>
+      <c r="A203" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B203" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D203" s="45"/>
+      <c r="E203" s="45"/>
+      <c r="F203" s="45"/>
       <c r="G203" s="17"/>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
-      <c r="K203" s="17">
-        <v>1</v>
-      </c>
+      <c r="K203" s="17"/>
       <c r="L203" s="17"/>
       <c r="M203" s="17"/>
       <c r="N203" s="17">
@@ -7371,18 +7325,18 @@
       <c r="Q203" s="17"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B204" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C204" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D204" s="49"/>
-      <c r="E204" s="49"/>
-      <c r="F204" s="49"/>
+      <c r="A204" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B204" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C204" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D204" s="45"/>
+      <c r="E204" s="45"/>
+      <c r="F204" s="45"/>
       <c r="G204" s="17">
         <v>1</v>
       </c>
@@ -7392,16 +7346,14 @@
       <c r="I204" s="17">
         <v>1</v>
       </c>
-      <c r="J204" s="17">
-        <v>1</v>
-      </c>
+      <c r="J204" s="17"/>
       <c r="K204" s="17">
         <v>1</v>
       </c>
-      <c r="L204" s="17">
-        <v>1</v>
-      </c>
-      <c r="M204" s="17"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17">
+        <v>1</v>
+      </c>
       <c r="N204" s="17">
         <v>1</v>
       </c>
@@ -7410,20 +7362,24 @@
       <c r="Q204" s="17"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B205" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C205" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D205" s="49"/>
-      <c r="E205" s="49"/>
-      <c r="F205" s="49"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
+      <c r="A205" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B205" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D205" s="45"/>
+      <c r="E205" s="45"/>
+      <c r="F205" s="45"/>
+      <c r="G205" s="17">
+        <v>1</v>
+      </c>
+      <c r="H205" s="17">
+        <v>1</v>
+      </c>
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
       <c r="K205" s="17">
@@ -7439,18 +7395,16 @@
       <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B206" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C206" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D206" s="49"/>
-      <c r="E206" s="49"/>
-      <c r="F206" s="49"/>
+      <c r="A206" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B206" s="36"/>
+      <c r="C206" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="45"/>
+      <c r="E206" s="45"/>
+      <c r="F206" s="45"/>
       <c r="G206" s="17">
         <v>1</v>
       </c>
@@ -7486,29 +7440,23 @@
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="B207" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D207" s="49"/>
-      <c r="E207" s="49"/>
-      <c r="F207" s="49"/>
-      <c r="G207" s="17">
-        <v>1</v>
-      </c>
-      <c r="H207" s="17">
-        <v>1</v>
-      </c>
+      <c r="A207" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B207" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D207" s="45"/>
+      <c r="E207" s="45"/>
+      <c r="F207" s="45"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
-      <c r="K207" s="17">
-        <v>1</v>
-      </c>
+      <c r="K207" s="17"/>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
       <c r="N207" s="17">
@@ -7519,18 +7467,18 @@
       <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B208" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D208" s="49"/>
-      <c r="E208" s="49"/>
-      <c r="F208" s="49"/>
+      <c r="A208" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B208" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D208" s="45"/>
+      <c r="E208" s="45"/>
+      <c r="F208" s="45"/>
       <c r="G208" s="17"/>
       <c r="H208" s="17"/>
       <c r="I208" s="17"/>
@@ -7538,249 +7486,281 @@
       <c r="K208" s="17"/>
       <c r="L208" s="17"/>
       <c r="M208" s="17"/>
-      <c r="N208" s="17"/>
+      <c r="N208" s="17">
+        <v>1</v>
+      </c>
       <c r="O208" s="17"/>
       <c r="P208" s="17"/>
       <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="B209" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D209" s="49"/>
-      <c r="E209" s="49"/>
-      <c r="F209" s="49"/>
+      <c r="A209" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B209" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="45"/>
+      <c r="E209" s="45"/>
+      <c r="F209" s="45"/>
       <c r="G209" s="17"/>
       <c r="H209" s="17"/>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
-      <c r="K209" s="17"/>
+      <c r="K209" s="17">
+        <v>1</v>
+      </c>
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
-      <c r="N209" s="17"/>
+      <c r="N209" s="17">
+        <v>1</v>
+      </c>
       <c r="O209" s="17"/>
       <c r="P209" s="17"/>
       <c r="Q209" s="17"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B210" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D210" s="49"/>
-      <c r="E210" s="49"/>
-      <c r="F210" s="49"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="17"/>
-      <c r="K210" s="17"/>
-      <c r="L210" s="17"/>
+      <c r="A210" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B210" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C210" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D210" s="45"/>
+      <c r="E210" s="45"/>
+      <c r="F210" s="45"/>
+      <c r="G210" s="17">
+        <v>1</v>
+      </c>
+      <c r="H210" s="17">
+        <v>1</v>
+      </c>
+      <c r="I210" s="17">
+        <v>1</v>
+      </c>
+      <c r="J210" s="17">
+        <v>1</v>
+      </c>
+      <c r="K210" s="17">
+        <v>1</v>
+      </c>
+      <c r="L210" s="17">
+        <v>1</v>
+      </c>
       <c r="M210" s="17"/>
-      <c r="N210" s="17"/>
+      <c r="N210" s="17">
+        <v>1</v>
+      </c>
       <c r="O210" s="17"/>
       <c r="P210" s="17"/>
       <c r="Q210" s="17"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B211" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D211" s="49"/>
-      <c r="E211" s="49"/>
-      <c r="F211" s="49"/>
-      <c r="G211" s="17">
-        <v>1</v>
-      </c>
+      <c r="A211" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B211" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D211" s="45"/>
+      <c r="E211" s="45"/>
+      <c r="F211" s="45"/>
+      <c r="G211" s="17"/>
       <c r="H211" s="17"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
-      <c r="K211" s="17"/>
+      <c r="K211" s="17">
+        <v>1</v>
+      </c>
       <c r="L211" s="17"/>
-      <c r="M211" s="17">
-        <v>1</v>
-      </c>
-      <c r="N211" s="17"/>
+      <c r="M211" s="17"/>
+      <c r="N211" s="17">
+        <v>1</v>
+      </c>
       <c r="O211" s="17"/>
       <c r="P211" s="17"/>
       <c r="Q211" s="17"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B212" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D212" s="49"/>
-      <c r="E212" s="49"/>
-      <c r="F212" s="49"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="17"/>
-      <c r="J212" s="17"/>
-      <c r="K212" s="17"/>
-      <c r="L212" s="17"/>
+      <c r="A212" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B212" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C212" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D212" s="45"/>
+      <c r="E212" s="45"/>
+      <c r="F212" s="45"/>
+      <c r="G212" s="17">
+        <v>1</v>
+      </c>
+      <c r="H212" s="17">
+        <v>1</v>
+      </c>
+      <c r="I212" s="17">
+        <v>1</v>
+      </c>
+      <c r="J212" s="17">
+        <v>1</v>
+      </c>
+      <c r="K212" s="17">
+        <v>1</v>
+      </c>
+      <c r="L212" s="17">
+        <v>1</v>
+      </c>
       <c r="M212" s="17">
         <v>1</v>
       </c>
-      <c r="N212" s="17"/>
-      <c r="O212" s="17"/>
-      <c r="P212" s="17"/>
-      <c r="Q212" s="17"/>
+      <c r="N212" s="17">
+        <v>1</v>
+      </c>
+      <c r="O212" s="17">
+        <v>1</v>
+      </c>
+      <c r="P212" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B213" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="D213" s="49"/>
-      <c r="E213" s="49"/>
-      <c r="F213" s="49"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
+      <c r="A213" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B213" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D213" s="45"/>
+      <c r="E213" s="45"/>
+      <c r="F213" s="45"/>
+      <c r="G213" s="17">
+        <v>1</v>
+      </c>
+      <c r="H213" s="17">
+        <v>1</v>
+      </c>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="17">
+        <v>1</v>
+      </c>
       <c r="L213" s="17"/>
-      <c r="M213" s="17">
-        <v>1</v>
-      </c>
-      <c r="N213" s="17"/>
+      <c r="M213" s="17"/>
+      <c r="N213" s="17">
+        <v>1</v>
+      </c>
       <c r="O213" s="17"/>
       <c r="P213" s="17"/>
       <c r="Q213" s="17"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B214" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C214" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D214" s="49"/>
-      <c r="E214" s="49"/>
-      <c r="F214" s="49"/>
+      <c r="A214" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D214" s="45"/>
+      <c r="E214" s="45"/>
+      <c r="F214" s="45"/>
       <c r="G214" s="17"/>
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17"/>
       <c r="L214" s="17"/>
-      <c r="M214" s="17">
-        <v>1</v>
-      </c>
+      <c r="M214" s="17"/>
       <c r="N214" s="17"/>
       <c r="O214" s="17"/>
       <c r="P214" s="17"/>
       <c r="Q214" s="17"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B215" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D215" s="49"/>
-      <c r="E215" s="49"/>
-      <c r="F215" s="49"/>
+      <c r="A215" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D215" s="45"/>
+      <c r="E215" s="45"/>
+      <c r="F215" s="45"/>
       <c r="G215" s="17"/>
-      <c r="H215" s="17">
-        <v>1</v>
-      </c>
+      <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
-      <c r="K215" s="17">
-        <v>1</v>
-      </c>
+      <c r="K215" s="17"/>
       <c r="L215" s="17"/>
-      <c r="M215" s="17">
-        <v>1</v>
-      </c>
+      <c r="M215" s="17"/>
       <c r="N215" s="17"/>
       <c r="O215" s="17"/>
       <c r="P215" s="17"/>
       <c r="Q215" s="17"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B216" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C216" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D216" s="49"/>
-      <c r="E216" s="49"/>
-      <c r="F216" s="49"/>
+      <c r="A216" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D216" s="45"/>
+      <c r="E216" s="45"/>
+      <c r="F216" s="45"/>
       <c r="G216" s="17"/>
-      <c r="H216" s="17">
-        <v>1</v>
-      </c>
-      <c r="I216" s="17">
-        <v>1</v>
-      </c>
+      <c r="H216" s="17"/>
+      <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17">
-        <v>1</v>
-      </c>
+      <c r="K216" s="17"/>
       <c r="L216" s="17"/>
-      <c r="M216" s="17">
-        <v>1</v>
-      </c>
+      <c r="M216" s="17"/>
       <c r="N216" s="17"/>
       <c r="O216" s="17"/>
       <c r="P216" s="17"/>
       <c r="Q216" s="17"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" s="41" t="s">
+      <c r="A217" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B217" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C217" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D217" s="49"/>
-      <c r="E217" s="49"/>
-      <c r="F217" s="49"/>
-      <c r="G217" s="17"/>
+      <c r="B217" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="45"/>
+      <c r="E217" s="45"/>
+      <c r="F217" s="45"/>
+      <c r="G217" s="17">
+        <v>1</v>
+      </c>
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
@@ -7795,25 +7775,23 @@
       <c r="Q217" s="17"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" s="41" t="s">
+      <c r="A218" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B218" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D218" s="49"/>
-      <c r="E218" s="49"/>
-      <c r="F218" s="49"/>
+      <c r="B218" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="D218" s="45"/>
+      <c r="E218" s="45"/>
+      <c r="F218" s="45"/>
       <c r="G218" s="17"/>
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17">
-        <v>1</v>
-      </c>
+      <c r="K218" s="17"/>
       <c r="L218" s="17"/>
       <c r="M218" s="17">
         <v>1</v>
@@ -7824,104 +7802,114 @@
       <c r="Q218" s="17"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" s="41" t="s">
+      <c r="A219" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B219" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C219" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="D219" s="49"/>
-      <c r="E219" s="49"/>
-      <c r="F219" s="49"/>
+      <c r="B219" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D219" s="45"/>
+      <c r="E219" s="45"/>
+      <c r="F219" s="45"/>
       <c r="G219" s="17"/>
       <c r="H219" s="17"/>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
-      <c r="K219" s="17">
-        <v>1</v>
-      </c>
+      <c r="K219" s="17"/>
       <c r="L219" s="17"/>
-      <c r="M219" s="17"/>
+      <c r="M219" s="17">
+        <v>1</v>
+      </c>
       <c r="N219" s="17"/>
       <c r="O219" s="17"/>
       <c r="P219" s="17"/>
       <c r="Q219" s="17"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" s="41" t="s">
+      <c r="A220" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B220" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C220" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="D220" s="49"/>
-      <c r="E220" s="49"/>
-      <c r="F220" s="49"/>
+      <c r="B220" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C220" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D220" s="45"/>
+      <c r="E220" s="45"/>
+      <c r="F220" s="45"/>
       <c r="G220" s="17"/>
       <c r="H220" s="17"/>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
-      <c r="K220" s="17">
-        <v>1</v>
-      </c>
+      <c r="K220" s="17"/>
       <c r="L220" s="17"/>
-      <c r="M220" s="17"/>
+      <c r="M220" s="17">
+        <v>1</v>
+      </c>
       <c r="N220" s="17"/>
       <c r="O220" s="17"/>
       <c r="P220" s="17"/>
       <c r="Q220" s="17"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" s="41" t="s">
+      <c r="A221" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B221" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C221" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="D221" s="49"/>
-      <c r="E221" s="49"/>
-      <c r="F221" s="49"/>
+      <c r="B221" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" s="45"/>
+      <c r="E221" s="45"/>
+      <c r="F221" s="45"/>
       <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
+      <c r="H221" s="17">
+        <v>1</v>
+      </c>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
       <c r="K221" s="17">
         <v>1</v>
       </c>
       <c r="L221" s="17"/>
-      <c r="M221" s="17"/>
+      <c r="M221" s="17">
+        <v>1</v>
+      </c>
       <c r="N221" s="17"/>
       <c r="O221" s="17"/>
       <c r="P221" s="17"/>
       <c r="Q221" s="17"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A222" s="41" t="s">
+      <c r="A222" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B222" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C222" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D222" s="49"/>
-      <c r="E222" s="49"/>
-      <c r="F222" s="49"/>
+      <c r="B222" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C222" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D222" s="45"/>
+      <c r="E222" s="45"/>
+      <c r="F222" s="45"/>
       <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
+      <c r="H222" s="17">
+        <v>1</v>
+      </c>
+      <c r="I222" s="17">
+        <v>1</v>
+      </c>
       <c r="J222" s="17"/>
-      <c r="K222" s="17"/>
+      <c r="K222" s="17">
+        <v>1</v>
+      </c>
       <c r="L222" s="17"/>
       <c r="M222" s="17">
         <v>1</v>
@@ -7932,21 +7920,19 @@
       <c r="Q222" s="17"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" s="41" t="s">
+      <c r="A223" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B223" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C223" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D223" s="49"/>
-      <c r="E223" s="49"/>
-      <c r="F223" s="49"/>
-      <c r="G223" s="17">
-        <v>1</v>
-      </c>
+      <c r="B223" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C223" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D223" s="45"/>
+      <c r="E223" s="45"/>
+      <c r="F223" s="45"/>
+      <c r="G223" s="17"/>
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
       <c r="J223" s="17"/>
@@ -7961,167 +7947,133 @@
       <c r="Q223" s="17"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A224" s="41" t="s">
+      <c r="A224" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B224" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C224" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D224" s="49"/>
-      <c r="E224" s="49"/>
-      <c r="F224" s="49"/>
-      <c r="G224" s="17">
-        <v>1</v>
-      </c>
-      <c r="H224" s="17">
-        <v>1</v>
-      </c>
-      <c r="I224" s="17">
-        <v>1</v>
-      </c>
-      <c r="J224" s="17">
-        <v>1</v>
-      </c>
+      <c r="B224" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D224" s="45"/>
+      <c r="E224" s="45"/>
+      <c r="F224" s="45"/>
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
       <c r="K224" s="17">
         <v>1</v>
       </c>
-      <c r="L224" s="17">
-        <v>1</v>
-      </c>
+      <c r="L224" s="17"/>
       <c r="M224" s="17">
         <v>1</v>
       </c>
-      <c r="N224" s="17">
-        <v>1</v>
-      </c>
-      <c r="O224" s="17">
-        <v>1</v>
-      </c>
-      <c r="P224" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q224" s="17">
-        <v>1</v>
-      </c>
+      <c r="N224" s="17"/>
+      <c r="O224" s="17"/>
+      <c r="P224" s="17"/>
+      <c r="Q224" s="17"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A225" s="41" t="s">
+      <c r="A225" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B225" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C225" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D225" s="49"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="49"/>
-      <c r="G225" s="17">
-        <v>1</v>
-      </c>
+      <c r="B225" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="39" t="s">
+        <v>280</v>
+      </c>
+      <c r="D225" s="45"/>
+      <c r="E225" s="45"/>
+      <c r="F225" s="45"/>
+      <c r="G225" s="17"/>
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
-      <c r="K225" s="17"/>
+      <c r="K225" s="17">
+        <v>1</v>
+      </c>
       <c r="L225" s="17"/>
-      <c r="M225" s="17">
-        <v>1</v>
-      </c>
+      <c r="M225" s="17"/>
       <c r="N225" s="17"/>
       <c r="O225" s="17"/>
       <c r="P225" s="17"/>
       <c r="Q225" s="17"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" s="41" t="s">
+      <c r="A226" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B226" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D226" s="49"/>
-      <c r="E226" s="49"/>
-      <c r="F226" s="49"/>
-      <c r="G226" s="17">
-        <v>1</v>
-      </c>
-      <c r="H226" s="17">
-        <v>1</v>
-      </c>
-      <c r="I226" s="17">
-        <v>1</v>
-      </c>
-      <c r="J226" s="17">
-        <v>1</v>
-      </c>
+      <c r="B226" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
       <c r="K226" s="17">
         <v>1</v>
       </c>
-      <c r="L226" s="17">
-        <v>1</v>
-      </c>
-      <c r="M226" s="17">
-        <v>1</v>
-      </c>
+      <c r="L226" s="17"/>
+      <c r="M226" s="17"/>
       <c r="N226" s="17"/>
       <c r="O226" s="17"/>
       <c r="P226" s="17"/>
       <c r="Q226" s="17"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" s="41" t="s">
+      <c r="A227" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B227" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="C227" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="D227" s="49"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="49"/>
+      <c r="B227" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="D227" s="45"/>
+      <c r="E227" s="45"/>
+      <c r="F227" s="45"/>
       <c r="G227" s="17"/>
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
-      <c r="K227" s="17"/>
+      <c r="K227" s="17">
+        <v>1</v>
+      </c>
       <c r="L227" s="17"/>
-      <c r="M227" s="17">
-        <v>1</v>
-      </c>
+      <c r="M227" s="17"/>
       <c r="N227" s="17"/>
       <c r="O227" s="17"/>
       <c r="P227" s="17"/>
       <c r="Q227" s="17"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A228" s="41" t="s">
+      <c r="A228" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B228" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C228" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="D228" s="49"/>
-      <c r="E228" s="49"/>
-      <c r="F228" s="49"/>
+      <c r="B228" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C228" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D228" s="45"/>
+      <c r="E228" s="45"/>
+      <c r="F228" s="45"/>
       <c r="G228" s="17"/>
       <c r="H228" s="17"/>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
-      <c r="K228" s="17">
-        <v>1</v>
-      </c>
+      <c r="K228" s="17"/>
       <c r="L228" s="17"/>
       <c r="M228" s="17">
         <v>1</v>
@@ -8132,19 +8084,21 @@
       <c r="Q228" s="17"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A229" s="41" t="s">
+      <c r="A229" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B229" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C229" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="D229" s="49"/>
-      <c r="E229" s="49"/>
-      <c r="F229" s="49"/>
-      <c r="G229" s="17"/>
+      <c r="B229" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C229" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D229" s="45"/>
+      <c r="E229" s="45"/>
+      <c r="F229" s="45"/>
+      <c r="G229" s="17">
+        <v>1</v>
+      </c>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
@@ -8159,58 +8113,72 @@
       <c r="Q229" s="17"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="41" t="s">
+      <c r="A230" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B230" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C230" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D230" s="49"/>
-      <c r="E230" s="49"/>
-      <c r="F230" s="49"/>
+      <c r="B230" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D230" s="45"/>
+      <c r="E230" s="45"/>
+      <c r="F230" s="45"/>
       <c r="G230" s="17">
         <v>1</v>
       </c>
       <c r="H230" s="17">
         <v>1</v>
       </c>
-      <c r="I230" s="17"/>
-      <c r="J230" s="17"/>
+      <c r="I230" s="17">
+        <v>1</v>
+      </c>
+      <c r="J230" s="17">
+        <v>1</v>
+      </c>
       <c r="K230" s="17">
         <v>1</v>
       </c>
-      <c r="L230" s="17"/>
+      <c r="L230" s="17">
+        <v>1</v>
+      </c>
       <c r="M230" s="17">
         <v>1</v>
       </c>
-      <c r="N230" s="17"/>
-      <c r="O230" s="17"/>
-      <c r="P230" s="17"/>
-      <c r="Q230" s="17"/>
+      <c r="N230" s="17">
+        <v>1</v>
+      </c>
+      <c r="O230" s="17">
+        <v>1</v>
+      </c>
+      <c r="P230" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q230" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="41" t="s">
+      <c r="A231" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B231" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C231" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="D231" s="49"/>
-      <c r="E231" s="49"/>
-      <c r="F231" s="49"/>
-      <c r="G231" s="17"/>
+      <c r="B231" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C231" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="D231" s="45"/>
+      <c r="E231" s="45"/>
+      <c r="F231" s="45"/>
+      <c r="G231" s="17">
+        <v>1</v>
+      </c>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
-      <c r="K231" s="17">
-        <v>1</v>
-      </c>
+      <c r="K231" s="17"/>
       <c r="L231" s="17"/>
       <c r="M231" s="17">
         <v>1</v>
@@ -8221,30 +8189,36 @@
       <c r="Q231" s="17"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="41" t="s">
+      <c r="A232" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B232" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D232" s="49"/>
-      <c r="E232" s="49"/>
-      <c r="F232" s="49"/>
+      <c r="B232" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D232" s="45"/>
+      <c r="E232" s="45"/>
+      <c r="F232" s="45"/>
       <c r="G232" s="17">
         <v>1</v>
       </c>
       <c r="H232" s="17">
         <v>1</v>
       </c>
-      <c r="I232" s="17"/>
-      <c r="J232" s="17"/>
+      <c r="I232" s="17">
+        <v>1</v>
+      </c>
+      <c r="J232" s="17">
+        <v>1</v>
+      </c>
       <c r="K232" s="17">
         <v>1</v>
       </c>
-      <c r="L232" s="17"/>
+      <c r="L232" s="17">
+        <v>1</v>
+      </c>
       <c r="M232" s="17">
         <v>1</v>
       </c>
@@ -8254,152 +8228,166 @@
       <c r="Q232" s="17"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B233" s="44"/>
-      <c r="C233" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D233" s="49"/>
-      <c r="E233" s="49"/>
-      <c r="F233" s="49"/>
+      <c r="A233" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B233" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D233" s="45"/>
+      <c r="E233" s="45"/>
+      <c r="F233" s="45"/>
       <c r="G233" s="17"/>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
       <c r="L233" s="17"/>
-      <c r="M233" s="17"/>
+      <c r="M233" s="17">
+        <v>1</v>
+      </c>
       <c r="N233" s="17"/>
       <c r="O233" s="17"/>
       <c r="P233" s="17"/>
       <c r="Q233" s="17"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D234" s="49"/>
-      <c r="E234" s="49"/>
-      <c r="F234" s="49"/>
-      <c r="G234" s="17">
-        <v>1</v>
-      </c>
-      <c r="H234" s="17">
-        <v>1</v>
-      </c>
+      <c r="A234" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B234" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D234" s="45"/>
+      <c r="E234" s="45"/>
+      <c r="F234" s="45"/>
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
-      <c r="K234" s="17"/>
+      <c r="K234" s="17">
+        <v>1</v>
+      </c>
       <c r="L234" s="17"/>
-      <c r="M234" s="17"/>
+      <c r="M234" s="17">
+        <v>1</v>
+      </c>
       <c r="N234" s="17"/>
       <c r="O234" s="17"/>
       <c r="P234" s="17"/>
       <c r="Q234" s="17"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A235" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B235" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D235" s="49"/>
-      <c r="E235" s="49"/>
-      <c r="F235" s="49"/>
-      <c r="G235" s="17">
-        <v>1</v>
-      </c>
-      <c r="H235" s="17">
-        <v>1</v>
-      </c>
+      <c r="A235" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B235" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D235" s="45"/>
+      <c r="E235" s="45"/>
+      <c r="F235" s="45"/>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
-      <c r="K235" s="17">
-        <v>1</v>
-      </c>
+      <c r="K235" s="17"/>
       <c r="L235" s="17"/>
-      <c r="M235" s="17"/>
+      <c r="M235" s="17">
+        <v>1</v>
+      </c>
       <c r="N235" s="17"/>
       <c r="O235" s="17"/>
       <c r="P235" s="17"/>
       <c r="Q235" s="17"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A236" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B236" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D236" s="49"/>
-      <c r="E236" s="49"/>
-      <c r="F236" s="49"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
+      <c r="A236" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B236" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D236" s="45"/>
+      <c r="E236" s="45"/>
+      <c r="F236" s="45"/>
+      <c r="G236" s="17">
+        <v>1</v>
+      </c>
+      <c r="H236" s="17">
+        <v>1</v>
+      </c>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
-      <c r="K236" s="17"/>
+      <c r="K236" s="17">
+        <v>1</v>
+      </c>
       <c r="L236" s="17"/>
-      <c r="M236" s="17"/>
+      <c r="M236" s="17">
+        <v>1</v>
+      </c>
       <c r="N236" s="17"/>
       <c r="O236" s="17"/>
       <c r="P236" s="17"/>
       <c r="Q236" s="17"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A237" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B237" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D237" s="49"/>
-      <c r="E237" s="49"/>
-      <c r="F237" s="49"/>
+      <c r="A237" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B237" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C237" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="D237" s="45"/>
+      <c r="E237" s="45"/>
+      <c r="F237" s="45"/>
       <c r="G237" s="17"/>
       <c r="H237" s="17"/>
       <c r="I237" s="17"/>
       <c r="J237" s="17"/>
-      <c r="K237" s="17"/>
+      <c r="K237" s="17">
+        <v>1</v>
+      </c>
       <c r="L237" s="17"/>
-      <c r="M237" s="17"/>
+      <c r="M237" s="17">
+        <v>1</v>
+      </c>
       <c r="N237" s="17"/>
       <c r="O237" s="17"/>
       <c r="P237" s="17"/>
       <c r="Q237" s="17"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A238" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B238" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D238" s="49"/>
-      <c r="E238" s="49"/>
-      <c r="F238" s="49"/>
-      <c r="G238" s="17"/>
+      <c r="A238" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B238" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D238" s="45"/>
+      <c r="E238" s="45"/>
+      <c r="F238" s="45"/>
+      <c r="G238" s="17">
+        <v>1</v>
+      </c>
       <c r="H238" s="17">
         <v>1</v>
       </c>
@@ -8409,7 +8397,9 @@
         <v>1</v>
       </c>
       <c r="L238" s="17"/>
-      <c r="M238" s="17"/>
+      <c r="M238" s="17">
+        <v>1</v>
+      </c>
       <c r="N238" s="17"/>
       <c r="O238" s="17"/>
       <c r="P238" s="17"/>
@@ -8419,48 +8409,24 @@
       <c r="A239" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B239" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B239" s="40"/>
       <c r="C239" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D239" s="49"/>
-      <c r="E239" s="49"/>
-      <c r="F239" s="49"/>
-      <c r="G239" s="17">
-        <v>1</v>
-      </c>
-      <c r="H239" s="17">
-        <v>1</v>
-      </c>
-      <c r="I239" s="17">
-        <v>1</v>
-      </c>
-      <c r="J239" s="17">
-        <v>1</v>
-      </c>
-      <c r="K239" s="17">
-        <v>1</v>
-      </c>
-      <c r="L239" s="17">
-        <v>1</v>
-      </c>
-      <c r="M239" s="17">
-        <v>1</v>
-      </c>
-      <c r="N239" s="17">
-        <v>1</v>
-      </c>
-      <c r="O239" s="17">
-        <v>1</v>
-      </c>
-      <c r="P239" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q239" s="17">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D239" s="45"/>
+      <c r="E239" s="45"/>
+      <c r="F239" s="45"/>
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="17"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="17"/>
+      <c r="M239" s="17"/>
+      <c r="N239" s="17"/>
+      <c r="O239" s="17"/>
+      <c r="P239" s="17"/>
+      <c r="Q239" s="17"/>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="11" t="s">
@@ -8470,44 +8436,26 @@
         <v>53</v>
       </c>
       <c r="C240" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="D240" s="49"/>
-      <c r="E240" s="49"/>
-      <c r="F240" s="49"/>
+        <v>139</v>
+      </c>
+      <c r="D240" s="45"/>
+      <c r="E240" s="45"/>
+      <c r="F240" s="45"/>
       <c r="G240" s="17">
         <v>1</v>
       </c>
       <c r="H240" s="17">
         <v>1</v>
       </c>
-      <c r="I240" s="17">
-        <v>1</v>
-      </c>
-      <c r="J240" s="17">
-        <v>1</v>
-      </c>
-      <c r="K240" s="17">
-        <v>1</v>
-      </c>
-      <c r="L240" s="17">
-        <v>1</v>
-      </c>
-      <c r="M240" s="17">
-        <v>1</v>
-      </c>
-      <c r="N240" s="17">
-        <v>1</v>
-      </c>
-      <c r="O240" s="17">
-        <v>1</v>
-      </c>
-      <c r="P240" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q240" s="17">
-        <v>1</v>
-      </c>
+      <c r="I240" s="17"/>
+      <c r="J240" s="17"/>
+      <c r="K240" s="17"/>
+      <c r="L240" s="17"/>
+      <c r="M240" s="17"/>
+      <c r="N240" s="17"/>
+      <c r="O240" s="17"/>
+      <c r="P240" s="17"/>
+      <c r="Q240" s="17"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="11" t="s">
@@ -8517,44 +8465,28 @@
         <v>53</v>
       </c>
       <c r="C241" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D241" s="49"/>
-      <c r="E241" s="49"/>
-      <c r="F241" s="49"/>
+        <v>143</v>
+      </c>
+      <c r="D241" s="45"/>
+      <c r="E241" s="45"/>
+      <c r="F241" s="45"/>
       <c r="G241" s="17">
         <v>1</v>
       </c>
       <c r="H241" s="17">
         <v>1</v>
       </c>
-      <c r="I241" s="17">
-        <v>1</v>
-      </c>
-      <c r="J241" s="17">
-        <v>1</v>
-      </c>
+      <c r="I241" s="17"/>
+      <c r="J241" s="17"/>
       <c r="K241" s="17">
         <v>1</v>
       </c>
-      <c r="L241" s="17">
-        <v>1</v>
-      </c>
-      <c r="M241" s="17">
-        <v>1</v>
-      </c>
-      <c r="N241" s="17">
-        <v>1</v>
-      </c>
-      <c r="O241" s="17">
-        <v>1</v>
-      </c>
-      <c r="P241" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q241" s="17">
-        <v>1</v>
-      </c>
+      <c r="L241" s="17"/>
+      <c r="M241" s="17"/>
+      <c r="N241" s="17"/>
+      <c r="O241" s="17"/>
+      <c r="P241" s="17"/>
+      <c r="Q241" s="17"/>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="11" t="s">
@@ -8564,277 +8496,503 @@
         <v>6</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D242" s="52"/>
-      <c r="E242" s="52"/>
-      <c r="F242" s="52"/>
-      <c r="G242" s="58"/>
-      <c r="H242" s="58">
-        <v>1</v>
-      </c>
-      <c r="I242" s="58"/>
-      <c r="J242" s="58"/>
-      <c r="K242" s="58">
-        <v>1</v>
-      </c>
-      <c r="L242" s="58"/>
-      <c r="M242" s="58"/>
-      <c r="N242" s="58"/>
-      <c r="O242" s="58"/>
-      <c r="P242" s="58"/>
-      <c r="Q242" s="58"/>
+        <v>249</v>
+      </c>
+      <c r="D242" s="45"/>
+      <c r="E242" s="45"/>
+      <c r="F242" s="45"/>
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="17"/>
+      <c r="K242" s="17"/>
+      <c r="L242" s="17"/>
+      <c r="M242" s="17"/>
+      <c r="N242" s="17"/>
+      <c r="O242" s="17"/>
+      <c r="P242" s="17"/>
+      <c r="Q242" s="17"/>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A243" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D243" s="45"/>
+      <c r="E243" s="45"/>
+      <c r="F243" s="45"/>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="17"/>
+      <c r="K243" s="17"/>
+      <c r="L243" s="17"/>
+      <c r="M243" s="17"/>
+      <c r="N243" s="17"/>
+      <c r="O243" s="17"/>
+      <c r="P243" s="17"/>
+      <c r="Q243" s="17"/>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A244" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D244" s="45"/>
+      <c r="E244" s="45"/>
+      <c r="F244" s="45"/>
+      <c r="G244" s="17"/>
+      <c r="H244" s="17">
+        <v>1</v>
+      </c>
+      <c r="I244" s="17"/>
+      <c r="J244" s="17"/>
+      <c r="K244" s="17">
+        <v>1</v>
+      </c>
+      <c r="L244" s="17"/>
+      <c r="M244" s="17"/>
+      <c r="N244" s="17"/>
+      <c r="O244" s="17"/>
+      <c r="P244" s="17"/>
+      <c r="Q244" s="17"/>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A245" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D245" s="45"/>
+      <c r="E245" s="45"/>
+      <c r="F245" s="45"/>
+      <c r="G245" s="17">
+        <v>1</v>
+      </c>
+      <c r="H245" s="17">
+        <v>1</v>
+      </c>
+      <c r="I245" s="17">
+        <v>1</v>
+      </c>
+      <c r="J245" s="17">
+        <v>1</v>
+      </c>
+      <c r="K245" s="17">
+        <v>1</v>
+      </c>
+      <c r="L245" s="17">
+        <v>1</v>
+      </c>
+      <c r="M245" s="17">
+        <v>1</v>
+      </c>
+      <c r="N245" s="17">
+        <v>1</v>
+      </c>
+      <c r="O245" s="17">
+        <v>1</v>
+      </c>
+      <c r="P245" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q245" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A246" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D246" s="45"/>
+      <c r="E246" s="45"/>
+      <c r="F246" s="45"/>
+      <c r="G246" s="17">
+        <v>1</v>
+      </c>
+      <c r="H246" s="17">
+        <v>1</v>
+      </c>
+      <c r="I246" s="17">
+        <v>1</v>
+      </c>
+      <c r="J246" s="17">
+        <v>1</v>
+      </c>
+      <c r="K246" s="17">
+        <v>1</v>
+      </c>
+      <c r="L246" s="17">
+        <v>1</v>
+      </c>
+      <c r="M246" s="17">
+        <v>1</v>
+      </c>
+      <c r="N246" s="17">
+        <v>1</v>
+      </c>
+      <c r="O246" s="17">
+        <v>1</v>
+      </c>
+      <c r="P246" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A247" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B247" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C247" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D247" s="45"/>
+      <c r="E247" s="45"/>
+      <c r="F247" s="45"/>
+      <c r="G247" s="17">
+        <v>1</v>
+      </c>
+      <c r="H247" s="17">
+        <v>1</v>
+      </c>
+      <c r="I247" s="17">
+        <v>1</v>
+      </c>
+      <c r="J247" s="17">
+        <v>1</v>
+      </c>
+      <c r="K247" s="17">
+        <v>1</v>
+      </c>
+      <c r="L247" s="17">
+        <v>1</v>
+      </c>
+      <c r="M247" s="17">
+        <v>1</v>
+      </c>
+      <c r="N247" s="17">
+        <v>1</v>
+      </c>
+      <c r="O247" s="17">
+        <v>1</v>
+      </c>
+      <c r="P247" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A248" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D248" s="48"/>
+      <c r="E248" s="48"/>
+      <c r="F248" s="48"/>
+      <c r="G248" s="54"/>
+      <c r="H248" s="54">
+        <v>1</v>
+      </c>
+      <c r="I248" s="54"/>
+      <c r="J248" s="54"/>
+      <c r="K248" s="54">
+        <v>1</v>
+      </c>
+      <c r="L248" s="54"/>
+      <c r="M248" s="54"/>
+      <c r="N248" s="54"/>
+      <c r="O248" s="54"/>
+      <c r="P248" s="54"/>
+      <c r="Q248" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q242" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q242">
-      <sortCondition ref="A1:A242"/>
+  <autoFilter ref="A1:Q248" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q248">
+      <sortCondition ref="A1:A248"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q241">
-    <sortCondition ref="A2:A241"/>
-    <sortCondition ref="C2:C241"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q247">
+    <sortCondition ref="A2:A247"/>
+    <sortCondition ref="C2:C247"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C72" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C196" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C77" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
+    <hyperlink ref="C202" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C18" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C211" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C212" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C143" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C144" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C217" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C218" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C148" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C149" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C33" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C52" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C213" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C219" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C28" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C197" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
-    <hyperlink ref="C74" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C145" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C215" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C146" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
-    <hyperlink ref="C76" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
-    <hyperlink ref="C77" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
-    <hyperlink ref="C78" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
-    <hyperlink ref="C79" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
-    <hyperlink ref="C81" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
-    <hyperlink ref="C82" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C148" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C149" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C150" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C184" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C187" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C186" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C199" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C218" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C203" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C79" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
+    <hyperlink ref="C150" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C221" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C151" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C81" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
+    <hyperlink ref="C82" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
+    <hyperlink ref="C83" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
+    <hyperlink ref="C84" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
+    <hyperlink ref="C86" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
+    <hyperlink ref="C87" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
+    <hyperlink ref="C153" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C154" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C155" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C189" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C192" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C191" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C205" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C224" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C35" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C180" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C181" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C182" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C185" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C186" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C187" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C48" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C222" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C201" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C228" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C207" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C210" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
-    <hyperlink ref="C57" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C224" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C98" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C99" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C100" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C101" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C102" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C103" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C104" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C226" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C216" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C58" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
+    <hyperlink ref="C230" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C103" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C104" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C105" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C106" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C107" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C108" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C109" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C232" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C13" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C37" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C151" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
-    <hyperlink ref="C58" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C202" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C156" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C154" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C155" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C157" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C156" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C60" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
+    <hyperlink ref="C208" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C161" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C159" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C160" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C162" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C39" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C158" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C203" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C163" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C209" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C50" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C159" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C209" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C228" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C229" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C190" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C164" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C215" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C234" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C235" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C196" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C40" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C160" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C230" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C231" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C191" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C193" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C165" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C236" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C237" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C197" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C199" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C25" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C242" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
-    <hyperlink ref="C59" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C177" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C194" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C205" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C178" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C207" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C232" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C179" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C90" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C195" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C248" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C62" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
+    <hyperlink ref="C182" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C200" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C211" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C183" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C213" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C238" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C184" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C95" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C201" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C17" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C108" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
-    <hyperlink ref="C63" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
+    <hyperlink ref="C113" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C67" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C29" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C214" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C198" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C147" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
-    <hyperlink ref="C80" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C216" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C109" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C110" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C217" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C115" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
-    <hyperlink ref="C64" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
-    <hyperlink ref="C65" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
-    <hyperlink ref="C66" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C234" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C220" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C204" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C152" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C85" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
+    <hyperlink ref="C222" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C114" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C115" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C223" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C120" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C68" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
+    <hyperlink ref="C69" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
+    <hyperlink ref="C70" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
+    <hyperlink ref="C240" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C34" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C45" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C46" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C235" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C116" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C241" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C121" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C47" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C19" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C237" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C238" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C117" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C118" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C94" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C223" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C225" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
-    <hyperlink ref="C67" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
+    <hyperlink ref="C243" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C244" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C122" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C123" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C99" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C229" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C231" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C71" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C9" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C10" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C11" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
     <hyperlink ref="C12" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C38" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C88" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C120" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C95" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C93" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C125" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C100" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C21" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C227" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C233" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C14" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C20" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
-    <hyperlink ref="C68" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C122" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C123" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
-    <hyperlink ref="C69" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
+    <hyperlink ref="C72" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
+    <hyperlink ref="C127" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C128" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C73" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C15" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C16" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C124" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
-    <hyperlink ref="C70" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C204" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C125" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
-    <hyperlink ref="C62" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
+    <hyperlink ref="C129" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C75" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
+    <hyperlink ref="C210" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C130" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C66" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C22" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C23" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C241" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C247" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C24" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C96" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C139" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
-    <hyperlink ref="C71" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C140" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C141" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C142" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C206" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C92" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C233" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C183" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C200" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C97" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C101" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C144" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C76" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
+    <hyperlink ref="C145" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C146" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C147" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C212" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C97" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C239" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C188" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C206" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C102" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C41" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C36" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C239" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
-    <hyperlink ref="C85" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
+    <hyperlink ref="C245" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C90" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C26" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C192" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
-    <hyperlink ref="C61" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
-    <hyperlink ref="C60" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
+    <hyperlink ref="C198" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C65" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
+    <hyperlink ref="C64" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
     <hyperlink ref="C8" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C87" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
-    <hyperlink ref="C84" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
+    <hyperlink ref="C92" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C89" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
     <hyperlink ref="C51" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
     <hyperlink ref="C43" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C42" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C44" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C152" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C236" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
-    <hyperlink ref="C75" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
-    <hyperlink ref="C73" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C89" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
-    <hyperlink ref="C83" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C128" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C129" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C133" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C134" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C135" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C136" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C137" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C127" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C138" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C126" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C130" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C131" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C121" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C161" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C172" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C162" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C164" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C163" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C170" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C168" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C165" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C169" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C174" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C175" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C176" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C173" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C166" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C171" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C167" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C240" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C132" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C111" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C112" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C113" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C114" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C185" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C157" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C242" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C80" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
+    <hyperlink ref="C78" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
+    <hyperlink ref="C94" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C88" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
+    <hyperlink ref="C133" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C134" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C138" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C139" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C140" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C141" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C142" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C132" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C143" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C131" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C135" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C136" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C126" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C166" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C177" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C167" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C169" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C168" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C175" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C173" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C170" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C174" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C179" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C180" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C181" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C178" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C171" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C176" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C172" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C246" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C137" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C116" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C117" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C118" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C119" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C190" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C27" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C30" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C31" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C32" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C208" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C188" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C189" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C214" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C194" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C195" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C53" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C54" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C55" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
     <hyperlink ref="C56" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C105" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C106" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C107" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C110" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C111" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C112" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C49" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C219" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C221" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C220" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C153" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
-    <hyperlink ref="C86" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
-    <hyperlink ref="C119" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C225" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C227" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C226" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C158" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C91" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
+    <hyperlink ref="C124" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C193" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C74" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
+    <hyperlink ref="C59" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
+    <hyperlink ref="C61" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
+    <hyperlink ref="C63" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
+    <hyperlink ref="C57" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8856,10 +9014,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CFA603-D233-1541-AE41-43E29DFB524A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A6789-0B1B-BD46-A9DC-DE7D25EEB958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27880" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
+    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Services" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$253</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="297">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -905,6 +905,21 @@
   </si>
   <si>
     <t>Activate</t>
+  </si>
+  <si>
+    <t>Glue Elastic Views</t>
+  </si>
+  <si>
+    <t>Glue Data Catalog</t>
+  </si>
+  <si>
+    <t>Glue ETL</t>
+  </si>
+  <si>
+    <t>Glue Schema Registry</t>
+  </si>
+  <si>
+    <t>Glue Studio</t>
   </si>
 </sst>
 </file>
@@ -1611,11 +1626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q248"/>
+  <dimension ref="A1:Q253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1864,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -1888,32 +1903,24 @@
         <v>36</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17">
-        <v>1</v>
-      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="17"/>
-      <c r="K9" s="17">
-        <v>1</v>
-      </c>
+      <c r="K9" s="17"/>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
-      <c r="P9" s="17">
-        <v>1</v>
-      </c>
+      <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -1921,32 +1928,24 @@
         <v>36</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="17">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="17"/>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="17">
-        <v>1</v>
-      </c>
+      <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
@@ -1954,25 +1953,19 @@
         <v>36</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17">
-        <v>1</v>
-      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
       <c r="J11" s="17"/>
-      <c r="K11" s="17">
-        <v>1</v>
-      </c>
+      <c r="K11" s="17"/>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
@@ -1987,10 +1980,10 @@
         <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -2004,9 +1997,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
-      <c r="P12" s="17">
-        <v>1</v>
-      </c>
+      <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2017,7 +2008,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
@@ -2031,9 +2022,7 @@
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
-      <c r="P13" s="17">
-        <v>1</v>
-      </c>
+      <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -2044,16 +2033,22 @@
         <v>53</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
       <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -2071,16 +2066,22 @@
         <v>53</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
@@ -2098,7 +2099,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -2121,19 +2122,17 @@
       <c r="P16" s="17">
         <v>1</v>
       </c>
-      <c r="Q16" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>54</v>
+      <c r="A17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -2147,18 +2146,20 @@
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="17">
+        <v>1</v>
+      </c>
       <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>9</v>
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -2172,18 +2173,20 @@
       <c r="M18" s="17"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="P18" s="17">
+        <v>1</v>
+      </c>
       <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>66</v>
+      <c r="A19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -2197,18 +2200,20 @@
       <c r="M19" s="17"/>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="P19" s="17">
+        <v>1</v>
+      </c>
       <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>247</v>
+      <c r="A20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
@@ -2222,33 +2227,45 @@
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
       <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="P20" s="17">
+        <v>1</v>
+      </c>
       <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>73</v>
+      <c r="A21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
       <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="K21" s="17">
+        <v>1</v>
+      </c>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="P21" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
@@ -2258,91 +2275,47 @@
         <v>53</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
       <c r="F22" s="45"/>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="J22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22" s="17">
-        <v>1</v>
-      </c>
-      <c r="M22" s="17">
-        <v>1</v>
-      </c>
-      <c r="N22" s="17">
-        <v>1</v>
-      </c>
-      <c r="O22" s="17">
-        <v>1</v>
-      </c>
-      <c r="P22" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>1</v>
-      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>188</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="17">
-        <v>1</v>
-      </c>
-      <c r="H23" s="17">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17">
-        <v>1</v>
-      </c>
-      <c r="J23" s="17">
-        <v>1</v>
-      </c>
-      <c r="K23" s="17">
-        <v>1</v>
-      </c>
-      <c r="L23" s="17">
-        <v>1</v>
-      </c>
-      <c r="M23" s="17">
-        <v>1</v>
-      </c>
-      <c r="N23" s="17">
-        <v>1</v>
-      </c>
-      <c r="O23" s="17">
-        <v>1</v>
-      </c>
-      <c r="P23" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>1</v>
-      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
@@ -2352,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -2374,25 +2347,19 @@
         <v>188</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="17">
-        <v>1</v>
-      </c>
-      <c r="I25" s="17">
-        <v>1</v>
-      </c>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="17"/>
-      <c r="K25" s="17">
-        <v>1</v>
-      </c>
+      <c r="K25" s="17"/>
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
@@ -2401,21 +2368,19 @@
       <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>194</v>
+      <c r="A26" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
-      <c r="G26" s="17">
-        <v>1</v>
-      </c>
+      <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
@@ -2428,62 +2393,108 @@
       <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39" t="s">
-        <v>216</v>
+      <c r="A27" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>163</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
       <c r="F27" s="45"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1</v>
+      </c>
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1</v>
+      </c>
+      <c r="M27" s="17">
+        <v>1</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1</v>
+      </c>
+      <c r="O27" s="17">
+        <v>1</v>
+      </c>
+      <c r="P27" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>14</v>
+      <c r="A28" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>164</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1</v>
+      </c>
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
+      <c r="L28" s="17">
+        <v>1</v>
+      </c>
+      <c r="M28" s="17">
+        <v>1</v>
+      </c>
+      <c r="N28" s="17">
+        <v>1</v>
+      </c>
+      <c r="O28" s="17">
+        <v>1</v>
+      </c>
+      <c r="P28" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>57</v>
+      <c r="A29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -2501,23 +2512,29 @@
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>218</v>
+      <c r="A30" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17">
+        <v>1</v>
+      </c>
       <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -2526,19 +2543,21 @@
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>214</v>
+      <c r="A31" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>194</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
-      <c r="G31" s="17"/>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -2550,18 +2569,16 @@
       <c r="P31" s="17"/>
       <c r="Q31" s="17"/>
     </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="B32" s="38"/>
       <c r="C32" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="45"/>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
@@ -2576,104 +2593,72 @@
       <c r="Q32" s="17"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>12</v>
+      <c r="A33" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
       <c r="F33" s="45"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17">
-        <v>1</v>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
-      <c r="K33" s="17">
-        <v>1</v>
-      </c>
+      <c r="K33" s="17"/>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="17">
-        <v>1</v>
-      </c>
+      <c r="O33" s="17"/>
       <c r="P33" s="17"/>
       <c r="Q33" s="17"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>183</v>
+      <c r="A34" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>57</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
       <c r="F34" s="45"/>
-      <c r="G34" s="17">
-        <v>1</v>
-      </c>
-      <c r="H34" s="17">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17">
-        <v>1</v>
-      </c>
-      <c r="J34" s="17">
-        <v>1</v>
-      </c>
-      <c r="K34" s="17">
-        <v>1</v>
-      </c>
-      <c r="L34" s="17">
-        <v>1</v>
-      </c>
-      <c r="M34" s="17">
-        <v>1</v>
-      </c>
-      <c r="N34" s="17">
-        <v>1</v>
-      </c>
-      <c r="O34" s="17">
-        <v>1</v>
-      </c>
-      <c r="P34" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>1</v>
-      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>98</v>
+      <c r="A35" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>218</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
       <c r="F35" s="45"/>
-      <c r="G35" s="17">
-        <v>1</v>
-      </c>
+      <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="17">
-        <v>1</v>
-      </c>
+      <c r="J35" s="17"/>
       <c r="K35" s="17"/>
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
@@ -2683,121 +2668,83 @@
       <c r="Q35" s="17"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>140</v>
+      <c r="A36" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>214</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
       <c r="F36" s="45"/>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17">
-        <v>1</v>
-      </c>
-      <c r="I36" s="17">
-        <v>1</v>
-      </c>
-      <c r="J36" s="17">
-        <v>1</v>
-      </c>
-      <c r="K36" s="17">
-        <v>1</v>
-      </c>
-      <c r="L36" s="17">
-        <v>1</v>
-      </c>
-      <c r="M36" s="17">
-        <v>1</v>
-      </c>
-      <c r="N36" s="17">
-        <v>1</v>
-      </c>
-      <c r="O36" s="17">
-        <v>1</v>
-      </c>
-      <c r="P36" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>37</v>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>217</v>
       </c>
       <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="45"/>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17">
-        <v>1</v>
-      </c>
-      <c r="I37" s="17">
-        <v>1</v>
-      </c>
-      <c r="J37" s="17">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17">
-        <v>1</v>
-      </c>
-      <c r="L37" s="17">
-        <v>1</v>
-      </c>
-      <c r="M37" s="17">
-        <v>1</v>
-      </c>
-      <c r="N37" s="17">
-        <v>1</v>
-      </c>
-      <c r="O37" s="17">
-        <v>1</v>
-      </c>
-      <c r="P37" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>1</v>
-      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
       <c r="I38" s="17"/>
       <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
+      <c r="O38" s="17">
+        <v>1</v>
+      </c>
       <c r="P38" s="17"/>
       <c r="Q38" s="17"/>
     </row>
@@ -2806,10 +2753,10 @@
         <v>25</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>40</v>
+        <v>183</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -2817,16 +2764,36 @@
       <c r="G39" s="17">
         <v>1</v>
       </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17">
+        <v>1</v>
+      </c>
+      <c r="K39" s="17">
+        <v>1</v>
+      </c>
+      <c r="L39" s="17">
+        <v>1</v>
+      </c>
+      <c r="M39" s="17">
+        <v>1</v>
+      </c>
+      <c r="N39" s="17">
+        <v>1</v>
+      </c>
+      <c r="O39" s="17">
+        <v>1</v>
+      </c>
+      <c r="P39" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -2836,15 +2803,19 @@
         <v>6</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
       <c r="F40" s="45"/>
-      <c r="G40" s="17"/>
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="J40" s="17">
+        <v>1</v>
+      </c>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
@@ -2857,24 +2828,48 @@
       <c r="A41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C41" s="16" t="s">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
       <c r="F41" s="45"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1</v>
+      </c>
+      <c r="J41" s="17">
+        <v>1</v>
+      </c>
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <v>1</v>
+      </c>
+      <c r="M41" s="17">
+        <v>1</v>
+      </c>
+      <c r="N41" s="17">
+        <v>1</v>
+      </c>
+      <c r="O41" s="17">
+        <v>1</v>
+      </c>
+      <c r="P41" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
@@ -2884,32 +2879,54 @@
         <v>6</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17">
+        <v>1</v>
+      </c>
+      <c r="K42" s="17">
+        <v>1</v>
+      </c>
+      <c r="L42" s="17">
+        <v>1</v>
+      </c>
+      <c r="M42" s="17">
+        <v>1</v>
+      </c>
+      <c r="N42" s="17">
+        <v>1</v>
+      </c>
+      <c r="O42" s="17">
+        <v>1</v>
+      </c>
+      <c r="P42" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -2928,18 +2945,20 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>179</v>
+        <v>40</v>
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
-      <c r="G44" s="17"/>
+      <c r="G44" s="17">
+        <v>1</v>
+      </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -2953,13 +2972,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
@@ -2978,30 +2997,20 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B46" s="18"/>
       <c r="C46" s="16" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="45"/>
-      <c r="G46" s="17">
-        <v>1</v>
-      </c>
-      <c r="H46" s="17">
-        <v>1</v>
-      </c>
-      <c r="I46" s="17">
-        <v>1</v>
-      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="17">
-        <v>1</v>
-      </c>
+      <c r="K46" s="17"/>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
       <c r="N46" s="17"/>
@@ -3011,30 +3020,22 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>145</v>
+        <v>182</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="45"/>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="17">
-        <v>1</v>
-      </c>
-      <c r="I47" s="17">
-        <v>1</v>
-      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="17">
-        <v>1</v>
-      </c>
+      <c r="K47" s="17"/>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
       <c r="N47" s="17"/>
@@ -3050,22 +3051,16 @@
         <v>6</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
       <c r="F48" s="45"/>
-      <c r="G48" s="17">
-        <v>1</v>
-      </c>
-      <c r="H48" s="17">
-        <v>1</v>
-      </c>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
-      <c r="K48" s="17">
-        <v>1</v>
-      </c>
+      <c r="K48" s="17"/>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
       <c r="N48" s="17"/>
@@ -3078,10 +3073,10 @@
         <v>177</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>277</v>
+        <v>179</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -3103,10 +3098,10 @@
         <v>177</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
@@ -3127,18 +3122,28 @@
       <c r="A51" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="C51" s="16" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="G51" s="17">
+        <v>1</v>
+      </c>
+      <c r="H51" s="17">
+        <v>1</v>
+      </c>
+      <c r="I51" s="17">
+        <v>1</v>
+      </c>
       <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
+      <c r="K51" s="17">
+        <v>1</v>
+      </c>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
@@ -3147,14 +3152,14 @@
       <c r="Q51" s="17"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>13</v>
+      <c r="A52" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>145</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -3162,10 +3167,16 @@
       <c r="G52" s="17">
         <v>1</v>
       </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="H52" s="17">
+        <v>1</v>
+      </c>
+      <c r="I52" s="17">
+        <v>1</v>
+      </c>
       <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
+      <c r="K52" s="17">
+        <v>1</v>
+      </c>
       <c r="L52" s="17"/>
       <c r="M52" s="17"/>
       <c r="N52" s="17"/>
@@ -3174,23 +3185,29 @@
       <c r="Q52" s="17"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>192</v>
+      <c r="A53" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1</v>
+      </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="K53" s="17">
+        <v>1</v>
+      </c>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
@@ -3199,21 +3216,19 @@
       <c r="Q53" s="17"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>190</v>
+      <c r="A54" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
-      <c r="G54" s="17">
-        <v>1</v>
-      </c>
+      <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
@@ -3226,21 +3241,19 @@
       <c r="Q54" s="17"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>241</v>
+      <c r="A55" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="45"/>
-      <c r="G55" s="17">
-        <v>1</v>
-      </c>
+      <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
       <c r="J55" s="17"/>
@@ -3253,27 +3266,21 @@
       <c r="Q55" s="17"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13" t="s">
-        <v>191</v>
+      <c r="A56" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16" t="s">
+        <v>181</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
-      <c r="G56" s="17">
-        <v>1</v>
-      </c>
-      <c r="H56" s="17">
-        <v>1</v>
-      </c>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
-      <c r="K56" s="17">
-        <v>1</v>
-      </c>
+      <c r="K56" s="17"/>
       <c r="L56" s="17"/>
       <c r="M56" s="17"/>
       <c r="N56" s="17"/>
@@ -3282,19 +3289,21 @@
       <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>291</v>
+      <c r="A57" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3307,14 +3316,14 @@
       <c r="Q57" s="17"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>33</v>
+      <c r="A58" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
@@ -3332,19 +3341,21 @@
       <c r="Q58" s="17"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>288</v>
+      <c r="A59" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
-      <c r="G59" s="17"/>
+      <c r="G59" s="17">
+        <v>1</v>
+      </c>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -3357,14 +3368,14 @@
       <c r="Q59" s="17"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>38</v>
+      <c r="A60" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
@@ -3384,23 +3395,27 @@
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>289</v>
+      <c r="A61" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17">
+        <v>1</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
+      <c r="K61" s="17">
+        <v>1</v>
+      </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3416,14 +3431,12 @@
         <v>6</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>49</v>
+        <v>291</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
-      <c r="G62" s="17">
-        <v>1</v>
-      </c>
+      <c r="G62" s="17"/>
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
@@ -3443,7 +3456,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>290</v>
+        <v>33</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -3462,13 +3475,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>30</v>
+        <v>288</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
@@ -3487,18 +3500,20 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
-      <c r="G65" s="17"/>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -3512,13 +3527,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
@@ -3537,13 +3552,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
@@ -3551,45 +3566,31 @@
       <c r="G67" s="17">
         <v>1</v>
       </c>
-      <c r="H67" s="17">
-        <v>1</v>
-      </c>
-      <c r="I67" s="17">
-        <v>1</v>
-      </c>
-      <c r="J67" s="17">
-        <v>1</v>
-      </c>
-      <c r="K67" s="17">
-        <v>1</v>
-      </c>
-      <c r="L67" s="17">
-        <v>1</v>
-      </c>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="17"/>
       <c r="P67" s="17"/>
-      <c r="Q67" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q67" s="17"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>138</v>
+        <v>290</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
-      <c r="G68" s="17">
-        <v>1</v>
-      </c>
+      <c r="G68" s="17"/>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -3598,104 +3599,68 @@
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
       <c r="O68" s="17"/>
-      <c r="P68" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="17">
-        <v>1</v>
-      </c>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
       <c r="F69" s="45"/>
-      <c r="G69" s="17">
-        <v>1</v>
-      </c>
-      <c r="H69" s="17">
-        <v>1</v>
-      </c>
-      <c r="I69" s="17">
-        <v>1</v>
-      </c>
-      <c r="J69" s="17">
-        <v>1</v>
-      </c>
-      <c r="K69" s="17">
-        <v>1</v>
-      </c>
-      <c r="L69" s="17">
-        <v>1</v>
-      </c>
-      <c r="M69" s="17">
-        <v>1</v>
-      </c>
-      <c r="N69" s="17">
-        <v>1</v>
-      </c>
-      <c r="O69" s="17">
-        <v>1</v>
-      </c>
-      <c r="P69" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="17">
-        <v>1</v>
-      </c>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+      <c r="O69" s="17"/>
+      <c r="P69" s="17"/>
+      <c r="Q69" s="17"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
       <c r="F70" s="45"/>
-      <c r="G70" s="17">
-        <v>1</v>
-      </c>
-      <c r="H70" s="17">
-        <v>1</v>
-      </c>
-      <c r="I70" s="17">
-        <v>1</v>
-      </c>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="17"/>
-      <c r="K70" s="17">
-        <v>1</v>
-      </c>
+      <c r="K70" s="17"/>
       <c r="L70" s="17"/>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
       <c r="O70" s="17"/>
       <c r="P70" s="17"/>
-      <c r="Q70" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q70" s="17"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>28</v>
+        <v>219</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>53</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
@@ -3710,9 +3675,7 @@
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
-      <c r="Q71" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q71" s="17"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
@@ -3722,7 +3685,7 @@
         <v>53</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
@@ -3730,11 +3693,21 @@
       <c r="G72" s="17">
         <v>1</v>
       </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
+      <c r="H72" s="17">
+        <v>1</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1</v>
+      </c>
+      <c r="J72" s="17">
+        <v>1</v>
+      </c>
+      <c r="K72" s="17">
+        <v>1</v>
+      </c>
+      <c r="L72" s="17">
+        <v>1</v>
+      </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
@@ -3751,7 +3724,7 @@
         <v>53</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -3767,7 +3740,9 @@
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
+      <c r="P73" s="17">
+        <v>1</v>
+      </c>
       <c r="Q73" s="17">
         <v>1</v>
       </c>
@@ -3780,22 +3755,44 @@
         <v>53</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>287</v>
+        <v>64</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="G74" s="17">
+        <v>1</v>
+      </c>
+      <c r="H74" s="17">
+        <v>1</v>
+      </c>
+      <c r="I74" s="17">
+        <v>1</v>
+      </c>
+      <c r="J74" s="17">
+        <v>1</v>
+      </c>
+      <c r="K74" s="17">
+        <v>1</v>
+      </c>
+      <c r="L74" s="17">
+        <v>1</v>
+      </c>
+      <c r="M74" s="17">
+        <v>1</v>
+      </c>
+      <c r="N74" s="17">
+        <v>1</v>
+      </c>
+      <c r="O74" s="17">
+        <v>1</v>
+      </c>
+      <c r="P74" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
@@ -3805,7 +3802,7 @@
         <v>53</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -3816,7 +3813,9 @@
       <c r="H75" s="17">
         <v>1</v>
       </c>
-      <c r="I75" s="17"/>
+      <c r="I75" s="17">
+        <v>1</v>
+      </c>
       <c r="J75" s="17"/>
       <c r="K75" s="17">
         <v>1</v>
@@ -3838,7 +3837,7 @@
         <v>53</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
@@ -3859,18 +3858,20 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
-      <c r="G77" s="17"/>
+      <c r="G77" s="17">
+        <v>1</v>
+      </c>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -3880,22 +3881,26 @@
       <c r="N77" s="17"/>
       <c r="O77" s="17"/>
       <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="Q77" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
-      <c r="G78" s="17"/>
+      <c r="G78" s="17">
+        <v>1</v>
+      </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -3905,17 +3910,19 @@
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="Q78" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
@@ -3934,38 +3941,46 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="17">
+        <v>1</v>
+      </c>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="K80" s="17">
+        <v>1</v>
+      </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="Q80" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
@@ -3980,7 +3995,9 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="Q81" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
@@ -3990,16 +4007,14 @@
         <v>6</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
       <c r="G82" s="17"/>
       <c r="H82" s="17"/>
-      <c r="I82" s="17">
-        <v>1</v>
-      </c>
+      <c r="I82" s="17"/>
       <c r="J82" s="17"/>
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
@@ -4017,16 +4032,14 @@
         <v>6</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" s="17"/>
       <c r="H83" s="17"/>
-      <c r="I83" s="17">
-        <v>1</v>
-      </c>
+      <c r="I83" s="17"/>
       <c r="J83" s="17"/>
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
@@ -4044,16 +4057,14 @@
         <v>6</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
       <c r="G84" s="17"/>
       <c r="H84" s="17"/>
-      <c r="I84" s="17">
-        <v>1</v>
-      </c>
+      <c r="I84" s="17"/>
       <c r="J84" s="17"/>
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
@@ -4068,10 +4079,10 @@
         <v>220</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="45"/>
@@ -4096,16 +4107,14 @@
         <v>6</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="45"/>
       <c r="F86" s="45"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="17">
-        <v>1</v>
-      </c>
+      <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -4123,14 +4132,16 @@
         <v>6</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="45"/>
       <c r="F87" s="45"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
+      <c r="I87" s="17">
+        <v>1</v>
+      </c>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -4148,16 +4159,16 @@
         <v>6</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
       <c r="F88" s="45"/>
-      <c r="G88" s="17">
-        <v>1</v>
-      </c>
+      <c r="G88" s="17"/>
       <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
+      <c r="I88" s="17">
+        <v>1</v>
+      </c>
       <c r="J88" s="17"/>
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
@@ -4172,17 +4183,19 @@
         <v>220</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
       <c r="F89" s="45"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="17">
+        <v>1</v>
+      </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -4197,10 +4210,10 @@
         <v>220</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
@@ -4225,14 +4238,16 @@
         <v>6</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
+      <c r="I91" s="17">
+        <v>1</v>
+      </c>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -4250,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
@@ -4272,15 +4287,17 @@
         <v>220</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
-      <c r="G93" s="17"/>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -4297,10 +4314,10 @@
         <v>220</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
@@ -4325,16 +4342,14 @@
         <v>6</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
       <c r="F95" s="45"/>
       <c r="G95" s="17"/>
       <c r="H95" s="17"/>
-      <c r="I95" s="17">
-        <v>1</v>
-      </c>
+      <c r="I95" s="17"/>
       <c r="J95" s="17"/>
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
@@ -4345,14 +4360,14 @@
       <c r="Q95" s="17"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C96" s="22" t="s">
-        <v>228</v>
+      <c r="A96" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>283</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
@@ -4370,14 +4385,14 @@
       <c r="Q96" s="17"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>88</v>
+      <c r="A97" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>246</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
@@ -4395,14 +4410,14 @@
       <c r="Q97" s="17"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C98" s="22" t="s">
-        <v>226</v>
+      <c r="A98" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -4420,14 +4435,14 @@
       <c r="Q98" s="17"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>68</v>
+      <c r="A99" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>225</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
@@ -4445,21 +4460,23 @@
       <c r="Q99" s="17"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>72</v>
+      <c r="A100" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="I100" s="17">
+        <v>1</v>
+      </c>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -4470,14 +4487,14 @@
       <c r="Q100" s="17"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>83</v>
+      <c r="A101" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>228</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
@@ -4495,12 +4512,14 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="27" t="s">
-        <v>3</v>
+      <c r="A102" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
@@ -4518,14 +4537,14 @@
       <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>106</v>
+      <c r="A103" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
@@ -4543,14 +4562,14 @@
       <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="27" t="s">
-        <v>107</v>
+      <c r="A104" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
@@ -4568,14 +4587,14 @@
       <c r="Q104" s="17"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" s="27" t="s">
-        <v>108</v>
+      <c r="A105" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -4593,14 +4612,14 @@
       <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>109</v>
+      <c r="A106" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -4621,11 +4640,9 @@
       <c r="A107" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B107" s="26"/>
       <c r="C107" s="27" t="s">
-        <v>110</v>
+        <v>3</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
@@ -4650,7 +4667,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
@@ -4675,7 +4692,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
@@ -4700,7 +4717,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -4725,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -4747,10 +4764,10 @@
         <v>35</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="45"/>
@@ -4768,14 +4785,14 @@
       <c r="Q112" s="17"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>134</v>
+      <c r="A113" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
@@ -4788,21 +4805,19 @@
       <c r="L113" s="17"/>
       <c r="M113" s="17"/>
       <c r="N113" s="17"/>
-      <c r="O113" s="17">
-        <v>1</v>
-      </c>
+      <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>62</v>
+      <c r="A114" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B114" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
@@ -4815,21 +4830,19 @@
       <c r="L114" s="17"/>
       <c r="M114" s="17"/>
       <c r="N114" s="17"/>
-      <c r="O114" s="17">
-        <v>1</v>
-      </c>
+      <c r="O114" s="17"/>
       <c r="P114" s="17"/>
       <c r="Q114" s="17"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C115" s="24" t="s">
-        <v>136</v>
+      <c r="A115" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>198</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
@@ -4842,21 +4855,19 @@
       <c r="L115" s="17"/>
       <c r="M115" s="17"/>
       <c r="N115" s="17"/>
-      <c r="O115" s="17">
-        <v>1</v>
-      </c>
+      <c r="O115" s="17"/>
       <c r="P115" s="17"/>
       <c r="Q115" s="17"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B116" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="24" t="s">
-        <v>211</v>
+      <c r="A116" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>197</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="45"/>
@@ -4869,21 +4880,19 @@
       <c r="L116" s="17"/>
       <c r="M116" s="17"/>
       <c r="N116" s="17"/>
-      <c r="O116" s="17">
-        <v>1</v>
-      </c>
+      <c r="O116" s="17"/>
       <c r="P116" s="17"/>
       <c r="Q116" s="17"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>209</v>
+      <c r="A117" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>212</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
@@ -4905,10 +4914,10 @@
         <v>243</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
@@ -4921,7 +4930,9 @@
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
+      <c r="O118" s="17">
+        <v>1</v>
+      </c>
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
     </row>
@@ -4930,10 +4941,10 @@
         <v>243</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>178</v>
+        <v>53</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>208</v>
+        <v>62</v>
       </c>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
@@ -4946,7 +4957,9 @@
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
-      <c r="O119" s="17"/>
+      <c r="O119" s="17">
+        <v>1</v>
+      </c>
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
     </row>
@@ -4958,7 +4971,7 @@
         <v>53</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D120" s="45"/>
       <c r="E120" s="45"/>
@@ -4982,10 +4995,10 @@
         <v>243</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>144</v>
+        <v>211</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5009,10 +5022,10 @@
         <v>243</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="45"/>
@@ -5025,9 +5038,7 @@
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
-      <c r="O122" s="17">
-        <v>1</v>
-      </c>
+      <c r="O122" s="17"/>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
     </row>
@@ -5036,10 +5047,10 @@
         <v>243</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>150</v>
+        <v>210</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
@@ -5052,9 +5063,7 @@
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
-      <c r="O123" s="17">
-        <v>1</v>
-      </c>
+      <c r="O123" s="17"/>
       <c r="P123" s="17"/>
       <c r="Q123" s="17"/>
     </row>
@@ -5063,10 +5072,10 @@
         <v>243</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>284</v>
+        <v>208</v>
       </c>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
@@ -5091,7 +5100,7 @@
         <v>53</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
@@ -5104,7 +5113,9 @@
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
+      <c r="O125" s="17">
+        <v>1</v>
+      </c>
       <c r="P125" s="17"/>
       <c r="Q125" s="17"/>
     </row>
@@ -5113,10 +5124,10 @@
         <v>243</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="D126" s="45"/>
       <c r="E126" s="45"/>
@@ -5129,7 +5140,9 @@
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
+      <c r="O126" s="17">
+        <v>1</v>
+      </c>
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
     </row>
@@ -5141,7 +5154,7 @@
         <v>53</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
@@ -5168,7 +5181,7 @@
         <v>53</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="45"/>
@@ -5195,7 +5208,7 @@
         <v>53</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
@@ -5208,9 +5221,7 @@
       <c r="L129" s="17"/>
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
-      <c r="O129" s="17">
-        <v>1</v>
-      </c>
+      <c r="O129" s="17"/>
       <c r="P129" s="17"/>
       <c r="Q129" s="17"/>
     </row>
@@ -5222,7 +5233,7 @@
         <v>53</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="45"/>
@@ -5235,9 +5246,7 @@
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
-      <c r="O130" s="17">
-        <v>1</v>
-      </c>
+      <c r="O130" s="17"/>
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
     </row>
@@ -5246,10 +5255,10 @@
         <v>243</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>252</v>
+        <v>202</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
@@ -5262,9 +5271,7 @@
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
-      <c r="O131" s="17">
-        <v>1</v>
-      </c>
+      <c r="O131" s="17"/>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
     </row>
@@ -5276,7 +5283,7 @@
         <v>53</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
@@ -5303,7 +5310,7 @@
         <v>53</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
@@ -5330,7 +5337,7 @@
         <v>53</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="45"/>
@@ -5357,7 +5364,7 @@
         <v>53</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>253</v>
+        <v>82</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
@@ -5384,7 +5391,7 @@
         <v>53</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="45"/>
@@ -5411,7 +5418,7 @@
         <v>53</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
@@ -5438,7 +5445,7 @@
         <v>53</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="45"/>
@@ -5465,7 +5472,7 @@
         <v>53</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
@@ -5492,7 +5499,7 @@
         <v>53</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D140" s="45"/>
       <c r="E140" s="45"/>
@@ -5519,7 +5526,7 @@
         <v>53</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
@@ -5546,7 +5553,7 @@
         <v>53</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="45"/>
@@ -5573,7 +5580,7 @@
         <v>53</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -5600,7 +5607,7 @@
         <v>53</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45"/>
@@ -5627,7 +5634,7 @@
         <v>53</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
@@ -5654,7 +5661,7 @@
         <v>53</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="D146" s="45"/>
       <c r="E146" s="45"/>
@@ -5681,7 +5688,7 @@
         <v>53</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
@@ -5701,43 +5708,41 @@
       <c r="Q147" s="17"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A148" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="31" t="s">
-        <v>91</v>
+      <c r="A148" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
       <c r="F148" s="45"/>
       <c r="G148" s="17"/>
-      <c r="H148" s="17">
-        <v>1</v>
-      </c>
+      <c r="H148" s="17"/>
       <c r="I148" s="17"/>
       <c r="J148" s="17"/>
-      <c r="K148" s="17">
-        <v>1</v>
-      </c>
+      <c r="K148" s="17"/>
       <c r="L148" s="17"/>
       <c r="M148" s="17"/>
       <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
+      <c r="O148" s="17">
+        <v>1</v>
+      </c>
       <c r="P148" s="17"/>
       <c r="Q148" s="17"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A149" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>11</v>
+      <c r="A149" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="D149" s="45"/>
       <c r="E149" s="45"/>
@@ -5750,138 +5755,92 @@
       <c r="L149" s="17"/>
       <c r="M149" s="17"/>
       <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
+      <c r="O149" s="17">
+        <v>1</v>
+      </c>
       <c r="P149" s="17"/>
       <c r="Q149" s="17"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A150" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C150" s="31" t="s">
-        <v>16</v>
+      <c r="A150" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
       <c r="F150" s="45"/>
-      <c r="G150" s="17">
-        <v>1</v>
-      </c>
-      <c r="H150" s="17">
-        <v>1</v>
-      </c>
-      <c r="I150" s="17">
-        <v>1</v>
-      </c>
-      <c r="J150" s="17">
-        <v>1</v>
-      </c>
-      <c r="K150" s="17">
-        <v>1</v>
-      </c>
-      <c r="L150" s="17">
-        <v>1</v>
-      </c>
-      <c r="M150" s="17">
-        <v>1</v>
-      </c>
-      <c r="N150" s="17">
-        <v>1</v>
-      </c>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+      <c r="N150" s="17"/>
       <c r="O150" s="17">
         <v>1</v>
       </c>
-      <c r="P150" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q150" s="17">
-        <v>1</v>
-      </c>
+      <c r="P150" s="17"/>
+      <c r="Q150" s="17"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A151" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="31" t="s">
-        <v>18</v>
+      <c r="A151" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="D151" s="45"/>
       <c r="E151" s="45"/>
       <c r="F151" s="45"/>
-      <c r="G151" s="17">
-        <v>1</v>
-      </c>
-      <c r="H151" s="17">
-        <v>1</v>
-      </c>
-      <c r="I151" s="17">
-        <v>1</v>
-      </c>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
       <c r="J151" s="17"/>
-      <c r="K151" s="17">
-        <v>1</v>
-      </c>
+      <c r="K151" s="17"/>
       <c r="L151" s="17"/>
-      <c r="M151" s="17">
-        <v>1</v>
-      </c>
+      <c r="M151" s="17"/>
       <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
+      <c r="O151" s="17">
+        <v>1</v>
+      </c>
       <c r="P151" s="17"/>
       <c r="Q151" s="17"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>59</v>
+      <c r="A152" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D152" s="45"/>
       <c r="E152" s="45"/>
       <c r="F152" s="45"/>
-      <c r="G152" s="17">
-        <v>1</v>
-      </c>
-      <c r="H152" s="17">
-        <v>1</v>
-      </c>
-      <c r="I152" s="17">
-        <v>1</v>
-      </c>
-      <c r="J152" s="17">
-        <v>1</v>
-      </c>
-      <c r="K152" s="17">
-        <v>1</v>
-      </c>
-      <c r="L152" s="17">
-        <v>1</v>
-      </c>
-      <c r="M152" s="17">
-        <v>1</v>
-      </c>
-      <c r="N152" s="17">
-        <v>1</v>
-      </c>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+      <c r="N152" s="17"/>
       <c r="O152" s="17">
         <v>1</v>
       </c>
-      <c r="P152" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="17">
-        <v>1</v>
-      </c>
+      <c r="P152" s="17"/>
+      <c r="Q152" s="17"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="29" t="s">
@@ -5891,16 +5850,20 @@
         <v>6</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
       <c r="F153" s="45"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
+      <c r="H153" s="17">
+        <v>1</v>
+      </c>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
+      <c r="K153" s="17">
+        <v>1</v>
+      </c>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
@@ -5916,20 +5879,16 @@
         <v>6</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="17">
-        <v>1</v>
-      </c>
+      <c r="H154" s="17"/>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
-      <c r="K154" s="17">
-        <v>1</v>
-      </c>
+      <c r="K154" s="17"/>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
@@ -5945,22 +5904,44 @@
         <v>6</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="45"/>
       <c r="F155" s="45"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
-      <c r="Q155" s="17"/>
+      <c r="G155" s="17">
+        <v>1</v>
+      </c>
+      <c r="H155" s="17">
+        <v>1</v>
+      </c>
+      <c r="I155" s="17">
+        <v>1</v>
+      </c>
+      <c r="J155" s="17">
+        <v>1</v>
+      </c>
+      <c r="K155" s="17">
+        <v>1</v>
+      </c>
+      <c r="L155" s="17">
+        <v>1</v>
+      </c>
+      <c r="M155" s="17">
+        <v>1</v>
+      </c>
+      <c r="N155" s="17">
+        <v>1</v>
+      </c>
+      <c r="O155" s="17">
+        <v>1</v>
+      </c>
+      <c r="P155" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
@@ -5970,18 +5951,28 @@
         <v>6</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="D156" s="45"/>
       <c r="E156" s="45"/>
       <c r="F156" s="45"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
+      <c r="G156" s="17">
+        <v>1</v>
+      </c>
+      <c r="H156" s="17">
+        <v>1</v>
+      </c>
+      <c r="I156" s="17">
+        <v>1</v>
+      </c>
       <c r="J156" s="17"/>
-      <c r="K156" s="17"/>
+      <c r="K156" s="17">
+        <v>1</v>
+      </c>
       <c r="L156" s="17"/>
-      <c r="M156" s="17"/>
+      <c r="M156" s="17">
+        <v>1</v>
+      </c>
       <c r="N156" s="17"/>
       <c r="O156" s="17"/>
       <c r="P156" s="17"/>
@@ -5995,22 +5986,44 @@
         <v>53</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
       <c r="F157" s="45"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
-      <c r="Q157" s="17"/>
+      <c r="G157" s="17">
+        <v>1</v>
+      </c>
+      <c r="H157" s="17">
+        <v>1</v>
+      </c>
+      <c r="I157" s="17">
+        <v>1</v>
+      </c>
+      <c r="J157" s="17">
+        <v>1</v>
+      </c>
+      <c r="K157" s="17">
+        <v>1</v>
+      </c>
+      <c r="L157" s="17">
+        <v>1</v>
+      </c>
+      <c r="M157" s="17">
+        <v>1</v>
+      </c>
+      <c r="N157" s="17">
+        <v>1</v>
+      </c>
+      <c r="O157" s="17">
+        <v>1</v>
+      </c>
+      <c r="P157" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
@@ -6020,14 +6033,12 @@
         <v>6</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="D158" s="45"/>
       <c r="E158" s="45"/>
       <c r="F158" s="45"/>
-      <c r="G158" s="17">
-        <v>1</v>
-      </c>
+      <c r="G158" s="17"/>
       <c r="H158" s="17"/>
       <c r="I158" s="17"/>
       <c r="J158" s="17"/>
@@ -6047,7 +6058,7 @@
         <v>6</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="45"/>
@@ -6056,9 +6067,7 @@
       <c r="H159" s="17">
         <v>1</v>
       </c>
-      <c r="I159" s="17">
-        <v>1</v>
-      </c>
+      <c r="I159" s="17"/>
       <c r="J159" s="17"/>
       <c r="K159" s="17">
         <v>1</v>
@@ -6078,22 +6087,16 @@
         <v>6</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D160" s="45"/>
       <c r="E160" s="45"/>
       <c r="F160" s="45"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="17">
-        <v>1</v>
-      </c>
-      <c r="I160" s="17">
-        <v>1</v>
-      </c>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
       <c r="J160" s="17"/>
-      <c r="K160" s="17">
-        <v>1</v>
-      </c>
+      <c r="K160" s="17"/>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
@@ -6109,22 +6112,16 @@
         <v>6</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
       <c r="F161" s="45"/>
       <c r="G161" s="17"/>
-      <c r="H161" s="17">
-        <v>1</v>
-      </c>
-      <c r="I161" s="17">
-        <v>1</v>
-      </c>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
       <c r="J161" s="17"/>
-      <c r="K161" s="17">
-        <v>1</v>
-      </c>
+      <c r="K161" s="17"/>
       <c r="L161" s="17"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
@@ -6137,25 +6134,19 @@
         <v>34</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
       <c r="F162" s="45"/>
-      <c r="G162" s="17">
-        <v>1</v>
-      </c>
-      <c r="H162" s="17">
-        <v>1</v>
-      </c>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
       <c r="I162" s="17"/>
       <c r="J162" s="17"/>
-      <c r="K162" s="17">
-        <v>1</v>
-      </c>
+      <c r="K162" s="17"/>
       <c r="L162" s="17"/>
       <c r="M162" s="17"/>
       <c r="N162" s="17"/>
@@ -6171,7 +6162,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>120</v>
+        <v>282</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
@@ -6198,16 +6189,22 @@
         <v>6</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
       <c r="F164" s="45"/>
       <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
+      <c r="H164" s="17">
+        <v>1</v>
+      </c>
+      <c r="I164" s="17">
+        <v>1</v>
+      </c>
       <c r="J164" s="17"/>
-      <c r="K164" s="17"/>
+      <c r="K164" s="17">
+        <v>1</v>
+      </c>
       <c r="L164" s="17"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
@@ -6223,23 +6220,23 @@
         <v>6</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
       <c r="F165" s="45"/>
       <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17">
-        <v>1</v>
-      </c>
+      <c r="H165" s="17">
+        <v>1</v>
+      </c>
+      <c r="I165" s="17">
+        <v>1</v>
+      </c>
+      <c r="J165" s="17"/>
       <c r="K165" s="17">
         <v>1</v>
       </c>
-      <c r="L165" s="17">
-        <v>1</v>
-      </c>
+      <c r="L165" s="17"/>
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
       <c r="O165" s="17"/>
@@ -6254,21 +6251,23 @@
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>256</v>
+        <v>117</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
       <c r="F166" s="45"/>
       <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17">
-        <v>1</v>
-      </c>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17">
-        <v>1</v>
-      </c>
+      <c r="H166" s="17">
+        <v>1</v>
+      </c>
+      <c r="I166" s="17">
+        <v>1</v>
+      </c>
+      <c r="J166" s="17"/>
+      <c r="K166" s="17">
+        <v>1</v>
+      </c>
+      <c r="L166" s="17"/>
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
       <c r="O166" s="17"/>
@@ -6283,21 +6282,23 @@
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
       <c r="F167" s="45"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
+      <c r="G167" s="17">
+        <v>1</v>
+      </c>
+      <c r="H167" s="17">
+        <v>1</v>
+      </c>
       <c r="I167" s="17"/>
-      <c r="J167" s="17">
-        <v>1</v>
-      </c>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17">
-        <v>1</v>
-      </c>
+      <c r="J167" s="17"/>
+      <c r="K167" s="17">
+        <v>1</v>
+      </c>
+      <c r="L167" s="17"/>
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
       <c r="O167" s="17"/>
@@ -6312,21 +6313,19 @@
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>263</v>
+        <v>120</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
       <c r="F168" s="45"/>
-      <c r="G168" s="17"/>
+      <c r="G168" s="17">
+        <v>1</v>
+      </c>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
-      <c r="J168" s="17">
-        <v>1</v>
-      </c>
+      <c r="J168" s="17"/>
       <c r="K168" s="17"/>
-      <c r="L168" s="17">
-        <v>1</v>
-      </c>
+      <c r="L168" s="17"/>
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
       <c r="O168" s="17"/>
@@ -6341,7 +6340,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
@@ -6349,13 +6348,9 @@
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="17">
-        <v>1</v>
-      </c>
+      <c r="J169" s="17"/>
       <c r="K169" s="17"/>
-      <c r="L169" s="17">
-        <v>1</v>
-      </c>
+      <c r="L169" s="17"/>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
       <c r="O169" s="17"/>
@@ -6370,7 +6365,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -6381,7 +6376,9 @@
       <c r="J170" s="17">
         <v>1</v>
       </c>
-      <c r="K170" s="17"/>
+      <c r="K170" s="17">
+        <v>1</v>
+      </c>
       <c r="L170" s="17">
         <v>1</v>
       </c>
@@ -6399,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
@@ -6428,7 +6425,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6457,7 +6454,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6486,7 +6483,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6515,7 +6512,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6544,11 +6541,11 @@
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D176" s="47"/>
-      <c r="E176" s="47"/>
-      <c r="F176" s="47"/>
+        <v>272</v>
+      </c>
+      <c r="D176" s="45"/>
+      <c r="E176" s="45"/>
+      <c r="F176" s="45"/>
       <c r="G176" s="17"/>
       <c r="H176" s="17"/>
       <c r="I176" s="17"/>
@@ -6573,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6602,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6631,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6660,7 +6657,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45"/>
@@ -6689,11 +6686,11 @@
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="D181" s="45"/>
-      <c r="E181" s="45"/>
-      <c r="F181" s="45"/>
+        <v>259</v>
+      </c>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
@@ -6718,24 +6715,18 @@
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45"/>
       <c r="F182" s="45"/>
       <c r="G182" s="17"/>
-      <c r="H182" s="17">
-        <v>1</v>
-      </c>
-      <c r="I182" s="17">
-        <v>1</v>
-      </c>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
       <c r="J182" s="17">
         <v>1</v>
       </c>
-      <c r="K182" s="17">
-        <v>1</v>
-      </c>
+      <c r="K182" s="17"/>
       <c r="L182" s="17">
         <v>1</v>
       </c>
@@ -6753,19 +6744,21 @@
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45"/>
       <c r="F183" s="45"/>
-      <c r="G183" s="17">
-        <v>1</v>
-      </c>
+      <c r="G183" s="17"/>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
+      <c r="J183" s="17">
+        <v>1</v>
+      </c>
       <c r="K183" s="17"/>
-      <c r="L183" s="17"/>
+      <c r="L183" s="17">
+        <v>1</v>
+      </c>
       <c r="M183" s="17"/>
       <c r="N183" s="17"/>
       <c r="O183" s="17"/>
@@ -6780,7 +6773,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="45"/>
@@ -6788,9 +6781,13 @@
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
-      <c r="J184" s="17"/>
+      <c r="J184" s="17">
+        <v>1</v>
+      </c>
       <c r="K184" s="17"/>
-      <c r="L184" s="17"/>
+      <c r="L184" s="17">
+        <v>1</v>
+      </c>
       <c r="M184" s="17"/>
       <c r="N184" s="17"/>
       <c r="O184" s="17"/>
@@ -6798,14 +6795,14 @@
       <c r="Q184" s="17"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>99</v>
+      <c r="A185" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="31" t="s">
+        <v>268</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6813,9 +6810,13 @@
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
       <c r="I185" s="17"/>
-      <c r="J185" s="17"/>
+      <c r="J185" s="17">
+        <v>1</v>
+      </c>
       <c r="K185" s="17"/>
-      <c r="L185" s="17"/>
+      <c r="L185" s="17">
+        <v>1</v>
+      </c>
       <c r="M185" s="17"/>
       <c r="N185" s="17"/>
       <c r="O185" s="17"/>
@@ -6823,14 +6824,14 @@
       <c r="Q185" s="17"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A186" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B186" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>100</v>
+      <c r="A186" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" s="31" t="s">
+        <v>270</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
@@ -6838,9 +6839,13 @@
       <c r="G186" s="17"/>
       <c r="H186" s="17"/>
       <c r="I186" s="17"/>
-      <c r="J186" s="17"/>
+      <c r="J186" s="17">
+        <v>1</v>
+      </c>
       <c r="K186" s="17"/>
-      <c r="L186" s="17"/>
+      <c r="L186" s="17">
+        <v>1</v>
+      </c>
       <c r="M186" s="17"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
@@ -6848,24 +6853,34 @@
       <c r="Q186" s="17"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A187" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>101</v>
+      <c r="A187" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
       <c r="F187" s="45"/>
       <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="17"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="17"/>
+      <c r="H187" s="17">
+        <v>1</v>
+      </c>
+      <c r="I187" s="17">
+        <v>1</v>
+      </c>
+      <c r="J187" s="17">
+        <v>1</v>
+      </c>
+      <c r="K187" s="17">
+        <v>1</v>
+      </c>
+      <c r="L187" s="17">
+        <v>1</v>
+      </c>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
@@ -6873,17 +6888,21 @@
       <c r="Q187" s="17"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A188" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B188" s="32"/>
-      <c r="C188" s="24" t="s">
-        <v>1</v>
+      <c r="A188" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
       <c r="F188" s="45"/>
-      <c r="G188" s="17"/>
+      <c r="G188" s="17">
+        <v>1</v>
+      </c>
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
@@ -6896,14 +6915,14 @@
       <c r="Q188" s="17"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B189" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="24" t="s">
-        <v>95</v>
+      <c r="A189" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>132</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
@@ -6921,76 +6940,64 @@
       <c r="Q189" s="17"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A190" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B190" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="24" t="s">
-        <v>274</v>
+      <c r="A190" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
       <c r="F190" s="45"/>
       <c r="G190" s="17"/>
       <c r="H190" s="17"/>
-      <c r="I190" s="17">
-        <v>1</v>
-      </c>
+      <c r="I190" s="17"/>
       <c r="J190" s="17"/>
       <c r="K190" s="17"/>
       <c r="L190" s="17"/>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
       <c r="O190" s="17"/>
-      <c r="P190" s="17">
-        <v>1</v>
-      </c>
+      <c r="P190" s="17"/>
       <c r="Q190" s="17"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B191" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="24" t="s">
-        <v>285</v>
+      <c r="A191" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B191" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
       <c r="F191" s="45"/>
-      <c r="G191" s="17">
-        <v>1</v>
-      </c>
-      <c r="H191" s="17">
-        <v>1</v>
-      </c>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
-      <c r="K191" s="17">
-        <v>1</v>
-      </c>
+      <c r="K191" s="17"/>
       <c r="L191" s="17"/>
       <c r="M191" s="17"/>
       <c r="N191" s="17"/>
       <c r="O191" s="17"/>
       <c r="P191" s="17"/>
-      <c r="Q191" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q191" s="17"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B192" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="24" t="s">
-        <v>27</v>
+      <c r="A192" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7004,51 +7011,41 @@
       <c r="M192" s="17"/>
       <c r="N192" s="17"/>
       <c r="O192" s="17"/>
-      <c r="P192" s="17">
-        <v>1</v>
-      </c>
+      <c r="P192" s="17"/>
       <c r="Q192" s="17"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B193" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B193" s="32"/>
       <c r="C193" s="24" t="s">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
       <c r="F193" s="45"/>
-      <c r="G193" s="17">
-        <v>1</v>
-      </c>
-      <c r="H193" s="17">
-        <v>1</v>
-      </c>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
       <c r="I193" s="17"/>
       <c r="J193" s="17"/>
-      <c r="K193" s="17">
-        <v>1</v>
-      </c>
+      <c r="K193" s="17"/>
       <c r="L193" s="17"/>
       <c r="M193" s="17"/>
       <c r="N193" s="17"/>
       <c r="O193" s="17"/>
       <c r="P193" s="17"/>
-      <c r="Q193" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q193" s="17"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B194" s="23"/>
+      <c r="B194" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C194" s="24" t="s">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7073,21 +7070,25 @@
         <v>6</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>230</v>
+        <v>274</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
       <c r="F195" s="45"/>
       <c r="G195" s="17"/>
       <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
+      <c r="I195" s="17">
+        <v>1</v>
+      </c>
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
       <c r="L195" s="17"/>
       <c r="M195" s="17"/>
       <c r="N195" s="17"/>
       <c r="O195" s="17"/>
-      <c r="P195" s="17"/>
+      <c r="P195" s="17">
+        <v>1</v>
+      </c>
       <c r="Q195" s="17"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
@@ -7098,13 +7099,17 @@
         <v>6</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>124</v>
+        <v>285</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
       <c r="F196" s="45"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
+      <c r="G196" s="17">
+        <v>1</v>
+      </c>
+      <c r="H196" s="17">
+        <v>1</v>
+      </c>
       <c r="I196" s="17"/>
       <c r="J196" s="17"/>
       <c r="K196" s="17">
@@ -7115,7 +7120,9 @@
       <c r="N196" s="17"/>
       <c r="O196" s="17"/>
       <c r="P196" s="17"/>
-      <c r="Q196" s="17"/>
+      <c r="Q196" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="22" t="s">
@@ -7125,27 +7132,23 @@
         <v>6</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
       <c r="F197" s="45"/>
-      <c r="G197" s="17">
-        <v>1</v>
-      </c>
-      <c r="H197" s="17">
-        <v>1</v>
-      </c>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
       <c r="I197" s="17"/>
       <c r="J197" s="17"/>
-      <c r="K197" s="17">
-        <v>1</v>
-      </c>
+      <c r="K197" s="17"/>
       <c r="L197" s="17"/>
       <c r="M197" s="17"/>
       <c r="N197" s="17"/>
       <c r="O197" s="17"/>
-      <c r="P197" s="17"/>
+      <c r="P197" s="17">
+        <v>1</v>
+      </c>
       <c r="Q197" s="17"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
@@ -7156,7 +7159,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
@@ -7164,41 +7167,39 @@
       <c r="G198" s="17">
         <v>1</v>
       </c>
-      <c r="H198" s="17"/>
+      <c r="H198" s="17">
+        <v>1</v>
+      </c>
       <c r="I198" s="17"/>
       <c r="J198" s="17"/>
-      <c r="K198" s="17"/>
+      <c r="K198" s="17">
+        <v>1</v>
+      </c>
       <c r="L198" s="17"/>
       <c r="M198" s="17"/>
       <c r="N198" s="17"/>
       <c r="O198" s="17"/>
       <c r="P198" s="17"/>
-      <c r="Q198" s="17"/>
+      <c r="Q198" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B199" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B199" s="23"/>
       <c r="C199" s="24" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
       <c r="F199" s="45"/>
-      <c r="G199" s="17">
-        <v>1</v>
-      </c>
-      <c r="H199" s="17">
-        <v>1</v>
-      </c>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
       <c r="I199" s="17"/>
       <c r="J199" s="17"/>
-      <c r="K199" s="17">
-        <v>1</v>
-      </c>
+      <c r="K199" s="17"/>
       <c r="L199" s="17"/>
       <c r="M199" s="17"/>
       <c r="N199" s="17"/>
@@ -7214,7 +7215,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7232,107 +7233,99 @@
       <c r="Q200" s="17"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A201" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B201" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C201" s="35" t="s">
-        <v>133</v>
+      <c r="A201" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
       <c r="F201" s="45"/>
       <c r="G201" s="17"/>
-      <c r="H201" s="17">
-        <v>1</v>
-      </c>
-      <c r="I201" s="17">
-        <v>1</v>
-      </c>
-      <c r="J201" s="17">
-        <v>1</v>
-      </c>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="17"/>
       <c r="K201" s="17">
         <v>1</v>
       </c>
-      <c r="L201" s="17">
-        <v>1</v>
-      </c>
-      <c r="M201" s="17">
-        <v>1</v>
-      </c>
-      <c r="N201" s="17">
-        <v>1</v>
-      </c>
+      <c r="L201" s="17"/>
+      <c r="M201" s="17"/>
+      <c r="N201" s="17"/>
       <c r="O201" s="17"/>
       <c r="P201" s="17"/>
       <c r="Q201" s="17"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A202" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B202" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" s="35" t="s">
-        <v>89</v>
+      <c r="A202" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
       <c r="F202" s="45"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
+      <c r="G202" s="17">
+        <v>1</v>
+      </c>
+      <c r="H202" s="17">
+        <v>1</v>
+      </c>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
-      <c r="K202" s="17"/>
+      <c r="K202" s="17">
+        <v>1</v>
+      </c>
       <c r="L202" s="17"/>
       <c r="M202" s="17"/>
-      <c r="N202" s="17">
-        <v>1</v>
-      </c>
+      <c r="N202" s="17"/>
       <c r="O202" s="17"/>
       <c r="P202" s="17"/>
       <c r="Q202" s="17"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B203" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" s="35" t="s">
-        <v>92</v>
+      <c r="A203" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
       <c r="F203" s="45"/>
-      <c r="G203" s="17"/>
+      <c r="G203" s="17">
+        <v>1</v>
+      </c>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
       <c r="K203" s="17"/>
       <c r="L203" s="17"/>
       <c r="M203" s="17"/>
-      <c r="N203" s="17">
-        <v>1</v>
-      </c>
+      <c r="N203" s="17"/>
       <c r="O203" s="17"/>
       <c r="P203" s="17"/>
       <c r="Q203" s="17"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B204" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C204" s="35" t="s">
-        <v>58</v>
+      <c r="A204" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
@@ -7343,53 +7336,39 @@
       <c r="H204" s="17">
         <v>1</v>
       </c>
-      <c r="I204" s="17">
-        <v>1</v>
-      </c>
+      <c r="I204" s="17"/>
       <c r="J204" s="17"/>
       <c r="K204" s="17">
         <v>1</v>
       </c>
       <c r="L204" s="17"/>
-      <c r="M204" s="17">
-        <v>1</v>
-      </c>
-      <c r="N204" s="17">
-        <v>1</v>
-      </c>
+      <c r="M204" s="17"/>
+      <c r="N204" s="17"/>
       <c r="O204" s="17"/>
       <c r="P204" s="17"/>
       <c r="Q204" s="17"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B205" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C205" s="35" t="s">
-        <v>96</v>
+      <c r="A205" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C205" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
       <c r="F205" s="45"/>
-      <c r="G205" s="17">
-        <v>1</v>
-      </c>
-      <c r="H205" s="17">
-        <v>1</v>
-      </c>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
       <c r="I205" s="17"/>
       <c r="J205" s="17"/>
-      <c r="K205" s="17">
-        <v>1</v>
-      </c>
+      <c r="K205" s="17"/>
       <c r="L205" s="17"/>
       <c r="M205" s="17"/>
-      <c r="N205" s="17">
-        <v>1</v>
-      </c>
+      <c r="N205" s="17"/>
       <c r="O205" s="17"/>
       <c r="P205" s="17"/>
       <c r="Q205" s="17"/>
@@ -7398,16 +7377,16 @@
       <c r="A206" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B206" s="36"/>
+      <c r="B206" s="34" t="s">
+        <v>53</v>
+      </c>
       <c r="C206" s="35" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
       <c r="F206" s="45"/>
-      <c r="G206" s="17">
-        <v>1</v>
-      </c>
+      <c r="G206" s="17"/>
       <c r="H206" s="17">
         <v>1</v>
       </c>
@@ -7429,15 +7408,9 @@
       <c r="N206" s="17">
         <v>1</v>
       </c>
-      <c r="O206" s="17">
-        <v>1</v>
-      </c>
-      <c r="P206" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q206" s="17">
-        <v>1</v>
-      </c>
+      <c r="O206" s="17"/>
+      <c r="P206" s="17"/>
+      <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="33" t="s">
@@ -7447,7 +7420,7 @@
         <v>6</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
@@ -7474,7 +7447,7 @@
         <v>6</v>
       </c>
       <c r="C208" s="35" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
@@ -7498,23 +7471,31 @@
         <v>176</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
       <c r="F209" s="45"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="17"/>
+      <c r="G209" s="17">
+        <v>1</v>
+      </c>
+      <c r="H209" s="17">
+        <v>1</v>
+      </c>
+      <c r="I209" s="17">
+        <v>1</v>
+      </c>
       <c r="J209" s="17"/>
       <c r="K209" s="17">
         <v>1</v>
       </c>
       <c r="L209" s="17"/>
-      <c r="M209" s="17"/>
+      <c r="M209" s="17">
+        <v>1</v>
+      </c>
       <c r="N209" s="17">
         <v>1</v>
       </c>
@@ -7527,10 +7508,10 @@
         <v>176</v>
       </c>
       <c r="B210" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>161</v>
+        <v>96</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
@@ -7541,18 +7522,12 @@
       <c r="H210" s="17">
         <v>1</v>
       </c>
-      <c r="I210" s="17">
-        <v>1</v>
-      </c>
-      <c r="J210" s="17">
-        <v>1</v>
-      </c>
+      <c r="I210" s="17"/>
+      <c r="J210" s="17"/>
       <c r="K210" s="17">
         <v>1</v>
       </c>
-      <c r="L210" s="17">
-        <v>1</v>
-      </c>
+      <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17">
         <v>1</v>
@@ -7565,77 +7540,73 @@
       <c r="A211" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="B211" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B211" s="36"/>
       <c r="C211" s="35" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
-      <c r="J211" s="17"/>
+      <c r="G211" s="17">
+        <v>1</v>
+      </c>
+      <c r="H211" s="17">
+        <v>1</v>
+      </c>
+      <c r="I211" s="17">
+        <v>1</v>
+      </c>
+      <c r="J211" s="17">
+        <v>1</v>
+      </c>
       <c r="K211" s="17">
         <v>1</v>
       </c>
-      <c r="L211" s="17"/>
-      <c r="M211" s="17"/>
+      <c r="L211" s="17">
+        <v>1</v>
+      </c>
+      <c r="M211" s="17">
+        <v>1</v>
+      </c>
       <c r="N211" s="17">
         <v>1</v>
       </c>
-      <c r="O211" s="17"/>
-      <c r="P211" s="17"/>
-      <c r="Q211" s="17"/>
+      <c r="O211" s="17">
+        <v>1</v>
+      </c>
+      <c r="P211" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="33" t="s">
         <v>176</v>
       </c>
       <c r="B212" s="34" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
       <c r="F212" s="45"/>
-      <c r="G212" s="17">
-        <v>1</v>
-      </c>
-      <c r="H212" s="17">
-        <v>1</v>
-      </c>
-      <c r="I212" s="17">
-        <v>1</v>
-      </c>
-      <c r="J212" s="17">
-        <v>1</v>
-      </c>
-      <c r="K212" s="17">
-        <v>1</v>
-      </c>
-      <c r="L212" s="17">
-        <v>1</v>
-      </c>
-      <c r="M212" s="17">
-        <v>1</v>
-      </c>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="17"/>
+      <c r="K212" s="17"/>
+      <c r="L212" s="17"/>
+      <c r="M212" s="17"/>
       <c r="N212" s="17">
         <v>1</v>
       </c>
-      <c r="O212" s="17">
-        <v>1</v>
-      </c>
-      <c r="P212" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q212" s="17">
-        <v>1</v>
-      </c>
+      <c r="O212" s="17"/>
+      <c r="P212" s="17"/>
+      <c r="Q212" s="17"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
@@ -7645,22 +7616,16 @@
         <v>6</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
       <c r="F213" s="45"/>
-      <c r="G213" s="17">
-        <v>1</v>
-      </c>
-      <c r="H213" s="17">
-        <v>1</v>
-      </c>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17">
-        <v>1</v>
-      </c>
+      <c r="K213" s="17"/>
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17">
@@ -7671,14 +7636,14 @@
       <c r="Q213" s="17"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B214" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>186</v>
+      <c r="A214" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B214" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="35" t="s">
+        <v>41</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -7687,48 +7652,66 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
-      <c r="K214" s="17"/>
+      <c r="K214" s="17">
+        <v>1</v>
+      </c>
       <c r="L214" s="17"/>
       <c r="M214" s="17"/>
-      <c r="N214" s="17"/>
+      <c r="N214" s="17">
+        <v>1</v>
+      </c>
       <c r="O214" s="17"/>
       <c r="P214" s="17"/>
       <c r="Q214" s="17"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B215" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" s="39" t="s">
-        <v>43</v>
+      <c r="A215" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B215" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C215" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
       <c r="F215" s="45"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="17"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="17"/>
+      <c r="G215" s="17">
+        <v>1</v>
+      </c>
+      <c r="H215" s="17">
+        <v>1</v>
+      </c>
+      <c r="I215" s="17">
+        <v>1</v>
+      </c>
+      <c r="J215" s="17">
+        <v>1</v>
+      </c>
+      <c r="K215" s="17">
+        <v>1</v>
+      </c>
+      <c r="L215" s="17">
+        <v>1</v>
+      </c>
       <c r="M215" s="17"/>
-      <c r="N215" s="17"/>
+      <c r="N215" s="17">
+        <v>1</v>
+      </c>
       <c r="O215" s="17"/>
       <c r="P215" s="17"/>
       <c r="Q215" s="17"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="B216" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" s="21" t="s">
-        <v>104</v>
+      <c r="A216" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B216" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="35" t="s">
+        <v>130</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
@@ -7737,23 +7720,27 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="17">
+        <v>1</v>
+      </c>
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
-      <c r="N216" s="17"/>
+      <c r="N216" s="17">
+        <v>1</v>
+      </c>
       <c r="O216" s="17"/>
       <c r="P216" s="17"/>
       <c r="Q216" s="17"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B217" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C217" s="39" t="s">
-        <v>10</v>
+      <c r="A217" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B217" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C217" s="35" t="s">
+        <v>168</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
@@ -7761,55 +7748,79 @@
       <c r="G217" s="17">
         <v>1</v>
       </c>
-      <c r="H217" s="17"/>
-      <c r="I217" s="17"/>
-      <c r="J217" s="17"/>
-      <c r="K217" s="17"/>
-      <c r="L217" s="17"/>
+      <c r="H217" s="17">
+        <v>1</v>
+      </c>
+      <c r="I217" s="17">
+        <v>1</v>
+      </c>
+      <c r="J217" s="17">
+        <v>1</v>
+      </c>
+      <c r="K217" s="17">
+        <v>1</v>
+      </c>
+      <c r="L217" s="17">
+        <v>1</v>
+      </c>
       <c r="M217" s="17">
         <v>1</v>
       </c>
-      <c r="N217" s="17"/>
-      <c r="O217" s="17"/>
-      <c r="P217" s="17"/>
-      <c r="Q217" s="17"/>
+      <c r="N217" s="17">
+        <v>1</v>
+      </c>
+      <c r="O217" s="17">
+        <v>1</v>
+      </c>
+      <c r="P217" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B218" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C218" s="39" t="s">
-        <v>90</v>
+      <c r="A218" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B218" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="35" t="s">
+        <v>50</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
       <c r="F218" s="45"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
+      <c r="G218" s="17">
+        <v>1</v>
+      </c>
+      <c r="H218" s="17">
+        <v>1</v>
+      </c>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="17">
+        <v>1</v>
+      </c>
       <c r="L218" s="17"/>
-      <c r="M218" s="17">
-        <v>1</v>
-      </c>
-      <c r="N218" s="17"/>
+      <c r="M218" s="17"/>
+      <c r="N218" s="17">
+        <v>1</v>
+      </c>
       <c r="O218" s="17"/>
       <c r="P218" s="17"/>
       <c r="Q218" s="17"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B219" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C219" s="39" t="s">
-        <v>234</v>
+      <c r="A219" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
@@ -7820,9 +7831,7 @@
       <c r="J219" s="17"/>
       <c r="K219" s="17"/>
       <c r="L219" s="17"/>
-      <c r="M219" s="17">
-        <v>1</v>
-      </c>
+      <c r="M219" s="17"/>
       <c r="N219" s="17"/>
       <c r="O219" s="17"/>
       <c r="P219" s="17"/>
@@ -7830,13 +7839,13 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="37" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="B220" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>135</v>
+        <v>43</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
@@ -7847,40 +7856,32 @@
       <c r="J220" s="17"/>
       <c r="K220" s="17"/>
       <c r="L220" s="17"/>
-      <c r="M220" s="17">
-        <v>1</v>
-      </c>
+      <c r="M220" s="17"/>
       <c r="N220" s="17"/>
       <c r="O220" s="17"/>
       <c r="P220" s="17"/>
       <c r="Q220" s="17"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="B221" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C221" s="39" t="s">
-        <v>17</v>
+      <c r="A221" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B221" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="21" t="s">
+        <v>104</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
       <c r="F221" s="45"/>
       <c r="G221" s="17"/>
-      <c r="H221" s="17">
-        <v>1</v>
-      </c>
+      <c r="H221" s="17"/>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
-      <c r="K221" s="17">
-        <v>1</v>
-      </c>
+      <c r="K221" s="17"/>
       <c r="L221" s="17"/>
-      <c r="M221" s="17">
-        <v>1</v>
-      </c>
+      <c r="M221" s="17"/>
       <c r="N221" s="17"/>
       <c r="O221" s="17"/>
       <c r="P221" s="17"/>
@@ -7891,25 +7892,21 @@
         <v>44</v>
       </c>
       <c r="B222" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
       <c r="F222" s="45"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17">
-        <v>1</v>
-      </c>
-      <c r="I222" s="17">
-        <v>1</v>
-      </c>
+      <c r="G222" s="17">
+        <v>1</v>
+      </c>
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
       <c r="J222" s="17"/>
-      <c r="K222" s="17">
-        <v>1</v>
-      </c>
+      <c r="K222" s="17"/>
       <c r="L222" s="17"/>
       <c r="M222" s="17">
         <v>1</v>
@@ -7924,10 +7921,10 @@
         <v>44</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
@@ -7954,7 +7951,7 @@
         <v>6</v>
       </c>
       <c r="C224" s="39" t="s">
-        <v>97</v>
+        <v>234</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7963,9 +7960,7 @@
       <c r="H224" s="17"/>
       <c r="I224" s="17"/>
       <c r="J224" s="17"/>
-      <c r="K224" s="17">
-        <v>1</v>
-      </c>
+      <c r="K224" s="17"/>
       <c r="L224" s="17"/>
       <c r="M224" s="17">
         <v>1</v>
@@ -7980,10 +7975,10 @@
         <v>44</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7992,11 +7987,11 @@
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
-      <c r="K225" s="17">
-        <v>1</v>
-      </c>
+      <c r="K225" s="17"/>
       <c r="L225" s="17"/>
-      <c r="M225" s="17"/>
+      <c r="M225" s="17">
+        <v>1</v>
+      </c>
       <c r="N225" s="17"/>
       <c r="O225" s="17"/>
       <c r="P225" s="17"/>
@@ -8010,20 +8005,24 @@
         <v>6</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>279</v>
+        <v>17</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
       <c r="F226" s="45"/>
       <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
+      <c r="H226" s="17">
+        <v>1</v>
+      </c>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
       <c r="K226" s="17">
         <v>1</v>
       </c>
       <c r="L226" s="17"/>
-      <c r="M226" s="17"/>
+      <c r="M226" s="17">
+        <v>1</v>
+      </c>
       <c r="N226" s="17"/>
       <c r="O226" s="17"/>
       <c r="P226" s="17"/>
@@ -8034,23 +8033,29 @@
         <v>44</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C227" s="39" t="s">
-        <v>281</v>
+        <v>61</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
       <c r="F227" s="45"/>
       <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
+      <c r="H227" s="17">
+        <v>1</v>
+      </c>
+      <c r="I227" s="17">
+        <v>1</v>
+      </c>
       <c r="J227" s="17"/>
       <c r="K227" s="17">
         <v>1</v>
       </c>
       <c r="L227" s="17"/>
-      <c r="M227" s="17"/>
+      <c r="M227" s="17">
+        <v>1</v>
+      </c>
       <c r="N227" s="17"/>
       <c r="O227" s="17"/>
       <c r="P227" s="17"/>
@@ -8061,10 +8066,10 @@
         <v>44</v>
       </c>
       <c r="B228" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C228" s="39" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
@@ -8088,21 +8093,21 @@
         <v>44</v>
       </c>
       <c r="B229" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
       <c r="F229" s="45"/>
-      <c r="G229" s="17">
-        <v>1</v>
-      </c>
+      <c r="G229" s="17"/>
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
-      <c r="K229" s="17"/>
+      <c r="K229" s="17">
+        <v>1</v>
+      </c>
       <c r="L229" s="17"/>
       <c r="M229" s="17">
         <v>1</v>
@@ -8120,69 +8125,47 @@
         <v>6</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
       <c r="F230" s="45"/>
-      <c r="G230" s="17">
-        <v>1</v>
-      </c>
-      <c r="H230" s="17">
-        <v>1</v>
-      </c>
-      <c r="I230" s="17">
-        <v>1</v>
-      </c>
-      <c r="J230" s="17">
-        <v>1</v>
-      </c>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
       <c r="K230" s="17">
         <v>1</v>
       </c>
-      <c r="L230" s="17">
-        <v>1</v>
-      </c>
-      <c r="M230" s="17">
-        <v>1</v>
-      </c>
-      <c r="N230" s="17">
-        <v>1</v>
-      </c>
-      <c r="O230" s="17">
-        <v>1</v>
-      </c>
-      <c r="P230" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q230" s="17">
-        <v>1</v>
-      </c>
+      <c r="L230" s="17"/>
+      <c r="M230" s="17"/>
+      <c r="N230" s="17"/>
+      <c r="O230" s="17"/>
+      <c r="P230" s="17"/>
+      <c r="Q230" s="17"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>70</v>
+        <v>279</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
       <c r="F231" s="45"/>
-      <c r="G231" s="17">
-        <v>1</v>
-      </c>
+      <c r="G231" s="17"/>
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
-      <c r="K231" s="17"/>
+      <c r="K231" s="17">
+        <v>1</v>
+      </c>
       <c r="L231" s="17"/>
-      <c r="M231" s="17">
-        <v>1</v>
-      </c>
+      <c r="M231" s="17"/>
       <c r="N231" s="17"/>
       <c r="O231" s="17"/>
       <c r="P231" s="17"/>
@@ -8196,32 +8179,20 @@
         <v>6</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
       <c r="F232" s="45"/>
-      <c r="G232" s="17">
-        <v>1</v>
-      </c>
-      <c r="H232" s="17">
-        <v>1</v>
-      </c>
-      <c r="I232" s="17">
-        <v>1</v>
-      </c>
-      <c r="J232" s="17">
-        <v>1</v>
-      </c>
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
       <c r="K232" s="17">
         <v>1</v>
       </c>
-      <c r="L232" s="17">
-        <v>1</v>
-      </c>
-      <c r="M232" s="17">
-        <v>1</v>
-      </c>
+      <c r="L232" s="17"/>
+      <c r="M232" s="17"/>
       <c r="N232" s="17"/>
       <c r="O232" s="17"/>
       <c r="P232" s="17"/>
@@ -8232,10 +8203,10 @@
         <v>44</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
@@ -8259,21 +8230,21 @@
         <v>44</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
       <c r="F234" s="45"/>
-      <c r="G234" s="17"/>
+      <c r="G234" s="17">
+        <v>1</v>
+      </c>
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
-      <c r="K234" s="17">
-        <v>1</v>
-      </c>
+      <c r="K234" s="17"/>
       <c r="L234" s="17"/>
       <c r="M234" s="17">
         <v>1</v>
@@ -8291,34 +8262,54 @@
         <v>6</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
       <c r="F235" s="45"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="17"/>
-      <c r="K235" s="17"/>
-      <c r="L235" s="17"/>
+      <c r="G235" s="17">
+        <v>1</v>
+      </c>
+      <c r="H235" s="17">
+        <v>1</v>
+      </c>
+      <c r="I235" s="17">
+        <v>1</v>
+      </c>
+      <c r="J235" s="17">
+        <v>1</v>
+      </c>
+      <c r="K235" s="17">
+        <v>1</v>
+      </c>
+      <c r="L235" s="17">
+        <v>1</v>
+      </c>
       <c r="M235" s="17">
         <v>1</v>
       </c>
-      <c r="N235" s="17"/>
-      <c r="O235" s="17"/>
-      <c r="P235" s="17"/>
-      <c r="Q235" s="17"/>
+      <c r="N235" s="17">
+        <v>1</v>
+      </c>
+      <c r="O235" s="17">
+        <v>1</v>
+      </c>
+      <c r="P235" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q235" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="37" t="s">
         <v>44</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
@@ -8326,14 +8317,10 @@
       <c r="G236" s="17">
         <v>1</v>
       </c>
-      <c r="H236" s="17">
-        <v>1</v>
-      </c>
+      <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
-      <c r="K236" s="17">
-        <v>1</v>
-      </c>
+      <c r="K236" s="17"/>
       <c r="L236" s="17"/>
       <c r="M236" s="17">
         <v>1</v>
@@ -8351,19 +8338,29 @@
         <v>6</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
       <c r="F237" s="45"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="17"/>
+      <c r="G237" s="17">
+        <v>1</v>
+      </c>
+      <c r="H237" s="17">
+        <v>1</v>
+      </c>
+      <c r="I237" s="17">
+        <v>1</v>
+      </c>
+      <c r="J237" s="17">
+        <v>1</v>
+      </c>
       <c r="K237" s="17">
         <v>1</v>
       </c>
-      <c r="L237" s="17"/>
+      <c r="L237" s="17">
+        <v>1</v>
+      </c>
       <c r="M237" s="17">
         <v>1</v>
       </c>
@@ -8377,25 +8374,19 @@
         <v>44</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
       <c r="F238" s="45"/>
-      <c r="G238" s="17">
-        <v>1</v>
-      </c>
-      <c r="H238" s="17">
-        <v>1</v>
-      </c>
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
       <c r="I238" s="17"/>
       <c r="J238" s="17"/>
-      <c r="K238" s="17">
-        <v>1</v>
-      </c>
+      <c r="K238" s="17"/>
       <c r="L238" s="17"/>
       <c r="M238" s="17">
         <v>1</v>
@@ -8406,12 +8397,14 @@
       <c r="Q238" s="17"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A239" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B239" s="40"/>
-      <c r="C239" s="13" t="s">
-        <v>0</v>
+      <c r="A239" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B239" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
@@ -8420,52 +8413,54 @@
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
       <c r="J239" s="17"/>
-      <c r="K239" s="17"/>
+      <c r="K239" s="17">
+        <v>1</v>
+      </c>
       <c r="L239" s="17"/>
-      <c r="M239" s="17"/>
+      <c r="M239" s="17">
+        <v>1</v>
+      </c>
       <c r="N239" s="17"/>
       <c r="O239" s="17"/>
       <c r="P239" s="17"/>
       <c r="Q239" s="17"/>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A240" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B240" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>139</v>
+      <c r="A240" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B240" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
       <c r="F240" s="45"/>
-      <c r="G240" s="17">
-        <v>1</v>
-      </c>
-      <c r="H240" s="17">
-        <v>1</v>
-      </c>
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
       <c r="K240" s="17"/>
       <c r="L240" s="17"/>
-      <c r="M240" s="17"/>
+      <c r="M240" s="17">
+        <v>1</v>
+      </c>
       <c r="N240" s="17"/>
       <c r="O240" s="17"/>
       <c r="P240" s="17"/>
       <c r="Q240" s="17"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A241" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C241" s="13" t="s">
-        <v>143</v>
+      <c r="A241" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
@@ -8482,21 +8477,23 @@
         <v>1</v>
       </c>
       <c r="L241" s="17"/>
-      <c r="M241" s="17"/>
+      <c r="M241" s="17">
+        <v>1</v>
+      </c>
       <c r="N241" s="17"/>
       <c r="O241" s="17"/>
       <c r="P241" s="17"/>
       <c r="Q241" s="17"/>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A242" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B242" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>249</v>
+      <c r="A242" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" s="39" t="s">
+        <v>278</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
@@ -8505,34 +8502,46 @@
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
       <c r="J242" s="17"/>
-      <c r="K242" s="17"/>
+      <c r="K242" s="17">
+        <v>1</v>
+      </c>
       <c r="L242" s="17"/>
-      <c r="M242" s="17"/>
+      <c r="M242" s="17">
+        <v>1</v>
+      </c>
       <c r="N242" s="17"/>
       <c r="O242" s="17"/>
       <c r="P242" s="17"/>
       <c r="Q242" s="17"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A243" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>148</v>
+      <c r="A243" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B243" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="39" t="s">
+        <v>51</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
       <c r="F243" s="45"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
+      <c r="G243" s="17">
+        <v>1</v>
+      </c>
+      <c r="H243" s="17">
+        <v>1</v>
+      </c>
       <c r="I243" s="17"/>
       <c r="J243" s="17"/>
-      <c r="K243" s="17"/>
+      <c r="K243" s="17">
+        <v>1</v>
+      </c>
       <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
+      <c r="M243" s="17">
+        <v>1</v>
+      </c>
       <c r="N243" s="17"/>
       <c r="O243" s="17"/>
       <c r="P243" s="17"/>
@@ -8542,24 +8551,18 @@
       <c r="A244" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B244" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="B244" s="40"/>
       <c r="C244" s="13" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
       <c r="F244" s="45"/>
       <c r="G244" s="17"/>
-      <c r="H244" s="17">
-        <v>1</v>
-      </c>
+      <c r="H244" s="17"/>
       <c r="I244" s="17"/>
       <c r="J244" s="17"/>
-      <c r="K244" s="17">
-        <v>1</v>
-      </c>
+      <c r="K244" s="17"/>
       <c r="L244" s="17"/>
       <c r="M244" s="17"/>
       <c r="N244" s="17"/>
@@ -8575,7 +8578,7 @@
         <v>53</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>213</v>
+        <v>139</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8586,33 +8589,15 @@
       <c r="H245" s="17">
         <v>1</v>
       </c>
-      <c r="I245" s="17">
-        <v>1</v>
-      </c>
-      <c r="J245" s="17">
-        <v>1</v>
-      </c>
-      <c r="K245" s="17">
-        <v>1</v>
-      </c>
-      <c r="L245" s="17">
-        <v>1</v>
-      </c>
-      <c r="M245" s="17">
-        <v>1</v>
-      </c>
-      <c r="N245" s="17">
-        <v>1</v>
-      </c>
-      <c r="O245" s="17">
-        <v>1</v>
-      </c>
-      <c r="P245" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q245" s="17">
-        <v>1</v>
-      </c>
+      <c r="I245" s="17"/>
+      <c r="J245" s="17"/>
+      <c r="K245" s="17"/>
+      <c r="L245" s="17"/>
+      <c r="M245" s="17"/>
+      <c r="N245" s="17"/>
+      <c r="O245" s="17"/>
+      <c r="P245" s="17"/>
+      <c r="Q245" s="17"/>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="s">
@@ -8622,7 +8607,7 @@
         <v>53</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8633,366 +8618,528 @@
       <c r="H246" s="17">
         <v>1</v>
       </c>
-      <c r="I246" s="17">
-        <v>1</v>
-      </c>
-      <c r="J246" s="17">
-        <v>1</v>
-      </c>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
       <c r="K246" s="17">
         <v>1</v>
       </c>
-      <c r="L246" s="17">
-        <v>1</v>
-      </c>
-      <c r="M246" s="17">
-        <v>1</v>
-      </c>
-      <c r="N246" s="17">
-        <v>1</v>
-      </c>
-      <c r="O246" s="17">
-        <v>1</v>
-      </c>
-      <c r="P246" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q246" s="17">
-        <v>1</v>
-      </c>
+      <c r="L246" s="17"/>
+      <c r="M246" s="17"/>
+      <c r="N246" s="17"/>
+      <c r="O246" s="17"/>
+      <c r="P246" s="17"/>
+      <c r="Q246" s="17"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B247" s="12" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
       <c r="F247" s="45"/>
-      <c r="G247" s="17">
-        <v>1</v>
-      </c>
-      <c r="H247" s="17">
-        <v>1</v>
-      </c>
-      <c r="I247" s="17">
-        <v>1</v>
-      </c>
-      <c r="J247" s="17">
-        <v>1</v>
-      </c>
-      <c r="K247" s="17">
-        <v>1</v>
-      </c>
-      <c r="L247" s="17">
-        <v>1</v>
-      </c>
-      <c r="M247" s="17">
-        <v>1</v>
-      </c>
-      <c r="N247" s="17">
-        <v>1</v>
-      </c>
-      <c r="O247" s="17">
-        <v>1</v>
-      </c>
-      <c r="P247" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q247" s="17">
-        <v>1</v>
-      </c>
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
+      <c r="M247" s="17"/>
+      <c r="N247" s="17"/>
+      <c r="O247" s="17"/>
+      <c r="P247" s="17"/>
+      <c r="Q247" s="17"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C248" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D248" s="45"/>
+      <c r="E248" s="45"/>
+      <c r="F248" s="45"/>
+      <c r="G248" s="17"/>
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
+      <c r="M248" s="17"/>
+      <c r="N248" s="17"/>
+      <c r="O248" s="17"/>
+      <c r="P248" s="17"/>
+      <c r="Q248" s="17"/>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A249" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D249" s="45"/>
+      <c r="E249" s="45"/>
+      <c r="F249" s="45"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17">
+        <v>1</v>
+      </c>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17">
+        <v>1</v>
+      </c>
+      <c r="L249" s="17"/>
+      <c r="M249" s="17"/>
+      <c r="N249" s="17"/>
+      <c r="O249" s="17"/>
+      <c r="P249" s="17"/>
+      <c r="Q249" s="17"/>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A250" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D250" s="45"/>
+      <c r="E250" s="45"/>
+      <c r="F250" s="45"/>
+      <c r="G250" s="17">
+        <v>1</v>
+      </c>
+      <c r="H250" s="17">
+        <v>1</v>
+      </c>
+      <c r="I250" s="17">
+        <v>1</v>
+      </c>
+      <c r="J250" s="17">
+        <v>1</v>
+      </c>
+      <c r="K250" s="17">
+        <v>1</v>
+      </c>
+      <c r="L250" s="17">
+        <v>1</v>
+      </c>
+      <c r="M250" s="17">
+        <v>1</v>
+      </c>
+      <c r="N250" s="17">
+        <v>1</v>
+      </c>
+      <c r="O250" s="17">
+        <v>1</v>
+      </c>
+      <c r="P250" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A251" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C251" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D251" s="45"/>
+      <c r="E251" s="45"/>
+      <c r="F251" s="45"/>
+      <c r="G251" s="17">
+        <v>1</v>
+      </c>
+      <c r="H251" s="17">
+        <v>1</v>
+      </c>
+      <c r="I251" s="17">
+        <v>1</v>
+      </c>
+      <c r="J251" s="17">
+        <v>1</v>
+      </c>
+      <c r="K251" s="17">
+        <v>1</v>
+      </c>
+      <c r="L251" s="17">
+        <v>1</v>
+      </c>
+      <c r="M251" s="17">
+        <v>1</v>
+      </c>
+      <c r="N251" s="17">
+        <v>1</v>
+      </c>
+      <c r="O251" s="17">
+        <v>1</v>
+      </c>
+      <c r="P251" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q251" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A252" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D252" s="45"/>
+      <c r="E252" s="45"/>
+      <c r="F252" s="45"/>
+      <c r="G252" s="17">
+        <v>1</v>
+      </c>
+      <c r="H252" s="17">
+        <v>1</v>
+      </c>
+      <c r="I252" s="17">
+        <v>1</v>
+      </c>
+      <c r="J252" s="17">
+        <v>1</v>
+      </c>
+      <c r="K252" s="17">
+        <v>1</v>
+      </c>
+      <c r="L252" s="17">
+        <v>1</v>
+      </c>
+      <c r="M252" s="17">
+        <v>1</v>
+      </c>
+      <c r="N252" s="17">
+        <v>1</v>
+      </c>
+      <c r="O252" s="17">
+        <v>1</v>
+      </c>
+      <c r="P252" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q252" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A253" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D248" s="48"/>
-      <c r="E248" s="48"/>
-      <c r="F248" s="48"/>
-      <c r="G248" s="54"/>
-      <c r="H248" s="54">
-        <v>1</v>
-      </c>
-      <c r="I248" s="54"/>
-      <c r="J248" s="54"/>
-      <c r="K248" s="54">
-        <v>1</v>
-      </c>
-      <c r="L248" s="54"/>
-      <c r="M248" s="54"/>
-      <c r="N248" s="54"/>
-      <c r="O248" s="54"/>
-      <c r="P248" s="54"/>
-      <c r="Q248" s="54"/>
+      <c r="D253" s="48"/>
+      <c r="E253" s="48"/>
+      <c r="F253" s="48"/>
+      <c r="G253" s="54"/>
+      <c r="H253" s="54">
+        <v>1</v>
+      </c>
+      <c r="I253" s="54"/>
+      <c r="J253" s="54"/>
+      <c r="K253" s="54">
+        <v>1</v>
+      </c>
+      <c r="L253" s="54"/>
+      <c r="M253" s="54"/>
+      <c r="N253" s="54"/>
+      <c r="O253" s="54"/>
+      <c r="P253" s="54"/>
+      <c r="Q253" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q248" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q248">
-      <sortCondition ref="A1:A248"/>
+  <autoFilter ref="A1:Q253" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q253">
+      <sortCondition ref="A1:A253"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q247">
-    <sortCondition ref="A2:A247"/>
-    <sortCondition ref="C2:C247"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q252">
+    <sortCondition ref="A2:A252"/>
+    <sortCondition ref="C2:C252"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C77" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C202" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
-    <hyperlink ref="C18" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C217" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C218" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C148" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C149" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
-    <hyperlink ref="C33" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
-    <hyperlink ref="C52" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C219" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
-    <hyperlink ref="C28" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C203" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
-    <hyperlink ref="C79" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C150" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C221" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C151" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
-    <hyperlink ref="C81" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
-    <hyperlink ref="C82" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
-    <hyperlink ref="C83" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
-    <hyperlink ref="C84" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
-    <hyperlink ref="C86" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
-    <hyperlink ref="C87" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C153" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C154" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C155" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C189" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C192" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C191" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C205" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C224" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
-    <hyperlink ref="C35" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C185" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C186" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C187" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
-    <hyperlink ref="C48" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C228" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C207" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C82" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
+    <hyperlink ref="C207" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C23" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
+    <hyperlink ref="C222" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C223" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C153" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C154" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C38" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
+    <hyperlink ref="C57" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
+    <hyperlink ref="C224" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C33" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
+    <hyperlink ref="C208" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C84" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
+    <hyperlink ref="C155" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C226" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C156" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C86" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
+    <hyperlink ref="C87" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
+    <hyperlink ref="C88" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
+    <hyperlink ref="C89" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
+    <hyperlink ref="C91" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
+    <hyperlink ref="C92" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
+    <hyperlink ref="C158" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C159" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C160" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C194" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C197" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C196" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C210" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C229" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C40" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
+    <hyperlink ref="C190" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C191" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C192" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C53" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
+    <hyperlink ref="C233" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C212" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C216" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
-    <hyperlink ref="C58" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C230" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C103" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C104" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C105" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C106" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C107" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C108" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C109" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C232" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
-    <hyperlink ref="C13" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
-    <hyperlink ref="C37" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C156" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
-    <hyperlink ref="C60" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C208" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C161" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C159" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C160" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C162" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
-    <hyperlink ref="C39" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C163" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C209" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
-    <hyperlink ref="C50" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C164" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C215" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C234" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C235" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C196" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
-    <hyperlink ref="C40" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C165" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C236" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C237" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C197" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C199" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
-    <hyperlink ref="C25" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C248" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
-    <hyperlink ref="C62" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C182" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C200" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C211" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C183" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C213" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C238" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C184" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C95" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C201" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
-    <hyperlink ref="C17" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
+    <hyperlink ref="C221" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C63" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
+    <hyperlink ref="C235" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C108" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C109" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C110" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C111" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C112" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C113" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C114" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C237" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C18" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
+    <hyperlink ref="C42" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
+    <hyperlink ref="C161" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C65" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
+    <hyperlink ref="C213" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C166" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C164" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C165" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C167" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C44" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
+    <hyperlink ref="C168" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C214" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C55" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
+    <hyperlink ref="C169" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C220" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C239" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C240" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C201" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C45" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
+    <hyperlink ref="C170" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C241" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C242" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C202" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C204" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C30" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
+    <hyperlink ref="C253" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C67" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
+    <hyperlink ref="C187" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C205" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C216" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C188" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C218" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C243" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C189" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C100" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C206" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C22" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C113" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
-    <hyperlink ref="C67" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
-    <hyperlink ref="C29" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C220" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C204" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C152" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
-    <hyperlink ref="C85" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C222" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C114" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C115" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C223" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C120" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
-    <hyperlink ref="C68" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
-    <hyperlink ref="C69" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
-    <hyperlink ref="C70" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C240" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
-    <hyperlink ref="C34" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
-    <hyperlink ref="C45" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
-    <hyperlink ref="C46" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C241" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C121" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
-    <hyperlink ref="C47" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
+    <hyperlink ref="C118" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C72" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
+    <hyperlink ref="C34" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
+    <hyperlink ref="C225" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C209" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C157" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C90" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
+    <hyperlink ref="C227" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C119" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C120" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C228" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C125" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C73" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
+    <hyperlink ref="C74" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
+    <hyperlink ref="C75" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
+    <hyperlink ref="C245" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C39" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
+    <hyperlink ref="C50" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
+    <hyperlink ref="C51" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
+    <hyperlink ref="C246" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C126" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C52" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
-    <hyperlink ref="C19" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C243" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C244" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C122" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C123" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C99" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C229" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C231" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
-    <hyperlink ref="C71" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
-    <hyperlink ref="C9" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
-    <hyperlink ref="C10" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
-    <hyperlink ref="C11" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
-    <hyperlink ref="C12" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
-    <hyperlink ref="C38" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C93" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C125" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C100" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
-    <hyperlink ref="C21" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C233" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
-    <hyperlink ref="C14" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
-    <hyperlink ref="C20" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
-    <hyperlink ref="C72" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C127" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C128" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
-    <hyperlink ref="C73" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
-    <hyperlink ref="C15" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
-    <hyperlink ref="C16" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C129" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
-    <hyperlink ref="C75" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C210" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C130" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
-    <hyperlink ref="C66" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
-    <hyperlink ref="C22" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
-    <hyperlink ref="C23" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C247" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
-    <hyperlink ref="C24" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C101" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C144" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
-    <hyperlink ref="C76" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C145" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C146" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C147" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C212" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C97" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C239" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C188" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C206" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C102" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
-    <hyperlink ref="C41" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
-    <hyperlink ref="C36" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C245" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
-    <hyperlink ref="C90" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
-    <hyperlink ref="C26" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C198" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
-    <hyperlink ref="C65" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
-    <hyperlink ref="C64" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
+    <hyperlink ref="C24" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
+    <hyperlink ref="C248" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C249" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C127" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C128" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C104" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C234" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C236" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C76" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
+    <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
+    <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
+    <hyperlink ref="C16" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
+    <hyperlink ref="C17" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
+    <hyperlink ref="C43" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
+    <hyperlink ref="C98" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C130" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C105" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C26" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
+    <hyperlink ref="C238" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C19" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
+    <hyperlink ref="C25" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
+    <hyperlink ref="C77" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
+    <hyperlink ref="C132" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C133" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C78" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
+    <hyperlink ref="C20" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
+    <hyperlink ref="C21" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
+    <hyperlink ref="C134" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C80" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
+    <hyperlink ref="C215" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C135" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C71" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
+    <hyperlink ref="C27" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
+    <hyperlink ref="C28" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
+    <hyperlink ref="C252" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C29" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
+    <hyperlink ref="C106" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C149" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C81" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
+    <hyperlink ref="C150" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C151" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C152" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C217" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C102" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C244" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C193" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C211" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C107" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C46" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
+    <hyperlink ref="C41" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
+    <hyperlink ref="C250" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C95" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
+    <hyperlink ref="C31" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
+    <hyperlink ref="C203" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C70" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
+    <hyperlink ref="C69" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
-    <hyperlink ref="C8" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
+    <hyperlink ref="C9" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C92" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
-    <hyperlink ref="C89" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
-    <hyperlink ref="C51" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
-    <hyperlink ref="C43" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
-    <hyperlink ref="C42" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
-    <hyperlink ref="C44" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C157" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C242" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
-    <hyperlink ref="C80" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
-    <hyperlink ref="C78" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C94" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
-    <hyperlink ref="C88" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C133" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C134" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C138" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C139" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C140" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C141" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C142" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C132" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C143" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C131" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C135" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C136" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C126" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C166" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C177" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C167" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C169" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C168" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C175" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C173" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C170" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C174" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C179" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C180" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C181" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C178" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C171" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C176" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C172" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C246" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C137" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C116" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C117" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C118" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C119" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C190" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
-    <hyperlink ref="C27" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
-    <hyperlink ref="C30" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
-    <hyperlink ref="C31" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
-    <hyperlink ref="C32" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C214" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C194" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C195" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
-    <hyperlink ref="C53" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
-    <hyperlink ref="C54" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
-    <hyperlink ref="C55" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
-    <hyperlink ref="C56" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C110" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C111" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C112" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
-    <hyperlink ref="C49" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C225" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C227" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C226" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C158" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
-    <hyperlink ref="C91" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
-    <hyperlink ref="C124" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C193" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
-    <hyperlink ref="C74" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
-    <hyperlink ref="C59" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
-    <hyperlink ref="C61" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
-    <hyperlink ref="C63" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
-    <hyperlink ref="C57" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
+    <hyperlink ref="C97" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C94" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
+    <hyperlink ref="C56" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
+    <hyperlink ref="C48" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
+    <hyperlink ref="C47" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
+    <hyperlink ref="C49" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
+    <hyperlink ref="C162" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C247" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C85" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
+    <hyperlink ref="C83" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
+    <hyperlink ref="C99" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C93" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
+    <hyperlink ref="C138" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C139" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C143" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C144" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C145" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C146" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C147" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C137" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C148" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C136" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C140" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C141" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C131" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C171" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C182" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C172" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C174" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C173" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C180" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C178" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C175" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C179" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C184" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C185" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C186" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C183" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C176" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C181" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C177" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C251" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C142" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C121" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C122" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C123" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C124" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C195" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C32" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
+    <hyperlink ref="C35" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
+    <hyperlink ref="C36" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
+    <hyperlink ref="C37" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
+    <hyperlink ref="C219" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C199" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C200" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C58" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
+    <hyperlink ref="C59" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
+    <hyperlink ref="C60" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
+    <hyperlink ref="C61" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
+    <hyperlink ref="C115" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C116" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C117" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C54" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
+    <hyperlink ref="C230" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C232" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C231" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C163" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C96" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
+    <hyperlink ref="C129" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C198" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C79" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
+    <hyperlink ref="C64" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
+    <hyperlink ref="C66" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
+    <hyperlink ref="C68" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
+    <hyperlink ref="C62" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
+    <hyperlink ref="C10" r:id="rId246" xr:uid="{666E9BB7-4380-324A-B6C1-29F29C3FE1C0}"/>
+    <hyperlink ref="C12" r:id="rId247" xr:uid="{E5C74CD9-B0F4-B643-B5C5-C17DE12B91CA}"/>
+    <hyperlink ref="C8" r:id="rId248" xr:uid="{F4DFDDD1-B34C-4B4D-BCC8-3F72037E5C85}"/>
+    <hyperlink ref="C13" r:id="rId249" xr:uid="{83DFEBC3-E8B1-A840-9964-33EB0A44BF40}"/>
+    <hyperlink ref="C11" r:id="rId250" xr:uid="{27A3B616-FD7B-514A-B8BE-D948ED83FC6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A6789-0B1B-BD46-A9DC-DE7D25EEB958}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DA99C-1FEF-CD47-A78C-FCCD4D30ECD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>AWS</t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
     <t>Amplify</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>Lookout for Vision</t>
   </si>
   <si>
-    <t>Managed Streaming for Apache Kafka</t>
-  </si>
-  <si>
     <t>Quantum Ledger Database (QLDB)</t>
   </si>
   <si>
@@ -920,6 +914,12 @@
   </si>
   <si>
     <t>Glue Studio</t>
+  </si>
+  <si>
+    <t>Managed Streaming for Apache Kafka (MSK)</t>
+  </si>
+  <si>
+    <t>Service / Feature</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1656,64 +1656,64 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="L1" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="52" t="s">
+      <c r="P1" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="Q1" s="53" t="s">
         <v>238</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="53" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45"/>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1763,13 +1763,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -1821,13 +1821,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -1846,13 +1846,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
@@ -1950,13 +1950,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -1977,13 +1977,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
@@ -2027,13 +2027,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
@@ -2060,13 +2060,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -2126,13 +2126,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -2153,13 +2153,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
@@ -2234,13 +2234,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
@@ -2269,13 +2269,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -2294,13 +2294,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -2319,13 +2319,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -2344,13 +2344,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
@@ -2394,13 +2394,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
@@ -2441,13 +2441,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
@@ -2488,13 +2488,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -2571,11 +2571,11 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B32" s="38"/>
       <c r="C32" s="39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
@@ -2594,13 +2594,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -2669,13 +2669,13 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="45"/>
@@ -2694,13 +2694,13 @@
     </row>
     <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="39" t="s">
         <v>215</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>217</v>
       </c>
       <c r="D37" s="45"/>
       <c r="E37" s="46"/>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
@@ -2750,13 +2750,13 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -2797,13 +2797,13 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
@@ -2920,13 +2920,13 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
@@ -2972,13 +2972,13 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="18"/>
       <c r="C46" s="16" t="s">
@@ -3020,13 +3020,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -3045,13 +3045,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
@@ -3070,13 +3070,13 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -3095,13 +3095,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
@@ -3120,13 +3120,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -3186,13 +3186,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
@@ -3242,13 +3242,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -3267,11 +3267,11 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
@@ -3317,13 +3317,13 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
@@ -3342,13 +3342,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
@@ -3369,13 +3369,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
@@ -3396,11 +3396,11 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
@@ -3450,13 +3450,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -3475,13 +3475,13 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
@@ -3527,13 +3527,13 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
@@ -3552,13 +3552,13 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
@@ -3579,13 +3579,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
@@ -3604,13 +3604,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -3629,13 +3629,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
@@ -3679,13 +3679,13 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
@@ -3718,13 +3718,13 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -3749,13 +3749,13 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -3796,13 +3796,13 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -3831,13 +3831,13 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
@@ -3858,13 +3858,13 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
@@ -3887,13 +3887,13 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="45"/>
@@ -3916,13 +3916,13 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
@@ -3941,13 +3941,13 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
@@ -3974,13 +3974,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
@@ -4001,13 +4001,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="45"/>
@@ -4026,13 +4026,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -4051,13 +4051,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="45"/>
@@ -4076,13 +4076,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="45"/>
@@ -4101,13 +4101,13 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="45"/>
@@ -4126,13 +4126,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="45"/>
@@ -4153,13 +4153,13 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
@@ -4180,13 +4180,13 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
@@ -4207,13 +4207,13 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
@@ -4284,13 +4284,13 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B93" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
@@ -4311,13 +4311,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
@@ -4336,13 +4336,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
@@ -4361,13 +4361,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
@@ -4411,13 +4411,13 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -4436,13 +4436,13 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
@@ -4461,13 +4461,13 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B100" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
@@ -4488,13 +4488,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
@@ -4513,13 +4513,13 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
@@ -4538,13 +4538,13 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
@@ -4563,13 +4563,13 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
@@ -4588,13 +4588,13 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -4613,13 +4613,13 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="27" t="s">
@@ -4661,13 +4661,13 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B108" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
@@ -4686,13 +4686,13 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B109" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
@@ -4711,13 +4711,13 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B110" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -4736,13 +4736,13 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B111" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -4761,13 +4761,13 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="45"/>
@@ -4786,13 +4786,13 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B113" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
@@ -4811,13 +4811,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B114" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
@@ -4836,13 +4836,13 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B115" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
@@ -4861,13 +4861,13 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="45"/>
@@ -4886,13 +4886,13 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
@@ -4911,13 +4911,13 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
@@ -4938,13 +4938,13 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
@@ -4965,13 +4965,13 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D120" s="45"/>
       <c r="E120" s="45"/>
@@ -4992,13 +4992,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5019,13 +5019,13 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="45"/>
@@ -5044,13 +5044,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
@@ -5069,13 +5069,13 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
@@ -5094,13 +5094,13 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
@@ -5121,13 +5121,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D126" s="45"/>
       <c r="E126" s="45"/>
@@ -5148,13 +5148,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
@@ -5175,13 +5175,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B128" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="45"/>
@@ -5202,13 +5202,13 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
@@ -5227,13 +5227,13 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="45"/>
@@ -5252,13 +5252,13 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B131" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
@@ -5277,13 +5277,13 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
@@ -5304,13 +5304,13 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
@@ -5331,13 +5331,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="45"/>
@@ -5358,13 +5358,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B135" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
@@ -5385,13 +5385,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B136" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="45"/>
@@ -5412,13 +5412,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
@@ -5439,13 +5439,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B138" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="45"/>
@@ -5466,13 +5466,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B139" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
@@ -5493,13 +5493,13 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B140" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D140" s="45"/>
       <c r="E140" s="45"/>
@@ -5520,13 +5520,13 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B141" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="45"/>
@@ -5574,13 +5574,13 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -5601,13 +5601,13 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B144" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45"/>
@@ -5628,13 +5628,13 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B145" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B146" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D146" s="45"/>
       <c r="E146" s="45"/>
@@ -5682,13 +5682,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B147" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B148" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
@@ -5736,13 +5736,13 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B149" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D149" s="45"/>
       <c r="E149" s="45"/>
@@ -5763,13 +5763,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B150" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
@@ -5790,13 +5790,13 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B151" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D151" s="45"/>
       <c r="E151" s="45"/>
@@ -5817,13 +5817,13 @@
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B152" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D152" s="45"/>
       <c r="E152" s="45"/>
@@ -5844,13 +5844,13 @@
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B153" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
@@ -5873,13 +5873,13 @@
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B154" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
@@ -5898,13 +5898,13 @@
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B155" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="45"/>
@@ -5945,13 +5945,13 @@
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B156" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" s="45"/>
       <c r="E156" s="45"/>
@@ -5980,13 +5980,13 @@
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
@@ -6027,13 +6027,13 @@
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B158" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D158" s="45"/>
       <c r="E158" s="45"/>
@@ -6052,13 +6052,13 @@
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B159" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="45"/>
@@ -6081,13 +6081,13 @@
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B160" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D160" s="45"/>
       <c r="E160" s="45"/>
@@ -6106,13 +6106,13 @@
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
@@ -6131,13 +6131,13 @@
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
@@ -6156,13 +6156,13 @@
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B163" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
@@ -6183,13 +6183,13 @@
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B164" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
@@ -6214,13 +6214,13 @@
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B165" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
@@ -6245,13 +6245,13 @@
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B166" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
@@ -6276,13 +6276,13 @@
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B167" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
@@ -6307,13 +6307,13 @@
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B168" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
@@ -6334,13 +6334,13 @@
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B169" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
@@ -6359,13 +6359,13 @@
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B170" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -6390,13 +6390,13 @@
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B171" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
@@ -6419,13 +6419,13 @@
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B172" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6448,13 +6448,13 @@
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B173" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6477,13 +6477,13 @@
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B174" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6506,13 +6506,13 @@
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B175" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6535,13 +6535,13 @@
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B176" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45"/>
@@ -6564,13 +6564,13 @@
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B177" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6593,13 +6593,13 @@
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B178" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6622,13 +6622,13 @@
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B179" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6651,13 +6651,13 @@
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B180" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45"/>
@@ -6680,13 +6680,13 @@
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B181" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D181" s="47"/>
       <c r="E181" s="47"/>
@@ -6709,13 +6709,13 @@
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B182" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45"/>
@@ -6738,13 +6738,13 @@
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B183" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45"/>
@@ -6767,13 +6767,13 @@
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B184" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="45"/>
@@ -6796,13 +6796,13 @@
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B185" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6825,13 +6825,13 @@
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B186" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
@@ -6854,13 +6854,13 @@
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B187" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
@@ -6889,13 +6889,13 @@
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B188" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
@@ -6916,13 +6916,13 @@
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B189" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
@@ -6941,13 +6941,13 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B190" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
@@ -6966,13 +6966,13 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B191" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
@@ -6991,13 +6991,13 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7016,7 +7016,7 @@
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B193" s="32"/>
       <c r="C193" s="24" t="s">
@@ -7039,13 +7039,13 @@
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B194" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7064,13 +7064,13 @@
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B195" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C195" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
@@ -7093,13 +7093,13 @@
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B196" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C196" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
@@ -7126,13 +7126,13 @@
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B197" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
@@ -7153,13 +7153,13 @@
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B198" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C198" s="24" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
@@ -7186,11 +7186,11 @@
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B199" s="23"/>
       <c r="C199" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
@@ -7209,13 +7209,13 @@
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B200" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7234,13 +7234,13 @@
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B201" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C201" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
@@ -7261,13 +7261,13 @@
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C202" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
@@ -7292,13 +7292,13 @@
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B203" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C203" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
@@ -7319,13 +7319,13 @@
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B204" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
@@ -7350,13 +7350,13 @@
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B205" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
@@ -7375,13 +7375,13 @@
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C206" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
@@ -7414,13 +7414,13 @@
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B207" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C207" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
@@ -7441,13 +7441,13 @@
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B208" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C208" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
@@ -7468,13 +7468,13 @@
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C209" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
@@ -7505,13 +7505,13 @@
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B210" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C210" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
@@ -7538,7 +7538,7 @@
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B211" s="36"/>
       <c r="C211" s="35" t="s">
@@ -7583,13 +7583,13 @@
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B212" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C212" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
@@ -7610,13 +7610,13 @@
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B213" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C213" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
@@ -7637,13 +7637,13 @@
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B214" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C214" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -7666,13 +7666,13 @@
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B215" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C215" s="35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -7705,13 +7705,13 @@
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B216" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C216" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
@@ -7734,13 +7734,13 @@
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B217" s="34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
@@ -7781,13 +7781,13 @@
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B218" s="34" t="s">
         <v>6</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
@@ -7814,13 +7814,13 @@
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
@@ -7839,13 +7839,13 @@
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B220" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C220" s="39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
@@ -7864,13 +7864,13 @@
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B221" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
@@ -7889,13 +7889,13 @@
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B222" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C222" s="39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -7918,13 +7918,13 @@
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B223" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C223" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
@@ -7945,13 +7945,13 @@
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B224" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C224" s="39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7972,13 +7972,13 @@
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C225" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7999,13 +7999,13 @@
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B226" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C226" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
@@ -8030,13 +8030,13 @@
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C227" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
@@ -8063,13 +8063,13 @@
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B228" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C228" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
@@ -8090,13 +8090,13 @@
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B229" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C229" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
@@ -8119,13 +8119,13 @@
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B230" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C230" s="39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
@@ -8146,13 +8146,13 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B231" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
@@ -8173,13 +8173,13 @@
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B232" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C232" s="39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
@@ -8200,13 +8200,13 @@
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B233" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
@@ -8227,13 +8227,13 @@
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
@@ -8256,13 +8256,13 @@
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B235" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
@@ -8303,13 +8303,13 @@
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
@@ -8332,13 +8332,13 @@
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B237" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
@@ -8371,13 +8371,13 @@
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
@@ -8398,13 +8398,13 @@
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B239" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
@@ -8427,13 +8427,13 @@
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B240" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
@@ -8454,13 +8454,13 @@
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B241" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C241" s="39" t="s">
         <v>44</v>
-      </c>
-      <c r="B241" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C241" s="39" t="s">
-        <v>45</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
@@ -8487,13 +8487,13 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B242" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
@@ -8516,13 +8516,13 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B243" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B244" s="40"/>
       <c r="C244" s="13" t="s">
@@ -8572,13 +8572,13 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B245" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C245" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8601,13 +8601,13 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C246" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8632,13 +8632,13 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B247" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C247" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
@@ -8657,13 +8657,13 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C248" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
@@ -8682,13 +8682,13 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C249" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
@@ -8711,13 +8711,13 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
@@ -8758,13 +8758,13 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
@@ -8805,13 +8805,13 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
@@ -8852,13 +8852,13 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B253" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D253" s="48"/>
       <c r="E253" s="48"/>
@@ -9150,7 +9150,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9161,10 +9161,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80DA99C-1FEF-CD47-A78C-FCCD4D30ECD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226AEB0-4D1C-C649-A62B-A2035D7F7F57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Services" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$264</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="307">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -586,9 +586,6 @@
     <t>Braket</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>App Integration</t>
   </si>
   <si>
@@ -920,6 +917,39 @@
   </si>
   <si>
     <t>Service / Feature</t>
+  </si>
+  <si>
+    <t>Media Services</t>
+  </si>
+  <si>
+    <t>Nimble Studio</t>
+  </si>
+  <si>
+    <t>Elemental MediaTailor</t>
+  </si>
+  <si>
+    <t>Elemental MediaPackage</t>
+  </si>
+  <si>
+    <t>Elemental Conductor</t>
+  </si>
+  <si>
+    <t>Elemental Delta</t>
+  </si>
+  <si>
+    <t>Elemental Live</t>
+  </si>
+  <si>
+    <t>Elemental Server</t>
+  </si>
+  <si>
+    <t>Elemental Appliances &amp; Software</t>
+  </si>
+  <si>
+    <t>Interactive Video Service</t>
+  </si>
+  <si>
+    <t>Elemental Link</t>
   </si>
 </sst>
 </file>
@@ -1306,11 +1336,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD15D16"/>
       <color rgb="FFC00A17"/>
       <color rgb="FF2F29AE"/>
       <color rgb="FF1D7C6A"/>
       <color rgb="FF1F8901"/>
-      <color rgb="FFD15D16"/>
       <color rgb="FF4F28AC"/>
       <color rgb="FFB1094E"/>
       <color rgb="FF208A01"/>
@@ -1626,11 +1656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q253"/>
+  <dimension ref="A1:Q264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1660,16 +1690,16 @@
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G1" s="50" t="s">
         <v>168</v>
@@ -1678,22 +1708,22 @@
         <v>169</v>
       </c>
       <c r="I1" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="51" t="s">
         <v>234</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>235</v>
       </c>
       <c r="K1" s="52" t="s">
         <v>170</v>
       </c>
       <c r="L1" s="52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M1" s="53" t="s">
         <v>173</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O1" s="53" t="s">
         <v>171</v>
@@ -1702,7 +1732,7 @@
         <v>172</v>
       </c>
       <c r="Q1" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1744,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1827,7 +1857,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -1879,7 +1909,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -1906,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
@@ -1931,7 +1961,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
@@ -1956,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -1983,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -2008,7 +2038,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
@@ -2129,10 +2159,10 @@
         <v>35</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -2156,10 +2186,10 @@
         <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -2186,7 +2216,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>295</v>
+        <v>78</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -2213,16 +2243,22 @@
         <v>52</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
       <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
       <c r="L20" s="17"/>
       <c r="M20" s="17"/>
       <c r="N20" s="17"/>
@@ -2230,52 +2266,44 @@
       <c r="P20" s="17">
         <v>1</v>
       </c>
-      <c r="Q20" s="17"/>
+      <c r="Q20" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>79</v>
+      <c r="A21" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="17">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
+      <c r="K21" s="17"/>
       <c r="L21" s="17"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
       <c r="O21" s="17"/>
-      <c r="P21" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>1</v>
-      </c>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45"/>
@@ -2294,13 +2322,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
@@ -2319,13 +2347,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>65</v>
+        <v>244</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -2344,13 +2372,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="45"/>
@@ -2369,38 +2397,60 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
       <c r="F26" s="45"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+      <c r="L26" s="17">
+        <v>1</v>
+      </c>
+      <c r="M26" s="17">
+        <v>1</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1</v>
+      </c>
+      <c r="P26" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
@@ -2441,69 +2491,53 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="17">
-        <v>1</v>
-      </c>
-      <c r="H28" s="17">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17">
-        <v>1</v>
-      </c>
-      <c r="J28" s="17">
-        <v>1</v>
-      </c>
-      <c r="K28" s="17">
-        <v>1</v>
-      </c>
-      <c r="L28" s="17">
-        <v>1</v>
-      </c>
-      <c r="M28" s="17">
-        <v>1</v>
-      </c>
-      <c r="N28" s="17">
-        <v>1</v>
-      </c>
-      <c r="O28" s="17">
-        <v>1</v>
-      </c>
-      <c r="P28" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>1</v>
-      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="H29" s="17">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17">
+        <v>1</v>
+      </c>
       <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>
       <c r="N29" s="17"/>
@@ -2512,29 +2546,25 @@
       <c r="Q29" s="17"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>126</v>
+      <c r="A30" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
       <c r="F30" s="45"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17">
-        <v>1</v>
-      </c>
-      <c r="I30" s="17">
-        <v>1</v>
-      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="17">
-        <v>1</v>
-      </c>
+      <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
       <c r="N30" s="17"/>
@@ -2543,21 +2573,17 @@
       <c r="Q30" s="17"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>192</v>
+      <c r="A31" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39" t="s">
+        <v>213</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
-      <c r="G31" s="17">
-        <v>1</v>
-      </c>
+      <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
@@ -2571,11 +2597,13 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="38"/>
+        <v>212</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="C32" s="39" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="D32" s="45"/>
       <c r="E32" s="45"/>
@@ -2594,13 +2622,13 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D33" s="45"/>
       <c r="E33" s="45"/>
@@ -2619,13 +2647,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
@@ -2644,13 +2672,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -2667,18 +2695,18 @@
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="45"/>
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
@@ -2692,28 +2720,34 @@
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
     </row>
-    <row r="37" spans="1:17" ht="19" x14ac:dyDescent="0.2">
-      <c r="A37" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>215</v>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
+      <c r="E37" s="45"/>
       <c r="F37" s="45"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="H37" s="17">
+        <v>1</v>
+      </c>
       <c r="I37" s="17"/>
       <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="K37" s="17">
+        <v>1</v>
+      </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
+      <c r="O37" s="17">
+        <v>1</v>
+      </c>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
     </row>
@@ -2722,41 +2756,57 @@
         <v>24</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
       <c r="F38" s="45"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
       <c r="H38" s="17">
         <v>1</v>
       </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1</v>
+      </c>
       <c r="K38" s="17">
         <v>1</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="L38" s="17">
+        <v>1</v>
+      </c>
+      <c r="M38" s="17">
+        <v>1</v>
+      </c>
+      <c r="N38" s="17">
+        <v>1</v>
+      </c>
       <c r="O38" s="17">
         <v>1</v>
       </c>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="P38" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="D39" s="45"/>
       <c r="E39" s="45"/>
@@ -2764,46 +2814,28 @@
       <c r="G39" s="17">
         <v>1</v>
       </c>
-      <c r="H39" s="17">
-        <v>1</v>
-      </c>
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="17">
         <v>1</v>
       </c>
-      <c r="K39" s="17">
-        <v>1</v>
-      </c>
-      <c r="L39" s="17">
-        <v>1</v>
-      </c>
-      <c r="M39" s="17">
-        <v>1</v>
-      </c>
-      <c r="N39" s="17">
-        <v>1</v>
-      </c>
-      <c r="O39" s="17">
-        <v>1</v>
-      </c>
-      <c r="P39" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>1</v>
-      </c>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -2811,28 +2843,46 @@
       <c r="G40" s="17">
         <v>1</v>
       </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
       <c r="J40" s="17">
         <v>1</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+      <c r="L40" s="17">
+        <v>1</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1</v>
+      </c>
+      <c r="N40" s="17">
+        <v>1</v>
+      </c>
+      <c r="O40" s="17">
+        <v>1</v>
+      </c>
+      <c r="P40" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="D41" s="45"/>
       <c r="E41" s="45"/>
@@ -2876,62 +2926,42 @@
         <v>24</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D42" s="45"/>
       <c r="E42" s="45"/>
       <c r="F42" s="45"/>
-      <c r="G42" s="17">
-        <v>1</v>
-      </c>
-      <c r="H42" s="17">
-        <v>1</v>
-      </c>
-      <c r="I42" s="17">
-        <v>1</v>
-      </c>
-      <c r="J42" s="17">
-        <v>1</v>
-      </c>
-      <c r="K42" s="17">
-        <v>1</v>
-      </c>
-      <c r="L42" s="17">
-        <v>1</v>
-      </c>
-      <c r="M42" s="17">
-        <v>1</v>
-      </c>
-      <c r="N42" s="17">
-        <v>1</v>
-      </c>
-      <c r="O42" s="17">
-        <v>1</v>
-      </c>
-      <c r="P42" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="17">
-        <v>1</v>
-      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
       <c r="F43" s="45"/>
-      <c r="G43" s="17"/>
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
@@ -2951,14 +2981,12 @@
         <v>6</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
       <c r="F44" s="45"/>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
+      <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
       <c r="J44" s="17"/>
@@ -2974,11 +3002,9 @@
       <c r="A45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="B45" s="18"/>
       <c r="C45" s="16" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="D45" s="45"/>
       <c r="E45" s="45"/>
@@ -2999,9 +3025,11 @@
       <c r="A46" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C46" s="16" t="s">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
@@ -3020,13 +3048,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -3048,10 +3076,10 @@
         <v>175</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
@@ -3073,10 +3101,10 @@
         <v>175</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -3101,16 +3129,24 @@
         <v>52</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
+      <c r="G50" s="17">
+        <v>1</v>
+      </c>
+      <c r="H50" s="17">
+        <v>1</v>
+      </c>
+      <c r="I50" s="17">
+        <v>1</v>
+      </c>
       <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
+      <c r="K50" s="17">
+        <v>1</v>
+      </c>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -3126,7 +3162,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
@@ -3156,10 +3192,10 @@
         <v>175</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -3170,9 +3206,7 @@
       <c r="H52" s="17">
         <v>1</v>
       </c>
-      <c r="I52" s="17">
-        <v>1</v>
-      </c>
+      <c r="I52" s="17"/>
       <c r="J52" s="17"/>
       <c r="K52" s="17">
         <v>1</v>
@@ -3189,25 +3223,19 @@
         <v>175</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>30</v>
+        <v>274</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
-      <c r="G53" s="17">
-        <v>1</v>
-      </c>
-      <c r="H53" s="17">
-        <v>1</v>
-      </c>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="17">
-        <v>1</v>
-      </c>
+      <c r="K53" s="17"/>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
@@ -3220,10 +3248,10 @@
         <v>175</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
@@ -3244,11 +3272,9 @@
       <c r="A55" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="B55" s="15"/>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -3266,17 +3292,21 @@
       <c r="Q55" s="17"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16" t="s">
-        <v>179</v>
+      <c r="A56" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
-      <c r="G56" s="17"/>
+      <c r="G56" s="17">
+        <v>1</v>
+      </c>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -3290,20 +3320,18 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3317,18 +3345,20 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>190</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -3342,13 +3372,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
@@ -3369,13 +3399,11 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>6</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B60" s="12"/>
       <c r="C60" s="13" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
@@ -3383,10 +3411,14 @@
       <c r="G60" s="17">
         <v>1</v>
       </c>
-      <c r="H60" s="17"/>
+      <c r="H60" s="17">
+        <v>1</v>
+      </c>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="17"/>
+      <c r="K60" s="17">
+        <v>1</v>
+      </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
@@ -3395,27 +3427,23 @@
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13" t="s">
-        <v>189</v>
+      <c r="A61" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>288</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
-      <c r="G61" s="17">
-        <v>1</v>
-      </c>
-      <c r="H61" s="17">
-        <v>1</v>
-      </c>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="17">
-        <v>1</v>
-      </c>
+      <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3425,13 +3453,13 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
@@ -3450,13 +3478,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -3475,18 +3503,20 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
       <c r="F64" s="45"/>
-      <c r="G64" s="17"/>
+      <c r="G64" s="17">
+        <v>1</v>
+      </c>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -3500,20 +3530,18 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
-      <c r="G65" s="17">
-        <v>1</v>
-      </c>
+      <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -3527,18 +3555,20 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
       <c r="F66" s="45"/>
-      <c r="G66" s="17"/>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -3552,20 +3582,18 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
-      <c r="G67" s="17">
-        <v>1</v>
-      </c>
+      <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -3579,13 +3607,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>288</v>
+        <v>29</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
@@ -3604,13 +3632,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -3629,13 +3657,13 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
@@ -3654,28 +3682,42 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
+      <c r="G71" s="17">
+        <v>1</v>
+      </c>
+      <c r="H71" s="17">
+        <v>1</v>
+      </c>
+      <c r="I71" s="17">
+        <v>1</v>
+      </c>
+      <c r="J71" s="17">
+        <v>1</v>
+      </c>
+      <c r="K71" s="17">
+        <v>1</v>
+      </c>
+      <c r="L71" s="17">
+        <v>1</v>
+      </c>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="Q71" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
@@ -3685,7 +3727,7 @@
         <v>52</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
@@ -3693,25 +3735,17 @@
       <c r="G72" s="17">
         <v>1</v>
       </c>
-      <c r="H72" s="17">
-        <v>1</v>
-      </c>
-      <c r="I72" s="17">
-        <v>1</v>
-      </c>
-      <c r="J72" s="17">
-        <v>1</v>
-      </c>
-      <c r="K72" s="17">
-        <v>1</v>
-      </c>
-      <c r="L72" s="17">
-        <v>1</v>
-      </c>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
+      <c r="P72" s="17">
+        <v>1</v>
+      </c>
       <c r="Q72" s="17">
         <v>1</v>
       </c>
@@ -3724,7 +3758,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -3732,14 +3766,30 @@
       <c r="G73" s="17">
         <v>1</v>
       </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
+      <c r="H73" s="17">
+        <v>1</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1</v>
+      </c>
+      <c r="K73" s="17">
+        <v>1</v>
+      </c>
+      <c r="L73" s="17">
+        <v>1</v>
+      </c>
+      <c r="M73" s="17">
+        <v>1</v>
+      </c>
+      <c r="N73" s="17">
+        <v>1</v>
+      </c>
+      <c r="O73" s="17">
+        <v>1</v>
+      </c>
       <c r="P73" s="17">
         <v>1</v>
       </c>
@@ -3755,7 +3805,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -3769,27 +3819,15 @@
       <c r="I74" s="17">
         <v>1</v>
       </c>
-      <c r="J74" s="17">
-        <v>1</v>
-      </c>
+      <c r="J74" s="17"/>
       <c r="K74" s="17">
         <v>1</v>
       </c>
-      <c r="L74" s="17">
-        <v>1</v>
-      </c>
-      <c r="M74" s="17">
-        <v>1</v>
-      </c>
-      <c r="N74" s="17">
-        <v>1</v>
-      </c>
-      <c r="O74" s="17">
-        <v>1</v>
-      </c>
-      <c r="P74" s="17">
-        <v>1</v>
-      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
       <c r="Q74" s="17">
         <v>1</v>
       </c>
@@ -3802,24 +3840,16 @@
         <v>52</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
       <c r="F75" s="45"/>
-      <c r="G75" s="17">
-        <v>1</v>
-      </c>
-      <c r="H75" s="17">
-        <v>1</v>
-      </c>
-      <c r="I75" s="17">
-        <v>1</v>
-      </c>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="17"/>
-      <c r="K75" s="17">
-        <v>1</v>
-      </c>
+      <c r="K75" s="17"/>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
@@ -3837,12 +3867,14 @@
         <v>52</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
       <c r="F76" s="45"/>
-      <c r="G76" s="17"/>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
@@ -3864,7 +3896,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
@@ -3893,14 +3925,12 @@
         <v>52</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
-      <c r="G78" s="17">
-        <v>1</v>
-      </c>
+      <c r="G78" s="17"/>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -3910,9 +3940,7 @@
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
-      <c r="Q78" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q78" s="17"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
@@ -3922,22 +3950,30 @@
         <v>52</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>285</v>
+        <v>158</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
+      <c r="H79" s="17">
+        <v>1</v>
+      </c>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
+      <c r="K79" s="17">
+        <v>1</v>
+      </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="Q79" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
@@ -3947,22 +3983,16 @@
         <v>52</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
-      <c r="G80" s="17">
-        <v>1</v>
-      </c>
-      <c r="H80" s="17">
-        <v>1</v>
-      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="17">
-        <v>1</v>
-      </c>
+      <c r="K80" s="17"/>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -3974,13 +4004,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>27</v>
+        <v>217</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
@@ -3995,19 +4025,17 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
-      <c r="Q81" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q81" s="17"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="45"/>
@@ -4026,13 +4054,13 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -4051,13 +4079,13 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="45"/>
@@ -4076,13 +4104,13 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="45"/>
@@ -4101,20 +4129,22 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="45"/>
       <c r="F86" s="45"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
+      <c r="I86" s="17">
+        <v>1</v>
+      </c>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -4126,13 +4156,13 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="45"/>
@@ -4153,13 +4183,13 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B88" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
@@ -4180,22 +4210,20 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
       <c r="F89" s="45"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17">
-        <v>1</v>
-      </c>
+      <c r="I89" s="17"/>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -4207,20 +4235,22 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+      <c r="I90" s="17">
+        <v>1</v>
+      </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -4232,22 +4262,20 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="17">
-        <v>1</v>
-      </c>
+      <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -4259,18 +4287,20 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B92" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>23</v>
+        <v>221</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
-      <c r="G92" s="17"/>
+      <c r="G92" s="17">
+        <v>1</v>
+      </c>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -4284,20 +4314,18 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>218</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>222</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
-      <c r="G93" s="17">
-        <v>1</v>
-      </c>
+      <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -4311,13 +4339,13 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
@@ -4336,13 +4364,13 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
@@ -4361,13 +4389,13 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
@@ -4386,13 +4414,13 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
@@ -4411,13 +4439,13 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -4436,20 +4464,22 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B99" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
       <c r="F99" s="45"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
+      <c r="I99" s="17">
+        <v>1</v>
+      </c>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -4460,23 +4490,21 @@
       <c r="Q99" s="17"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="B100" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>51</v>
+      <c r="A100" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="17">
-        <v>1</v>
-      </c>
+      <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -4488,13 +4516,13 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="22" t="s">
-        <v>226</v>
+      <c r="C101" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
@@ -4513,13 +4541,13 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>87</v>
+      <c r="C102" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
@@ -4537,14 +4565,14 @@
       <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>224</v>
+      <c r="A103" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
@@ -4569,7 +4597,7 @@
         <v>52</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
@@ -4594,7 +4622,7 @@
         <v>52</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -4612,14 +4640,12 @@
       <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>82</v>
+      <c r="A106" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -4640,9 +4666,11 @@
       <c r="A107" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="26"/>
+      <c r="B107" s="28" t="s">
+        <v>6</v>
+      </c>
       <c r="C107" s="27" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
@@ -4667,7 +4695,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
@@ -4692,7 +4720,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
@@ -4717,7 +4745,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -4742,7 +4770,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -4767,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="45"/>
@@ -4792,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
@@ -4817,7 +4845,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
@@ -4842,7 +4870,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
@@ -4864,10 +4892,10 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="45"/>
@@ -4885,14 +4913,14 @@
       <c r="Q116" s="17"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>210</v>
+      <c r="A117" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
@@ -4905,19 +4933,21 @@
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
+      <c r="O117" s="17">
+        <v>1</v>
+      </c>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
@@ -4938,13 +4968,13 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
@@ -4965,13 +4995,13 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="D120" s="45"/>
       <c r="E120" s="45"/>
@@ -4992,13 +5022,13 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5011,15 +5041,13 @@
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
-      <c r="O121" s="17">
-        <v>1</v>
-      </c>
+      <c r="O121" s="17"/>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B122" s="23" t="s">
         <v>176</v>
@@ -5044,13 +5072,13 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B123" s="23" t="s">
         <v>176</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
@@ -5069,13 +5097,13 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
@@ -5088,19 +5116,21 @@
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
+      <c r="O124" s="17">
+        <v>1</v>
+      </c>
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B125" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
@@ -5121,13 +5151,13 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B126" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="D126" s="45"/>
       <c r="E126" s="45"/>
@@ -5148,13 +5178,13 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B127" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
@@ -5175,13 +5205,13 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B128" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>149</v>
+        <v>281</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="45"/>
@@ -5194,21 +5224,19 @@
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
-      <c r="O128" s="17">
-        <v>1</v>
-      </c>
+      <c r="O128" s="17"/>
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B129" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>282</v>
+        <v>156</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
@@ -5227,13 +5255,13 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="45"/>
@@ -5252,13 +5280,13 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
@@ -5271,19 +5299,21 @@
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
+      <c r="O131" s="17">
+        <v>1</v>
+      </c>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B132" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
@@ -5304,13 +5334,13 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B133" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
@@ -5331,13 +5361,13 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B134" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="45"/>
@@ -5358,13 +5388,13 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B135" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>81</v>
+        <v>249</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
@@ -5385,13 +5415,13 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="45"/>
@@ -5412,13 +5442,13 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B137" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>248</v>
+        <v>197</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
@@ -5439,13 +5469,13 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B138" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="45"/>
@@ -5466,13 +5496,13 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B139" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
@@ -5493,7 +5523,7 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B140" s="23" t="s">
         <v>52</v>
@@ -5520,13 +5550,13 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B141" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
@@ -5547,13 +5577,13 @@
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B142" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="45"/>
@@ -5574,13 +5604,13 @@
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B143" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -5601,13 +5631,13 @@
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45"/>
@@ -5628,7 +5658,7 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B145" s="23" t="s">
         <v>52</v>
@@ -5655,13 +5685,13 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B146" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D146" s="45"/>
       <c r="E146" s="45"/>
@@ -5682,13 +5712,13 @@
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B147" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
@@ -5709,13 +5739,13 @@
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B148" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>249</v>
+        <v>83</v>
       </c>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
@@ -5736,13 +5766,13 @@
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B149" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D149" s="45"/>
       <c r="E149" s="45"/>
@@ -5763,13 +5793,13 @@
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B150" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
@@ -5790,13 +5820,13 @@
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B151" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="D151" s="45"/>
       <c r="E151" s="45"/>
@@ -5816,29 +5846,31 @@
       <c r="Q151" s="17"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C152" s="24" t="s">
-        <v>86</v>
+      <c r="A152" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D152" s="45"/>
       <c r="E152" s="45"/>
       <c r="F152" s="45"/>
       <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
+      <c r="H152" s="17">
+        <v>1</v>
+      </c>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
-      <c r="K152" s="17"/>
+      <c r="K152" s="17">
+        <v>1</v>
+      </c>
       <c r="L152" s="17"/>
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
-      <c r="O152" s="17">
-        <v>1</v>
-      </c>
+      <c r="O152" s="17"/>
       <c r="P152" s="17"/>
       <c r="Q152" s="17"/>
     </row>
@@ -5850,20 +5882,16 @@
         <v>6</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
       <c r="F153" s="45"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="17">
-        <v>1</v>
-      </c>
+      <c r="H153" s="17"/>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
-      <c r="K153" s="17">
-        <v>1</v>
-      </c>
+      <c r="K153" s="17"/>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
@@ -5879,22 +5907,44 @@
         <v>6</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
-      <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="17"/>
-      <c r="Q154" s="17"/>
+      <c r="G154" s="17">
+        <v>1</v>
+      </c>
+      <c r="H154" s="17">
+        <v>1</v>
+      </c>
+      <c r="I154" s="17">
+        <v>1</v>
+      </c>
+      <c r="J154" s="17">
+        <v>1</v>
+      </c>
+      <c r="K154" s="17">
+        <v>1</v>
+      </c>
+      <c r="L154" s="17">
+        <v>1</v>
+      </c>
+      <c r="M154" s="17">
+        <v>1</v>
+      </c>
+      <c r="N154" s="17">
+        <v>1</v>
+      </c>
+      <c r="O154" s="17">
+        <v>1</v>
+      </c>
+      <c r="P154" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="29" t="s">
@@ -5904,7 +5954,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="45"/>
@@ -5918,40 +5968,28 @@
       <c r="I155" s="17">
         <v>1</v>
       </c>
-      <c r="J155" s="17">
-        <v>1</v>
-      </c>
+      <c r="J155" s="17"/>
       <c r="K155" s="17">
         <v>1</v>
       </c>
-      <c r="L155" s="17">
-        <v>1</v>
-      </c>
+      <c r="L155" s="17"/>
       <c r="M155" s="17">
         <v>1</v>
       </c>
-      <c r="N155" s="17">
-        <v>1</v>
-      </c>
-      <c r="O155" s="17">
-        <v>1</v>
-      </c>
-      <c r="P155" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="17">
-        <v>1</v>
-      </c>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D156" s="45"/>
       <c r="E156" s="45"/>
@@ -5965,65 +6003,55 @@
       <c r="I156" s="17">
         <v>1</v>
       </c>
-      <c r="J156" s="17"/>
+      <c r="J156" s="17">
+        <v>1</v>
+      </c>
       <c r="K156" s="17">
         <v>1</v>
       </c>
-      <c r="L156" s="17"/>
+      <c r="L156" s="17">
+        <v>1</v>
+      </c>
       <c r="M156" s="17">
         <v>1</v>
       </c>
-      <c r="N156" s="17"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="17"/>
-      <c r="Q156" s="17"/>
+      <c r="N156" s="17">
+        <v>1</v>
+      </c>
+      <c r="O156" s="17">
+        <v>1</v>
+      </c>
+      <c r="P156" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
       <c r="F157" s="45"/>
-      <c r="G157" s="17">
-        <v>1</v>
-      </c>
-      <c r="H157" s="17">
-        <v>1</v>
-      </c>
-      <c r="I157" s="17">
-        <v>1</v>
-      </c>
-      <c r="J157" s="17">
-        <v>1</v>
-      </c>
-      <c r="K157" s="17">
-        <v>1</v>
-      </c>
-      <c r="L157" s="17">
-        <v>1</v>
-      </c>
-      <c r="M157" s="17">
-        <v>1</v>
-      </c>
-      <c r="N157" s="17">
-        <v>1</v>
-      </c>
-      <c r="O157" s="17">
-        <v>1</v>
-      </c>
-      <c r="P157" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="17">
-        <v>1</v>
-      </c>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="17"/>
+      <c r="L157" s="17"/>
+      <c r="M157" s="17"/>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
@@ -6033,16 +6061,20 @@
         <v>6</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D158" s="45"/>
       <c r="E158" s="45"/>
       <c r="F158" s="45"/>
       <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
+      <c r="H158" s="17">
+        <v>1</v>
+      </c>
       <c r="I158" s="17"/>
       <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
+      <c r="K158" s="17">
+        <v>1</v>
+      </c>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
@@ -6058,20 +6090,16 @@
         <v>6</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="45"/>
       <c r="F159" s="45"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="17">
-        <v>1</v>
-      </c>
+      <c r="H159" s="17"/>
       <c r="I159" s="17"/>
       <c r="J159" s="17"/>
-      <c r="K159" s="17">
-        <v>1</v>
-      </c>
+      <c r="K159" s="17"/>
       <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
@@ -6087,7 +6115,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="D160" s="45"/>
       <c r="E160" s="45"/>
@@ -6109,10 +6137,10 @@
         <v>33</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
@@ -6134,15 +6162,17 @@
         <v>33</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
       <c r="F162" s="45"/>
-      <c r="G162" s="17"/>
+      <c r="G162" s="17">
+        <v>1</v>
+      </c>
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
       <c r="J162" s="17"/>
@@ -6162,18 +6192,22 @@
         <v>6</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
       <c r="F163" s="45"/>
-      <c r="G163" s="17">
-        <v>1</v>
-      </c>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17">
+        <v>1</v>
+      </c>
+      <c r="I163" s="17">
+        <v>1</v>
+      </c>
       <c r="J163" s="17"/>
-      <c r="K163" s="17"/>
+      <c r="K163" s="17">
+        <v>1</v>
+      </c>
       <c r="L163" s="17"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
@@ -6189,7 +6223,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
@@ -6220,7 +6254,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
@@ -6251,18 +6285,18 @@
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
       <c r="F166" s="45"/>
-      <c r="G166" s="17"/>
+      <c r="G166" s="17">
+        <v>1</v>
+      </c>
       <c r="H166" s="17">
         <v>1</v>
       </c>
-      <c r="I166" s="17">
-        <v>1</v>
-      </c>
+      <c r="I166" s="17"/>
       <c r="J166" s="17"/>
       <c r="K166" s="17">
         <v>1</v>
@@ -6282,7 +6316,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
@@ -6290,14 +6324,10 @@
       <c r="G167" s="17">
         <v>1</v>
       </c>
-      <c r="H167" s="17">
-        <v>1</v>
-      </c>
+      <c r="H167" s="17"/>
       <c r="I167" s="17"/>
       <c r="J167" s="17"/>
-      <c r="K167" s="17">
-        <v>1</v>
-      </c>
+      <c r="K167" s="17"/>
       <c r="L167" s="17"/>
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
@@ -6313,14 +6343,12 @@
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
       <c r="F168" s="45"/>
-      <c r="G168" s="17">
-        <v>1</v>
-      </c>
+      <c r="G168" s="17"/>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
       <c r="J168" s="17"/>
@@ -6340,7 +6368,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
@@ -6348,9 +6376,15 @@
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="17"/>
+      <c r="J169" s="17">
+        <v>1</v>
+      </c>
+      <c r="K169" s="17">
+        <v>1</v>
+      </c>
+      <c r="L169" s="17">
+        <v>1</v>
+      </c>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
       <c r="O169" s="17"/>
@@ -6365,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -6376,9 +6410,7 @@
       <c r="J170" s="17">
         <v>1</v>
       </c>
-      <c r="K170" s="17">
-        <v>1</v>
-      </c>
+      <c r="K170" s="17"/>
       <c r="L170" s="17">
         <v>1</v>
       </c>
@@ -6396,7 +6428,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
@@ -6425,7 +6457,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6454,7 +6486,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6483,7 +6515,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6512,7 +6544,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6541,7 +6573,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45"/>
@@ -6570,7 +6602,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6599,7 +6631,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6628,7 +6660,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6657,11 +6689,11 @@
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D180" s="45"/>
-      <c r="E180" s="45"/>
-      <c r="F180" s="45"/>
+        <v>256</v>
+      </c>
+      <c r="D180" s="47"/>
+      <c r="E180" s="47"/>
+      <c r="F180" s="47"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
@@ -6686,11 +6718,11 @@
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="D181" s="47"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
+        <v>258</v>
+      </c>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
@@ -6715,7 +6747,7 @@
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45"/>
@@ -6744,7 +6776,7 @@
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45"/>
@@ -6773,7 +6805,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="45"/>
@@ -6802,7 +6834,7 @@
         <v>6</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6831,18 +6863,24 @@
         <v>6</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
       <c r="F186" s="45"/>
       <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
+      <c r="H186" s="17">
+        <v>1</v>
+      </c>
+      <c r="I186" s="17">
+        <v>1</v>
+      </c>
       <c r="J186" s="17">
         <v>1</v>
       </c>
-      <c r="K186" s="17"/>
+      <c r="K186" s="17">
+        <v>1</v>
+      </c>
       <c r="L186" s="17">
         <v>1</v>
       </c>
@@ -6860,27 +6898,19 @@
         <v>6</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>253</v>
+        <v>130</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
       <c r="F187" s="45"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17">
-        <v>1</v>
-      </c>
-      <c r="I187" s="17">
-        <v>1</v>
-      </c>
-      <c r="J187" s="17">
-        <v>1</v>
-      </c>
-      <c r="K187" s="17">
-        <v>1</v>
-      </c>
-      <c r="L187" s="17">
-        <v>1</v>
-      </c>
+      <c r="G187" s="17">
+        <v>1</v>
+      </c>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
@@ -6895,14 +6925,12 @@
         <v>6</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
       <c r="F188" s="45"/>
-      <c r="G188" s="17">
-        <v>1</v>
-      </c>
+      <c r="G188" s="17"/>
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
@@ -6915,14 +6943,14 @@
       <c r="Q188" s="17"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B189" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="31" t="s">
-        <v>131</v>
+      <c r="A189" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
@@ -6941,13 +6969,13 @@
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" s="14" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="B190" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
@@ -6966,13 +6994,13 @@
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" s="14" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="B191" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
@@ -6991,13 +7019,13 @@
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="B192" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7015,12 +7043,14 @@
       <c r="Q192" s="17"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A193" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B193" s="32"/>
-      <c r="C193" s="24" t="s">
-        <v>1</v>
+      <c r="A193" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>302</v>
       </c>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
@@ -7038,14 +7068,14 @@
       <c r="Q193" s="17"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A194" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B194" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C194" s="24" t="s">
-        <v>94</v>
+      <c r="A194" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>98</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7063,76 +7093,64 @@
       <c r="Q194" s="17"/>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A195" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B195" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195" s="24" t="s">
-        <v>272</v>
+      <c r="A195" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
       <c r="F195" s="45"/>
       <c r="G195" s="17"/>
       <c r="H195" s="17"/>
-      <c r="I195" s="17">
-        <v>1</v>
-      </c>
+      <c r="I195" s="17"/>
       <c r="J195" s="17"/>
       <c r="K195" s="17"/>
       <c r="L195" s="17"/>
       <c r="M195" s="17"/>
       <c r="N195" s="17"/>
       <c r="O195" s="17"/>
-      <c r="P195" s="17">
-        <v>1</v>
-      </c>
+      <c r="P195" s="17"/>
       <c r="Q195" s="17"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A196" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B196" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="24" t="s">
-        <v>283</v>
+      <c r="A196" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
       <c r="F196" s="45"/>
-      <c r="G196" s="17">
-        <v>1</v>
-      </c>
-      <c r="H196" s="17">
-        <v>1</v>
-      </c>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
       <c r="I196" s="17"/>
       <c r="J196" s="17"/>
-      <c r="K196" s="17">
-        <v>1</v>
-      </c>
+      <c r="K196" s="17"/>
       <c r="L196" s="17"/>
       <c r="M196" s="17"/>
       <c r="N196" s="17"/>
       <c r="O196" s="17"/>
       <c r="P196" s="17"/>
-      <c r="Q196" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q196" s="17"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A197" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B197" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C197" s="24" t="s">
-        <v>26</v>
+      <c r="A197" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
@@ -7146,51 +7164,43 @@
       <c r="M197" s="17"/>
       <c r="N197" s="17"/>
       <c r="O197" s="17"/>
-      <c r="P197" s="17">
-        <v>1</v>
-      </c>
+      <c r="P197" s="17"/>
       <c r="Q197" s="17"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A198" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B198" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C198" s="24" t="s">
-        <v>284</v>
+      <c r="A198" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
       <c r="F198" s="45"/>
-      <c r="G198" s="17">
-        <v>1</v>
-      </c>
-      <c r="H198" s="17">
-        <v>1</v>
-      </c>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
       <c r="I198" s="17"/>
       <c r="J198" s="17"/>
-      <c r="K198" s="17">
-        <v>1</v>
-      </c>
+      <c r="K198" s="17"/>
       <c r="L198" s="17"/>
       <c r="M198" s="17"/>
       <c r="N198" s="17"/>
       <c r="O198" s="17"/>
       <c r="P198" s="17"/>
-      <c r="Q198" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q198" s="17"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A199" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B199" s="23"/>
-      <c r="C199" s="24" t="s">
-        <v>229</v>
+      <c r="A199" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>298</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
@@ -7208,14 +7218,14 @@
       <c r="Q199" s="17"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A200" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B200" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>228</v>
+      <c r="A200" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B200" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>303</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7233,14 +7243,14 @@
       <c r="Q200" s="17"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A201" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C201" s="24" t="s">
-        <v>123</v>
+      <c r="A201" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
@@ -7249,9 +7259,7 @@
       <c r="H201" s="17"/>
       <c r="I201" s="17"/>
       <c r="J201" s="17"/>
-      <c r="K201" s="17">
-        <v>1</v>
-      </c>
+      <c r="K201" s="17"/>
       <c r="L201" s="17"/>
       <c r="M201" s="17"/>
       <c r="N201" s="17"/>
@@ -7260,52 +7268,46 @@
       <c r="Q201" s="17"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A202" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B202" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" s="24" t="s">
-        <v>45</v>
+      <c r="A202" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B202" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
       <c r="F202" s="45"/>
-      <c r="G202" s="17">
-        <v>1</v>
-      </c>
-      <c r="H202" s="17">
-        <v>1</v>
-      </c>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
       <c r="I202" s="17"/>
       <c r="J202" s="17"/>
-      <c r="K202" s="17">
-        <v>1</v>
-      </c>
+      <c r="K202" s="17"/>
       <c r="L202" s="17"/>
       <c r="M202" s="17"/>
       <c r="N202" s="17"/>
       <c r="O202" s="17"/>
-      <c r="P202" s="17"/>
+      <c r="P202" s="17">
+        <v>1</v>
+      </c>
       <c r="Q202" s="17"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A203" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C203" s="24" t="s">
-        <v>233</v>
+      <c r="A203" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
       <c r="F203" s="45"/>
-      <c r="G203" s="17">
-        <v>1</v>
-      </c>
+      <c r="G203" s="17"/>
       <c r="H203" s="17"/>
       <c r="I203" s="17"/>
       <c r="J203" s="17"/>
@@ -7321,26 +7323,18 @@
       <c r="A204" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B204" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B204" s="32"/>
       <c r="C204" s="24" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
       <c r="F204" s="45"/>
-      <c r="G204" s="17">
-        <v>1</v>
-      </c>
-      <c r="H204" s="17">
-        <v>1</v>
-      </c>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
       <c r="I204" s="17"/>
       <c r="J204" s="17"/>
-      <c r="K204" s="17">
-        <v>1</v>
-      </c>
+      <c r="K204" s="17"/>
       <c r="L204" s="17"/>
       <c r="M204" s="17"/>
       <c r="N204" s="17"/>
@@ -7356,7 +7350,7 @@
         <v>6</v>
       </c>
       <c r="C205" s="24" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
@@ -7374,80 +7368,76 @@
       <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B206" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C206" s="35" t="s">
-        <v>132</v>
+      <c r="A206" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C206" s="24" t="s">
+        <v>271</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
       <c r="F206" s="45"/>
       <c r="G206" s="17"/>
-      <c r="H206" s="17">
-        <v>1</v>
-      </c>
+      <c r="H206" s="17"/>
       <c r="I206" s="17">
         <v>1</v>
       </c>
-      <c r="J206" s="17">
-        <v>1</v>
-      </c>
-      <c r="K206" s="17">
-        <v>1</v>
-      </c>
-      <c r="L206" s="17">
-        <v>1</v>
-      </c>
-      <c r="M206" s="17">
-        <v>1</v>
-      </c>
-      <c r="N206" s="17">
-        <v>1</v>
-      </c>
+      <c r="J206" s="17"/>
+      <c r="K206" s="17"/>
+      <c r="L206" s="17"/>
+      <c r="M206" s="17"/>
+      <c r="N206" s="17"/>
       <c r="O206" s="17"/>
-      <c r="P206" s="17"/>
+      <c r="P206" s="17">
+        <v>1</v>
+      </c>
       <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B207" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="35" t="s">
-        <v>88</v>
+      <c r="A207" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>282</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
       <c r="F207" s="45"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
+      <c r="G207" s="17">
+        <v>1</v>
+      </c>
+      <c r="H207" s="17">
+        <v>1</v>
+      </c>
       <c r="I207" s="17"/>
       <c r="J207" s="17"/>
-      <c r="K207" s="17"/>
+      <c r="K207" s="17">
+        <v>1</v>
+      </c>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
-      <c r="N207" s="17">
-        <v>1</v>
-      </c>
+      <c r="N207" s="17"/>
       <c r="O207" s="17"/>
       <c r="P207" s="17"/>
-      <c r="Q207" s="17"/>
+      <c r="Q207" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B208" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C208" s="35" t="s">
-        <v>91</v>
+      <c r="A208" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
@@ -7459,22 +7449,22 @@
       <c r="K208" s="17"/>
       <c r="L208" s="17"/>
       <c r="M208" s="17"/>
-      <c r="N208" s="17">
-        <v>1</v>
-      </c>
+      <c r="N208" s="17"/>
       <c r="O208" s="17"/>
-      <c r="P208" s="17"/>
+      <c r="P208" s="17">
+        <v>1</v>
+      </c>
       <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B209" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C209" s="35" t="s">
-        <v>57</v>
+      <c r="A209" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B209" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="24" t="s">
+        <v>283</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
@@ -7485,111 +7475,77 @@
       <c r="H209" s="17">
         <v>1</v>
       </c>
-      <c r="I209" s="17">
-        <v>1</v>
-      </c>
+      <c r="I209" s="17"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17">
         <v>1</v>
       </c>
       <c r="L209" s="17"/>
-      <c r="M209" s="17">
-        <v>1</v>
-      </c>
-      <c r="N209" s="17">
-        <v>1</v>
-      </c>
+      <c r="M209" s="17"/>
+      <c r="N209" s="17"/>
       <c r="O209" s="17"/>
       <c r="P209" s="17"/>
-      <c r="Q209" s="17"/>
+      <c r="Q209" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B210" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="35" t="s">
-        <v>95</v>
+      <c r="A210" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B210" s="23"/>
+      <c r="C210" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
-      <c r="G210" s="17">
-        <v>1</v>
-      </c>
-      <c r="H210" s="17">
-        <v>1</v>
-      </c>
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
-      <c r="K210" s="17">
-        <v>1</v>
-      </c>
+      <c r="K210" s="17"/>
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
-      <c r="N210" s="17">
-        <v>1</v>
-      </c>
+      <c r="N210" s="17"/>
       <c r="O210" s="17"/>
       <c r="P210" s="17"/>
       <c r="Q210" s="17"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B211" s="36"/>
-      <c r="C211" s="35" t="s">
-        <v>2</v>
+      <c r="A211" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
-      <c r="G211" s="17">
-        <v>1</v>
-      </c>
-      <c r="H211" s="17">
-        <v>1</v>
-      </c>
-      <c r="I211" s="17">
-        <v>1</v>
-      </c>
-      <c r="J211" s="17">
-        <v>1</v>
-      </c>
-      <c r="K211" s="17">
-        <v>1</v>
-      </c>
-      <c r="L211" s="17">
-        <v>1</v>
-      </c>
-      <c r="M211" s="17">
-        <v>1</v>
-      </c>
-      <c r="N211" s="17">
-        <v>1</v>
-      </c>
-      <c r="O211" s="17">
-        <v>1</v>
-      </c>
-      <c r="P211" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="17">
-        <v>1</v>
-      </c>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="17"/>
+      <c r="K211" s="17"/>
+      <c r="L211" s="17"/>
+      <c r="M211" s="17"/>
+      <c r="N211" s="17"/>
+      <c r="O211" s="17"/>
+      <c r="P211" s="17"/>
+      <c r="Q211" s="17"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B212" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="35" t="s">
-        <v>102</v>
+      <c r="A212" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
@@ -7598,81 +7554,83 @@
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
-      <c r="K212" s="17"/>
+      <c r="K212" s="17">
+        <v>1</v>
+      </c>
       <c r="L212" s="17"/>
       <c r="M212" s="17"/>
-      <c r="N212" s="17">
-        <v>1</v>
-      </c>
+      <c r="N212" s="17"/>
       <c r="O212" s="17"/>
       <c r="P212" s="17"/>
       <c r="Q212" s="17"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B213" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" s="35" t="s">
-        <v>115</v>
+      <c r="A213" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
       <c r="F213" s="45"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
+      <c r="G213" s="17">
+        <v>1</v>
+      </c>
+      <c r="H213" s="17">
+        <v>1</v>
+      </c>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="17">
+        <v>1</v>
+      </c>
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
-      <c r="N213" s="17">
-        <v>1</v>
-      </c>
+      <c r="N213" s="17"/>
       <c r="O213" s="17"/>
       <c r="P213" s="17"/>
       <c r="Q213" s="17"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A214" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B214" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C214" s="35" t="s">
-        <v>40</v>
+      <c r="A214" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
       <c r="F214" s="45"/>
-      <c r="G214" s="17"/>
+      <c r="G214" s="17">
+        <v>1</v>
+      </c>
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
-      <c r="K214" s="17">
-        <v>1</v>
-      </c>
+      <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="17"/>
-      <c r="N214" s="17">
-        <v>1</v>
-      </c>
+      <c r="N214" s="17"/>
       <c r="O214" s="17"/>
       <c r="P214" s="17"/>
       <c r="Q214" s="17"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A215" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B215" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C215" s="35" t="s">
-        <v>159</v>
+      <c r="A215" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B215" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -7683,35 +7641,27 @@
       <c r="H215" s="17">
         <v>1</v>
       </c>
-      <c r="I215" s="17">
-        <v>1</v>
-      </c>
-      <c r="J215" s="17">
-        <v>1</v>
-      </c>
+      <c r="I215" s="17"/>
+      <c r="J215" s="17"/>
       <c r="K215" s="17">
         <v>1</v>
       </c>
-      <c r="L215" s="17">
-        <v>1</v>
-      </c>
+      <c r="L215" s="17"/>
       <c r="M215" s="17"/>
-      <c r="N215" s="17">
-        <v>1</v>
-      </c>
+      <c r="N215" s="17"/>
       <c r="O215" s="17"/>
       <c r="P215" s="17"/>
       <c r="Q215" s="17"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A216" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B216" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" s="35" t="s">
-        <v>129</v>
+      <c r="A216" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B216" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
@@ -7720,14 +7670,10 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17">
-        <v>1</v>
-      </c>
+      <c r="K216" s="17"/>
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
-      <c r="N216" s="17">
-        <v>1</v>
-      </c>
+      <c r="N216" s="17"/>
       <c r="O216" s="17"/>
       <c r="P216" s="17"/>
       <c r="Q216" s="17"/>
@@ -7740,14 +7686,12 @@
         <v>52</v>
       </c>
       <c r="C217" s="35" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
       <c r="F217" s="45"/>
-      <c r="G217" s="17">
-        <v>1</v>
-      </c>
+      <c r="G217" s="17"/>
       <c r="H217" s="17">
         <v>1</v>
       </c>
@@ -7769,15 +7713,9 @@
       <c r="N217" s="17">
         <v>1</v>
       </c>
-      <c r="O217" s="17">
-        <v>1</v>
-      </c>
-      <c r="P217" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q217" s="17">
-        <v>1</v>
-      </c>
+      <c r="O217" s="17"/>
+      <c r="P217" s="17"/>
+      <c r="Q217" s="17"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="33" t="s">
@@ -7787,22 +7725,16 @@
         <v>6</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
       <c r="F218" s="45"/>
-      <c r="G218" s="17">
-        <v>1</v>
-      </c>
-      <c r="H218" s="17">
-        <v>1</v>
-      </c>
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17">
-        <v>1</v>
-      </c>
+      <c r="K218" s="17"/>
       <c r="L218" s="17"/>
       <c r="M218" s="17"/>
       <c r="N218" s="17">
@@ -7813,14 +7745,14 @@
       <c r="Q218" s="17"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B219" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>184</v>
+      <c r="A219" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B219" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="35" t="s">
+        <v>91</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
@@ -7832,70 +7764,90 @@
       <c r="K219" s="17"/>
       <c r="L219" s="17"/>
       <c r="M219" s="17"/>
-      <c r="N219" s="17"/>
+      <c r="N219" s="17">
+        <v>1</v>
+      </c>
       <c r="O219" s="17"/>
       <c r="P219" s="17"/>
       <c r="Q219" s="17"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B220" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C220" s="39" t="s">
-        <v>42</v>
+      <c r="A220" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B220" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C220" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
       <c r="F220" s="45"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="17"/>
+      <c r="G220" s="17">
+        <v>1</v>
+      </c>
+      <c r="H220" s="17">
+        <v>1</v>
+      </c>
+      <c r="I220" s="17">
+        <v>1</v>
+      </c>
       <c r="J220" s="17"/>
-      <c r="K220" s="17"/>
+      <c r="K220" s="17">
+        <v>1</v>
+      </c>
       <c r="L220" s="17"/>
-      <c r="M220" s="17"/>
-      <c r="N220" s="17"/>
+      <c r="M220" s="17">
+        <v>1</v>
+      </c>
+      <c r="N220" s="17">
+        <v>1</v>
+      </c>
       <c r="O220" s="17"/>
       <c r="P220" s="17"/>
       <c r="Q220" s="17"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B221" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C221" s="21" t="s">
-        <v>103</v>
+      <c r="A221" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B221" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" s="35" t="s">
+        <v>95</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
       <c r="F221" s="45"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
+      <c r="G221" s="17">
+        <v>1</v>
+      </c>
+      <c r="H221" s="17">
+        <v>1</v>
+      </c>
       <c r="I221" s="17"/>
       <c r="J221" s="17"/>
-      <c r="K221" s="17"/>
+      <c r="K221" s="17">
+        <v>1</v>
+      </c>
       <c r="L221" s="17"/>
       <c r="M221" s="17"/>
-      <c r="N221" s="17"/>
+      <c r="N221" s="17">
+        <v>1</v>
+      </c>
       <c r="O221" s="17"/>
       <c r="P221" s="17"/>
       <c r="Q221" s="17"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A222" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B222" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C222" s="39" t="s">
-        <v>9</v>
+      <c r="A222" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B222" s="36"/>
+      <c r="C222" s="35" t="s">
+        <v>2</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -7903,28 +7855,46 @@
       <c r="G222" s="17">
         <v>1</v>
       </c>
-      <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
-      <c r="J222" s="17"/>
-      <c r="K222" s="17"/>
-      <c r="L222" s="17"/>
+      <c r="H222" s="17">
+        <v>1</v>
+      </c>
+      <c r="I222" s="17">
+        <v>1</v>
+      </c>
+      <c r="J222" s="17">
+        <v>1</v>
+      </c>
+      <c r="K222" s="17">
+        <v>1</v>
+      </c>
+      <c r="L222" s="17">
+        <v>1</v>
+      </c>
       <c r="M222" s="17">
         <v>1</v>
       </c>
-      <c r="N222" s="17"/>
-      <c r="O222" s="17"/>
-      <c r="P222" s="17"/>
-      <c r="Q222" s="17"/>
+      <c r="N222" s="17">
+        <v>1</v>
+      </c>
+      <c r="O222" s="17">
+        <v>1</v>
+      </c>
+      <c r="P222" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B223" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C223" s="39" t="s">
-        <v>89</v>
+      <c r="A223" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B223" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
@@ -7935,23 +7905,23 @@
       <c r="J223" s="17"/>
       <c r="K223" s="17"/>
       <c r="L223" s="17"/>
-      <c r="M223" s="17">
-        <v>1</v>
-      </c>
-      <c r="N223" s="17"/>
+      <c r="M223" s="17"/>
+      <c r="N223" s="17">
+        <v>1</v>
+      </c>
       <c r="O223" s="17"/>
       <c r="P223" s="17"/>
       <c r="Q223" s="17"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A224" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B224" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C224" s="39" t="s">
-        <v>232</v>
+      <c r="A224" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B224" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="35" t="s">
+        <v>115</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7962,23 +7932,23 @@
       <c r="J224" s="17"/>
       <c r="K224" s="17"/>
       <c r="L224" s="17"/>
-      <c r="M224" s="17">
-        <v>1</v>
-      </c>
-      <c r="N224" s="17"/>
+      <c r="M224" s="17"/>
+      <c r="N224" s="17">
+        <v>1</v>
+      </c>
       <c r="O224" s="17"/>
       <c r="P224" s="17"/>
       <c r="Q224" s="17"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A225" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B225" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C225" s="39" t="s">
-        <v>134</v>
+      <c r="A225" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B225" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7987,145 +7957,175 @@
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
-      <c r="K225" s="17"/>
+      <c r="K225" s="17">
+        <v>1</v>
+      </c>
       <c r="L225" s="17"/>
-      <c r="M225" s="17">
-        <v>1</v>
-      </c>
-      <c r="N225" s="17"/>
+      <c r="M225" s="17"/>
+      <c r="N225" s="17">
+        <v>1</v>
+      </c>
       <c r="O225" s="17"/>
       <c r="P225" s="17"/>
       <c r="Q225" s="17"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B226" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C226" s="39" t="s">
-        <v>16</v>
+      <c r="A226" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B226" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C226" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
       <c r="F226" s="45"/>
-      <c r="G226" s="17"/>
+      <c r="G226" s="17">
+        <v>1</v>
+      </c>
       <c r="H226" s="17">
         <v>1</v>
       </c>
-      <c r="I226" s="17"/>
-      <c r="J226" s="17"/>
+      <c r="I226" s="17">
+        <v>1</v>
+      </c>
+      <c r="J226" s="17">
+        <v>1</v>
+      </c>
       <c r="K226" s="17">
         <v>1</v>
       </c>
-      <c r="L226" s="17"/>
-      <c r="M226" s="17">
-        <v>1</v>
-      </c>
-      <c r="N226" s="17"/>
+      <c r="L226" s="17">
+        <v>1</v>
+      </c>
+      <c r="M226" s="17"/>
+      <c r="N226" s="17">
+        <v>1</v>
+      </c>
       <c r="O226" s="17"/>
       <c r="P226" s="17"/>
       <c r="Q226" s="17"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B227" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C227" s="39" t="s">
-        <v>60</v>
+      <c r="A227" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B227" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
       <c r="F227" s="45"/>
       <c r="G227" s="17"/>
-      <c r="H227" s="17">
-        <v>1</v>
-      </c>
-      <c r="I227" s="17">
-        <v>1</v>
-      </c>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
       <c r="J227" s="17"/>
       <c r="K227" s="17">
         <v>1</v>
       </c>
       <c r="L227" s="17"/>
-      <c r="M227" s="17">
-        <v>1</v>
-      </c>
-      <c r="N227" s="17"/>
+      <c r="M227" s="17"/>
+      <c r="N227" s="17">
+        <v>1</v>
+      </c>
       <c r="O227" s="17"/>
       <c r="P227" s="17"/>
       <c r="Q227" s="17"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A228" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B228" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C228" s="39" t="s">
-        <v>62</v>
+      <c r="A228" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B228" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C228" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
       <c r="F228" s="45"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="17"/>
-      <c r="K228" s="17"/>
-      <c r="L228" s="17"/>
+      <c r="G228" s="17">
+        <v>1</v>
+      </c>
+      <c r="H228" s="17">
+        <v>1</v>
+      </c>
+      <c r="I228" s="17">
+        <v>1</v>
+      </c>
+      <c r="J228" s="17">
+        <v>1</v>
+      </c>
+      <c r="K228" s="17">
+        <v>1</v>
+      </c>
+      <c r="L228" s="17">
+        <v>1</v>
+      </c>
       <c r="M228" s="17">
         <v>1</v>
       </c>
-      <c r="N228" s="17"/>
-      <c r="O228" s="17"/>
-      <c r="P228" s="17"/>
-      <c r="Q228" s="17"/>
+      <c r="N228" s="17">
+        <v>1</v>
+      </c>
+      <c r="O228" s="17">
+        <v>1</v>
+      </c>
+      <c r="P228" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q228" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A229" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B229" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C229" s="39" t="s">
-        <v>96</v>
+      <c r="A229" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B229" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
       <c r="F229" s="45"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
+      <c r="G229" s="17">
+        <v>1</v>
+      </c>
+      <c r="H229" s="17">
+        <v>1</v>
+      </c>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
       <c r="K229" s="17">
         <v>1</v>
       </c>
       <c r="L229" s="17"/>
-      <c r="M229" s="17">
-        <v>1</v>
-      </c>
-      <c r="N229" s="17"/>
+      <c r="M229" s="17"/>
+      <c r="N229" s="17">
+        <v>1</v>
+      </c>
       <c r="O229" s="17"/>
       <c r="P229" s="17"/>
       <c r="Q229" s="17"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B230" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C230" s="39" t="s">
-        <v>278</v>
+      <c r="A230" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
@@ -8134,9 +8134,7 @@
       <c r="H230" s="17"/>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
-      <c r="K230" s="17">
-        <v>1</v>
-      </c>
+      <c r="K230" s="17"/>
       <c r="L230" s="17"/>
       <c r="M230" s="17"/>
       <c r="N230" s="17"/>
@@ -8146,13 +8144,13 @@
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="37" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="B231" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C231" s="39" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
@@ -8161,9 +8159,7 @@
       <c r="H231" s="17"/>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
-      <c r="K231" s="17">
-        <v>1</v>
-      </c>
+      <c r="K231" s="17"/>
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
       <c r="N231" s="17"/>
@@ -8172,14 +8168,14 @@
       <c r="Q231" s="17"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B232" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" s="39" t="s">
-        <v>279</v>
+      <c r="A232" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B232" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
@@ -8188,9 +8184,7 @@
       <c r="H232" s="17"/>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
-      <c r="K232" s="17">
-        <v>1</v>
-      </c>
+      <c r="K232" s="17"/>
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
       <c r="N232" s="17"/>
@@ -8206,12 +8200,14 @@
         <v>6</v>
       </c>
       <c r="C233" s="39" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
       <c r="F233" s="45"/>
-      <c r="G233" s="17"/>
+      <c r="G233" s="17">
+        <v>1</v>
+      </c>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
@@ -8230,17 +8226,15 @@
         <v>43</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
       <c r="F234" s="45"/>
-      <c r="G234" s="17">
-        <v>1</v>
-      </c>
+      <c r="G234" s="17"/>
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
@@ -8262,44 +8256,24 @@
         <v>6</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
       <c r="F235" s="45"/>
-      <c r="G235" s="17">
-        <v>1</v>
-      </c>
-      <c r="H235" s="17">
-        <v>1</v>
-      </c>
-      <c r="I235" s="17">
-        <v>1</v>
-      </c>
-      <c r="J235" s="17">
-        <v>1</v>
-      </c>
-      <c r="K235" s="17">
-        <v>1</v>
-      </c>
-      <c r="L235" s="17">
-        <v>1</v>
-      </c>
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="17"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="17"/>
       <c r="M235" s="17">
         <v>1</v>
       </c>
-      <c r="N235" s="17">
-        <v>1</v>
-      </c>
-      <c r="O235" s="17">
-        <v>1</v>
-      </c>
-      <c r="P235" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q235" s="17">
-        <v>1</v>
-      </c>
+      <c r="N235" s="17"/>
+      <c r="O235" s="17"/>
+      <c r="P235" s="17"/>
+      <c r="Q235" s="17"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="37" t="s">
@@ -8309,14 +8283,12 @@
         <v>52</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
       <c r="F236" s="45"/>
-      <c r="G236" s="17">
-        <v>1</v>
-      </c>
+      <c r="G236" s="17"/>
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
@@ -8338,29 +8310,21 @@
         <v>6</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
       <c r="F237" s="45"/>
-      <c r="G237" s="17">
-        <v>1</v>
-      </c>
+      <c r="G237" s="17"/>
       <c r="H237" s="17">
         <v>1</v>
       </c>
-      <c r="I237" s="17">
-        <v>1</v>
-      </c>
-      <c r="J237" s="17">
-        <v>1</v>
-      </c>
+      <c r="I237" s="17"/>
+      <c r="J237" s="17"/>
       <c r="K237" s="17">
         <v>1</v>
       </c>
-      <c r="L237" s="17">
-        <v>1</v>
-      </c>
+      <c r="L237" s="17"/>
       <c r="M237" s="17">
         <v>1</v>
       </c>
@@ -8377,16 +8341,22 @@
         <v>52</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
       <c r="F238" s="45"/>
       <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
+      <c r="H238" s="17">
+        <v>1</v>
+      </c>
+      <c r="I238" s="17">
+        <v>1</v>
+      </c>
       <c r="J238" s="17"/>
-      <c r="K238" s="17"/>
+      <c r="K238" s="17">
+        <v>1</v>
+      </c>
       <c r="L238" s="17"/>
       <c r="M238" s="17">
         <v>1</v>
@@ -8401,10 +8371,10 @@
         <v>43</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
@@ -8413,9 +8383,7 @@
       <c r="H239" s="17"/>
       <c r="I239" s="17"/>
       <c r="J239" s="17"/>
-      <c r="K239" s="17">
-        <v>1</v>
-      </c>
+      <c r="K239" s="17"/>
       <c r="L239" s="17"/>
       <c r="M239" s="17">
         <v>1</v>
@@ -8433,7 +8401,7 @@
         <v>6</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
@@ -8442,7 +8410,9 @@
       <c r="H240" s="17"/>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
-      <c r="K240" s="17"/>
+      <c r="K240" s="17">
+        <v>1</v>
+      </c>
       <c r="L240" s="17"/>
       <c r="M240" s="17">
         <v>1</v>
@@ -8460,26 +8430,20 @@
         <v>6</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
       <c r="F241" s="45"/>
-      <c r="G241" s="17">
-        <v>1</v>
-      </c>
-      <c r="H241" s="17">
-        <v>1</v>
-      </c>
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
       <c r="I241" s="17"/>
       <c r="J241" s="17"/>
       <c r="K241" s="17">
         <v>1</v>
       </c>
       <c r="L241" s="17"/>
-      <c r="M241" s="17">
-        <v>1</v>
-      </c>
+      <c r="M241" s="17"/>
       <c r="N241" s="17"/>
       <c r="O241" s="17"/>
       <c r="P241" s="17"/>
@@ -8506,9 +8470,7 @@
         <v>1</v>
       </c>
       <c r="L242" s="17"/>
-      <c r="M242" s="17">
-        <v>1</v>
-      </c>
+      <c r="M242" s="17"/>
       <c r="N242" s="17"/>
       <c r="O242" s="17"/>
       <c r="P242" s="17"/>
@@ -8522,38 +8484,34 @@
         <v>6</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
       <c r="F243" s="45"/>
-      <c r="G243" s="17">
-        <v>1</v>
-      </c>
-      <c r="H243" s="17">
-        <v>1</v>
-      </c>
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
       <c r="I243" s="17"/>
       <c r="J243" s="17"/>
       <c r="K243" s="17">
         <v>1</v>
       </c>
       <c r="L243" s="17"/>
-      <c r="M243" s="17">
-        <v>1</v>
-      </c>
+      <c r="M243" s="17"/>
       <c r="N243" s="17"/>
       <c r="O243" s="17"/>
       <c r="P243" s="17"/>
       <c r="Q243" s="17"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A244" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B244" s="40"/>
-      <c r="C244" s="13" t="s">
-        <v>0</v>
+      <c r="A244" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B244" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" s="39" t="s">
+        <v>101</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
@@ -8564,21 +8522,23 @@
       <c r="J244" s="17"/>
       <c r="K244" s="17"/>
       <c r="L244" s="17"/>
-      <c r="M244" s="17"/>
+      <c r="M244" s="17">
+        <v>1</v>
+      </c>
       <c r="N244" s="17"/>
       <c r="O244" s="17"/>
       <c r="P244" s="17"/>
       <c r="Q244" s="17"/>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A245" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B245" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C245" s="13" t="s">
-        <v>138</v>
+      <c r="A245" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B245" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C245" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8586,28 +8546,28 @@
       <c r="G245" s="17">
         <v>1</v>
       </c>
-      <c r="H245" s="17">
-        <v>1</v>
-      </c>
+      <c r="H245" s="17"/>
       <c r="I245" s="17"/>
       <c r="J245" s="17"/>
       <c r="K245" s="17"/>
       <c r="L245" s="17"/>
-      <c r="M245" s="17"/>
+      <c r="M245" s="17">
+        <v>1</v>
+      </c>
       <c r="N245" s="17"/>
       <c r="O245" s="17"/>
       <c r="P245" s="17"/>
       <c r="Q245" s="17"/>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A246" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B246" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>142</v>
+      <c r="A246" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B246" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" s="39" t="s">
+        <v>104</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8618,200 +8578,194 @@
       <c r="H246" s="17">
         <v>1</v>
       </c>
-      <c r="I246" s="17"/>
-      <c r="J246" s="17"/>
+      <c r="I246" s="17">
+        <v>1</v>
+      </c>
+      <c r="J246" s="17">
+        <v>1</v>
+      </c>
       <c r="K246" s="17">
         <v>1</v>
       </c>
-      <c r="L246" s="17"/>
-      <c r="M246" s="17"/>
-      <c r="N246" s="17"/>
-      <c r="O246" s="17"/>
-      <c r="P246" s="17"/>
-      <c r="Q246" s="17"/>
+      <c r="L246" s="17">
+        <v>1</v>
+      </c>
+      <c r="M246" s="17">
+        <v>1</v>
+      </c>
+      <c r="N246" s="17">
+        <v>1</v>
+      </c>
+      <c r="O246" s="17">
+        <v>1</v>
+      </c>
+      <c r="P246" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A247" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>247</v>
+      <c r="A247" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B247" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C247" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
       <c r="F247" s="45"/>
-      <c r="G247" s="17"/>
+      <c r="G247" s="17">
+        <v>1</v>
+      </c>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
       <c r="J247" s="17"/>
       <c r="K247" s="17"/>
       <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
+      <c r="M247" s="17">
+        <v>1</v>
+      </c>
       <c r="N247" s="17"/>
       <c r="O247" s="17"/>
       <c r="P247" s="17"/>
       <c r="Q247" s="17"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A248" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B248" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>147</v>
+      <c r="A248" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B248" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
       <c r="F248" s="45"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
-      <c r="J248" s="17"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="17"/>
-      <c r="M248" s="17"/>
+      <c r="G248" s="17">
+        <v>1</v>
+      </c>
+      <c r="H248" s="17">
+        <v>1</v>
+      </c>
+      <c r="I248" s="17">
+        <v>1</v>
+      </c>
+      <c r="J248" s="17">
+        <v>1</v>
+      </c>
+      <c r="K248" s="17">
+        <v>1</v>
+      </c>
+      <c r="L248" s="17">
+        <v>1</v>
+      </c>
+      <c r="M248" s="17">
+        <v>1</v>
+      </c>
       <c r="N248" s="17"/>
       <c r="O248" s="17"/>
       <c r="P248" s="17"/>
       <c r="Q248" s="17"/>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A249" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B249" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C249" s="13" t="s">
-        <v>148</v>
+      <c r="A249" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B249" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C249" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
       <c r="F249" s="45"/>
       <c r="G249" s="17"/>
-      <c r="H249" s="17">
-        <v>1</v>
-      </c>
+      <c r="H249" s="17"/>
       <c r="I249" s="17"/>
       <c r="J249" s="17"/>
-      <c r="K249" s="17">
-        <v>1</v>
-      </c>
+      <c r="K249" s="17"/>
       <c r="L249" s="17"/>
-      <c r="M249" s="17"/>
+      <c r="M249" s="17">
+        <v>1</v>
+      </c>
       <c r="N249" s="17"/>
       <c r="O249" s="17"/>
       <c r="P249" s="17"/>
       <c r="Q249" s="17"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A250" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>211</v>
+      <c r="A250" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B250" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
       <c r="F250" s="45"/>
-      <c r="G250" s="17">
-        <v>1</v>
-      </c>
-      <c r="H250" s="17">
-        <v>1</v>
-      </c>
-      <c r="I250" s="17">
-        <v>1</v>
-      </c>
-      <c r="J250" s="17">
-        <v>1</v>
-      </c>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
       <c r="K250" s="17">
         <v>1</v>
       </c>
-      <c r="L250" s="17">
-        <v>1</v>
-      </c>
+      <c r="L250" s="17"/>
       <c r="M250" s="17">
         <v>1</v>
       </c>
-      <c r="N250" s="17">
-        <v>1</v>
-      </c>
-      <c r="O250" s="17">
-        <v>1</v>
-      </c>
-      <c r="P250" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q250" s="17">
-        <v>1</v>
-      </c>
+      <c r="N250" s="17"/>
+      <c r="O250" s="17"/>
+      <c r="P250" s="17"/>
+      <c r="Q250" s="17"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A251" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B251" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C251" s="13" t="s">
-        <v>271</v>
+      <c r="A251" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B251" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
       <c r="F251" s="45"/>
-      <c r="G251" s="17">
-        <v>1</v>
-      </c>
-      <c r="H251" s="17">
-        <v>1</v>
-      </c>
-      <c r="I251" s="17">
-        <v>1</v>
-      </c>
-      <c r="J251" s="17">
-        <v>1</v>
-      </c>
-      <c r="K251" s="17">
-        <v>1</v>
-      </c>
-      <c r="L251" s="17">
-        <v>1</v>
-      </c>
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
       <c r="M251" s="17">
         <v>1</v>
       </c>
-      <c r="N251" s="17">
-        <v>1</v>
-      </c>
-      <c r="O251" s="17">
-        <v>1</v>
-      </c>
-      <c r="P251" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q251" s="17">
-        <v>1</v>
-      </c>
+      <c r="N251" s="17"/>
+      <c r="O251" s="17"/>
+      <c r="P251" s="17"/>
+      <c r="Q251" s="17"/>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A252" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B252" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>163</v>
+      <c r="A252" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B252" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
@@ -8822,324 +8776,686 @@
       <c r="H252" s="17">
         <v>1</v>
       </c>
-      <c r="I252" s="17">
-        <v>1</v>
-      </c>
-      <c r="J252" s="17">
-        <v>1</v>
-      </c>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
       <c r="K252" s="17">
         <v>1</v>
       </c>
-      <c r="L252" s="17">
-        <v>1</v>
-      </c>
+      <c r="L252" s="17"/>
       <c r="M252" s="17">
         <v>1</v>
       </c>
-      <c r="N252" s="17">
-        <v>1</v>
-      </c>
-      <c r="O252" s="17">
-        <v>1</v>
-      </c>
-      <c r="P252" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q252" s="17">
-        <v>1</v>
-      </c>
+      <c r="N252" s="17"/>
+      <c r="O252" s="17"/>
+      <c r="P252" s="17"/>
+      <c r="Q252" s="17"/>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A253" s="11" t="s">
+      <c r="A253" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B253" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="D253" s="45"/>
+      <c r="E253" s="45"/>
+      <c r="F253" s="45"/>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="17"/>
+      <c r="K253" s="17">
+        <v>1</v>
+      </c>
+      <c r="L253" s="17"/>
+      <c r="M253" s="17">
+        <v>1</v>
+      </c>
+      <c r="N253" s="17"/>
+      <c r="O253" s="17"/>
+      <c r="P253" s="17"/>
+      <c r="Q253" s="17"/>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A254" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B254" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D254" s="45"/>
+      <c r="E254" s="45"/>
+      <c r="F254" s="45"/>
+      <c r="G254" s="17">
+        <v>1</v>
+      </c>
+      <c r="H254" s="17">
+        <v>1</v>
+      </c>
+      <c r="I254" s="17"/>
+      <c r="J254" s="17"/>
+      <c r="K254" s="17">
+        <v>1</v>
+      </c>
+      <c r="L254" s="17"/>
+      <c r="M254" s="17">
+        <v>1</v>
+      </c>
+      <c r="N254" s="17"/>
+      <c r="O254" s="17"/>
+      <c r="P254" s="17"/>
+      <c r="Q254" s="17"/>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A255" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B253" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C253" s="13" t="s">
+      <c r="B255" s="40"/>
+      <c r="C255" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" s="45"/>
+      <c r="E255" s="45"/>
+      <c r="F255" s="45"/>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="17"/>
+      <c r="K255" s="17"/>
+      <c r="L255" s="17"/>
+      <c r="M255" s="17"/>
+      <c r="N255" s="17"/>
+      <c r="O255" s="17"/>
+      <c r="P255" s="17"/>
+      <c r="Q255" s="17"/>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A256" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B256" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C256" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D256" s="45"/>
+      <c r="E256" s="45"/>
+      <c r="F256" s="45"/>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17">
+        <v>1</v>
+      </c>
+      <c r="I256" s="17"/>
+      <c r="J256" s="17"/>
+      <c r="K256" s="17"/>
+      <c r="L256" s="17"/>
+      <c r="M256" s="17"/>
+      <c r="N256" s="17"/>
+      <c r="O256" s="17"/>
+      <c r="P256" s="17"/>
+      <c r="Q256" s="17"/>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A257" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B257" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D257" s="45"/>
+      <c r="E257" s="45"/>
+      <c r="F257" s="45"/>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="17"/>
+      <c r="J257" s="17"/>
+      <c r="K257" s="17">
+        <v>1</v>
+      </c>
+      <c r="L257" s="17"/>
+      <c r="M257" s="17"/>
+      <c r="N257" s="17"/>
+      <c r="O257" s="17"/>
+      <c r="P257" s="17"/>
+      <c r="Q257" s="17"/>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A258" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D258" s="45"/>
+      <c r="E258" s="45"/>
+      <c r="F258" s="45"/>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="17"/>
+      <c r="K258" s="17"/>
+      <c r="L258" s="17"/>
+      <c r="M258" s="17"/>
+      <c r="N258" s="17"/>
+      <c r="O258" s="17"/>
+      <c r="P258" s="17"/>
+      <c r="Q258" s="17"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A259" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C259" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D259" s="45"/>
+      <c r="E259" s="45"/>
+      <c r="F259" s="45"/>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="17"/>
+      <c r="K259" s="17"/>
+      <c r="L259" s="17"/>
+      <c r="M259" s="17"/>
+      <c r="N259" s="17"/>
+      <c r="O259" s="17"/>
+      <c r="P259" s="17"/>
+      <c r="Q259" s="17"/>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A260" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D260" s="45"/>
+      <c r="E260" s="45"/>
+      <c r="F260" s="45"/>
+      <c r="G260" s="17"/>
+      <c r="H260" s="17">
+        <v>1</v>
+      </c>
+      <c r="I260" s="17"/>
+      <c r="J260" s="17"/>
+      <c r="K260" s="17">
+        <v>1</v>
+      </c>
+      <c r="L260" s="17"/>
+      <c r="M260" s="17"/>
+      <c r="N260" s="17"/>
+      <c r="O260" s="17"/>
+      <c r="P260" s="17"/>
+      <c r="Q260" s="17"/>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A261" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B261" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D261" s="45"/>
+      <c r="E261" s="45"/>
+      <c r="F261" s="45"/>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="H261" s="17">
+        <v>1</v>
+      </c>
+      <c r="I261" s="17">
+        <v>1</v>
+      </c>
+      <c r="J261" s="17">
+        <v>1</v>
+      </c>
+      <c r="K261" s="17">
+        <v>1</v>
+      </c>
+      <c r="L261" s="17">
+        <v>1</v>
+      </c>
+      <c r="M261" s="17">
+        <v>1</v>
+      </c>
+      <c r="N261" s="17">
+        <v>1</v>
+      </c>
+      <c r="O261" s="17">
+        <v>1</v>
+      </c>
+      <c r="P261" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q261" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A262" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C262" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D262" s="45"/>
+      <c r="E262" s="45"/>
+      <c r="F262" s="45"/>
+      <c r="G262" s="17">
+        <v>1</v>
+      </c>
+      <c r="H262" s="17">
+        <v>1</v>
+      </c>
+      <c r="I262" s="17">
+        <v>1</v>
+      </c>
+      <c r="J262" s="17">
+        <v>1</v>
+      </c>
+      <c r="K262" s="17">
+        <v>1</v>
+      </c>
+      <c r="L262" s="17">
+        <v>1</v>
+      </c>
+      <c r="M262" s="17">
+        <v>1</v>
+      </c>
+      <c r="N262" s="17">
+        <v>1</v>
+      </c>
+      <c r="O262" s="17">
+        <v>1</v>
+      </c>
+      <c r="P262" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q262" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A263" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D263" s="45"/>
+      <c r="E263" s="45"/>
+      <c r="F263" s="45"/>
+      <c r="G263" s="17">
+        <v>1</v>
+      </c>
+      <c r="H263" s="17">
+        <v>1</v>
+      </c>
+      <c r="I263" s="17">
+        <v>1</v>
+      </c>
+      <c r="J263" s="17">
+        <v>1</v>
+      </c>
+      <c r="K263" s="17">
+        <v>1</v>
+      </c>
+      <c r="L263" s="17">
+        <v>1</v>
+      </c>
+      <c r="M263" s="17">
+        <v>1</v>
+      </c>
+      <c r="N263" s="17">
+        <v>1</v>
+      </c>
+      <c r="O263" s="17">
+        <v>1</v>
+      </c>
+      <c r="P263" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q263" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A264" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D253" s="48"/>
-      <c r="E253" s="48"/>
-      <c r="F253" s="48"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54">
-        <v>1</v>
-      </c>
-      <c r="I253" s="54"/>
-      <c r="J253" s="54"/>
-      <c r="K253" s="54">
-        <v>1</v>
-      </c>
-      <c r="L253" s="54"/>
-      <c r="M253" s="54"/>
-      <c r="N253" s="54"/>
-      <c r="O253" s="54"/>
-      <c r="P253" s="54"/>
-      <c r="Q253" s="54"/>
+      <c r="D264" s="48"/>
+      <c r="E264" s="48"/>
+      <c r="F264" s="48"/>
+      <c r="G264" s="54"/>
+      <c r="H264" s="54">
+        <v>1</v>
+      </c>
+      <c r="I264" s="54"/>
+      <c r="J264" s="54"/>
+      <c r="K264" s="54">
+        <v>1</v>
+      </c>
+      <c r="L264" s="54"/>
+      <c r="M264" s="54"/>
+      <c r="N264" s="54"/>
+      <c r="O264" s="54"/>
+      <c r="P264" s="54"/>
+      <c r="Q264" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q253" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q253">
-      <sortCondition ref="A1:A253"/>
+  <autoFilter ref="A1:Q264" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q264">
+      <sortCondition ref="A1:A264"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q252">
-    <sortCondition ref="A2:A252"/>
-    <sortCondition ref="C2:C252"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q263">
+    <sortCondition ref="A2:A263"/>
+    <sortCondition ref="C2:C263"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C82" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C207" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
-    <hyperlink ref="C23" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C222" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C223" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C153" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C154" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
-    <hyperlink ref="C38" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
-    <hyperlink ref="C57" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C224" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
-    <hyperlink ref="C33" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C208" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
-    <hyperlink ref="C84" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C155" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C226" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C156" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
-    <hyperlink ref="C86" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
-    <hyperlink ref="C87" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
-    <hyperlink ref="C88" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
-    <hyperlink ref="C89" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
-    <hyperlink ref="C91" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
-    <hyperlink ref="C92" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C158" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C159" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C160" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C194" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C197" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C196" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C210" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C229" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
-    <hyperlink ref="C40" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C190" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C191" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C192" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
-    <hyperlink ref="C53" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C233" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C212" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C81" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
+    <hyperlink ref="C218" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C22" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
+    <hyperlink ref="C233" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C234" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C152" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C153" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C37" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
+    <hyperlink ref="C56" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
+    <hyperlink ref="C235" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C32" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
+    <hyperlink ref="C219" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C83" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
+    <hyperlink ref="C154" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C237" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C155" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C85" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
+    <hyperlink ref="C86" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
+    <hyperlink ref="C87" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
+    <hyperlink ref="C88" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
+    <hyperlink ref="C90" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
+    <hyperlink ref="C91" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
+    <hyperlink ref="C157" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C158" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C159" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C205" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C208" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C207" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C221" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C240" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C39" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
+    <hyperlink ref="C194" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C195" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C196" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C52" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
+    <hyperlink ref="C244" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C223" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C221" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
-    <hyperlink ref="C63" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C235" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C108" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C109" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C110" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C111" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C112" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C113" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C114" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C237" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
-    <hyperlink ref="C18" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
-    <hyperlink ref="C42" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C161" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
-    <hyperlink ref="C65" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C213" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C166" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C164" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C165" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C167" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
-    <hyperlink ref="C44" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C168" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C214" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
-    <hyperlink ref="C55" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C169" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C220" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C239" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C240" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C201" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
-    <hyperlink ref="C45" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C170" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C241" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C242" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C202" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C204" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
-    <hyperlink ref="C30" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C253" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
-    <hyperlink ref="C67" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C187" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C205" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C216" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C188" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C218" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C243" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C189" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C100" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C206" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
-    <hyperlink ref="C22" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
+    <hyperlink ref="C232" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C62" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
+    <hyperlink ref="C246" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C107" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C108" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C109" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C110" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C111" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C112" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C113" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C248" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C17" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
+    <hyperlink ref="C41" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
+    <hyperlink ref="C160" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C64" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
+    <hyperlink ref="C224" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C165" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C163" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C164" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C166" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C43" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
+    <hyperlink ref="C167" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C225" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C54" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
+    <hyperlink ref="C168" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C231" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C250" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C251" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C212" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C44" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
+    <hyperlink ref="C169" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C252" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C253" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C213" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C215" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C29" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
+    <hyperlink ref="C264" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C66" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
+    <hyperlink ref="C186" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C216" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C227" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C187" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C229" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C254" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C188" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C99" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C217" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C21" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C118" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
-    <hyperlink ref="C72" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
-    <hyperlink ref="C34" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C225" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C209" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C157" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
-    <hyperlink ref="C90" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C227" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C119" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C120" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C228" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C125" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
-    <hyperlink ref="C73" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
-    <hyperlink ref="C74" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
-    <hyperlink ref="C75" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C245" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
-    <hyperlink ref="C39" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
-    <hyperlink ref="C50" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
-    <hyperlink ref="C51" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C246" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C126" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
-    <hyperlink ref="C52" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
+    <hyperlink ref="C117" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C71" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
+    <hyperlink ref="C33" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
+    <hyperlink ref="C236" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C220" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C156" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C89" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
+    <hyperlink ref="C238" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C118" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C119" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C239" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C124" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C72" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
+    <hyperlink ref="C73" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
+    <hyperlink ref="C74" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
+    <hyperlink ref="C256" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C38" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
+    <hyperlink ref="C49" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
+    <hyperlink ref="C50" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
+    <hyperlink ref="C257" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C125" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C51" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
-    <hyperlink ref="C24" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C248" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C249" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C127" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C128" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C104" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C234" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C236" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
-    <hyperlink ref="C76" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
+    <hyperlink ref="C23" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
+    <hyperlink ref="C259" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C260" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C126" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C127" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C103" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C245" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C247" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C75" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C16" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
-    <hyperlink ref="C17" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
-    <hyperlink ref="C43" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C98" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C130" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C105" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
-    <hyperlink ref="C26" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C238" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
-    <hyperlink ref="C19" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
-    <hyperlink ref="C25" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
-    <hyperlink ref="C77" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C132" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C133" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
-    <hyperlink ref="C78" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
-    <hyperlink ref="C20" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
-    <hyperlink ref="C21" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C134" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
-    <hyperlink ref="C80" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C215" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C135" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
-    <hyperlink ref="C71" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
-    <hyperlink ref="C27" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
-    <hyperlink ref="C28" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C252" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
-    <hyperlink ref="C29" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C106" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C149" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
-    <hyperlink ref="C81" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C150" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C151" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C152" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C217" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C102" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C244" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C193" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C211" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C107" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
-    <hyperlink ref="C46" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
-    <hyperlink ref="C41" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C250" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
-    <hyperlink ref="C95" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
-    <hyperlink ref="C31" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C203" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
-    <hyperlink ref="C70" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
-    <hyperlink ref="C69" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
+    <hyperlink ref="C202" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
+    <hyperlink ref="C42" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
+    <hyperlink ref="C97" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C129" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C104" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C25" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
+    <hyperlink ref="C249" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C18" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
+    <hyperlink ref="C24" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
+    <hyperlink ref="C76" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
+    <hyperlink ref="C131" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C132" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C77" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
+    <hyperlink ref="C19" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
+    <hyperlink ref="C20" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
+    <hyperlink ref="C133" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C79" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
+    <hyperlink ref="C226" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C134" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C70" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
+    <hyperlink ref="C26" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
+    <hyperlink ref="C27" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
+    <hyperlink ref="C263" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C28" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
+    <hyperlink ref="C105" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C148" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C80" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
+    <hyperlink ref="C149" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C150" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C151" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C228" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C101" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C255" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C204" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C222" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C106" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C45" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
+    <hyperlink ref="C40" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
+    <hyperlink ref="C261" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C94" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
+    <hyperlink ref="C30" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
+    <hyperlink ref="C214" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C69" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
+    <hyperlink ref="C68" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
     <hyperlink ref="C9" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C97" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
-    <hyperlink ref="C94" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
-    <hyperlink ref="C56" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
-    <hyperlink ref="C48" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
-    <hyperlink ref="C47" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
-    <hyperlink ref="C49" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C162" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C247" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
-    <hyperlink ref="C85" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
-    <hyperlink ref="C83" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C99" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
-    <hyperlink ref="C93" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C138" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C139" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C143" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C144" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C145" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C146" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C147" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C137" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C148" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C136" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C140" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C141" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C131" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C171" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C182" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C172" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C174" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C173" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C180" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C178" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C175" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C179" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C184" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C185" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C186" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C183" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C176" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C181" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C177" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C251" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C142" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C121" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C122" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C123" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C124" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C195" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
-    <hyperlink ref="C32" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
-    <hyperlink ref="C35" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
-    <hyperlink ref="C36" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
-    <hyperlink ref="C37" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C219" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C199" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C200" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
-    <hyperlink ref="C58" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
-    <hyperlink ref="C59" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
-    <hyperlink ref="C60" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
-    <hyperlink ref="C61" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C115" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C116" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C117" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
-    <hyperlink ref="C54" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C230" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C232" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C231" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C163" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
-    <hyperlink ref="C96" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
-    <hyperlink ref="C129" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C198" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
-    <hyperlink ref="C79" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
-    <hyperlink ref="C64" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
-    <hyperlink ref="C66" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
-    <hyperlink ref="C68" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
-    <hyperlink ref="C62" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
+    <hyperlink ref="C96" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C93" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
+    <hyperlink ref="C55" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
+    <hyperlink ref="C47" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
+    <hyperlink ref="C46" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
+    <hyperlink ref="C48" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
+    <hyperlink ref="C161" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C258" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C84" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
+    <hyperlink ref="C82" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
+    <hyperlink ref="C98" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C92" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
+    <hyperlink ref="C137" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C138" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C142" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C143" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C144" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C145" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C146" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C136" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C147" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C135" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C139" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C140" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C130" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C170" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C181" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C171" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C173" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C172" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C179" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C177" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C174" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C178" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C183" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C184" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C185" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C182" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C175" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C180" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C176" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C262" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C141" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C120" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C121" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C122" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C123" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C206" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C31" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
+    <hyperlink ref="C34" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
+    <hyperlink ref="C35" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
+    <hyperlink ref="C36" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
+    <hyperlink ref="C230" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C210" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C211" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C57" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
+    <hyperlink ref="C58" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
+    <hyperlink ref="C59" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
+    <hyperlink ref="C60" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
+    <hyperlink ref="C114" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C115" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C116" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C53" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
+    <hyperlink ref="C241" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C243" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C242" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C162" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C95" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
+    <hyperlink ref="C128" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C209" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C78" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
+    <hyperlink ref="C63" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
+    <hyperlink ref="C65" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
+    <hyperlink ref="C67" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
+    <hyperlink ref="C61" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
     <hyperlink ref="C10" r:id="rId246" xr:uid="{666E9BB7-4380-324A-B6C1-29F29C3FE1C0}"/>
     <hyperlink ref="C12" r:id="rId247" xr:uid="{E5C74CD9-B0F4-B643-B5C5-C17DE12B91CA}"/>
     <hyperlink ref="C8" r:id="rId248" xr:uid="{F4DFDDD1-B34C-4B4D-BCC8-3F72037E5C85}"/>
     <hyperlink ref="C13" r:id="rId249" xr:uid="{83DFEBC3-E8B1-A840-9964-33EB0A44BF40}"/>
     <hyperlink ref="C11" r:id="rId250" xr:uid="{27A3B616-FD7B-514A-B8BE-D948ED83FC6A}"/>
+    <hyperlink ref="C203" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
+    <hyperlink ref="C198" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
+    <hyperlink ref="C199" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
+    <hyperlink ref="C197" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
+    <hyperlink ref="C190" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
+    <hyperlink ref="C191" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
+    <hyperlink ref="C193" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
+    <hyperlink ref="C200" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
+    <hyperlink ref="C189" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
+    <hyperlink ref="C201" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
+    <hyperlink ref="C192" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9161,10 +9477,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2226AEB0-4D1C-C649-A62B-A2035D7F7F57}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CDDCF3-9B54-074D-A72E-1D080416B82A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$265</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="308">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>Elemental Link</t>
+  </si>
+  <si>
+    <t>Serverless Application Model (SAM)</t>
   </si>
 </sst>
 </file>
@@ -1656,11 +1659,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q264"/>
+  <dimension ref="A1:Q265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4445,7 +4448,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -4470,16 +4473,14 @@
         <v>6</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
       <c r="F99" s="45"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
-      <c r="I99" s="17">
-        <v>1</v>
-      </c>
+      <c r="I99" s="17"/>
       <c r="J99" s="17"/>
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
@@ -4490,21 +4491,23 @@
       <c r="Q99" s="17"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B100" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>225</v>
+      <c r="A100" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
+      <c r="I100" s="17">
+        <v>1</v>
+      </c>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -4521,8 +4524,8 @@
       <c r="B101" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C101" s="24" t="s">
-        <v>87</v>
+      <c r="C101" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
@@ -4546,8 +4549,8 @@
       <c r="B102" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="22" t="s">
-        <v>223</v>
+      <c r="C102" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
@@ -4565,14 +4568,14 @@
       <c r="Q102" s="17"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>67</v>
+      <c r="A103" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
@@ -4597,7 +4600,7 @@
         <v>52</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
@@ -4622,7 +4625,7 @@
         <v>52</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -4640,12 +4643,14 @@
       <c r="Q105" s="17"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="27" t="s">
-        <v>3</v>
+      <c r="A106" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -4666,11 +4671,9 @@
       <c r="A107" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B107" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B107" s="26"/>
       <c r="C107" s="27" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
@@ -4695,7 +4698,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
@@ -4720,7 +4723,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
@@ -4745,7 +4748,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -4770,7 +4773,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -4795,7 +4798,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="45"/>
@@ -4820,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
@@ -4845,7 +4848,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
@@ -4870,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
@@ -4892,10 +4895,10 @@
         <v>34</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="45"/>
@@ -4913,14 +4916,14 @@
       <c r="Q116" s="17"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C117" s="24" t="s">
-        <v>133</v>
+      <c r="A117" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
@@ -4933,9 +4936,7 @@
       <c r="L117" s="17"/>
       <c r="M117" s="17"/>
       <c r="N117" s="17"/>
-      <c r="O117" s="17">
-        <v>1</v>
-      </c>
+      <c r="O117" s="17"/>
       <c r="P117" s="17"/>
       <c r="Q117" s="17"/>
     </row>
@@ -4947,7 +4948,7 @@
         <v>52</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
@@ -4974,7 +4975,7 @@
         <v>52</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
@@ -4998,10 +4999,10 @@
         <v>240</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="D120" s="45"/>
       <c r="E120" s="45"/>
@@ -5028,7 +5029,7 @@
         <v>176</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5041,7 +5042,9 @@
       <c r="L121" s="17"/>
       <c r="M121" s="17"/>
       <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
+      <c r="O121" s="17">
+        <v>1</v>
+      </c>
       <c r="P121" s="17"/>
       <c r="Q121" s="17"/>
     </row>
@@ -5053,7 +5056,7 @@
         <v>176</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="45"/>
@@ -5078,7 +5081,7 @@
         <v>176</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
@@ -5100,10 +5103,10 @@
         <v>240</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
@@ -5116,9 +5119,7 @@
       <c r="L124" s="17"/>
       <c r="M124" s="17"/>
       <c r="N124" s="17"/>
-      <c r="O124" s="17">
-        <v>1</v>
-      </c>
+      <c r="O124" s="17"/>
       <c r="P124" s="17"/>
       <c r="Q124" s="17"/>
     </row>
@@ -5130,7 +5131,7 @@
         <v>52</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
@@ -5157,7 +5158,7 @@
         <v>52</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D126" s="45"/>
       <c r="E126" s="45"/>
@@ -5184,7 +5185,7 @@
         <v>52</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
@@ -5211,7 +5212,7 @@
         <v>52</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="45"/>
@@ -5224,7 +5225,9 @@
       <c r="L128" s="17"/>
       <c r="M128" s="17"/>
       <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
+      <c r="O128" s="17">
+        <v>1</v>
+      </c>
       <c r="P128" s="17"/>
       <c r="Q128" s="17"/>
     </row>
@@ -5236,7 +5239,7 @@
         <v>52</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
@@ -5258,10 +5261,10 @@
         <v>240</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="45"/>
@@ -5283,10 +5286,10 @@
         <v>240</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
@@ -5299,9 +5302,7 @@
       <c r="L131" s="17"/>
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
-      <c r="O131" s="17">
-        <v>1</v>
-      </c>
+      <c r="O131" s="17"/>
       <c r="P131" s="17"/>
       <c r="Q131" s="17"/>
     </row>
@@ -5313,7 +5314,7 @@
         <v>52</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
@@ -5340,7 +5341,7 @@
         <v>52</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
@@ -5367,7 +5368,7 @@
         <v>52</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="45"/>
@@ -5394,7 +5395,7 @@
         <v>52</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
@@ -5421,7 +5422,7 @@
         <v>52</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="45"/>
@@ -5448,7 +5449,7 @@
         <v>52</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
@@ -5475,7 +5476,7 @@
         <v>52</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="45"/>
@@ -5502,7 +5503,7 @@
         <v>52</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
@@ -5529,7 +5530,7 @@
         <v>52</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D140" s="45"/>
       <c r="E140" s="45"/>
@@ -5556,7 +5557,7 @@
         <v>52</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
@@ -5583,7 +5584,7 @@
         <v>52</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="45"/>
@@ -5610,7 +5611,7 @@
         <v>52</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -5637,7 +5638,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45"/>
@@ -5664,7 +5665,7 @@
         <v>52</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
@@ -5691,7 +5692,7 @@
         <v>52</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D146" s="45"/>
       <c r="E146" s="45"/>
@@ -5718,7 +5719,7 @@
         <v>52</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
@@ -5745,7 +5746,7 @@
         <v>52</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
@@ -5772,7 +5773,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D149" s="45"/>
       <c r="E149" s="45"/>
@@ -5799,7 +5800,7 @@
         <v>52</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
@@ -5826,7 +5827,7 @@
         <v>52</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D151" s="45"/>
       <c r="E151" s="45"/>
@@ -5846,31 +5847,29 @@
       <c r="Q151" s="17"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B152" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="31" t="s">
-        <v>90</v>
+      <c r="A152" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D152" s="45"/>
       <c r="E152" s="45"/>
       <c r="F152" s="45"/>
       <c r="G152" s="17"/>
-      <c r="H152" s="17">
-        <v>1</v>
-      </c>
+      <c r="H152" s="17"/>
       <c r="I152" s="17"/>
       <c r="J152" s="17"/>
-      <c r="K152" s="17">
-        <v>1</v>
-      </c>
+      <c r="K152" s="17"/>
       <c r="L152" s="17"/>
       <c r="M152" s="17"/>
       <c r="N152" s="17"/>
-      <c r="O152" s="17"/>
+      <c r="O152" s="17">
+        <v>1</v>
+      </c>
       <c r="P152" s="17"/>
       <c r="Q152" s="17"/>
     </row>
@@ -5882,16 +5881,20 @@
         <v>6</v>
       </c>
       <c r="C153" s="31" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
       <c r="F153" s="45"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
+      <c r="H153" s="17">
+        <v>1</v>
+      </c>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
-      <c r="K153" s="17"/>
+      <c r="K153" s="17">
+        <v>1</v>
+      </c>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
@@ -5907,44 +5910,22 @@
         <v>6</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
-      <c r="G154" s="17">
-        <v>1</v>
-      </c>
-      <c r="H154" s="17">
-        <v>1</v>
-      </c>
-      <c r="I154" s="17">
-        <v>1</v>
-      </c>
-      <c r="J154" s="17">
-        <v>1</v>
-      </c>
-      <c r="K154" s="17">
-        <v>1</v>
-      </c>
-      <c r="L154" s="17">
-        <v>1</v>
-      </c>
-      <c r="M154" s="17">
-        <v>1</v>
-      </c>
-      <c r="N154" s="17">
-        <v>1</v>
-      </c>
-      <c r="O154" s="17">
-        <v>1</v>
-      </c>
-      <c r="P154" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="17">
-        <v>1</v>
-      </c>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+      <c r="N154" s="17"/>
+      <c r="O154" s="17"/>
+      <c r="P154" s="17"/>
+      <c r="Q154" s="17"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="29" t="s">
@@ -5954,7 +5935,7 @@
         <v>6</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="45"/>
@@ -5968,28 +5949,40 @@
       <c r="I155" s="17">
         <v>1</v>
       </c>
-      <c r="J155" s="17"/>
+      <c r="J155" s="17">
+        <v>1</v>
+      </c>
       <c r="K155" s="17">
         <v>1</v>
       </c>
-      <c r="L155" s="17"/>
+      <c r="L155" s="17">
+        <v>1</v>
+      </c>
       <c r="M155" s="17">
         <v>1</v>
       </c>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
-      <c r="Q155" s="17"/>
+      <c r="N155" s="17">
+        <v>1</v>
+      </c>
+      <c r="O155" s="17">
+        <v>1</v>
+      </c>
+      <c r="P155" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B156" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D156" s="45"/>
       <c r="E156" s="45"/>
@@ -6003,55 +5996,65 @@
       <c r="I156" s="17">
         <v>1</v>
       </c>
-      <c r="J156" s="17">
-        <v>1</v>
-      </c>
+      <c r="J156" s="17"/>
       <c r="K156" s="17">
         <v>1</v>
       </c>
-      <c r="L156" s="17">
-        <v>1</v>
-      </c>
+      <c r="L156" s="17"/>
       <c r="M156" s="17">
         <v>1</v>
       </c>
-      <c r="N156" s="17">
-        <v>1</v>
-      </c>
-      <c r="O156" s="17">
-        <v>1</v>
-      </c>
-      <c r="P156" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q156" s="17">
-        <v>1</v>
-      </c>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="17"/>
+      <c r="Q156" s="17"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
       <c r="F157" s="45"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="17"/>
-      <c r="K157" s="17"/>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
-      <c r="Q157" s="17"/>
+      <c r="G157" s="17">
+        <v>1</v>
+      </c>
+      <c r="H157" s="17">
+        <v>1</v>
+      </c>
+      <c r="I157" s="17">
+        <v>1</v>
+      </c>
+      <c r="J157" s="17">
+        <v>1</v>
+      </c>
+      <c r="K157" s="17">
+        <v>1</v>
+      </c>
+      <c r="L157" s="17">
+        <v>1</v>
+      </c>
+      <c r="M157" s="17">
+        <v>1</v>
+      </c>
+      <c r="N157" s="17">
+        <v>1</v>
+      </c>
+      <c r="O157" s="17">
+        <v>1</v>
+      </c>
+      <c r="P157" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
@@ -6061,20 +6064,16 @@
         <v>6</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D158" s="45"/>
       <c r="E158" s="45"/>
       <c r="F158" s="45"/>
       <c r="G158" s="17"/>
-      <c r="H158" s="17">
-        <v>1</v>
-      </c>
+      <c r="H158" s="17"/>
       <c r="I158" s="17"/>
       <c r="J158" s="17"/>
-      <c r="K158" s="17">
-        <v>1</v>
-      </c>
+      <c r="K158" s="17"/>
       <c r="L158" s="17"/>
       <c r="M158" s="17"/>
       <c r="N158" s="17"/>
@@ -6090,16 +6089,20 @@
         <v>6</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="45"/>
       <c r="F159" s="45"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
+      <c r="H159" s="17">
+        <v>1</v>
+      </c>
       <c r="I159" s="17"/>
       <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
+      <c r="K159" s="17">
+        <v>1</v>
+      </c>
       <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
@@ -6115,7 +6118,7 @@
         <v>6</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D160" s="45"/>
       <c r="E160" s="45"/>
@@ -6137,10 +6140,10 @@
         <v>33</v>
       </c>
       <c r="B161" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
@@ -6162,17 +6165,15 @@
         <v>33</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
       <c r="F162" s="45"/>
-      <c r="G162" s="17">
-        <v>1</v>
-      </c>
+      <c r="G162" s="17"/>
       <c r="H162" s="17"/>
       <c r="I162" s="17"/>
       <c r="J162" s="17"/>
@@ -6192,22 +6193,18 @@
         <v>6</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
       <c r="F163" s="45"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17">
-        <v>1</v>
-      </c>
-      <c r="I163" s="17">
-        <v>1</v>
-      </c>
+      <c r="G163" s="17">
+        <v>1</v>
+      </c>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
       <c r="J163" s="17"/>
-      <c r="K163" s="17">
-        <v>1</v>
-      </c>
+      <c r="K163" s="17"/>
       <c r="L163" s="17"/>
       <c r="M163" s="17"/>
       <c r="N163" s="17"/>
@@ -6223,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
@@ -6254,7 +6251,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
@@ -6285,18 +6282,18 @@
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
       <c r="F166" s="45"/>
-      <c r="G166" s="17">
-        <v>1</v>
-      </c>
+      <c r="G166" s="17"/>
       <c r="H166" s="17">
         <v>1</v>
       </c>
-      <c r="I166" s="17"/>
+      <c r="I166" s="17">
+        <v>1</v>
+      </c>
       <c r="J166" s="17"/>
       <c r="K166" s="17">
         <v>1</v>
@@ -6316,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
@@ -6324,10 +6321,14 @@
       <c r="G167" s="17">
         <v>1</v>
       </c>
-      <c r="H167" s="17"/>
+      <c r="H167" s="17">
+        <v>1</v>
+      </c>
       <c r="I167" s="17"/>
       <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
+      <c r="K167" s="17">
+        <v>1</v>
+      </c>
       <c r="L167" s="17"/>
       <c r="M167" s="17"/>
       <c r="N167" s="17"/>
@@ -6343,12 +6344,14 @@
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
       <c r="F168" s="45"/>
-      <c r="G168" s="17"/>
+      <c r="G168" s="17">
+        <v>1</v>
+      </c>
       <c r="H168" s="17"/>
       <c r="I168" s="17"/>
       <c r="J168" s="17"/>
@@ -6368,7 +6371,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
@@ -6376,15 +6379,9 @@
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
-      <c r="J169" s="17">
-        <v>1</v>
-      </c>
-      <c r="K169" s="17">
-        <v>1</v>
-      </c>
-      <c r="L169" s="17">
-        <v>1</v>
-      </c>
+      <c r="J169" s="17"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="17"/>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
       <c r="O169" s="17"/>
@@ -6399,7 +6396,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -6410,7 +6407,9 @@
       <c r="J170" s="17">
         <v>1</v>
       </c>
-      <c r="K170" s="17"/>
+      <c r="K170" s="17">
+        <v>1</v>
+      </c>
       <c r="L170" s="17">
         <v>1</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
@@ -6457,7 +6456,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6486,7 +6485,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6515,7 +6514,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6544,7 +6543,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6573,7 +6572,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45"/>
@@ -6602,7 +6601,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6631,7 +6630,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6660,7 +6659,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6689,11 +6688,11 @@
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D180" s="47"/>
-      <c r="E180" s="47"/>
-      <c r="F180" s="47"/>
+        <v>261</v>
+      </c>
+      <c r="D180" s="45"/>
+      <c r="E180" s="45"/>
+      <c r="F180" s="45"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
       <c r="I180" s="17"/>
@@ -6718,11 +6717,11 @@
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D181" s="45"/>
-      <c r="E181" s="45"/>
-      <c r="F181" s="45"/>
+        <v>256</v>
+      </c>
+      <c r="D181" s="47"/>
+      <c r="E181" s="47"/>
+      <c r="F181" s="47"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
@@ -6747,7 +6746,7 @@
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45"/>
@@ -6776,7 +6775,7 @@
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45"/>
@@ -6805,7 +6804,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="45"/>
@@ -6834,7 +6833,7 @@
         <v>6</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6863,24 +6862,18 @@
         <v>6</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
       <c r="F186" s="45"/>
       <c r="G186" s="17"/>
-      <c r="H186" s="17">
-        <v>1</v>
-      </c>
-      <c r="I186" s="17">
-        <v>1</v>
-      </c>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
       <c r="J186" s="17">
         <v>1</v>
       </c>
-      <c r="K186" s="17">
-        <v>1</v>
-      </c>
+      <c r="K186" s="17"/>
       <c r="L186" s="17">
         <v>1</v>
       </c>
@@ -6898,19 +6891,27 @@
         <v>6</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
       <c r="F187" s="45"/>
-      <c r="G187" s="17">
-        <v>1</v>
-      </c>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="17"/>
-      <c r="K187" s="17"/>
-      <c r="L187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17">
+        <v>1</v>
+      </c>
+      <c r="I187" s="17">
+        <v>1</v>
+      </c>
+      <c r="J187" s="17">
+        <v>1</v>
+      </c>
+      <c r="K187" s="17">
+        <v>1</v>
+      </c>
+      <c r="L187" s="17">
+        <v>1</v>
+      </c>
       <c r="M187" s="17"/>
       <c r="N187" s="17"/>
       <c r="O187" s="17"/>
@@ -6925,12 +6926,14 @@
         <v>6</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
       <c r="F188" s="45"/>
-      <c r="G188" s="17"/>
+      <c r="G188" s="17">
+        <v>1</v>
+      </c>
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
       <c r="J188" s="17"/>
@@ -6943,14 +6946,14 @@
       <c r="Q188" s="17"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>304</v>
+      <c r="A189" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B189" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
@@ -6975,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
@@ -7000,7 +7003,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
@@ -7025,7 +7028,7 @@
         <v>6</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7050,7 +7053,7 @@
         <v>6</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
@@ -7075,7 +7078,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7100,7 +7103,7 @@
         <v>6</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
@@ -7125,7 +7128,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
@@ -7150,7 +7153,7 @@
         <v>6</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
@@ -7175,7 +7178,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
@@ -7200,7 +7203,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
@@ -7225,7 +7228,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7247,10 +7250,10 @@
         <v>296</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
@@ -7275,7 +7278,7 @@
         <v>52</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
@@ -7289,9 +7292,7 @@
       <c r="M202" s="17"/>
       <c r="N202" s="17"/>
       <c r="O202" s="17"/>
-      <c r="P202" s="17">
-        <v>1</v>
-      </c>
+      <c r="P202" s="17"/>
       <c r="Q202" s="17"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
@@ -7302,7 +7303,7 @@
         <v>52</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
@@ -7316,16 +7317,20 @@
       <c r="M203" s="17"/>
       <c r="N203" s="17"/>
       <c r="O203" s="17"/>
-      <c r="P203" s="17"/>
+      <c r="P203" s="17">
+        <v>1</v>
+      </c>
       <c r="Q203" s="17"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A204" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B204" s="32"/>
-      <c r="C204" s="24" t="s">
-        <v>1</v>
+      <c r="A204" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
@@ -7346,11 +7351,9 @@
       <c r="A205" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B205" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B205" s="32"/>
       <c r="C205" s="24" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
@@ -7375,25 +7378,21 @@
         <v>6</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
       <c r="F206" s="45"/>
       <c r="G206" s="17"/>
       <c r="H206" s="17"/>
-      <c r="I206" s="17">
-        <v>1</v>
-      </c>
+      <c r="I206" s="17"/>
       <c r="J206" s="17"/>
       <c r="K206" s="17"/>
       <c r="L206" s="17"/>
       <c r="M206" s="17"/>
       <c r="N206" s="17"/>
       <c r="O206" s="17"/>
-      <c r="P206" s="17">
-        <v>1</v>
-      </c>
+      <c r="P206" s="17"/>
       <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
@@ -7404,30 +7403,26 @@
         <v>6</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
       <c r="F207" s="45"/>
-      <c r="G207" s="17">
-        <v>1</v>
-      </c>
-      <c r="H207" s="17">
-        <v>1</v>
-      </c>
-      <c r="I207" s="17"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17">
+        <v>1</v>
+      </c>
       <c r="J207" s="17"/>
-      <c r="K207" s="17">
-        <v>1</v>
-      </c>
+      <c r="K207" s="17"/>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
       <c r="N207" s="17"/>
       <c r="O207" s="17"/>
-      <c r="P207" s="17"/>
-      <c r="Q207" s="17">
-        <v>1</v>
-      </c>
+      <c r="P207" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" s="22" t="s">
@@ -7437,24 +7432,30 @@
         <v>6</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
       <c r="F208" s="45"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
+      <c r="G208" s="17">
+        <v>1</v>
+      </c>
+      <c r="H208" s="17">
+        <v>1</v>
+      </c>
       <c r="I208" s="17"/>
       <c r="J208" s="17"/>
-      <c r="K208" s="17"/>
+      <c r="K208" s="17">
+        <v>1</v>
+      </c>
       <c r="L208" s="17"/>
       <c r="M208" s="17"/>
       <c r="N208" s="17"/>
       <c r="O208" s="17"/>
-      <c r="P208" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="17"/>
+      <c r="P208" s="17"/>
+      <c r="Q208" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="22" t="s">
@@ -7464,63 +7465,65 @@
         <v>6</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
       <c r="F209" s="45"/>
-      <c r="G209" s="17">
-        <v>1</v>
-      </c>
-      <c r="H209" s="17">
-        <v>1</v>
-      </c>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
-      <c r="K209" s="17">
-        <v>1</v>
-      </c>
+      <c r="K209" s="17"/>
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
-      <c r="P209" s="17"/>
-      <c r="Q209" s="17">
-        <v>1</v>
-      </c>
+      <c r="P209" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="17"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B210" s="23"/>
+      <c r="B210" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C210" s="24" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
+      <c r="G210" s="17">
+        <v>1</v>
+      </c>
+      <c r="H210" s="17">
+        <v>1</v>
+      </c>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
-      <c r="K210" s="17"/>
+      <c r="K210" s="17">
+        <v>1</v>
+      </c>
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
       <c r="P210" s="17"/>
-      <c r="Q210" s="17"/>
+      <c r="Q210" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B211" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B211" s="23"/>
       <c r="C211" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
@@ -7545,7 +7548,7 @@
         <v>6</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
@@ -7554,9 +7557,7 @@
       <c r="H212" s="17"/>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
-      <c r="K212" s="17">
-        <v>1</v>
-      </c>
+      <c r="K212" s="17"/>
       <c r="L212" s="17"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
@@ -7572,17 +7573,13 @@
         <v>6</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
       <c r="F213" s="45"/>
-      <c r="G213" s="17">
-        <v>1</v>
-      </c>
-      <c r="H213" s="17">
-        <v>1</v>
-      </c>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
       <c r="K213" s="17">
@@ -7603,7 +7600,7 @@
         <v>6</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -7611,10 +7608,14 @@
       <c r="G214" s="17">
         <v>1</v>
       </c>
-      <c r="H214" s="17"/>
+      <c r="H214" s="17">
+        <v>1</v>
+      </c>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
-      <c r="K214" s="17"/>
+      <c r="K214" s="17">
+        <v>1</v>
+      </c>
       <c r="L214" s="17"/>
       <c r="M214" s="17"/>
       <c r="N214" s="17"/>
@@ -7630,7 +7631,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -7638,14 +7639,10 @@
       <c r="G215" s="17">
         <v>1</v>
       </c>
-      <c r="H215" s="17">
-        <v>1</v>
-      </c>
+      <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
-      <c r="K215" s="17">
-        <v>1</v>
-      </c>
+      <c r="K215" s="17"/>
       <c r="L215" s="17"/>
       <c r="M215" s="17"/>
       <c r="N215" s="17"/>
@@ -7661,16 +7658,22 @@
         <v>6</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
       <c r="F216" s="45"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
+      <c r="G216" s="17">
+        <v>1</v>
+      </c>
+      <c r="H216" s="17">
+        <v>1</v>
+      </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="17">
+        <v>1</v>
+      </c>
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
       <c r="N216" s="17"/>
@@ -7679,40 +7682,26 @@
       <c r="Q216" s="17"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A217" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B217" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C217" s="35" t="s">
-        <v>132</v>
+      <c r="A217" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B217" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
       <c r="F217" s="45"/>
       <c r="G217" s="17"/>
-      <c r="H217" s="17">
-        <v>1</v>
-      </c>
-      <c r="I217" s="17">
-        <v>1</v>
-      </c>
-      <c r="J217" s="17">
-        <v>1</v>
-      </c>
-      <c r="K217" s="17">
-        <v>1</v>
-      </c>
-      <c r="L217" s="17">
-        <v>1</v>
-      </c>
-      <c r="M217" s="17">
-        <v>1</v>
-      </c>
-      <c r="N217" s="17">
-        <v>1</v>
-      </c>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="17"/>
+      <c r="K217" s="17"/>
+      <c r="L217" s="17"/>
+      <c r="M217" s="17"/>
+      <c r="N217" s="17"/>
       <c r="O217" s="17"/>
       <c r="P217" s="17"/>
       <c r="Q217" s="17"/>
@@ -7722,21 +7711,33 @@
         <v>174</v>
       </c>
       <c r="B218" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C218" s="35" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
       <c r="F218" s="45"/>
       <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="17"/>
-      <c r="J218" s="17"/>
-      <c r="K218" s="17"/>
-      <c r="L218" s="17"/>
-      <c r="M218" s="17"/>
+      <c r="H218" s="17">
+        <v>1</v>
+      </c>
+      <c r="I218" s="17">
+        <v>1</v>
+      </c>
+      <c r="J218" s="17">
+        <v>1</v>
+      </c>
+      <c r="K218" s="17">
+        <v>1</v>
+      </c>
+      <c r="L218" s="17">
+        <v>1</v>
+      </c>
+      <c r="M218" s="17">
+        <v>1</v>
+      </c>
       <c r="N218" s="17">
         <v>1</v>
       </c>
@@ -7752,7 +7753,7 @@
         <v>6</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
@@ -7776,31 +7777,21 @@
         <v>174</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
       <c r="F220" s="45"/>
-      <c r="G220" s="17">
-        <v>1</v>
-      </c>
-      <c r="H220" s="17">
-        <v>1</v>
-      </c>
-      <c r="I220" s="17">
-        <v>1</v>
-      </c>
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
       <c r="J220" s="17"/>
-      <c r="K220" s="17">
-        <v>1</v>
-      </c>
+      <c r="K220" s="17"/>
       <c r="L220" s="17"/>
-      <c r="M220" s="17">
-        <v>1</v>
-      </c>
+      <c r="M220" s="17"/>
       <c r="N220" s="17">
         <v>1</v>
       </c>
@@ -7813,10 +7804,10 @@
         <v>174</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
@@ -7827,13 +7818,17 @@
       <c r="H221" s="17">
         <v>1</v>
       </c>
-      <c r="I221" s="17"/>
+      <c r="I221" s="17">
+        <v>1</v>
+      </c>
       <c r="J221" s="17"/>
       <c r="K221" s="17">
         <v>1</v>
       </c>
       <c r="L221" s="17"/>
-      <c r="M221" s="17"/>
+      <c r="M221" s="17">
+        <v>1</v>
+      </c>
       <c r="N221" s="17">
         <v>1</v>
       </c>
@@ -7845,9 +7840,11 @@
       <c r="A222" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B222" s="36"/>
+      <c r="B222" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="C222" s="35" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -7858,60 +7855,64 @@
       <c r="H222" s="17">
         <v>1</v>
       </c>
-      <c r="I222" s="17">
-        <v>1</v>
-      </c>
-      <c r="J222" s="17">
-        <v>1</v>
-      </c>
+      <c r="I222" s="17"/>
+      <c r="J222" s="17"/>
       <c r="K222" s="17">
         <v>1</v>
       </c>
-      <c r="L222" s="17">
-        <v>1</v>
-      </c>
-      <c r="M222" s="17">
-        <v>1</v>
-      </c>
+      <c r="L222" s="17"/>
+      <c r="M222" s="17"/>
       <c r="N222" s="17">
         <v>1</v>
       </c>
-      <c r="O222" s="17">
-        <v>1</v>
-      </c>
-      <c r="P222" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q222" s="17">
-        <v>1</v>
-      </c>
+      <c r="O222" s="17"/>
+      <c r="P222" s="17"/>
+      <c r="Q222" s="17"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B223" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B223" s="36"/>
       <c r="C223" s="35" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
       <c r="F223" s="45"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
-      <c r="J223" s="17"/>
-      <c r="K223" s="17"/>
-      <c r="L223" s="17"/>
-      <c r="M223" s="17"/>
+      <c r="G223" s="17">
+        <v>1</v>
+      </c>
+      <c r="H223" s="17">
+        <v>1</v>
+      </c>
+      <c r="I223" s="17">
+        <v>1</v>
+      </c>
+      <c r="J223" s="17">
+        <v>1</v>
+      </c>
+      <c r="K223" s="17">
+        <v>1</v>
+      </c>
+      <c r="L223" s="17">
+        <v>1</v>
+      </c>
+      <c r="M223" s="17">
+        <v>1</v>
+      </c>
       <c r="N223" s="17">
         <v>1</v>
       </c>
-      <c r="O223" s="17"/>
-      <c r="P223" s="17"/>
-      <c r="Q223" s="17"/>
+      <c r="O223" s="17">
+        <v>1</v>
+      </c>
+      <c r="P223" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q223" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="33" t="s">
@@ -7921,7 +7922,7 @@
         <v>6</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7948,7 +7949,7 @@
         <v>6</v>
       </c>
       <c r="C225" s="35" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7957,9 +7958,7 @@
       <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
-      <c r="K225" s="17">
-        <v>1</v>
-      </c>
+      <c r="K225" s="17"/>
       <c r="L225" s="17"/>
       <c r="M225" s="17"/>
       <c r="N225" s="17">
@@ -7974,32 +7973,22 @@
         <v>174</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
       <c r="F226" s="45"/>
-      <c r="G226" s="17">
-        <v>1</v>
-      </c>
-      <c r="H226" s="17">
-        <v>1</v>
-      </c>
-      <c r="I226" s="17">
-        <v>1</v>
-      </c>
-      <c r="J226" s="17">
-        <v>1</v>
-      </c>
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
       <c r="K226" s="17">
         <v>1</v>
       </c>
-      <c r="L226" s="17">
-        <v>1</v>
-      </c>
+      <c r="L226" s="17"/>
       <c r="M226" s="17"/>
       <c r="N226" s="17">
         <v>1</v>
@@ -8013,22 +8002,32 @@
         <v>174</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
       <c r="F227" s="45"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="17"/>
+      <c r="G227" s="17">
+        <v>1</v>
+      </c>
+      <c r="H227" s="17">
+        <v>1</v>
+      </c>
+      <c r="I227" s="17">
+        <v>1</v>
+      </c>
+      <c r="J227" s="17">
+        <v>1</v>
+      </c>
       <c r="K227" s="17">
         <v>1</v>
       </c>
-      <c r="L227" s="17"/>
+      <c r="L227" s="17">
+        <v>1</v>
+      </c>
       <c r="M227" s="17"/>
       <c r="N227" s="17">
         <v>1</v>
@@ -8042,57 +8041,39 @@
         <v>174</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
       <c r="F228" s="45"/>
-      <c r="G228" s="17">
-        <v>1</v>
-      </c>
-      <c r="H228" s="17">
-        <v>1</v>
-      </c>
-      <c r="I228" s="17">
-        <v>1</v>
-      </c>
-      <c r="J228" s="17">
-        <v>1</v>
-      </c>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
       <c r="K228" s="17">
         <v>1</v>
       </c>
-      <c r="L228" s="17">
-        <v>1</v>
-      </c>
-      <c r="M228" s="17">
-        <v>1</v>
-      </c>
+      <c r="L228" s="17"/>
+      <c r="M228" s="17"/>
       <c r="N228" s="17">
         <v>1</v>
       </c>
-      <c r="O228" s="17">
-        <v>1</v>
-      </c>
-      <c r="P228" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q228" s="17">
-        <v>1</v>
-      </c>
+      <c r="O228" s="17"/>
+      <c r="P228" s="17"/>
+      <c r="Q228" s="17"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="33" t="s">
         <v>174</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
@@ -8103,54 +8084,76 @@
       <c r="H229" s="17">
         <v>1</v>
       </c>
-      <c r="I229" s="17"/>
-      <c r="J229" s="17"/>
+      <c r="I229" s="17">
+        <v>1</v>
+      </c>
+      <c r="J229" s="17">
+        <v>1</v>
+      </c>
       <c r="K229" s="17">
         <v>1</v>
       </c>
-      <c r="L229" s="17"/>
-      <c r="M229" s="17"/>
+      <c r="L229" s="17">
+        <v>1</v>
+      </c>
+      <c r="M229" s="17">
+        <v>1</v>
+      </c>
       <c r="N229" s="17">
         <v>1</v>
       </c>
-      <c r="O229" s="17"/>
-      <c r="P229" s="17"/>
-      <c r="Q229" s="17"/>
+      <c r="O229" s="17">
+        <v>1</v>
+      </c>
+      <c r="P229" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q229" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A230" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>184</v>
+      <c r="A230" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B230" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C230" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
       <c r="F230" s="45"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
+      <c r="G230" s="17">
+        <v>1</v>
+      </c>
+      <c r="H230" s="17">
+        <v>1</v>
+      </c>
       <c r="I230" s="17"/>
       <c r="J230" s="17"/>
-      <c r="K230" s="17"/>
+      <c r="K230" s="17">
+        <v>1</v>
+      </c>
       <c r="L230" s="17"/>
       <c r="M230" s="17"/>
-      <c r="N230" s="17"/>
+      <c r="N230" s="17">
+        <v>1</v>
+      </c>
       <c r="O230" s="17"/>
       <c r="P230" s="17"/>
       <c r="Q230" s="17"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B231" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C231" s="39" t="s">
-        <v>42</v>
+      <c r="A231" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
@@ -8168,14 +8171,14 @@
       <c r="Q231" s="17"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B232" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" s="21" t="s">
-        <v>103</v>
+      <c r="A232" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
@@ -8193,29 +8196,25 @@
       <c r="Q232" s="17"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B233" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C233" s="39" t="s">
-        <v>9</v>
+      <c r="A233" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
       <c r="F233" s="45"/>
-      <c r="G233" s="17">
-        <v>1</v>
-      </c>
+      <c r="G233" s="17"/>
       <c r="H233" s="17"/>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
       <c r="K233" s="17"/>
       <c r="L233" s="17"/>
-      <c r="M233" s="17">
-        <v>1</v>
-      </c>
+      <c r="M233" s="17"/>
       <c r="N233" s="17"/>
       <c r="O233" s="17"/>
       <c r="P233" s="17"/>
@@ -8229,12 +8228,14 @@
         <v>6</v>
       </c>
       <c r="C234" s="39" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
       <c r="F234" s="45"/>
-      <c r="G234" s="17"/>
+      <c r="G234" s="17">
+        <v>1</v>
+      </c>
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
@@ -8256,7 +8257,7 @@
         <v>6</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
@@ -8280,10 +8281,10 @@
         <v>43</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
@@ -8307,23 +8308,19 @@
         <v>43</v>
       </c>
       <c r="B237" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
       <c r="F237" s="45"/>
       <c r="G237" s="17"/>
-      <c r="H237" s="17">
-        <v>1</v>
-      </c>
+      <c r="H237" s="17"/>
       <c r="I237" s="17"/>
       <c r="J237" s="17"/>
-      <c r="K237" s="17">
-        <v>1</v>
-      </c>
+      <c r="K237" s="17"/>
       <c r="L237" s="17"/>
       <c r="M237" s="17">
         <v>1</v>
@@ -8338,10 +8335,10 @@
         <v>43</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
@@ -8350,9 +8347,7 @@
       <c r="H238" s="17">
         <v>1</v>
       </c>
-      <c r="I238" s="17">
-        <v>1</v>
-      </c>
+      <c r="I238" s="17"/>
       <c r="J238" s="17"/>
       <c r="K238" s="17">
         <v>1</v>
@@ -8374,16 +8369,22 @@
         <v>52</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
       <c r="F239" s="45"/>
       <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
+      <c r="H239" s="17">
+        <v>1</v>
+      </c>
+      <c r="I239" s="17">
+        <v>1</v>
+      </c>
       <c r="J239" s="17"/>
-      <c r="K239" s="17"/>
+      <c r="K239" s="17">
+        <v>1</v>
+      </c>
       <c r="L239" s="17"/>
       <c r="M239" s="17">
         <v>1</v>
@@ -8398,10 +8399,10 @@
         <v>43</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
@@ -8410,9 +8411,7 @@
       <c r="H240" s="17"/>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
-      <c r="K240" s="17">
-        <v>1</v>
-      </c>
+      <c r="K240" s="17"/>
       <c r="L240" s="17"/>
       <c r="M240" s="17">
         <v>1</v>
@@ -8430,7 +8429,7 @@
         <v>6</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
@@ -8443,7 +8442,9 @@
         <v>1</v>
       </c>
       <c r="L241" s="17"/>
-      <c r="M241" s="17"/>
+      <c r="M241" s="17">
+        <v>1</v>
+      </c>
       <c r="N241" s="17"/>
       <c r="O241" s="17"/>
       <c r="P241" s="17"/>
@@ -8457,7 +8458,7 @@
         <v>6</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
@@ -8484,7 +8485,7 @@
         <v>6</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
@@ -8511,7 +8512,7 @@
         <v>6</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
@@ -8520,11 +8521,11 @@
       <c r="H244" s="17"/>
       <c r="I244" s="17"/>
       <c r="J244" s="17"/>
-      <c r="K244" s="17"/>
+      <c r="K244" s="17">
+        <v>1</v>
+      </c>
       <c r="L244" s="17"/>
-      <c r="M244" s="17">
-        <v>1</v>
-      </c>
+      <c r="M244" s="17"/>
       <c r="N244" s="17"/>
       <c r="O244" s="17"/>
       <c r="P244" s="17"/>
@@ -8535,17 +8536,15 @@
         <v>43</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
       <c r="F245" s="45"/>
-      <c r="G245" s="17">
-        <v>1</v>
-      </c>
+      <c r="G245" s="17"/>
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
       <c r="J245" s="17"/>
@@ -8564,10 +8563,10 @@
         <v>43</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8575,46 +8574,28 @@
       <c r="G246" s="17">
         <v>1</v>
       </c>
-      <c r="H246" s="17">
-        <v>1</v>
-      </c>
-      <c r="I246" s="17">
-        <v>1</v>
-      </c>
-      <c r="J246" s="17">
-        <v>1</v>
-      </c>
-      <c r="K246" s="17">
-        <v>1</v>
-      </c>
-      <c r="L246" s="17">
-        <v>1</v>
-      </c>
+      <c r="H246" s="17"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="17"/>
+      <c r="K246" s="17"/>
+      <c r="L246" s="17"/>
       <c r="M246" s="17">
         <v>1</v>
       </c>
-      <c r="N246" s="17">
-        <v>1</v>
-      </c>
-      <c r="O246" s="17">
-        <v>1</v>
-      </c>
-      <c r="P246" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q246" s="17">
-        <v>1</v>
-      </c>
+      <c r="N246" s="17"/>
+      <c r="O246" s="17"/>
+      <c r="P246" s="17"/>
+      <c r="Q246" s="17"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
@@ -8622,28 +8603,46 @@
       <c r="G247" s="17">
         <v>1</v>
       </c>
-      <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="17"/>
-      <c r="K247" s="17"/>
-      <c r="L247" s="17"/>
+      <c r="H247" s="17">
+        <v>1</v>
+      </c>
+      <c r="I247" s="17">
+        <v>1</v>
+      </c>
+      <c r="J247" s="17">
+        <v>1</v>
+      </c>
+      <c r="K247" s="17">
+        <v>1</v>
+      </c>
+      <c r="L247" s="17">
+        <v>1</v>
+      </c>
       <c r="M247" s="17">
         <v>1</v>
       </c>
-      <c r="N247" s="17"/>
-      <c r="O247" s="17"/>
-      <c r="P247" s="17"/>
-      <c r="Q247" s="17"/>
+      <c r="N247" s="17">
+        <v>1</v>
+      </c>
+      <c r="O247" s="17">
+        <v>1</v>
+      </c>
+      <c r="P247" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q247" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
@@ -8651,21 +8650,11 @@
       <c r="G248" s="17">
         <v>1</v>
       </c>
-      <c r="H248" s="17">
-        <v>1</v>
-      </c>
-      <c r="I248" s="17">
-        <v>1</v>
-      </c>
-      <c r="J248" s="17">
-        <v>1</v>
-      </c>
-      <c r="K248" s="17">
-        <v>1</v>
-      </c>
-      <c r="L248" s="17">
-        <v>1</v>
-      </c>
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
       <c r="M248" s="17">
         <v>1</v>
       </c>
@@ -8679,20 +8668,32 @@
         <v>43</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
       <c r="F249" s="45"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
-      <c r="J249" s="17"/>
-      <c r="K249" s="17"/>
-      <c r="L249" s="17"/>
+      <c r="G249" s="17">
+        <v>1</v>
+      </c>
+      <c r="H249" s="17">
+        <v>1</v>
+      </c>
+      <c r="I249" s="17">
+        <v>1</v>
+      </c>
+      <c r="J249" s="17">
+        <v>1</v>
+      </c>
+      <c r="K249" s="17">
+        <v>1</v>
+      </c>
+      <c r="L249" s="17">
+        <v>1</v>
+      </c>
       <c r="M249" s="17">
         <v>1</v>
       </c>
@@ -8706,10 +8707,10 @@
         <v>43</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
@@ -8718,9 +8719,7 @@
       <c r="H250" s="17"/>
       <c r="I250" s="17"/>
       <c r="J250" s="17"/>
-      <c r="K250" s="17">
-        <v>1</v>
-      </c>
+      <c r="K250" s="17"/>
       <c r="L250" s="17"/>
       <c r="M250" s="17">
         <v>1</v>
@@ -8738,7 +8737,7 @@
         <v>6</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
@@ -8747,7 +8746,9 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
       <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
+      <c r="K251" s="17">
+        <v>1</v>
+      </c>
       <c r="L251" s="17"/>
       <c r="M251" s="17">
         <v>1</v>
@@ -8765,22 +8766,16 @@
         <v>6</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
       <c r="F252" s="45"/>
-      <c r="G252" s="17">
-        <v>1</v>
-      </c>
-      <c r="H252" s="17">
-        <v>1</v>
-      </c>
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
       <c r="I252" s="17"/>
       <c r="J252" s="17"/>
-      <c r="K252" s="17">
-        <v>1</v>
-      </c>
+      <c r="K252" s="17"/>
       <c r="L252" s="17"/>
       <c r="M252" s="17">
         <v>1</v>
@@ -8798,13 +8793,17 @@
         <v>6</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="D253" s="45"/>
       <c r="E253" s="45"/>
       <c r="F253" s="45"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
+      <c r="G253" s="17">
+        <v>1</v>
+      </c>
+      <c r="H253" s="17">
+        <v>1</v>
+      </c>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
       <c r="K253" s="17">
@@ -8827,17 +8826,13 @@
         <v>6</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="D254" s="45"/>
       <c r="E254" s="45"/>
       <c r="F254" s="45"/>
-      <c r="G254" s="17">
-        <v>1</v>
-      </c>
-      <c r="H254" s="17">
-        <v>1</v>
-      </c>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
       <c r="K254" s="17">
@@ -8853,23 +8848,33 @@
       <c r="Q254" s="17"/>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A255" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B255" s="40"/>
-      <c r="C255" s="13" t="s">
-        <v>0</v>
+      <c r="A255" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B255" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D255" s="45"/>
       <c r="E255" s="45"/>
       <c r="F255" s="45"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
+      <c r="G255" s="17">
+        <v>1</v>
+      </c>
+      <c r="H255" s="17">
+        <v>1</v>
+      </c>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
-      <c r="K255" s="17"/>
+      <c r="K255" s="17">
+        <v>1</v>
+      </c>
       <c r="L255" s="17"/>
-      <c r="M255" s="17"/>
+      <c r="M255" s="17">
+        <v>1</v>
+      </c>
       <c r="N255" s="17"/>
       <c r="O255" s="17"/>
       <c r="P255" s="17"/>
@@ -8879,21 +8884,15 @@
       <c r="A256" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B256" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="B256" s="40"/>
       <c r="C256" s="13" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D256" s="45"/>
       <c r="E256" s="45"/>
       <c r="F256" s="45"/>
-      <c r="G256" s="17">
-        <v>1</v>
-      </c>
-      <c r="H256" s="17">
-        <v>1</v>
-      </c>
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
       <c r="K256" s="17"/>
@@ -8912,7 +8911,7 @@
         <v>52</v>
       </c>
       <c r="C257" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D257" s="45"/>
       <c r="E257" s="45"/>
@@ -8925,9 +8924,7 @@
       </c>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
-      <c r="K257" s="17">
-        <v>1</v>
-      </c>
+      <c r="K257" s="17"/>
       <c r="L257" s="17"/>
       <c r="M257" s="17"/>
       <c r="N257" s="17"/>
@@ -8940,19 +8937,25 @@
         <v>47</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="D258" s="45"/>
       <c r="E258" s="45"/>
       <c r="F258" s="45"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="H258" s="17">
+        <v>1</v>
+      </c>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
+      <c r="K258" s="17">
+        <v>1</v>
+      </c>
       <c r="L258" s="17"/>
       <c r="M258" s="17"/>
       <c r="N258" s="17"/>
@@ -8965,10 +8968,10 @@
         <v>47</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="D259" s="45"/>
       <c r="E259" s="45"/>
@@ -8993,20 +8996,16 @@
         <v>52</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D260" s="45"/>
       <c r="E260" s="45"/>
       <c r="F260" s="45"/>
       <c r="G260" s="17"/>
-      <c r="H260" s="17">
-        <v>1</v>
-      </c>
+      <c r="H260" s="17"/>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
-      <c r="K260" s="17">
-        <v>1</v>
-      </c>
+      <c r="K260" s="17"/>
       <c r="L260" s="17"/>
       <c r="M260" s="17"/>
       <c r="N260" s="17"/>
@@ -9022,44 +9021,26 @@
         <v>52</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="D261" s="45"/>
       <c r="E261" s="45"/>
       <c r="F261" s="45"/>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
+      <c r="G261" s="17"/>
       <c r="H261" s="17">
         <v>1</v>
       </c>
-      <c r="I261" s="17">
-        <v>1</v>
-      </c>
-      <c r="J261" s="17">
-        <v>1</v>
-      </c>
+      <c r="I261" s="17"/>
+      <c r="J261" s="17"/>
       <c r="K261" s="17">
         <v>1</v>
       </c>
-      <c r="L261" s="17">
-        <v>1</v>
-      </c>
-      <c r="M261" s="17">
-        <v>1</v>
-      </c>
-      <c r="N261" s="17">
-        <v>1</v>
-      </c>
-      <c r="O261" s="17">
-        <v>1</v>
-      </c>
-      <c r="P261" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q261" s="17">
-        <v>1</v>
-      </c>
+      <c r="L261" s="17"/>
+      <c r="M261" s="17"/>
+      <c r="N261" s="17"/>
+      <c r="O261" s="17"/>
+      <c r="P261" s="17"/>
+      <c r="Q261" s="17"/>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" s="11" t="s">
@@ -9069,7 +9050,7 @@
         <v>52</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D262" s="45"/>
       <c r="E262" s="45"/>
@@ -9116,7 +9097,7 @@
         <v>52</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="D263" s="45"/>
       <c r="E263" s="45"/>
@@ -9160,206 +9141,253 @@
         <v>47</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C264" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D264" s="45"/>
+      <c r="E264" s="45"/>
+      <c r="F264" s="45"/>
+      <c r="G264" s="17">
+        <v>1</v>
+      </c>
+      <c r="H264" s="17">
+        <v>1</v>
+      </c>
+      <c r="I264" s="17">
+        <v>1</v>
+      </c>
+      <c r="J264" s="17">
+        <v>1</v>
+      </c>
+      <c r="K264" s="17">
+        <v>1</v>
+      </c>
+      <c r="L264" s="17">
+        <v>1</v>
+      </c>
+      <c r="M264" s="17">
+        <v>1</v>
+      </c>
+      <c r="N264" s="17">
+        <v>1</v>
+      </c>
+      <c r="O264" s="17">
+        <v>1</v>
+      </c>
+      <c r="P264" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q264" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A265" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D264" s="48"/>
-      <c r="E264" s="48"/>
-      <c r="F264" s="48"/>
-      <c r="G264" s="54"/>
-      <c r="H264" s="54">
-        <v>1</v>
-      </c>
-      <c r="I264" s="54"/>
-      <c r="J264" s="54"/>
-      <c r="K264" s="54">
-        <v>1</v>
-      </c>
-      <c r="L264" s="54"/>
-      <c r="M264" s="54"/>
-      <c r="N264" s="54"/>
-      <c r="O264" s="54"/>
-      <c r="P264" s="54"/>
-      <c r="Q264" s="54"/>
+      <c r="D265" s="48"/>
+      <c r="E265" s="48"/>
+      <c r="F265" s="48"/>
+      <c r="G265" s="54"/>
+      <c r="H265" s="54">
+        <v>1</v>
+      </c>
+      <c r="I265" s="54"/>
+      <c r="J265" s="54"/>
+      <c r="K265" s="54">
+        <v>1</v>
+      </c>
+      <c r="L265" s="54"/>
+      <c r="M265" s="54"/>
+      <c r="N265" s="54"/>
+      <c r="O265" s="54"/>
+      <c r="P265" s="54"/>
+      <c r="Q265" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q264" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q264">
-      <sortCondition ref="A1:A264"/>
+  <autoFilter ref="A1:Q265" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q265">
+      <sortCondition ref="A1:A265"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q263">
-    <sortCondition ref="A2:A263"/>
-    <sortCondition ref="C2:C263"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q264">
+    <sortCondition ref="A2:A264"/>
+    <sortCondition ref="C2:C264"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C81" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C218" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C219" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C22" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C233" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C234" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C152" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C153" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C234" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C235" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C153" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C154" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C37" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C56" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C235" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C236" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C32" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C219" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C220" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
     <hyperlink ref="C83" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C154" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C237" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C155" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C155" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C238" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C156" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
     <hyperlink ref="C85" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
     <hyperlink ref="C86" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
     <hyperlink ref="C87" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
     <hyperlink ref="C88" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
     <hyperlink ref="C90" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
     <hyperlink ref="C91" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C157" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C158" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C159" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C205" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C208" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C207" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C221" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C240" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C158" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C159" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C160" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C206" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C209" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C208" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C222" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C241" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C39" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C194" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C195" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C196" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C195" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C196" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C197" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C52" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C244" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C223" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C245" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C224" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C232" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C233" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
     <hyperlink ref="C62" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C246" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C107" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C108" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C109" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C110" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C111" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C112" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C113" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C248" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C247" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C108" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C109" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C110" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C111" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C112" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C113" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C114" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C249" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C17" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C41" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C160" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C161" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
     <hyperlink ref="C64" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C224" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C165" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C163" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C164" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C166" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C225" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C166" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C164" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C165" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C167" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C43" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C167" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C225" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C168" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C226" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C54" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C168" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C231" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C250" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C251" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C212" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C169" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C232" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C251" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C252" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C213" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C44" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C169" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C252" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C253" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C213" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C215" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C170" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C253" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C254" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C214" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C216" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C29" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C264" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C265" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
     <hyperlink ref="C66" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C186" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C216" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C227" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C187" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C229" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C254" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C188" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C99" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C217" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C187" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C217" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C228" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C188" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C230" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C255" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C189" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C100" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C218" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C21" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C117" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C118" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
     <hyperlink ref="C71" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C33" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C236" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C220" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C156" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C237" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C221" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C157" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
     <hyperlink ref="C89" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C238" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C118" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C119" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C239" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C124" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C239" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C119" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C120" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C240" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C125" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
     <hyperlink ref="C72" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
     <hyperlink ref="C73" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
     <hyperlink ref="C74" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C256" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C257" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C38" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C49" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C50" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C257" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C125" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C258" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C126" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C51" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C23" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C259" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C260" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C126" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C127" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C103" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C245" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C247" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C260" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C261" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C127" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C128" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C104" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C246" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C248" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
     <hyperlink ref="C75" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C16" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
-    <hyperlink ref="C202" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
+    <hyperlink ref="C203" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C42" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
     <hyperlink ref="C97" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C129" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C104" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C130" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C105" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C25" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C249" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C250" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C18" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C24" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
     <hyperlink ref="C76" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C131" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C132" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C132" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C133" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
     <hyperlink ref="C77" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C19" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C20" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C133" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C134" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
     <hyperlink ref="C79" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C226" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C134" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C227" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C135" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
     <hyperlink ref="C70" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C26" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C27" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C263" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C264" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C28" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C105" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C148" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C106" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C149" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
     <hyperlink ref="C80" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C149" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C150" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C151" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C228" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C101" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C255" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C204" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C222" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C106" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C150" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C151" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C152" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C229" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C102" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C256" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C205" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C223" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C107" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C45" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C40" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C261" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C262" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
     <hyperlink ref="C94" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C30" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C214" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C215" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
     <hyperlink ref="C69" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
     <hyperlink ref="C68" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
@@ -9371,70 +9399,70 @@
     <hyperlink ref="C47" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C46" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C48" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C161" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C258" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C162" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C259" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
     <hyperlink ref="C84" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
     <hyperlink ref="C82" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C98" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C99" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
     <hyperlink ref="C92" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C137" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C138" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C142" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C143" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C144" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C145" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C146" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C136" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C147" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C135" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C139" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C140" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C130" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C170" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C181" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C171" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C173" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C172" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C179" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C177" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C174" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C178" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C183" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C184" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C185" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C182" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C175" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C180" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C176" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C262" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C141" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C120" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C121" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C122" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C123" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C206" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C138" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C139" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C143" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C144" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C145" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C146" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C147" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C137" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C148" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C136" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C140" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C141" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C131" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C171" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C182" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C172" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C174" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C173" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C180" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C178" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C175" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C179" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C184" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C185" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C186" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C183" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C176" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C181" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C177" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C263" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C142" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C121" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C122" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C123" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C124" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C207" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C31" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C34" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C35" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C36" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C230" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C210" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C211" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C231" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C211" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C212" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C57" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C58" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C59" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
     <hyperlink ref="C60" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C114" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C115" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C116" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C115" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C116" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C117" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C53" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C241" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C243" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C242" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C162" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C242" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C244" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C243" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C163" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
     <hyperlink ref="C95" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
-    <hyperlink ref="C128" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C209" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C129" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C210" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
     <hyperlink ref="C78" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
     <hyperlink ref="C63" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
     <hyperlink ref="C65" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
@@ -9445,17 +9473,18 @@
     <hyperlink ref="C8" r:id="rId248" xr:uid="{F4DFDDD1-B34C-4B4D-BCC8-3F72037E5C85}"/>
     <hyperlink ref="C13" r:id="rId249" xr:uid="{83DFEBC3-E8B1-A840-9964-33EB0A44BF40}"/>
     <hyperlink ref="C11" r:id="rId250" xr:uid="{27A3B616-FD7B-514A-B8BE-D948ED83FC6A}"/>
-    <hyperlink ref="C203" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
-    <hyperlink ref="C198" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
-    <hyperlink ref="C199" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
-    <hyperlink ref="C197" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
-    <hyperlink ref="C190" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
-    <hyperlink ref="C191" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
-    <hyperlink ref="C193" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
-    <hyperlink ref="C200" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
-    <hyperlink ref="C189" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
-    <hyperlink ref="C201" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
-    <hyperlink ref="C192" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
+    <hyperlink ref="C204" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
+    <hyperlink ref="C199" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
+    <hyperlink ref="C200" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
+    <hyperlink ref="C198" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
+    <hyperlink ref="C191" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
+    <hyperlink ref="C192" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
+    <hyperlink ref="C194" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
+    <hyperlink ref="C201" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
+    <hyperlink ref="C190" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
+    <hyperlink ref="C202" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
+    <hyperlink ref="C193" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
+    <hyperlink ref="C98" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CDDCF3-9B54-074D-A72E-1D080416B82A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4DD132-3B19-914C-885D-0B051B6BE938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$266</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="309">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -953,6 +953,9 @@
   </si>
   <si>
     <t>Serverless Application Model (SAM)</t>
+  </si>
+  <si>
+    <t>Launch Wizard</t>
   </si>
 </sst>
 </file>
@@ -1659,11 +1662,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q265"/>
+  <dimension ref="A1:Q266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -6143,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
@@ -6165,10 +6168,10 @@
         <v>33</v>
       </c>
       <c r="B162" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
@@ -6190,17 +6193,15 @@
         <v>33</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
       <c r="F163" s="45"/>
-      <c r="G163" s="17">
-        <v>1</v>
-      </c>
+      <c r="G163" s="17"/>
       <c r="H163" s="17"/>
       <c r="I163" s="17"/>
       <c r="J163" s="17"/>
@@ -6220,22 +6221,18 @@
         <v>6</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
       <c r="F164" s="45"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17">
-        <v>1</v>
-      </c>
-      <c r="I164" s="17">
-        <v>1</v>
-      </c>
+      <c r="G164" s="17">
+        <v>1</v>
+      </c>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
       <c r="J164" s="17"/>
-      <c r="K164" s="17">
-        <v>1</v>
-      </c>
+      <c r="K164" s="17"/>
       <c r="L164" s="17"/>
       <c r="M164" s="17"/>
       <c r="N164" s="17"/>
@@ -6251,7 +6248,7 @@
         <v>6</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
@@ -6282,7 +6279,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
@@ -6313,18 +6310,18 @@
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
       <c r="F167" s="45"/>
-      <c r="G167" s="17">
-        <v>1</v>
-      </c>
+      <c r="G167" s="17"/>
       <c r="H167" s="17">
         <v>1</v>
       </c>
-      <c r="I167" s="17"/>
+      <c r="I167" s="17">
+        <v>1</v>
+      </c>
       <c r="J167" s="17"/>
       <c r="K167" s="17">
         <v>1</v>
@@ -6344,7 +6341,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
@@ -6352,10 +6349,14 @@
       <c r="G168" s="17">
         <v>1</v>
       </c>
-      <c r="H168" s="17"/>
+      <c r="H168" s="17">
+        <v>1</v>
+      </c>
       <c r="I168" s="17"/>
       <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
+      <c r="K168" s="17">
+        <v>1</v>
+      </c>
       <c r="L168" s="17"/>
       <c r="M168" s="17"/>
       <c r="N168" s="17"/>
@@ -6371,12 +6372,14 @@
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
       <c r="F169" s="45"/>
-      <c r="G169" s="17"/>
+      <c r="G169" s="17">
+        <v>1</v>
+      </c>
       <c r="H169" s="17"/>
       <c r="I169" s="17"/>
       <c r="J169" s="17"/>
@@ -6396,7 +6399,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -6404,15 +6407,9 @@
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
-      <c r="J170" s="17">
-        <v>1</v>
-      </c>
-      <c r="K170" s="17">
-        <v>1</v>
-      </c>
-      <c r="L170" s="17">
-        <v>1</v>
-      </c>
+      <c r="J170" s="17"/>
+      <c r="K170" s="17"/>
+      <c r="L170" s="17"/>
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
       <c r="O170" s="17"/>
@@ -6427,7 +6424,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
@@ -6438,7 +6435,9 @@
       <c r="J171" s="17">
         <v>1</v>
       </c>
-      <c r="K171" s="17"/>
+      <c r="K171" s="17">
+        <v>1</v>
+      </c>
       <c r="L171" s="17">
         <v>1</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6485,7 +6484,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6514,7 +6513,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6543,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6572,7 +6571,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45"/>
@@ -6601,7 +6600,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6630,7 +6629,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6659,7 +6658,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6688,7 +6687,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45"/>
@@ -6717,11 +6716,11 @@
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D181" s="47"/>
-      <c r="E181" s="47"/>
-      <c r="F181" s="47"/>
+        <v>261</v>
+      </c>
+      <c r="D181" s="45"/>
+      <c r="E181" s="45"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
       <c r="I181" s="17"/>
@@ -6746,11 +6745,11 @@
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D182" s="45"/>
-      <c r="E182" s="45"/>
-      <c r="F182" s="45"/>
+        <v>256</v>
+      </c>
+      <c r="D182" s="47"/>
+      <c r="E182" s="47"/>
+      <c r="F182" s="47"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
@@ -6775,7 +6774,7 @@
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D183" s="45"/>
       <c r="E183" s="45"/>
@@ -6804,7 +6803,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="45"/>
@@ -6833,7 +6832,7 @@
         <v>6</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6862,7 +6861,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
@@ -6891,24 +6890,18 @@
         <v>6</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
       <c r="F187" s="45"/>
       <c r="G187" s="17"/>
-      <c r="H187" s="17">
-        <v>1</v>
-      </c>
-      <c r="I187" s="17">
-        <v>1</v>
-      </c>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
       <c r="J187" s="17">
         <v>1</v>
       </c>
-      <c r="K187" s="17">
-        <v>1</v>
-      </c>
+      <c r="K187" s="17"/>
       <c r="L187" s="17">
         <v>1</v>
       </c>
@@ -6926,19 +6919,27 @@
         <v>6</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
       <c r="F188" s="45"/>
-      <c r="G188" s="17">
-        <v>1</v>
-      </c>
-      <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="17"/>
-      <c r="K188" s="17"/>
-      <c r="L188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17">
+        <v>1</v>
+      </c>
+      <c r="I188" s="17">
+        <v>1</v>
+      </c>
+      <c r="J188" s="17">
+        <v>1</v>
+      </c>
+      <c r="K188" s="17">
+        <v>1</v>
+      </c>
+      <c r="L188" s="17">
+        <v>1</v>
+      </c>
       <c r="M188" s="17"/>
       <c r="N188" s="17"/>
       <c r="O188" s="17"/>
@@ -6953,12 +6954,14 @@
         <v>6</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
       <c r="F189" s="45"/>
-      <c r="G189" s="17"/>
+      <c r="G189" s="17">
+        <v>1</v>
+      </c>
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
       <c r="J189" s="17"/>
@@ -6971,14 +6974,14 @@
       <c r="Q189" s="17"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A190" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>304</v>
+      <c r="A190" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
@@ -7003,7 +7006,7 @@
         <v>6</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
@@ -7028,7 +7031,7 @@
         <v>6</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7053,7 +7056,7 @@
         <v>6</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
@@ -7078,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7103,7 +7106,7 @@
         <v>6</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
@@ -7128,7 +7131,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
@@ -7153,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
@@ -7178,7 +7181,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
@@ -7203,7 +7206,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
@@ -7228,7 +7231,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7253,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
@@ -7275,10 +7278,10 @@
         <v>296</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
@@ -7303,7 +7306,7 @@
         <v>52</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
@@ -7317,9 +7320,7 @@
       <c r="M203" s="17"/>
       <c r="N203" s="17"/>
       <c r="O203" s="17"/>
-      <c r="P203" s="17">
-        <v>1</v>
-      </c>
+      <c r="P203" s="17"/>
       <c r="Q203" s="17"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
@@ -7330,7 +7331,7 @@
         <v>52</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
@@ -7344,16 +7345,20 @@
       <c r="M204" s="17"/>
       <c r="N204" s="17"/>
       <c r="O204" s="17"/>
-      <c r="P204" s="17"/>
+      <c r="P204" s="17">
+        <v>1</v>
+      </c>
       <c r="Q204" s="17"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A205" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B205" s="32"/>
-      <c r="C205" s="24" t="s">
-        <v>1</v>
+      <c r="A205" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
@@ -7374,11 +7379,9 @@
       <c r="A206" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B206" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B206" s="32"/>
       <c r="C206" s="24" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
@@ -7403,25 +7406,21 @@
         <v>6</v>
       </c>
       <c r="C207" s="24" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
       <c r="F207" s="45"/>
       <c r="G207" s="17"/>
       <c r="H207" s="17"/>
-      <c r="I207" s="17">
-        <v>1</v>
-      </c>
+      <c r="I207" s="17"/>
       <c r="J207" s="17"/>
       <c r="K207" s="17"/>
       <c r="L207" s="17"/>
       <c r="M207" s="17"/>
       <c r="N207" s="17"/>
       <c r="O207" s="17"/>
-      <c r="P207" s="17">
-        <v>1</v>
-      </c>
+      <c r="P207" s="17"/>
       <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
@@ -7432,30 +7431,26 @@
         <v>6</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
       <c r="F208" s="45"/>
-      <c r="G208" s="17">
-        <v>1</v>
-      </c>
-      <c r="H208" s="17">
-        <v>1</v>
-      </c>
-      <c r="I208" s="17"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="17">
+        <v>1</v>
+      </c>
       <c r="J208" s="17"/>
-      <c r="K208" s="17">
-        <v>1</v>
-      </c>
+      <c r="K208" s="17"/>
       <c r="L208" s="17"/>
       <c r="M208" s="17"/>
       <c r="N208" s="17"/>
       <c r="O208" s="17"/>
-      <c r="P208" s="17"/>
-      <c r="Q208" s="17">
-        <v>1</v>
-      </c>
+      <c r="P208" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="22" t="s">
@@ -7465,24 +7460,30 @@
         <v>6</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
       <c r="F209" s="45"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
+      <c r="G209" s="17">
+        <v>1</v>
+      </c>
+      <c r="H209" s="17">
+        <v>1</v>
+      </c>
       <c r="I209" s="17"/>
       <c r="J209" s="17"/>
-      <c r="K209" s="17"/>
+      <c r="K209" s="17">
+        <v>1</v>
+      </c>
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
-      <c r="P209" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q209" s="17"/>
+      <c r="P209" s="17"/>
+      <c r="Q209" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="22" t="s">
@@ -7492,63 +7493,65 @@
         <v>6</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
-      <c r="G210" s="17">
-        <v>1</v>
-      </c>
-      <c r="H210" s="17">
-        <v>1</v>
-      </c>
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
-      <c r="K210" s="17">
-        <v>1</v>
-      </c>
+      <c r="K210" s="17"/>
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
-      <c r="P210" s="17"/>
-      <c r="Q210" s="17">
-        <v>1</v>
-      </c>
+      <c r="P210" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="17"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B211" s="23"/>
+      <c r="B211" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C211" s="24" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
+      <c r="G211" s="17">
+        <v>1</v>
+      </c>
+      <c r="H211" s="17">
+        <v>1</v>
+      </c>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
-      <c r="K211" s="17"/>
+      <c r="K211" s="17">
+        <v>1</v>
+      </c>
       <c r="L211" s="17"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
       <c r="P211" s="17"/>
-      <c r="Q211" s="17"/>
+      <c r="Q211" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B212" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B212" s="23"/>
       <c r="C212" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
@@ -7573,7 +7576,7 @@
         <v>6</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
@@ -7582,9 +7585,7 @@
       <c r="H213" s="17"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17">
-        <v>1</v>
-      </c>
+      <c r="K213" s="17"/>
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
@@ -7600,17 +7601,13 @@
         <v>6</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
       <c r="F214" s="45"/>
-      <c r="G214" s="17">
-        <v>1</v>
-      </c>
-      <c r="H214" s="17">
-        <v>1</v>
-      </c>
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
       <c r="K214" s="17">
@@ -7631,7 +7628,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -7639,10 +7636,14 @@
       <c r="G215" s="17">
         <v>1</v>
       </c>
-      <c r="H215" s="17"/>
+      <c r="H215" s="17">
+        <v>1</v>
+      </c>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
-      <c r="K215" s="17"/>
+      <c r="K215" s="17">
+        <v>1</v>
+      </c>
       <c r="L215" s="17"/>
       <c r="M215" s="17"/>
       <c r="N215" s="17"/>
@@ -7658,7 +7659,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
@@ -7666,14 +7667,10 @@
       <c r="G216" s="17">
         <v>1</v>
       </c>
-      <c r="H216" s="17">
-        <v>1</v>
-      </c>
+      <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17">
-        <v>1</v>
-      </c>
+      <c r="K216" s="17"/>
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
       <c r="N216" s="17"/>
@@ -7689,16 +7686,22 @@
         <v>6</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
       <c r="F217" s="45"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
+      <c r="G217" s="17">
+        <v>1</v>
+      </c>
+      <c r="H217" s="17">
+        <v>1</v>
+      </c>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
-      <c r="K217" s="17"/>
+      <c r="K217" s="17">
+        <v>1</v>
+      </c>
       <c r="L217" s="17"/>
       <c r="M217" s="17"/>
       <c r="N217" s="17"/>
@@ -7707,40 +7710,26 @@
       <c r="Q217" s="17"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A218" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B218" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C218" s="35" t="s">
-        <v>132</v>
+      <c r="A218" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B218" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
       <c r="F218" s="45"/>
       <c r="G218" s="17"/>
-      <c r="H218" s="17">
-        <v>1</v>
-      </c>
-      <c r="I218" s="17">
-        <v>1</v>
-      </c>
-      <c r="J218" s="17">
-        <v>1</v>
-      </c>
-      <c r="K218" s="17">
-        <v>1</v>
-      </c>
-      <c r="L218" s="17">
-        <v>1</v>
-      </c>
-      <c r="M218" s="17">
-        <v>1</v>
-      </c>
-      <c r="N218" s="17">
-        <v>1</v>
-      </c>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="17"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="17"/>
+      <c r="M218" s="17"/>
+      <c r="N218" s="17"/>
       <c r="O218" s="17"/>
       <c r="P218" s="17"/>
       <c r="Q218" s="17"/>
@@ -7750,21 +7739,33 @@
         <v>174</v>
       </c>
       <c r="B219" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C219" s="35" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
       <c r="F219" s="45"/>
       <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="17"/>
-      <c r="K219" s="17"/>
-      <c r="L219" s="17"/>
-      <c r="M219" s="17"/>
+      <c r="H219" s="17">
+        <v>1</v>
+      </c>
+      <c r="I219" s="17">
+        <v>1</v>
+      </c>
+      <c r="J219" s="17">
+        <v>1</v>
+      </c>
+      <c r="K219" s="17">
+        <v>1</v>
+      </c>
+      <c r="L219" s="17">
+        <v>1</v>
+      </c>
+      <c r="M219" s="17">
+        <v>1</v>
+      </c>
       <c r="N219" s="17">
         <v>1</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>6</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
@@ -7804,31 +7805,21 @@
         <v>174</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
       <c r="F221" s="45"/>
-      <c r="G221" s="17">
-        <v>1</v>
-      </c>
-      <c r="H221" s="17">
-        <v>1</v>
-      </c>
-      <c r="I221" s="17">
-        <v>1</v>
-      </c>
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
       <c r="J221" s="17"/>
-      <c r="K221" s="17">
-        <v>1</v>
-      </c>
+      <c r="K221" s="17"/>
       <c r="L221" s="17"/>
-      <c r="M221" s="17">
-        <v>1</v>
-      </c>
+      <c r="M221" s="17"/>
       <c r="N221" s="17">
         <v>1</v>
       </c>
@@ -7841,10 +7832,10 @@
         <v>174</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C222" s="35" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -7855,13 +7846,17 @@
       <c r="H222" s="17">
         <v>1</v>
       </c>
-      <c r="I222" s="17"/>
+      <c r="I222" s="17">
+        <v>1</v>
+      </c>
       <c r="J222" s="17"/>
       <c r="K222" s="17">
         <v>1</v>
       </c>
       <c r="L222" s="17"/>
-      <c r="M222" s="17"/>
+      <c r="M222" s="17">
+        <v>1</v>
+      </c>
       <c r="N222" s="17">
         <v>1</v>
       </c>
@@ -7873,9 +7868,11 @@
       <c r="A223" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B223" s="36"/>
+      <c r="B223" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="C223" s="35" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
@@ -7886,60 +7883,64 @@
       <c r="H223" s="17">
         <v>1</v>
       </c>
-      <c r="I223" s="17">
-        <v>1</v>
-      </c>
-      <c r="J223" s="17">
-        <v>1</v>
-      </c>
+      <c r="I223" s="17"/>
+      <c r="J223" s="17"/>
       <c r="K223" s="17">
         <v>1</v>
       </c>
-      <c r="L223" s="17">
-        <v>1</v>
-      </c>
-      <c r="M223" s="17">
-        <v>1</v>
-      </c>
+      <c r="L223" s="17"/>
+      <c r="M223" s="17"/>
       <c r="N223" s="17">
         <v>1</v>
       </c>
-      <c r="O223" s="17">
-        <v>1</v>
-      </c>
-      <c r="P223" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q223" s="17">
-        <v>1</v>
-      </c>
+      <c r="O223" s="17"/>
+      <c r="P223" s="17"/>
+      <c r="Q223" s="17"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B224" s="36"/>
       <c r="C224" s="35" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
       <c r="F224" s="45"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="17"/>
-      <c r="K224" s="17"/>
-      <c r="L224" s="17"/>
-      <c r="M224" s="17"/>
+      <c r="G224" s="17">
+        <v>1</v>
+      </c>
+      <c r="H224" s="17">
+        <v>1</v>
+      </c>
+      <c r="I224" s="17">
+        <v>1</v>
+      </c>
+      <c r="J224" s="17">
+        <v>1</v>
+      </c>
+      <c r="K224" s="17">
+        <v>1</v>
+      </c>
+      <c r="L224" s="17">
+        <v>1</v>
+      </c>
+      <c r="M224" s="17">
+        <v>1</v>
+      </c>
       <c r="N224" s="17">
         <v>1</v>
       </c>
-      <c r="O224" s="17"/>
-      <c r="P224" s="17"/>
-      <c r="Q224" s="17"/>
+      <c r="O224" s="17">
+        <v>1</v>
+      </c>
+      <c r="P224" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="33" t="s">
@@ -7949,7 +7950,7 @@
         <v>6</v>
       </c>
       <c r="C225" s="35" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7976,7 +7977,7 @@
         <v>6</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
@@ -7985,9 +7986,7 @@
       <c r="H226" s="17"/>
       <c r="I226" s="17"/>
       <c r="J226" s="17"/>
-      <c r="K226" s="17">
-        <v>1</v>
-      </c>
+      <c r="K226" s="17"/>
       <c r="L226" s="17"/>
       <c r="M226" s="17"/>
       <c r="N226" s="17">
@@ -8002,32 +8001,22 @@
         <v>174</v>
       </c>
       <c r="B227" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
       <c r="F227" s="45"/>
-      <c r="G227" s="17">
-        <v>1</v>
-      </c>
-      <c r="H227" s="17">
-        <v>1</v>
-      </c>
-      <c r="I227" s="17">
-        <v>1</v>
-      </c>
-      <c r="J227" s="17">
-        <v>1</v>
-      </c>
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="17"/>
       <c r="K227" s="17">
         <v>1</v>
       </c>
-      <c r="L227" s="17">
-        <v>1</v>
-      </c>
+      <c r="L227" s="17"/>
       <c r="M227" s="17"/>
       <c r="N227" s="17">
         <v>1</v>
@@ -8041,22 +8030,32 @@
         <v>174</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
       <c r="F228" s="45"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="17"/>
+      <c r="G228" s="17">
+        <v>1</v>
+      </c>
+      <c r="H228" s="17">
+        <v>1</v>
+      </c>
+      <c r="I228" s="17">
+        <v>1</v>
+      </c>
+      <c r="J228" s="17">
+        <v>1</v>
+      </c>
       <c r="K228" s="17">
         <v>1</v>
       </c>
-      <c r="L228" s="17"/>
+      <c r="L228" s="17">
+        <v>1</v>
+      </c>
       <c r="M228" s="17"/>
       <c r="N228" s="17">
         <v>1</v>
@@ -8070,57 +8069,39 @@
         <v>174</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
       <c r="F229" s="45"/>
-      <c r="G229" s="17">
-        <v>1</v>
-      </c>
-      <c r="H229" s="17">
-        <v>1</v>
-      </c>
-      <c r="I229" s="17">
-        <v>1</v>
-      </c>
-      <c r="J229" s="17">
-        <v>1</v>
-      </c>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
       <c r="K229" s="17">
         <v>1</v>
       </c>
-      <c r="L229" s="17">
-        <v>1</v>
-      </c>
-      <c r="M229" s="17">
-        <v>1</v>
-      </c>
+      <c r="L229" s="17"/>
+      <c r="M229" s="17"/>
       <c r="N229" s="17">
         <v>1</v>
       </c>
-      <c r="O229" s="17">
-        <v>1</v>
-      </c>
-      <c r="P229" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q229" s="17">
-        <v>1</v>
-      </c>
+      <c r="O229" s="17"/>
+      <c r="P229" s="17"/>
+      <c r="Q229" s="17"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="33" t="s">
         <v>174</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
@@ -8131,54 +8112,76 @@
       <c r="H230" s="17">
         <v>1</v>
       </c>
-      <c r="I230" s="17"/>
-      <c r="J230" s="17"/>
+      <c r="I230" s="17">
+        <v>1</v>
+      </c>
+      <c r="J230" s="17">
+        <v>1</v>
+      </c>
       <c r="K230" s="17">
         <v>1</v>
       </c>
-      <c r="L230" s="17"/>
-      <c r="M230" s="17"/>
+      <c r="L230" s="17">
+        <v>1</v>
+      </c>
+      <c r="M230" s="17">
+        <v>1</v>
+      </c>
       <c r="N230" s="17">
         <v>1</v>
       </c>
-      <c r="O230" s="17"/>
-      <c r="P230" s="17"/>
-      <c r="Q230" s="17"/>
+      <c r="O230" s="17">
+        <v>1</v>
+      </c>
+      <c r="P230" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q230" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A231" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B231" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>184</v>
+      <c r="A231" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B231" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C231" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
       <c r="F231" s="45"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
+      <c r="G231" s="17">
+        <v>1</v>
+      </c>
+      <c r="H231" s="17">
+        <v>1</v>
+      </c>
       <c r="I231" s="17"/>
       <c r="J231" s="17"/>
-      <c r="K231" s="17"/>
+      <c r="K231" s="17">
+        <v>1</v>
+      </c>
       <c r="L231" s="17"/>
       <c r="M231" s="17"/>
-      <c r="N231" s="17"/>
+      <c r="N231" s="17">
+        <v>1</v>
+      </c>
       <c r="O231" s="17"/>
       <c r="P231" s="17"/>
       <c r="Q231" s="17"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B232" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C232" s="39" t="s">
-        <v>42</v>
+      <c r="A232" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
@@ -8196,14 +8199,14 @@
       <c r="Q232" s="17"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C233" s="21" t="s">
-        <v>103</v>
+      <c r="A233" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
@@ -8221,29 +8224,25 @@
       <c r="Q233" s="17"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B234" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C234" s="39" t="s">
-        <v>9</v>
+      <c r="A234" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
       <c r="F234" s="45"/>
-      <c r="G234" s="17">
-        <v>1</v>
-      </c>
+      <c r="G234" s="17"/>
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
       <c r="J234" s="17"/>
       <c r="K234" s="17"/>
       <c r="L234" s="17"/>
-      <c r="M234" s="17">
-        <v>1</v>
-      </c>
+      <c r="M234" s="17"/>
       <c r="N234" s="17"/>
       <c r="O234" s="17"/>
       <c r="P234" s="17"/>
@@ -8257,12 +8256,14 @@
         <v>6</v>
       </c>
       <c r="C235" s="39" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
       <c r="F235" s="45"/>
-      <c r="G235" s="17"/>
+      <c r="G235" s="17">
+        <v>1</v>
+      </c>
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
@@ -8284,7 +8285,7 @@
         <v>6</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
@@ -8308,10 +8309,10 @@
         <v>43</v>
       </c>
       <c r="B237" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
@@ -8335,23 +8336,19 @@
         <v>43</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
       <c r="F238" s="45"/>
       <c r="G238" s="17"/>
-      <c r="H238" s="17">
-        <v>1</v>
-      </c>
+      <c r="H238" s="17"/>
       <c r="I238" s="17"/>
       <c r="J238" s="17"/>
-      <c r="K238" s="17">
-        <v>1</v>
-      </c>
+      <c r="K238" s="17"/>
       <c r="L238" s="17"/>
       <c r="M238" s="17">
         <v>1</v>
@@ -8366,10 +8363,10 @@
         <v>43</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
@@ -8378,9 +8375,7 @@
       <c r="H239" s="17">
         <v>1</v>
       </c>
-      <c r="I239" s="17">
-        <v>1</v>
-      </c>
+      <c r="I239" s="17"/>
       <c r="J239" s="17"/>
       <c r="K239" s="17">
         <v>1</v>
@@ -8402,16 +8397,22 @@
         <v>52</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
       <c r="F240" s="45"/>
       <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
-      <c r="I240" s="17"/>
+      <c r="H240" s="17">
+        <v>1</v>
+      </c>
+      <c r="I240" s="17">
+        <v>1</v>
+      </c>
       <c r="J240" s="17"/>
-      <c r="K240" s="17"/>
+      <c r="K240" s="17">
+        <v>1</v>
+      </c>
       <c r="L240" s="17"/>
       <c r="M240" s="17">
         <v>1</v>
@@ -8426,10 +8427,10 @@
         <v>43</v>
       </c>
       <c r="B241" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
@@ -8438,9 +8439,7 @@
       <c r="H241" s="17"/>
       <c r="I241" s="17"/>
       <c r="J241" s="17"/>
-      <c r="K241" s="17">
-        <v>1</v>
-      </c>
+      <c r="K241" s="17"/>
       <c r="L241" s="17"/>
       <c r="M241" s="17">
         <v>1</v>
@@ -8458,7 +8457,7 @@
         <v>6</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
@@ -8471,7 +8470,9 @@
         <v>1</v>
       </c>
       <c r="L242" s="17"/>
-      <c r="M242" s="17"/>
+      <c r="M242" s="17">
+        <v>1</v>
+      </c>
       <c r="N242" s="17"/>
       <c r="O242" s="17"/>
       <c r="P242" s="17"/>
@@ -8485,7 +8486,7 @@
         <v>6</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
@@ -8512,7 +8513,7 @@
         <v>6</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
@@ -8539,7 +8540,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8548,11 +8549,11 @@
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
       <c r="J245" s="17"/>
-      <c r="K245" s="17"/>
+      <c r="K245" s="17">
+        <v>1</v>
+      </c>
       <c r="L245" s="17"/>
-      <c r="M245" s="17">
-        <v>1</v>
-      </c>
+      <c r="M245" s="17"/>
       <c r="N245" s="17"/>
       <c r="O245" s="17"/>
       <c r="P245" s="17"/>
@@ -8563,17 +8564,15 @@
         <v>43</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
       <c r="F246" s="45"/>
-      <c r="G246" s="17">
-        <v>1</v>
-      </c>
+      <c r="G246" s="17"/>
       <c r="H246" s="17"/>
       <c r="I246" s="17"/>
       <c r="J246" s="17"/>
@@ -8592,10 +8591,10 @@
         <v>43</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
@@ -8603,46 +8602,28 @@
       <c r="G247" s="17">
         <v>1</v>
       </c>
-      <c r="H247" s="17">
-        <v>1</v>
-      </c>
-      <c r="I247" s="17">
-        <v>1</v>
-      </c>
-      <c r="J247" s="17">
-        <v>1</v>
-      </c>
-      <c r="K247" s="17">
-        <v>1</v>
-      </c>
-      <c r="L247" s="17">
-        <v>1</v>
-      </c>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="17"/>
+      <c r="K247" s="17"/>
+      <c r="L247" s="17"/>
       <c r="M247" s="17">
         <v>1</v>
       </c>
-      <c r="N247" s="17">
-        <v>1</v>
-      </c>
-      <c r="O247" s="17">
-        <v>1</v>
-      </c>
-      <c r="P247" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q247" s="17">
-        <v>1</v>
-      </c>
+      <c r="N247" s="17"/>
+      <c r="O247" s="17"/>
+      <c r="P247" s="17"/>
+      <c r="Q247" s="17"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
@@ -8650,28 +8631,46 @@
       <c r="G248" s="17">
         <v>1</v>
       </c>
-      <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
-      <c r="J248" s="17"/>
-      <c r="K248" s="17"/>
-      <c r="L248" s="17"/>
+      <c r="H248" s="17">
+        <v>1</v>
+      </c>
+      <c r="I248" s="17">
+        <v>1</v>
+      </c>
+      <c r="J248" s="17">
+        <v>1</v>
+      </c>
+      <c r="K248" s="17">
+        <v>1</v>
+      </c>
+      <c r="L248" s="17">
+        <v>1</v>
+      </c>
       <c r="M248" s="17">
         <v>1</v>
       </c>
-      <c r="N248" s="17"/>
-      <c r="O248" s="17"/>
-      <c r="P248" s="17"/>
-      <c r="Q248" s="17"/>
+      <c r="N248" s="17">
+        <v>1</v>
+      </c>
+      <c r="O248" s="17">
+        <v>1</v>
+      </c>
+      <c r="P248" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q248" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
@@ -8679,21 +8678,11 @@
       <c r="G249" s="17">
         <v>1</v>
       </c>
-      <c r="H249" s="17">
-        <v>1</v>
-      </c>
-      <c r="I249" s="17">
-        <v>1</v>
-      </c>
-      <c r="J249" s="17">
-        <v>1</v>
-      </c>
-      <c r="K249" s="17">
-        <v>1</v>
-      </c>
-      <c r="L249" s="17">
-        <v>1</v>
-      </c>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
       <c r="M249" s="17">
         <v>1</v>
       </c>
@@ -8707,20 +8696,32 @@
         <v>43</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
       <c r="F250" s="45"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="17"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="17"/>
+      <c r="G250" s="17">
+        <v>1</v>
+      </c>
+      <c r="H250" s="17">
+        <v>1</v>
+      </c>
+      <c r="I250" s="17">
+        <v>1</v>
+      </c>
+      <c r="J250" s="17">
+        <v>1</v>
+      </c>
+      <c r="K250" s="17">
+        <v>1</v>
+      </c>
+      <c r="L250" s="17">
+        <v>1</v>
+      </c>
       <c r="M250" s="17">
         <v>1</v>
       </c>
@@ -8734,10 +8735,10 @@
         <v>43</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
@@ -8746,9 +8747,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
       <c r="J251" s="17"/>
-      <c r="K251" s="17">
-        <v>1</v>
-      </c>
+      <c r="K251" s="17"/>
       <c r="L251" s="17"/>
       <c r="M251" s="17">
         <v>1</v>
@@ -8766,7 +8765,7 @@
         <v>6</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
@@ -8775,7 +8774,9 @@
       <c r="H252" s="17"/>
       <c r="I252" s="17"/>
       <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
+      <c r="K252" s="17">
+        <v>1</v>
+      </c>
       <c r="L252" s="17"/>
       <c r="M252" s="17">
         <v>1</v>
@@ -8793,22 +8794,16 @@
         <v>6</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D253" s="45"/>
       <c r="E253" s="45"/>
       <c r="F253" s="45"/>
-      <c r="G253" s="17">
-        <v>1</v>
-      </c>
-      <c r="H253" s="17">
-        <v>1</v>
-      </c>
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
-      <c r="K253" s="17">
-        <v>1</v>
-      </c>
+      <c r="K253" s="17"/>
       <c r="L253" s="17"/>
       <c r="M253" s="17">
         <v>1</v>
@@ -8826,13 +8821,17 @@
         <v>6</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="D254" s="45"/>
       <c r="E254" s="45"/>
       <c r="F254" s="45"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
+      <c r="G254" s="17">
+        <v>1</v>
+      </c>
+      <c r="H254" s="17">
+        <v>1</v>
+      </c>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
       <c r="K254" s="17">
@@ -8855,17 +8854,13 @@
         <v>6</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="D255" s="45"/>
       <c r="E255" s="45"/>
       <c r="F255" s="45"/>
-      <c r="G255" s="17">
-        <v>1</v>
-      </c>
-      <c r="H255" s="17">
-        <v>1</v>
-      </c>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
       <c r="K255" s="17">
@@ -8881,23 +8876,33 @@
       <c r="Q255" s="17"/>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A256" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B256" s="40"/>
-      <c r="C256" s="13" t="s">
-        <v>0</v>
+      <c r="A256" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B256" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D256" s="45"/>
       <c r="E256" s="45"/>
       <c r="F256" s="45"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="17"/>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17">
+        <v>1</v>
+      </c>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
-      <c r="K256" s="17"/>
+      <c r="K256" s="17">
+        <v>1</v>
+      </c>
       <c r="L256" s="17"/>
-      <c r="M256" s="17"/>
+      <c r="M256" s="17">
+        <v>1</v>
+      </c>
       <c r="N256" s="17"/>
       <c r="O256" s="17"/>
       <c r="P256" s="17"/>
@@ -8907,21 +8912,15 @@
       <c r="A257" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B257" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="B257" s="40"/>
       <c r="C257" s="13" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D257" s="45"/>
       <c r="E257" s="45"/>
       <c r="F257" s="45"/>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="H257" s="17">
-        <v>1</v>
-      </c>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
       <c r="K257" s="17"/>
@@ -8940,7 +8939,7 @@
         <v>52</v>
       </c>
       <c r="C258" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D258" s="45"/>
       <c r="E258" s="45"/>
@@ -8953,9 +8952,7 @@
       </c>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
-      <c r="K258" s="17">
-        <v>1</v>
-      </c>
+      <c r="K258" s="17"/>
       <c r="L258" s="17"/>
       <c r="M258" s="17"/>
       <c r="N258" s="17"/>
@@ -8968,19 +8965,25 @@
         <v>47</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="D259" s="45"/>
       <c r="E259" s="45"/>
       <c r="F259" s="45"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="17"/>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="H259" s="17">
+        <v>1</v>
+      </c>
       <c r="I259" s="17"/>
       <c r="J259" s="17"/>
-      <c r="K259" s="17"/>
+      <c r="K259" s="17">
+        <v>1</v>
+      </c>
       <c r="L259" s="17"/>
       <c r="M259" s="17"/>
       <c r="N259" s="17"/>
@@ -8993,10 +8996,10 @@
         <v>47</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="D260" s="45"/>
       <c r="E260" s="45"/>
@@ -9021,20 +9024,16 @@
         <v>52</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D261" s="45"/>
       <c r="E261" s="45"/>
       <c r="F261" s="45"/>
       <c r="G261" s="17"/>
-      <c r="H261" s="17">
-        <v>1</v>
-      </c>
+      <c r="H261" s="17"/>
       <c r="I261" s="17"/>
       <c r="J261" s="17"/>
-      <c r="K261" s="17">
-        <v>1</v>
-      </c>
+      <c r="K261" s="17"/>
       <c r="L261" s="17"/>
       <c r="M261" s="17"/>
       <c r="N261" s="17"/>
@@ -9050,44 +9049,26 @@
         <v>52</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="D262" s="45"/>
       <c r="E262" s="45"/>
       <c r="F262" s="45"/>
-      <c r="G262" s="17">
-        <v>1</v>
-      </c>
+      <c r="G262" s="17"/>
       <c r="H262" s="17">
         <v>1</v>
       </c>
-      <c r="I262" s="17">
-        <v>1</v>
-      </c>
-      <c r="J262" s="17">
-        <v>1</v>
-      </c>
+      <c r="I262" s="17"/>
+      <c r="J262" s="17"/>
       <c r="K262" s="17">
         <v>1</v>
       </c>
-      <c r="L262" s="17">
-        <v>1</v>
-      </c>
-      <c r="M262" s="17">
-        <v>1</v>
-      </c>
-      <c r="N262" s="17">
-        <v>1</v>
-      </c>
-      <c r="O262" s="17">
-        <v>1</v>
-      </c>
-      <c r="P262" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q262" s="17">
-        <v>1</v>
-      </c>
+      <c r="L262" s="17"/>
+      <c r="M262" s="17"/>
+      <c r="N262" s="17"/>
+      <c r="O262" s="17"/>
+      <c r="P262" s="17"/>
+      <c r="Q262" s="17"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" s="11" t="s">
@@ -9097,7 +9078,7 @@
         <v>52</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D263" s="45"/>
       <c r="E263" s="45"/>
@@ -9144,7 +9125,7 @@
         <v>52</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="D264" s="45"/>
       <c r="E264" s="45"/>
@@ -9188,56 +9169,103 @@
         <v>47</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C265" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D265" s="45"/>
+      <c r="E265" s="45"/>
+      <c r="F265" s="45"/>
+      <c r="G265" s="17">
+        <v>1</v>
+      </c>
+      <c r="H265" s="17">
+        <v>1</v>
+      </c>
+      <c r="I265" s="17">
+        <v>1</v>
+      </c>
+      <c r="J265" s="17">
+        <v>1</v>
+      </c>
+      <c r="K265" s="17">
+        <v>1</v>
+      </c>
+      <c r="L265" s="17">
+        <v>1</v>
+      </c>
+      <c r="M265" s="17">
+        <v>1</v>
+      </c>
+      <c r="N265" s="17">
+        <v>1</v>
+      </c>
+      <c r="O265" s="17">
+        <v>1</v>
+      </c>
+      <c r="P265" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q265" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A266" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D265" s="48"/>
-      <c r="E265" s="48"/>
-      <c r="F265" s="48"/>
-      <c r="G265" s="54"/>
-      <c r="H265" s="54">
-        <v>1</v>
-      </c>
-      <c r="I265" s="54"/>
-      <c r="J265" s="54"/>
-      <c r="K265" s="54">
-        <v>1</v>
-      </c>
-      <c r="L265" s="54"/>
-      <c r="M265" s="54"/>
-      <c r="N265" s="54"/>
-      <c r="O265" s="54"/>
-      <c r="P265" s="54"/>
-      <c r="Q265" s="54"/>
+      <c r="D266" s="48"/>
+      <c r="E266" s="48"/>
+      <c r="F266" s="48"/>
+      <c r="G266" s="54"/>
+      <c r="H266" s="54">
+        <v>1</v>
+      </c>
+      <c r="I266" s="54"/>
+      <c r="J266" s="54"/>
+      <c r="K266" s="54">
+        <v>1</v>
+      </c>
+      <c r="L266" s="54"/>
+      <c r="M266" s="54"/>
+      <c r="N266" s="54"/>
+      <c r="O266" s="54"/>
+      <c r="P266" s="54"/>
+      <c r="Q266" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q265" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q265">
-      <sortCondition ref="A1:A265"/>
+  <autoFilter ref="A1:Q266" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q266">
+      <sortCondition ref="A1:A266"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q264">
-    <sortCondition ref="A2:A264"/>
-    <sortCondition ref="C2:C264"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q265">
+    <sortCondition ref="A2:A265"/>
+    <sortCondition ref="C2:C265"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C81" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C219" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C220" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C22" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C234" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C235" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C235" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C236" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
     <hyperlink ref="C153" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
     <hyperlink ref="C154" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C37" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C56" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C236" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C237" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C32" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C220" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C221" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
     <hyperlink ref="C83" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
     <hyperlink ref="C155" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C238" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C239" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
     <hyperlink ref="C156" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
     <hyperlink ref="C85" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
     <hyperlink ref="C86" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
@@ -9248,22 +9276,22 @@
     <hyperlink ref="C158" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
     <hyperlink ref="C159" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
     <hyperlink ref="C160" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C206" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C209" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C208" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C222" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C241" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C207" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C210" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C209" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C223" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C242" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C39" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C195" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C196" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C197" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C196" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C197" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C198" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C52" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C245" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C224" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C246" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C225" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C233" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C234" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
     <hyperlink ref="C62" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C247" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C248" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
     <hyperlink ref="C108" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
     <hyperlink ref="C109" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
     <hyperlink ref="C110" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
@@ -9271,88 +9299,88 @@
     <hyperlink ref="C112" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
     <hyperlink ref="C113" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
     <hyperlink ref="C114" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C249" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C250" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C17" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C41" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C161" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C162" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
     <hyperlink ref="C64" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C225" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C166" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C164" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C165" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C167" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C226" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C167" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C165" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C166" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C168" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C43" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C168" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C226" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C169" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C227" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C54" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C169" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C232" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C251" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C252" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C213" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C170" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C233" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C252" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C253" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C214" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C44" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C170" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C253" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C254" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C214" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C216" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C171" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C254" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C255" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C215" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C217" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C29" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C265" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C266" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
     <hyperlink ref="C66" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C187" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C217" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C228" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C188" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C230" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C255" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C189" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C188" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C218" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C229" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C189" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C231" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C256" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C190" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
     <hyperlink ref="C100" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C218" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C219" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C21" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
     <hyperlink ref="C118" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
     <hyperlink ref="C71" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C33" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C237" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C221" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C238" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C222" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
     <hyperlink ref="C157" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
     <hyperlink ref="C89" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C239" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C240" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
     <hyperlink ref="C119" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
     <hyperlink ref="C120" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C240" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C241" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
     <hyperlink ref="C125" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
     <hyperlink ref="C72" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
     <hyperlink ref="C73" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
     <hyperlink ref="C74" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C257" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C258" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C38" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C49" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C50" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C258" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C259" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
     <hyperlink ref="C126" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C51" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C23" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C260" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C261" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C261" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C262" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
     <hyperlink ref="C127" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
     <hyperlink ref="C128" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
     <hyperlink ref="C104" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C246" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C248" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C247" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C249" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
     <hyperlink ref="C75" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C16" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
-    <hyperlink ref="C203" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
+    <hyperlink ref="C204" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C42" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
     <hyperlink ref="C97" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
     <hyperlink ref="C130" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
     <hyperlink ref="C105" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C25" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C250" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C251" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C18" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C24" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
     <hyperlink ref="C76" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
@@ -9363,12 +9391,12 @@
     <hyperlink ref="C20" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
     <hyperlink ref="C134" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
     <hyperlink ref="C79" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C227" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C228" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
     <hyperlink ref="C135" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
     <hyperlink ref="C70" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C26" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C27" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C264" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C265" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C28" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
     <hyperlink ref="C106" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
     <hyperlink ref="C149" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
@@ -9376,18 +9404,18 @@
     <hyperlink ref="C150" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
     <hyperlink ref="C151" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
     <hyperlink ref="C152" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C229" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C230" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
     <hyperlink ref="C102" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C256" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C205" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C223" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C257" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C206" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C224" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
     <hyperlink ref="C107" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C45" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C40" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C262" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C263" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
     <hyperlink ref="C94" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C30" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C215" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C216" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
     <hyperlink ref="C69" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
     <hyperlink ref="C68" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
@@ -9399,8 +9427,8 @@
     <hyperlink ref="C47" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C46" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C48" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C162" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C259" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C163" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C260" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
     <hyperlink ref="C84" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
     <hyperlink ref="C82" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
     <hyperlink ref="C99" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
@@ -9418,36 +9446,36 @@
     <hyperlink ref="C140" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
     <hyperlink ref="C141" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
     <hyperlink ref="C131" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C171" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C182" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C172" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C174" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C173" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C180" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C178" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C175" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C179" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C184" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C185" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C186" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C183" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C176" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C181" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C177" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C263" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C172" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C183" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C173" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C175" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C174" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C181" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C179" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C176" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C180" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C185" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C186" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C187" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C184" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C177" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C182" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C178" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C264" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
     <hyperlink ref="C142" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
     <hyperlink ref="C121" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
     <hyperlink ref="C122" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
     <hyperlink ref="C123" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
     <hyperlink ref="C124" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C207" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C208" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C31" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C34" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C35" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C36" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C231" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C211" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C212" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C232" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C212" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C213" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C57" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C58" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C59" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
@@ -9456,13 +9484,13 @@
     <hyperlink ref="C116" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
     <hyperlink ref="C117" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C53" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C242" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C244" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C243" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C163" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C243" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C245" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C244" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C164" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
     <hyperlink ref="C95" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
     <hyperlink ref="C129" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C210" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C211" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
     <hyperlink ref="C78" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
     <hyperlink ref="C63" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
     <hyperlink ref="C65" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
@@ -9473,18 +9501,19 @@
     <hyperlink ref="C8" r:id="rId248" xr:uid="{F4DFDDD1-B34C-4B4D-BCC8-3F72037E5C85}"/>
     <hyperlink ref="C13" r:id="rId249" xr:uid="{83DFEBC3-E8B1-A840-9964-33EB0A44BF40}"/>
     <hyperlink ref="C11" r:id="rId250" xr:uid="{27A3B616-FD7B-514A-B8BE-D948ED83FC6A}"/>
-    <hyperlink ref="C204" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
-    <hyperlink ref="C199" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
-    <hyperlink ref="C200" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
-    <hyperlink ref="C198" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
-    <hyperlink ref="C191" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
-    <hyperlink ref="C192" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
-    <hyperlink ref="C194" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
-    <hyperlink ref="C201" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
-    <hyperlink ref="C190" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
-    <hyperlink ref="C202" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
-    <hyperlink ref="C193" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
+    <hyperlink ref="C205" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
+    <hyperlink ref="C200" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
+    <hyperlink ref="C201" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
+    <hyperlink ref="C199" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
+    <hyperlink ref="C192" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
+    <hyperlink ref="C193" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
+    <hyperlink ref="C195" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
+    <hyperlink ref="C202" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
+    <hyperlink ref="C191" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
+    <hyperlink ref="C203" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
+    <hyperlink ref="C194" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
     <hyperlink ref="C98" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
+    <hyperlink ref="C161" r:id="rId263" xr:uid="{98ADDE2A-ABDD-EB4A-8EBE-C43795A8F20B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4DD132-3B19-914C-885D-0B051B6BE938}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A603D9-288E-4442-A15E-3BB1E26D5374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
+    <workbookView xWindow="-22100" yWindow="-22160" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Services" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$266</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$267</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="310">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -956,6 +956,9 @@
   </si>
   <si>
     <t>Launch Wizard</t>
+  </si>
+  <si>
+    <t>App Runner</t>
   </si>
 </sst>
 </file>
@@ -1662,11 +1665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q266"/>
+  <dimension ref="A1:Q267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3060,7 +3063,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>178</v>
+        <v>309</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -3082,10 +3085,10 @@
         <v>175</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
@@ -3107,10 +3110,10 @@
         <v>175</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -3135,24 +3138,16 @@
         <v>52</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
       <c r="F50" s="45"/>
-      <c r="G50" s="17">
-        <v>1</v>
-      </c>
-      <c r="H50" s="17">
-        <v>1</v>
-      </c>
-      <c r="I50" s="17">
-        <v>1</v>
-      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="17"/>
-      <c r="K50" s="17">
-        <v>1</v>
-      </c>
+      <c r="K50" s="17"/>
       <c r="L50" s="17"/>
       <c r="M50" s="17"/>
       <c r="N50" s="17"/>
@@ -3168,7 +3163,7 @@
         <v>52</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
@@ -3198,10 +3193,10 @@
         <v>175</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -3212,7 +3207,9 @@
       <c r="H52" s="17">
         <v>1</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="17">
+        <v>1</v>
+      </c>
       <c r="J52" s="17"/>
       <c r="K52" s="17">
         <v>1</v>
@@ -3229,19 +3226,25 @@
         <v>175</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="45"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
+      <c r="G53" s="17">
+        <v>1</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1</v>
+      </c>
       <c r="I53" s="17"/>
       <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
+      <c r="K53" s="17">
+        <v>1</v>
+      </c>
       <c r="L53" s="17"/>
       <c r="M53" s="17"/>
       <c r="N53" s="17"/>
@@ -3254,10 +3257,10 @@
         <v>175</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
@@ -3278,9 +3281,11 @@
       <c r="A55" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C55" s="16" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -3298,21 +3303,17 @@
       <c r="Q55" s="17"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>12</v>
+      <c r="A56" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
       <c r="F56" s="45"/>
-      <c r="G56" s="17">
-        <v>1</v>
-      </c>
+      <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
       <c r="J56" s="17"/>
@@ -3332,12 +3333,14 @@
         <v>6</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
-      <c r="G57" s="17"/>
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3357,14 +3360,12 @@
         <v>6</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
-      <c r="G58" s="17">
-        <v>1</v>
-      </c>
+      <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -3384,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
@@ -3407,9 +3408,11 @@
       <c r="A60" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C60" s="13" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
@@ -3417,14 +3420,10 @@
       <c r="G60" s="17">
         <v>1</v>
       </c>
-      <c r="H60" s="17">
-        <v>1</v>
-      </c>
+      <c r="H60" s="17"/>
       <c r="I60" s="17"/>
       <c r="J60" s="17"/>
-      <c r="K60" s="17">
-        <v>1</v>
-      </c>
+      <c r="K60" s="17"/>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>
       <c r="N60" s="17"/>
@@ -3433,23 +3432,27 @@
       <c r="Q60" s="17"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>288</v>
+      <c r="A61" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="45"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="G61" s="17">
+        <v>1</v>
+      </c>
+      <c r="H61" s="17">
+        <v>1</v>
+      </c>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
+      <c r="K61" s="17">
+        <v>1</v>
+      </c>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3465,7 +3468,7 @@
         <v>6</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
@@ -3490,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -3515,14 +3518,12 @@
         <v>6</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
       <c r="F64" s="45"/>
-      <c r="G64" s="17">
-        <v>1</v>
-      </c>
+      <c r="G64" s="17"/>
       <c r="H64" s="17"/>
       <c r="I64" s="17"/>
       <c r="J64" s="17"/>
@@ -3542,12 +3543,14 @@
         <v>6</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
-      <c r="G65" s="17"/>
+      <c r="G65" s="17">
+        <v>1</v>
+      </c>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -3567,14 +3570,12 @@
         <v>6</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
       <c r="F66" s="45"/>
-      <c r="G66" s="17">
-        <v>1</v>
-      </c>
+      <c r="G66" s="17"/>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -3594,12 +3595,14 @@
         <v>6</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
-      <c r="G67" s="17"/>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -3613,13 +3616,13 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
@@ -3644,7 +3647,7 @@
         <v>52</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -3669,7 +3672,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
@@ -3688,42 +3691,28 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
-      <c r="G71" s="17">
-        <v>1</v>
-      </c>
-      <c r="H71" s="17">
-        <v>1</v>
-      </c>
-      <c r="I71" s="17">
-        <v>1</v>
-      </c>
-      <c r="J71" s="17">
-        <v>1</v>
-      </c>
-      <c r="K71" s="17">
-        <v>1</v>
-      </c>
-      <c r="L71" s="17">
-        <v>1</v>
-      </c>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
       <c r="O71" s="17"/>
       <c r="P71" s="17"/>
-      <c r="Q71" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q71" s="17"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
@@ -3733,7 +3722,7 @@
         <v>52</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
@@ -3741,17 +3730,25 @@
       <c r="G72" s="17">
         <v>1</v>
       </c>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
-      <c r="K72" s="17"/>
-      <c r="L72" s="17"/>
+      <c r="H72" s="17">
+        <v>1</v>
+      </c>
+      <c r="I72" s="17">
+        <v>1</v>
+      </c>
+      <c r="J72" s="17">
+        <v>1</v>
+      </c>
+      <c r="K72" s="17">
+        <v>1</v>
+      </c>
+      <c r="L72" s="17">
+        <v>1</v>
+      </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
-      <c r="P72" s="17">
-        <v>1</v>
-      </c>
+      <c r="P72" s="17"/>
       <c r="Q72" s="17">
         <v>1</v>
       </c>
@@ -3764,7 +3761,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -3772,30 +3769,14 @@
       <c r="G73" s="17">
         <v>1</v>
       </c>
-      <c r="H73" s="17">
-        <v>1</v>
-      </c>
-      <c r="I73" s="17">
-        <v>1</v>
-      </c>
-      <c r="J73" s="17">
-        <v>1</v>
-      </c>
-      <c r="K73" s="17">
-        <v>1</v>
-      </c>
-      <c r="L73" s="17">
-        <v>1</v>
-      </c>
-      <c r="M73" s="17">
-        <v>1</v>
-      </c>
-      <c r="N73" s="17">
-        <v>1</v>
-      </c>
-      <c r="O73" s="17">
-        <v>1</v>
-      </c>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
       <c r="P73" s="17">
         <v>1</v>
       </c>
@@ -3811,7 +3792,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -3825,15 +3806,27 @@
       <c r="I74" s="17">
         <v>1</v>
       </c>
-      <c r="J74" s="17"/>
+      <c r="J74" s="17">
+        <v>1</v>
+      </c>
       <c r="K74" s="17">
         <v>1</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
+      <c r="L74" s="17">
+        <v>1</v>
+      </c>
+      <c r="M74" s="17">
+        <v>1</v>
+      </c>
+      <c r="N74" s="17">
+        <v>1</v>
+      </c>
+      <c r="O74" s="17">
+        <v>1</v>
+      </c>
+      <c r="P74" s="17">
+        <v>1</v>
+      </c>
       <c r="Q74" s="17">
         <v>1</v>
       </c>
@@ -3846,16 +3839,24 @@
         <v>52</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
       <c r="F75" s="45"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
+      <c r="G75" s="17">
+        <v>1</v>
+      </c>
+      <c r="H75" s="17">
+        <v>1</v>
+      </c>
+      <c r="I75" s="17">
+        <v>1</v>
+      </c>
       <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
+      <c r="K75" s="17">
+        <v>1</v>
+      </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
@@ -3873,14 +3874,12 @@
         <v>52</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
       <c r="F76" s="45"/>
-      <c r="G76" s="17">
-        <v>1</v>
-      </c>
+      <c r="G76" s="17"/>
       <c r="H76" s="17"/>
       <c r="I76" s="17"/>
       <c r="J76" s="17"/>
@@ -3902,7 +3901,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
@@ -3931,12 +3930,14 @@
         <v>52</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
-      <c r="G78" s="17"/>
+      <c r="G78" s="17">
+        <v>1</v>
+      </c>
       <c r="H78" s="17"/>
       <c r="I78" s="17"/>
       <c r="J78" s="17"/>
@@ -3946,7 +3947,9 @@
       <c r="N78" s="17"/>
       <c r="O78" s="17"/>
       <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="Q78" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
@@ -3956,30 +3959,22 @@
         <v>52</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
-      <c r="G79" s="17">
-        <v>1</v>
-      </c>
-      <c r="H79" s="17">
-        <v>1</v>
-      </c>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
-      <c r="K79" s="17">
-        <v>1</v>
-      </c>
+      <c r="K79" s="17"/>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
-      <c r="Q79" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q79" s="17"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
@@ -3989,16 +3984,22 @@
         <v>52</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
+      <c r="G80" s="17">
+        <v>1</v>
+      </c>
+      <c r="H80" s="17">
+        <v>1</v>
+      </c>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="17"/>
+      <c r="K80" s="17">
+        <v>1</v>
+      </c>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
@@ -4010,13 +4011,13 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
@@ -4031,7 +4032,9 @@
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
       <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c r="Q81" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
@@ -4041,7 +4044,7 @@
         <v>6</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="45"/>
@@ -4066,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -4091,7 +4094,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="45"/>
@@ -4116,7 +4119,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="45"/>
@@ -4141,16 +4144,14 @@
         <v>6</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="45"/>
       <c r="F86" s="45"/>
       <c r="G86" s="17"/>
       <c r="H86" s="17"/>
-      <c r="I86" s="17">
-        <v>1</v>
-      </c>
+      <c r="I86" s="17"/>
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -4168,7 +4169,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="45"/>
@@ -4195,7 +4196,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
@@ -4219,17 +4220,19 @@
         <v>217</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
       <c r="F89" s="45"/>
       <c r="G89" s="17"/>
       <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
+      <c r="I89" s="17">
+        <v>1</v>
+      </c>
       <c r="J89" s="17"/>
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
@@ -4244,19 +4247,17 @@
         <v>217</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17">
-        <v>1</v>
-      </c>
+      <c r="I90" s="17"/>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -4274,14 +4275,16 @@
         <v>6</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
+      <c r="I91" s="17">
+        <v>1</v>
+      </c>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -4299,14 +4302,12 @@
         <v>6</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
-      <c r="G92" s="17">
-        <v>1</v>
-      </c>
+      <c r="G92" s="17"/>
       <c r="H92" s="17"/>
       <c r="I92" s="17"/>
       <c r="J92" s="17"/>
@@ -4323,15 +4324,17 @@
         <v>217</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
-      <c r="G93" s="17"/>
+      <c r="G93" s="17">
+        <v>1</v>
+      </c>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -4348,10 +4351,10 @@
         <v>217</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
@@ -4376,7 +4379,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
@@ -4401,7 +4404,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
@@ -4423,10 +4426,10 @@
         <v>217</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
@@ -4448,10 +4451,10 @@
         <v>217</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -4476,7 +4479,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
@@ -4501,16 +4504,14 @@
         <v>6</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
       <c r="F100" s="45"/>
       <c r="G100" s="17"/>
       <c r="H100" s="17"/>
-      <c r="I100" s="17">
-        <v>1</v>
-      </c>
+      <c r="I100" s="17"/>
       <c r="J100" s="17"/>
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
@@ -4521,21 +4522,23 @@
       <c r="Q100" s="17"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>225</v>
+      <c r="A101" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
+      <c r="I101" s="17">
+        <v>1</v>
+      </c>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -4552,8 +4555,8 @@
       <c r="B102" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C102" s="24" t="s">
-        <v>87</v>
+      <c r="C102" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
@@ -4577,8 +4580,8 @@
       <c r="B103" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="22" t="s">
-        <v>223</v>
+      <c r="C103" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
@@ -4596,14 +4599,14 @@
       <c r="Q103" s="17"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>67</v>
+      <c r="A104" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
@@ -4628,7 +4631,7 @@
         <v>52</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -4653,7 +4656,7 @@
         <v>52</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -4671,12 +4674,14 @@
       <c r="Q106" s="17"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B107" s="26"/>
-      <c r="C107" s="27" t="s">
-        <v>3</v>
+      <c r="A107" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
@@ -4697,11 +4702,9 @@
       <c r="A108" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B108" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B108" s="26"/>
       <c r="C108" s="27" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
@@ -4726,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
@@ -4751,7 +4754,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -4776,7 +4779,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -4801,7 +4804,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="45"/>
@@ -4826,7 +4829,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
@@ -4851,7 +4854,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
@@ -4876,7 +4879,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
@@ -4901,7 +4904,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="45"/>
@@ -4923,10 +4926,10 @@
         <v>34</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
@@ -4944,14 +4947,14 @@
       <c r="Q117" s="17"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C118" s="24" t="s">
-        <v>133</v>
+      <c r="A118" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
@@ -4964,9 +4967,7 @@
       <c r="L118" s="17"/>
       <c r="M118" s="17"/>
       <c r="N118" s="17"/>
-      <c r="O118" s="17">
-        <v>1</v>
-      </c>
+      <c r="O118" s="17"/>
       <c r="P118" s="17"/>
       <c r="Q118" s="17"/>
     </row>
@@ -4978,7 +4979,7 @@
         <v>52</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
@@ -5005,7 +5006,7 @@
         <v>52</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D120" s="45"/>
       <c r="E120" s="45"/>
@@ -5029,10 +5030,10 @@
         <v>240</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5059,7 +5060,7 @@
         <v>176</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="45"/>
@@ -5072,7 +5073,9 @@
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
+      <c r="O122" s="17">
+        <v>1</v>
+      </c>
       <c r="P122" s="17"/>
       <c r="Q122" s="17"/>
     </row>
@@ -5084,7 +5087,7 @@
         <v>176</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
@@ -5109,7 +5112,7 @@
         <v>176</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
@@ -5131,10 +5134,10 @@
         <v>240</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
@@ -5147,9 +5150,7 @@
       <c r="L125" s="17"/>
       <c r="M125" s="17"/>
       <c r="N125" s="17"/>
-      <c r="O125" s="17">
-        <v>1</v>
-      </c>
+      <c r="O125" s="17"/>
       <c r="P125" s="17"/>
       <c r="Q125" s="17"/>
     </row>
@@ -5161,7 +5162,7 @@
         <v>52</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D126" s="45"/>
       <c r="E126" s="45"/>
@@ -5188,7 +5189,7 @@
         <v>52</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
@@ -5215,7 +5216,7 @@
         <v>52</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="45"/>
@@ -5242,7 +5243,7 @@
         <v>52</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
@@ -5255,7 +5256,9 @@
       <c r="L129" s="17"/>
       <c r="M129" s="17"/>
       <c r="N129" s="17"/>
-      <c r="O129" s="17"/>
+      <c r="O129" s="17">
+        <v>1</v>
+      </c>
       <c r="P129" s="17"/>
       <c r="Q129" s="17"/>
     </row>
@@ -5267,7 +5270,7 @@
         <v>52</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="45"/>
@@ -5289,10 +5292,10 @@
         <v>240</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
@@ -5314,10 +5317,10 @@
         <v>240</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
@@ -5330,9 +5333,7 @@
       <c r="L132" s="17"/>
       <c r="M132" s="17"/>
       <c r="N132" s="17"/>
-      <c r="O132" s="17">
-        <v>1</v>
-      </c>
+      <c r="O132" s="17"/>
       <c r="P132" s="17"/>
       <c r="Q132" s="17"/>
     </row>
@@ -5344,7 +5345,7 @@
         <v>52</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
@@ -5371,7 +5372,7 @@
         <v>52</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="45"/>
@@ -5398,7 +5399,7 @@
         <v>52</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
@@ -5425,7 +5426,7 @@
         <v>52</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="45"/>
@@ -5452,7 +5453,7 @@
         <v>52</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
@@ -5479,7 +5480,7 @@
         <v>52</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="45"/>
@@ -5506,7 +5507,7 @@
         <v>52</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
@@ -5533,7 +5534,7 @@
         <v>52</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D140" s="45"/>
       <c r="E140" s="45"/>
@@ -5560,7 +5561,7 @@
         <v>52</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
@@ -5587,7 +5588,7 @@
         <v>52</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="45"/>
@@ -5614,7 +5615,7 @@
         <v>52</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -5641,7 +5642,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45"/>
@@ -5668,7 +5669,7 @@
         <v>52</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
@@ -5695,7 +5696,7 @@
         <v>52</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D146" s="45"/>
       <c r="E146" s="45"/>
@@ -5722,7 +5723,7 @@
         <v>52</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
@@ -5749,7 +5750,7 @@
         <v>52</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
@@ -5776,7 +5777,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="D149" s="45"/>
       <c r="E149" s="45"/>
@@ -5803,7 +5804,7 @@
         <v>52</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
@@ -5830,7 +5831,7 @@
         <v>52</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D151" s="45"/>
       <c r="E151" s="45"/>
@@ -5857,7 +5858,7 @@
         <v>52</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D152" s="45"/>
       <c r="E152" s="45"/>
@@ -5877,31 +5878,29 @@
       <c r="Q152" s="17"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A153" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B153" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="31" t="s">
-        <v>90</v>
+      <c r="A153" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C153" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
       <c r="F153" s="45"/>
       <c r="G153" s="17"/>
-      <c r="H153" s="17">
-        <v>1</v>
-      </c>
+      <c r="H153" s="17"/>
       <c r="I153" s="17"/>
       <c r="J153" s="17"/>
-      <c r="K153" s="17">
-        <v>1</v>
-      </c>
+      <c r="K153" s="17"/>
       <c r="L153" s="17"/>
       <c r="M153" s="17"/>
       <c r="N153" s="17"/>
-      <c r="O153" s="17"/>
+      <c r="O153" s="17">
+        <v>1</v>
+      </c>
       <c r="P153" s="17"/>
       <c r="Q153" s="17"/>
     </row>
@@ -5913,16 +5912,20 @@
         <v>6</v>
       </c>
       <c r="C154" s="31" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
+      <c r="H154" s="17">
+        <v>1</v>
+      </c>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
-      <c r="K154" s="17"/>
+      <c r="K154" s="17">
+        <v>1</v>
+      </c>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
@@ -5938,44 +5941,22 @@
         <v>6</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="45"/>
       <c r="F155" s="45"/>
-      <c r="G155" s="17">
-        <v>1</v>
-      </c>
-      <c r="H155" s="17">
-        <v>1</v>
-      </c>
-      <c r="I155" s="17">
-        <v>1</v>
-      </c>
-      <c r="J155" s="17">
-        <v>1</v>
-      </c>
-      <c r="K155" s="17">
-        <v>1</v>
-      </c>
-      <c r="L155" s="17">
-        <v>1</v>
-      </c>
-      <c r="M155" s="17">
-        <v>1</v>
-      </c>
-      <c r="N155" s="17">
-        <v>1</v>
-      </c>
-      <c r="O155" s="17">
-        <v>1</v>
-      </c>
-      <c r="P155" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="17">
-        <v>1</v>
-      </c>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
@@ -5985,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D156" s="45"/>
       <c r="E156" s="45"/>
@@ -5999,28 +5980,40 @@
       <c r="I156" s="17">
         <v>1</v>
       </c>
-      <c r="J156" s="17"/>
+      <c r="J156" s="17">
+        <v>1</v>
+      </c>
       <c r="K156" s="17">
         <v>1</v>
       </c>
-      <c r="L156" s="17"/>
+      <c r="L156" s="17">
+        <v>1</v>
+      </c>
       <c r="M156" s="17">
         <v>1</v>
       </c>
-      <c r="N156" s="17"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="17"/>
-      <c r="Q156" s="17"/>
+      <c r="N156" s="17">
+        <v>1</v>
+      </c>
+      <c r="O156" s="17">
+        <v>1</v>
+      </c>
+      <c r="P156" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B157" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
@@ -6034,55 +6027,65 @@
       <c r="I157" s="17">
         <v>1</v>
       </c>
-      <c r="J157" s="17">
-        <v>1</v>
-      </c>
+      <c r="J157" s="17"/>
       <c r="K157" s="17">
         <v>1</v>
       </c>
-      <c r="L157" s="17">
-        <v>1</v>
-      </c>
+      <c r="L157" s="17"/>
       <c r="M157" s="17">
         <v>1</v>
       </c>
-      <c r="N157" s="17">
-        <v>1</v>
-      </c>
-      <c r="O157" s="17">
-        <v>1</v>
-      </c>
-      <c r="P157" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="17">
-        <v>1</v>
-      </c>
+      <c r="N157" s="17"/>
+      <c r="O157" s="17"/>
+      <c r="P157" s="17"/>
+      <c r="Q157" s="17"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D158" s="45"/>
       <c r="E158" s="45"/>
       <c r="F158" s="45"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="17"/>
-      <c r="K158" s="17"/>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
-      <c r="Q158" s="17"/>
+      <c r="G158" s="17">
+        <v>1</v>
+      </c>
+      <c r="H158" s="17">
+        <v>1</v>
+      </c>
+      <c r="I158" s="17">
+        <v>1</v>
+      </c>
+      <c r="J158" s="17">
+        <v>1</v>
+      </c>
+      <c r="K158" s="17">
+        <v>1</v>
+      </c>
+      <c r="L158" s="17">
+        <v>1</v>
+      </c>
+      <c r="M158" s="17">
+        <v>1</v>
+      </c>
+      <c r="N158" s="17">
+        <v>1</v>
+      </c>
+      <c r="O158" s="17">
+        <v>1</v>
+      </c>
+      <c r="P158" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="29" t="s">
@@ -6092,20 +6095,16 @@
         <v>6</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="45"/>
       <c r="F159" s="45"/>
       <c r="G159" s="17"/>
-      <c r="H159" s="17">
-        <v>1</v>
-      </c>
+      <c r="H159" s="17"/>
       <c r="I159" s="17"/>
       <c r="J159" s="17"/>
-      <c r="K159" s="17">
-        <v>1</v>
-      </c>
+      <c r="K159" s="17"/>
       <c r="L159" s="17"/>
       <c r="M159" s="17"/>
       <c r="N159" s="17"/>
@@ -6121,16 +6120,20 @@
         <v>6</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D160" s="45"/>
       <c r="E160" s="45"/>
       <c r="F160" s="45"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
+      <c r="H160" s="17">
+        <v>1</v>
+      </c>
       <c r="I160" s="17"/>
       <c r="J160" s="17"/>
-      <c r="K160" s="17"/>
+      <c r="K160" s="17">
+        <v>1</v>
+      </c>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
@@ -6146,7 +6149,7 @@
         <v>6</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
@@ -6171,7 +6174,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
@@ -6193,10 +6196,10 @@
         <v>33</v>
       </c>
       <c r="B163" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
@@ -6218,17 +6221,15 @@
         <v>33</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
       <c r="F164" s="45"/>
-      <c r="G164" s="17">
-        <v>1</v>
-      </c>
+      <c r="G164" s="17"/>
       <c r="H164" s="17"/>
       <c r="I164" s="17"/>
       <c r="J164" s="17"/>
@@ -6248,22 +6249,18 @@
         <v>6</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
       <c r="F165" s="45"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17">
-        <v>1</v>
-      </c>
-      <c r="I165" s="17">
-        <v>1</v>
-      </c>
+      <c r="G165" s="17">
+        <v>1</v>
+      </c>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
       <c r="J165" s="17"/>
-      <c r="K165" s="17">
-        <v>1</v>
-      </c>
+      <c r="K165" s="17"/>
       <c r="L165" s="17"/>
       <c r="M165" s="17"/>
       <c r="N165" s="17"/>
@@ -6279,7 +6276,7 @@
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
@@ -6310,7 +6307,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
@@ -6341,18 +6338,18 @@
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
       <c r="F168" s="45"/>
-      <c r="G168" s="17">
-        <v>1</v>
-      </c>
+      <c r="G168" s="17"/>
       <c r="H168" s="17">
         <v>1</v>
       </c>
-      <c r="I168" s="17"/>
+      <c r="I168" s="17">
+        <v>1</v>
+      </c>
       <c r="J168" s="17"/>
       <c r="K168" s="17">
         <v>1</v>
@@ -6372,7 +6369,7 @@
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
@@ -6380,10 +6377,14 @@
       <c r="G169" s="17">
         <v>1</v>
       </c>
-      <c r="H169" s="17"/>
+      <c r="H169" s="17">
+        <v>1</v>
+      </c>
       <c r="I169" s="17"/>
       <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
+      <c r="K169" s="17">
+        <v>1</v>
+      </c>
       <c r="L169" s="17"/>
       <c r="M169" s="17"/>
       <c r="N169" s="17"/>
@@ -6399,12 +6400,14 @@
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
       <c r="F170" s="45"/>
-      <c r="G170" s="17"/>
+      <c r="G170" s="17">
+        <v>1</v>
+      </c>
       <c r="H170" s="17"/>
       <c r="I170" s="17"/>
       <c r="J170" s="17"/>
@@ -6424,7 +6427,7 @@
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
@@ -6432,15 +6435,9 @@
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
-      <c r="J171" s="17">
-        <v>1</v>
-      </c>
-      <c r="K171" s="17">
-        <v>1</v>
-      </c>
-      <c r="L171" s="17">
-        <v>1</v>
-      </c>
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
       <c r="M171" s="17"/>
       <c r="N171" s="17"/>
       <c r="O171" s="17"/>
@@ -6455,7 +6452,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6466,7 +6463,9 @@
       <c r="J172" s="17">
         <v>1</v>
       </c>
-      <c r="K172" s="17"/>
+      <c r="K172" s="17">
+        <v>1</v>
+      </c>
       <c r="L172" s="17">
         <v>1</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6513,7 +6512,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6542,7 +6541,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6571,7 +6570,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45"/>
@@ -6600,7 +6599,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6629,7 +6628,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6658,7 +6657,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6687,7 +6686,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45"/>
@@ -6716,7 +6715,7 @@
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D181" s="45"/>
       <c r="E181" s="45"/>
@@ -6745,11 +6744,11 @@
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D182" s="47"/>
-      <c r="E182" s="47"/>
-      <c r="F182" s="47"/>
+        <v>261</v>
+      </c>
+      <c r="D182" s="45"/>
+      <c r="E182" s="45"/>
+      <c r="F182" s="45"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
       <c r="I182" s="17"/>
@@ -6774,11 +6773,11 @@
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D183" s="45"/>
-      <c r="E183" s="45"/>
-      <c r="F183" s="45"/>
+        <v>256</v>
+      </c>
+      <c r="D183" s="47"/>
+      <c r="E183" s="47"/>
+      <c r="F183" s="47"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
@@ -6803,7 +6802,7 @@
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D184" s="45"/>
       <c r="E184" s="45"/>
@@ -6832,7 +6831,7 @@
         <v>6</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6861,7 +6860,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
@@ -6890,7 +6889,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
@@ -6919,24 +6918,18 @@
         <v>6</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
       <c r="F188" s="45"/>
       <c r="G188" s="17"/>
-      <c r="H188" s="17">
-        <v>1</v>
-      </c>
-      <c r="I188" s="17">
-        <v>1</v>
-      </c>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
       <c r="J188" s="17">
         <v>1</v>
       </c>
-      <c r="K188" s="17">
-        <v>1</v>
-      </c>
+      <c r="K188" s="17"/>
       <c r="L188" s="17">
         <v>1</v>
       </c>
@@ -6954,19 +6947,27 @@
         <v>6</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
       <c r="F189" s="45"/>
-      <c r="G189" s="17">
-        <v>1</v>
-      </c>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="17"/>
-      <c r="K189" s="17"/>
-      <c r="L189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17">
+        <v>1</v>
+      </c>
+      <c r="I189" s="17">
+        <v>1</v>
+      </c>
+      <c r="J189" s="17">
+        <v>1</v>
+      </c>
+      <c r="K189" s="17">
+        <v>1</v>
+      </c>
+      <c r="L189" s="17">
+        <v>1</v>
+      </c>
       <c r="M189" s="17"/>
       <c r="N189" s="17"/>
       <c r="O189" s="17"/>
@@ -6981,12 +6982,14 @@
         <v>6</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
       <c r="F190" s="45"/>
-      <c r="G190" s="17"/>
+      <c r="G190" s="17">
+        <v>1</v>
+      </c>
       <c r="H190" s="17"/>
       <c r="I190" s="17"/>
       <c r="J190" s="17"/>
@@ -6999,14 +7002,14 @@
       <c r="Q190" s="17"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B191" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>304</v>
+      <c r="A191" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
@@ -7031,7 +7034,7 @@
         <v>6</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7056,7 +7059,7 @@
         <v>6</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
@@ -7081,7 +7084,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7106,7 +7109,7 @@
         <v>6</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
@@ -7131,7 +7134,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
@@ -7156,7 +7159,7 @@
         <v>6</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
@@ -7181,7 +7184,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
@@ -7206,7 +7209,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
@@ -7231,7 +7234,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7256,7 +7259,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
@@ -7281,7 +7284,7 @@
         <v>6</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
@@ -7303,10 +7306,10 @@
         <v>296</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
@@ -7331,7 +7334,7 @@
         <v>52</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
@@ -7345,9 +7348,7 @@
       <c r="M204" s="17"/>
       <c r="N204" s="17"/>
       <c r="O204" s="17"/>
-      <c r="P204" s="17">
-        <v>1</v>
-      </c>
+      <c r="P204" s="17"/>
       <c r="Q204" s="17"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
@@ -7358,7 +7359,7 @@
         <v>52</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
@@ -7372,16 +7373,20 @@
       <c r="M205" s="17"/>
       <c r="N205" s="17"/>
       <c r="O205" s="17"/>
-      <c r="P205" s="17"/>
+      <c r="P205" s="17">
+        <v>1</v>
+      </c>
       <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A206" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B206" s="32"/>
-      <c r="C206" s="24" t="s">
-        <v>1</v>
+      <c r="A206" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
@@ -7402,11 +7407,9 @@
       <c r="A207" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B207" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B207" s="32"/>
       <c r="C207" s="24" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
@@ -7431,25 +7434,21 @@
         <v>6</v>
       </c>
       <c r="C208" s="24" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
       <c r="F208" s="45"/>
       <c r="G208" s="17"/>
       <c r="H208" s="17"/>
-      <c r="I208" s="17">
-        <v>1</v>
-      </c>
+      <c r="I208" s="17"/>
       <c r="J208" s="17"/>
       <c r="K208" s="17"/>
       <c r="L208" s="17"/>
       <c r="M208" s="17"/>
       <c r="N208" s="17"/>
       <c r="O208" s="17"/>
-      <c r="P208" s="17">
-        <v>1</v>
-      </c>
+      <c r="P208" s="17"/>
       <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
@@ -7460,30 +7459,26 @@
         <v>6</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
       <c r="F209" s="45"/>
-      <c r="G209" s="17">
-        <v>1</v>
-      </c>
-      <c r="H209" s="17">
-        <v>1</v>
-      </c>
-      <c r="I209" s="17"/>
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="17">
+        <v>1</v>
+      </c>
       <c r="J209" s="17"/>
-      <c r="K209" s="17">
-        <v>1</v>
-      </c>
+      <c r="K209" s="17"/>
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
-      <c r="P209" s="17"/>
-      <c r="Q209" s="17">
-        <v>1</v>
-      </c>
+      <c r="P209" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q209" s="17"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="22" t="s">
@@ -7493,24 +7488,30 @@
         <v>6</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
+      <c r="G210" s="17">
+        <v>1</v>
+      </c>
+      <c r="H210" s="17">
+        <v>1</v>
+      </c>
       <c r="I210" s="17"/>
       <c r="J210" s="17"/>
-      <c r="K210" s="17"/>
+      <c r="K210" s="17">
+        <v>1</v>
+      </c>
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
-      <c r="P210" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q210" s="17"/>
+      <c r="P210" s="17"/>
+      <c r="Q210" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
@@ -7520,63 +7521,65 @@
         <v>6</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
-      <c r="G211" s="17">
-        <v>1</v>
-      </c>
-      <c r="H211" s="17">
-        <v>1</v>
-      </c>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
-      <c r="K211" s="17">
-        <v>1</v>
-      </c>
+      <c r="K211" s="17"/>
       <c r="L211" s="17"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
-      <c r="P211" s="17"/>
-      <c r="Q211" s="17">
-        <v>1</v>
-      </c>
+      <c r="P211" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="17"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B212" s="23"/>
+      <c r="B212" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C212" s="24" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
       <c r="F212" s="45"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
+      <c r="G212" s="17">
+        <v>1</v>
+      </c>
+      <c r="H212" s="17">
+        <v>1</v>
+      </c>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
-      <c r="K212" s="17"/>
+      <c r="K212" s="17">
+        <v>1</v>
+      </c>
       <c r="L212" s="17"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
       <c r="O212" s="17"/>
       <c r="P212" s="17"/>
-      <c r="Q212" s="17"/>
+      <c r="Q212" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B213" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B213" s="23"/>
       <c r="C213" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
@@ -7601,7 +7604,7 @@
         <v>6</v>
       </c>
       <c r="C214" s="24" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -7610,9 +7613,7 @@
       <c r="H214" s="17"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17"/>
-      <c r="K214" s="17">
-        <v>1</v>
-      </c>
+      <c r="K214" s="17"/>
       <c r="L214" s="17"/>
       <c r="M214" s="17"/>
       <c r="N214" s="17"/>
@@ -7628,17 +7629,13 @@
         <v>6</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
       <c r="F215" s="45"/>
-      <c r="G215" s="17">
-        <v>1</v>
-      </c>
-      <c r="H215" s="17">
-        <v>1</v>
-      </c>
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
       <c r="K215" s="17">
@@ -7659,7 +7656,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
@@ -7667,10 +7664,14 @@
       <c r="G216" s="17">
         <v>1</v>
       </c>
-      <c r="H216" s="17"/>
+      <c r="H216" s="17">
+        <v>1</v>
+      </c>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17"/>
+      <c r="K216" s="17">
+        <v>1</v>
+      </c>
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
       <c r="N216" s="17"/>
@@ -7686,7 +7687,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
@@ -7694,14 +7695,10 @@
       <c r="G217" s="17">
         <v>1</v>
       </c>
-      <c r="H217" s="17">
-        <v>1</v>
-      </c>
+      <c r="H217" s="17"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
-      <c r="K217" s="17">
-        <v>1</v>
-      </c>
+      <c r="K217" s="17"/>
       <c r="L217" s="17"/>
       <c r="M217" s="17"/>
       <c r="N217" s="17"/>
@@ -7717,16 +7714,22 @@
         <v>6</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
       <c r="F218" s="45"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
+      <c r="G218" s="17">
+        <v>1</v>
+      </c>
+      <c r="H218" s="17">
+        <v>1</v>
+      </c>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="17">
+        <v>1</v>
+      </c>
       <c r="L218" s="17"/>
       <c r="M218" s="17"/>
       <c r="N218" s="17"/>
@@ -7735,40 +7738,26 @@
       <c r="Q218" s="17"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A219" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B219" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C219" s="35" t="s">
-        <v>132</v>
+      <c r="A219" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
       <c r="F219" s="45"/>
       <c r="G219" s="17"/>
-      <c r="H219" s="17">
-        <v>1</v>
-      </c>
-      <c r="I219" s="17">
-        <v>1</v>
-      </c>
-      <c r="J219" s="17">
-        <v>1</v>
-      </c>
-      <c r="K219" s="17">
-        <v>1</v>
-      </c>
-      <c r="L219" s="17">
-        <v>1</v>
-      </c>
-      <c r="M219" s="17">
-        <v>1</v>
-      </c>
-      <c r="N219" s="17">
-        <v>1</v>
-      </c>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="17"/>
+      <c r="K219" s="17"/>
+      <c r="L219" s="17"/>
+      <c r="M219" s="17"/>
+      <c r="N219" s="17"/>
       <c r="O219" s="17"/>
       <c r="P219" s="17"/>
       <c r="Q219" s="17"/>
@@ -7778,21 +7767,33 @@
         <v>174</v>
       </c>
       <c r="B220" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C220" s="35" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
       <c r="F220" s="45"/>
       <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="17"/>
-      <c r="J220" s="17"/>
-      <c r="K220" s="17"/>
-      <c r="L220" s="17"/>
-      <c r="M220" s="17"/>
+      <c r="H220" s="17">
+        <v>1</v>
+      </c>
+      <c r="I220" s="17">
+        <v>1</v>
+      </c>
+      <c r="J220" s="17">
+        <v>1</v>
+      </c>
+      <c r="K220" s="17">
+        <v>1</v>
+      </c>
+      <c r="L220" s="17">
+        <v>1</v>
+      </c>
+      <c r="M220" s="17">
+        <v>1</v>
+      </c>
       <c r="N220" s="17">
         <v>1</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>6</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
@@ -7832,31 +7833,21 @@
         <v>174</v>
       </c>
       <c r="B222" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C222" s="35" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
       <c r="F222" s="45"/>
-      <c r="G222" s="17">
-        <v>1</v>
-      </c>
-      <c r="H222" s="17">
-        <v>1</v>
-      </c>
-      <c r="I222" s="17">
-        <v>1</v>
-      </c>
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
       <c r="J222" s="17"/>
-      <c r="K222" s="17">
-        <v>1</v>
-      </c>
+      <c r="K222" s="17"/>
       <c r="L222" s="17"/>
-      <c r="M222" s="17">
-        <v>1</v>
-      </c>
+      <c r="M222" s="17"/>
       <c r="N222" s="17">
         <v>1</v>
       </c>
@@ -7869,10 +7860,10 @@
         <v>174</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
@@ -7883,13 +7874,17 @@
       <c r="H223" s="17">
         <v>1</v>
       </c>
-      <c r="I223" s="17"/>
+      <c r="I223" s="17">
+        <v>1</v>
+      </c>
       <c r="J223" s="17"/>
       <c r="K223" s="17">
         <v>1</v>
       </c>
       <c r="L223" s="17"/>
-      <c r="M223" s="17"/>
+      <c r="M223" s="17">
+        <v>1</v>
+      </c>
       <c r="N223" s="17">
         <v>1</v>
       </c>
@@ -7901,9 +7896,11 @@
       <c r="A224" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B224" s="36"/>
+      <c r="B224" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="C224" s="35" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7914,60 +7911,64 @@
       <c r="H224" s="17">
         <v>1</v>
       </c>
-      <c r="I224" s="17">
-        <v>1</v>
-      </c>
-      <c r="J224" s="17">
-        <v>1</v>
-      </c>
+      <c r="I224" s="17"/>
+      <c r="J224" s="17"/>
       <c r="K224" s="17">
         <v>1</v>
       </c>
-      <c r="L224" s="17">
-        <v>1</v>
-      </c>
-      <c r="M224" s="17">
-        <v>1</v>
-      </c>
+      <c r="L224" s="17"/>
+      <c r="M224" s="17"/>
       <c r="N224" s="17">
         <v>1</v>
       </c>
-      <c r="O224" s="17">
-        <v>1</v>
-      </c>
-      <c r="P224" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q224" s="17">
-        <v>1</v>
-      </c>
+      <c r="O224" s="17"/>
+      <c r="P224" s="17"/>
+      <c r="Q224" s="17"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B225" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B225" s="36"/>
       <c r="C225" s="35" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
       <c r="F225" s="45"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="17"/>
-      <c r="K225" s="17"/>
-      <c r="L225" s="17"/>
-      <c r="M225" s="17"/>
+      <c r="G225" s="17">
+        <v>1</v>
+      </c>
+      <c r="H225" s="17">
+        <v>1</v>
+      </c>
+      <c r="I225" s="17">
+        <v>1</v>
+      </c>
+      <c r="J225" s="17">
+        <v>1</v>
+      </c>
+      <c r="K225" s="17">
+        <v>1</v>
+      </c>
+      <c r="L225" s="17">
+        <v>1</v>
+      </c>
+      <c r="M225" s="17">
+        <v>1</v>
+      </c>
       <c r="N225" s="17">
         <v>1</v>
       </c>
-      <c r="O225" s="17"/>
-      <c r="P225" s="17"/>
-      <c r="Q225" s="17"/>
+      <c r="O225" s="17">
+        <v>1</v>
+      </c>
+      <c r="P225" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="33" t="s">
@@ -7977,7 +7978,7 @@
         <v>6</v>
       </c>
       <c r="C226" s="35" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
@@ -8004,7 +8005,7 @@
         <v>6</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
@@ -8013,9 +8014,7 @@
       <c r="H227" s="17"/>
       <c r="I227" s="17"/>
       <c r="J227" s="17"/>
-      <c r="K227" s="17">
-        <v>1</v>
-      </c>
+      <c r="K227" s="17"/>
       <c r="L227" s="17"/>
       <c r="M227" s="17"/>
       <c r="N227" s="17">
@@ -8030,32 +8029,22 @@
         <v>174</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
       <c r="F228" s="45"/>
-      <c r="G228" s="17">
-        <v>1</v>
-      </c>
-      <c r="H228" s="17">
-        <v>1</v>
-      </c>
-      <c r="I228" s="17">
-        <v>1</v>
-      </c>
-      <c r="J228" s="17">
-        <v>1</v>
-      </c>
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="17"/>
       <c r="K228" s="17">
         <v>1</v>
       </c>
-      <c r="L228" s="17">
-        <v>1</v>
-      </c>
+      <c r="L228" s="17"/>
       <c r="M228" s="17"/>
       <c r="N228" s="17">
         <v>1</v>
@@ -8069,22 +8058,32 @@
         <v>174</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
       <c r="F229" s="45"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="17"/>
-      <c r="J229" s="17"/>
+      <c r="G229" s="17">
+        <v>1</v>
+      </c>
+      <c r="H229" s="17">
+        <v>1</v>
+      </c>
+      <c r="I229" s="17">
+        <v>1</v>
+      </c>
+      <c r="J229" s="17">
+        <v>1</v>
+      </c>
       <c r="K229" s="17">
         <v>1</v>
       </c>
-      <c r="L229" s="17"/>
+      <c r="L229" s="17">
+        <v>1</v>
+      </c>
       <c r="M229" s="17"/>
       <c r="N229" s="17">
         <v>1</v>
@@ -8098,57 +8097,39 @@
         <v>174</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
       <c r="F230" s="45"/>
-      <c r="G230" s="17">
-        <v>1</v>
-      </c>
-      <c r="H230" s="17">
-        <v>1</v>
-      </c>
-      <c r="I230" s="17">
-        <v>1</v>
-      </c>
-      <c r="J230" s="17">
-        <v>1</v>
-      </c>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
       <c r="K230" s="17">
         <v>1</v>
       </c>
-      <c r="L230" s="17">
-        <v>1</v>
-      </c>
-      <c r="M230" s="17">
-        <v>1</v>
-      </c>
+      <c r="L230" s="17"/>
+      <c r="M230" s="17"/>
       <c r="N230" s="17">
         <v>1</v>
       </c>
-      <c r="O230" s="17">
-        <v>1</v>
-      </c>
-      <c r="P230" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q230" s="17">
-        <v>1</v>
-      </c>
+      <c r="O230" s="17"/>
+      <c r="P230" s="17"/>
+      <c r="Q230" s="17"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="33" t="s">
         <v>174</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C231" s="35" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
@@ -8159,54 +8140,76 @@
       <c r="H231" s="17">
         <v>1</v>
       </c>
-      <c r="I231" s="17"/>
-      <c r="J231" s="17"/>
+      <c r="I231" s="17">
+        <v>1</v>
+      </c>
+      <c r="J231" s="17">
+        <v>1</v>
+      </c>
       <c r="K231" s="17">
         <v>1</v>
       </c>
-      <c r="L231" s="17"/>
-      <c r="M231" s="17"/>
+      <c r="L231" s="17">
+        <v>1</v>
+      </c>
+      <c r="M231" s="17">
+        <v>1</v>
+      </c>
       <c r="N231" s="17">
         <v>1</v>
       </c>
-      <c r="O231" s="17"/>
-      <c r="P231" s="17"/>
-      <c r="Q231" s="17"/>
+      <c r="O231" s="17">
+        <v>1</v>
+      </c>
+      <c r="P231" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q231" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A232" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B232" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C232" s="16" t="s">
-        <v>184</v>
+      <c r="A232" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B232" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
       <c r="F232" s="45"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
+      <c r="G232" s="17">
+        <v>1</v>
+      </c>
+      <c r="H232" s="17">
+        <v>1</v>
+      </c>
       <c r="I232" s="17"/>
       <c r="J232" s="17"/>
-      <c r="K232" s="17"/>
+      <c r="K232" s="17">
+        <v>1</v>
+      </c>
       <c r="L232" s="17"/>
       <c r="M232" s="17"/>
-      <c r="N232" s="17"/>
+      <c r="N232" s="17">
+        <v>1</v>
+      </c>
       <c r="O232" s="17"/>
       <c r="P232" s="17"/>
       <c r="Q232" s="17"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B233" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C233" s="39" t="s">
-        <v>42</v>
+      <c r="A233" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
@@ -8224,14 +8227,14 @@
       <c r="Q233" s="17"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B234" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C234" s="21" t="s">
-        <v>103</v>
+      <c r="A234" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B234" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
@@ -8249,29 +8252,25 @@
       <c r="Q234" s="17"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A235" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B235" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="39" t="s">
-        <v>9</v>
+      <c r="A235" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B235" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
       <c r="F235" s="45"/>
-      <c r="G235" s="17">
-        <v>1</v>
-      </c>
+      <c r="G235" s="17"/>
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
       <c r="J235" s="17"/>
       <c r="K235" s="17"/>
       <c r="L235" s="17"/>
-      <c r="M235" s="17">
-        <v>1</v>
-      </c>
+      <c r="M235" s="17"/>
       <c r="N235" s="17"/>
       <c r="O235" s="17"/>
       <c r="P235" s="17"/>
@@ -8285,12 +8284,14 @@
         <v>6</v>
       </c>
       <c r="C236" s="39" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
       <c r="F236" s="45"/>
-      <c r="G236" s="17"/>
+      <c r="G236" s="17">
+        <v>1</v>
+      </c>
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
@@ -8312,7 +8313,7 @@
         <v>6</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
@@ -8336,10 +8337,10 @@
         <v>43</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
@@ -8363,23 +8364,19 @@
         <v>43</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
       <c r="F239" s="45"/>
       <c r="G239" s="17"/>
-      <c r="H239" s="17">
-        <v>1</v>
-      </c>
+      <c r="H239" s="17"/>
       <c r="I239" s="17"/>
       <c r="J239" s="17"/>
-      <c r="K239" s="17">
-        <v>1</v>
-      </c>
+      <c r="K239" s="17"/>
       <c r="L239" s="17"/>
       <c r="M239" s="17">
         <v>1</v>
@@ -8394,10 +8391,10 @@
         <v>43</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
@@ -8406,9 +8403,7 @@
       <c r="H240" s="17">
         <v>1</v>
       </c>
-      <c r="I240" s="17">
-        <v>1</v>
-      </c>
+      <c r="I240" s="17"/>
       <c r="J240" s="17"/>
       <c r="K240" s="17">
         <v>1</v>
@@ -8430,16 +8425,22 @@
         <v>52</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
       <c r="F241" s="45"/>
       <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
+      <c r="H241" s="17">
+        <v>1</v>
+      </c>
+      <c r="I241" s="17">
+        <v>1</v>
+      </c>
       <c r="J241" s="17"/>
-      <c r="K241" s="17"/>
+      <c r="K241" s="17">
+        <v>1</v>
+      </c>
       <c r="L241" s="17"/>
       <c r="M241" s="17">
         <v>1</v>
@@ -8454,10 +8455,10 @@
         <v>43</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
@@ -8466,9 +8467,7 @@
       <c r="H242" s="17"/>
       <c r="I242" s="17"/>
       <c r="J242" s="17"/>
-      <c r="K242" s="17">
-        <v>1</v>
-      </c>
+      <c r="K242" s="17"/>
       <c r="L242" s="17"/>
       <c r="M242" s="17">
         <v>1</v>
@@ -8486,7 +8485,7 @@
         <v>6</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
@@ -8499,7 +8498,9 @@
         <v>1</v>
       </c>
       <c r="L243" s="17"/>
-      <c r="M243" s="17"/>
+      <c r="M243" s="17">
+        <v>1</v>
+      </c>
       <c r="N243" s="17"/>
       <c r="O243" s="17"/>
       <c r="P243" s="17"/>
@@ -8513,7 +8514,7 @@
         <v>6</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
@@ -8540,7 +8541,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8567,7 +8568,7 @@
         <v>6</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8576,11 +8577,11 @@
       <c r="H246" s="17"/>
       <c r="I246" s="17"/>
       <c r="J246" s="17"/>
-      <c r="K246" s="17"/>
+      <c r="K246" s="17">
+        <v>1</v>
+      </c>
       <c r="L246" s="17"/>
-      <c r="M246" s="17">
-        <v>1</v>
-      </c>
+      <c r="M246" s="17"/>
       <c r="N246" s="17"/>
       <c r="O246" s="17"/>
       <c r="P246" s="17"/>
@@ -8591,17 +8592,15 @@
         <v>43</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
       <c r="F247" s="45"/>
-      <c r="G247" s="17">
-        <v>1</v>
-      </c>
+      <c r="G247" s="17"/>
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
       <c r="J247" s="17"/>
@@ -8620,10 +8619,10 @@
         <v>43</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
@@ -8631,46 +8630,28 @@
       <c r="G248" s="17">
         <v>1</v>
       </c>
-      <c r="H248" s="17">
-        <v>1</v>
-      </c>
-      <c r="I248" s="17">
-        <v>1</v>
-      </c>
-      <c r="J248" s="17">
-        <v>1</v>
-      </c>
-      <c r="K248" s="17">
-        <v>1</v>
-      </c>
-      <c r="L248" s="17">
-        <v>1</v>
-      </c>
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="17"/>
+      <c r="K248" s="17"/>
+      <c r="L248" s="17"/>
       <c r="M248" s="17">
         <v>1</v>
       </c>
-      <c r="N248" s="17">
-        <v>1</v>
-      </c>
-      <c r="O248" s="17">
-        <v>1</v>
-      </c>
-      <c r="P248" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q248" s="17">
-        <v>1</v>
-      </c>
+      <c r="N248" s="17"/>
+      <c r="O248" s="17"/>
+      <c r="P248" s="17"/>
+      <c r="Q248" s="17"/>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
@@ -8678,28 +8659,46 @@
       <c r="G249" s="17">
         <v>1</v>
       </c>
-      <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
-      <c r="J249" s="17"/>
-      <c r="K249" s="17"/>
-      <c r="L249" s="17"/>
+      <c r="H249" s="17">
+        <v>1</v>
+      </c>
+      <c r="I249" s="17">
+        <v>1</v>
+      </c>
+      <c r="J249" s="17">
+        <v>1</v>
+      </c>
+      <c r="K249" s="17">
+        <v>1</v>
+      </c>
+      <c r="L249" s="17">
+        <v>1</v>
+      </c>
       <c r="M249" s="17">
         <v>1</v>
       </c>
-      <c r="N249" s="17"/>
-      <c r="O249" s="17"/>
-      <c r="P249" s="17"/>
-      <c r="Q249" s="17"/>
+      <c r="N249" s="17">
+        <v>1</v>
+      </c>
+      <c r="O249" s="17">
+        <v>1</v>
+      </c>
+      <c r="P249" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q249" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
@@ -8707,21 +8706,11 @@
       <c r="G250" s="17">
         <v>1</v>
       </c>
-      <c r="H250" s="17">
-        <v>1</v>
-      </c>
-      <c r="I250" s="17">
-        <v>1</v>
-      </c>
-      <c r="J250" s="17">
-        <v>1</v>
-      </c>
-      <c r="K250" s="17">
-        <v>1</v>
-      </c>
-      <c r="L250" s="17">
-        <v>1</v>
-      </c>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
       <c r="M250" s="17">
         <v>1</v>
       </c>
@@ -8735,20 +8724,32 @@
         <v>43</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
       <c r="F251" s="45"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
-      <c r="L251" s="17"/>
+      <c r="G251" s="17">
+        <v>1</v>
+      </c>
+      <c r="H251" s="17">
+        <v>1</v>
+      </c>
+      <c r="I251" s="17">
+        <v>1</v>
+      </c>
+      <c r="J251" s="17">
+        <v>1</v>
+      </c>
+      <c r="K251" s="17">
+        <v>1</v>
+      </c>
+      <c r="L251" s="17">
+        <v>1</v>
+      </c>
       <c r="M251" s="17">
         <v>1</v>
       </c>
@@ -8762,10 +8763,10 @@
         <v>43</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
@@ -8774,9 +8775,7 @@
       <c r="H252" s="17"/>
       <c r="I252" s="17"/>
       <c r="J252" s="17"/>
-      <c r="K252" s="17">
-        <v>1</v>
-      </c>
+      <c r="K252" s="17"/>
       <c r="L252" s="17"/>
       <c r="M252" s="17">
         <v>1</v>
@@ -8794,7 +8793,7 @@
         <v>6</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D253" s="45"/>
       <c r="E253" s="45"/>
@@ -8803,7 +8802,9 @@
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
-      <c r="K253" s="17"/>
+      <c r="K253" s="17">
+        <v>1</v>
+      </c>
       <c r="L253" s="17"/>
       <c r="M253" s="17">
         <v>1</v>
@@ -8821,22 +8822,16 @@
         <v>6</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D254" s="45"/>
       <c r="E254" s="45"/>
       <c r="F254" s="45"/>
-      <c r="G254" s="17">
-        <v>1</v>
-      </c>
-      <c r="H254" s="17">
-        <v>1</v>
-      </c>
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
-      <c r="K254" s="17">
-        <v>1</v>
-      </c>
+      <c r="K254" s="17"/>
       <c r="L254" s="17"/>
       <c r="M254" s="17">
         <v>1</v>
@@ -8854,13 +8849,17 @@
         <v>6</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="D255" s="45"/>
       <c r="E255" s="45"/>
       <c r="F255" s="45"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
+      <c r="G255" s="17">
+        <v>1</v>
+      </c>
+      <c r="H255" s="17">
+        <v>1</v>
+      </c>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
       <c r="K255" s="17">
@@ -8883,17 +8882,13 @@
         <v>6</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="D256" s="45"/>
       <c r="E256" s="45"/>
       <c r="F256" s="45"/>
-      <c r="G256" s="17">
-        <v>1</v>
-      </c>
-      <c r="H256" s="17">
-        <v>1</v>
-      </c>
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
       <c r="K256" s="17">
@@ -8909,23 +8904,33 @@
       <c r="Q256" s="17"/>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A257" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B257" s="40"/>
-      <c r="C257" s="13" t="s">
-        <v>0</v>
+      <c r="A257" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B257" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C257" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D257" s="45"/>
       <c r="E257" s="45"/>
       <c r="F257" s="45"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17">
+        <v>1</v>
+      </c>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
-      <c r="K257" s="17"/>
+      <c r="K257" s="17">
+        <v>1</v>
+      </c>
       <c r="L257" s="17"/>
-      <c r="M257" s="17"/>
+      <c r="M257" s="17">
+        <v>1</v>
+      </c>
       <c r="N257" s="17"/>
       <c r="O257" s="17"/>
       <c r="P257" s="17"/>
@@ -8935,21 +8940,15 @@
       <c r="A258" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B258" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="B258" s="40"/>
       <c r="C258" s="13" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D258" s="45"/>
       <c r="E258" s="45"/>
       <c r="F258" s="45"/>
-      <c r="G258" s="17">
-        <v>1</v>
-      </c>
-      <c r="H258" s="17">
-        <v>1</v>
-      </c>
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
       <c r="K258" s="17"/>
@@ -8968,7 +8967,7 @@
         <v>52</v>
       </c>
       <c r="C259" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D259" s="45"/>
       <c r="E259" s="45"/>
@@ -8981,9 +8980,7 @@
       </c>
       <c r="I259" s="17"/>
       <c r="J259" s="17"/>
-      <c r="K259" s="17">
-        <v>1</v>
-      </c>
+      <c r="K259" s="17"/>
       <c r="L259" s="17"/>
       <c r="M259" s="17"/>
       <c r="N259" s="17"/>
@@ -8996,19 +8993,25 @@
         <v>47</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="D260" s="45"/>
       <c r="E260" s="45"/>
       <c r="F260" s="45"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="17"/>
+      <c r="G260" s="17">
+        <v>1</v>
+      </c>
+      <c r="H260" s="17">
+        <v>1</v>
+      </c>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
-      <c r="K260" s="17"/>
+      <c r="K260" s="17">
+        <v>1</v>
+      </c>
       <c r="L260" s="17"/>
       <c r="M260" s="17"/>
       <c r="N260" s="17"/>
@@ -9021,10 +9024,10 @@
         <v>47</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="D261" s="45"/>
       <c r="E261" s="45"/>
@@ -9049,20 +9052,16 @@
         <v>52</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D262" s="45"/>
       <c r="E262" s="45"/>
       <c r="F262" s="45"/>
       <c r="G262" s="17"/>
-      <c r="H262" s="17">
-        <v>1</v>
-      </c>
+      <c r="H262" s="17"/>
       <c r="I262" s="17"/>
       <c r="J262" s="17"/>
-      <c r="K262" s="17">
-        <v>1</v>
-      </c>
+      <c r="K262" s="17"/>
       <c r="L262" s="17"/>
       <c r="M262" s="17"/>
       <c r="N262" s="17"/>
@@ -9078,44 +9077,26 @@
         <v>52</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="D263" s="45"/>
       <c r="E263" s="45"/>
       <c r="F263" s="45"/>
-      <c r="G263" s="17">
-        <v>1</v>
-      </c>
+      <c r="G263" s="17"/>
       <c r="H263" s="17">
         <v>1</v>
       </c>
-      <c r="I263" s="17">
-        <v>1</v>
-      </c>
-      <c r="J263" s="17">
-        <v>1</v>
-      </c>
+      <c r="I263" s="17"/>
+      <c r="J263" s="17"/>
       <c r="K263" s="17">
         <v>1</v>
       </c>
-      <c r="L263" s="17">
-        <v>1</v>
-      </c>
-      <c r="M263" s="17">
-        <v>1</v>
-      </c>
-      <c r="N263" s="17">
-        <v>1</v>
-      </c>
-      <c r="O263" s="17">
-        <v>1</v>
-      </c>
-      <c r="P263" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q263" s="17">
-        <v>1</v>
-      </c>
+      <c r="L263" s="17"/>
+      <c r="M263" s="17"/>
+      <c r="N263" s="17"/>
+      <c r="O263" s="17"/>
+      <c r="P263" s="17"/>
+      <c r="Q263" s="17"/>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="11" t="s">
@@ -9125,7 +9106,7 @@
         <v>52</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D264" s="45"/>
       <c r="E264" s="45"/>
@@ -9172,7 +9153,7 @@
         <v>52</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="D265" s="45"/>
       <c r="E265" s="45"/>
@@ -9216,304 +9197,352 @@
         <v>47</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C266" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D266" s="45"/>
+      <c r="E266" s="45"/>
+      <c r="F266" s="45"/>
+      <c r="G266" s="17">
+        <v>1</v>
+      </c>
+      <c r="H266" s="17">
+        <v>1</v>
+      </c>
+      <c r="I266" s="17">
+        <v>1</v>
+      </c>
+      <c r="J266" s="17">
+        <v>1</v>
+      </c>
+      <c r="K266" s="17">
+        <v>1</v>
+      </c>
+      <c r="L266" s="17">
+        <v>1</v>
+      </c>
+      <c r="M266" s="17">
+        <v>1</v>
+      </c>
+      <c r="N266" s="17">
+        <v>1</v>
+      </c>
+      <c r="O266" s="17">
+        <v>1</v>
+      </c>
+      <c r="P266" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q266" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A267" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D266" s="48"/>
-      <c r="E266" s="48"/>
-      <c r="F266" s="48"/>
-      <c r="G266" s="54"/>
-      <c r="H266" s="54">
-        <v>1</v>
-      </c>
-      <c r="I266" s="54"/>
-      <c r="J266" s="54"/>
-      <c r="K266" s="54">
-        <v>1</v>
-      </c>
-      <c r="L266" s="54"/>
-      <c r="M266" s="54"/>
-      <c r="N266" s="54"/>
-      <c r="O266" s="54"/>
-      <c r="P266" s="54"/>
-      <c r="Q266" s="54"/>
+      <c r="D267" s="48"/>
+      <c r="E267" s="48"/>
+      <c r="F267" s="48"/>
+      <c r="G267" s="54"/>
+      <c r="H267" s="54">
+        <v>1</v>
+      </c>
+      <c r="I267" s="54"/>
+      <c r="J267" s="54"/>
+      <c r="K267" s="54">
+        <v>1</v>
+      </c>
+      <c r="L267" s="54"/>
+      <c r="M267" s="54"/>
+      <c r="N267" s="54"/>
+      <c r="O267" s="54"/>
+      <c r="P267" s="54"/>
+      <c r="Q267" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q266" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q266">
-      <sortCondition ref="A1:A266"/>
+  <autoFilter ref="A1:Q267" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q267">
+      <sortCondition ref="A1:A267"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q265">
-    <sortCondition ref="A2:A265"/>
-    <sortCondition ref="C2:C265"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q266">
+    <sortCondition ref="A2:A266"/>
+    <sortCondition ref="C2:C266"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C81" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C220" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C82" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
+    <hyperlink ref="C221" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C22" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C235" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C236" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C153" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C154" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C236" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C237" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C154" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C155" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C37" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
-    <hyperlink ref="C56" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C237" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C57" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
+    <hyperlink ref="C238" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C32" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C221" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
-    <hyperlink ref="C83" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C155" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C239" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C156" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
-    <hyperlink ref="C85" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
-    <hyperlink ref="C86" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
-    <hyperlink ref="C87" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
-    <hyperlink ref="C88" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
-    <hyperlink ref="C90" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
-    <hyperlink ref="C91" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C158" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C159" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C160" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C207" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C210" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C209" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C223" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C242" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C222" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C84" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
+    <hyperlink ref="C156" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C240" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C157" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C86" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
+    <hyperlink ref="C87" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
+    <hyperlink ref="C88" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
+    <hyperlink ref="C89" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
+    <hyperlink ref="C91" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
+    <hyperlink ref="C92" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
+    <hyperlink ref="C159" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C160" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C161" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C208" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C211" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C210" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C224" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C243" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C39" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C196" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C197" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C198" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
-    <hyperlink ref="C52" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C246" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C225" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C197" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C198" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C199" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C53" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
+    <hyperlink ref="C247" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C226" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C234" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
-    <hyperlink ref="C62" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C248" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C108" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C109" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C110" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C111" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C112" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C113" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C114" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C250" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C235" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C63" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
+    <hyperlink ref="C249" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C109" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C110" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C111" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C112" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C113" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C114" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C115" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C251" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C17" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C41" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C162" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
-    <hyperlink ref="C64" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C226" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C167" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C165" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C166" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C168" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C163" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C65" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
+    <hyperlink ref="C227" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C168" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C166" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C167" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C169" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C43" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C169" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C227" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
-    <hyperlink ref="C54" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C170" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C233" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C252" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C253" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C214" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C170" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C228" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C55" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
+    <hyperlink ref="C171" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C234" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C253" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C254" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C215" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C44" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C171" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C254" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C255" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C215" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C217" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C172" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C255" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C256" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C216" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C218" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C29" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C266" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
-    <hyperlink ref="C66" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C188" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C218" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C229" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C189" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C231" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C256" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C190" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C100" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C219" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C267" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C67" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
+    <hyperlink ref="C189" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C219" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C230" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C190" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C232" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C257" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C191" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C101" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C220" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C21" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C118" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
-    <hyperlink ref="C71" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
+    <hyperlink ref="C119" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C72" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C33" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C238" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C222" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C157" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
-    <hyperlink ref="C89" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C240" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C119" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C120" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C241" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C125" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
-    <hyperlink ref="C72" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
-    <hyperlink ref="C73" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
-    <hyperlink ref="C74" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C258" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C239" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C223" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C158" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C90" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
+    <hyperlink ref="C241" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C120" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C121" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C242" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C126" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C73" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
+    <hyperlink ref="C74" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
+    <hyperlink ref="C75" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
+    <hyperlink ref="C259" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C38" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
-    <hyperlink ref="C49" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
-    <hyperlink ref="C50" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C259" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C126" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
-    <hyperlink ref="C51" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
+    <hyperlink ref="C50" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
+    <hyperlink ref="C51" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
+    <hyperlink ref="C260" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C127" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C52" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C23" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C261" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C262" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C127" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C128" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C104" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C247" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C249" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
-    <hyperlink ref="C75" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
+    <hyperlink ref="C262" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C263" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C128" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C129" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C105" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C248" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C250" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C76" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C16" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
-    <hyperlink ref="C204" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
+    <hyperlink ref="C205" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C42" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C97" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C130" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C105" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C98" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C131" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C106" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C25" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C251" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C252" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C18" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C24" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
-    <hyperlink ref="C76" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C132" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C133" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
-    <hyperlink ref="C77" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
+    <hyperlink ref="C77" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
+    <hyperlink ref="C133" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C134" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C78" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C19" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C20" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C134" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
-    <hyperlink ref="C79" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C228" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C135" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
-    <hyperlink ref="C70" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
+    <hyperlink ref="C135" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C80" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
+    <hyperlink ref="C229" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C136" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C71" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C26" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C27" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C265" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C266" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C28" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C106" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C149" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
-    <hyperlink ref="C80" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C150" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C151" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C152" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C230" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C102" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C257" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C206" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C224" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C107" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C107" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C150" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C81" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
+    <hyperlink ref="C151" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C152" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C153" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C231" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C103" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C258" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C207" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C225" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C108" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C45" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C40" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C263" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
-    <hyperlink ref="C94" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
+    <hyperlink ref="C264" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C95" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C30" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C216" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
-    <hyperlink ref="C69" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
-    <hyperlink ref="C68" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
+    <hyperlink ref="C217" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C70" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
+    <hyperlink ref="C69" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
     <hyperlink ref="C9" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C96" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
-    <hyperlink ref="C93" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
-    <hyperlink ref="C55" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
-    <hyperlink ref="C47" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
+    <hyperlink ref="C97" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C94" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
+    <hyperlink ref="C56" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
+    <hyperlink ref="C48" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C46" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
-    <hyperlink ref="C48" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C163" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C260" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
-    <hyperlink ref="C84" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
-    <hyperlink ref="C82" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C99" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
-    <hyperlink ref="C92" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C138" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C139" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C143" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C144" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C145" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C146" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C147" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C137" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C148" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C136" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C140" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C141" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C131" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C172" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C183" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C173" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C175" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C174" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C181" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C179" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C176" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C180" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C185" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C186" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C187" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C184" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C177" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C182" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C178" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C264" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C142" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C121" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C122" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C123" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C124" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C208" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C49" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
+    <hyperlink ref="C164" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C261" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C85" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
+    <hyperlink ref="C83" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
+    <hyperlink ref="C100" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C93" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
+    <hyperlink ref="C139" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C140" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C144" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C145" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C146" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C147" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C148" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C138" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C149" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C137" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C141" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C142" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C132" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C173" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C184" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C174" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C176" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C175" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C182" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C180" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C177" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C181" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C186" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C187" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C188" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C185" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C178" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C183" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C179" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C265" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C143" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C122" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C123" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C124" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C125" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C209" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C31" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C34" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C35" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C36" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C232" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C212" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C213" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
-    <hyperlink ref="C57" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
-    <hyperlink ref="C58" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
-    <hyperlink ref="C59" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
-    <hyperlink ref="C60" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C115" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C116" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C117" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
-    <hyperlink ref="C53" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C243" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C245" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C244" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C164" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
-    <hyperlink ref="C95" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
-    <hyperlink ref="C129" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C211" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
-    <hyperlink ref="C78" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
-    <hyperlink ref="C63" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
-    <hyperlink ref="C65" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
-    <hyperlink ref="C67" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
-    <hyperlink ref="C61" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
+    <hyperlink ref="C233" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C213" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C214" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C58" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
+    <hyperlink ref="C59" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
+    <hyperlink ref="C60" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
+    <hyperlink ref="C61" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
+    <hyperlink ref="C116" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C117" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C118" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C54" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
+    <hyperlink ref="C244" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C246" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C245" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C165" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C96" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
+    <hyperlink ref="C130" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C212" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C79" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
+    <hyperlink ref="C64" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
+    <hyperlink ref="C66" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
+    <hyperlink ref="C68" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
+    <hyperlink ref="C62" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
     <hyperlink ref="C10" r:id="rId246" xr:uid="{666E9BB7-4380-324A-B6C1-29F29C3FE1C0}"/>
     <hyperlink ref="C12" r:id="rId247" xr:uid="{E5C74CD9-B0F4-B643-B5C5-C17DE12B91CA}"/>
     <hyperlink ref="C8" r:id="rId248" xr:uid="{F4DFDDD1-B34C-4B4D-BCC8-3F72037E5C85}"/>
     <hyperlink ref="C13" r:id="rId249" xr:uid="{83DFEBC3-E8B1-A840-9964-33EB0A44BF40}"/>
     <hyperlink ref="C11" r:id="rId250" xr:uid="{27A3B616-FD7B-514A-B8BE-D948ED83FC6A}"/>
-    <hyperlink ref="C205" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
-    <hyperlink ref="C200" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
-    <hyperlink ref="C201" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
-    <hyperlink ref="C199" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
-    <hyperlink ref="C192" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
-    <hyperlink ref="C193" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
-    <hyperlink ref="C195" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
-    <hyperlink ref="C202" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
-    <hyperlink ref="C191" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
-    <hyperlink ref="C203" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
-    <hyperlink ref="C194" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
-    <hyperlink ref="C98" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
-    <hyperlink ref="C161" r:id="rId263" xr:uid="{98ADDE2A-ABDD-EB4A-8EBE-C43795A8F20B}"/>
+    <hyperlink ref="C206" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
+    <hyperlink ref="C201" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
+    <hyperlink ref="C202" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
+    <hyperlink ref="C200" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
+    <hyperlink ref="C193" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
+    <hyperlink ref="C194" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
+    <hyperlink ref="C196" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
+    <hyperlink ref="C203" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
+    <hyperlink ref="C192" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
+    <hyperlink ref="C204" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
+    <hyperlink ref="C195" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
+    <hyperlink ref="C99" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
+    <hyperlink ref="C162" r:id="rId263" xr:uid="{98ADDE2A-ABDD-EB4A-8EBE-C43795A8F20B}"/>
+    <hyperlink ref="C47" r:id="rId264" xr:uid="{FE878825-B0CA-394C-95F4-6879C16270CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A603D9-288E-4442-A15E-3BB1E26D5374}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA80926-B068-A746-B979-F418EF152A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22100" yWindow="-22160" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$268</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="311">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -959,6 +959,9 @@
   </si>
   <si>
     <t>App Runner</t>
+  </si>
+  <si>
+    <t>Application Migration Service (MGN)</t>
   </si>
 </sst>
 </file>
@@ -1665,11 +1668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q267"/>
+  <dimension ref="A1:Q268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -7407,9 +7410,11 @@
       <c r="A207" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B207" s="32"/>
+      <c r="B207" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C207" s="24" t="s">
-        <v>1</v>
+        <v>310</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
@@ -7430,11 +7435,9 @@
       <c r="A208" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B208" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B208" s="32"/>
       <c r="C208" s="24" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
@@ -7459,25 +7462,21 @@
         <v>6</v>
       </c>
       <c r="C209" s="24" t="s">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
       <c r="F209" s="45"/>
       <c r="G209" s="17"/>
       <c r="H209" s="17"/>
-      <c r="I209" s="17">
-        <v>1</v>
-      </c>
+      <c r="I209" s="17"/>
       <c r="J209" s="17"/>
       <c r="K209" s="17"/>
       <c r="L209" s="17"/>
       <c r="M209" s="17"/>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
-      <c r="P209" s="17">
-        <v>1</v>
-      </c>
+      <c r="P209" s="17"/>
       <c r="Q209" s="17"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
@@ -7488,30 +7487,26 @@
         <v>6</v>
       </c>
       <c r="C210" s="24" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
-      <c r="G210" s="17">
-        <v>1</v>
-      </c>
-      <c r="H210" s="17">
-        <v>1</v>
-      </c>
-      <c r="I210" s="17"/>
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
+      <c r="I210" s="17">
+        <v>1</v>
+      </c>
       <c r="J210" s="17"/>
-      <c r="K210" s="17">
-        <v>1</v>
-      </c>
+      <c r="K210" s="17"/>
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
-      <c r="P210" s="17"/>
-      <c r="Q210" s="17">
-        <v>1</v>
-      </c>
+      <c r="P210" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="17"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="22" t="s">
@@ -7521,24 +7516,30 @@
         <v>6</v>
       </c>
       <c r="C211" s="24" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
+      <c r="G211" s="17">
+        <v>1</v>
+      </c>
+      <c r="H211" s="17">
+        <v>1</v>
+      </c>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
-      <c r="K211" s="17"/>
+      <c r="K211" s="17">
+        <v>1</v>
+      </c>
       <c r="L211" s="17"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
-      <c r="P211" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="17"/>
+      <c r="P211" s="17"/>
+      <c r="Q211" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="22" t="s">
@@ -7548,63 +7549,65 @@
         <v>6</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
       <c r="F212" s="45"/>
-      <c r="G212" s="17">
-        <v>1</v>
-      </c>
-      <c r="H212" s="17">
-        <v>1</v>
-      </c>
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
       <c r="I212" s="17"/>
       <c r="J212" s="17"/>
-      <c r="K212" s="17">
-        <v>1</v>
-      </c>
+      <c r="K212" s="17"/>
       <c r="L212" s="17"/>
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
       <c r="O212" s="17"/>
-      <c r="P212" s="17"/>
-      <c r="Q212" s="17">
-        <v>1</v>
-      </c>
+      <c r="P212" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="17"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B213" s="23"/>
+      <c r="B213" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C213" s="24" t="s">
-        <v>228</v>
+        <v>283</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
       <c r="F213" s="45"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
+      <c r="G213" s="17">
+        <v>1</v>
+      </c>
+      <c r="H213" s="17">
+        <v>1</v>
+      </c>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17"/>
+      <c r="K213" s="17">
+        <v>1</v>
+      </c>
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
       <c r="O213" s="17"/>
       <c r="P213" s="17"/>
-      <c r="Q213" s="17"/>
+      <c r="Q213" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B214" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B214" s="23"/>
       <c r="C214" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -7629,7 +7632,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="24" t="s">
-        <v>123</v>
+        <v>227</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -7638,9 +7641,7 @@
       <c r="H215" s="17"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17"/>
-      <c r="K215" s="17">
-        <v>1</v>
-      </c>
+      <c r="K215" s="17"/>
       <c r="L215" s="17"/>
       <c r="M215" s="17"/>
       <c r="N215" s="17"/>
@@ -7656,17 +7657,13 @@
         <v>6</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
       <c r="F216" s="45"/>
-      <c r="G216" s="17">
-        <v>1</v>
-      </c>
-      <c r="H216" s="17">
-        <v>1</v>
-      </c>
+      <c r="G216" s="17"/>
+      <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
       <c r="K216" s="17">
@@ -7687,7 +7684,7 @@
         <v>6</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
@@ -7695,10 +7692,14 @@
       <c r="G217" s="17">
         <v>1</v>
       </c>
-      <c r="H217" s="17"/>
+      <c r="H217" s="17">
+        <v>1</v>
+      </c>
       <c r="I217" s="17"/>
       <c r="J217" s="17"/>
-      <c r="K217" s="17"/>
+      <c r="K217" s="17">
+        <v>1</v>
+      </c>
       <c r="L217" s="17"/>
       <c r="M217" s="17"/>
       <c r="N217" s="17"/>
@@ -7714,7 +7715,7 @@
         <v>6</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
@@ -7722,14 +7723,10 @@
       <c r="G218" s="17">
         <v>1</v>
       </c>
-      <c r="H218" s="17">
-        <v>1</v>
-      </c>
+      <c r="H218" s="17"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17">
-        <v>1</v>
-      </c>
+      <c r="K218" s="17"/>
       <c r="L218" s="17"/>
       <c r="M218" s="17"/>
       <c r="N218" s="17"/>
@@ -7745,16 +7742,22 @@
         <v>6</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
       <c r="F219" s="45"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
+      <c r="G219" s="17">
+        <v>1</v>
+      </c>
+      <c r="H219" s="17">
+        <v>1</v>
+      </c>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
-      <c r="K219" s="17"/>
+      <c r="K219" s="17">
+        <v>1</v>
+      </c>
       <c r="L219" s="17"/>
       <c r="M219" s="17"/>
       <c r="N219" s="17"/>
@@ -7763,40 +7766,26 @@
       <c r="Q219" s="17"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A220" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B220" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C220" s="35" t="s">
-        <v>132</v>
+      <c r="A220" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B220" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
       <c r="F220" s="45"/>
       <c r="G220" s="17"/>
-      <c r="H220" s="17">
-        <v>1</v>
-      </c>
-      <c r="I220" s="17">
-        <v>1</v>
-      </c>
-      <c r="J220" s="17">
-        <v>1</v>
-      </c>
-      <c r="K220" s="17">
-        <v>1</v>
-      </c>
-      <c r="L220" s="17">
-        <v>1</v>
-      </c>
-      <c r="M220" s="17">
-        <v>1</v>
-      </c>
-      <c r="N220" s="17">
-        <v>1</v>
-      </c>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="17"/>
+      <c r="K220" s="17"/>
+      <c r="L220" s="17"/>
+      <c r="M220" s="17"/>
+      <c r="N220" s="17"/>
       <c r="O220" s="17"/>
       <c r="P220" s="17"/>
       <c r="Q220" s="17"/>
@@ -7806,21 +7795,33 @@
         <v>174</v>
       </c>
       <c r="B221" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C221" s="35" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
       <c r="F221" s="45"/>
       <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="17"/>
-      <c r="J221" s="17"/>
-      <c r="K221" s="17"/>
-      <c r="L221" s="17"/>
-      <c r="M221" s="17"/>
+      <c r="H221" s="17">
+        <v>1</v>
+      </c>
+      <c r="I221" s="17">
+        <v>1</v>
+      </c>
+      <c r="J221" s="17">
+        <v>1</v>
+      </c>
+      <c r="K221" s="17">
+        <v>1</v>
+      </c>
+      <c r="L221" s="17">
+        <v>1</v>
+      </c>
+      <c r="M221" s="17">
+        <v>1</v>
+      </c>
       <c r="N221" s="17">
         <v>1</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>6</v>
       </c>
       <c r="C222" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -7860,31 +7861,21 @@
         <v>174</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C223" s="35" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
       <c r="F223" s="45"/>
-      <c r="G223" s="17">
-        <v>1</v>
-      </c>
-      <c r="H223" s="17">
-        <v>1</v>
-      </c>
-      <c r="I223" s="17">
-        <v>1</v>
-      </c>
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
       <c r="J223" s="17"/>
-      <c r="K223" s="17">
-        <v>1</v>
-      </c>
+      <c r="K223" s="17"/>
       <c r="L223" s="17"/>
-      <c r="M223" s="17">
-        <v>1</v>
-      </c>
+      <c r="M223" s="17"/>
       <c r="N223" s="17">
         <v>1</v>
       </c>
@@ -7897,10 +7888,10 @@
         <v>174</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C224" s="35" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7911,13 +7902,17 @@
       <c r="H224" s="17">
         <v>1</v>
       </c>
-      <c r="I224" s="17"/>
+      <c r="I224" s="17">
+        <v>1</v>
+      </c>
       <c r="J224" s="17"/>
       <c r="K224" s="17">
         <v>1</v>
       </c>
       <c r="L224" s="17"/>
-      <c r="M224" s="17"/>
+      <c r="M224" s="17">
+        <v>1</v>
+      </c>
       <c r="N224" s="17">
         <v>1</v>
       </c>
@@ -7929,9 +7924,11 @@
       <c r="A225" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B225" s="36"/>
+      <c r="B225" s="34" t="s">
+        <v>6</v>
+      </c>
       <c r="C225" s="35" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7942,60 +7939,64 @@
       <c r="H225" s="17">
         <v>1</v>
       </c>
-      <c r="I225" s="17">
-        <v>1</v>
-      </c>
-      <c r="J225" s="17">
-        <v>1</v>
-      </c>
+      <c r="I225" s="17"/>
+      <c r="J225" s="17"/>
       <c r="K225" s="17">
         <v>1</v>
       </c>
-      <c r="L225" s="17">
-        <v>1</v>
-      </c>
-      <c r="M225" s="17">
-        <v>1</v>
-      </c>
+      <c r="L225" s="17"/>
+      <c r="M225" s="17"/>
       <c r="N225" s="17">
         <v>1</v>
       </c>
-      <c r="O225" s="17">
-        <v>1</v>
-      </c>
-      <c r="P225" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q225" s="17">
-        <v>1</v>
-      </c>
+      <c r="O225" s="17"/>
+      <c r="P225" s="17"/>
+      <c r="Q225" s="17"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B226" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B226" s="36"/>
       <c r="C226" s="35" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
       <c r="F226" s="45"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="17"/>
-      <c r="J226" s="17"/>
-      <c r="K226" s="17"/>
-      <c r="L226" s="17"/>
-      <c r="M226" s="17"/>
+      <c r="G226" s="17">
+        <v>1</v>
+      </c>
+      <c r="H226" s="17">
+        <v>1</v>
+      </c>
+      <c r="I226" s="17">
+        <v>1</v>
+      </c>
+      <c r="J226" s="17">
+        <v>1</v>
+      </c>
+      <c r="K226" s="17">
+        <v>1</v>
+      </c>
+      <c r="L226" s="17">
+        <v>1</v>
+      </c>
+      <c r="M226" s="17">
+        <v>1</v>
+      </c>
       <c r="N226" s="17">
         <v>1</v>
       </c>
-      <c r="O226" s="17"/>
-      <c r="P226" s="17"/>
-      <c r="Q226" s="17"/>
+      <c r="O226" s="17">
+        <v>1</v>
+      </c>
+      <c r="P226" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="33" t="s">
@@ -8005,7 +8006,7 @@
         <v>6</v>
       </c>
       <c r="C227" s="35" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
@@ -8032,7 +8033,7 @@
         <v>6</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
@@ -8041,9 +8042,7 @@
       <c r="H228" s="17"/>
       <c r="I228" s="17"/>
       <c r="J228" s="17"/>
-      <c r="K228" s="17">
-        <v>1</v>
-      </c>
+      <c r="K228" s="17"/>
       <c r="L228" s="17"/>
       <c r="M228" s="17"/>
       <c r="N228" s="17">
@@ -8058,32 +8057,22 @@
         <v>174</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
       <c r="F229" s="45"/>
-      <c r="G229" s="17">
-        <v>1</v>
-      </c>
-      <c r="H229" s="17">
-        <v>1</v>
-      </c>
-      <c r="I229" s="17">
-        <v>1</v>
-      </c>
-      <c r="J229" s="17">
-        <v>1</v>
-      </c>
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="17"/>
       <c r="K229" s="17">
         <v>1</v>
       </c>
-      <c r="L229" s="17">
-        <v>1</v>
-      </c>
+      <c r="L229" s="17"/>
       <c r="M229" s="17"/>
       <c r="N229" s="17">
         <v>1</v>
@@ -8097,22 +8086,32 @@
         <v>174</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
       <c r="F230" s="45"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="17"/>
+      <c r="G230" s="17">
+        <v>1</v>
+      </c>
+      <c r="H230" s="17">
+        <v>1</v>
+      </c>
+      <c r="I230" s="17">
+        <v>1</v>
+      </c>
+      <c r="J230" s="17">
+        <v>1</v>
+      </c>
       <c r="K230" s="17">
         <v>1</v>
       </c>
-      <c r="L230" s="17"/>
+      <c r="L230" s="17">
+        <v>1</v>
+      </c>
       <c r="M230" s="17"/>
       <c r="N230" s="17">
         <v>1</v>
@@ -8126,57 +8125,39 @@
         <v>174</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C231" s="35" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
       <c r="F231" s="45"/>
-      <c r="G231" s="17">
-        <v>1</v>
-      </c>
-      <c r="H231" s="17">
-        <v>1</v>
-      </c>
-      <c r="I231" s="17">
-        <v>1</v>
-      </c>
-      <c r="J231" s="17">
-        <v>1</v>
-      </c>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
       <c r="K231" s="17">
         <v>1</v>
       </c>
-      <c r="L231" s="17">
-        <v>1</v>
-      </c>
-      <c r="M231" s="17">
-        <v>1</v>
-      </c>
+      <c r="L231" s="17"/>
+      <c r="M231" s="17"/>
       <c r="N231" s="17">
         <v>1</v>
       </c>
-      <c r="O231" s="17">
-        <v>1</v>
-      </c>
-      <c r="P231" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q231" s="17">
-        <v>1</v>
-      </c>
+      <c r="O231" s="17"/>
+      <c r="P231" s="17"/>
+      <c r="Q231" s="17"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="33" t="s">
         <v>174</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
@@ -8187,54 +8168,76 @@
       <c r="H232" s="17">
         <v>1</v>
       </c>
-      <c r="I232" s="17"/>
-      <c r="J232" s="17"/>
+      <c r="I232" s="17">
+        <v>1</v>
+      </c>
+      <c r="J232" s="17">
+        <v>1</v>
+      </c>
       <c r="K232" s="17">
         <v>1</v>
       </c>
-      <c r="L232" s="17"/>
-      <c r="M232" s="17"/>
+      <c r="L232" s="17">
+        <v>1</v>
+      </c>
+      <c r="M232" s="17">
+        <v>1</v>
+      </c>
       <c r="N232" s="17">
         <v>1</v>
       </c>
-      <c r="O232" s="17"/>
-      <c r="P232" s="17"/>
-      <c r="Q232" s="17"/>
+      <c r="O232" s="17">
+        <v>1</v>
+      </c>
+      <c r="P232" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A233" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C233" s="16" t="s">
-        <v>184</v>
+      <c r="A233" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B233" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C233" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
       <c r="F233" s="45"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
+      <c r="G233" s="17">
+        <v>1</v>
+      </c>
+      <c r="H233" s="17">
+        <v>1</v>
+      </c>
       <c r="I233" s="17"/>
       <c r="J233" s="17"/>
-      <c r="K233" s="17"/>
+      <c r="K233" s="17">
+        <v>1</v>
+      </c>
       <c r="L233" s="17"/>
       <c r="M233" s="17"/>
-      <c r="N233" s="17"/>
+      <c r="N233" s="17">
+        <v>1</v>
+      </c>
       <c r="O233" s="17"/>
       <c r="P233" s="17"/>
       <c r="Q233" s="17"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B234" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C234" s="39" t="s">
-        <v>42</v>
+      <c r="A234" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
@@ -8252,14 +8255,14 @@
       <c r="Q234" s="17"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A235" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="21" t="s">
-        <v>103</v>
+      <c r="A235" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B235" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
@@ -8277,29 +8280,25 @@
       <c r="Q235" s="17"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A236" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B236" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" s="39" t="s">
-        <v>9</v>
+      <c r="A236" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
       <c r="F236" s="45"/>
-      <c r="G236" s="17">
-        <v>1</v>
-      </c>
+      <c r="G236" s="17"/>
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
       <c r="K236" s="17"/>
       <c r="L236" s="17"/>
-      <c r="M236" s="17">
-        <v>1</v>
-      </c>
+      <c r="M236" s="17"/>
       <c r="N236" s="17"/>
       <c r="O236" s="17"/>
       <c r="P236" s="17"/>
@@ -8313,12 +8312,14 @@
         <v>6</v>
       </c>
       <c r="C237" s="39" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
       <c r="F237" s="45"/>
-      <c r="G237" s="17"/>
+      <c r="G237" s="17">
+        <v>1</v>
+      </c>
       <c r="H237" s="17"/>
       <c r="I237" s="17"/>
       <c r="J237" s="17"/>
@@ -8340,7 +8341,7 @@
         <v>6</v>
       </c>
       <c r="C238" s="39" t="s">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
@@ -8364,10 +8365,10 @@
         <v>43</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C239" s="39" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
@@ -8391,23 +8392,19 @@
         <v>43</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C240" s="39" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
       <c r="F240" s="45"/>
       <c r="G240" s="17"/>
-      <c r="H240" s="17">
-        <v>1</v>
-      </c>
+      <c r="H240" s="17"/>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
-      <c r="K240" s="17">
-        <v>1</v>
-      </c>
+      <c r="K240" s="17"/>
       <c r="L240" s="17"/>
       <c r="M240" s="17">
         <v>1</v>
@@ -8422,10 +8419,10 @@
         <v>43</v>
       </c>
       <c r="B241" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C241" s="39" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
@@ -8434,9 +8431,7 @@
       <c r="H241" s="17">
         <v>1</v>
       </c>
-      <c r="I241" s="17">
-        <v>1</v>
-      </c>
+      <c r="I241" s="17"/>
       <c r="J241" s="17"/>
       <c r="K241" s="17">
         <v>1</v>
@@ -8458,16 +8453,22 @@
         <v>52</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
       <c r="F242" s="45"/>
       <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
+      <c r="H242" s="17">
+        <v>1</v>
+      </c>
+      <c r="I242" s="17">
+        <v>1</v>
+      </c>
       <c r="J242" s="17"/>
-      <c r="K242" s="17"/>
+      <c r="K242" s="17">
+        <v>1</v>
+      </c>
       <c r="L242" s="17"/>
       <c r="M242" s="17">
         <v>1</v>
@@ -8482,10 +8483,10 @@
         <v>43</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C243" s="39" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
@@ -8494,9 +8495,7 @@
       <c r="H243" s="17"/>
       <c r="I243" s="17"/>
       <c r="J243" s="17"/>
-      <c r="K243" s="17">
-        <v>1</v>
-      </c>
+      <c r="K243" s="17"/>
       <c r="L243" s="17"/>
       <c r="M243" s="17">
         <v>1</v>
@@ -8514,7 +8513,7 @@
         <v>6</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
@@ -8527,7 +8526,9 @@
         <v>1</v>
       </c>
       <c r="L244" s="17"/>
-      <c r="M244" s="17"/>
+      <c r="M244" s="17">
+        <v>1</v>
+      </c>
       <c r="N244" s="17"/>
       <c r="O244" s="17"/>
       <c r="P244" s="17"/>
@@ -8541,7 +8542,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8568,7 +8569,7 @@
         <v>6</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8595,7 +8596,7 @@
         <v>6</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
@@ -8604,11 +8605,11 @@
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
       <c r="J247" s="17"/>
-      <c r="K247" s="17"/>
+      <c r="K247" s="17">
+        <v>1</v>
+      </c>
       <c r="L247" s="17"/>
-      <c r="M247" s="17">
-        <v>1</v>
-      </c>
+      <c r="M247" s="17"/>
       <c r="N247" s="17"/>
       <c r="O247" s="17"/>
       <c r="P247" s="17"/>
@@ -8619,17 +8620,15 @@
         <v>43</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
       <c r="F248" s="45"/>
-      <c r="G248" s="17">
-        <v>1</v>
-      </c>
+      <c r="G248" s="17"/>
       <c r="H248" s="17"/>
       <c r="I248" s="17"/>
       <c r="J248" s="17"/>
@@ -8648,10 +8647,10 @@
         <v>43</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
@@ -8659,46 +8658,28 @@
       <c r="G249" s="17">
         <v>1</v>
       </c>
-      <c r="H249" s="17">
-        <v>1</v>
-      </c>
-      <c r="I249" s="17">
-        <v>1</v>
-      </c>
-      <c r="J249" s="17">
-        <v>1</v>
-      </c>
-      <c r="K249" s="17">
-        <v>1</v>
-      </c>
-      <c r="L249" s="17">
-        <v>1</v>
-      </c>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="17"/>
+      <c r="K249" s="17"/>
+      <c r="L249" s="17"/>
       <c r="M249" s="17">
         <v>1</v>
       </c>
-      <c r="N249" s="17">
-        <v>1</v>
-      </c>
-      <c r="O249" s="17">
-        <v>1</v>
-      </c>
-      <c r="P249" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q249" s="17">
-        <v>1</v>
-      </c>
+      <c r="N249" s="17"/>
+      <c r="O249" s="17"/>
+      <c r="P249" s="17"/>
+      <c r="Q249" s="17"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
@@ -8706,28 +8687,46 @@
       <c r="G250" s="17">
         <v>1</v>
       </c>
-      <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="17"/>
-      <c r="K250" s="17"/>
-      <c r="L250" s="17"/>
+      <c r="H250" s="17">
+        <v>1</v>
+      </c>
+      <c r="I250" s="17">
+        <v>1</v>
+      </c>
+      <c r="J250" s="17">
+        <v>1</v>
+      </c>
+      <c r="K250" s="17">
+        <v>1</v>
+      </c>
+      <c r="L250" s="17">
+        <v>1</v>
+      </c>
       <c r="M250" s="17">
         <v>1</v>
       </c>
-      <c r="N250" s="17"/>
-      <c r="O250" s="17"/>
-      <c r="P250" s="17"/>
-      <c r="Q250" s="17"/>
+      <c r="N250" s="17">
+        <v>1</v>
+      </c>
+      <c r="O250" s="17">
+        <v>1</v>
+      </c>
+      <c r="P250" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q250" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
@@ -8735,21 +8734,11 @@
       <c r="G251" s="17">
         <v>1</v>
       </c>
-      <c r="H251" s="17">
-        <v>1</v>
-      </c>
-      <c r="I251" s="17">
-        <v>1</v>
-      </c>
-      <c r="J251" s="17">
-        <v>1</v>
-      </c>
-      <c r="K251" s="17">
-        <v>1</v>
-      </c>
-      <c r="L251" s="17">
-        <v>1</v>
-      </c>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="17"/>
+      <c r="K251" s="17"/>
+      <c r="L251" s="17"/>
       <c r="M251" s="17">
         <v>1</v>
       </c>
@@ -8763,20 +8752,32 @@
         <v>43</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
       <c r="F252" s="45"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="17"/>
-      <c r="K252" s="17"/>
-      <c r="L252" s="17"/>
+      <c r="G252" s="17">
+        <v>1</v>
+      </c>
+      <c r="H252" s="17">
+        <v>1</v>
+      </c>
+      <c r="I252" s="17">
+        <v>1</v>
+      </c>
+      <c r="J252" s="17">
+        <v>1</v>
+      </c>
+      <c r="K252" s="17">
+        <v>1</v>
+      </c>
+      <c r="L252" s="17">
+        <v>1</v>
+      </c>
       <c r="M252" s="17">
         <v>1</v>
       </c>
@@ -8790,10 +8791,10 @@
         <v>43</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D253" s="45"/>
       <c r="E253" s="45"/>
@@ -8802,9 +8803,7 @@
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
-      <c r="K253" s="17">
-        <v>1</v>
-      </c>
+      <c r="K253" s="17"/>
       <c r="L253" s="17"/>
       <c r="M253" s="17">
         <v>1</v>
@@ -8822,7 +8821,7 @@
         <v>6</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D254" s="45"/>
       <c r="E254" s="45"/>
@@ -8831,7 +8830,9 @@
       <c r="H254" s="17"/>
       <c r="I254" s="17"/>
       <c r="J254" s="17"/>
-      <c r="K254" s="17"/>
+      <c r="K254" s="17">
+        <v>1</v>
+      </c>
       <c r="L254" s="17"/>
       <c r="M254" s="17">
         <v>1</v>
@@ -8849,22 +8850,16 @@
         <v>6</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D255" s="45"/>
       <c r="E255" s="45"/>
       <c r="F255" s="45"/>
-      <c r="G255" s="17">
-        <v>1</v>
-      </c>
-      <c r="H255" s="17">
-        <v>1</v>
-      </c>
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
       <c r="I255" s="17"/>
       <c r="J255" s="17"/>
-      <c r="K255" s="17">
-        <v>1</v>
-      </c>
+      <c r="K255" s="17"/>
       <c r="L255" s="17"/>
       <c r="M255" s="17">
         <v>1</v>
@@ -8882,13 +8877,17 @@
         <v>6</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>275</v>
+        <v>44</v>
       </c>
       <c r="D256" s="45"/>
       <c r="E256" s="45"/>
       <c r="F256" s="45"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="17"/>
+      <c r="G256" s="17">
+        <v>1</v>
+      </c>
+      <c r="H256" s="17">
+        <v>1</v>
+      </c>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
       <c r="K256" s="17">
@@ -8911,17 +8910,13 @@
         <v>6</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="D257" s="45"/>
       <c r="E257" s="45"/>
       <c r="F257" s="45"/>
-      <c r="G257" s="17">
-        <v>1</v>
-      </c>
-      <c r="H257" s="17">
-        <v>1</v>
-      </c>
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
       <c r="I257" s="17"/>
       <c r="J257" s="17"/>
       <c r="K257" s="17">
@@ -8937,23 +8932,33 @@
       <c r="Q257" s="17"/>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A258" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B258" s="40"/>
-      <c r="C258" s="13" t="s">
-        <v>0</v>
+      <c r="A258" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B258" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C258" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D258" s="45"/>
       <c r="E258" s="45"/>
       <c r="F258" s="45"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
+      <c r="G258" s="17">
+        <v>1</v>
+      </c>
+      <c r="H258" s="17">
+        <v>1</v>
+      </c>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
-      <c r="K258" s="17"/>
+      <c r="K258" s="17">
+        <v>1</v>
+      </c>
       <c r="L258" s="17"/>
-      <c r="M258" s="17"/>
+      <c r="M258" s="17">
+        <v>1</v>
+      </c>
       <c r="N258" s="17"/>
       <c r="O258" s="17"/>
       <c r="P258" s="17"/>
@@ -8963,21 +8968,15 @@
       <c r="A259" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B259" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="B259" s="40"/>
       <c r="C259" s="13" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="D259" s="45"/>
       <c r="E259" s="45"/>
       <c r="F259" s="45"/>
-      <c r="G259" s="17">
-        <v>1</v>
-      </c>
-      <c r="H259" s="17">
-        <v>1</v>
-      </c>
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
       <c r="I259" s="17"/>
       <c r="J259" s="17"/>
       <c r="K259" s="17"/>
@@ -8996,7 +8995,7 @@
         <v>52</v>
       </c>
       <c r="C260" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D260" s="45"/>
       <c r="E260" s="45"/>
@@ -9009,9 +9008,7 @@
       </c>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
-      <c r="K260" s="17">
-        <v>1</v>
-      </c>
+      <c r="K260" s="17"/>
       <c r="L260" s="17"/>
       <c r="M260" s="17"/>
       <c r="N260" s="17"/>
@@ -9024,19 +9021,25 @@
         <v>47</v>
       </c>
       <c r="B261" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C261" s="13" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="D261" s="45"/>
       <c r="E261" s="45"/>
       <c r="F261" s="45"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="17"/>
+      <c r="G261" s="17">
+        <v>1</v>
+      </c>
+      <c r="H261" s="17">
+        <v>1</v>
+      </c>
       <c r="I261" s="17"/>
       <c r="J261" s="17"/>
-      <c r="K261" s="17"/>
+      <c r="K261" s="17">
+        <v>1</v>
+      </c>
       <c r="L261" s="17"/>
       <c r="M261" s="17"/>
       <c r="N261" s="17"/>
@@ -9049,10 +9052,10 @@
         <v>47</v>
       </c>
       <c r="B262" s="12" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C262" s="13" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="D262" s="45"/>
       <c r="E262" s="45"/>
@@ -9077,20 +9080,16 @@
         <v>52</v>
       </c>
       <c r="C263" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D263" s="45"/>
       <c r="E263" s="45"/>
       <c r="F263" s="45"/>
       <c r="G263" s="17"/>
-      <c r="H263" s="17">
-        <v>1</v>
-      </c>
+      <c r="H263" s="17"/>
       <c r="I263" s="17"/>
       <c r="J263" s="17"/>
-      <c r="K263" s="17">
-        <v>1</v>
-      </c>
+      <c r="K263" s="17"/>
       <c r="L263" s="17"/>
       <c r="M263" s="17"/>
       <c r="N263" s="17"/>
@@ -9106,44 +9105,26 @@
         <v>52</v>
       </c>
       <c r="C264" s="13" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="D264" s="45"/>
       <c r="E264" s="45"/>
       <c r="F264" s="45"/>
-      <c r="G264" s="17">
-        <v>1</v>
-      </c>
+      <c r="G264" s="17"/>
       <c r="H264" s="17">
         <v>1</v>
       </c>
-      <c r="I264" s="17">
-        <v>1</v>
-      </c>
-      <c r="J264" s="17">
-        <v>1</v>
-      </c>
+      <c r="I264" s="17"/>
+      <c r="J264" s="17"/>
       <c r="K264" s="17">
         <v>1</v>
       </c>
-      <c r="L264" s="17">
-        <v>1</v>
-      </c>
-      <c r="M264" s="17">
-        <v>1</v>
-      </c>
-      <c r="N264" s="17">
-        <v>1</v>
-      </c>
-      <c r="O264" s="17">
-        <v>1</v>
-      </c>
-      <c r="P264" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q264" s="17">
-        <v>1</v>
-      </c>
+      <c r="L264" s="17"/>
+      <c r="M264" s="17"/>
+      <c r="N264" s="17"/>
+      <c r="O264" s="17"/>
+      <c r="P264" s="17"/>
+      <c r="Q264" s="17"/>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" s="11" t="s">
@@ -9153,7 +9134,7 @@
         <v>52</v>
       </c>
       <c r="C265" s="13" t="s">
-        <v>270</v>
+        <v>210</v>
       </c>
       <c r="D265" s="45"/>
       <c r="E265" s="45"/>
@@ -9200,7 +9181,7 @@
         <v>52</v>
       </c>
       <c r="C266" s="13" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="D266" s="45"/>
       <c r="E266" s="45"/>
@@ -9244,56 +9225,103 @@
         <v>47</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C267" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D267" s="45"/>
+      <c r="E267" s="45"/>
+      <c r="F267" s="45"/>
+      <c r="G267" s="17">
+        <v>1</v>
+      </c>
+      <c r="H267" s="17">
+        <v>1</v>
+      </c>
+      <c r="I267" s="17">
+        <v>1</v>
+      </c>
+      <c r="J267" s="17">
+        <v>1</v>
+      </c>
+      <c r="K267" s="17">
+        <v>1</v>
+      </c>
+      <c r="L267" s="17">
+        <v>1</v>
+      </c>
+      <c r="M267" s="17">
+        <v>1</v>
+      </c>
+      <c r="N267" s="17">
+        <v>1</v>
+      </c>
+      <c r="O267" s="17">
+        <v>1</v>
+      </c>
+      <c r="P267" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q267" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A268" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B268" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D267" s="48"/>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
-      <c r="G267" s="54"/>
-      <c r="H267" s="54">
-        <v>1</v>
-      </c>
-      <c r="I267" s="54"/>
-      <c r="J267" s="54"/>
-      <c r="K267" s="54">
-        <v>1</v>
-      </c>
-      <c r="L267" s="54"/>
-      <c r="M267" s="54"/>
-      <c r="N267" s="54"/>
-      <c r="O267" s="54"/>
-      <c r="P267" s="54"/>
-      <c r="Q267" s="54"/>
+      <c r="D268" s="48"/>
+      <c r="E268" s="48"/>
+      <c r="F268" s="48"/>
+      <c r="G268" s="54"/>
+      <c r="H268" s="54">
+        <v>1</v>
+      </c>
+      <c r="I268" s="54"/>
+      <c r="J268" s="54"/>
+      <c r="K268" s="54">
+        <v>1</v>
+      </c>
+      <c r="L268" s="54"/>
+      <c r="M268" s="54"/>
+      <c r="N268" s="54"/>
+      <c r="O268" s="54"/>
+      <c r="P268" s="54"/>
+      <c r="Q268" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q267" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q267">
-      <sortCondition ref="A1:A267"/>
+  <autoFilter ref="A1:Q268" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q268">
+      <sortCondition ref="A1:A268"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q266">
-    <sortCondition ref="A2:A266"/>
-    <sortCondition ref="C2:C266"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q267">
+    <sortCondition ref="A2:A267"/>
+    <sortCondition ref="C2:C267"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C82" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C221" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C222" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C22" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C236" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C237" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C237" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C238" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
     <hyperlink ref="C154" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
     <hyperlink ref="C155" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C37" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
     <hyperlink ref="C57" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C238" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C239" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C32" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C222" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C223" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
     <hyperlink ref="C84" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
     <hyperlink ref="C156" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C240" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C241" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
     <hyperlink ref="C157" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
     <hyperlink ref="C86" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
     <hyperlink ref="C87" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
@@ -9304,22 +9332,22 @@
     <hyperlink ref="C159" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
     <hyperlink ref="C160" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
     <hyperlink ref="C161" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C208" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C211" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C210" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C224" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C243" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C209" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C212" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C211" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C225" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C244" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C39" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
     <hyperlink ref="C197" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
     <hyperlink ref="C198" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
     <hyperlink ref="C199" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
     <hyperlink ref="C53" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C247" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C226" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C248" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C227" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C235" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C236" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
     <hyperlink ref="C63" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C249" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C250" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
     <hyperlink ref="C109" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
     <hyperlink ref="C110" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
     <hyperlink ref="C111" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
@@ -9327,77 +9355,77 @@
     <hyperlink ref="C113" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
     <hyperlink ref="C114" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
     <hyperlink ref="C115" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C251" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C252" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C17" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C41" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
     <hyperlink ref="C163" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
     <hyperlink ref="C65" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C227" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C228" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
     <hyperlink ref="C168" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
     <hyperlink ref="C166" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
     <hyperlink ref="C167" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
     <hyperlink ref="C169" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C43" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
     <hyperlink ref="C170" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C228" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C229" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
     <hyperlink ref="C55" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
     <hyperlink ref="C171" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C234" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C253" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C254" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C215" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C235" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C254" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C255" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C216" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C44" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
     <hyperlink ref="C172" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C255" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C256" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C216" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C218" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C256" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C257" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C217" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C219" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C29" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C267" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C268" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
     <hyperlink ref="C67" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
     <hyperlink ref="C189" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C219" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C230" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C220" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C231" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
     <hyperlink ref="C190" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C232" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C257" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C233" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C258" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
     <hyperlink ref="C191" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
     <hyperlink ref="C101" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C220" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C221" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C21" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
     <hyperlink ref="C119" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
     <hyperlink ref="C72" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C33" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C239" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C223" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C240" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C224" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
     <hyperlink ref="C158" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
     <hyperlink ref="C90" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C241" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C242" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
     <hyperlink ref="C120" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
     <hyperlink ref="C121" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C242" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C243" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
     <hyperlink ref="C126" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
     <hyperlink ref="C73" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
     <hyperlink ref="C74" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
     <hyperlink ref="C75" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C259" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C260" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C38" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
     <hyperlink ref="C50" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
     <hyperlink ref="C51" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C260" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C261" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
     <hyperlink ref="C127" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
     <hyperlink ref="C52" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C23" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C262" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C263" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C263" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C264" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
     <hyperlink ref="C128" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
     <hyperlink ref="C129" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
     <hyperlink ref="C105" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C248" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C250" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C249" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C251" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
     <hyperlink ref="C76" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
@@ -9408,7 +9436,7 @@
     <hyperlink ref="C131" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
     <hyperlink ref="C106" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C25" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C252" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C253" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C18" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C24" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
     <hyperlink ref="C77" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
@@ -9419,12 +9447,12 @@
     <hyperlink ref="C20" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
     <hyperlink ref="C135" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
     <hyperlink ref="C80" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C229" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C230" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
     <hyperlink ref="C136" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
     <hyperlink ref="C71" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C26" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C27" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C266" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C267" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C28" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
     <hyperlink ref="C107" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
     <hyperlink ref="C150" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
@@ -9432,18 +9460,18 @@
     <hyperlink ref="C151" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
     <hyperlink ref="C152" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
     <hyperlink ref="C153" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C231" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C232" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
     <hyperlink ref="C103" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C258" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C207" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C225" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C259" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C208" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C226" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
     <hyperlink ref="C108" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C45" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C40" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C264" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C265" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
     <hyperlink ref="C95" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C30" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C217" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C218" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
     <hyperlink ref="C70" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
     <hyperlink ref="C69" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
@@ -9456,7 +9484,7 @@
     <hyperlink ref="C46" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
     <hyperlink ref="C49" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
     <hyperlink ref="C164" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C261" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C262" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
     <hyperlink ref="C85" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
     <hyperlink ref="C83" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
     <hyperlink ref="C100" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
@@ -9490,20 +9518,20 @@
     <hyperlink ref="C178" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
     <hyperlink ref="C183" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
     <hyperlink ref="C179" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C265" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C266" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
     <hyperlink ref="C143" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
     <hyperlink ref="C122" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
     <hyperlink ref="C123" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
     <hyperlink ref="C124" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
     <hyperlink ref="C125" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C209" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C210" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C31" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C34" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C35" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C36" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C233" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C213" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C214" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C234" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C214" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C215" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
     <hyperlink ref="C58" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
     <hyperlink ref="C59" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
     <hyperlink ref="C60" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
@@ -9512,13 +9540,13 @@
     <hyperlink ref="C117" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
     <hyperlink ref="C118" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
     <hyperlink ref="C54" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C244" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C246" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C245" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C245" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C247" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C246" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
     <hyperlink ref="C165" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
     <hyperlink ref="C96" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
     <hyperlink ref="C130" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C212" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C213" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
     <hyperlink ref="C79" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
     <hyperlink ref="C64" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
     <hyperlink ref="C66" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
@@ -9543,6 +9571,7 @@
     <hyperlink ref="C99" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
     <hyperlink ref="C162" r:id="rId263" xr:uid="{98ADDE2A-ABDD-EB4A-8EBE-C43795A8F20B}"/>
     <hyperlink ref="C47" r:id="rId264" xr:uid="{FE878825-B0CA-394C-95F4-6879C16270CC}"/>
+    <hyperlink ref="C207" r:id="rId265" xr:uid="{8AF37CA7-BEF8-0E46-AFB3-906542482AD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA80926-B068-A746-B979-F418EF152A27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD9522-35D7-9948-98A2-23A929B4D404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22100" yWindow="-22160" windowWidth="27740" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
+    <workbookView xWindow="-22100" yWindow="-22160" windowWidth="34240" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Services" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$268</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'AWS Services'!$A$1:$Q$275</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="318">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -962,6 +962,27 @@
   </si>
   <si>
     <t>Application Migration Service (MGN)</t>
+  </si>
+  <si>
+    <t>Bottlerocket</t>
+  </si>
+  <si>
+    <t>Thinkbox Deadline</t>
+  </si>
+  <si>
+    <t>Thinkbox Xmesh</t>
+  </si>
+  <si>
+    <t>Thinkbox Frost</t>
+  </si>
+  <si>
+    <t>Thinkbox Krakatoa</t>
+  </si>
+  <si>
+    <t>Thinkbox Sequoia</t>
+  </si>
+  <si>
+    <t>Thinkbox Stoke</t>
   </si>
 </sst>
 </file>
@@ -1668,11 +1689,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q268"/>
+  <dimension ref="A1:Q275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C210" sqref="C210"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3112,11 +3133,9 @@
       <c r="A49" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>176</v>
-      </c>
+      <c r="B49" s="15"/>
       <c r="C49" s="16" t="s">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -3138,10 +3157,10 @@
         <v>175</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
@@ -3166,24 +3185,16 @@
         <v>52</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="45"/>
-      <c r="G51" s="17">
-        <v>1</v>
-      </c>
-      <c r="H51" s="17">
-        <v>1</v>
-      </c>
-      <c r="I51" s="17">
-        <v>1</v>
-      </c>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="17"/>
-      <c r="K51" s="17">
-        <v>1</v>
-      </c>
+      <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
       <c r="N51" s="17"/>
@@ -3199,7 +3210,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -3229,10 +3240,10 @@
         <v>175</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
@@ -3243,7 +3254,9 @@
       <c r="H53" s="17">
         <v>1</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="17">
+        <v>1</v>
+      </c>
       <c r="J53" s="17"/>
       <c r="K53" s="17">
         <v>1</v>
@@ -3260,19 +3273,25 @@
         <v>175</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="45"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
+      <c r="G54" s="17">
+        <v>1</v>
+      </c>
+      <c r="H54" s="17">
+        <v>1</v>
+      </c>
       <c r="I54" s="17"/>
       <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
+      <c r="K54" s="17">
+        <v>1</v>
+      </c>
       <c r="L54" s="17"/>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
@@ -3285,10 +3304,10 @@
         <v>175</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -3309,9 +3328,11 @@
       <c r="A56" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="C56" s="16" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
@@ -3329,21 +3350,17 @@
       <c r="Q56" s="17"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>12</v>
+      <c r="A57" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16" t="s">
+        <v>179</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="45"/>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
+      <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
       <c r="J57" s="17"/>
@@ -3363,12 +3380,14 @@
         <v>6</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="45"/>
-      <c r="G58" s="17"/>
+      <c r="G58" s="17">
+        <v>1</v>
+      </c>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
       <c r="J58" s="17"/>
@@ -3388,14 +3407,12 @@
         <v>6</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
       <c r="F59" s="45"/>
-      <c r="G59" s="17">
-        <v>1</v>
-      </c>
+      <c r="G59" s="17"/>
       <c r="H59" s="17"/>
       <c r="I59" s="17"/>
       <c r="J59" s="17"/>
@@ -3415,7 +3432,7 @@
         <v>6</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
@@ -3438,9 +3455,11 @@
       <c r="A61" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C61" s="13" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
@@ -3448,14 +3467,10 @@
       <c r="G61" s="17">
         <v>1</v>
       </c>
-      <c r="H61" s="17">
-        <v>1</v>
-      </c>
+      <c r="H61" s="17"/>
       <c r="I61" s="17"/>
       <c r="J61" s="17"/>
-      <c r="K61" s="17">
-        <v>1</v>
-      </c>
+      <c r="K61" s="17"/>
       <c r="L61" s="17"/>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -3464,23 +3479,27 @@
       <c r="Q61" s="17"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>288</v>
+      <c r="A62" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
       <c r="F62" s="45"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="G62" s="17">
+        <v>1</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1</v>
+      </c>
       <c r="I62" s="17"/>
       <c r="J62" s="17"/>
-      <c r="K62" s="17"/>
+      <c r="K62" s="17">
+        <v>1</v>
+      </c>
       <c r="L62" s="17"/>
       <c r="M62" s="17"/>
       <c r="N62" s="17"/>
@@ -3496,7 +3515,7 @@
         <v>6</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -3521,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
@@ -3546,14 +3565,12 @@
         <v>6</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="45"/>
-      <c r="G65" s="17">
-        <v>1</v>
-      </c>
+      <c r="G65" s="17"/>
       <c r="H65" s="17"/>
       <c r="I65" s="17"/>
       <c r="J65" s="17"/>
@@ -3573,12 +3590,14 @@
         <v>6</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
       <c r="F66" s="45"/>
-      <c r="G66" s="17"/>
+      <c r="G66" s="17">
+        <v>1</v>
+      </c>
       <c r="H66" s="17"/>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -3598,14 +3617,12 @@
         <v>6</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>48</v>
+        <v>286</v>
       </c>
       <c r="D67" s="45"/>
       <c r="E67" s="45"/>
       <c r="F67" s="45"/>
-      <c r="G67" s="17">
-        <v>1</v>
-      </c>
+      <c r="G67" s="17"/>
       <c r="H67" s="17"/>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
@@ -3625,12 +3642,14 @@
         <v>6</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="D68" s="45"/>
       <c r="E68" s="45"/>
       <c r="F68" s="45"/>
-      <c r="G68" s="17"/>
+      <c r="G68" s="17">
+        <v>1</v>
+      </c>
       <c r="H68" s="17"/>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -3644,13 +3663,13 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="D69" s="45"/>
       <c r="E69" s="45"/>
@@ -3675,7 +3694,7 @@
         <v>52</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>192</v>
+        <v>29</v>
       </c>
       <c r="D70" s="45"/>
       <c r="E70" s="45"/>
@@ -3700,7 +3719,7 @@
         <v>52</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="D71" s="45"/>
       <c r="E71" s="45"/>
@@ -3719,42 +3738,28 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>27</v>
+        <v>216</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>52</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="45"/>
       <c r="F72" s="45"/>
-      <c r="G72" s="17">
-        <v>1</v>
-      </c>
-      <c r="H72" s="17">
-        <v>1</v>
-      </c>
-      <c r="I72" s="17">
-        <v>1</v>
-      </c>
-      <c r="J72" s="17">
-        <v>1</v>
-      </c>
-      <c r="K72" s="17">
-        <v>1</v>
-      </c>
-      <c r="L72" s="17">
-        <v>1</v>
-      </c>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
       <c r="O72" s="17"/>
       <c r="P72" s="17"/>
-      <c r="Q72" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q72" s="17"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
@@ -3764,7 +3769,7 @@
         <v>52</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
@@ -3772,17 +3777,25 @@
       <c r="G73" s="17">
         <v>1</v>
       </c>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
-      <c r="K73" s="17"/>
-      <c r="L73" s="17"/>
+      <c r="H73" s="17">
+        <v>1</v>
+      </c>
+      <c r="I73" s="17">
+        <v>1</v>
+      </c>
+      <c r="J73" s="17">
+        <v>1</v>
+      </c>
+      <c r="K73" s="17">
+        <v>1</v>
+      </c>
+      <c r="L73" s="17">
+        <v>1</v>
+      </c>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
       <c r="O73" s="17"/>
-      <c r="P73" s="17">
-        <v>1</v>
-      </c>
+      <c r="P73" s="17"/>
       <c r="Q73" s="17">
         <v>1</v>
       </c>
@@ -3795,7 +3808,7 @@
         <v>52</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="D74" s="45"/>
       <c r="E74" s="45"/>
@@ -3803,30 +3816,14 @@
       <c r="G74" s="17">
         <v>1</v>
       </c>
-      <c r="H74" s="17">
-        <v>1</v>
-      </c>
-      <c r="I74" s="17">
-        <v>1</v>
-      </c>
-      <c r="J74" s="17">
-        <v>1</v>
-      </c>
-      <c r="K74" s="17">
-        <v>1</v>
-      </c>
-      <c r="L74" s="17">
-        <v>1</v>
-      </c>
-      <c r="M74" s="17">
-        <v>1</v>
-      </c>
-      <c r="N74" s="17">
-        <v>1</v>
-      </c>
-      <c r="O74" s="17">
-        <v>1</v>
-      </c>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
       <c r="P74" s="17">
         <v>1</v>
       </c>
@@ -3842,7 +3839,7 @@
         <v>52</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
@@ -3856,15 +3853,27 @@
       <c r="I75" s="17">
         <v>1</v>
       </c>
-      <c r="J75" s="17"/>
+      <c r="J75" s="17">
+        <v>1</v>
+      </c>
       <c r="K75" s="17">
         <v>1</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
+      <c r="L75" s="17">
+        <v>1</v>
+      </c>
+      <c r="M75" s="17">
+        <v>1</v>
+      </c>
+      <c r="N75" s="17">
+        <v>1</v>
+      </c>
+      <c r="O75" s="17">
+        <v>1</v>
+      </c>
+      <c r="P75" s="17">
+        <v>1</v>
+      </c>
       <c r="Q75" s="17">
         <v>1</v>
       </c>
@@ -3877,16 +3886,24 @@
         <v>52</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="D76" s="45"/>
       <c r="E76" s="45"/>
       <c r="F76" s="45"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
+      <c r="G76" s="17">
+        <v>1</v>
+      </c>
+      <c r="H76" s="17">
+        <v>1</v>
+      </c>
+      <c r="I76" s="17">
+        <v>1</v>
+      </c>
       <c r="J76" s="17"/>
-      <c r="K76" s="17"/>
+      <c r="K76" s="17">
+        <v>1</v>
+      </c>
       <c r="L76" s="17"/>
       <c r="M76" s="17"/>
       <c r="N76" s="17"/>
@@ -3904,14 +3921,12 @@
         <v>52</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
-      <c r="G77" s="17">
-        <v>1</v>
-      </c>
+      <c r="G77" s="17"/>
       <c r="H77" s="17"/>
       <c r="I77" s="17"/>
       <c r="J77" s="17"/>
@@ -3933,7 +3948,7 @@
         <v>52</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="D78" s="45"/>
       <c r="E78" s="45"/>
@@ -3962,12 +3977,14 @@
         <v>52</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>284</v>
+        <v>157</v>
       </c>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
-      <c r="G79" s="17"/>
+      <c r="G79" s="17">
+        <v>1</v>
+      </c>
       <c r="H79" s="17"/>
       <c r="I79" s="17"/>
       <c r="J79" s="17"/>
@@ -3977,7 +3994,9 @@
       <c r="N79" s="17"/>
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="Q79" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
@@ -3987,30 +4006,22 @@
         <v>52</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>158</v>
+        <v>284</v>
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
-      <c r="G80" s="17">
-        <v>1</v>
-      </c>
-      <c r="H80" s="17">
-        <v>1</v>
-      </c>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
       <c r="I80" s="17"/>
       <c r="J80" s="17"/>
-      <c r="K80" s="17">
-        <v>1</v>
-      </c>
+      <c r="K80" s="17"/>
       <c r="L80" s="17"/>
       <c r="M80" s="17"/>
       <c r="N80" s="17"/>
       <c r="O80" s="17"/>
       <c r="P80" s="17"/>
-      <c r="Q80" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q80" s="17"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
@@ -4020,16 +4031,22 @@
         <v>52</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
+      <c r="G81" s="17">
+        <v>1</v>
+      </c>
+      <c r="H81" s="17">
+        <v>1</v>
+      </c>
       <c r="I81" s="17"/>
       <c r="J81" s="17"/>
-      <c r="K81" s="17"/>
+      <c r="K81" s="17">
+        <v>1</v>
+      </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
@@ -4041,13 +4058,13 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="D82" s="45"/>
       <c r="E82" s="45"/>
@@ -4062,7 +4079,9 @@
       <c r="N82" s="17"/>
       <c r="O82" s="17"/>
       <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="Q82" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
@@ -4072,7 +4091,7 @@
         <v>6</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
@@ -4097,7 +4116,7 @@
         <v>6</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="D84" s="45"/>
       <c r="E84" s="45"/>
@@ -4122,7 +4141,7 @@
         <v>6</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="D85" s="45"/>
       <c r="E85" s="45"/>
@@ -4147,7 +4166,7 @@
         <v>6</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="D86" s="45"/>
       <c r="E86" s="45"/>
@@ -4172,16 +4191,14 @@
         <v>6</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" s="45"/>
       <c r="E87" s="45"/>
       <c r="F87" s="45"/>
       <c r="G87" s="17"/>
       <c r="H87" s="17"/>
-      <c r="I87" s="17">
-        <v>1</v>
-      </c>
+      <c r="I87" s="17"/>
       <c r="J87" s="17"/>
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
@@ -4199,7 +4216,7 @@
         <v>6</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
@@ -4226,7 +4243,7 @@
         <v>6</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" s="45"/>
       <c r="E89" s="45"/>
@@ -4250,17 +4267,19 @@
         <v>217</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="45"/>
       <c r="F90" s="45"/>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
+      <c r="I90" s="17">
+        <v>1</v>
+      </c>
       <c r="J90" s="17"/>
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
@@ -4275,19 +4294,17 @@
         <v>217</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D91" s="45"/>
       <c r="E91" s="45"/>
       <c r="F91" s="45"/>
       <c r="G91" s="17"/>
       <c r="H91" s="17"/>
-      <c r="I91" s="17">
-        <v>1</v>
-      </c>
+      <c r="I91" s="17"/>
       <c r="J91" s="17"/>
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
@@ -4305,14 +4322,16 @@
         <v>6</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D92" s="45"/>
       <c r="E92" s="45"/>
       <c r="F92" s="45"/>
       <c r="G92" s="17"/>
       <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
+      <c r="I92" s="17">
+        <v>1</v>
+      </c>
       <c r="J92" s="17"/>
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
@@ -4330,14 +4349,12 @@
         <v>6</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="45"/>
       <c r="F93" s="45"/>
-      <c r="G93" s="17">
-        <v>1</v>
-      </c>
+      <c r="G93" s="17"/>
       <c r="H93" s="17"/>
       <c r="I93" s="17"/>
       <c r="J93" s="17"/>
@@ -4354,15 +4371,17 @@
         <v>217</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D94" s="45"/>
       <c r="E94" s="45"/>
       <c r="F94" s="45"/>
-      <c r="G94" s="17"/>
+      <c r="G94" s="17">
+        <v>1</v>
+      </c>
       <c r="H94" s="17"/>
       <c r="I94" s="17"/>
       <c r="J94" s="17"/>
@@ -4379,10 +4398,10 @@
         <v>217</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D95" s="45"/>
       <c r="E95" s="45"/>
@@ -4407,7 +4426,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
@@ -4432,7 +4451,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="D97" s="45"/>
       <c r="E97" s="45"/>
@@ -4454,10 +4473,10 @@
         <v>217</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="D98" s="45"/>
       <c r="E98" s="45"/>
@@ -4479,10 +4498,10 @@
         <v>217</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>307</v>
+        <v>155</v>
       </c>
       <c r="D99" s="45"/>
       <c r="E99" s="45"/>
@@ -4507,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>222</v>
+        <v>307</v>
       </c>
       <c r="D100" s="45"/>
       <c r="E100" s="45"/>
@@ -4532,16 +4551,14 @@
         <v>6</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
       <c r="D101" s="45"/>
       <c r="E101" s="45"/>
       <c r="F101" s="45"/>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
-      <c r="I101" s="17">
-        <v>1</v>
-      </c>
+      <c r="I101" s="17"/>
       <c r="J101" s="17"/>
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
@@ -4552,21 +4569,23 @@
       <c r="Q101" s="17"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" s="22" t="s">
-        <v>225</v>
+      <c r="A102" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="D102" s="45"/>
       <c r="E102" s="45"/>
       <c r="F102" s="45"/>
       <c r="G102" s="17"/>
       <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
+      <c r="I102" s="17">
+        <v>1</v>
+      </c>
       <c r="J102" s="17"/>
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
@@ -4583,8 +4602,8 @@
       <c r="B103" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C103" s="24" t="s">
-        <v>87</v>
+      <c r="C103" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
@@ -4608,8 +4627,8 @@
       <c r="B104" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C104" s="22" t="s">
-        <v>223</v>
+      <c r="C104" s="24" t="s">
+        <v>87</v>
       </c>
       <c r="D104" s="45"/>
       <c r="E104" s="45"/>
@@ -4627,14 +4646,14 @@
       <c r="Q104" s="17"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>67</v>
+      <c r="A105" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="D105" s="45"/>
       <c r="E105" s="45"/>
@@ -4659,7 +4678,7 @@
         <v>52</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D106" s="45"/>
       <c r="E106" s="45"/>
@@ -4684,7 +4703,7 @@
         <v>52</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D107" s="45"/>
       <c r="E107" s="45"/>
@@ -4702,12 +4721,14 @@
       <c r="Q107" s="17"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="27" t="s">
-        <v>3</v>
+      <c r="A108" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="D108" s="45"/>
       <c r="E108" s="45"/>
@@ -4728,11 +4749,9 @@
       <c r="A109" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B109" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="B109" s="26"/>
       <c r="C109" s="27" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
@@ -4757,7 +4776,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="45"/>
       <c r="E110" s="45"/>
@@ -4782,7 +4801,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="45"/>
       <c r="E111" s="45"/>
@@ -4807,7 +4826,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="45"/>
       <c r="E112" s="45"/>
@@ -4832,7 +4851,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" s="45"/>
       <c r="E113" s="45"/>
@@ -4857,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
@@ -4882,7 +4901,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="45"/>
       <c r="E115" s="45"/>
@@ -4907,7 +4926,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="D116" s="45"/>
       <c r="E116" s="45"/>
@@ -4932,7 +4951,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D117" s="45"/>
       <c r="E117" s="45"/>
@@ -4954,10 +4973,10 @@
         <v>34</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
@@ -4975,14 +4994,14 @@
       <c r="Q118" s="17"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C119" s="24" t="s">
-        <v>133</v>
+      <c r="A119" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>209</v>
       </c>
       <c r="D119" s="45"/>
       <c r="E119" s="45"/>
@@ -4995,9 +5014,7 @@
       <c r="L119" s="17"/>
       <c r="M119" s="17"/>
       <c r="N119" s="17"/>
-      <c r="O119" s="17">
-        <v>1</v>
-      </c>
+      <c r="O119" s="17"/>
       <c r="P119" s="17"/>
       <c r="Q119" s="17"/>
     </row>
@@ -5009,7 +5026,7 @@
         <v>52</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D120" s="45"/>
       <c r="E120" s="45"/>
@@ -5036,7 +5053,7 @@
         <v>52</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
@@ -5060,10 +5077,10 @@
         <v>240</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="D122" s="45"/>
       <c r="E122" s="45"/>
@@ -5090,7 +5107,7 @@
         <v>176</v>
       </c>
       <c r="C123" s="24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D123" s="45"/>
       <c r="E123" s="45"/>
@@ -5103,7 +5120,9 @@
       <c r="L123" s="17"/>
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
+      <c r="O123" s="17">
+        <v>1</v>
+      </c>
       <c r="P123" s="17"/>
       <c r="Q123" s="17"/>
     </row>
@@ -5115,7 +5134,7 @@
         <v>176</v>
       </c>
       <c r="C124" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
@@ -5140,7 +5159,7 @@
         <v>176</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D125" s="45"/>
       <c r="E125" s="45"/>
@@ -5162,10 +5181,10 @@
         <v>240</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="D126" s="45"/>
       <c r="E126" s="45"/>
@@ -5178,9 +5197,7 @@
       <c r="L126" s="17"/>
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
-      <c r="O126" s="17">
-        <v>1</v>
-      </c>
+      <c r="O126" s="17"/>
       <c r="P126" s="17"/>
       <c r="Q126" s="17"/>
     </row>
@@ -5192,7 +5209,7 @@
         <v>52</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D127" s="45"/>
       <c r="E127" s="45"/>
@@ -5219,7 +5236,7 @@
         <v>52</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="D128" s="45"/>
       <c r="E128" s="45"/>
@@ -5246,7 +5263,7 @@
         <v>52</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="D129" s="45"/>
       <c r="E129" s="45"/>
@@ -5273,7 +5290,7 @@
         <v>52</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="D130" s="45"/>
       <c r="E130" s="45"/>
@@ -5286,7 +5303,9 @@
       <c r="L130" s="17"/>
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
+      <c r="O130" s="17">
+        <v>1</v>
+      </c>
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
     </row>
@@ -5298,7 +5317,7 @@
         <v>52</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="D131" s="45"/>
       <c r="E131" s="45"/>
@@ -5320,10 +5339,10 @@
         <v>240</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
@@ -5345,10 +5364,10 @@
         <v>240</v>
       </c>
       <c r="B133" s="23" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D133" s="45"/>
       <c r="E133" s="45"/>
@@ -5361,9 +5380,7 @@
       <c r="L133" s="17"/>
       <c r="M133" s="17"/>
       <c r="N133" s="17"/>
-      <c r="O133" s="17">
-        <v>1</v>
-      </c>
+      <c r="O133" s="17"/>
       <c r="P133" s="17"/>
       <c r="Q133" s="17"/>
     </row>
@@ -5375,7 +5392,7 @@
         <v>52</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D134" s="45"/>
       <c r="E134" s="45"/>
@@ -5402,7 +5419,7 @@
         <v>52</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D135" s="45"/>
       <c r="E135" s="45"/>
@@ -5429,7 +5446,7 @@
         <v>52</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D136" s="45"/>
       <c r="E136" s="45"/>
@@ -5456,7 +5473,7 @@
         <v>52</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>249</v>
+        <v>81</v>
       </c>
       <c r="D137" s="45"/>
       <c r="E137" s="45"/>
@@ -5483,7 +5500,7 @@
         <v>52</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D138" s="45"/>
       <c r="E138" s="45"/>
@@ -5510,7 +5527,7 @@
         <v>52</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
@@ -5537,7 +5554,7 @@
         <v>52</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D140" s="45"/>
       <c r="E140" s="45"/>
@@ -5564,7 +5581,7 @@
         <v>52</v>
       </c>
       <c r="C141" s="24" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D141" s="45"/>
       <c r="E141" s="45"/>
@@ -5591,7 +5608,7 @@
         <v>52</v>
       </c>
       <c r="C142" s="24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D142" s="45"/>
       <c r="E142" s="45"/>
@@ -5618,7 +5635,7 @@
         <v>52</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="D143" s="45"/>
       <c r="E143" s="45"/>
@@ -5645,7 +5662,7 @@
         <v>52</v>
       </c>
       <c r="C144" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D144" s="45"/>
       <c r="E144" s="45"/>
@@ -5672,7 +5689,7 @@
         <v>52</v>
       </c>
       <c r="C145" s="24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
@@ -5699,7 +5716,7 @@
         <v>52</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D146" s="45"/>
       <c r="E146" s="45"/>
@@ -5726,7 +5743,7 @@
         <v>52</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D147" s="45"/>
       <c r="E147" s="45"/>
@@ -5753,7 +5770,7 @@
         <v>52</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D148" s="45"/>
       <c r="E148" s="45"/>
@@ -5780,7 +5797,7 @@
         <v>52</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="D149" s="45"/>
       <c r="E149" s="45"/>
@@ -5807,7 +5824,7 @@
         <v>52</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
@@ -5834,7 +5851,7 @@
         <v>52</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D151" s="45"/>
       <c r="E151" s="45"/>
@@ -5861,7 +5878,7 @@
         <v>52</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="D152" s="45"/>
       <c r="E152" s="45"/>
@@ -5888,7 +5905,7 @@
         <v>52</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="D153" s="45"/>
       <c r="E153" s="45"/>
@@ -5908,31 +5925,29 @@
       <c r="Q153" s="17"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A154" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B154" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>90</v>
+      <c r="A154" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="B154" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="24" t="s">
+        <v>86</v>
       </c>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
       <c r="G154" s="17"/>
-      <c r="H154" s="17">
-        <v>1</v>
-      </c>
+      <c r="H154" s="17"/>
       <c r="I154" s="17"/>
       <c r="J154" s="17"/>
-      <c r="K154" s="17">
-        <v>1</v>
-      </c>
+      <c r="K154" s="17"/>
       <c r="L154" s="17"/>
       <c r="M154" s="17"/>
       <c r="N154" s="17"/>
-      <c r="O154" s="17"/>
+      <c r="O154" s="17">
+        <v>1</v>
+      </c>
       <c r="P154" s="17"/>
       <c r="Q154" s="17"/>
     </row>
@@ -5944,16 +5959,20 @@
         <v>6</v>
       </c>
       <c r="C155" s="31" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D155" s="45"/>
       <c r="E155" s="45"/>
       <c r="F155" s="45"/>
       <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
+      <c r="H155" s="17">
+        <v>1</v>
+      </c>
       <c r="I155" s="17"/>
       <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
+      <c r="K155" s="17">
+        <v>1</v>
+      </c>
       <c r="L155" s="17"/>
       <c r="M155" s="17"/>
       <c r="N155" s="17"/>
@@ -5969,44 +5988,22 @@
         <v>6</v>
       </c>
       <c r="C156" s="31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D156" s="45"/>
       <c r="E156" s="45"/>
       <c r="F156" s="45"/>
-      <c r="G156" s="17">
-        <v>1</v>
-      </c>
-      <c r="H156" s="17">
-        <v>1</v>
-      </c>
-      <c r="I156" s="17">
-        <v>1</v>
-      </c>
-      <c r="J156" s="17">
-        <v>1</v>
-      </c>
-      <c r="K156" s="17">
-        <v>1</v>
-      </c>
-      <c r="L156" s="17">
-        <v>1</v>
-      </c>
-      <c r="M156" s="17">
-        <v>1</v>
-      </c>
-      <c r="N156" s="17">
-        <v>1</v>
-      </c>
-      <c r="O156" s="17">
-        <v>1</v>
-      </c>
-      <c r="P156" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q156" s="17">
-        <v>1</v>
-      </c>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="17"/>
+      <c r="M156" s="17"/>
+      <c r="N156" s="17"/>
+      <c r="O156" s="17"/>
+      <c r="P156" s="17"/>
+      <c r="Q156" s="17"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
@@ -6016,7 +6013,7 @@
         <v>6</v>
       </c>
       <c r="C157" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D157" s="45"/>
       <c r="E157" s="45"/>
@@ -6030,28 +6027,40 @@
       <c r="I157" s="17">
         <v>1</v>
       </c>
-      <c r="J157" s="17"/>
+      <c r="J157" s="17">
+        <v>1</v>
+      </c>
       <c r="K157" s="17">
         <v>1</v>
       </c>
-      <c r="L157" s="17"/>
+      <c r="L157" s="17">
+        <v>1</v>
+      </c>
       <c r="M157" s="17">
         <v>1</v>
       </c>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
-      <c r="Q157" s="17"/>
+      <c r="N157" s="17">
+        <v>1</v>
+      </c>
+      <c r="O157" s="17">
+        <v>1</v>
+      </c>
+      <c r="P157" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B158" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C158" s="31" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="D158" s="45"/>
       <c r="E158" s="45"/>
@@ -6065,55 +6074,65 @@
       <c r="I158" s="17">
         <v>1</v>
       </c>
-      <c r="J158" s="17">
-        <v>1</v>
-      </c>
+      <c r="J158" s="17"/>
       <c r="K158" s="17">
         <v>1</v>
       </c>
-      <c r="L158" s="17">
-        <v>1</v>
-      </c>
+      <c r="L158" s="17"/>
       <c r="M158" s="17">
         <v>1</v>
       </c>
-      <c r="N158" s="17">
-        <v>1</v>
-      </c>
-      <c r="O158" s="17">
-        <v>1</v>
-      </c>
-      <c r="P158" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="17">
-        <v>1</v>
-      </c>
+      <c r="N158" s="17"/>
+      <c r="O158" s="17"/>
+      <c r="P158" s="17"/>
+      <c r="Q158" s="17"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="29" t="s">
         <v>33</v>
       </c>
       <c r="B159" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C159" s="31" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D159" s="45"/>
       <c r="E159" s="45"/>
       <c r="F159" s="45"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="17"/>
-      <c r="K159" s="17"/>
-      <c r="L159" s="17"/>
-      <c r="M159" s="17"/>
-      <c r="N159" s="17"/>
-      <c r="O159" s="17"/>
-      <c r="P159" s="17"/>
-      <c r="Q159" s="17"/>
+      <c r="G159" s="17">
+        <v>1</v>
+      </c>
+      <c r="H159" s="17">
+        <v>1</v>
+      </c>
+      <c r="I159" s="17">
+        <v>1</v>
+      </c>
+      <c r="J159" s="17">
+        <v>1</v>
+      </c>
+      <c r="K159" s="17">
+        <v>1</v>
+      </c>
+      <c r="L159" s="17">
+        <v>1</v>
+      </c>
+      <c r="M159" s="17">
+        <v>1</v>
+      </c>
+      <c r="N159" s="17">
+        <v>1</v>
+      </c>
+      <c r="O159" s="17">
+        <v>1</v>
+      </c>
+      <c r="P159" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="29" t="s">
@@ -6123,20 +6142,16 @@
         <v>6</v>
       </c>
       <c r="C160" s="31" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D160" s="45"/>
       <c r="E160" s="45"/>
       <c r="F160" s="45"/>
       <c r="G160" s="17"/>
-      <c r="H160" s="17">
-        <v>1</v>
-      </c>
+      <c r="H160" s="17"/>
       <c r="I160" s="17"/>
       <c r="J160" s="17"/>
-      <c r="K160" s="17">
-        <v>1</v>
-      </c>
+      <c r="K160" s="17"/>
       <c r="L160" s="17"/>
       <c r="M160" s="17"/>
       <c r="N160" s="17"/>
@@ -6152,16 +6167,20 @@
         <v>6</v>
       </c>
       <c r="C161" s="31" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="D161" s="45"/>
       <c r="E161" s="45"/>
       <c r="F161" s="45"/>
       <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
+      <c r="H161" s="17">
+        <v>1</v>
+      </c>
       <c r="I161" s="17"/>
       <c r="J161" s="17"/>
-      <c r="K161" s="17"/>
+      <c r="K161" s="17">
+        <v>1</v>
+      </c>
       <c r="L161" s="17"/>
       <c r="M161" s="17"/>
       <c r="N161" s="17"/>
@@ -6177,7 +6196,7 @@
         <v>6</v>
       </c>
       <c r="C162" s="31" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="D162" s="45"/>
       <c r="E162" s="45"/>
@@ -6202,7 +6221,7 @@
         <v>6</v>
       </c>
       <c r="C163" s="31" t="s">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="D163" s="45"/>
       <c r="E163" s="45"/>
@@ -6224,10 +6243,10 @@
         <v>33</v>
       </c>
       <c r="B164" s="30" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="D164" s="45"/>
       <c r="E164" s="45"/>
@@ -6249,17 +6268,15 @@
         <v>33</v>
       </c>
       <c r="B165" s="30" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C165" s="31" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="D165" s="45"/>
       <c r="E165" s="45"/>
       <c r="F165" s="45"/>
-      <c r="G165" s="17">
-        <v>1</v>
-      </c>
+      <c r="G165" s="17"/>
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
       <c r="J165" s="17"/>
@@ -6279,22 +6296,18 @@
         <v>6</v>
       </c>
       <c r="C166" s="31" t="s">
-        <v>117</v>
+        <v>279</v>
       </c>
       <c r="D166" s="45"/>
       <c r="E166" s="45"/>
       <c r="F166" s="45"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17">
-        <v>1</v>
-      </c>
-      <c r="I166" s="17">
-        <v>1</v>
-      </c>
+      <c r="G166" s="17">
+        <v>1</v>
+      </c>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
       <c r="J166" s="17"/>
-      <c r="K166" s="17">
-        <v>1</v>
-      </c>
+      <c r="K166" s="17"/>
       <c r="L166" s="17"/>
       <c r="M166" s="17"/>
       <c r="N166" s="17"/>
@@ -6310,7 +6323,7 @@
         <v>6</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D167" s="45"/>
       <c r="E167" s="45"/>
@@ -6341,7 +6354,7 @@
         <v>6</v>
       </c>
       <c r="C168" s="31" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D168" s="45"/>
       <c r="E168" s="45"/>
@@ -6372,18 +6385,18 @@
         <v>6</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="D169" s="45"/>
       <c r="E169" s="45"/>
       <c r="F169" s="45"/>
-      <c r="G169" s="17">
-        <v>1</v>
-      </c>
+      <c r="G169" s="17"/>
       <c r="H169" s="17">
         <v>1</v>
       </c>
-      <c r="I169" s="17"/>
+      <c r="I169" s="17">
+        <v>1</v>
+      </c>
       <c r="J169" s="17"/>
       <c r="K169" s="17">
         <v>1</v>
@@ -6403,7 +6416,7 @@
         <v>6</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="D170" s="45"/>
       <c r="E170" s="45"/>
@@ -6411,10 +6424,14 @@
       <c r="G170" s="17">
         <v>1</v>
       </c>
-      <c r="H170" s="17"/>
+      <c r="H170" s="17">
+        <v>1</v>
+      </c>
       <c r="I170" s="17"/>
       <c r="J170" s="17"/>
-      <c r="K170" s="17"/>
+      <c r="K170" s="17">
+        <v>1</v>
+      </c>
       <c r="L170" s="17"/>
       <c r="M170" s="17"/>
       <c r="N170" s="17"/>
@@ -6430,12 +6447,14 @@
         <v>6</v>
       </c>
       <c r="C171" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D171" s="45"/>
       <c r="E171" s="45"/>
       <c r="F171" s="45"/>
-      <c r="G171" s="17"/>
+      <c r="G171" s="17">
+        <v>1</v>
+      </c>
       <c r="H171" s="17"/>
       <c r="I171" s="17"/>
       <c r="J171" s="17"/>
@@ -6455,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="C172" s="31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D172" s="45"/>
       <c r="E172" s="45"/>
@@ -6463,15 +6482,9 @@
       <c r="G172" s="17"/>
       <c r="H172" s="17"/>
       <c r="I172" s="17"/>
-      <c r="J172" s="17">
-        <v>1</v>
-      </c>
-      <c r="K172" s="17">
-        <v>1</v>
-      </c>
-      <c r="L172" s="17">
-        <v>1</v>
-      </c>
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
       <c r="M172" s="17"/>
       <c r="N172" s="17"/>
       <c r="O172" s="17"/>
@@ -6486,7 +6499,7 @@
         <v>6</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D173" s="45"/>
       <c r="E173" s="45"/>
@@ -6497,7 +6510,9 @@
       <c r="J173" s="17">
         <v>1</v>
       </c>
-      <c r="K173" s="17"/>
+      <c r="K173" s="17">
+        <v>1</v>
+      </c>
       <c r="L173" s="17">
         <v>1</v>
       </c>
@@ -6515,7 +6530,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D174" s="45"/>
       <c r="E174" s="45"/>
@@ -6544,7 +6559,7 @@
         <v>6</v>
       </c>
       <c r="C175" s="31" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D175" s="45"/>
       <c r="E175" s="45"/>
@@ -6573,7 +6588,7 @@
         <v>6</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D176" s="45"/>
       <c r="E176" s="45"/>
@@ -6602,7 +6617,7 @@
         <v>6</v>
       </c>
       <c r="C177" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D177" s="45"/>
       <c r="E177" s="45"/>
@@ -6631,7 +6646,7 @@
         <v>6</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D178" s="45"/>
       <c r="E178" s="45"/>
@@ -6660,7 +6675,7 @@
         <v>6</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="D179" s="45"/>
       <c r="E179" s="45"/>
@@ -6689,7 +6704,7 @@
         <v>6</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D180" s="45"/>
       <c r="E180" s="45"/>
@@ -6718,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D181" s="45"/>
       <c r="E181" s="45"/>
@@ -6747,7 +6762,7 @@
         <v>6</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D182" s="45"/>
       <c r="E182" s="45"/>
@@ -6776,11 +6791,11 @@
         <v>6</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="D183" s="47"/>
-      <c r="E183" s="47"/>
-      <c r="F183" s="47"/>
+        <v>261</v>
+      </c>
+      <c r="D183" s="45"/>
+      <c r="E183" s="45"/>
+      <c r="F183" s="45"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
@@ -6805,11 +6820,11 @@
         <v>6</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D184" s="45"/>
-      <c r="E184" s="45"/>
-      <c r="F184" s="45"/>
+        <v>256</v>
+      </c>
+      <c r="D184" s="47"/>
+      <c r="E184" s="47"/>
+      <c r="F184" s="47"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
       <c r="I184" s="17"/>
@@ -6834,7 +6849,7 @@
         <v>6</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D185" s="45"/>
       <c r="E185" s="45"/>
@@ -6863,7 +6878,7 @@
         <v>6</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D186" s="45"/>
       <c r="E186" s="45"/>
@@ -6892,7 +6907,7 @@
         <v>6</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D187" s="45"/>
       <c r="E187" s="45"/>
@@ -6921,7 +6936,7 @@
         <v>6</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D188" s="45"/>
       <c r="E188" s="45"/>
@@ -6950,24 +6965,18 @@
         <v>6</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="D189" s="45"/>
       <c r="E189" s="45"/>
       <c r="F189" s="45"/>
       <c r="G189" s="17"/>
-      <c r="H189" s="17">
-        <v>1</v>
-      </c>
-      <c r="I189" s="17">
-        <v>1</v>
-      </c>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
       <c r="J189" s="17">
         <v>1</v>
       </c>
-      <c r="K189" s="17">
-        <v>1</v>
-      </c>
+      <c r="K189" s="17"/>
       <c r="L189" s="17">
         <v>1</v>
       </c>
@@ -6985,19 +6994,27 @@
         <v>6</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D190" s="45"/>
       <c r="E190" s="45"/>
       <c r="F190" s="45"/>
-      <c r="G190" s="17">
-        <v>1</v>
-      </c>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="17"/>
-      <c r="K190" s="17"/>
-      <c r="L190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17">
+        <v>1</v>
+      </c>
+      <c r="I190" s="17">
+        <v>1</v>
+      </c>
+      <c r="J190" s="17">
+        <v>1</v>
+      </c>
+      <c r="K190" s="17">
+        <v>1</v>
+      </c>
+      <c r="L190" s="17">
+        <v>1</v>
+      </c>
       <c r="M190" s="17"/>
       <c r="N190" s="17"/>
       <c r="O190" s="17"/>
@@ -7012,12 +7029,14 @@
         <v>6</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D191" s="45"/>
       <c r="E191" s="45"/>
       <c r="F191" s="45"/>
-      <c r="G191" s="17"/>
+      <c r="G191" s="17">
+        <v>1</v>
+      </c>
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
       <c r="J191" s="17"/>
@@ -7030,14 +7049,14 @@
       <c r="Q191" s="17"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B192" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>304</v>
+      <c r="A192" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" s="31" t="s">
+        <v>131</v>
       </c>
       <c r="D192" s="45"/>
       <c r="E192" s="45"/>
@@ -7062,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D193" s="45"/>
       <c r="E193" s="45"/>
@@ -7087,7 +7106,7 @@
         <v>6</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D194" s="45"/>
       <c r="E194" s="45"/>
@@ -7112,7 +7131,7 @@
         <v>6</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D195" s="45"/>
       <c r="E195" s="45"/>
@@ -7137,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D196" s="45"/>
       <c r="E196" s="45"/>
@@ -7162,7 +7181,7 @@
         <v>6</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>98</v>
+        <v>302</v>
       </c>
       <c r="D197" s="45"/>
       <c r="E197" s="45"/>
@@ -7187,7 +7206,7 @@
         <v>6</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D198" s="45"/>
       <c r="E198" s="45"/>
@@ -7212,7 +7231,7 @@
         <v>6</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D199" s="45"/>
       <c r="E199" s="45"/>
@@ -7237,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="D200" s="45"/>
       <c r="E200" s="45"/>
@@ -7262,7 +7281,7 @@
         <v>6</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D201" s="45"/>
       <c r="E201" s="45"/>
@@ -7287,7 +7306,7 @@
         <v>6</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="D202" s="45"/>
       <c r="E202" s="45"/>
@@ -7312,7 +7331,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D203" s="45"/>
       <c r="E203" s="45"/>
@@ -7334,10 +7353,10 @@
         <v>296</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D204" s="45"/>
       <c r="E204" s="45"/>
@@ -7362,7 +7381,7 @@
         <v>52</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>154</v>
+        <v>305</v>
       </c>
       <c r="D205" s="45"/>
       <c r="E205" s="45"/>
@@ -7376,9 +7395,7 @@
       <c r="M205" s="17"/>
       <c r="N205" s="17"/>
       <c r="O205" s="17"/>
-      <c r="P205" s="17">
-        <v>1</v>
-      </c>
+      <c r="P205" s="17"/>
       <c r="Q205" s="17"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
@@ -7389,7 +7406,7 @@
         <v>52</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>297</v>
+        <v>154</v>
       </c>
       <c r="D206" s="45"/>
       <c r="E206" s="45"/>
@@ -7403,18 +7420,20 @@
       <c r="M206" s="17"/>
       <c r="N206" s="17"/>
       <c r="O206" s="17"/>
-      <c r="P206" s="17"/>
+      <c r="P206" s="17">
+        <v>1</v>
+      </c>
       <c r="Q206" s="17"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A207" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B207" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C207" s="24" t="s">
-        <v>310</v>
+      <c r="A207" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>297</v>
       </c>
       <c r="D207" s="45"/>
       <c r="E207" s="45"/>
@@ -7432,12 +7451,14 @@
       <c r="Q207" s="17"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A208" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B208" s="32"/>
-      <c r="C208" s="24" t="s">
-        <v>1</v>
+      <c r="A208" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="D208" s="45"/>
       <c r="E208" s="45"/>
@@ -7455,14 +7476,14 @@
       <c r="Q208" s="17"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A209" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B209" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C209" s="24" t="s">
-        <v>94</v>
+      <c r="A209" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>314</v>
       </c>
       <c r="D209" s="45"/>
       <c r="E209" s="45"/>
@@ -7480,76 +7501,64 @@
       <c r="Q209" s="17"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A210" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B210" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="24" t="s">
-        <v>271</v>
+      <c r="A210" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>315</v>
       </c>
       <c r="D210" s="45"/>
       <c r="E210" s="45"/>
       <c r="F210" s="45"/>
       <c r="G210" s="17"/>
       <c r="H210" s="17"/>
-      <c r="I210" s="17">
-        <v>1</v>
-      </c>
+      <c r="I210" s="17"/>
       <c r="J210" s="17"/>
       <c r="K210" s="17"/>
       <c r="L210" s="17"/>
       <c r="M210" s="17"/>
       <c r="N210" s="17"/>
       <c r="O210" s="17"/>
-      <c r="P210" s="17">
-        <v>1</v>
-      </c>
+      <c r="P210" s="17"/>
       <c r="Q210" s="17"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B211" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>282</v>
+      <c r="A211" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>316</v>
       </c>
       <c r="D211" s="45"/>
       <c r="E211" s="45"/>
       <c r="F211" s="45"/>
-      <c r="G211" s="17">
-        <v>1</v>
-      </c>
-      <c r="H211" s="17">
-        <v>1</v>
-      </c>
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
       <c r="I211" s="17"/>
       <c r="J211" s="17"/>
-      <c r="K211" s="17">
-        <v>1</v>
-      </c>
+      <c r="K211" s="17"/>
       <c r="L211" s="17"/>
       <c r="M211" s="17"/>
       <c r="N211" s="17"/>
       <c r="O211" s="17"/>
       <c r="P211" s="17"/>
-      <c r="Q211" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q211" s="17"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B212" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="24" t="s">
-        <v>26</v>
+      <c r="A212" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>317</v>
       </c>
       <c r="D212" s="45"/>
       <c r="E212" s="45"/>
@@ -7563,51 +7572,43 @@
       <c r="M212" s="17"/>
       <c r="N212" s="17"/>
       <c r="O212" s="17"/>
-      <c r="P212" s="17">
-        <v>1</v>
-      </c>
+      <c r="P212" s="17"/>
       <c r="Q212" s="17"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A213" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B213" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C213" s="24" t="s">
-        <v>283</v>
+      <c r="A213" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="D213" s="45"/>
       <c r="E213" s="45"/>
       <c r="F213" s="45"/>
-      <c r="G213" s="17">
-        <v>1</v>
-      </c>
-      <c r="H213" s="17">
-        <v>1</v>
-      </c>
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
       <c r="I213" s="17"/>
       <c r="J213" s="17"/>
-      <c r="K213" s="17">
-        <v>1</v>
-      </c>
+      <c r="K213" s="17"/>
       <c r="L213" s="17"/>
       <c r="M213" s="17"/>
       <c r="N213" s="17"/>
       <c r="O213" s="17"/>
       <c r="P213" s="17"/>
-      <c r="Q213" s="17">
-        <v>1</v>
-      </c>
+      <c r="Q213" s="17"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B214" s="23"/>
+      <c r="B214" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="C214" s="24" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="D214" s="45"/>
       <c r="E214" s="45"/>
@@ -7628,11 +7629,9 @@
       <c r="A215" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B215" s="23" t="s">
-        <v>6</v>
-      </c>
+      <c r="B215" s="32"/>
       <c r="C215" s="24" t="s">
-        <v>227</v>
+        <v>1</v>
       </c>
       <c r="D215" s="45"/>
       <c r="E215" s="45"/>
@@ -7657,7 +7656,7 @@
         <v>6</v>
       </c>
       <c r="C216" s="24" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D216" s="45"/>
       <c r="E216" s="45"/>
@@ -7666,9 +7665,7 @@
       <c r="H216" s="17"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17"/>
-      <c r="K216" s="17">
-        <v>1</v>
-      </c>
+      <c r="K216" s="17"/>
       <c r="L216" s="17"/>
       <c r="M216" s="17"/>
       <c r="N216" s="17"/>
@@ -7684,27 +7681,25 @@
         <v>6</v>
       </c>
       <c r="C217" s="24" t="s">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="D217" s="45"/>
       <c r="E217" s="45"/>
       <c r="F217" s="45"/>
-      <c r="G217" s="17">
-        <v>1</v>
-      </c>
-      <c r="H217" s="17">
-        <v>1</v>
-      </c>
-      <c r="I217" s="17"/>
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17">
+        <v>1</v>
+      </c>
       <c r="J217" s="17"/>
-      <c r="K217" s="17">
-        <v>1</v>
-      </c>
+      <c r="K217" s="17"/>
       <c r="L217" s="17"/>
       <c r="M217" s="17"/>
       <c r="N217" s="17"/>
       <c r="O217" s="17"/>
-      <c r="P217" s="17"/>
+      <c r="P217" s="17">
+        <v>1</v>
+      </c>
       <c r="Q217" s="17"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
@@ -7715,7 +7710,7 @@
         <v>6</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="D218" s="45"/>
       <c r="E218" s="45"/>
@@ -7723,16 +7718,22 @@
       <c r="G218" s="17">
         <v>1</v>
       </c>
-      <c r="H218" s="17"/>
+      <c r="H218" s="17">
+        <v>1</v>
+      </c>
       <c r="I218" s="17"/>
       <c r="J218" s="17"/>
-      <c r="K218" s="17"/>
+      <c r="K218" s="17">
+        <v>1</v>
+      </c>
       <c r="L218" s="17"/>
       <c r="M218" s="17"/>
       <c r="N218" s="17"/>
       <c r="O218" s="17"/>
       <c r="P218" s="17"/>
-      <c r="Q218" s="17"/>
+      <c r="Q218" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="22" t="s">
@@ -7742,27 +7743,23 @@
         <v>6</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D219" s="45"/>
       <c r="E219" s="45"/>
       <c r="F219" s="45"/>
-      <c r="G219" s="17">
-        <v>1</v>
-      </c>
-      <c r="H219" s="17">
-        <v>1</v>
-      </c>
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
       <c r="I219" s="17"/>
       <c r="J219" s="17"/>
-      <c r="K219" s="17">
-        <v>1</v>
-      </c>
+      <c r="K219" s="17"/>
       <c r="L219" s="17"/>
       <c r="M219" s="17"/>
       <c r="N219" s="17"/>
       <c r="O219" s="17"/>
-      <c r="P219" s="17"/>
+      <c r="P219" s="17">
+        <v>1</v>
+      </c>
       <c r="Q219" s="17"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
@@ -7773,71 +7770,63 @@
         <v>6</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="D220" s="45"/>
       <c r="E220" s="45"/>
       <c r="F220" s="45"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
+      <c r="G220" s="17">
+        <v>1</v>
+      </c>
+      <c r="H220" s="17">
+        <v>1</v>
+      </c>
       <c r="I220" s="17"/>
       <c r="J220" s="17"/>
-      <c r="K220" s="17"/>
+      <c r="K220" s="17">
+        <v>1</v>
+      </c>
       <c r="L220" s="17"/>
       <c r="M220" s="17"/>
       <c r="N220" s="17"/>
       <c r="O220" s="17"/>
       <c r="P220" s="17"/>
-      <c r="Q220" s="17"/>
+      <c r="Q220" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A221" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B221" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C221" s="35" t="s">
-        <v>132</v>
+      <c r="A221" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" s="23"/>
+      <c r="C221" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="D221" s="45"/>
       <c r="E221" s="45"/>
       <c r="F221" s="45"/>
       <c r="G221" s="17"/>
-      <c r="H221" s="17">
-        <v>1</v>
-      </c>
-      <c r="I221" s="17">
-        <v>1</v>
-      </c>
-      <c r="J221" s="17">
-        <v>1</v>
-      </c>
-      <c r="K221" s="17">
-        <v>1</v>
-      </c>
-      <c r="L221" s="17">
-        <v>1</v>
-      </c>
-      <c r="M221" s="17">
-        <v>1</v>
-      </c>
-      <c r="N221" s="17">
-        <v>1</v>
-      </c>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="17"/>
+      <c r="K221" s="17"/>
+      <c r="L221" s="17"/>
+      <c r="M221" s="17"/>
+      <c r="N221" s="17"/>
       <c r="O221" s="17"/>
       <c r="P221" s="17"/>
       <c r="Q221" s="17"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A222" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B222" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C222" s="35" t="s">
-        <v>88</v>
+      <c r="A222" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="D222" s="45"/>
       <c r="E222" s="45"/>
@@ -7849,22 +7838,20 @@
       <c r="K222" s="17"/>
       <c r="L222" s="17"/>
       <c r="M222" s="17"/>
-      <c r="N222" s="17">
-        <v>1</v>
-      </c>
+      <c r="N222" s="17"/>
       <c r="O222" s="17"/>
       <c r="P222" s="17"/>
       <c r="Q222" s="17"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A223" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B223" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C223" s="35" t="s">
-        <v>91</v>
+      <c r="A223" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="D223" s="45"/>
       <c r="E223" s="45"/>
@@ -7873,25 +7860,25 @@
       <c r="H223" s="17"/>
       <c r="I223" s="17"/>
       <c r="J223" s="17"/>
-      <c r="K223" s="17"/>
+      <c r="K223" s="17">
+        <v>1</v>
+      </c>
       <c r="L223" s="17"/>
       <c r="M223" s="17"/>
-      <c r="N223" s="17">
-        <v>1</v>
-      </c>
+      <c r="N223" s="17"/>
       <c r="O223" s="17"/>
       <c r="P223" s="17"/>
       <c r="Q223" s="17"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A224" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B224" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C224" s="35" t="s">
-        <v>57</v>
+      <c r="A224" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B224" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="D224" s="45"/>
       <c r="E224" s="45"/>
@@ -7902,33 +7889,27 @@
       <c r="H224" s="17">
         <v>1</v>
       </c>
-      <c r="I224" s="17">
-        <v>1</v>
-      </c>
+      <c r="I224" s="17"/>
       <c r="J224" s="17"/>
       <c r="K224" s="17">
         <v>1</v>
       </c>
       <c r="L224" s="17"/>
-      <c r="M224" s="17">
-        <v>1</v>
-      </c>
-      <c r="N224" s="17">
-        <v>1</v>
-      </c>
+      <c r="M224" s="17"/>
+      <c r="N224" s="17"/>
       <c r="O224" s="17"/>
       <c r="P224" s="17"/>
       <c r="Q224" s="17"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A225" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B225" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C225" s="35" t="s">
-        <v>95</v>
+      <c r="A225" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B225" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>232</v>
       </c>
       <c r="D225" s="45"/>
       <c r="E225" s="45"/>
@@ -7936,30 +7917,26 @@
       <c r="G225" s="17">
         <v>1</v>
       </c>
-      <c r="H225" s="17">
-        <v>1</v>
-      </c>
+      <c r="H225" s="17"/>
       <c r="I225" s="17"/>
       <c r="J225" s="17"/>
-      <c r="K225" s="17">
-        <v>1</v>
-      </c>
+      <c r="K225" s="17"/>
       <c r="L225" s="17"/>
       <c r="M225" s="17"/>
-      <c r="N225" s="17">
-        <v>1</v>
-      </c>
+      <c r="N225" s="17"/>
       <c r="O225" s="17"/>
       <c r="P225" s="17"/>
       <c r="Q225" s="17"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B226" s="36"/>
-      <c r="C226" s="35" t="s">
-        <v>2</v>
+      <c r="A226" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D226" s="45"/>
       <c r="E226" s="45"/>
@@ -7970,43 +7947,27 @@
       <c r="H226" s="17">
         <v>1</v>
       </c>
-      <c r="I226" s="17">
-        <v>1</v>
-      </c>
-      <c r="J226" s="17">
-        <v>1</v>
-      </c>
+      <c r="I226" s="17"/>
+      <c r="J226" s="17"/>
       <c r="K226" s="17">
         <v>1</v>
       </c>
-      <c r="L226" s="17">
-        <v>1</v>
-      </c>
-      <c r="M226" s="17">
-        <v>1</v>
-      </c>
-      <c r="N226" s="17">
-        <v>1</v>
-      </c>
-      <c r="O226" s="17">
-        <v>1</v>
-      </c>
-      <c r="P226" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q226" s="17">
-        <v>1</v>
-      </c>
+      <c r="L226" s="17"/>
+      <c r="M226" s="17"/>
+      <c r="N226" s="17"/>
+      <c r="O226" s="17"/>
+      <c r="P226" s="17"/>
+      <c r="Q226" s="17"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B227" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C227" s="35" t="s">
-        <v>102</v>
+      <c r="A227" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B227" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C227" s="24" t="s">
+        <v>128</v>
       </c>
       <c r="D227" s="45"/>
       <c r="E227" s="45"/>
@@ -8018,9 +7979,7 @@
       <c r="K227" s="17"/>
       <c r="L227" s="17"/>
       <c r="M227" s="17"/>
-      <c r="N227" s="17">
-        <v>1</v>
-      </c>
+      <c r="N227" s="17"/>
       <c r="O227" s="17"/>
       <c r="P227" s="17"/>
       <c r="Q227" s="17"/>
@@ -8030,21 +7989,33 @@
         <v>174</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C228" s="35" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="D228" s="45"/>
       <c r="E228" s="45"/>
       <c r="F228" s="45"/>
       <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="17"/>
-      <c r="K228" s="17"/>
-      <c r="L228" s="17"/>
-      <c r="M228" s="17"/>
+      <c r="H228" s="17">
+        <v>1</v>
+      </c>
+      <c r="I228" s="17">
+        <v>1</v>
+      </c>
+      <c r="J228" s="17">
+        <v>1</v>
+      </c>
+      <c r="K228" s="17">
+        <v>1</v>
+      </c>
+      <c r="L228" s="17">
+        <v>1</v>
+      </c>
+      <c r="M228" s="17">
+        <v>1</v>
+      </c>
       <c r="N228" s="17">
         <v>1</v>
       </c>
@@ -8060,7 +8031,7 @@
         <v>6</v>
       </c>
       <c r="C229" s="35" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="D229" s="45"/>
       <c r="E229" s="45"/>
@@ -8069,9 +8040,7 @@
       <c r="H229" s="17"/>
       <c r="I229" s="17"/>
       <c r="J229" s="17"/>
-      <c r="K229" s="17">
-        <v>1</v>
-      </c>
+      <c r="K229" s="17"/>
       <c r="L229" s="17"/>
       <c r="M229" s="17"/>
       <c r="N229" s="17">
@@ -8086,32 +8055,20 @@
         <v>174</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C230" s="35" t="s">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="D230" s="45"/>
       <c r="E230" s="45"/>
       <c r="F230" s="45"/>
-      <c r="G230" s="17">
-        <v>1</v>
-      </c>
-      <c r="H230" s="17">
-        <v>1</v>
-      </c>
-      <c r="I230" s="17">
-        <v>1</v>
-      </c>
-      <c r="J230" s="17">
-        <v>1</v>
-      </c>
-      <c r="K230" s="17">
-        <v>1</v>
-      </c>
-      <c r="L230" s="17">
-        <v>1</v>
-      </c>
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="17"/>
+      <c r="K230" s="17"/>
+      <c r="L230" s="17"/>
       <c r="M230" s="17"/>
       <c r="N230" s="17">
         <v>1</v>
@@ -8125,23 +8082,31 @@
         <v>174</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C231" s="35" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D231" s="45"/>
       <c r="E231" s="45"/>
       <c r="F231" s="45"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
+      <c r="G231" s="17">
+        <v>1</v>
+      </c>
+      <c r="H231" s="17">
+        <v>1</v>
+      </c>
+      <c r="I231" s="17">
+        <v>1</v>
+      </c>
       <c r="J231" s="17"/>
       <c r="K231" s="17">
         <v>1</v>
       </c>
       <c r="L231" s="17"/>
-      <c r="M231" s="17"/>
+      <c r="M231" s="17">
+        <v>1</v>
+      </c>
       <c r="N231" s="17">
         <v>1</v>
       </c>
@@ -8154,10 +8119,10 @@
         <v>174</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C232" s="35" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D232" s="45"/>
       <c r="E232" s="45"/>
@@ -8168,43 +8133,27 @@
       <c r="H232" s="17">
         <v>1</v>
       </c>
-      <c r="I232" s="17">
-        <v>1</v>
-      </c>
-      <c r="J232" s="17">
-        <v>1</v>
-      </c>
+      <c r="I232" s="17"/>
+      <c r="J232" s="17"/>
       <c r="K232" s="17">
         <v>1</v>
       </c>
-      <c r="L232" s="17">
-        <v>1</v>
-      </c>
-      <c r="M232" s="17">
-        <v>1</v>
-      </c>
+      <c r="L232" s="17"/>
+      <c r="M232" s="17"/>
       <c r="N232" s="17">
         <v>1</v>
       </c>
-      <c r="O232" s="17">
-        <v>1</v>
-      </c>
-      <c r="P232" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q232" s="17">
-        <v>1</v>
-      </c>
+      <c r="O232" s="17"/>
+      <c r="P232" s="17"/>
+      <c r="Q232" s="17"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B233" s="34" t="s">
-        <v>6</v>
-      </c>
+      <c r="B233" s="36"/>
       <c r="C233" s="35" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D233" s="45"/>
       <c r="E233" s="45"/>
@@ -8215,29 +8164,43 @@
       <c r="H233" s="17">
         <v>1</v>
       </c>
-      <c r="I233" s="17"/>
-      <c r="J233" s="17"/>
+      <c r="I233" s="17">
+        <v>1</v>
+      </c>
+      <c r="J233" s="17">
+        <v>1</v>
+      </c>
       <c r="K233" s="17">
         <v>1</v>
       </c>
-      <c r="L233" s="17"/>
-      <c r="M233" s="17"/>
+      <c r="L233" s="17">
+        <v>1</v>
+      </c>
+      <c r="M233" s="17">
+        <v>1</v>
+      </c>
       <c r="N233" s="17">
         <v>1</v>
       </c>
-      <c r="O233" s="17"/>
-      <c r="P233" s="17"/>
-      <c r="Q233" s="17"/>
+      <c r="O233" s="17">
+        <v>1</v>
+      </c>
+      <c r="P233" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q233" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A234" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B234" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>184</v>
+      <c r="A234" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B234" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C234" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="D234" s="45"/>
       <c r="E234" s="45"/>
@@ -8249,20 +8212,22 @@
       <c r="K234" s="17"/>
       <c r="L234" s="17"/>
       <c r="M234" s="17"/>
-      <c r="N234" s="17"/>
+      <c r="N234" s="17">
+        <v>1</v>
+      </c>
       <c r="O234" s="17"/>
       <c r="P234" s="17"/>
       <c r="Q234" s="17"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A235" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="B235" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C235" s="39" t="s">
-        <v>42</v>
+      <c r="A235" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B235" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C235" s="35" t="s">
+        <v>115</v>
       </c>
       <c r="D235" s="45"/>
       <c r="E235" s="45"/>
@@ -8274,20 +8239,22 @@
       <c r="K235" s="17"/>
       <c r="L235" s="17"/>
       <c r="M235" s="17"/>
-      <c r="N235" s="17"/>
+      <c r="N235" s="17">
+        <v>1</v>
+      </c>
       <c r="O235" s="17"/>
       <c r="P235" s="17"/>
       <c r="Q235" s="17"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A236" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="B236" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C236" s="21" t="s">
-        <v>103</v>
+      <c r="A236" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B236" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C236" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="D236" s="45"/>
       <c r="E236" s="45"/>
@@ -8296,23 +8263,27 @@
       <c r="H236" s="17"/>
       <c r="I236" s="17"/>
       <c r="J236" s="17"/>
-      <c r="K236" s="17"/>
+      <c r="K236" s="17">
+        <v>1</v>
+      </c>
       <c r="L236" s="17"/>
       <c r="M236" s="17"/>
-      <c r="N236" s="17"/>
+      <c r="N236" s="17">
+        <v>1</v>
+      </c>
       <c r="O236" s="17"/>
       <c r="P236" s="17"/>
       <c r="Q236" s="17"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A237" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B237" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C237" s="39" t="s">
-        <v>9</v>
+      <c r="A237" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B237" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C237" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="D237" s="45"/>
       <c r="E237" s="45"/>
@@ -8320,28 +8291,38 @@
       <c r="G237" s="17">
         <v>1</v>
       </c>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="17"/>
-      <c r="K237" s="17"/>
-      <c r="L237" s="17"/>
-      <c r="M237" s="17">
-        <v>1</v>
-      </c>
-      <c r="N237" s="17"/>
+      <c r="H237" s="17">
+        <v>1</v>
+      </c>
+      <c r="I237" s="17">
+        <v>1</v>
+      </c>
+      <c r="J237" s="17">
+        <v>1</v>
+      </c>
+      <c r="K237" s="17">
+        <v>1</v>
+      </c>
+      <c r="L237" s="17">
+        <v>1</v>
+      </c>
+      <c r="M237" s="17"/>
+      <c r="N237" s="17">
+        <v>1</v>
+      </c>
       <c r="O237" s="17"/>
       <c r="P237" s="17"/>
       <c r="Q237" s="17"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A238" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B238" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C238" s="39" t="s">
-        <v>89</v>
+      <c r="A238" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B238" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C238" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="D238" s="45"/>
       <c r="E238" s="45"/>
@@ -8350,96 +8331,118 @@
       <c r="H238" s="17"/>
       <c r="I238" s="17"/>
       <c r="J238" s="17"/>
-      <c r="K238" s="17"/>
+      <c r="K238" s="17">
+        <v>1</v>
+      </c>
       <c r="L238" s="17"/>
-      <c r="M238" s="17">
-        <v>1</v>
-      </c>
-      <c r="N238" s="17"/>
+      <c r="M238" s="17"/>
+      <c r="N238" s="17">
+        <v>1</v>
+      </c>
       <c r="O238" s="17"/>
       <c r="P238" s="17"/>
       <c r="Q238" s="17"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A239" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B239" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C239" s="39" t="s">
-        <v>231</v>
+      <c r="A239" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B239" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C239" s="35" t="s">
+        <v>166</v>
       </c>
       <c r="D239" s="45"/>
       <c r="E239" s="45"/>
       <c r="F239" s="45"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="17"/>
-      <c r="K239" s="17"/>
-      <c r="L239" s="17"/>
+      <c r="G239" s="17">
+        <v>1</v>
+      </c>
+      <c r="H239" s="17">
+        <v>1</v>
+      </c>
+      <c r="I239" s="17">
+        <v>1</v>
+      </c>
+      <c r="J239" s="17">
+        <v>1</v>
+      </c>
+      <c r="K239" s="17">
+        <v>1</v>
+      </c>
+      <c r="L239" s="17">
+        <v>1</v>
+      </c>
       <c r="M239" s="17">
         <v>1</v>
       </c>
-      <c r="N239" s="17"/>
-      <c r="O239" s="17"/>
-      <c r="P239" s="17"/>
-      <c r="Q239" s="17"/>
+      <c r="N239" s="17">
+        <v>1</v>
+      </c>
+      <c r="O239" s="17">
+        <v>1</v>
+      </c>
+      <c r="P239" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A240" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B240" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C240" s="39" t="s">
-        <v>134</v>
+      <c r="A240" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B240" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C240" s="35" t="s">
+        <v>49</v>
       </c>
       <c r="D240" s="45"/>
       <c r="E240" s="45"/>
       <c r="F240" s="45"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
+      <c r="G240" s="17">
+        <v>1</v>
+      </c>
+      <c r="H240" s="17">
+        <v>1</v>
+      </c>
       <c r="I240" s="17"/>
       <c r="J240" s="17"/>
-      <c r="K240" s="17"/>
+      <c r="K240" s="17">
+        <v>1</v>
+      </c>
       <c r="L240" s="17"/>
-      <c r="M240" s="17">
-        <v>1</v>
-      </c>
-      <c r="N240" s="17"/>
+      <c r="M240" s="17"/>
+      <c r="N240" s="17">
+        <v>1</v>
+      </c>
       <c r="O240" s="17"/>
       <c r="P240" s="17"/>
       <c r="Q240" s="17"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A241" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B241" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C241" s="39" t="s">
-        <v>16</v>
+      <c r="A241" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B241" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="D241" s="45"/>
       <c r="E241" s="45"/>
       <c r="F241" s="45"/>
       <c r="G241" s="17"/>
-      <c r="H241" s="17">
-        <v>1</v>
-      </c>
+      <c r="H241" s="17"/>
       <c r="I241" s="17"/>
       <c r="J241" s="17"/>
-      <c r="K241" s="17">
-        <v>1</v>
-      </c>
+      <c r="K241" s="17"/>
       <c r="L241" s="17"/>
-      <c r="M241" s="17">
-        <v>1</v>
-      </c>
+      <c r="M241" s="17"/>
       <c r="N241" s="17"/>
       <c r="O241" s="17"/>
       <c r="P241" s="17"/>
@@ -8447,46 +8450,38 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="37" t="s">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C242" s="39" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D242" s="45"/>
       <c r="E242" s="45"/>
       <c r="F242" s="45"/>
       <c r="G242" s="17"/>
-      <c r="H242" s="17">
-        <v>1</v>
-      </c>
-      <c r="I242" s="17">
-        <v>1</v>
-      </c>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
       <c r="J242" s="17"/>
-      <c r="K242" s="17">
-        <v>1</v>
-      </c>
+      <c r="K242" s="17"/>
       <c r="L242" s="17"/>
-      <c r="M242" s="17">
-        <v>1</v>
-      </c>
+      <c r="M242" s="17"/>
       <c r="N242" s="17"/>
       <c r="O242" s="17"/>
       <c r="P242" s="17"/>
       <c r="Q242" s="17"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A243" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B243" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C243" s="39" t="s">
-        <v>62</v>
+      <c r="A243" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="D243" s="45"/>
       <c r="E243" s="45"/>
@@ -8497,9 +8492,7 @@
       <c r="J243" s="17"/>
       <c r="K243" s="17"/>
       <c r="L243" s="17"/>
-      <c r="M243" s="17">
-        <v>1</v>
-      </c>
+      <c r="M243" s="17"/>
       <c r="N243" s="17"/>
       <c r="O243" s="17"/>
       <c r="P243" s="17"/>
@@ -8513,18 +8506,18 @@
         <v>6</v>
       </c>
       <c r="C244" s="39" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="D244" s="45"/>
       <c r="E244" s="45"/>
       <c r="F244" s="45"/>
-      <c r="G244" s="17"/>
+      <c r="G244" s="17">
+        <v>1</v>
+      </c>
       <c r="H244" s="17"/>
       <c r="I244" s="17"/>
       <c r="J244" s="17"/>
-      <c r="K244" s="17">
-        <v>1</v>
-      </c>
+      <c r="K244" s="17"/>
       <c r="L244" s="17"/>
       <c r="M244" s="17">
         <v>1</v>
@@ -8542,7 +8535,7 @@
         <v>6</v>
       </c>
       <c r="C245" s="39" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="D245" s="45"/>
       <c r="E245" s="45"/>
@@ -8551,11 +8544,11 @@
       <c r="H245" s="17"/>
       <c r="I245" s="17"/>
       <c r="J245" s="17"/>
-      <c r="K245" s="17">
-        <v>1</v>
-      </c>
+      <c r="K245" s="17"/>
       <c r="L245" s="17"/>
-      <c r="M245" s="17"/>
+      <c r="M245" s="17">
+        <v>1</v>
+      </c>
       <c r="N245" s="17"/>
       <c r="O245" s="17"/>
       <c r="P245" s="17"/>
@@ -8569,7 +8562,7 @@
         <v>6</v>
       </c>
       <c r="C246" s="39" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="D246" s="45"/>
       <c r="E246" s="45"/>
@@ -8578,11 +8571,11 @@
       <c r="H246" s="17"/>
       <c r="I246" s="17"/>
       <c r="J246" s="17"/>
-      <c r="K246" s="17">
-        <v>1</v>
-      </c>
+      <c r="K246" s="17"/>
       <c r="L246" s="17"/>
-      <c r="M246" s="17"/>
+      <c r="M246" s="17">
+        <v>1</v>
+      </c>
       <c r="N246" s="17"/>
       <c r="O246" s="17"/>
       <c r="P246" s="17"/>
@@ -8593,10 +8586,10 @@
         <v>43</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C247" s="39" t="s">
-        <v>278</v>
+        <v>134</v>
       </c>
       <c r="D247" s="45"/>
       <c r="E247" s="45"/>
@@ -8605,11 +8598,11 @@
       <c r="H247" s="17"/>
       <c r="I247" s="17"/>
       <c r="J247" s="17"/>
-      <c r="K247" s="17">
-        <v>1</v>
-      </c>
+      <c r="K247" s="17"/>
       <c r="L247" s="17"/>
-      <c r="M247" s="17"/>
+      <c r="M247" s="17">
+        <v>1</v>
+      </c>
       <c r="N247" s="17"/>
       <c r="O247" s="17"/>
       <c r="P247" s="17"/>
@@ -8623,16 +8616,20 @@
         <v>6</v>
       </c>
       <c r="C248" s="39" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D248" s="45"/>
       <c r="E248" s="45"/>
       <c r="F248" s="45"/>
       <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
+      <c r="H248" s="17">
+        <v>1</v>
+      </c>
       <c r="I248" s="17"/>
       <c r="J248" s="17"/>
-      <c r="K248" s="17"/>
+      <c r="K248" s="17">
+        <v>1</v>
+      </c>
       <c r="L248" s="17"/>
       <c r="M248" s="17">
         <v>1</v>
@@ -8650,18 +8647,22 @@
         <v>52</v>
       </c>
       <c r="C249" s="39" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D249" s="45"/>
       <c r="E249" s="45"/>
       <c r="F249" s="45"/>
-      <c r="G249" s="17">
-        <v>1</v>
-      </c>
-      <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
+      <c r="G249" s="17"/>
+      <c r="H249" s="17">
+        <v>1</v>
+      </c>
+      <c r="I249" s="17">
+        <v>1</v>
+      </c>
       <c r="J249" s="17"/>
-      <c r="K249" s="17"/>
+      <c r="K249" s="17">
+        <v>1</v>
+      </c>
       <c r="L249" s="17"/>
       <c r="M249" s="17">
         <v>1</v>
@@ -8676,68 +8677,48 @@
         <v>43</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C250" s="39" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="D250" s="45"/>
       <c r="E250" s="45"/>
       <c r="F250" s="45"/>
-      <c r="G250" s="17">
-        <v>1</v>
-      </c>
-      <c r="H250" s="17">
-        <v>1</v>
-      </c>
-      <c r="I250" s="17">
-        <v>1</v>
-      </c>
-      <c r="J250" s="17">
-        <v>1</v>
-      </c>
-      <c r="K250" s="17">
-        <v>1</v>
-      </c>
-      <c r="L250" s="17">
-        <v>1</v>
-      </c>
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="17"/>
+      <c r="K250" s="17"/>
+      <c r="L250" s="17"/>
       <c r="M250" s="17">
         <v>1</v>
       </c>
-      <c r="N250" s="17">
-        <v>1</v>
-      </c>
-      <c r="O250" s="17">
-        <v>1</v>
-      </c>
-      <c r="P250" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q250" s="17">
-        <v>1</v>
-      </c>
+      <c r="N250" s="17"/>
+      <c r="O250" s="17"/>
+      <c r="P250" s="17"/>
+      <c r="Q250" s="17"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C251" s="39" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D251" s="45"/>
       <c r="E251" s="45"/>
       <c r="F251" s="45"/>
-      <c r="G251" s="17">
-        <v>1</v>
-      </c>
+      <c r="G251" s="17"/>
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
       <c r="J251" s="17"/>
-      <c r="K251" s="17"/>
+      <c r="K251" s="17">
+        <v>1</v>
+      </c>
       <c r="L251" s="17"/>
       <c r="M251" s="17">
         <v>1</v>
@@ -8755,32 +8736,20 @@
         <v>6</v>
       </c>
       <c r="C252" s="39" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="D252" s="45"/>
       <c r="E252" s="45"/>
       <c r="F252" s="45"/>
-      <c r="G252" s="17">
-        <v>1</v>
-      </c>
-      <c r="H252" s="17">
-        <v>1</v>
-      </c>
-      <c r="I252" s="17">
-        <v>1</v>
-      </c>
-      <c r="J252" s="17">
-        <v>1</v>
-      </c>
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="17"/>
       <c r="K252" s="17">
         <v>1</v>
       </c>
-      <c r="L252" s="17">
-        <v>1</v>
-      </c>
-      <c r="M252" s="17">
-        <v>1</v>
-      </c>
+      <c r="L252" s="17"/>
+      <c r="M252" s="17"/>
       <c r="N252" s="17"/>
       <c r="O252" s="17"/>
       <c r="P252" s="17"/>
@@ -8791,10 +8760,10 @@
         <v>43</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C253" s="39" t="s">
-        <v>73</v>
+        <v>276</v>
       </c>
       <c r="D253" s="45"/>
       <c r="E253" s="45"/>
@@ -8803,11 +8772,11 @@
       <c r="H253" s="17"/>
       <c r="I253" s="17"/>
       <c r="J253" s="17"/>
-      <c r="K253" s="17"/>
+      <c r="K253" s="17">
+        <v>1</v>
+      </c>
       <c r="L253" s="17"/>
-      <c r="M253" s="17">
-        <v>1</v>
-      </c>
+      <c r="M253" s="17"/>
       <c r="N253" s="17"/>
       <c r="O253" s="17"/>
       <c r="P253" s="17"/>
@@ -8821,7 +8790,7 @@
         <v>6</v>
       </c>
       <c r="C254" s="39" t="s">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="D254" s="45"/>
       <c r="E254" s="45"/>
@@ -8834,9 +8803,7 @@
         <v>1</v>
       </c>
       <c r="L254" s="17"/>
-      <c r="M254" s="17">
-        <v>1</v>
-      </c>
+      <c r="M254" s="17"/>
       <c r="N254" s="17"/>
       <c r="O254" s="17"/>
       <c r="P254" s="17"/>
@@ -8850,7 +8817,7 @@
         <v>6</v>
       </c>
       <c r="C255" s="39" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D255" s="45"/>
       <c r="E255" s="45"/>
@@ -8874,10 +8841,10 @@
         <v>43</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C256" s="39" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="D256" s="45"/>
       <c r="E256" s="45"/>
@@ -8885,14 +8852,10 @@
       <c r="G256" s="17">
         <v>1</v>
       </c>
-      <c r="H256" s="17">
-        <v>1</v>
-      </c>
+      <c r="H256" s="17"/>
       <c r="I256" s="17"/>
       <c r="J256" s="17"/>
-      <c r="K256" s="17">
-        <v>1</v>
-      </c>
+      <c r="K256" s="17"/>
       <c r="L256" s="17"/>
       <c r="M256" s="17">
         <v>1</v>
@@ -8910,36 +8873,54 @@
         <v>6</v>
       </c>
       <c r="C257" s="39" t="s">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="D257" s="45"/>
       <c r="E257" s="45"/>
       <c r="F257" s="45"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="17"/>
+      <c r="G257" s="17">
+        <v>1</v>
+      </c>
+      <c r="H257" s="17">
+        <v>1</v>
+      </c>
+      <c r="I257" s="17">
+        <v>1</v>
+      </c>
+      <c r="J257" s="17">
+        <v>1</v>
+      </c>
       <c r="K257" s="17">
         <v>1</v>
       </c>
-      <c r="L257" s="17"/>
+      <c r="L257" s="17">
+        <v>1</v>
+      </c>
       <c r="M257" s="17">
         <v>1</v>
       </c>
-      <c r="N257" s="17"/>
-      <c r="O257" s="17"/>
-      <c r="P257" s="17"/>
-      <c r="Q257" s="17"/>
+      <c r="N257" s="17">
+        <v>1</v>
+      </c>
+      <c r="O257" s="17">
+        <v>1</v>
+      </c>
+      <c r="P257" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q257" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C258" s="39" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D258" s="45"/>
       <c r="E258" s="45"/>
@@ -8947,14 +8928,10 @@
       <c r="G258" s="17">
         <v>1</v>
       </c>
-      <c r="H258" s="17">
-        <v>1</v>
-      </c>
+      <c r="H258" s="17"/>
       <c r="I258" s="17"/>
       <c r="J258" s="17"/>
-      <c r="K258" s="17">
-        <v>1</v>
-      </c>
+      <c r="K258" s="17"/>
       <c r="L258" s="17"/>
       <c r="M258" s="17">
         <v>1</v>
@@ -8965,97 +8942,109 @@
       <c r="Q258" s="17"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A259" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B259" s="40"/>
-      <c r="C259" s="13" t="s">
-        <v>0</v>
+      <c r="A259" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B259" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C259" s="39" t="s">
+        <v>112</v>
       </c>
       <c r="D259" s="45"/>
       <c r="E259" s="45"/>
       <c r="F259" s="45"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="17"/>
-      <c r="I259" s="17"/>
-      <c r="J259" s="17"/>
-      <c r="K259" s="17"/>
-      <c r="L259" s="17"/>
-      <c r="M259" s="17"/>
+      <c r="G259" s="17">
+        <v>1</v>
+      </c>
+      <c r="H259" s="17">
+        <v>1</v>
+      </c>
+      <c r="I259" s="17">
+        <v>1</v>
+      </c>
+      <c r="J259" s="17">
+        <v>1</v>
+      </c>
+      <c r="K259" s="17">
+        <v>1</v>
+      </c>
+      <c r="L259" s="17">
+        <v>1</v>
+      </c>
+      <c r="M259" s="17">
+        <v>1</v>
+      </c>
       <c r="N259" s="17"/>
       <c r="O259" s="17"/>
       <c r="P259" s="17"/>
       <c r="Q259" s="17"/>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A260" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B260" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C260" s="13" t="s">
-        <v>138</v>
+      <c r="A260" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B260" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C260" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="D260" s="45"/>
       <c r="E260" s="45"/>
       <c r="F260" s="45"/>
-      <c r="G260" s="17">
-        <v>1</v>
-      </c>
-      <c r="H260" s="17">
-        <v>1</v>
-      </c>
+      <c r="G260" s="17"/>
+      <c r="H260" s="17"/>
       <c r="I260" s="17"/>
       <c r="J260" s="17"/>
       <c r="K260" s="17"/>
       <c r="L260" s="17"/>
-      <c r="M260" s="17"/>
+      <c r="M260" s="17">
+        <v>1</v>
+      </c>
       <c r="N260" s="17"/>
       <c r="O260" s="17"/>
       <c r="P260" s="17"/>
       <c r="Q260" s="17"/>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A261" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>142</v>
+      <c r="A261" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B261" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="D261" s="45"/>
       <c r="E261" s="45"/>
       <c r="F261" s="45"/>
-      <c r="G261" s="17">
-        <v>1</v>
-      </c>
-      <c r="H261" s="17">
-        <v>1</v>
-      </c>
+      <c r="G261" s="17"/>
+      <c r="H261" s="17"/>
       <c r="I261" s="17"/>
       <c r="J261" s="17"/>
       <c r="K261" s="17">
         <v>1</v>
       </c>
       <c r="L261" s="17"/>
-      <c r="M261" s="17"/>
+      <c r="M261" s="17">
+        <v>1</v>
+      </c>
       <c r="N261" s="17"/>
       <c r="O261" s="17"/>
       <c r="P261" s="17"/>
       <c r="Q261" s="17"/>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A262" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B262" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>246</v>
+      <c r="A262" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B262" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C262" s="39" t="s">
+        <v>122</v>
       </c>
       <c r="D262" s="45"/>
       <c r="E262" s="45"/>
@@ -9066,75 +9055,85 @@
       <c r="J262" s="17"/>
       <c r="K262" s="17"/>
       <c r="L262" s="17"/>
-      <c r="M262" s="17"/>
+      <c r="M262" s="17">
+        <v>1</v>
+      </c>
       <c r="N262" s="17"/>
       <c r="O262" s="17"/>
       <c r="P262" s="17"/>
       <c r="Q262" s="17"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A263" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B263" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>147</v>
+      <c r="A263" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B263" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="D263" s="45"/>
       <c r="E263" s="45"/>
       <c r="F263" s="45"/>
-      <c r="G263" s="17"/>
-      <c r="H263" s="17"/>
+      <c r="G263" s="17">
+        <v>1</v>
+      </c>
+      <c r="H263" s="17">
+        <v>1</v>
+      </c>
       <c r="I263" s="17"/>
       <c r="J263" s="17"/>
-      <c r="K263" s="17"/>
+      <c r="K263" s="17">
+        <v>1</v>
+      </c>
       <c r="L263" s="17"/>
-      <c r="M263" s="17"/>
+      <c r="M263" s="17">
+        <v>1</v>
+      </c>
       <c r="N263" s="17"/>
       <c r="O263" s="17"/>
       <c r="P263" s="17"/>
       <c r="Q263" s="17"/>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A264" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>148</v>
+      <c r="A264" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B264" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" s="39" t="s">
+        <v>275</v>
       </c>
       <c r="D264" s="45"/>
       <c r="E264" s="45"/>
       <c r="F264" s="45"/>
       <c r="G264" s="17"/>
-      <c r="H264" s="17">
-        <v>1</v>
-      </c>
+      <c r="H264" s="17"/>
       <c r="I264" s="17"/>
       <c r="J264" s="17"/>
       <c r="K264" s="17">
         <v>1</v>
       </c>
       <c r="L264" s="17"/>
-      <c r="M264" s="17"/>
+      <c r="M264" s="17">
+        <v>1</v>
+      </c>
       <c r="N264" s="17"/>
       <c r="O264" s="17"/>
       <c r="P264" s="17"/>
       <c r="Q264" s="17"/>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A265" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>210</v>
+      <c r="A265" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B265" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C265" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="D265" s="45"/>
       <c r="E265" s="45"/>
@@ -9145,80 +9144,42 @@
       <c r="H265" s="17">
         <v>1</v>
       </c>
-      <c r="I265" s="17">
-        <v>1</v>
-      </c>
-      <c r="J265" s="17">
-        <v>1</v>
-      </c>
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
       <c r="K265" s="17">
         <v>1</v>
       </c>
-      <c r="L265" s="17">
-        <v>1</v>
-      </c>
+      <c r="L265" s="17"/>
       <c r="M265" s="17">
         <v>1</v>
       </c>
-      <c r="N265" s="17">
-        <v>1</v>
-      </c>
-      <c r="O265" s="17">
-        <v>1</v>
-      </c>
-      <c r="P265" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q265" s="17">
-        <v>1</v>
-      </c>
+      <c r="N265" s="17"/>
+      <c r="O265" s="17"/>
+      <c r="P265" s="17"/>
+      <c r="Q265" s="17"/>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B266" s="12" t="s">
-        <v>52</v>
-      </c>
+      <c r="B266" s="40"/>
       <c r="C266" s="13" t="s">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="D266" s="45"/>
       <c r="E266" s="45"/>
       <c r="F266" s="45"/>
-      <c r="G266" s="17">
-        <v>1</v>
-      </c>
-      <c r="H266" s="17">
-        <v>1</v>
-      </c>
-      <c r="I266" s="17">
-        <v>1</v>
-      </c>
-      <c r="J266" s="17">
-        <v>1</v>
-      </c>
-      <c r="K266" s="17">
-        <v>1</v>
-      </c>
-      <c r="L266" s="17">
-        <v>1</v>
-      </c>
-      <c r="M266" s="17">
-        <v>1</v>
-      </c>
-      <c r="N266" s="17">
-        <v>1</v>
-      </c>
-      <c r="O266" s="17">
-        <v>1</v>
-      </c>
-      <c r="P266" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q266" s="17">
-        <v>1</v>
-      </c>
+      <c r="G266" s="17"/>
+      <c r="H266" s="17"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="17"/>
+      <c r="K266" s="17"/>
+      <c r="L266" s="17"/>
+      <c r="M266" s="17"/>
+      <c r="N266" s="17"/>
+      <c r="O266" s="17"/>
+      <c r="P266" s="17"/>
+      <c r="Q266" s="17"/>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" s="11" t="s">
@@ -9228,7 +9189,7 @@
         <v>52</v>
       </c>
       <c r="C267" s="13" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="D267" s="45"/>
       <c r="E267" s="45"/>
@@ -9239,339 +9200,579 @@
       <c r="H267" s="17">
         <v>1</v>
       </c>
-      <c r="I267" s="17">
-        <v>1</v>
-      </c>
-      <c r="J267" s="17">
-        <v>1</v>
-      </c>
-      <c r="K267" s="17">
-        <v>1</v>
-      </c>
-      <c r="L267" s="17">
-        <v>1</v>
-      </c>
-      <c r="M267" s="17">
-        <v>1</v>
-      </c>
-      <c r="N267" s="17">
-        <v>1</v>
-      </c>
-      <c r="O267" s="17">
-        <v>1</v>
-      </c>
-      <c r="P267" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q267" s="17">
-        <v>1</v>
-      </c>
+      <c r="I267" s="17"/>
+      <c r="J267" s="17"/>
+      <c r="K267" s="17"/>
+      <c r="L267" s="17"/>
+      <c r="M267" s="17"/>
+      <c r="N267" s="17"/>
+      <c r="O267" s="17"/>
+      <c r="P267" s="17"/>
+      <c r="Q267" s="17"/>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B268" s="12" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C268" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D268" s="45"/>
+      <c r="E268" s="45"/>
+      <c r="F268" s="45"/>
+      <c r="G268" s="17">
+        <v>1</v>
+      </c>
+      <c r="H268" s="17">
+        <v>1</v>
+      </c>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="17">
+        <v>1</v>
+      </c>
+      <c r="L268" s="17"/>
+      <c r="M268" s="17"/>
+      <c r="N268" s="17"/>
+      <c r="O268" s="17"/>
+      <c r="P268" s="17"/>
+      <c r="Q268" s="17"/>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A269" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B269" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C269" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D269" s="45"/>
+      <c r="E269" s="45"/>
+      <c r="F269" s="45"/>
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="17"/>
+      <c r="K269" s="17"/>
+      <c r="L269" s="17"/>
+      <c r="M269" s="17"/>
+      <c r="N269" s="17"/>
+      <c r="O269" s="17"/>
+      <c r="P269" s="17"/>
+      <c r="Q269" s="17"/>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A270" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C270" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D270" s="45"/>
+      <c r="E270" s="45"/>
+      <c r="F270" s="45"/>
+      <c r="G270" s="17"/>
+      <c r="H270" s="17"/>
+      <c r="I270" s="17"/>
+      <c r="J270" s="17"/>
+      <c r="K270" s="17"/>
+      <c r="L270" s="17"/>
+      <c r="M270" s="17"/>
+      <c r="N270" s="17"/>
+      <c r="O270" s="17"/>
+      <c r="P270" s="17"/>
+      <c r="Q270" s="17"/>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A271" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C271" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D271" s="45"/>
+      <c r="E271" s="45"/>
+      <c r="F271" s="45"/>
+      <c r="G271" s="17"/>
+      <c r="H271" s="17">
+        <v>1</v>
+      </c>
+      <c r="I271" s="17"/>
+      <c r="J271" s="17"/>
+      <c r="K271" s="17">
+        <v>1</v>
+      </c>
+      <c r="L271" s="17"/>
+      <c r="M271" s="17"/>
+      <c r="N271" s="17"/>
+      <c r="O271" s="17"/>
+      <c r="P271" s="17"/>
+      <c r="Q271" s="17"/>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A272" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B272" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D272" s="45"/>
+      <c r="E272" s="45"/>
+      <c r="F272" s="45"/>
+      <c r="G272" s="17">
+        <v>1</v>
+      </c>
+      <c r="H272" s="17">
+        <v>1</v>
+      </c>
+      <c r="I272" s="17">
+        <v>1</v>
+      </c>
+      <c r="J272" s="17">
+        <v>1</v>
+      </c>
+      <c r="K272" s="17">
+        <v>1</v>
+      </c>
+      <c r="L272" s="17">
+        <v>1</v>
+      </c>
+      <c r="M272" s="17">
+        <v>1</v>
+      </c>
+      <c r="N272" s="17">
+        <v>1</v>
+      </c>
+      <c r="O272" s="17">
+        <v>1</v>
+      </c>
+      <c r="P272" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A273" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C273" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D273" s="45"/>
+      <c r="E273" s="45"/>
+      <c r="F273" s="45"/>
+      <c r="G273" s="17">
+        <v>1</v>
+      </c>
+      <c r="H273" s="17">
+        <v>1</v>
+      </c>
+      <c r="I273" s="17">
+        <v>1</v>
+      </c>
+      <c r="J273" s="17">
+        <v>1</v>
+      </c>
+      <c r="K273" s="17">
+        <v>1</v>
+      </c>
+      <c r="L273" s="17">
+        <v>1</v>
+      </c>
+      <c r="M273" s="17">
+        <v>1</v>
+      </c>
+      <c r="N273" s="17">
+        <v>1</v>
+      </c>
+      <c r="O273" s="17">
+        <v>1</v>
+      </c>
+      <c r="P273" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q273" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A274" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C274" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D274" s="45"/>
+      <c r="E274" s="45"/>
+      <c r="F274" s="45"/>
+      <c r="G274" s="17">
+        <v>1</v>
+      </c>
+      <c r="H274" s="17">
+        <v>1</v>
+      </c>
+      <c r="I274" s="17">
+        <v>1</v>
+      </c>
+      <c r="J274" s="17">
+        <v>1</v>
+      </c>
+      <c r="K274" s="17">
+        <v>1</v>
+      </c>
+      <c r="L274" s="17">
+        <v>1</v>
+      </c>
+      <c r="M274" s="17">
+        <v>1</v>
+      </c>
+      <c r="N274" s="17">
+        <v>1</v>
+      </c>
+      <c r="O274" s="17">
+        <v>1</v>
+      </c>
+      <c r="P274" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A275" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D268" s="48"/>
-      <c r="E268" s="48"/>
-      <c r="F268" s="48"/>
-      <c r="G268" s="54"/>
-      <c r="H268" s="54">
-        <v>1</v>
-      </c>
-      <c r="I268" s="54"/>
-      <c r="J268" s="54"/>
-      <c r="K268" s="54">
-        <v>1</v>
-      </c>
-      <c r="L268" s="54"/>
-      <c r="M268" s="54"/>
-      <c r="N268" s="54"/>
-      <c r="O268" s="54"/>
-      <c r="P268" s="54"/>
-      <c r="Q268" s="54"/>
+      <c r="D275" s="48"/>
+      <c r="E275" s="48"/>
+      <c r="F275" s="48"/>
+      <c r="G275" s="54"/>
+      <c r="H275" s="54">
+        <v>1</v>
+      </c>
+      <c r="I275" s="54"/>
+      <c r="J275" s="54"/>
+      <c r="K275" s="54">
+        <v>1</v>
+      </c>
+      <c r="L275" s="54"/>
+      <c r="M275" s="54"/>
+      <c r="N275" s="54"/>
+      <c r="O275" s="54"/>
+      <c r="P275" s="54"/>
+      <c r="Q275" s="54"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q268" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q268">
-      <sortCondition ref="A1:A268"/>
+  <autoFilter ref="A1:Q275" xr:uid="{A96C7FF1-A6C9-A643-BFCA-7D7FCDAF5533}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q275">
+      <sortCondition ref="A1:A275"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q267">
-    <sortCondition ref="A2:A267"/>
-    <sortCondition ref="C2:C267"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q274">
+    <sortCondition ref="A2:A274"/>
+    <sortCondition ref="C2:C274"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C82" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
-    <hyperlink ref="C222" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
+    <hyperlink ref="C83" r:id="rId1" display="https://aws.amazon.com/amplify/" xr:uid="{DD07C612-9881-1744-BD8F-2791C5BF0A5F}"/>
+    <hyperlink ref="C229" r:id="rId2" display="https://aws.amazon.com/app-mesh/" xr:uid="{F151395F-8E37-1049-9FCA-8474F2603F07}"/>
     <hyperlink ref="C22" r:id="rId3" display="https://aws.amazon.com/appsync/" xr:uid="{DB5645FD-41DF-9D4C-ADDB-CEEB9418B261}"/>
-    <hyperlink ref="C237" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
-    <hyperlink ref="C238" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
-    <hyperlink ref="C154" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
-    <hyperlink ref="C155" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
+    <hyperlink ref="C244" r:id="rId4" display="https://aws.amazon.com/artifact/" xr:uid="{0251BE44-6F83-3541-8CD4-81AEF00F1760}"/>
+    <hyperlink ref="C245" r:id="rId5" display="https://aws.amazon.com/audit-manager/" xr:uid="{FE0C678B-66B4-5041-87CB-7B1FF56DF53B}"/>
+    <hyperlink ref="C155" r:id="rId6" display="https://aws.amazon.com/autoscaling/" xr:uid="{900D412E-B452-CD43-BEB1-C8C1CB7269C8}"/>
+    <hyperlink ref="C156" r:id="rId7" display="https://aws.amazon.com/backup/" xr:uid="{E0DD5920-BDCE-E647-9AF3-74760943689B}"/>
     <hyperlink ref="C37" r:id="rId8" display="https://aws.amazon.com/batch/" xr:uid="{784C0A03-DDEC-BE4D-88F7-7005C1BB046B}"/>
-    <hyperlink ref="C57" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
-    <hyperlink ref="C239" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
+    <hyperlink ref="C58" r:id="rId9" display="https://aws.amazon.com/aws-cost-management/aws-budgets/" xr:uid="{57F5A17A-4752-B94C-8FBB-FC20BBF1A0BE}"/>
+    <hyperlink ref="C246" r:id="rId10" display="https://aws.amazon.com/certificate-manager/" xr:uid="{1F5BBCA8-0D50-C44C-907B-68E23D8E605C}"/>
     <hyperlink ref="C32" r:id="rId11" display="https://aws.amazon.com/chatbot/" xr:uid="{F29F6239-1ADB-7049-AAA7-6E39F247047B}"/>
-    <hyperlink ref="C223" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
-    <hyperlink ref="C84" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
-    <hyperlink ref="C156" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
-    <hyperlink ref="C241" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
-    <hyperlink ref="C157" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
-    <hyperlink ref="C86" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
-    <hyperlink ref="C87" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
-    <hyperlink ref="C88" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
-    <hyperlink ref="C89" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
-    <hyperlink ref="C91" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
-    <hyperlink ref="C92" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
-    <hyperlink ref="C159" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
-    <hyperlink ref="C160" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
-    <hyperlink ref="C161" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
-    <hyperlink ref="C209" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
-    <hyperlink ref="C212" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
-    <hyperlink ref="C211" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
-    <hyperlink ref="C225" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
-    <hyperlink ref="C244" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
+    <hyperlink ref="C230" r:id="rId12" display="https://aws.amazon.com/cloud-map/" xr:uid="{D482891E-9EB7-EA40-9A4B-6A8D3FEADBE3}"/>
+    <hyperlink ref="C85" r:id="rId13" display="https://aws.amazon.com/cloud9/" xr:uid="{D565484B-E9EF-EA40-BDBE-0314AF229AE7}"/>
+    <hyperlink ref="C157" r:id="rId14" display="https://aws.amazon.com/cloudformation/" xr:uid="{602EC08B-B845-E049-943E-890A120862C8}"/>
+    <hyperlink ref="C248" r:id="rId15" display="https://aws.amazon.com/cloudhsm/" xr:uid="{76B855B6-4A01-1642-8706-3316A1643BA7}"/>
+    <hyperlink ref="C158" r:id="rId16" display="https://aws.amazon.com/cloudtrail/" xr:uid="{F1C2A161-2AD0-B14D-B62A-2640A558856F}"/>
+    <hyperlink ref="C87" r:id="rId17" display="https://aws.amazon.com/codeartifact" xr:uid="{A5B8559F-E4FA-BC42-AC7A-9D708C1D63A0}"/>
+    <hyperlink ref="C88" r:id="rId18" display="https://aws.amazon.com/codebuild/" xr:uid="{E4144166-80F6-E741-B704-7C3864420913}"/>
+    <hyperlink ref="C89" r:id="rId19" display="https://aws.amazon.com/codecommit/" xr:uid="{C9DB0F3B-CAEF-524C-A620-ACEA3E04FA66}"/>
+    <hyperlink ref="C90" r:id="rId20" display="https://aws.amazon.com/codedeploy/" xr:uid="{D94C938E-B3D5-054D-AC63-39672D0C0DFC}"/>
+    <hyperlink ref="C92" r:id="rId21" display="https://aws.amazon.com/codepipeline/" xr:uid="{DA2435A7-DA61-A54F-B02D-9BA62C072DF8}"/>
+    <hyperlink ref="C93" r:id="rId22" display="https://aws.amazon.com/codestar/" xr:uid="{80EC7E07-A675-4540-8CC7-7CD9427476B0}"/>
+    <hyperlink ref="C160" r:id="rId23" display="https://aws.amazon.com/compute-optimizer/" xr:uid="{099597B3-D96C-124F-8A6B-DB661823AC75}"/>
+    <hyperlink ref="C161" r:id="rId24" display="https://aws.amazon.com/config/" xr:uid="{1DE61048-35C8-FB4C-A941-8996CBD19463}"/>
+    <hyperlink ref="C162" r:id="rId25" display="https://aws.amazon.com/controltower" xr:uid="{5ACDD884-3684-1840-9A42-603B4BFD4DFA}"/>
+    <hyperlink ref="C216" r:id="rId26" display="https://aws.amazon.com/data-exchange/" xr:uid="{EF81BA84-5C8F-DD4B-A31A-47BF7D5C826C}"/>
+    <hyperlink ref="C219" r:id="rId27" display="https://aws.amazon.com/datasync" xr:uid="{7CED07B2-F329-1D46-A78D-E74BADEF8307}"/>
+    <hyperlink ref="C218" r:id="rId28" display="https://aws.amazon.com/dms/" xr:uid="{C9210BF6-9C8C-5E48-824D-711353B0A5C4}"/>
+    <hyperlink ref="C232" r:id="rId29" display="https://aws.amazon.com/directconnect/" xr:uid="{D4260538-1F28-C64D-999E-B57D8B4A110D}"/>
+    <hyperlink ref="C251" r:id="rId30" display="https://aws.amazon.com/directoryservice/" xr:uid="{71568105-08FB-3E48-ADDD-31FCAC00E550}"/>
     <hyperlink ref="C39" r:id="rId31" display="https://aws.amazon.com/elasticbeanstalk/" xr:uid="{503FA701-A8C3-BA4D-8F14-4F45B1936437}"/>
-    <hyperlink ref="C197" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
-    <hyperlink ref="C198" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
-    <hyperlink ref="C199" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
-    <hyperlink ref="C53" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
-    <hyperlink ref="C248" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
-    <hyperlink ref="C227" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
+    <hyperlink ref="C198" r:id="rId32" display="https://aws.amazon.com/mediaconnect" xr:uid="{97EBEF96-B9F8-0444-803B-77B7686AD926}"/>
+    <hyperlink ref="C199" r:id="rId33" display="https://aws.amazon.com/mediaconvert/" xr:uid="{A189CA26-8FE5-724E-AB4C-DA1684A9397C}"/>
+    <hyperlink ref="C200" r:id="rId34" display="https://aws.amazon.com/medialive/" xr:uid="{8A1902D4-C3B2-6540-B6A2-D0939C092476}"/>
+    <hyperlink ref="C54" r:id="rId35" display="https://aws.amazon.com/fargate/" xr:uid="{8AAC0488-BCAF-394A-B65D-1C8169C9015E}"/>
+    <hyperlink ref="C255" r:id="rId36" display="https://aws.amazon.com/firewall-manager/" xr:uid="{C1FC3FB2-6BB1-124F-AA39-0A32AEF1D03C}"/>
+    <hyperlink ref="C234" r:id="rId37" display="https://aws.amazon.com/global-accelerator" xr:uid="{94823B64-0747-B847-98EC-9C84C21B2DE2}"/>
     <hyperlink ref="C7" r:id="rId38" display="https://aws.amazon.com/glue/" xr:uid="{A2984E2F-A64C-D74C-A499-872A26B2DE44}"/>
-    <hyperlink ref="C236" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
-    <hyperlink ref="C63" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
-    <hyperlink ref="C250" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
-    <hyperlink ref="C109" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
-    <hyperlink ref="C110" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
-    <hyperlink ref="C111" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
-    <hyperlink ref="C112" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
-    <hyperlink ref="C113" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
-    <hyperlink ref="C114" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
-    <hyperlink ref="C115" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
-    <hyperlink ref="C252" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
+    <hyperlink ref="C243" r:id="rId39" display="https://aws.amazon.com/ground-station/" xr:uid="{DB86E86A-EF5B-2541-9BD8-5CDA9965E40C}"/>
+    <hyperlink ref="C64" r:id="rId40" display="https://aws.amazon.com/iq/" xr:uid="{66074B4A-E4D5-724E-AD29-24C171CEC0BA}"/>
+    <hyperlink ref="C257" r:id="rId41" display="https://aws.amazon.com/iam" xr:uid="{97081695-DB1E-424E-B0EE-79AAD8D6E1CE}"/>
+    <hyperlink ref="C110" r:id="rId42" display="https://aws.amazon.com/iot-1-click/" xr:uid="{ADC027FD-055F-9343-AF7A-479D41533208}"/>
+    <hyperlink ref="C111" r:id="rId43" display="https://aws.amazon.com/iot-analytics/" xr:uid="{6587843B-FF8F-E445-A148-97BAA80660A5}"/>
+    <hyperlink ref="C112" r:id="rId44" display="https://aws.amazon.com/iot/" xr:uid="{72ADB53E-C5C8-6E45-9DE6-006357ADBB14}"/>
+    <hyperlink ref="C113" r:id="rId45" display="https://aws.amazon.com/iot-device-defender/" xr:uid="{BC2F6460-4B6D-574A-B364-B8E0F2F6643E}"/>
+    <hyperlink ref="C114" r:id="rId46" display="https://aws.amazon.com/iot-device-management/" xr:uid="{47327A94-A7DA-D44B-8D5D-137A2C1DB78D}"/>
+    <hyperlink ref="C115" r:id="rId47" display="https://aws.amazon.com/iot-events/" xr:uid="{09A17074-F045-D045-99F3-289DE651CC4B}"/>
+    <hyperlink ref="C116" r:id="rId48" display="https://aws.amazon.com/greengrass/" xr:uid="{86C6B532-C282-AD49-84FC-E7151CC17562}"/>
+    <hyperlink ref="C259" r:id="rId49" display="https://aws.amazon.com/kms/" xr:uid="{C0A6E0DF-7D93-854D-AF8E-5B9C19B8AF02}"/>
     <hyperlink ref="C17" r:id="rId50" display="https://aws.amazon.com/lake-formation/" xr:uid="{8B1B5135-7A0D-7645-A701-475DDEBCFDA0}"/>
     <hyperlink ref="C41" r:id="rId51" display="https://aws.amazon.com/lambda/" xr:uid="{23B44498-C148-BD4C-86FE-EFAA00464E5B}"/>
-    <hyperlink ref="C163" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
-    <hyperlink ref="C65" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
-    <hyperlink ref="C228" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
-    <hyperlink ref="C168" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
-    <hyperlink ref="C166" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
-    <hyperlink ref="C167" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
-    <hyperlink ref="C169" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
+    <hyperlink ref="C164" r:id="rId52" display="https://aws.amazon.com/license-manager/" xr:uid="{A80531A2-32DF-5E46-A8A2-AD514A9E876E}"/>
+    <hyperlink ref="C66" r:id="rId53" display="https://aws.amazon.com/mp/" xr:uid="{83E81132-B5F9-A141-93D4-67826C5C6C2F}"/>
+    <hyperlink ref="C235" r:id="rId54" display="https://aws.amazon.com/network-firewall/" xr:uid="{380438F2-2136-CA48-8A93-614BD286828F}"/>
+    <hyperlink ref="C169" r:id="rId55" display="https://aws.amazon.com/opsworks/stacks/" xr:uid="{C7B2C66E-7305-8A45-B44D-ED0E58D460E7}"/>
+    <hyperlink ref="C167" r:id="rId56" display="https://aws.amazon.com/opsworks/chefautomate/" xr:uid="{44B83691-1D72-4540-A13B-BDA885E2E12D}"/>
+    <hyperlink ref="C168" r:id="rId57" display="https://aws.amazon.com/opsworks/puppetenterprise/" xr:uid="{23F41EB8-3A55-A44E-BD0D-93039495EA49}"/>
+    <hyperlink ref="C170" r:id="rId58" display="https://aws.amazon.com/organizations" xr:uid="{A3AB0BF0-AC79-A142-8708-144AD8A2BAF3}"/>
     <hyperlink ref="C43" r:id="rId59" display="https://aws.amazon.com/outposts/" xr:uid="{EC0218BA-7EA9-5F4D-8A2F-8D931B087AA0}"/>
-    <hyperlink ref="C170" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
-    <hyperlink ref="C229" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
-    <hyperlink ref="C55" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
-    <hyperlink ref="C171" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
-    <hyperlink ref="C235" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
-    <hyperlink ref="C254" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
-    <hyperlink ref="C255" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
-    <hyperlink ref="C216" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
+    <hyperlink ref="C171" r:id="rId60" display="https://aws.amazon.com/premiumsupport/phd/" xr:uid="{BC843AAF-6516-F341-B87D-0984C181B4B5}"/>
+    <hyperlink ref="C236" r:id="rId61" display="https://aws.amazon.com/privatelink/" xr:uid="{908DA648-769A-FB47-86E4-3D66FA675B1C}"/>
+    <hyperlink ref="C56" r:id="rId62" display="https://aws.amazon.com/proton/" xr:uid="{73BECBB6-D4BE-F445-97BF-0A1D62BCA194}"/>
+    <hyperlink ref="C172" r:id="rId63" display="https://aws.amazon.com/ram/" xr:uid="{F8E211FB-42AB-6848-88B7-49CC2A833913}"/>
+    <hyperlink ref="C242" r:id="rId64" display="https://aws.amazon.com/robomaker/" xr:uid="{DBD68496-4CE8-804C-B893-9CFFB849F53A}"/>
+    <hyperlink ref="C261" r:id="rId65" display="https://aws.amazon.com/secrets-manager/" xr:uid="{632A5D67-D598-184C-AB9B-96F30896117D}"/>
+    <hyperlink ref="C262" r:id="rId66" display="https://aws.amazon.com/security-hub/" xr:uid="{342A4832-F3A0-DB4D-840C-8118FD830399}"/>
+    <hyperlink ref="C223" r:id="rId67" display="https://aws.amazon.com/server-migration-service/" xr:uid="{9446514E-0CE8-EC41-A9F1-0DC1FB7ADA55}"/>
     <hyperlink ref="C44" r:id="rId68" display="https://aws.amazon.com/serverless/serverlessrepo/" xr:uid="{8F7AC4BC-9A37-EC4F-8183-7D7404D19E14}"/>
-    <hyperlink ref="C172" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
-    <hyperlink ref="C256" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
-    <hyperlink ref="C257" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
-    <hyperlink ref="C217" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
-    <hyperlink ref="C219" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
+    <hyperlink ref="C173" r:id="rId69" display="https://aws.amazon.com/servicecatalog/" xr:uid="{2D2653B1-3D13-014A-9B9C-2386E2577635}"/>
+    <hyperlink ref="C263" r:id="rId70" display="https://aws.amazon.com/shield/" xr:uid="{76E091F3-F618-A648-879F-3F09BEBFABFD}"/>
+    <hyperlink ref="C264" r:id="rId71" display="https://aws.amazon.com/single-sign-on/" xr:uid="{A8360283-DE5C-1140-A85B-F33A2D6F72B8}"/>
+    <hyperlink ref="C224" r:id="rId72" display="https://aws.amazon.com/snowball/" xr:uid="{8A7E1B57-5F26-F64E-853D-BDD63390D5E6}"/>
+    <hyperlink ref="C226" r:id="rId73" display="https://aws.amazon.com/snowmobile/" xr:uid="{62B7D92F-3C96-DA44-9F02-BCC308391061}"/>
     <hyperlink ref="C29" r:id="rId74" display="https://aws.amazon.com/step-functions/details/" xr:uid="{10824B81-0A5F-634D-84E6-9D2ADE3A6B39}"/>
-    <hyperlink ref="C268" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
-    <hyperlink ref="C67" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
-    <hyperlink ref="C189" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
-    <hyperlink ref="C220" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
-    <hyperlink ref="C231" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
-    <hyperlink ref="C190" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
-    <hyperlink ref="C233" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
-    <hyperlink ref="C258" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
-    <hyperlink ref="C191" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
-    <hyperlink ref="C101" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
-    <hyperlink ref="C221" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
+    <hyperlink ref="C275" r:id="rId75" display="https://aws.amazon.com/storagegateway/" xr:uid="{7BF17EFE-FF03-1D4A-BE9E-1FA982DA5C2A}"/>
+    <hyperlink ref="C68" r:id="rId76" display="https://aws.amazon.com/premiumsupport/" xr:uid="{A5466C95-EFB7-3944-9E29-8D19BB6E169F}"/>
+    <hyperlink ref="C190" r:id="rId77" display="https://aws.amazon.com/systems-manager/" xr:uid="{D6C17500-BE92-C444-BA4A-7116B75319D3}"/>
+    <hyperlink ref="C227" r:id="rId78" display="https://aws.amazon.com/aws-transfer-family/" xr:uid="{F0069BD4-8633-FB4B-8185-293CB3193797}"/>
+    <hyperlink ref="C238" r:id="rId79" display="https://aws.amazon.com/transit-gateway/" xr:uid="{2C10B2F7-EEE3-3444-A855-B387D48706EA}"/>
+    <hyperlink ref="C191" r:id="rId80" display="https://aws.amazon.com/premiumsupport/trustedadvisor/" xr:uid="{436ECB3D-7EFE-764A-B2E3-3CF79C97B742}"/>
+    <hyperlink ref="C240" r:id="rId81" display="https://aws.amazon.com/vpn/" xr:uid="{5F2B553B-98BD-8D4B-849C-55A6F659C6B1}"/>
+    <hyperlink ref="C265" r:id="rId82" display="https://aws.amazon.com/waf/" xr:uid="{CF739D06-0B1B-6B46-91CF-6EE57FF09613}"/>
+    <hyperlink ref="C192" r:id="rId83" display="https://aws.amazon.com/well-architected-tool" xr:uid="{81A34672-555C-B74A-9D7B-58590B7D3C75}"/>
+    <hyperlink ref="C102" r:id="rId84" display="https://aws.amazon.com/xray/" xr:uid="{91A2B229-E348-8B4C-AF47-A5192DE45AEC}"/>
+    <hyperlink ref="C228" r:id="rId85" display="https://aws.amazon.com/api-gateway/" xr:uid="{81259B3E-1AB3-F64C-B232-9643470BBB0C}"/>
     <hyperlink ref="C21" r:id="rId86" display="https://aws.amazon.com/appflow/" xr:uid="{C427BFEE-537C-9B4C-B5FD-EF94DAB3195F}"/>
     <hyperlink ref="C2" r:id="rId87" display="https://aws.amazon.com/athena/" xr:uid="{8CA6E242-2CF4-E843-A8CA-4391EDA4CB08}"/>
-    <hyperlink ref="C119" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
-    <hyperlink ref="C72" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
+    <hyperlink ref="C120" r:id="rId88" display="https://aws.amazon.com/augmented-ai/" xr:uid="{9B0A35B8-349D-874F-B406-0C378A70E4A7}"/>
+    <hyperlink ref="C73" r:id="rId89" display="https://aws.amazon.com/rds/aurora/" xr:uid="{5BA37BE5-5EFA-D640-9340-68572A5C8B0A}"/>
     <hyperlink ref="C33" r:id="rId90" display="https://chime.aws/" xr:uid="{08A22D72-3716-8743-A4B8-3002293D3436}"/>
-    <hyperlink ref="C240" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
-    <hyperlink ref="C224" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
-    <hyperlink ref="C158" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
-    <hyperlink ref="C90" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
-    <hyperlink ref="C242" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
-    <hyperlink ref="C120" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
-    <hyperlink ref="C121" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
-    <hyperlink ref="C243" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
-    <hyperlink ref="C126" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
-    <hyperlink ref="C73" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
-    <hyperlink ref="C74" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
-    <hyperlink ref="C75" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
-    <hyperlink ref="C260" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
+    <hyperlink ref="C247" r:id="rId91" display="https://aws.amazon.com/cloud-directory/" xr:uid="{E41D133C-BA4E-4642-BA6F-656788DBC830}"/>
+    <hyperlink ref="C231" r:id="rId92" display="https://aws.amazon.com/cloudfront/" xr:uid="{8065D5C6-B564-A941-80CC-5D6C65B3D725}"/>
+    <hyperlink ref="C159" r:id="rId93" display="https://aws.amazon.com/cloudwatch/" xr:uid="{52B01F49-5EAB-E540-BA38-BEED42EB43F4}"/>
+    <hyperlink ref="C91" r:id="rId94" display="https://aws.amazon.com/codeguru/" xr:uid="{D5D1E2B5-ED1C-0D45-BCD8-07A6431E8C14}"/>
+    <hyperlink ref="C249" r:id="rId95" display="https://aws.amazon.com/cognito/" xr:uid="{5631285D-2790-B940-99E8-7A2AFBF2A4F8}"/>
+    <hyperlink ref="C121" r:id="rId96" display="https://aws.amazon.com/comprehend/" xr:uid="{EF9B7DCD-AAB7-C840-B56B-6901E4208F3C}"/>
+    <hyperlink ref="C122" r:id="rId97" display="https://aws.amazon.com/comprehend/medical/" xr:uid="{E755C2E6-BB69-1547-AEEA-159FA230C6E0}"/>
+    <hyperlink ref="C250" r:id="rId98" display="https://aws.amazon.com/detective/" xr:uid="{4F6306C8-7E6E-B543-8987-505512DF8B38}"/>
+    <hyperlink ref="C127" r:id="rId99" display="https://aws.amazon.com/devops-guru/" xr:uid="{0DE3687A-6EED-D846-93EF-2FF3EDCA2FE7}"/>
+    <hyperlink ref="C74" r:id="rId100" display="https://aws.amazon.com/documentdb/" xr:uid="{E9BE873B-93B3-744C-82A3-AE676C942786}"/>
+    <hyperlink ref="C75" r:id="rId101" display="https://aws.amazon.com/dynamodb/" xr:uid="{667C0B17-E586-7843-9ABA-2156F328D1C2}"/>
+    <hyperlink ref="C76" r:id="rId102" display="https://aws.amazon.com/elasticache/" xr:uid="{0D3B6893-EB9F-F441-97F2-EAE3A531E741}"/>
+    <hyperlink ref="C267" r:id="rId103" display="https://aws.amazon.com/ebs/" xr:uid="{6475A1BA-F9EA-3643-A91C-960971815276}"/>
     <hyperlink ref="C38" r:id="rId104" xr:uid="{F6BE2D25-6B4D-D545-BEF5-6353621F7D77}"/>
-    <hyperlink ref="C50" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
-    <hyperlink ref="C51" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
-    <hyperlink ref="C261" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
-    <hyperlink ref="C127" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
-    <hyperlink ref="C52" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
+    <hyperlink ref="C51" r:id="rId105" display="https://aws.amazon.com/ecr/" xr:uid="{4DB8575D-FD4E-F24B-9A6D-4B237DEB4216}"/>
+    <hyperlink ref="C52" r:id="rId106" display="https://aws.amazon.com/ecs/" xr:uid="{2A857716-DB7F-4D4C-9C3A-923E359FCE4B}"/>
+    <hyperlink ref="C268" r:id="rId107" display="https://aws.amazon.com/efs/" xr:uid="{17293663-847A-2945-BEEE-DB5C14186604}"/>
+    <hyperlink ref="C128" r:id="rId108" display="https://aws.amazon.com/elastic-inference/" xr:uid="{D7F32AC2-662A-044F-8D07-6056298BD732}"/>
+    <hyperlink ref="C53" r:id="rId109" display="https://aws.amazon.com/eks" xr:uid="{8EA95DB8-FAF6-354A-8701-9BC26B99AF7A}"/>
     <hyperlink ref="C4" r:id="rId110" display="https://aws.amazon.com/emr/" xr:uid="{45F7CBE2-565C-A24D-A38F-B3A8800D8B65}"/>
     <hyperlink ref="C5" r:id="rId111" display="https://aws.amazon.com/elasticsearch-service/" xr:uid="{6AF99F4A-A394-8249-8B46-B05EDE624400}"/>
     <hyperlink ref="C23" r:id="rId112" display="https://aws.amazon.com/eventbridge/" xr:uid="{66CE333B-4CBB-9246-B3B7-51C615E2BFF5}"/>
-    <hyperlink ref="C263" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
-    <hyperlink ref="C264" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
-    <hyperlink ref="C128" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
-    <hyperlink ref="C129" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
-    <hyperlink ref="C105" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
-    <hyperlink ref="C249" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
-    <hyperlink ref="C251" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
-    <hyperlink ref="C76" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
+    <hyperlink ref="C270" r:id="rId113" display="https://aws.amazon.com/fsx/lustre/" xr:uid="{723E4B6B-4225-F149-A1D1-0C9ED96BB728}"/>
+    <hyperlink ref="C271" r:id="rId114" display="https://aws.amazon.com/fsx/windows/" xr:uid="{1B6B9E68-B13B-3B45-B1A5-A8F3F5BDE985}"/>
+    <hyperlink ref="C129" r:id="rId115" display="https://aws.amazon.com/forecast/" xr:uid="{1F07E3AD-D0E3-4442-9220-92E85E3DF861}"/>
+    <hyperlink ref="C130" r:id="rId116" display="https://aws.amazon.com/fraud-detector/" xr:uid="{A16ABA87-0E9D-1749-BE3E-718E7599E24B}"/>
+    <hyperlink ref="C106" r:id="rId117" display="https://aws.amazon.com/gamelift/" xr:uid="{ABE766D8-2E8B-B341-9103-F503839AC514}"/>
+    <hyperlink ref="C256" r:id="rId118" display="https://aws.amazon.com/guardduty/" xr:uid="{D1B6E14A-AD6C-E844-9AD0-215698F4E3BE}"/>
+    <hyperlink ref="C258" r:id="rId119" display="https://aws.amazon.com/inspector/" xr:uid="{176BE9A8-3FF5-874F-8EFA-6BB4665C2F33}"/>
+    <hyperlink ref="C77" r:id="rId120" display="https://aws.amazon.com/keyspaces/" xr:uid="{08537BC8-9E18-E341-B811-B357F4073FF5}"/>
     <hyperlink ref="C14" r:id="rId121" display="https://aws.amazon.com/kinesis/analytics/" xr:uid="{55091A39-96DB-9A41-B453-9AB88556B85B}"/>
     <hyperlink ref="C15" r:id="rId122" display="https://aws.amazon.com/kinesis/firehose/" xr:uid="{AB91BD64-7EBD-8A40-89D5-415AC999E5A7}"/>
     <hyperlink ref="C16" r:id="rId123" display="https://aws.amazon.com/kinesis/streams/" xr:uid="{683B50F9-C9B3-9046-A380-EAD32C0551EC}"/>
-    <hyperlink ref="C205" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
+    <hyperlink ref="C206" r:id="rId124" display="https://aws.amazon.com/kinesis/video-streams/" xr:uid="{92727233-FF93-4048-90C3-EB7CFF6B76A0}"/>
     <hyperlink ref="C42" r:id="rId125" display="https://amazonlightsail.com/" xr:uid="{5C26023E-C913-634E-BBA9-96985AD232E5}"/>
-    <hyperlink ref="C98" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
-    <hyperlink ref="C131" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
-    <hyperlink ref="C106" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
+    <hyperlink ref="C99" r:id="rId126" display="https://aws.amazon.com/location" xr:uid="{3A5DA1F4-704B-4A4F-B42A-0132FA3F769F}"/>
+    <hyperlink ref="C132" r:id="rId127" display="https://aws.amazon.com/lookout-for-vision/" xr:uid="{56891F15-488A-2D4F-957F-9C19DBC09E8C}"/>
+    <hyperlink ref="C107" r:id="rId128" display="https://aws.amazon.com/lumberyard/" xr:uid="{0793FA7F-F861-E448-B351-2625AB793E29}"/>
     <hyperlink ref="C25" r:id="rId129" display="https://aws.amazon.com/amazon-mq/" xr:uid="{8F7E8190-F83B-7E45-9B55-465E1F7C79F3}"/>
-    <hyperlink ref="C253" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
+    <hyperlink ref="C260" r:id="rId130" display="https://aws.amazon.com/macie/" xr:uid="{0A9A9C7B-64FF-4944-8B73-82D7A54412E2}"/>
     <hyperlink ref="C18" r:id="rId131" display="https://aws.amazon.com/msk/" xr:uid="{46024F01-6B35-0740-B92F-18BA0D596F3D}"/>
     <hyperlink ref="C24" r:id="rId132" display="https://aws.amazon.com/managed-workflows-for-apache-airflow/" xr:uid="{E7D50CE9-B395-AE40-B3BD-7B31072C139C}"/>
-    <hyperlink ref="C77" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
-    <hyperlink ref="C133" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
-    <hyperlink ref="C134" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
-    <hyperlink ref="C78" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
+    <hyperlink ref="C78" r:id="rId133" display="https://aws.amazon.com/neptune/" xr:uid="{35EB7CA9-2F10-7E4E-9B05-D1C561AFFA79}"/>
+    <hyperlink ref="C134" r:id="rId134" display="https://aws.amazon.com/personalize/" xr:uid="{F1130D50-7EEE-8441-87AC-E48D5971C615}"/>
+    <hyperlink ref="C135" r:id="rId135" display="https://aws.amazon.com/polly/" xr:uid="{8F307293-7304-3046-AD9B-0CD5031F0E44}"/>
+    <hyperlink ref="C79" r:id="rId136" display="https://aws.amazon.com/qldb/" xr:uid="{2B8E2EAE-162D-EC46-B1CB-A6147249DD22}"/>
     <hyperlink ref="C19" r:id="rId137" display="https://aws.amazon.com/quicksight/" xr:uid="{F27D6948-59C0-D243-94F0-696D4BC6ED9E}"/>
     <hyperlink ref="C20" r:id="rId138" display="https://aws.amazon.com/redshift/" xr:uid="{BD068AB5-9542-BA4D-9D2D-3E01553833FF}"/>
-    <hyperlink ref="C135" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
-    <hyperlink ref="C80" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
-    <hyperlink ref="C230" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
-    <hyperlink ref="C136" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
-    <hyperlink ref="C71" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
+    <hyperlink ref="C136" r:id="rId139" display="https://aws.amazon.com/rekognition/" xr:uid="{06B644B6-712E-EB4F-BDC1-2826A6E207A2}"/>
+    <hyperlink ref="C81" r:id="rId140" display="https://aws.amazon.com/rds/" xr:uid="{52A384FE-5551-524F-8BE4-640C39EE59DB}"/>
+    <hyperlink ref="C237" r:id="rId141" display="https://aws.amazon.com/route53/" xr:uid="{2B9EF04D-DB6D-9948-8F0B-1F85D1FFA02C}"/>
+    <hyperlink ref="C137" r:id="rId142" display="https://aws.amazon.com/sagemaker/" xr:uid="{FF819C8F-B472-6A4D-BF36-8803B10C8D16}"/>
+    <hyperlink ref="C72" r:id="rId143" display="https://aws.amazon.com/ses/" xr:uid="{708BC6D8-3F72-374C-AB65-9002B2EB5C60}"/>
     <hyperlink ref="C26" r:id="rId144" display="https://aws.amazon.com/sns/" xr:uid="{2A7374BD-4C80-7C42-9E56-E3671DF3D17F}"/>
     <hyperlink ref="C27" r:id="rId145" display="https://aws.amazon.com/sqs/" xr:uid="{7EC87AB6-C5A3-0F4B-915C-BD9EF4201FD5}"/>
-    <hyperlink ref="C267" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
+    <hyperlink ref="C274" r:id="rId146" display="https://aws.amazon.com/s3/" xr:uid="{CD425C97-24D5-9747-8B23-DF9DD7A486F9}"/>
     <hyperlink ref="C28" r:id="rId147" display="https://aws.amazon.com/swf/" xr:uid="{631F304E-E46F-644E-8407-57836778A272}"/>
-    <hyperlink ref="C107" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
-    <hyperlink ref="C150" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
-    <hyperlink ref="C81" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
-    <hyperlink ref="C151" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
-    <hyperlink ref="C152" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
-    <hyperlink ref="C153" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
-    <hyperlink ref="C232" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
-    <hyperlink ref="C103" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
-    <hyperlink ref="C259" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
-    <hyperlink ref="C208" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
-    <hyperlink ref="C226" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
-    <hyperlink ref="C108" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
+    <hyperlink ref="C108" r:id="rId148" display="https://aws.amazon.com/sumerian/" xr:uid="{1F8D41FC-B82F-8C44-A79F-AA91C3811E29}"/>
+    <hyperlink ref="C151" r:id="rId149" display="https://aws.amazon.com/textract" xr:uid="{E50E8082-94C1-7947-963B-3A384A890F42}"/>
+    <hyperlink ref="C82" r:id="rId150" display="https://aws.amazon.com/timestream" xr:uid="{9C058FBD-47D6-324E-B7AC-2A5C552E471E}"/>
+    <hyperlink ref="C152" r:id="rId151" display="https://aws.amazon.com/transcribe/" xr:uid="{7391FC88-BBA3-5846-9CA8-5612809D5D1E}"/>
+    <hyperlink ref="C153" r:id="rId152" display="https://aws.amazon.com/transcribe/medical/" xr:uid="{5D3CF2D8-5264-E342-A8E8-E042131AE7AF}"/>
+    <hyperlink ref="C154" r:id="rId153" display="https://aws.amazon.com/translate/" xr:uid="{D94B1850-F477-024B-8A15-72298FF44F81}"/>
+    <hyperlink ref="C239" r:id="rId154" display="https://aws.amazon.com/vpc/" xr:uid="{81704202-B35B-314F-9611-62D10520486C}"/>
+    <hyperlink ref="C104" r:id="rId155" display="https://aws.amazon.com/worklink/" xr:uid="{A564F6A5-A25E-984E-AB0E-10859F299F79}"/>
+    <hyperlink ref="C266" r:id="rId156" display="https://aws.amazon.com/cloudendure-disaster-recovery/" xr:uid="{19E2670B-B70B-2246-875A-A798E313AD4C}"/>
+    <hyperlink ref="C215" r:id="rId157" display="https://aws.amazon.com/cloudendure-migration/" xr:uid="{3011454A-BA14-2640-A5B0-1665DE5015EB}"/>
+    <hyperlink ref="C233" r:id="rId158" display="https://aws.amazon.com/elasticloadbalancing/" xr:uid="{48C41A56-7B49-954B-8607-BA52CE86305D}"/>
+    <hyperlink ref="C109" r:id="rId159" display="https://aws.amazon.com/freertos/" xr:uid="{9A951967-4675-1546-8716-0568BF98D1CE}"/>
     <hyperlink ref="C45" r:id="rId160" display="https://aws.amazon.com/vmware/" xr:uid="{1D088AE8-27BE-C042-AB38-9D218A238493}"/>
     <hyperlink ref="C40" r:id="rId161" display="https://aws.amazon.com/ec2/" xr:uid="{A67A7092-80C0-9A4E-A55B-97FA160377E8}"/>
-    <hyperlink ref="C265" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
-    <hyperlink ref="C95" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
+    <hyperlink ref="C272" r:id="rId162" xr:uid="{9237F063-BA80-DC44-882A-D4F7F6FD5EE9}"/>
+    <hyperlink ref="C96" r:id="rId163" xr:uid="{75CD952A-625F-DE4E-B2D6-41E51DC1F7E3}"/>
     <hyperlink ref="C30" r:id="rId164" xr:uid="{49E4FD14-55A4-2E46-8EFF-5EF1766DCF38}"/>
-    <hyperlink ref="C218" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
-    <hyperlink ref="C70" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
-    <hyperlink ref="C69" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
+    <hyperlink ref="C225" r:id="rId165" xr:uid="{7054BAB5-94B7-0C4D-A749-E850E72E4B65}"/>
+    <hyperlink ref="C71" r:id="rId166" xr:uid="{AD71ACB3-ABC2-514F-A36F-2373C95B6534}"/>
+    <hyperlink ref="C70" r:id="rId167" xr:uid="{BD82E153-E205-2541-8061-196FC264C5B0}"/>
     <hyperlink ref="C6" r:id="rId168" xr:uid="{A6E6DBD8-12FD-894D-842E-E5DA02E3DBF4}"/>
     <hyperlink ref="C9" r:id="rId169" xr:uid="{3BA957C8-CD3E-8248-A27A-F3A9F071F7E4}"/>
     <hyperlink ref="C3" r:id="rId170" xr:uid="{1AF55A29-37E6-4C43-AA7B-0619293C9418}"/>
-    <hyperlink ref="C97" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
-    <hyperlink ref="C94" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
-    <hyperlink ref="C56" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
+    <hyperlink ref="C98" r:id="rId171" xr:uid="{65854783-F9AA-2D48-AD7A-DAC4D0360562}"/>
+    <hyperlink ref="C95" r:id="rId172" xr:uid="{284D93AA-4E06-6040-8A42-498B60D37169}"/>
+    <hyperlink ref="C57" r:id="rId173" xr:uid="{CF2FB579-0557-624C-A7C6-38DFC77125E0}"/>
     <hyperlink ref="C48" r:id="rId174" xr:uid="{161791FF-9796-5D41-9399-C5CC0A52B777}"/>
     <hyperlink ref="C46" r:id="rId175" xr:uid="{005354BD-081E-9E46-8937-381CB8592473}"/>
-    <hyperlink ref="C49" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
-    <hyperlink ref="C164" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
-    <hyperlink ref="C262" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
-    <hyperlink ref="C85" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
-    <hyperlink ref="C83" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
-    <hyperlink ref="C100" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
-    <hyperlink ref="C93" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
-    <hyperlink ref="C139" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
-    <hyperlink ref="C140" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
-    <hyperlink ref="C144" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
-    <hyperlink ref="C145" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
-    <hyperlink ref="C146" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
-    <hyperlink ref="C147" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
-    <hyperlink ref="C148" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
-    <hyperlink ref="C138" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
-    <hyperlink ref="C149" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
-    <hyperlink ref="C137" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
-    <hyperlink ref="C141" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
-    <hyperlink ref="C142" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
-    <hyperlink ref="C132" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
-    <hyperlink ref="C173" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
-    <hyperlink ref="C184" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
-    <hyperlink ref="C174" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
-    <hyperlink ref="C176" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
-    <hyperlink ref="C175" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
-    <hyperlink ref="C182" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
-    <hyperlink ref="C180" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
-    <hyperlink ref="C177" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
-    <hyperlink ref="C181" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
-    <hyperlink ref="C186" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
-    <hyperlink ref="C187" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
-    <hyperlink ref="C188" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
-    <hyperlink ref="C185" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
-    <hyperlink ref="C178" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
-    <hyperlink ref="C183" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
-    <hyperlink ref="C179" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
-    <hyperlink ref="C266" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
-    <hyperlink ref="C143" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
-    <hyperlink ref="C122" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
-    <hyperlink ref="C123" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
-    <hyperlink ref="C124" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
-    <hyperlink ref="C125" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
-    <hyperlink ref="C210" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
+    <hyperlink ref="C50" r:id="rId176" xr:uid="{1CFA07FC-268F-C84D-B8E8-D13B2E092826}"/>
+    <hyperlink ref="C165" r:id="rId177" xr:uid="{667DCA05-C10B-394B-ADBD-C91C39C8EFA9}"/>
+    <hyperlink ref="C269" r:id="rId178" xr:uid="{19712BF9-B0E9-FC4A-855C-37C622207421}"/>
+    <hyperlink ref="C86" r:id="rId179" xr:uid="{532F9FAB-7588-934A-BECA-94DB57B3EA86}"/>
+    <hyperlink ref="C84" r:id="rId180" xr:uid="{03EA6A9E-9AED-E449-AEAE-E07C9D687ADF}"/>
+    <hyperlink ref="C101" r:id="rId181" xr:uid="{1A9B8E63-391D-0446-8004-324356B6D2C7}"/>
+    <hyperlink ref="C94" r:id="rId182" xr:uid="{D75707AD-F5F7-3548-84AF-E5C1BF57FF52}"/>
+    <hyperlink ref="C140" r:id="rId183" xr:uid="{90119A2D-8816-4C42-9A55-374991BC4E87}"/>
+    <hyperlink ref="C141" r:id="rId184" xr:uid="{CEABA1E7-2899-F04D-BD6D-ED96CD9046F5}"/>
+    <hyperlink ref="C145" r:id="rId185" xr:uid="{749E98B1-AEE6-7941-980C-8181E99A3D90}"/>
+    <hyperlink ref="C146" r:id="rId186" xr:uid="{A17C9372-FDAE-394E-9459-9D94976C283F}"/>
+    <hyperlink ref="C147" r:id="rId187" xr:uid="{29ADB2F7-F1BD-EA44-B4ED-EA881E48115D}"/>
+    <hyperlink ref="C148" r:id="rId188" xr:uid="{23D88EB1-54FB-5241-B58D-8DF71DA770BD}"/>
+    <hyperlink ref="C149" r:id="rId189" xr:uid="{FCEB0F17-6CED-E248-80B6-327E6AB92FA6}"/>
+    <hyperlink ref="C139" r:id="rId190" xr:uid="{0DF5FC7F-490C-7441-A762-E8B3E49758A0}"/>
+    <hyperlink ref="C150" r:id="rId191" xr:uid="{659782CC-853B-8944-B7EA-9CF7FC65A9C9}"/>
+    <hyperlink ref="C138" r:id="rId192" xr:uid="{9E1D2DC2-5A45-7D44-95AF-765ACB09C728}"/>
+    <hyperlink ref="C142" r:id="rId193" xr:uid="{534A3538-6476-C049-B1F4-C7F42A4A0CE2}"/>
+    <hyperlink ref="C143" r:id="rId194" xr:uid="{AD37C4EC-6AA6-7445-886F-F12B10EC4962}"/>
+    <hyperlink ref="C133" r:id="rId195" xr:uid="{32D673E8-4729-054A-941B-0538347DFE6B}"/>
+    <hyperlink ref="C174" r:id="rId196" display="AppConfig" xr:uid="{D7D5BCB4-B018-9449-8DE4-7BAC0B834A94}"/>
+    <hyperlink ref="C185" r:id="rId197" xr:uid="{6C997D60-3DAC-C54C-A365-6925F32D808B}"/>
+    <hyperlink ref="C175" r:id="rId198" xr:uid="{704C5761-85F7-8840-90D5-B9C68A5711E5}"/>
+    <hyperlink ref="C177" r:id="rId199" xr:uid="{0AE4E9A5-C51C-054C-8C1C-DFC93B7DE436}"/>
+    <hyperlink ref="C176" r:id="rId200" xr:uid="{D396B2A5-863A-0A4F-886E-AC0425111A74}"/>
+    <hyperlink ref="C183" r:id="rId201" xr:uid="{154E52D7-25A2-7B48-861E-130AEFF52429}"/>
+    <hyperlink ref="C181" r:id="rId202" xr:uid="{B55B16FC-FF18-784A-A974-098400EB5613}"/>
+    <hyperlink ref="C178" r:id="rId203" xr:uid="{2E1084D5-EB92-104E-9B36-C1C783851CEE}"/>
+    <hyperlink ref="C182" r:id="rId204" xr:uid="{CE1FE151-6237-2B48-BAA5-A0485476B07E}"/>
+    <hyperlink ref="C187" r:id="rId205" xr:uid="{8B651CA8-4121-954F-A1FD-E2ABDAE2711A}"/>
+    <hyperlink ref="C188" r:id="rId206" xr:uid="{73E53697-EA4F-5D44-BABF-E4DDE08A2949}"/>
+    <hyperlink ref="C189" r:id="rId207" xr:uid="{1F5BA02E-7700-F84C-896F-C3320A138F8C}"/>
+    <hyperlink ref="C186" r:id="rId208" xr:uid="{965DAB0C-1533-9C43-9931-A81FDFEE4801}"/>
+    <hyperlink ref="C179" r:id="rId209" xr:uid="{D7F493BC-3996-E14D-8B4E-AF698AF15CF3}"/>
+    <hyperlink ref="C184" r:id="rId210" xr:uid="{158C22B5-B282-0E45-819B-E1F6D3588EB5}"/>
+    <hyperlink ref="C180" r:id="rId211" xr:uid="{060EF427-1526-CB41-B8B7-D967487671FE}"/>
+    <hyperlink ref="C273" r:id="rId212" display="S3 Glacier" xr:uid="{69E65928-2461-9D41-874A-E2DD597C93F4}"/>
+    <hyperlink ref="C144" r:id="rId213" xr:uid="{985BD89A-8A6D-3646-8654-90328345A506}"/>
+    <hyperlink ref="C123" r:id="rId214" xr:uid="{590CE714-967E-A245-B8FF-739BCA3B026A}"/>
+    <hyperlink ref="C124" r:id="rId215" xr:uid="{1D9605EA-560D-C04A-9C84-34D242F7CD14}"/>
+    <hyperlink ref="C125" r:id="rId216" xr:uid="{16002AA9-2EA1-E344-8204-E762411450D2}"/>
+    <hyperlink ref="C126" r:id="rId217" xr:uid="{A4BCE370-7F9E-AD48-8C7A-1D6984474130}"/>
+    <hyperlink ref="C217" r:id="rId218" xr:uid="{8AB16A6A-B47A-404E-B8D0-B5341D99BBA0}"/>
     <hyperlink ref="C31" r:id="rId219" xr:uid="{B76C300C-E4E2-7849-9BD6-6C37B6A3A3E9}"/>
     <hyperlink ref="C34" r:id="rId220" xr:uid="{94ED9A38-CC0B-6547-A3F8-0E1E5184307C}"/>
     <hyperlink ref="C35" r:id="rId221" xr:uid="{484C0088-17D4-5E46-9E7E-4B7D0CADC15E}"/>
     <hyperlink ref="C36" r:id="rId222" xr:uid="{AD3D4FE9-D4D4-D34A-8BFC-469E359937BD}"/>
-    <hyperlink ref="C234" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
-    <hyperlink ref="C214" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
-    <hyperlink ref="C215" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
-    <hyperlink ref="C58" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
-    <hyperlink ref="C59" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
-    <hyperlink ref="C60" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
-    <hyperlink ref="C61" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
-    <hyperlink ref="C116" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
-    <hyperlink ref="C117" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
-    <hyperlink ref="C118" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
-    <hyperlink ref="C54" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
-    <hyperlink ref="C245" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
-    <hyperlink ref="C247" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
-    <hyperlink ref="C246" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
-    <hyperlink ref="C165" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
-    <hyperlink ref="C96" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
-    <hyperlink ref="C130" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
-    <hyperlink ref="C213" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
-    <hyperlink ref="C79" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
-    <hyperlink ref="C64" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
-    <hyperlink ref="C66" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
-    <hyperlink ref="C68" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
-    <hyperlink ref="C62" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
+    <hyperlink ref="C241" r:id="rId223" xr:uid="{1A1FF780-D417-4E48-8B89-324891ACD5EB}"/>
+    <hyperlink ref="C221" r:id="rId224" xr:uid="{A55A32E4-E04D-3D4E-B771-FF5015CDE5FC}"/>
+    <hyperlink ref="C222" r:id="rId225" xr:uid="{470F8C84-D502-374E-8550-CF45C7EE93CD}"/>
+    <hyperlink ref="C59" r:id="rId226" xr:uid="{14B6B46E-839F-BF4A-B271-B234D8C79A65}"/>
+    <hyperlink ref="C60" r:id="rId227" xr:uid="{831473DF-5435-A34B-AD2F-B228DE3531C9}"/>
+    <hyperlink ref="C61" r:id="rId228" location="/" xr:uid="{E971A21E-CC8D-5648-B51E-E10B69902AA4}"/>
+    <hyperlink ref="C62" r:id="rId229" xr:uid="{68226597-A33D-864B-8DAB-1237CA82E68F}"/>
+    <hyperlink ref="C117" r:id="rId230" xr:uid="{B67454DA-4CFC-2946-BE74-9FCF57868C06}"/>
+    <hyperlink ref="C118" r:id="rId231" xr:uid="{40FD60AC-B589-0B4B-AB36-1989E529CD39}"/>
+    <hyperlink ref="C119" r:id="rId232" xr:uid="{56F27AA2-5183-E94B-ACC4-73885A21F096}"/>
+    <hyperlink ref="C55" r:id="rId233" display="Managed Service for Prometheus" xr:uid="{15FBF981-0EC3-6343-ACAF-575D9CF01C72}"/>
+    <hyperlink ref="C252" r:id="rId234" display="Directory Service AD Connector" xr:uid="{CE8FDA92-983D-F241-9A3C-214FB6ED4987}"/>
+    <hyperlink ref="C254" r:id="rId235" display="Directory Service Simple AD" xr:uid="{BDF803C1-C55F-7B4E-B548-FB056C33B7F8}"/>
+    <hyperlink ref="C253" r:id="rId236" display="Directory Service Managed Microsoft AD" xr:uid="{A2682350-698B-164E-854C-B72B425BF114}"/>
+    <hyperlink ref="C166" r:id="rId237" xr:uid="{51AE8255-80F9-1246-AF04-CAD49D7BD8ED}"/>
+    <hyperlink ref="C97" r:id="rId238" xr:uid="{F72E5D13-7F9C-A74A-B15B-60DA5CBC35BF}"/>
+    <hyperlink ref="C131" r:id="rId239" xr:uid="{A021BA43-B246-CF41-8A4E-1E391CD06D94}"/>
+    <hyperlink ref="C220" r:id="rId240" xr:uid="{66C98670-091A-A841-9473-A308D3D03C92}"/>
+    <hyperlink ref="C80" r:id="rId241" xr:uid="{A18DAD6F-3F0D-2F41-8ECF-C20C2E59C987}"/>
+    <hyperlink ref="C65" r:id="rId242" xr:uid="{BB9AA509-E09D-604B-9392-FAF5D5E1155F}"/>
+    <hyperlink ref="C67" r:id="rId243" xr:uid="{2260673B-2C63-EA41-A726-76787E04ADC6}"/>
+    <hyperlink ref="C69" r:id="rId244" xr:uid="{7704FF41-BE8D-B749-A3CD-9F84182331A5}"/>
+    <hyperlink ref="C63" r:id="rId245" xr:uid="{73B13CC7-A8ED-0E42-AF5E-170EA93381CA}"/>
     <hyperlink ref="C10" r:id="rId246" xr:uid="{666E9BB7-4380-324A-B6C1-29F29C3FE1C0}"/>
     <hyperlink ref="C12" r:id="rId247" xr:uid="{E5C74CD9-B0F4-B643-B5C5-C17DE12B91CA}"/>
     <hyperlink ref="C8" r:id="rId248" xr:uid="{F4DFDDD1-B34C-4B4D-BCC8-3F72037E5C85}"/>
     <hyperlink ref="C13" r:id="rId249" xr:uid="{83DFEBC3-E8B1-A840-9964-33EB0A44BF40}"/>
     <hyperlink ref="C11" r:id="rId250" xr:uid="{27A3B616-FD7B-514A-B8BE-D948ED83FC6A}"/>
-    <hyperlink ref="C206" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
-    <hyperlink ref="C201" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
-    <hyperlink ref="C202" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
-    <hyperlink ref="C200" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
-    <hyperlink ref="C193" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
-    <hyperlink ref="C194" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
-    <hyperlink ref="C196" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
-    <hyperlink ref="C203" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
-    <hyperlink ref="C192" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
-    <hyperlink ref="C204" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
-    <hyperlink ref="C195" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
-    <hyperlink ref="C99" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
-    <hyperlink ref="C162" r:id="rId263" xr:uid="{98ADDE2A-ABDD-EB4A-8EBE-C43795A8F20B}"/>
+    <hyperlink ref="C207" r:id="rId251" xr:uid="{134B5D93-8F9E-1A42-8A9E-4E0085135FD2}"/>
+    <hyperlink ref="C202" r:id="rId252" xr:uid="{705303B4-CB6D-D341-99C3-B418AED6111E}"/>
+    <hyperlink ref="C203" r:id="rId253" xr:uid="{929D3CEF-2347-054E-AAB9-97BA63678E88}"/>
+    <hyperlink ref="C201" r:id="rId254" xr:uid="{18DFC23B-D8CF-664F-A27D-285F1D736B19}"/>
+    <hyperlink ref="C194" r:id="rId255" xr:uid="{51486E41-53D6-7944-B9CA-AE136AD869CF}"/>
+    <hyperlink ref="C195" r:id="rId256" xr:uid="{54539032-2AD1-AF48-A0D7-EA1CBAAE68E7}"/>
+    <hyperlink ref="C197" r:id="rId257" xr:uid="{D9B0B2CA-86A7-954B-B0BE-2A10B768C199}"/>
+    <hyperlink ref="C204" r:id="rId258" xr:uid="{D3E6FCB5-DDCB-CC4A-8B97-DAF02EFEBAC2}"/>
+    <hyperlink ref="C193" r:id="rId259" xr:uid="{4C08CBB6-3E9B-524D-A92A-28DF7EBE8F6E}"/>
+    <hyperlink ref="C205" r:id="rId260" xr:uid="{46CEB576-1991-6A4C-9819-8C32AAD5A3F1}"/>
+    <hyperlink ref="C196" r:id="rId261" xr:uid="{98567FEC-ACF3-D64E-8831-23F0AF44FDF4}"/>
+    <hyperlink ref="C100" r:id="rId262" xr:uid="{CBE97B7F-03A3-3B47-A836-0FDA32E32458}"/>
+    <hyperlink ref="C163" r:id="rId263" xr:uid="{98ADDE2A-ABDD-EB4A-8EBE-C43795A8F20B}"/>
     <hyperlink ref="C47" r:id="rId264" xr:uid="{FE878825-B0CA-394C-95F4-6879C16270CC}"/>
-    <hyperlink ref="C207" r:id="rId265" xr:uid="{8AF37CA7-BEF8-0E46-AFB3-906542482AD8}"/>
+    <hyperlink ref="C214" r:id="rId265" xr:uid="{8AF37CA7-BEF8-0E46-AFB3-906542482AD8}"/>
+    <hyperlink ref="C49" r:id="rId266" xr:uid="{E1C253C0-789F-454D-B650-AD9042907E63}"/>
+    <hyperlink ref="C208" r:id="rId267" xr:uid="{9D564718-2FE7-3448-AD3C-AAF79FF31E5C}"/>
+    <hyperlink ref="C210" r:id="rId268" xr:uid="{A196A362-95A2-B841-8B36-8DB86E6BB01F}"/>
+    <hyperlink ref="C209" r:id="rId269" xr:uid="{7D48E632-B0D9-FA4A-87EB-84A674C74042}"/>
+    <hyperlink ref="C211" r:id="rId270" xr:uid="{3B6EA2BE-9E87-CD43-BD86-90EF411A17C9}"/>
+    <hyperlink ref="C212" r:id="rId271" xr:uid="{BE5AE3F2-6AF4-FB45-A4C7-58EE1FA83493}"/>
+    <hyperlink ref="C213" r:id="rId272" xr:uid="{9F9A6701-301A-8946-8181-9D1074CEB3F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/aws-services-crib-sheet.xlsx
+++ b/aws-services-crib-sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbuno/WorkDocs/courses/aws-services-crib-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FD9522-35D7-9948-98A2-23A929B4D404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8462FA-C0ED-BB43-AE1F-E0E1F3AB8BF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22100" yWindow="-22160" windowWidth="34240" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
+    <workbookView xWindow="-21040" yWindow="-23240" windowWidth="34240" windowHeight="17500" xr2:uid="{8DC9DE24-CECC-4748-B90E-52259685D84E}"/>
   </bookViews>
   <sheets>
     <sheet name="AWS Services" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="323">
   <si>
     <t>CloudEndure Disaster Recovery</t>
   </si>
@@ -367,9 +367,6 @@
     <t>IoT Greengrass</t>
   </si>
   <si>
-    <t>Key Management Service</t>
-  </si>
-  <si>
     <t>Lake Formation</t>
   </si>
   <si>
@@ -983,6 +980,24 @@
   </si>
   <si>
     <t>Thinkbox Stoke</t>
+  </si>
+  <si>
+    <t>Key Management Service (KMS)</t>
+  </si>
+  <si>
+    <t>Storage Gateway - Tape Gateway</t>
+  </si>
+  <si>
+    <t>Storage Gateway - File Gateway - S3</t>
+  </si>
+  <si>
+    <t>Storage Gateway - File Gateway - FSx</t>
+  </si>
+  <si>
+    <t>Storage Gateway - Volume Gateway - Cached</t>
+  </si>
+  <si>
+    <t>Storage Gateway - Volume Gateway - Stored</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1199,12 +1214,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1360,6 +1416,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1369,11 +1434,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1F8901"/>
       <color rgb="FFD15D16"/>
       <color rgb="FFC00A17"/>
       <color rgb="FF2F29AE"/>
       <color rgb="FF1D7C6A"/>
-      <color rgb="FF1F8901"/>
       <color rgb="FF4F28AC"/>
       <color rgb="FFB1094E"/>
       <color rgb="FF208A01"/>
@@ -1689,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00D01EA-5C3E-F64B-8B7F-2EE6141A689A}">
-  <dimension ref="A1:Q275"/>
+  <dimension ref="A1:Q280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
+      <pane ySplit="1" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1719,53 +1784,53 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G1" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="51" t="s">
+      <c r="L1" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="M1" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="L1" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="M1" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="N1" s="53" t="s">
+      <c r="P1" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="53" t="s">
         <v>236</v>
-      </c>
-      <c r="O1" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="P1" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q1" s="53" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -1807,7 +1872,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
@@ -1832,7 +1897,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45"/>
@@ -1863,7 +1928,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -1890,7 +1955,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45"/>
@@ -1942,7 +2007,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45"/>
@@ -1969,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
@@ -1994,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
@@ -2019,7 +2084,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
@@ -2046,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45"/>
@@ -2071,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
@@ -2096,7 +2161,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45"/>
@@ -2129,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -2162,7 +2227,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45"/>
@@ -2195,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
@@ -2222,7 +2287,7 @@
         <v>52</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -2305,7 +2370,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>52</v>
@@ -2330,7 +2395,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>6</v>
@@ -2355,7 +2420,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>52</v>
@@ -2380,13 +2445,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
@@ -2405,7 +2470,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>52</v>
@@ -2430,13 +2495,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="45"/>
       <c r="E26" s="45"/>
@@ -2477,13 +2542,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
@@ -2524,13 +2589,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
@@ -2549,13 +2614,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" s="45"/>
       <c r="E29" s="45"/>
@@ -2580,13 +2645,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="D30" s="45"/>
       <c r="E30" s="45"/>
@@ -2607,11 +2672,11 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
@@ -2630,7 +2695,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B32" s="38" t="s">
         <v>6</v>
@@ -2655,7 +2720,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B33" s="38" t="s">
         <v>52</v>
@@ -2680,13 +2745,13 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B34" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D34" s="45"/>
       <c r="E34" s="45"/>
@@ -2705,13 +2770,13 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
@@ -2730,13 +2795,13 @@
     </row>
     <row r="36" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D36" s="45"/>
       <c r="E36" s="46"/>
@@ -2792,7 +2857,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="45"/>
       <c r="E38" s="45"/>
@@ -2868,7 +2933,7 @@
         <v>52</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" s="45"/>
       <c r="E40" s="45"/>
@@ -3014,7 +3079,7 @@
         <v>6</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44" s="45"/>
       <c r="E44" s="45"/>
@@ -3062,7 +3127,7 @@
         <v>6</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
@@ -3081,13 +3146,13 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
@@ -3106,13 +3171,13 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
@@ -3131,11 +3196,11 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B49" s="15"/>
       <c r="C49" s="16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
@@ -3154,13 +3219,13 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="16" t="s">
         <v>176</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>177</v>
       </c>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
@@ -3179,13 +3244,13 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
@@ -3204,13 +3269,13 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
@@ -3237,13 +3302,13 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
@@ -3270,7 +3335,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>6</v>
@@ -3301,13 +3366,13 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
@@ -3326,7 +3391,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>6</v>
@@ -3351,11 +3416,11 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
@@ -3374,7 +3439,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>6</v>
@@ -3401,13 +3466,13 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
@@ -3426,13 +3491,13 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
@@ -3453,13 +3518,13 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
@@ -3480,11 +3545,11 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
@@ -3509,13 +3574,13 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
@@ -3534,7 +3599,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>6</v>
@@ -3559,13 +3624,13 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
   